--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133B4D8-4EA2-4806-8881-3079CED6E17D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D259D-6D7B-4896-AD55-1B4718DCD8DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
     <sheet name="Switches_Vanilla" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="SwitchesItemAutoTracking" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="480">
   <si>
     <t>ID</t>
   </si>
@@ -1306,18 +1305,201 @@
   </si>
   <si>
     <t>7efab0</t>
+  </si>
+  <si>
+    <t>Got Prison key</t>
+  </si>
+  <si>
+    <t>Got Diamond Block</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 1 status
+(FF not filled, 00-05 filled with tile)</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 2 status
+(FF not filled, 00-05 filled with tile)</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 3 status
+(FF not filled, 00-05 filled with tile)</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 4 status
+(FF not filled, 00-05 filled with tile)</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 5 status
+(FF not filled, 00-05 filled with tile)</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 6 status 
+(FF not filled, 00-05 filled with tile)</t>
+  </si>
+  <si>
+    <t>Combination 1</t>
+  </si>
+  <si>
+    <t>Combination 2</t>
+  </si>
+  <si>
+    <t>Combination 3</t>
+  </si>
+  <si>
+    <t>Combination 4</t>
+  </si>
+  <si>
+    <t>Combination 5</t>
+  </si>
+  <si>
+    <t>Combination 6</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 1 to 6</t>
+  </si>
+  <si>
+    <t>Prison unlocked</t>
+  </si>
+  <si>
+    <t>Got Rama Statue A</t>
+  </si>
+  <si>
+    <t>Got Rama Statue B</t>
+  </si>
+  <si>
+    <t>Got Magic Dust</t>
+  </si>
+  <si>
+    <t>Got Lola's letter</t>
+  </si>
+  <si>
+    <t>Got Father's Journal</t>
+  </si>
+  <si>
+    <t>Got Teapot</t>
+  </si>
+  <si>
+    <t>Got Necklace</t>
+  </si>
+  <si>
+    <t>Got Elevator key</t>
+  </si>
+  <si>
+    <t>Give Necklace to Lilly</t>
+  </si>
+  <si>
+    <t>Legend :</t>
+  </si>
+  <si>
+    <t>Item gotten</t>
+  </si>
+  <si>
+    <t>Item used</t>
+  </si>
+  <si>
+    <t>Objective reached</t>
+  </si>
+  <si>
+    <t>Objective tag</t>
+  </si>
+  <si>
+    <t>MS 1 needed</t>
+  </si>
+  <si>
+    <t>MS 6 needed</t>
+  </si>
+  <si>
+    <t>MS 5 needed</t>
+  </si>
+  <si>
+    <t>MS 4 needed</t>
+  </si>
+  <si>
+    <t>MS 3 needed</t>
+  </si>
+  <si>
+    <t>MS 2 needed</t>
+  </si>
+  <si>
+    <t>Kara's location</t>
+  </si>
+  <si>
+    <t>Kara saved</t>
+  </si>
+  <si>
+    <t>Ability gotten</t>
+  </si>
+  <si>
+    <t>Red Jewels Collected
+(BCD Format)</t>
+  </si>
+  <si>
+    <t>Herbs Collected</t>
+  </si>
+  <si>
+    <t>Dark Friar Upgrade Status
+(0x00 = no upgrade, 0x01 = explodes on impact,
+0x02 = explodes on button input)</t>
+  </si>
+  <si>
+    <t>Psycho Dash Upgrade Status
+(0x00 =  no upgrade,
+0x01 = upgrade)</t>
+  </si>
+  <si>
+    <t>Ability upgrade</t>
+  </si>
+  <si>
+    <t>Got Mine Key B</t>
+  </si>
+  <si>
+    <t>Used Will</t>
+  </si>
+  <si>
+    <t>Got Mushroom Drops</t>
+  </si>
+  <si>
+    <t>Got Purity Stone</t>
+  </si>
+  <si>
+    <t>Got Crystal Ball</t>
+  </si>
+  <si>
+    <t>Used Gorgon Flower</t>
+  </si>
+  <si>
+    <t>Item AutoTracking - Triggers</t>
+  </si>
+  <si>
+    <t>Tile lighted</t>
+  </si>
+  <si>
+    <t>Given Apple</t>
+  </si>
+  <si>
+    <t>Trigger exists</t>
+  </si>
+  <si>
+    <t>Trigger doesn't exist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1388,8 +1570,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,8 +1686,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2066,14 +2314,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2089,19 +2479,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2110,55 +2500,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2170,13 +2560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2185,22 +2575,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2230,10 +2620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2242,34 +2632,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2311,10 +2701,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2326,229 +2716,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,149 +2866,440 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3065,9 +3647,9 @@
   </sheetPr>
   <dimension ref="A1:P513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3077,8 +3659,9 @@
     <col min="3" max="3" width="8.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="5" customWidth="1"/>
     <col min="5" max="7" width="23.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="11" width="23.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
     <col min="15" max="15" width="9" style="3"/>
@@ -3140,16 +3723,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
       <c r="M2" s="83" t="s">
         <v>7</v>
       </c>
@@ -3167,14 +3750,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
       <c r="M3" s="83" t="s">
         <v>8</v>
       </c>
@@ -3192,28 +3775,28 @@
         <f t="shared" si="1"/>
         <v>16-23</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="170" t="s">
+      <c r="H4" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="87" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="5">
@@ -3236,25 +3819,25 @@
       <c r="D5" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="138" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6">
@@ -3274,28 +3857,28 @@
         <f t="shared" si="1"/>
         <v>32-39</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="176" t="s">
+      <c r="H6" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6">
@@ -3315,28 +3898,28 @@
         <f t="shared" si="1"/>
         <v>40-47</v>
       </c>
-      <c r="D7" s="210" t="s">
+      <c r="D7" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="128" t="s">
+      <c r="H7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="169" t="s">
+      <c r="I7" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="92" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="6">
@@ -3356,28 +3939,28 @@
         <f t="shared" si="1"/>
         <v>48-55</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="179" t="s">
+      <c r="F8" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="G8" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="172" t="s">
+      <c r="H8" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="178" t="s">
+      <c r="I8" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="177" t="s">
+      <c r="J8" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="177" t="s">
+      <c r="K8" s="144" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="6">
@@ -3397,26 +3980,26 @@
         <f t="shared" si="1"/>
         <v>56-63</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="99" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="133"/>
-      <c r="K9" s="125"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="92"/>
       <c r="M9" s="6">
         <v>38</v>
       </c>
@@ -3434,28 +4017,28 @@
         <f t="shared" si="1"/>
         <v>64-71</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="209" t="s">
+      <c r="E10" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="135" t="s">
+      <c r="H10" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="213" t="s">
+      <c r="I10" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="214" t="s">
+      <c r="J10" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="177" t="s">
+      <c r="K10" s="144" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6">
@@ -3475,28 +4058,28 @@
         <f t="shared" si="1"/>
         <v>72-79</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="137" t="s">
+      <c r="H11" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="120" t="s">
+      <c r="I11" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="120" t="s">
+      <c r="J11" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="204" t="s">
+      <c r="K11" s="171" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="6">
@@ -3519,28 +4102,28 @@
         <f t="shared" si="1"/>
         <v>80-87</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="128" t="s">
+      <c r="H12" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="130" t="s">
+      <c r="K12" s="97" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="6">
@@ -3560,28 +4143,28 @@
         <f t="shared" si="1"/>
         <v>88-95</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="180" t="s">
+      <c r="E13" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="177" t="s">
+      <c r="G13" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="203" t="s">
+      <c r="H13" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="193" t="s">
+      <c r="J13" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="140" t="s">
+      <c r="K13" s="107" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="6">
@@ -3601,28 +4184,28 @@
         <f t="shared" si="1"/>
         <v>96-103</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="142" t="s">
+      <c r="E14" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="142" t="s">
+      <c r="G14" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="128" t="s">
+      <c r="H14" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="127" t="s">
+      <c r="J14" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="130" t="s">
+      <c r="K14" s="97" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="6">
@@ -3645,25 +4228,25 @@
       <c r="D15" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="144" t="s">
+      <c r="H15" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="200" t="s">
+      <c r="J15" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="140" t="s">
+      <c r="K15" s="107" t="s">
         <v>93</v>
       </c>
       <c r="M15" s="6">
@@ -3683,28 +4266,28 @@
         <f t="shared" si="1"/>
         <v>112-119</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="142" t="s">
+      <c r="E16" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="142" t="s">
+      <c r="G16" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="144" t="s">
+      <c r="H16" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="140" t="s">
+      <c r="I16" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="140" t="s">
+      <c r="J16" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="177" t="s">
+      <c r="K16" s="144" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="6">
@@ -3724,28 +4307,28 @@
         <f t="shared" si="1"/>
         <v>120-127</v>
       </c>
-      <c r="D17" s="201" t="s">
+      <c r="D17" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="147" t="s">
+      <c r="F17" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="148" t="s">
+      <c r="G17" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="145" t="s">
+      <c r="H17" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="147" t="s">
+      <c r="I17" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="202" t="s">
+      <c r="J17" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="149" t="s">
+      <c r="K17" s="116" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="56">
@@ -3767,28 +4350,28 @@
         <f t="shared" si="1"/>
         <v>128-135</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="178" t="s">
+      <c r="F18" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="142" t="s">
+      <c r="G18" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="151" t="s">
+      <c r="H18" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="212" t="s">
+      <c r="I18" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="130" t="s">
+      <c r="J18" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="130" t="s">
+      <c r="K18" s="97" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="6">
@@ -3808,28 +4391,28 @@
         <f t="shared" si="1"/>
         <v>136-143</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="195" t="s">
+      <c r="E19" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="153" t="s">
+      <c r="G19" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="211" t="s">
+      <c r="H19" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="196" t="s">
+      <c r="I19" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="137" t="s">
+      <c r="J19" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="130" t="s">
+      <c r="K19" s="97" t="s">
         <v>123</v>
       </c>
       <c r="M19" s="6">
@@ -3849,28 +4432,28 @@
         <f t="shared" si="1"/>
         <v>144-151</v>
       </c>
-      <c r="D20" s="216" t="s">
+      <c r="D20" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="181" t="s">
+      <c r="F20" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="155" t="s">
+      <c r="G20" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="144" t="s">
+      <c r="H20" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="123" t="s">
+      <c r="I20" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="140" t="s">
+      <c r="J20" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="142" t="s">
+      <c r="K20" s="109" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
@@ -3890,28 +4473,28 @@
         <f t="shared" si="1"/>
         <v>152-159</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="142" t="s">
+      <c r="E21" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="150" t="s">
+      <c r="F21" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="205" t="s">
+      <c r="H21" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="206" t="s">
+      <c r="I21" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="175" t="s">
+      <c r="J21" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="175" t="s">
+      <c r="K21" s="142" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="6">
@@ -3931,28 +4514,28 @@
         <f t="shared" si="1"/>
         <v>160-167</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="130" t="s">
+      <c r="E22" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="120" t="s">
+      <c r="F22" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="155" t="s">
+      <c r="G22" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="207" t="s">
+      <c r="H22" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="208" t="s">
+      <c r="I22" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="130" t="s">
+      <c r="J22" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="130" t="s">
+      <c r="K22" s="97" t="s">
         <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
@@ -3972,28 +4555,28 @@
         <f t="shared" si="1"/>
         <v>168-175</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="142" t="s">
+      <c r="E23" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="138" t="s">
+      <c r="F23" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="156" t="s">
+      <c r="G23" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="127" t="s">
+      <c r="I23" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="140" t="s">
+      <c r="J23" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="130" t="s">
+      <c r="K23" s="97" t="s">
         <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -4013,28 +4596,28 @@
         <f t="shared" si="1"/>
         <v>176-183</v>
       </c>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="142" t="s">
+      <c r="E24" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="125" t="s">
+      <c r="F24" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="155" t="s">
+      <c r="G24" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="144" t="s">
+      <c r="H24" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="140" t="s">
+      <c r="I24" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="140" t="s">
+      <c r="J24" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="142" t="s">
+      <c r="K24" s="109" t="s">
         <v>163</v>
       </c>
       <c r="M24" s="6" t="s">
@@ -4057,28 +4640,28 @@
         <f t="shared" si="1"/>
         <v>184-191</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="182" t="s">
+      <c r="F25" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="157" t="s">
+      <c r="H25" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="130" t="s">
+      <c r="I25" s="150" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="130" t="s">
+      <c r="J25" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="215" t="s">
+      <c r="K25" s="182" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -4098,28 +4681,28 @@
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="179" t="s">
+      <c r="D26" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="179" t="s">
+      <c r="E26" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="179" t="s">
+      <c r="F26" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="183" t="s">
+      <c r="G26" s="150" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="179" t="s">
+      <c r="I26" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="127" t="s">
+      <c r="J26" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="127" t="s">
+      <c r="K26" s="94" t="s">
         <v>181</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -4139,28 +4722,28 @@
         <f t="shared" si="1"/>
         <v>200-207</v>
       </c>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="171" t="s">
+      <c r="F27" s="138" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="171" t="s">
+      <c r="G27" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="174" t="s">
+      <c r="H27" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="126" t="s">
+      <c r="I27" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="171" t="s">
+      <c r="J27" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="125" t="s">
+      <c r="K27" s="92" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -4180,28 +4763,28 @@
         <f t="shared" si="1"/>
         <v>208-215</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="154" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="171" t="s">
+      <c r="F28" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="158" t="s">
+      <c r="G28" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="157" t="s">
+      <c r="H28" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="126" t="s">
+      <c r="I28" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="130" t="s">
+      <c r="J28" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="142" t="s">
+      <c r="K28" s="109" t="s">
         <v>196</v>
       </c>
       <c r="M28" s="6" t="s">
@@ -4221,28 +4804,28 @@
         <f t="shared" si="1"/>
         <v>216-223</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="98" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="142" t="s">
+      <c r="E29" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F29" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="185" t="s">
+      <c r="G29" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="159" t="s">
+      <c r="H29" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="171" t="s">
+      <c r="I29" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="175" t="s">
+      <c r="J29" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="175" t="s">
+      <c r="K29" s="142" t="s">
         <v>204</v>
       </c>
       <c r="M29" s="83" t="s">
@@ -4262,28 +4845,28 @@
         <f t="shared" si="1"/>
         <v>224-231</v>
       </c>
-      <c r="D30" s="190" t="s">
+      <c r="D30" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="186" t="s">
+      <c r="E30" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="175" t="s">
+      <c r="F30" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="191" t="s">
+      <c r="G30" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="192" t="s">
+      <c r="H30" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="190" t="s">
+      <c r="I30" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="175" t="s">
+      <c r="J30" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="175" t="s">
+      <c r="K30" s="142" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -4303,28 +4886,28 @@
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="189" t="s">
+      <c r="D31" s="156" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="193" t="s">
+      <c r="E31" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="193" t="s">
+      <c r="F31" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="194" t="s">
+      <c r="G31" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="176" t="s">
+      <c r="H31" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="193" t="s">
+      <c r="I31" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="193" t="s">
+      <c r="J31" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="130" t="s">
+      <c r="K31" s="97" t="s">
         <v>221</v>
       </c>
       <c r="M31" s="6" t="s">
@@ -4344,28 +4927,28 @@
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="140" t="s">
+      <c r="D32" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="126" t="s">
+      <c r="E32" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="188" t="s">
+      <c r="F32" s="155" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="159" t="s">
+      <c r="G32" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="124" t="s">
+      <c r="H32" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="127" t="s">
+      <c r="I32" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="130" t="s">
+      <c r="J32" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="130" t="s">
+      <c r="K32" s="97" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="83" t="s">
@@ -4385,26 +4968,26 @@
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="160"/>
-      <c r="E33" s="147" t="s">
+      <c r="D33" s="127"/>
+      <c r="E33" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="197" t="s">
+      <c r="F33" s="164" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="198" t="s">
+      <c r="G33" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="199" t="s">
+      <c r="H33" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="197" t="s">
+      <c r="I33" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="197" t="s">
+      <c r="J33" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="197" t="s">
+      <c r="K33" s="164" t="s">
         <v>237</v>
       </c>
       <c r="M33" s="56" t="s">
@@ -4423,26 +5006,26 @@
         <v>A20</v>
       </c>
       <c r="C34" s="38"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161" t="s">
+      <c r="D34" s="128"/>
+      <c r="E34" s="128" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="161" t="s">
+      <c r="F34" s="128" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="162" t="s">
+      <c r="G34" s="129" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="161" t="s">
+      <c r="H34" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="161" t="s">
+      <c r="I34" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="161" t="s">
+      <c r="J34" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="K34" s="163"/>
+      <c r="K34" s="130"/>
       <c r="M34" s="83" t="s">
         <v>7</v>
       </c>
@@ -4457,26 +5040,26 @@
         <v>A21</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="164" t="s">
+      <c r="D35" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="165" t="s">
+      <c r="E35" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="164" t="s">
+      <c r="F35" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="166" t="s">
+      <c r="G35" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="167" t="s">
+      <c r="H35" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="165" t="s">
+      <c r="I35" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166" t="s">
+      <c r="J35" s="132"/>
+      <c r="K35" s="133" t="s">
         <v>251</v>
       </c>
       <c r="M35" s="83" t="s">
@@ -4493,26 +5076,26 @@
         <v>A22</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="164" t="s">
+      <c r="D36" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="E36" s="165" t="s">
+      <c r="E36" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="165" t="s">
+      <c r="F36" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="166" t="s">
+      <c r="G36" s="133" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="144" t="s">
+      <c r="H36" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="165" t="s">
+      <c r="I36" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166" t="s">
+      <c r="J36" s="132"/>
+      <c r="K36" s="133" t="s">
         <v>258</v>
       </c>
       <c r="M36" s="5">
@@ -4529,26 +5112,26 @@
         <v>A23</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="165"/>
-      <c r="F37" s="127" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="G37" s="166" t="s">
+      <c r="G37" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="H37" s="128" t="s">
+      <c r="H37" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="I37" s="165" t="s">
+      <c r="I37" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="J37" s="165" t="s">
+      <c r="J37" s="132" t="s">
         <v>264</v>
       </c>
-      <c r="K37" s="164" t="s">
+      <c r="K37" s="131" t="s">
         <v>265</v>
       </c>
       <c r="M37" s="6">
@@ -4565,26 +5148,26 @@
         <v>A24</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="165" t="s">
+      <c r="D38" s="131"/>
+      <c r="E38" s="132" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="165" t="s">
+      <c r="F38" s="132" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="166" t="s">
+      <c r="G38" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="H38" s="167" t="s">
+      <c r="H38" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="I38" s="165" t="s">
+      <c r="I38" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="J38" s="165" t="s">
+      <c r="J38" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="K38" s="166"/>
+      <c r="K38" s="133"/>
       <c r="M38" s="6">
         <v>20</v>
       </c>
@@ -4599,24 +5182,24 @@
         <v>A25</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="164" t="s">
+      <c r="D39" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="E39" s="165" t="s">
+      <c r="E39" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="165" t="s">
+      <c r="F39" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="G39" s="166" t="s">
+      <c r="G39" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="167" t="s">
+      <c r="H39" s="134" t="s">
         <v>274</v>
       </c>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="166" t="s">
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="133" t="s">
         <v>271</v>
       </c>
       <c r="M39" s="6">
@@ -4633,28 +5216,28 @@
         <v>A26</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="164" t="s">
+      <c r="D40" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="165" t="s">
+      <c r="E40" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="165" t="s">
+      <c r="F40" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="165" t="s">
+      <c r="G40" s="132" t="s">
         <v>278</v>
       </c>
-      <c r="H40" s="167" t="s">
+      <c r="H40" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="I40" s="165" t="s">
+      <c r="I40" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="J40" s="165" t="s">
+      <c r="J40" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="K40" s="166" t="s">
+      <c r="K40" s="133" t="s">
         <v>282</v>
       </c>
       <c r="M40" s="6">
@@ -4671,26 +5254,26 @@
         <v>A27</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="165" t="s">
+      <c r="D41" s="132" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="165" t="s">
+      <c r="E41" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="F41" s="165" t="s">
+      <c r="F41" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="G41" s="166"/>
-      <c r="H41" s="128" t="s">
+      <c r="G41" s="133"/>
+      <c r="H41" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="165" t="s">
+      <c r="I41" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="J41" s="165" t="s">
+      <c r="J41" s="132" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="166" t="s">
+      <c r="K41" s="133" t="s">
         <v>289</v>
       </c>
       <c r="M41" s="6">
@@ -4707,26 +5290,26 @@
         <v>A28</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="164" t="s">
+      <c r="D42" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="165" t="s">
+      <c r="E42" s="132" t="s">
         <v>291</v>
       </c>
-      <c r="F42" s="165"/>
-      <c r="G42" s="166" t="s">
+      <c r="F42" s="132"/>
+      <c r="G42" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="H42" s="167" t="s">
+      <c r="H42" s="134" t="s">
         <v>293</v>
       </c>
-      <c r="I42" s="165" t="s">
+      <c r="I42" s="132" t="s">
         <v>294</v>
       </c>
-      <c r="J42" s="165" t="s">
+      <c r="J42" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="K42" s="166" t="s">
+      <c r="K42" s="133" t="s">
         <v>296</v>
       </c>
       <c r="M42" s="6">
@@ -4743,28 +5326,28 @@
         <v>A29</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="164" t="s">
+      <c r="D43" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="E43" s="165" t="s">
+      <c r="E43" s="132" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="165" t="s">
+      <c r="F43" s="132" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="168" t="s">
+      <c r="G43" s="135" t="s">
         <v>300</v>
       </c>
-      <c r="H43" s="164" t="s">
+      <c r="H43" s="131" t="s">
         <v>301</v>
       </c>
-      <c r="I43" s="165" t="s">
+      <c r="I43" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="J43" s="165" t="s">
+      <c r="J43" s="132" t="s">
         <v>303</v>
       </c>
-      <c r="K43" s="166"/>
+      <c r="K43" s="133"/>
       <c r="M43" s="6">
         <v>48</v>
       </c>
@@ -4779,20 +5362,20 @@
         <v>A2A</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="167" t="s">
+      <c r="D44" s="131"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="134" t="s">
         <v>304</v>
       </c>
-      <c r="I44" s="165" t="s">
+      <c r="I44" s="132" t="s">
         <v>305</v>
       </c>
-      <c r="J44" s="165" t="s">
+      <c r="J44" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="K44" s="166" t="s">
+      <c r="K44" s="133" t="s">
         <v>307</v>
       </c>
       <c r="M44" s="6">
@@ -4809,18 +5392,18 @@
         <v>A2B</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="164" t="s">
+      <c r="D45" s="131" t="s">
         <v>308</v>
       </c>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="165" t="s">
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132" t="s">
         <v>309</v>
       </c>
-      <c r="K45" s="166"/>
+      <c r="K45" s="133"/>
       <c r="M45" s="6">
         <v>58</v>
       </c>
@@ -9231,16 +9814,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="87" t="s">
+      <c r="D168" s="216" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="87"/>
-      <c r="H168" s="87"/>
-      <c r="I168" s="87"/>
-      <c r="J168" s="87"/>
-      <c r="K168" s="87"/>
+      <c r="E168" s="216"/>
+      <c r="F168" s="216"/>
+      <c r="G168" s="216"/>
+      <c r="H168" s="216"/>
+      <c r="I168" s="216"/>
+      <c r="J168" s="216"/>
+      <c r="K168" s="216"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -9366,16 +9949,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="87" t="s">
+      <c r="D175" s="216" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="87"/>
-      <c r="F175" s="87"/>
-      <c r="G175" s="87"/>
-      <c r="H175" s="87"/>
-      <c r="I175" s="87"/>
-      <c r="J175" s="87"/>
-      <c r="K175" s="87"/>
+      <c r="E175" s="216"/>
+      <c r="F175" s="216"/>
+      <c r="G175" s="216"/>
+      <c r="H175" s="216"/>
+      <c r="I175" s="216"/>
+      <c r="J175" s="216"/>
+      <c r="K175" s="216"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -9428,16 +10011,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="87" t="s">
+      <c r="D178" s="220" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="87"/>
-      <c r="F178" s="87"/>
-      <c r="G178" s="87"/>
-      <c r="H178" s="87"/>
-      <c r="I178" s="87"/>
-      <c r="J178" s="87"/>
-      <c r="K178" s="87"/>
+      <c r="E178" s="216"/>
+      <c r="F178" s="216"/>
+      <c r="G178" s="216"/>
+      <c r="H178" s="216"/>
+      <c r="I178" s="216"/>
+      <c r="J178" s="216"/>
+      <c r="K178" s="216"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -9509,16 +10092,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="88" t="s">
+      <c r="D182" s="200" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="89"/>
-      <c r="F182" s="89"/>
-      <c r="G182" s="89"/>
-      <c r="H182" s="89"/>
-      <c r="I182" s="89"/>
-      <c r="J182" s="89"/>
-      <c r="K182" s="90"/>
+      <c r="E182" s="201"/>
+      <c r="F182" s="201"/>
+      <c r="G182" s="201"/>
+      <c r="H182" s="201"/>
+      <c r="I182" s="201"/>
+      <c r="J182" s="201"/>
+      <c r="K182" s="202"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -9530,16 +10113,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="88" t="s">
+      <c r="D183" s="200" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="89"/>
-      <c r="F183" s="89"/>
-      <c r="G183" s="89"/>
-      <c r="H183" s="89"/>
-      <c r="I183" s="89"/>
-      <c r="J183" s="89"/>
-      <c r="K183" s="90"/>
+      <c r="E183" s="201"/>
+      <c r="F183" s="201"/>
+      <c r="G183" s="201"/>
+      <c r="H183" s="201"/>
+      <c r="I183" s="201"/>
+      <c r="J183" s="201"/>
+      <c r="K183" s="202"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -9551,16 +10134,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="88" t="s">
+      <c r="D184" s="200" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="89"/>
-      <c r="F184" s="89"/>
-      <c r="G184" s="89"/>
-      <c r="H184" s="89"/>
-      <c r="I184" s="89"/>
-      <c r="J184" s="89"/>
-      <c r="K184" s="90"/>
+      <c r="E184" s="201"/>
+      <c r="F184" s="201"/>
+      <c r="G184" s="201"/>
+      <c r="H184" s="201"/>
+      <c r="I184" s="201"/>
+      <c r="J184" s="201"/>
+      <c r="K184" s="202"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -9572,16 +10155,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="88" t="s">
+      <c r="D185" s="200" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="89"/>
-      <c r="F185" s="89"/>
-      <c r="G185" s="89"/>
-      <c r="H185" s="89"/>
-      <c r="I185" s="89"/>
-      <c r="J185" s="89"/>
-      <c r="K185" s="90"/>
+      <c r="E185" s="201"/>
+      <c r="F185" s="201"/>
+      <c r="G185" s="201"/>
+      <c r="H185" s="201"/>
+      <c r="I185" s="201"/>
+      <c r="J185" s="201"/>
+      <c r="K185" s="202"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -9593,16 +10176,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="88" t="s">
+      <c r="D186" s="200" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="89"/>
-      <c r="F186" s="89"/>
-      <c r="G186" s="89"/>
-      <c r="H186" s="89"/>
-      <c r="I186" s="89"/>
-      <c r="J186" s="89"/>
-      <c r="K186" s="90"/>
+      <c r="E186" s="201"/>
+      <c r="F186" s="201"/>
+      <c r="G186" s="201"/>
+      <c r="H186" s="201"/>
+      <c r="I186" s="201"/>
+      <c r="J186" s="201"/>
+      <c r="K186" s="202"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -9614,16 +10197,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="88" t="s">
+      <c r="D187" s="200" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="89"/>
-      <c r="H187" s="89"/>
-      <c r="I187" s="89"/>
-      <c r="J187" s="89"/>
-      <c r="K187" s="90"/>
+      <c r="E187" s="201"/>
+      <c r="F187" s="201"/>
+      <c r="G187" s="201"/>
+      <c r="H187" s="201"/>
+      <c r="I187" s="201"/>
+      <c r="J187" s="201"/>
+      <c r="K187" s="202"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -9635,16 +10218,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="88" t="s">
+      <c r="D188" s="200" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="89"/>
-      <c r="H188" s="89"/>
-      <c r="I188" s="89"/>
-      <c r="J188" s="89"/>
-      <c r="K188" s="90"/>
+      <c r="E188" s="201"/>
+      <c r="F188" s="201"/>
+      <c r="G188" s="201"/>
+      <c r="H188" s="201"/>
+      <c r="I188" s="201"/>
+      <c r="J188" s="201"/>
+      <c r="K188" s="202"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -9656,16 +10239,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="88" t="s">
+      <c r="D189" s="200" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="89"/>
-      <c r="F189" s="89"/>
-      <c r="G189" s="89"/>
-      <c r="H189" s="89"/>
-      <c r="I189" s="89"/>
-      <c r="J189" s="89"/>
-      <c r="K189" s="90"/>
+      <c r="E189" s="201"/>
+      <c r="F189" s="201"/>
+      <c r="G189" s="201"/>
+      <c r="H189" s="201"/>
+      <c r="I189" s="201"/>
+      <c r="J189" s="201"/>
+      <c r="K189" s="202"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -9677,16 +10260,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="88" t="s">
+      <c r="D190" s="200" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="89"/>
-      <c r="F190" s="89"/>
-      <c r="G190" s="89"/>
-      <c r="H190" s="89"/>
-      <c r="I190" s="89"/>
-      <c r="J190" s="89"/>
-      <c r="K190" s="90"/>
+      <c r="E190" s="201"/>
+      <c r="F190" s="201"/>
+      <c r="G190" s="201"/>
+      <c r="H190" s="201"/>
+      <c r="I190" s="201"/>
+      <c r="J190" s="201"/>
+      <c r="K190" s="202"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -9698,16 +10281,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="88" t="s">
+      <c r="D191" s="200" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="89"/>
-      <c r="F191" s="89"/>
-      <c r="G191" s="89"/>
-      <c r="H191" s="89"/>
-      <c r="I191" s="89"/>
-      <c r="J191" s="89"/>
-      <c r="K191" s="90"/>
+      <c r="E191" s="201"/>
+      <c r="F191" s="201"/>
+      <c r="G191" s="201"/>
+      <c r="H191" s="201"/>
+      <c r="I191" s="201"/>
+      <c r="J191" s="201"/>
+      <c r="K191" s="202"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -9719,16 +10302,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="88" t="s">
+      <c r="D192" s="200" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="89"/>
-      <c r="F192" s="89"/>
-      <c r="G192" s="89"/>
-      <c r="H192" s="89"/>
-      <c r="I192" s="89"/>
-      <c r="J192" s="89"/>
-      <c r="K192" s="90"/>
+      <c r="E192" s="201"/>
+      <c r="F192" s="201"/>
+      <c r="G192" s="201"/>
+      <c r="H192" s="201"/>
+      <c r="I192" s="201"/>
+      <c r="J192" s="201"/>
+      <c r="K192" s="202"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -9740,16 +10323,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="91" t="s">
+      <c r="D193" s="213" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="92"/>
-      <c r="F193" s="92"/>
-      <c r="G193" s="92"/>
-      <c r="H193" s="92"/>
-      <c r="I193" s="92"/>
-      <c r="J193" s="92"/>
-      <c r="K193" s="93"/>
+      <c r="E193" s="214"/>
+      <c r="F193" s="214"/>
+      <c r="G193" s="214"/>
+      <c r="H193" s="214"/>
+      <c r="I193" s="214"/>
+      <c r="J193" s="214"/>
+      <c r="K193" s="215"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -9764,16 +10347,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="94" t="s">
+      <c r="D194" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="95"/>
-      <c r="F194" s="95"/>
-      <c r="G194" s="95"/>
-      <c r="H194" s="95"/>
-      <c r="I194" s="95"/>
-      <c r="J194" s="95"/>
-      <c r="K194" s="96"/>
+      <c r="E194" s="188"/>
+      <c r="F194" s="188"/>
+      <c r="G194" s="188"/>
+      <c r="H194" s="188"/>
+      <c r="I194" s="188"/>
+      <c r="J194" s="188"/>
+      <c r="K194" s="196"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -9785,16 +10368,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="88" t="s">
+      <c r="D195" s="200" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="89"/>
-      <c r="F195" s="89"/>
-      <c r="G195" s="89"/>
-      <c r="H195" s="89"/>
-      <c r="I195" s="89"/>
-      <c r="J195" s="89"/>
-      <c r="K195" s="90"/>
+      <c r="E195" s="201"/>
+      <c r="F195" s="201"/>
+      <c r="G195" s="201"/>
+      <c r="H195" s="201"/>
+      <c r="I195" s="201"/>
+      <c r="J195" s="201"/>
+      <c r="K195" s="202"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -9806,16 +10389,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="88" t="s">
+      <c r="D196" s="200" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="89"/>
-      <c r="F196" s="89"/>
-      <c r="G196" s="89"/>
-      <c r="H196" s="89"/>
-      <c r="I196" s="89"/>
-      <c r="J196" s="89"/>
-      <c r="K196" s="90"/>
+      <c r="E196" s="201"/>
+      <c r="F196" s="201"/>
+      <c r="G196" s="201"/>
+      <c r="H196" s="201"/>
+      <c r="I196" s="201"/>
+      <c r="J196" s="201"/>
+      <c r="K196" s="202"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -9827,16 +10410,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="88" t="s">
+      <c r="D197" s="200" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="89"/>
-      <c r="F197" s="89"/>
-      <c r="G197" s="89"/>
-      <c r="H197" s="89"/>
-      <c r="I197" s="89"/>
-      <c r="J197" s="89"/>
-      <c r="K197" s="90"/>
+      <c r="E197" s="201"/>
+      <c r="F197" s="201"/>
+      <c r="G197" s="201"/>
+      <c r="H197" s="201"/>
+      <c r="I197" s="201"/>
+      <c r="J197" s="201"/>
+      <c r="K197" s="202"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -9848,16 +10431,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="88" t="s">
+      <c r="D198" s="200" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="89"/>
-      <c r="F198" s="89"/>
-      <c r="G198" s="89"/>
-      <c r="H198" s="89"/>
-      <c r="I198" s="89"/>
-      <c r="J198" s="89"/>
-      <c r="K198" s="90"/>
+      <c r="E198" s="201"/>
+      <c r="F198" s="201"/>
+      <c r="G198" s="201"/>
+      <c r="H198" s="201"/>
+      <c r="I198" s="201"/>
+      <c r="J198" s="201"/>
+      <c r="K198" s="202"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -9888,16 +10471,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="88" t="s">
+      <c r="D200" s="200" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="89"/>
-      <c r="F200" s="89"/>
-      <c r="G200" s="89"/>
-      <c r="H200" s="89"/>
-      <c r="I200" s="89"/>
-      <c r="J200" s="89"/>
-      <c r="K200" s="90"/>
+      <c r="E200" s="201"/>
+      <c r="F200" s="201"/>
+      <c r="G200" s="201"/>
+      <c r="H200" s="201"/>
+      <c r="I200" s="201"/>
+      <c r="J200" s="201"/>
+      <c r="K200" s="202"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -9928,16 +10511,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="117" t="s">
+      <c r="D202" s="206" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="118"/>
-      <c r="F202" s="118"/>
-      <c r="G202" s="118"/>
-      <c r="H202" s="118"/>
-      <c r="I202" s="118"/>
-      <c r="J202" s="118"/>
-      <c r="K202" s="119"/>
+      <c r="E202" s="207"/>
+      <c r="F202" s="207"/>
+      <c r="G202" s="207"/>
+      <c r="H202" s="207"/>
+      <c r="I202" s="207"/>
+      <c r="J202" s="207"/>
+      <c r="K202" s="208"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -9968,16 +10551,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="88" t="s">
+      <c r="D204" s="200" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="89"/>
-      <c r="F204" s="89"/>
-      <c r="G204" s="89"/>
-      <c r="H204" s="89"/>
-      <c r="I204" s="89"/>
-      <c r="J204" s="89"/>
-      <c r="K204" s="90"/>
+      <c r="E204" s="201"/>
+      <c r="F204" s="201"/>
+      <c r="G204" s="201"/>
+      <c r="H204" s="201"/>
+      <c r="I204" s="201"/>
+      <c r="J204" s="201"/>
+      <c r="K204" s="202"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -10008,16 +10591,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="88" t="s">
+      <c r="D206" s="200" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="89"/>
-      <c r="F206" s="89"/>
-      <c r="G206" s="89"/>
-      <c r="H206" s="89"/>
-      <c r="I206" s="89"/>
-      <c r="J206" s="89"/>
-      <c r="K206" s="90"/>
+      <c r="E206" s="201"/>
+      <c r="F206" s="201"/>
+      <c r="G206" s="201"/>
+      <c r="H206" s="201"/>
+      <c r="I206" s="201"/>
+      <c r="J206" s="201"/>
+      <c r="K206" s="202"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -10048,16 +10631,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="88" t="s">
+      <c r="D208" s="200" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="89"/>
-      <c r="F208" s="89"/>
-      <c r="G208" s="89"/>
-      <c r="H208" s="89"/>
-      <c r="I208" s="89"/>
-      <c r="J208" s="89"/>
-      <c r="K208" s="90"/>
+      <c r="E208" s="201"/>
+      <c r="F208" s="201"/>
+      <c r="G208" s="201"/>
+      <c r="H208" s="201"/>
+      <c r="I208" s="201"/>
+      <c r="J208" s="201"/>
+      <c r="K208" s="202"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -10091,16 +10674,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="94" t="s">
+      <c r="D210" s="195" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="95"/>
-      <c r="F210" s="95"/>
-      <c r="G210" s="95"/>
-      <c r="H210" s="95"/>
-      <c r="I210" s="95"/>
-      <c r="J210" s="95"/>
-      <c r="K210" s="96"/>
+      <c r="E210" s="188"/>
+      <c r="F210" s="188"/>
+      <c r="G210" s="188"/>
+      <c r="H210" s="188"/>
+      <c r="I210" s="188"/>
+      <c r="J210" s="188"/>
+      <c r="K210" s="196"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -10169,16 +10752,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="88" t="s">
+      <c r="D214" s="200" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="89"/>
-      <c r="F214" s="89"/>
-      <c r="G214" s="89"/>
-      <c r="H214" s="89"/>
-      <c r="I214" s="89"/>
-      <c r="J214" s="89"/>
-      <c r="K214" s="90"/>
+      <c r="E214" s="201"/>
+      <c r="F214" s="201"/>
+      <c r="G214" s="201"/>
+      <c r="H214" s="201"/>
+      <c r="I214" s="201"/>
+      <c r="J214" s="201"/>
+      <c r="K214" s="202"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -10209,16 +10792,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="108" t="s">
+      <c r="D216" s="193" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="100"/>
-      <c r="F216" s="100"/>
-      <c r="G216" s="100"/>
-      <c r="H216" s="100"/>
-      <c r="I216" s="100"/>
-      <c r="J216" s="100"/>
-      <c r="K216" s="109"/>
+      <c r="E216" s="185"/>
+      <c r="F216" s="185"/>
+      <c r="G216" s="185"/>
+      <c r="H216" s="185"/>
+      <c r="I216" s="185"/>
+      <c r="J216" s="185"/>
+      <c r="K216" s="194"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -10230,14 +10813,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="94"/>
-      <c r="E217" s="95"/>
-      <c r="F217" s="95"/>
-      <c r="G217" s="95"/>
-      <c r="H217" s="95"/>
-      <c r="I217" s="95"/>
-      <c r="J217" s="95"/>
-      <c r="K217" s="96"/>
+      <c r="D217" s="195"/>
+      <c r="E217" s="188"/>
+      <c r="F217" s="188"/>
+      <c r="G217" s="188"/>
+      <c r="H217" s="188"/>
+      <c r="I217" s="188"/>
+      <c r="J217" s="188"/>
+      <c r="K217" s="196"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -10249,16 +10832,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="108" t="s">
+      <c r="D218" s="193" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="100"/>
-      <c r="F218" s="100"/>
-      <c r="G218" s="100"/>
-      <c r="H218" s="100"/>
-      <c r="I218" s="100"/>
-      <c r="J218" s="100"/>
-      <c r="K218" s="109"/>
+      <c r="E218" s="185"/>
+      <c r="F218" s="185"/>
+      <c r="G218" s="185"/>
+      <c r="H218" s="185"/>
+      <c r="I218" s="185"/>
+      <c r="J218" s="185"/>
+      <c r="K218" s="194"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -10270,14 +10853,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="94"/>
-      <c r="E219" s="95"/>
-      <c r="F219" s="95"/>
-      <c r="G219" s="95"/>
-      <c r="H219" s="95"/>
-      <c r="I219" s="95"/>
-      <c r="J219" s="95"/>
-      <c r="K219" s="96"/>
+      <c r="D219" s="195"/>
+      <c r="E219" s="188"/>
+      <c r="F219" s="188"/>
+      <c r="G219" s="188"/>
+      <c r="H219" s="188"/>
+      <c r="I219" s="188"/>
+      <c r="J219" s="188"/>
+      <c r="K219" s="196"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -10289,16 +10872,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="108" t="s">
+      <c r="D220" s="193" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="100"/>
-      <c r="F220" s="100"/>
-      <c r="G220" s="100"/>
-      <c r="H220" s="100"/>
-      <c r="I220" s="100"/>
-      <c r="J220" s="100"/>
-      <c r="K220" s="109"/>
+      <c r="E220" s="185"/>
+      <c r="F220" s="185"/>
+      <c r="G220" s="185"/>
+      <c r="H220" s="185"/>
+      <c r="I220" s="185"/>
+      <c r="J220" s="185"/>
+      <c r="K220" s="194"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -10310,14 +10893,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="94"/>
-      <c r="E221" s="95"/>
-      <c r="F221" s="95"/>
-      <c r="G221" s="95"/>
-      <c r="H221" s="95"/>
-      <c r="I221" s="95"/>
-      <c r="J221" s="95"/>
-      <c r="K221" s="96"/>
+      <c r="D221" s="195"/>
+      <c r="E221" s="188"/>
+      <c r="F221" s="188"/>
+      <c r="G221" s="188"/>
+      <c r="H221" s="188"/>
+      <c r="I221" s="188"/>
+      <c r="J221" s="188"/>
+      <c r="K221" s="196"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -10329,16 +10912,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="88" t="s">
+      <c r="D222" s="200" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="89"/>
-      <c r="F222" s="89"/>
-      <c r="G222" s="89"/>
-      <c r="H222" s="89"/>
-      <c r="I222" s="89"/>
-      <c r="J222" s="89"/>
-      <c r="K222" s="90"/>
+      <c r="E222" s="201"/>
+      <c r="F222" s="201"/>
+      <c r="G222" s="201"/>
+      <c r="H222" s="201"/>
+      <c r="I222" s="201"/>
+      <c r="J222" s="201"/>
+      <c r="K222" s="202"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -10369,16 +10952,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="88" t="s">
+      <c r="D224" s="200" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="89"/>
-      <c r="F224" s="89"/>
-      <c r="G224" s="89"/>
-      <c r="H224" s="89"/>
-      <c r="I224" s="89"/>
-      <c r="J224" s="89"/>
-      <c r="K224" s="90"/>
+      <c r="E224" s="201"/>
+      <c r="F224" s="201"/>
+      <c r="G224" s="201"/>
+      <c r="H224" s="201"/>
+      <c r="I224" s="201"/>
+      <c r="J224" s="201"/>
+      <c r="K224" s="202"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -10412,16 +10995,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="114" t="s">
+      <c r="D226" s="203" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="115"/>
-      <c r="F226" s="115"/>
-      <c r="G226" s="115"/>
-      <c r="H226" s="115"/>
-      <c r="I226" s="115"/>
-      <c r="J226" s="115"/>
-      <c r="K226" s="116"/>
+      <c r="E226" s="204"/>
+      <c r="F226" s="204"/>
+      <c r="G226" s="204"/>
+      <c r="H226" s="204"/>
+      <c r="I226" s="204"/>
+      <c r="J226" s="204"/>
+      <c r="K226" s="205"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -10566,16 +11149,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="112" t="s">
+      <c r="D234" s="197" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="98"/>
-      <c r="F234" s="98"/>
-      <c r="G234" s="98"/>
-      <c r="H234" s="98"/>
-      <c r="I234" s="98"/>
-      <c r="J234" s="98"/>
-      <c r="K234" s="113"/>
+      <c r="E234" s="198"/>
+      <c r="F234" s="198"/>
+      <c r="G234" s="198"/>
+      <c r="H234" s="198"/>
+      <c r="I234" s="198"/>
+      <c r="J234" s="198"/>
+      <c r="K234" s="199"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -10644,16 +11227,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="104" t="s">
+      <c r="D238" s="184" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="100"/>
-      <c r="F238" s="100"/>
-      <c r="G238" s="100"/>
-      <c r="H238" s="100"/>
-      <c r="I238" s="100"/>
-      <c r="J238" s="100"/>
-      <c r="K238" s="101"/>
+      <c r="E238" s="185"/>
+      <c r="F238" s="185"/>
+      <c r="G238" s="185"/>
+      <c r="H238" s="185"/>
+      <c r="I238" s="185"/>
+      <c r="J238" s="185"/>
+      <c r="K238" s="186"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -10665,14 +11248,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="110"/>
-      <c r="E239" s="95"/>
-      <c r="F239" s="95"/>
-      <c r="G239" s="95"/>
-      <c r="H239" s="95"/>
-      <c r="I239" s="95"/>
-      <c r="J239" s="95"/>
-      <c r="K239" s="111"/>
+      <c r="D239" s="187"/>
+      <c r="E239" s="188"/>
+      <c r="F239" s="188"/>
+      <c r="G239" s="188"/>
+      <c r="H239" s="188"/>
+      <c r="I239" s="188"/>
+      <c r="J239" s="188"/>
+      <c r="K239" s="189"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -10684,16 +11267,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="100" t="s">
+      <c r="D240" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="100"/>
-      <c r="F240" s="100"/>
-      <c r="G240" s="100"/>
-      <c r="H240" s="100"/>
-      <c r="I240" s="100"/>
-      <c r="J240" s="100"/>
-      <c r="K240" s="101"/>
+      <c r="E240" s="185"/>
+      <c r="F240" s="185"/>
+      <c r="G240" s="185"/>
+      <c r="H240" s="185"/>
+      <c r="I240" s="185"/>
+      <c r="J240" s="185"/>
+      <c r="K240" s="186"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -10705,14 +11288,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="102"/>
-      <c r="E241" s="102"/>
-      <c r="F241" s="102"/>
-      <c r="G241" s="102"/>
-      <c r="H241" s="102"/>
-      <c r="I241" s="102"/>
-      <c r="J241" s="102"/>
-      <c r="K241" s="103"/>
+      <c r="D241" s="211"/>
+      <c r="E241" s="211"/>
+      <c r="F241" s="211"/>
+      <c r="G241" s="211"/>
+      <c r="H241" s="211"/>
+      <c r="I241" s="211"/>
+      <c r="J241" s="211"/>
+      <c r="K241" s="212"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -10903,16 +11486,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="97" t="s">
+      <c r="D250" s="209" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="98"/>
-      <c r="F250" s="98"/>
-      <c r="G250" s="98"/>
-      <c r="H250" s="98"/>
-      <c r="I250" s="98"/>
-      <c r="J250" s="98"/>
-      <c r="K250" s="99"/>
+      <c r="E250" s="198"/>
+      <c r="F250" s="198"/>
+      <c r="G250" s="198"/>
+      <c r="H250" s="198"/>
+      <c r="I250" s="198"/>
+      <c r="J250" s="198"/>
+      <c r="K250" s="210"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -11481,16 +12064,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="88" t="s">
+      <c r="D280" s="221" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="89"/>
-      <c r="F280" s="89"/>
-      <c r="G280" s="89"/>
-      <c r="H280" s="89"/>
-      <c r="I280" s="89"/>
-      <c r="J280" s="89"/>
-      <c r="K280" s="90"/>
+      <c r="E280" s="201"/>
+      <c r="F280" s="201"/>
+      <c r="G280" s="201"/>
+      <c r="H280" s="201"/>
+      <c r="I280" s="201"/>
+      <c r="J280" s="201"/>
+      <c r="K280" s="202"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -11597,16 +12180,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="88" t="s">
+      <c r="D286" s="221" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="89"/>
-      <c r="F286" s="89"/>
-      <c r="G286" s="89"/>
-      <c r="H286" s="89"/>
-      <c r="I286" s="89"/>
-      <c r="J286" s="89"/>
-      <c r="K286" s="90"/>
+      <c r="E286" s="201"/>
+      <c r="F286" s="201"/>
+      <c r="G286" s="201"/>
+      <c r="H286" s="201"/>
+      <c r="I286" s="201"/>
+      <c r="J286" s="201"/>
+      <c r="K286" s="202"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -11794,16 +12377,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="88" t="s">
+      <c r="D296" s="200" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="89"/>
-      <c r="F296" s="89"/>
-      <c r="G296" s="89"/>
-      <c r="H296" s="89"/>
-      <c r="I296" s="89"/>
-      <c r="J296" s="89"/>
-      <c r="K296" s="90"/>
+      <c r="E296" s="201"/>
+      <c r="F296" s="201"/>
+      <c r="G296" s="201"/>
+      <c r="H296" s="201"/>
+      <c r="I296" s="201"/>
+      <c r="J296" s="201"/>
+      <c r="K296" s="202"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -11834,16 +12417,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="104" t="s">
+      <c r="D298" s="184" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="100"/>
-      <c r="F298" s="100"/>
-      <c r="G298" s="100"/>
-      <c r="H298" s="100"/>
-      <c r="I298" s="100"/>
-      <c r="J298" s="100"/>
-      <c r="K298" s="101"/>
+      <c r="E298" s="185"/>
+      <c r="F298" s="185"/>
+      <c r="G298" s="185"/>
+      <c r="H298" s="185"/>
+      <c r="I298" s="185"/>
+      <c r="J298" s="185"/>
+      <c r="K298" s="186"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -11855,14 +12438,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="110"/>
-      <c r="E299" s="95"/>
-      <c r="F299" s="95"/>
-      <c r="G299" s="95"/>
-      <c r="H299" s="95"/>
-      <c r="I299" s="95"/>
-      <c r="J299" s="95"/>
-      <c r="K299" s="111"/>
+      <c r="D299" s="187"/>
+      <c r="E299" s="188"/>
+      <c r="F299" s="188"/>
+      <c r="G299" s="188"/>
+      <c r="H299" s="188"/>
+      <c r="I299" s="188"/>
+      <c r="J299" s="188"/>
+      <c r="K299" s="189"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -11874,16 +12457,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="104" t="s">
+      <c r="D300" s="184" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="100"/>
-      <c r="F300" s="100"/>
-      <c r="G300" s="100"/>
-      <c r="H300" s="100"/>
-      <c r="I300" s="100"/>
-      <c r="J300" s="100"/>
-      <c r="K300" s="101"/>
+      <c r="E300" s="185"/>
+      <c r="F300" s="185"/>
+      <c r="G300" s="185"/>
+      <c r="H300" s="185"/>
+      <c r="I300" s="185"/>
+      <c r="J300" s="185"/>
+      <c r="K300" s="186"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -11895,14 +12478,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="110"/>
-      <c r="E301" s="95"/>
-      <c r="F301" s="95"/>
-      <c r="G301" s="95"/>
-      <c r="H301" s="95"/>
-      <c r="I301" s="95"/>
-      <c r="J301" s="95"/>
-      <c r="K301" s="111"/>
+      <c r="D301" s="187"/>
+      <c r="E301" s="188"/>
+      <c r="F301" s="188"/>
+      <c r="G301" s="188"/>
+      <c r="H301" s="188"/>
+      <c r="I301" s="188"/>
+      <c r="J301" s="188"/>
+      <c r="K301" s="189"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -11914,16 +12497,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="104" t="s">
+      <c r="D302" s="184" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="100"/>
-      <c r="F302" s="100"/>
-      <c r="G302" s="100"/>
-      <c r="H302" s="100"/>
-      <c r="I302" s="100"/>
-      <c r="J302" s="100"/>
-      <c r="K302" s="101"/>
+      <c r="E302" s="185"/>
+      <c r="F302" s="185"/>
+      <c r="G302" s="185"/>
+      <c r="H302" s="185"/>
+      <c r="I302" s="185"/>
+      <c r="J302" s="185"/>
+      <c r="K302" s="186"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -11935,14 +12518,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="110"/>
-      <c r="E303" s="95"/>
-      <c r="F303" s="95"/>
-      <c r="G303" s="95"/>
-      <c r="H303" s="95"/>
-      <c r="I303" s="95"/>
-      <c r="J303" s="95"/>
-      <c r="K303" s="111"/>
+      <c r="D303" s="187"/>
+      <c r="E303" s="188"/>
+      <c r="F303" s="188"/>
+      <c r="G303" s="188"/>
+      <c r="H303" s="188"/>
+      <c r="I303" s="188"/>
+      <c r="J303" s="188"/>
+      <c r="K303" s="189"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -11954,16 +12537,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="104" t="s">
+      <c r="D304" s="184" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="100"/>
-      <c r="F304" s="100"/>
-      <c r="G304" s="100"/>
-      <c r="H304" s="100"/>
-      <c r="I304" s="100"/>
-      <c r="J304" s="100"/>
-      <c r="K304" s="101"/>
+      <c r="E304" s="185"/>
+      <c r="F304" s="185"/>
+      <c r="G304" s="185"/>
+      <c r="H304" s="185"/>
+      <c r="I304" s="185"/>
+      <c r="J304" s="185"/>
+      <c r="K304" s="186"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -11975,14 +12558,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="110"/>
-      <c r="E305" s="95"/>
-      <c r="F305" s="95"/>
-      <c r="G305" s="95"/>
-      <c r="H305" s="95"/>
-      <c r="I305" s="95"/>
-      <c r="J305" s="95"/>
-      <c r="K305" s="111"/>
+      <c r="D305" s="187"/>
+      <c r="E305" s="188"/>
+      <c r="F305" s="188"/>
+      <c r="G305" s="188"/>
+      <c r="H305" s="188"/>
+      <c r="I305" s="188"/>
+      <c r="J305" s="188"/>
+      <c r="K305" s="189"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -11997,16 +12580,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="104" t="s">
+      <c r="D306" s="184" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="100"/>
-      <c r="F306" s="100"/>
-      <c r="G306" s="100"/>
-      <c r="H306" s="100"/>
-      <c r="I306" s="100"/>
-      <c r="J306" s="100"/>
-      <c r="K306" s="101"/>
+      <c r="E306" s="185"/>
+      <c r="F306" s="185"/>
+      <c r="G306" s="185"/>
+      <c r="H306" s="185"/>
+      <c r="I306" s="185"/>
+      <c r="J306" s="185"/>
+      <c r="K306" s="186"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -12018,14 +12601,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="110"/>
-      <c r="E307" s="95"/>
-      <c r="F307" s="95"/>
-      <c r="G307" s="95"/>
-      <c r="H307" s="95"/>
-      <c r="I307" s="95"/>
-      <c r="J307" s="95"/>
-      <c r="K307" s="111"/>
+      <c r="D307" s="187"/>
+      <c r="E307" s="188"/>
+      <c r="F307" s="188"/>
+      <c r="G307" s="188"/>
+      <c r="H307" s="188"/>
+      <c r="I307" s="188"/>
+      <c r="J307" s="188"/>
+      <c r="K307" s="189"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -12037,16 +12620,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="104" t="s">
+      <c r="D308" s="184" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="100"/>
-      <c r="F308" s="100"/>
-      <c r="G308" s="100"/>
-      <c r="H308" s="100"/>
-      <c r="I308" s="100"/>
-      <c r="J308" s="100"/>
-      <c r="K308" s="101"/>
+      <c r="E308" s="185"/>
+      <c r="F308" s="185"/>
+      <c r="G308" s="185"/>
+      <c r="H308" s="185"/>
+      <c r="I308" s="185"/>
+      <c r="J308" s="185"/>
+      <c r="K308" s="186"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -12058,14 +12641,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="110"/>
-      <c r="E309" s="95"/>
-      <c r="F309" s="95"/>
-      <c r="G309" s="95"/>
-      <c r="H309" s="95"/>
-      <c r="I309" s="95"/>
-      <c r="J309" s="95"/>
-      <c r="K309" s="111"/>
+      <c r="D309" s="187"/>
+      <c r="E309" s="188"/>
+      <c r="F309" s="188"/>
+      <c r="G309" s="188"/>
+      <c r="H309" s="188"/>
+      <c r="I309" s="188"/>
+      <c r="J309" s="188"/>
+      <c r="K309" s="189"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -15945,12 +16528,31 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -15967,31 +16569,12 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -16077,16 +16660,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -16108,14 +16691,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="107"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="192"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -22364,16 +22947,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="87" t="s">
+      <c r="D178" s="216" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="87"/>
-      <c r="F178" s="87"/>
-      <c r="G178" s="87"/>
-      <c r="H178" s="87"/>
-      <c r="I178" s="87"/>
-      <c r="J178" s="87"/>
-      <c r="K178" s="87"/>
+      <c r="E178" s="216"/>
+      <c r="F178" s="216"/>
+      <c r="G178" s="216"/>
+      <c r="H178" s="216"/>
+      <c r="I178" s="216"/>
+      <c r="J178" s="216"/>
+      <c r="K178" s="216"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -22442,16 +23025,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="88" t="s">
+      <c r="D182" s="200" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="89"/>
-      <c r="F182" s="89"/>
-      <c r="G182" s="89"/>
-      <c r="H182" s="89"/>
-      <c r="I182" s="89"/>
-      <c r="J182" s="89"/>
-      <c r="K182" s="90"/>
+      <c r="E182" s="201"/>
+      <c r="F182" s="201"/>
+      <c r="G182" s="201"/>
+      <c r="H182" s="201"/>
+      <c r="I182" s="201"/>
+      <c r="J182" s="201"/>
+      <c r="K182" s="202"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -22463,16 +23046,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="88" t="s">
+      <c r="D183" s="200" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="89"/>
-      <c r="F183" s="89"/>
-      <c r="G183" s="89"/>
-      <c r="H183" s="89"/>
-      <c r="I183" s="89"/>
-      <c r="J183" s="89"/>
-      <c r="K183" s="90"/>
+      <c r="E183" s="201"/>
+      <c r="F183" s="201"/>
+      <c r="G183" s="201"/>
+      <c r="H183" s="201"/>
+      <c r="I183" s="201"/>
+      <c r="J183" s="201"/>
+      <c r="K183" s="202"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -22484,16 +23067,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="88" t="s">
+      <c r="D184" s="200" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="89"/>
-      <c r="F184" s="89"/>
-      <c r="G184" s="89"/>
-      <c r="H184" s="89"/>
-      <c r="I184" s="89"/>
-      <c r="J184" s="89"/>
-      <c r="K184" s="90"/>
+      <c r="E184" s="201"/>
+      <c r="F184" s="201"/>
+      <c r="G184" s="201"/>
+      <c r="H184" s="201"/>
+      <c r="I184" s="201"/>
+      <c r="J184" s="201"/>
+      <c r="K184" s="202"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -22505,16 +23088,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="88" t="s">
+      <c r="D185" s="200" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="89"/>
-      <c r="F185" s="89"/>
-      <c r="G185" s="89"/>
-      <c r="H185" s="89"/>
-      <c r="I185" s="89"/>
-      <c r="J185" s="89"/>
-      <c r="K185" s="90"/>
+      <c r="E185" s="201"/>
+      <c r="F185" s="201"/>
+      <c r="G185" s="201"/>
+      <c r="H185" s="201"/>
+      <c r="I185" s="201"/>
+      <c r="J185" s="201"/>
+      <c r="K185" s="202"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -22526,16 +23109,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="88" t="s">
+      <c r="D186" s="200" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="89"/>
-      <c r="F186" s="89"/>
-      <c r="G186" s="89"/>
-      <c r="H186" s="89"/>
-      <c r="I186" s="89"/>
-      <c r="J186" s="89"/>
-      <c r="K186" s="90"/>
+      <c r="E186" s="201"/>
+      <c r="F186" s="201"/>
+      <c r="G186" s="201"/>
+      <c r="H186" s="201"/>
+      <c r="I186" s="201"/>
+      <c r="J186" s="201"/>
+      <c r="K186" s="202"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -22547,16 +23130,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="88" t="s">
+      <c r="D187" s="200" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="89"/>
-      <c r="H187" s="89"/>
-      <c r="I187" s="89"/>
-      <c r="J187" s="89"/>
-      <c r="K187" s="90"/>
+      <c r="E187" s="201"/>
+      <c r="F187" s="201"/>
+      <c r="G187" s="201"/>
+      <c r="H187" s="201"/>
+      <c r="I187" s="201"/>
+      <c r="J187" s="201"/>
+      <c r="K187" s="202"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -22568,16 +23151,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="88" t="s">
+      <c r="D188" s="200" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="89"/>
-      <c r="H188" s="89"/>
-      <c r="I188" s="89"/>
-      <c r="J188" s="89"/>
-      <c r="K188" s="90"/>
+      <c r="E188" s="201"/>
+      <c r="F188" s="201"/>
+      <c r="G188" s="201"/>
+      <c r="H188" s="201"/>
+      <c r="I188" s="201"/>
+      <c r="J188" s="201"/>
+      <c r="K188" s="202"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -22589,16 +23172,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="88" t="s">
+      <c r="D189" s="200" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="89"/>
-      <c r="F189" s="89"/>
-      <c r="G189" s="89"/>
-      <c r="H189" s="89"/>
-      <c r="I189" s="89"/>
-      <c r="J189" s="89"/>
-      <c r="K189" s="90"/>
+      <c r="E189" s="201"/>
+      <c r="F189" s="201"/>
+      <c r="G189" s="201"/>
+      <c r="H189" s="201"/>
+      <c r="I189" s="201"/>
+      <c r="J189" s="201"/>
+      <c r="K189" s="202"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -22610,16 +23193,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="88" t="s">
+      <c r="D190" s="200" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="89"/>
-      <c r="F190" s="89"/>
-      <c r="G190" s="89"/>
-      <c r="H190" s="89"/>
-      <c r="I190" s="89"/>
-      <c r="J190" s="89"/>
-      <c r="K190" s="90"/>
+      <c r="E190" s="201"/>
+      <c r="F190" s="201"/>
+      <c r="G190" s="201"/>
+      <c r="H190" s="201"/>
+      <c r="I190" s="201"/>
+      <c r="J190" s="201"/>
+      <c r="K190" s="202"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -22631,16 +23214,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="88" t="s">
+      <c r="D191" s="200" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="89"/>
-      <c r="F191" s="89"/>
-      <c r="G191" s="89"/>
-      <c r="H191" s="89"/>
-      <c r="I191" s="89"/>
-      <c r="J191" s="89"/>
-      <c r="K191" s="90"/>
+      <c r="E191" s="201"/>
+      <c r="F191" s="201"/>
+      <c r="G191" s="201"/>
+      <c r="H191" s="201"/>
+      <c r="I191" s="201"/>
+      <c r="J191" s="201"/>
+      <c r="K191" s="202"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -22652,16 +23235,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="88" t="s">
+      <c r="D192" s="200" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="89"/>
-      <c r="F192" s="89"/>
-      <c r="G192" s="89"/>
-      <c r="H192" s="89"/>
-      <c r="I192" s="89"/>
-      <c r="J192" s="89"/>
-      <c r="K192" s="90"/>
+      <c r="E192" s="201"/>
+      <c r="F192" s="201"/>
+      <c r="G192" s="201"/>
+      <c r="H192" s="201"/>
+      <c r="I192" s="201"/>
+      <c r="J192" s="201"/>
+      <c r="K192" s="202"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -22673,16 +23256,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="91" t="s">
+      <c r="D193" s="213" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="92"/>
-      <c r="F193" s="92"/>
-      <c r="G193" s="92"/>
-      <c r="H193" s="92"/>
-      <c r="I193" s="92"/>
-      <c r="J193" s="92"/>
-      <c r="K193" s="93"/>
+      <c r="E193" s="214"/>
+      <c r="F193" s="214"/>
+      <c r="G193" s="214"/>
+      <c r="H193" s="214"/>
+      <c r="I193" s="214"/>
+      <c r="J193" s="214"/>
+      <c r="K193" s="215"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -22697,16 +23280,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="94" t="s">
+      <c r="D194" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="95"/>
-      <c r="F194" s="95"/>
-      <c r="G194" s="95"/>
-      <c r="H194" s="95"/>
-      <c r="I194" s="95"/>
-      <c r="J194" s="95"/>
-      <c r="K194" s="96"/>
+      <c r="E194" s="188"/>
+      <c r="F194" s="188"/>
+      <c r="G194" s="188"/>
+      <c r="H194" s="188"/>
+      <c r="I194" s="188"/>
+      <c r="J194" s="188"/>
+      <c r="K194" s="196"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -22718,16 +23301,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="88" t="s">
+      <c r="D195" s="200" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="89"/>
-      <c r="F195" s="89"/>
-      <c r="G195" s="89"/>
-      <c r="H195" s="89"/>
-      <c r="I195" s="89"/>
-      <c r="J195" s="89"/>
-      <c r="K195" s="90"/>
+      <c r="E195" s="201"/>
+      <c r="F195" s="201"/>
+      <c r="G195" s="201"/>
+      <c r="H195" s="201"/>
+      <c r="I195" s="201"/>
+      <c r="J195" s="201"/>
+      <c r="K195" s="202"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -22739,16 +23322,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="88" t="s">
+      <c r="D196" s="200" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="89"/>
-      <c r="F196" s="89"/>
-      <c r="G196" s="89"/>
-      <c r="H196" s="89"/>
-      <c r="I196" s="89"/>
-      <c r="J196" s="89"/>
-      <c r="K196" s="90"/>
+      <c r="E196" s="201"/>
+      <c r="F196" s="201"/>
+      <c r="G196" s="201"/>
+      <c r="H196" s="201"/>
+      <c r="I196" s="201"/>
+      <c r="J196" s="201"/>
+      <c r="K196" s="202"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -22760,16 +23343,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="88" t="s">
+      <c r="D197" s="200" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="89"/>
-      <c r="F197" s="89"/>
-      <c r="G197" s="89"/>
-      <c r="H197" s="89"/>
-      <c r="I197" s="89"/>
-      <c r="J197" s="89"/>
-      <c r="K197" s="90"/>
+      <c r="E197" s="201"/>
+      <c r="F197" s="201"/>
+      <c r="G197" s="201"/>
+      <c r="H197" s="201"/>
+      <c r="I197" s="201"/>
+      <c r="J197" s="201"/>
+      <c r="K197" s="202"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -22781,16 +23364,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="88" t="s">
+      <c r="D198" s="200" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="89"/>
-      <c r="F198" s="89"/>
-      <c r="G198" s="89"/>
-      <c r="H198" s="89"/>
-      <c r="I198" s="89"/>
-      <c r="J198" s="89"/>
-      <c r="K198" s="90"/>
+      <c r="E198" s="201"/>
+      <c r="F198" s="201"/>
+      <c r="G198" s="201"/>
+      <c r="H198" s="201"/>
+      <c r="I198" s="201"/>
+      <c r="J198" s="201"/>
+      <c r="K198" s="202"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -22821,16 +23404,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="88" t="s">
+      <c r="D200" s="200" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="89"/>
-      <c r="F200" s="89"/>
-      <c r="G200" s="89"/>
-      <c r="H200" s="89"/>
-      <c r="I200" s="89"/>
-      <c r="J200" s="89"/>
-      <c r="K200" s="90"/>
+      <c r="E200" s="201"/>
+      <c r="F200" s="201"/>
+      <c r="G200" s="201"/>
+      <c r="H200" s="201"/>
+      <c r="I200" s="201"/>
+      <c r="J200" s="201"/>
+      <c r="K200" s="202"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -22861,16 +23444,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="117" t="s">
+      <c r="D202" s="206" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="118"/>
-      <c r="F202" s="118"/>
-      <c r="G202" s="118"/>
-      <c r="H202" s="118"/>
-      <c r="I202" s="118"/>
-      <c r="J202" s="118"/>
-      <c r="K202" s="119"/>
+      <c r="E202" s="207"/>
+      <c r="F202" s="207"/>
+      <c r="G202" s="207"/>
+      <c r="H202" s="207"/>
+      <c r="I202" s="207"/>
+      <c r="J202" s="207"/>
+      <c r="K202" s="208"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -22901,16 +23484,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="88" t="s">
+      <c r="D204" s="200" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="89"/>
-      <c r="F204" s="89"/>
-      <c r="G204" s="89"/>
-      <c r="H204" s="89"/>
-      <c r="I204" s="89"/>
-      <c r="J204" s="89"/>
-      <c r="K204" s="90"/>
+      <c r="E204" s="201"/>
+      <c r="F204" s="201"/>
+      <c r="G204" s="201"/>
+      <c r="H204" s="201"/>
+      <c r="I204" s="201"/>
+      <c r="J204" s="201"/>
+      <c r="K204" s="202"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -22941,16 +23524,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="88" t="s">
+      <c r="D206" s="200" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="89"/>
-      <c r="F206" s="89"/>
-      <c r="G206" s="89"/>
-      <c r="H206" s="89"/>
-      <c r="I206" s="89"/>
-      <c r="J206" s="89"/>
-      <c r="K206" s="90"/>
+      <c r="E206" s="201"/>
+      <c r="F206" s="201"/>
+      <c r="G206" s="201"/>
+      <c r="H206" s="201"/>
+      <c r="I206" s="201"/>
+      <c r="J206" s="201"/>
+      <c r="K206" s="202"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -22981,16 +23564,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="88" t="s">
+      <c r="D208" s="200" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="89"/>
-      <c r="F208" s="89"/>
-      <c r="G208" s="89"/>
-      <c r="H208" s="89"/>
-      <c r="I208" s="89"/>
-      <c r="J208" s="89"/>
-      <c r="K208" s="90"/>
+      <c r="E208" s="201"/>
+      <c r="F208" s="201"/>
+      <c r="G208" s="201"/>
+      <c r="H208" s="201"/>
+      <c r="I208" s="201"/>
+      <c r="J208" s="201"/>
+      <c r="K208" s="202"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -23024,16 +23607,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="94" t="s">
+      <c r="D210" s="195" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="95"/>
-      <c r="F210" s="95"/>
-      <c r="G210" s="95"/>
-      <c r="H210" s="95"/>
-      <c r="I210" s="95"/>
-      <c r="J210" s="95"/>
-      <c r="K210" s="96"/>
+      <c r="E210" s="188"/>
+      <c r="F210" s="188"/>
+      <c r="G210" s="188"/>
+      <c r="H210" s="188"/>
+      <c r="I210" s="188"/>
+      <c r="J210" s="188"/>
+      <c r="K210" s="196"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -23102,16 +23685,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="88" t="s">
+      <c r="D214" s="200" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="89"/>
-      <c r="F214" s="89"/>
-      <c r="G214" s="89"/>
-      <c r="H214" s="89"/>
-      <c r="I214" s="89"/>
-      <c r="J214" s="89"/>
-      <c r="K214" s="90"/>
+      <c r="E214" s="201"/>
+      <c r="F214" s="201"/>
+      <c r="G214" s="201"/>
+      <c r="H214" s="201"/>
+      <c r="I214" s="201"/>
+      <c r="J214" s="201"/>
+      <c r="K214" s="202"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -23142,16 +23725,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="108" t="s">
+      <c r="D216" s="193" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="100"/>
-      <c r="F216" s="100"/>
-      <c r="G216" s="100"/>
-      <c r="H216" s="100"/>
-      <c r="I216" s="100"/>
-      <c r="J216" s="100"/>
-      <c r="K216" s="109"/>
+      <c r="E216" s="185"/>
+      <c r="F216" s="185"/>
+      <c r="G216" s="185"/>
+      <c r="H216" s="185"/>
+      <c r="I216" s="185"/>
+      <c r="J216" s="185"/>
+      <c r="K216" s="194"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -23163,14 +23746,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="94"/>
-      <c r="E217" s="95"/>
-      <c r="F217" s="95"/>
-      <c r="G217" s="95"/>
-      <c r="H217" s="95"/>
-      <c r="I217" s="95"/>
-      <c r="J217" s="95"/>
-      <c r="K217" s="96"/>
+      <c r="D217" s="195"/>
+      <c r="E217" s="188"/>
+      <c r="F217" s="188"/>
+      <c r="G217" s="188"/>
+      <c r="H217" s="188"/>
+      <c r="I217" s="188"/>
+      <c r="J217" s="188"/>
+      <c r="K217" s="196"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -23182,16 +23765,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="108" t="s">
+      <c r="D218" s="193" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="100"/>
-      <c r="F218" s="100"/>
-      <c r="G218" s="100"/>
-      <c r="H218" s="100"/>
-      <c r="I218" s="100"/>
-      <c r="J218" s="100"/>
-      <c r="K218" s="109"/>
+      <c r="E218" s="185"/>
+      <c r="F218" s="185"/>
+      <c r="G218" s="185"/>
+      <c r="H218" s="185"/>
+      <c r="I218" s="185"/>
+      <c r="J218" s="185"/>
+      <c r="K218" s="194"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -23203,14 +23786,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="94"/>
-      <c r="E219" s="95"/>
-      <c r="F219" s="95"/>
-      <c r="G219" s="95"/>
-      <c r="H219" s="95"/>
-      <c r="I219" s="95"/>
-      <c r="J219" s="95"/>
-      <c r="K219" s="96"/>
+      <c r="D219" s="195"/>
+      <c r="E219" s="188"/>
+      <c r="F219" s="188"/>
+      <c r="G219" s="188"/>
+      <c r="H219" s="188"/>
+      <c r="I219" s="188"/>
+      <c r="J219" s="188"/>
+      <c r="K219" s="196"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -23222,16 +23805,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="108" t="s">
+      <c r="D220" s="193" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="100"/>
-      <c r="F220" s="100"/>
-      <c r="G220" s="100"/>
-      <c r="H220" s="100"/>
-      <c r="I220" s="100"/>
-      <c r="J220" s="100"/>
-      <c r="K220" s="109"/>
+      <c r="E220" s="185"/>
+      <c r="F220" s="185"/>
+      <c r="G220" s="185"/>
+      <c r="H220" s="185"/>
+      <c r="I220" s="185"/>
+      <c r="J220" s="185"/>
+      <c r="K220" s="194"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -23243,14 +23826,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="94"/>
-      <c r="E221" s="95"/>
-      <c r="F221" s="95"/>
-      <c r="G221" s="95"/>
-      <c r="H221" s="95"/>
-      <c r="I221" s="95"/>
-      <c r="J221" s="95"/>
-      <c r="K221" s="96"/>
+      <c r="D221" s="195"/>
+      <c r="E221" s="188"/>
+      <c r="F221" s="188"/>
+      <c r="G221" s="188"/>
+      <c r="H221" s="188"/>
+      <c r="I221" s="188"/>
+      <c r="J221" s="188"/>
+      <c r="K221" s="196"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -23262,16 +23845,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="88" t="s">
+      <c r="D222" s="200" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="89"/>
-      <c r="F222" s="89"/>
-      <c r="G222" s="89"/>
-      <c r="H222" s="89"/>
-      <c r="I222" s="89"/>
-      <c r="J222" s="89"/>
-      <c r="K222" s="90"/>
+      <c r="E222" s="201"/>
+      <c r="F222" s="201"/>
+      <c r="G222" s="201"/>
+      <c r="H222" s="201"/>
+      <c r="I222" s="201"/>
+      <c r="J222" s="201"/>
+      <c r="K222" s="202"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -23302,16 +23885,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="88" t="s">
+      <c r="D224" s="200" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="89"/>
-      <c r="F224" s="89"/>
-      <c r="G224" s="89"/>
-      <c r="H224" s="89"/>
-      <c r="I224" s="89"/>
-      <c r="J224" s="89"/>
-      <c r="K224" s="90"/>
+      <c r="E224" s="201"/>
+      <c r="F224" s="201"/>
+      <c r="G224" s="201"/>
+      <c r="H224" s="201"/>
+      <c r="I224" s="201"/>
+      <c r="J224" s="201"/>
+      <c r="K224" s="202"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -23345,16 +23928,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="114" t="s">
+      <c r="D226" s="203" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="115"/>
-      <c r="F226" s="115"/>
-      <c r="G226" s="115"/>
-      <c r="H226" s="115"/>
-      <c r="I226" s="115"/>
-      <c r="J226" s="115"/>
-      <c r="K226" s="116"/>
+      <c r="E226" s="204"/>
+      <c r="F226" s="204"/>
+      <c r="G226" s="204"/>
+      <c r="H226" s="204"/>
+      <c r="I226" s="204"/>
+      <c r="J226" s="204"/>
+      <c r="K226" s="205"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -23499,16 +24082,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="112" t="s">
+      <c r="D234" s="197" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="98"/>
-      <c r="F234" s="98"/>
-      <c r="G234" s="98"/>
-      <c r="H234" s="98"/>
-      <c r="I234" s="98"/>
-      <c r="J234" s="98"/>
-      <c r="K234" s="113"/>
+      <c r="E234" s="198"/>
+      <c r="F234" s="198"/>
+      <c r="G234" s="198"/>
+      <c r="H234" s="198"/>
+      <c r="I234" s="198"/>
+      <c r="J234" s="198"/>
+      <c r="K234" s="199"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -23577,16 +24160,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="104" t="s">
+      <c r="D238" s="184" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="100"/>
-      <c r="F238" s="100"/>
-      <c r="G238" s="100"/>
-      <c r="H238" s="100"/>
-      <c r="I238" s="100"/>
-      <c r="J238" s="100"/>
-      <c r="K238" s="101"/>
+      <c r="E238" s="185"/>
+      <c r="F238" s="185"/>
+      <c r="G238" s="185"/>
+      <c r="H238" s="185"/>
+      <c r="I238" s="185"/>
+      <c r="J238" s="185"/>
+      <c r="K238" s="186"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -23598,14 +24181,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="110"/>
-      <c r="E239" s="95"/>
-      <c r="F239" s="95"/>
-      <c r="G239" s="95"/>
-      <c r="H239" s="95"/>
-      <c r="I239" s="95"/>
-      <c r="J239" s="95"/>
-      <c r="K239" s="111"/>
+      <c r="D239" s="187"/>
+      <c r="E239" s="188"/>
+      <c r="F239" s="188"/>
+      <c r="G239" s="188"/>
+      <c r="H239" s="188"/>
+      <c r="I239" s="188"/>
+      <c r="J239" s="188"/>
+      <c r="K239" s="189"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -23617,16 +24200,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="100" t="s">
+      <c r="D240" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="100"/>
-      <c r="F240" s="100"/>
-      <c r="G240" s="100"/>
-      <c r="H240" s="100"/>
-      <c r="I240" s="100"/>
-      <c r="J240" s="100"/>
-      <c r="K240" s="101"/>
+      <c r="E240" s="185"/>
+      <c r="F240" s="185"/>
+      <c r="G240" s="185"/>
+      <c r="H240" s="185"/>
+      <c r="I240" s="185"/>
+      <c r="J240" s="185"/>
+      <c r="K240" s="186"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -23638,14 +24221,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="102"/>
-      <c r="E241" s="102"/>
-      <c r="F241" s="102"/>
-      <c r="G241" s="102"/>
-      <c r="H241" s="102"/>
-      <c r="I241" s="102"/>
-      <c r="J241" s="102"/>
-      <c r="K241" s="103"/>
+      <c r="D241" s="211"/>
+      <c r="E241" s="211"/>
+      <c r="F241" s="211"/>
+      <c r="G241" s="211"/>
+      <c r="H241" s="211"/>
+      <c r="I241" s="211"/>
+      <c r="J241" s="211"/>
+      <c r="K241" s="212"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -23836,16 +24419,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="97" t="s">
+      <c r="D250" s="209" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="98"/>
-      <c r="F250" s="98"/>
-      <c r="G250" s="98"/>
-      <c r="H250" s="98"/>
-      <c r="I250" s="98"/>
-      <c r="J250" s="98"/>
-      <c r="K250" s="99"/>
+      <c r="E250" s="198"/>
+      <c r="F250" s="198"/>
+      <c r="G250" s="198"/>
+      <c r="H250" s="198"/>
+      <c r="I250" s="198"/>
+      <c r="J250" s="198"/>
+      <c r="K250" s="210"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -24414,16 +24997,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="88" t="s">
+      <c r="D280" s="200" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="89"/>
-      <c r="F280" s="89"/>
-      <c r="G280" s="89"/>
-      <c r="H280" s="89"/>
-      <c r="I280" s="89"/>
-      <c r="J280" s="89"/>
-      <c r="K280" s="90"/>
+      <c r="E280" s="201"/>
+      <c r="F280" s="201"/>
+      <c r="G280" s="201"/>
+      <c r="H280" s="201"/>
+      <c r="I280" s="201"/>
+      <c r="J280" s="201"/>
+      <c r="K280" s="202"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -24530,16 +25113,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="88" t="s">
+      <c r="D286" s="200" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="89"/>
-      <c r="F286" s="89"/>
-      <c r="G286" s="89"/>
-      <c r="H286" s="89"/>
-      <c r="I286" s="89"/>
-      <c r="J286" s="89"/>
-      <c r="K286" s="90"/>
+      <c r="E286" s="201"/>
+      <c r="F286" s="201"/>
+      <c r="G286" s="201"/>
+      <c r="H286" s="201"/>
+      <c r="I286" s="201"/>
+      <c r="J286" s="201"/>
+      <c r="K286" s="202"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -24727,16 +25310,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="88" t="s">
+      <c r="D296" s="200" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="89"/>
-      <c r="F296" s="89"/>
-      <c r="G296" s="89"/>
-      <c r="H296" s="89"/>
-      <c r="I296" s="89"/>
-      <c r="J296" s="89"/>
-      <c r="K296" s="90"/>
+      <c r="E296" s="201"/>
+      <c r="F296" s="201"/>
+      <c r="G296" s="201"/>
+      <c r="H296" s="201"/>
+      <c r="I296" s="201"/>
+      <c r="J296" s="201"/>
+      <c r="K296" s="202"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -24767,16 +25350,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="104" t="s">
+      <c r="D298" s="184" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="100"/>
-      <c r="F298" s="100"/>
-      <c r="G298" s="100"/>
-      <c r="H298" s="100"/>
-      <c r="I298" s="100"/>
-      <c r="J298" s="100"/>
-      <c r="K298" s="101"/>
+      <c r="E298" s="185"/>
+      <c r="F298" s="185"/>
+      <c r="G298" s="185"/>
+      <c r="H298" s="185"/>
+      <c r="I298" s="185"/>
+      <c r="J298" s="185"/>
+      <c r="K298" s="186"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -24788,14 +25371,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="110"/>
-      <c r="E299" s="95"/>
-      <c r="F299" s="95"/>
-      <c r="G299" s="95"/>
-      <c r="H299" s="95"/>
-      <c r="I299" s="95"/>
-      <c r="J299" s="95"/>
-      <c r="K299" s="111"/>
+      <c r="D299" s="187"/>
+      <c r="E299" s="188"/>
+      <c r="F299" s="188"/>
+      <c r="G299" s="188"/>
+      <c r="H299" s="188"/>
+      <c r="I299" s="188"/>
+      <c r="J299" s="188"/>
+      <c r="K299" s="189"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -24807,16 +25390,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="104" t="s">
+      <c r="D300" s="184" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="100"/>
-      <c r="F300" s="100"/>
-      <c r="G300" s="100"/>
-      <c r="H300" s="100"/>
-      <c r="I300" s="100"/>
-      <c r="J300" s="100"/>
-      <c r="K300" s="101"/>
+      <c r="E300" s="185"/>
+      <c r="F300" s="185"/>
+      <c r="G300" s="185"/>
+      <c r="H300" s="185"/>
+      <c r="I300" s="185"/>
+      <c r="J300" s="185"/>
+      <c r="K300" s="186"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -24828,14 +25411,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="110"/>
-      <c r="E301" s="95"/>
-      <c r="F301" s="95"/>
-      <c r="G301" s="95"/>
-      <c r="H301" s="95"/>
-      <c r="I301" s="95"/>
-      <c r="J301" s="95"/>
-      <c r="K301" s="111"/>
+      <c r="D301" s="187"/>
+      <c r="E301" s="188"/>
+      <c r="F301" s="188"/>
+      <c r="G301" s="188"/>
+      <c r="H301" s="188"/>
+      <c r="I301" s="188"/>
+      <c r="J301" s="188"/>
+      <c r="K301" s="189"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -24847,16 +25430,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="104" t="s">
+      <c r="D302" s="184" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="100"/>
-      <c r="F302" s="100"/>
-      <c r="G302" s="100"/>
-      <c r="H302" s="100"/>
-      <c r="I302" s="100"/>
-      <c r="J302" s="100"/>
-      <c r="K302" s="101"/>
+      <c r="E302" s="185"/>
+      <c r="F302" s="185"/>
+      <c r="G302" s="185"/>
+      <c r="H302" s="185"/>
+      <c r="I302" s="185"/>
+      <c r="J302" s="185"/>
+      <c r="K302" s="186"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -24868,14 +25451,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="110"/>
-      <c r="E303" s="95"/>
-      <c r="F303" s="95"/>
-      <c r="G303" s="95"/>
-      <c r="H303" s="95"/>
-      <c r="I303" s="95"/>
-      <c r="J303" s="95"/>
-      <c r="K303" s="111"/>
+      <c r="D303" s="187"/>
+      <c r="E303" s="188"/>
+      <c r="F303" s="188"/>
+      <c r="G303" s="188"/>
+      <c r="H303" s="188"/>
+      <c r="I303" s="188"/>
+      <c r="J303" s="188"/>
+      <c r="K303" s="189"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -24887,16 +25470,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="104" t="s">
+      <c r="D304" s="184" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="100"/>
-      <c r="F304" s="100"/>
-      <c r="G304" s="100"/>
-      <c r="H304" s="100"/>
-      <c r="I304" s="100"/>
-      <c r="J304" s="100"/>
-      <c r="K304" s="101"/>
+      <c r="E304" s="185"/>
+      <c r="F304" s="185"/>
+      <c r="G304" s="185"/>
+      <c r="H304" s="185"/>
+      <c r="I304" s="185"/>
+      <c r="J304" s="185"/>
+      <c r="K304" s="186"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -24908,14 +25491,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="110"/>
-      <c r="E305" s="95"/>
-      <c r="F305" s="95"/>
-      <c r="G305" s="95"/>
-      <c r="H305" s="95"/>
-      <c r="I305" s="95"/>
-      <c r="J305" s="95"/>
-      <c r="K305" s="111"/>
+      <c r="D305" s="187"/>
+      <c r="E305" s="188"/>
+      <c r="F305" s="188"/>
+      <c r="G305" s="188"/>
+      <c r="H305" s="188"/>
+      <c r="I305" s="188"/>
+      <c r="J305" s="188"/>
+      <c r="K305" s="189"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -24930,16 +25513,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="104" t="s">
+      <c r="D306" s="184" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="100"/>
-      <c r="F306" s="100"/>
-      <c r="G306" s="100"/>
-      <c r="H306" s="100"/>
-      <c r="I306" s="100"/>
-      <c r="J306" s="100"/>
-      <c r="K306" s="101"/>
+      <c r="E306" s="185"/>
+      <c r="F306" s="185"/>
+      <c r="G306" s="185"/>
+      <c r="H306" s="185"/>
+      <c r="I306" s="185"/>
+      <c r="J306" s="185"/>
+      <c r="K306" s="186"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -24951,14 +25534,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="110"/>
-      <c r="E307" s="95"/>
-      <c r="F307" s="95"/>
-      <c r="G307" s="95"/>
-      <c r="H307" s="95"/>
-      <c r="I307" s="95"/>
-      <c r="J307" s="95"/>
-      <c r="K307" s="111"/>
+      <c r="D307" s="187"/>
+      <c r="E307" s="188"/>
+      <c r="F307" s="188"/>
+      <c r="G307" s="188"/>
+      <c r="H307" s="188"/>
+      <c r="I307" s="188"/>
+      <c r="J307" s="188"/>
+      <c r="K307" s="189"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -24970,16 +25553,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="104" t="s">
+      <c r="D308" s="184" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="100"/>
-      <c r="F308" s="100"/>
-      <c r="G308" s="100"/>
-      <c r="H308" s="100"/>
-      <c r="I308" s="100"/>
-      <c r="J308" s="100"/>
-      <c r="K308" s="101"/>
+      <c r="E308" s="185"/>
+      <c r="F308" s="185"/>
+      <c r="G308" s="185"/>
+      <c r="H308" s="185"/>
+      <c r="I308" s="185"/>
+      <c r="J308" s="185"/>
+      <c r="K308" s="186"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -24991,14 +25574,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="110"/>
-      <c r="E309" s="95"/>
-      <c r="F309" s="95"/>
-      <c r="G309" s="95"/>
-      <c r="H309" s="95"/>
-      <c r="I309" s="95"/>
-      <c r="J309" s="95"/>
-      <c r="K309" s="111"/>
+      <c r="D309" s="187"/>
+      <c r="E309" s="188"/>
+      <c r="F309" s="188"/>
+      <c r="G309" s="188"/>
+      <c r="H309" s="188"/>
+      <c r="I309" s="188"/>
+      <c r="J309" s="188"/>
+      <c r="K309" s="189"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -28878,12 +29461,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -28900,29 +29500,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -28930,25 +29513,429 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E9773-BB41-4A15-BA41-CDFF1EE0CEBE}">
+  <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18.75">
+      <c r="B2" s="222" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="222"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="223" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="224" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="225" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="224" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="225" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="226" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="225" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="226" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="227" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B5" s="228" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="229" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="231" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="232" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="231" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="233" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="231" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="234" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="235" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="226" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="236" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F6" s="225" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="226" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="238" t="s">
+        <v>441</v>
+      </c>
+      <c r="I6" s="237" t="s">
+        <v>443</v>
+      </c>
+      <c r="J6" s="239" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B7" s="228" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="241"/>
+      <c r="E7" s="231" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="242" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="244" t="s">
+        <v>442</v>
+      </c>
+      <c r="I7" s="245"/>
+      <c r="J7" s="246"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="247" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="226" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="248" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="237" t="s">
+        <v>471</v>
+      </c>
+      <c r="F8" s="236" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8" s="226" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="225" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="237" t="s">
+        <v>444</v>
+      </c>
+      <c r="J8" s="249" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B9" s="250" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="251" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" s="242" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="252"/>
+      <c r="F9" s="230" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="240" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="242" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="240" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="253" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="60">
+      <c r="B10" s="223" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="255" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="254" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="255" t="s">
+        <v>430</v>
+      </c>
+      <c r="G10" s="254" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" s="255" t="s">
+        <v>432</v>
+      </c>
+      <c r="I10" s="226" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="256" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B11" s="257"/>
+      <c r="C11" s="258" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="259" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="258" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" s="259" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="258" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="259" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="245"/>
+      <c r="J11" s="253" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30">
+      <c r="B12" s="260" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="261" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="262" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="261" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="262" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="261" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="263"/>
+      <c r="I12" s="237" t="s">
+        <v>465</v>
+      </c>
+      <c r="J12" s="264" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="105.75" thickBot="1">
+      <c r="B13" s="265" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="245"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="267" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="266"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="246"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="268" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="269" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="270" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="271" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="270" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="271" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="270" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="271" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="272"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B15" s="257"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="259" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" s="258" t="s">
+        <v>460</v>
+      </c>
+      <c r="F15" s="259" t="s">
+        <v>459</v>
+      </c>
+      <c r="G15" s="258" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="259" t="s">
+        <v>457</v>
+      </c>
+      <c r="I15" s="258" t="s">
+        <v>456</v>
+      </c>
+      <c r="J15" s="246"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="219" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="273" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="274" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="275" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="276" t="s">
+        <v>468</v>
+      </c>
+      <c r="D20" s="217"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="217"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="277" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="278" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="279" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="280" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53657C04-52E3-4D09-8E52-E3E75E5177C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E5D17-4078-4664-AC27-1AB471543C4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="780" windowWidth="20070" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -3341,13 +3341,49 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3356,13 +3392,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3380,28 +3416,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,35 +3446,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3501,22 +3501,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8457C8C2-20C7-411C-B354-54B58C2050B4}" name="Tableau1" displayName="Tableau1" ref="B2:C25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8457C8C2-20C7-411C-B354-54B58C2050B4}" name="Tableau1" displayName="Tableau1" ref="B2:C25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B2:C25" xr:uid="{2F15CC89-C761-4742-A8A9-3DD5E430CD7F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1B5F69A-9DA4-4A56-A977-56E1CC3DFB04}" name="Code" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{948F77C9-1EBE-4152-9D57-3015E46B4F2F}" name="Item" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C1B5F69A-9DA4-4A56-A977-56E1CC3DFB04}" name="Code" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{948F77C9-1EBE-4152-9D57-3015E46B4F2F}" name="Item" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33607311-3D26-45EA-B77B-E3B2327F2B70}" name="Tableau2" displayName="Tableau2" ref="E2:F25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33607311-3D26-45EA-B77B-E3B2327F2B70}" name="Tableau2" displayName="Tableau2" ref="E2:F25" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E2:F25" xr:uid="{30407E88-6486-443B-B55E-F65D53887449}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6707D14-1027-43C2-8F66-1E75E6D0F1F4}" name="Code" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{18A4C310-7674-4E01-897F-6F76010EDD92}" name="Item" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A6707D14-1027-43C2-8F66-1E75E6D0F1F4}" name="Code" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{18A4C310-7674-4E01-897F-6F76010EDD92}" name="Item" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3848,9 +3848,9 @@
   </sheetPr>
   <dimension ref="A1:P1237"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3924,16 +3924,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="249" t="s">
+      <c r="D2" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="251"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="263"/>
       <c r="M2" s="83" t="s">
         <v>7</v>
       </c>
@@ -3951,14 +3951,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="255"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="269"/>
       <c r="M3" s="83" t="s">
         <v>8</v>
       </c>
@@ -10015,16 +10015,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="282" t="s">
+      <c r="D168" s="247" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="282"/>
-      <c r="F168" s="282"/>
-      <c r="G168" s="282"/>
-      <c r="H168" s="282"/>
-      <c r="I168" s="282"/>
-      <c r="J168" s="282"/>
-      <c r="K168" s="282"/>
+      <c r="E168" s="247"/>
+      <c r="F168" s="247"/>
+      <c r="G168" s="247"/>
+      <c r="H168" s="247"/>
+      <c r="I168" s="247"/>
+      <c r="J168" s="247"/>
+      <c r="K168" s="247"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10150,16 +10150,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="282" t="s">
+      <c r="D175" s="247" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="282"/>
-      <c r="F175" s="282"/>
-      <c r="G175" s="282"/>
-      <c r="H175" s="282"/>
-      <c r="I175" s="282"/>
-      <c r="J175" s="282"/>
-      <c r="K175" s="282"/>
+      <c r="E175" s="247"/>
+      <c r="F175" s="247"/>
+      <c r="G175" s="247"/>
+      <c r="H175" s="247"/>
+      <c r="I175" s="247"/>
+      <c r="J175" s="247"/>
+      <c r="K175" s="247"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10212,16 +10212,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="283" t="s">
+      <c r="D178" s="248" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="282"/>
-      <c r="F178" s="282"/>
-      <c r="G178" s="282"/>
-      <c r="H178" s="282"/>
-      <c r="I178" s="282"/>
-      <c r="J178" s="282"/>
-      <c r="K178" s="282"/>
+      <c r="E178" s="247"/>
+      <c r="F178" s="247"/>
+      <c r="G178" s="247"/>
+      <c r="H178" s="247"/>
+      <c r="I178" s="247"/>
+      <c r="J178" s="247"/>
+      <c r="K178" s="247"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -10293,16 +10293,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="265" t="s">
+      <c r="D182" s="249" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="266"/>
-      <c r="F182" s="266"/>
-      <c r="G182" s="266"/>
-      <c r="H182" s="266"/>
-      <c r="I182" s="266"/>
-      <c r="J182" s="266"/>
-      <c r="K182" s="267"/>
+      <c r="E182" s="250"/>
+      <c r="F182" s="250"/>
+      <c r="G182" s="250"/>
+      <c r="H182" s="250"/>
+      <c r="I182" s="250"/>
+      <c r="J182" s="250"/>
+      <c r="K182" s="251"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -10314,16 +10314,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="265" t="s">
+      <c r="D183" s="249" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="266"/>
-      <c r="F183" s="266"/>
-      <c r="G183" s="266"/>
-      <c r="H183" s="266"/>
-      <c r="I183" s="266"/>
-      <c r="J183" s="266"/>
-      <c r="K183" s="267"/>
+      <c r="E183" s="250"/>
+      <c r="F183" s="250"/>
+      <c r="G183" s="250"/>
+      <c r="H183" s="250"/>
+      <c r="I183" s="250"/>
+      <c r="J183" s="250"/>
+      <c r="K183" s="251"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -10335,16 +10335,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="265" t="s">
+      <c r="D184" s="249" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="266"/>
-      <c r="F184" s="266"/>
-      <c r="G184" s="266"/>
-      <c r="H184" s="266"/>
-      <c r="I184" s="266"/>
-      <c r="J184" s="266"/>
-      <c r="K184" s="267"/>
+      <c r="E184" s="250"/>
+      <c r="F184" s="250"/>
+      <c r="G184" s="250"/>
+      <c r="H184" s="250"/>
+      <c r="I184" s="250"/>
+      <c r="J184" s="250"/>
+      <c r="K184" s="251"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -10356,16 +10356,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="265" t="s">
+      <c r="D185" s="249" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="266"/>
-      <c r="F185" s="266"/>
-      <c r="G185" s="266"/>
-      <c r="H185" s="266"/>
-      <c r="I185" s="266"/>
-      <c r="J185" s="266"/>
-      <c r="K185" s="267"/>
+      <c r="E185" s="250"/>
+      <c r="F185" s="250"/>
+      <c r="G185" s="250"/>
+      <c r="H185" s="250"/>
+      <c r="I185" s="250"/>
+      <c r="J185" s="250"/>
+      <c r="K185" s="251"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -10377,16 +10377,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="265" t="s">
+      <c r="D186" s="249" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="266"/>
-      <c r="F186" s="266"/>
-      <c r="G186" s="266"/>
-      <c r="H186" s="266"/>
-      <c r="I186" s="266"/>
-      <c r="J186" s="266"/>
-      <c r="K186" s="267"/>
+      <c r="E186" s="250"/>
+      <c r="F186" s="250"/>
+      <c r="G186" s="250"/>
+      <c r="H186" s="250"/>
+      <c r="I186" s="250"/>
+      <c r="J186" s="250"/>
+      <c r="K186" s="251"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -10398,16 +10398,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="265" t="s">
+      <c r="D187" s="249" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="266"/>
-      <c r="F187" s="266"/>
-      <c r="G187" s="266"/>
-      <c r="H187" s="266"/>
-      <c r="I187" s="266"/>
-      <c r="J187" s="266"/>
-      <c r="K187" s="267"/>
+      <c r="E187" s="250"/>
+      <c r="F187" s="250"/>
+      <c r="G187" s="250"/>
+      <c r="H187" s="250"/>
+      <c r="I187" s="250"/>
+      <c r="J187" s="250"/>
+      <c r="K187" s="251"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -10419,16 +10419,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="265" t="s">
+      <c r="D188" s="249" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="266"/>
-      <c r="F188" s="266"/>
-      <c r="G188" s="266"/>
-      <c r="H188" s="266"/>
-      <c r="I188" s="266"/>
-      <c r="J188" s="266"/>
-      <c r="K188" s="267"/>
+      <c r="E188" s="250"/>
+      <c r="F188" s="250"/>
+      <c r="G188" s="250"/>
+      <c r="H188" s="250"/>
+      <c r="I188" s="250"/>
+      <c r="J188" s="250"/>
+      <c r="K188" s="251"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -10440,16 +10440,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="265" t="s">
+      <c r="D189" s="249" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="266"/>
-      <c r="F189" s="266"/>
-      <c r="G189" s="266"/>
-      <c r="H189" s="266"/>
-      <c r="I189" s="266"/>
-      <c r="J189" s="266"/>
-      <c r="K189" s="267"/>
+      <c r="E189" s="250"/>
+      <c r="F189" s="250"/>
+      <c r="G189" s="250"/>
+      <c r="H189" s="250"/>
+      <c r="I189" s="250"/>
+      <c r="J189" s="250"/>
+      <c r="K189" s="251"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -10461,16 +10461,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="265" t="s">
+      <c r="D190" s="249" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="266"/>
-      <c r="F190" s="266"/>
-      <c r="G190" s="266"/>
-      <c r="H190" s="266"/>
-      <c r="I190" s="266"/>
-      <c r="J190" s="266"/>
-      <c r="K190" s="267"/>
+      <c r="E190" s="250"/>
+      <c r="F190" s="250"/>
+      <c r="G190" s="250"/>
+      <c r="H190" s="250"/>
+      <c r="I190" s="250"/>
+      <c r="J190" s="250"/>
+      <c r="K190" s="251"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -10482,16 +10482,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="265" t="s">
+      <c r="D191" s="249" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="266"/>
-      <c r="F191" s="266"/>
-      <c r="G191" s="266"/>
-      <c r="H191" s="266"/>
-      <c r="I191" s="266"/>
-      <c r="J191" s="266"/>
-      <c r="K191" s="267"/>
+      <c r="E191" s="250"/>
+      <c r="F191" s="250"/>
+      <c r="G191" s="250"/>
+      <c r="H191" s="250"/>
+      <c r="I191" s="250"/>
+      <c r="J191" s="250"/>
+      <c r="K191" s="251"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -10503,16 +10503,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="265" t="s">
+      <c r="D192" s="249" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="266"/>
-      <c r="F192" s="266"/>
-      <c r="G192" s="266"/>
-      <c r="H192" s="266"/>
-      <c r="I192" s="266"/>
-      <c r="J192" s="266"/>
-      <c r="K192" s="267"/>
+      <c r="E192" s="250"/>
+      <c r="F192" s="250"/>
+      <c r="G192" s="250"/>
+      <c r="H192" s="250"/>
+      <c r="I192" s="250"/>
+      <c r="J192" s="250"/>
+      <c r="K192" s="251"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -10524,16 +10524,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="279" t="s">
+      <c r="D193" s="252" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="280"/>
-      <c r="F193" s="280"/>
-      <c r="G193" s="280"/>
-      <c r="H193" s="280"/>
-      <c r="I193" s="280"/>
-      <c r="J193" s="280"/>
-      <c r="K193" s="281"/>
+      <c r="E193" s="253"/>
+      <c r="F193" s="253"/>
+      <c r="G193" s="253"/>
+      <c r="H193" s="253"/>
+      <c r="I193" s="253"/>
+      <c r="J193" s="253"/>
+      <c r="K193" s="254"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -10548,16 +10548,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="260" t="s">
+      <c r="D194" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="253"/>
-      <c r="F194" s="253"/>
-      <c r="G194" s="253"/>
-      <c r="H194" s="253"/>
-      <c r="I194" s="253"/>
-      <c r="J194" s="253"/>
-      <c r="K194" s="261"/>
+      <c r="E194" s="256"/>
+      <c r="F194" s="256"/>
+      <c r="G194" s="256"/>
+      <c r="H194" s="256"/>
+      <c r="I194" s="256"/>
+      <c r="J194" s="256"/>
+      <c r="K194" s="257"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -10569,16 +10569,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="265" t="s">
+      <c r="D195" s="249" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="266"/>
-      <c r="F195" s="266"/>
-      <c r="G195" s="266"/>
-      <c r="H195" s="266"/>
-      <c r="I195" s="266"/>
-      <c r="J195" s="266"/>
-      <c r="K195" s="267"/>
+      <c r="E195" s="250"/>
+      <c r="F195" s="250"/>
+      <c r="G195" s="250"/>
+      <c r="H195" s="250"/>
+      <c r="I195" s="250"/>
+      <c r="J195" s="250"/>
+      <c r="K195" s="251"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -10590,16 +10590,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="265" t="s">
+      <c r="D196" s="249" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="266"/>
-      <c r="F196" s="266"/>
-      <c r="G196" s="266"/>
-      <c r="H196" s="266"/>
-      <c r="I196" s="266"/>
-      <c r="J196" s="266"/>
-      <c r="K196" s="267"/>
+      <c r="E196" s="250"/>
+      <c r="F196" s="250"/>
+      <c r="G196" s="250"/>
+      <c r="H196" s="250"/>
+      <c r="I196" s="250"/>
+      <c r="J196" s="250"/>
+      <c r="K196" s="251"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -10611,16 +10611,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="265" t="s">
+      <c r="D197" s="249" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="266"/>
-      <c r="F197" s="266"/>
-      <c r="G197" s="266"/>
-      <c r="H197" s="266"/>
-      <c r="I197" s="266"/>
-      <c r="J197" s="266"/>
-      <c r="K197" s="267"/>
+      <c r="E197" s="250"/>
+      <c r="F197" s="250"/>
+      <c r="G197" s="250"/>
+      <c r="H197" s="250"/>
+      <c r="I197" s="250"/>
+      <c r="J197" s="250"/>
+      <c r="K197" s="251"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -10632,16 +10632,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="265" t="s">
+      <c r="D198" s="249" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="266"/>
-      <c r="F198" s="266"/>
-      <c r="G198" s="266"/>
-      <c r="H198" s="266"/>
-      <c r="I198" s="266"/>
-      <c r="J198" s="266"/>
-      <c r="K198" s="267"/>
+      <c r="E198" s="250"/>
+      <c r="F198" s="250"/>
+      <c r="G198" s="250"/>
+      <c r="H198" s="250"/>
+      <c r="I198" s="250"/>
+      <c r="J198" s="250"/>
+      <c r="K198" s="251"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -10672,16 +10672,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="265" t="s">
+      <c r="D200" s="249" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="266"/>
-      <c r="F200" s="266"/>
-      <c r="G200" s="266"/>
-      <c r="H200" s="266"/>
-      <c r="I200" s="266"/>
-      <c r="J200" s="266"/>
-      <c r="K200" s="267"/>
+      <c r="E200" s="250"/>
+      <c r="F200" s="250"/>
+      <c r="G200" s="250"/>
+      <c r="H200" s="250"/>
+      <c r="I200" s="250"/>
+      <c r="J200" s="250"/>
+      <c r="K200" s="251"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -10712,16 +10712,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="271" t="s">
+      <c r="D202" s="279" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="272"/>
-      <c r="F202" s="272"/>
-      <c r="G202" s="272"/>
-      <c r="H202" s="272"/>
-      <c r="I202" s="272"/>
-      <c r="J202" s="272"/>
-      <c r="K202" s="273"/>
+      <c r="E202" s="280"/>
+      <c r="F202" s="280"/>
+      <c r="G202" s="280"/>
+      <c r="H202" s="280"/>
+      <c r="I202" s="280"/>
+      <c r="J202" s="280"/>
+      <c r="K202" s="281"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -10752,16 +10752,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="265" t="s">
+      <c r="D204" s="249" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="266"/>
-      <c r="F204" s="266"/>
-      <c r="G204" s="266"/>
-      <c r="H204" s="266"/>
-      <c r="I204" s="266"/>
-      <c r="J204" s="266"/>
-      <c r="K204" s="267"/>
+      <c r="E204" s="250"/>
+      <c r="F204" s="250"/>
+      <c r="G204" s="250"/>
+      <c r="H204" s="250"/>
+      <c r="I204" s="250"/>
+      <c r="J204" s="250"/>
+      <c r="K204" s="251"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -10792,16 +10792,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="265" t="s">
+      <c r="D206" s="249" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="266"/>
-      <c r="F206" s="266"/>
-      <c r="G206" s="266"/>
-      <c r="H206" s="266"/>
-      <c r="I206" s="266"/>
-      <c r="J206" s="266"/>
-      <c r="K206" s="267"/>
+      <c r="E206" s="250"/>
+      <c r="F206" s="250"/>
+      <c r="G206" s="250"/>
+      <c r="H206" s="250"/>
+      <c r="I206" s="250"/>
+      <c r="J206" s="250"/>
+      <c r="K206" s="251"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -10832,16 +10832,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="265" t="s">
+      <c r="D208" s="249" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="266"/>
-      <c r="F208" s="266"/>
-      <c r="G208" s="266"/>
-      <c r="H208" s="266"/>
-      <c r="I208" s="266"/>
-      <c r="J208" s="266"/>
-      <c r="K208" s="267"/>
+      <c r="E208" s="250"/>
+      <c r="F208" s="250"/>
+      <c r="G208" s="250"/>
+      <c r="H208" s="250"/>
+      <c r="I208" s="250"/>
+      <c r="J208" s="250"/>
+      <c r="K208" s="251"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -10875,16 +10875,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="260" t="s">
+      <c r="D210" s="255" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="253"/>
-      <c r="F210" s="253"/>
-      <c r="G210" s="253"/>
-      <c r="H210" s="253"/>
-      <c r="I210" s="253"/>
-      <c r="J210" s="253"/>
-      <c r="K210" s="261"/>
+      <c r="E210" s="256"/>
+      <c r="F210" s="256"/>
+      <c r="G210" s="256"/>
+      <c r="H210" s="256"/>
+      <c r="I210" s="256"/>
+      <c r="J210" s="256"/>
+      <c r="K210" s="257"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -10953,16 +10953,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="265" t="s">
+      <c r="D214" s="249" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="266"/>
-      <c r="F214" s="266"/>
-      <c r="G214" s="266"/>
-      <c r="H214" s="266"/>
-      <c r="I214" s="266"/>
-      <c r="J214" s="266"/>
-      <c r="K214" s="267"/>
+      <c r="E214" s="250"/>
+      <c r="F214" s="250"/>
+      <c r="G214" s="250"/>
+      <c r="H214" s="250"/>
+      <c r="I214" s="250"/>
+      <c r="J214" s="250"/>
+      <c r="K214" s="251"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -10993,16 +10993,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="258" t="s">
+      <c r="D216" s="270" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="250"/>
-      <c r="F216" s="250"/>
-      <c r="G216" s="250"/>
-      <c r="H216" s="250"/>
-      <c r="I216" s="250"/>
-      <c r="J216" s="250"/>
-      <c r="K216" s="259"/>
+      <c r="E216" s="262"/>
+      <c r="F216" s="262"/>
+      <c r="G216" s="262"/>
+      <c r="H216" s="262"/>
+      <c r="I216" s="262"/>
+      <c r="J216" s="262"/>
+      <c r="K216" s="271"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11014,14 +11014,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="260"/>
-      <c r="E217" s="253"/>
-      <c r="F217" s="253"/>
-      <c r="G217" s="253"/>
-      <c r="H217" s="253"/>
-      <c r="I217" s="253"/>
-      <c r="J217" s="253"/>
-      <c r="K217" s="261"/>
+      <c r="D217" s="255"/>
+      <c r="E217" s="256"/>
+      <c r="F217" s="256"/>
+      <c r="G217" s="256"/>
+      <c r="H217" s="256"/>
+      <c r="I217" s="256"/>
+      <c r="J217" s="256"/>
+      <c r="K217" s="257"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11033,16 +11033,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="258" t="s">
+      <c r="D218" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="250"/>
-      <c r="F218" s="250"/>
-      <c r="G218" s="250"/>
-      <c r="H218" s="250"/>
-      <c r="I218" s="250"/>
-      <c r="J218" s="250"/>
-      <c r="K218" s="259"/>
+      <c r="E218" s="262"/>
+      <c r="F218" s="262"/>
+      <c r="G218" s="262"/>
+      <c r="H218" s="262"/>
+      <c r="I218" s="262"/>
+      <c r="J218" s="262"/>
+      <c r="K218" s="271"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11054,14 +11054,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="260"/>
-      <c r="E219" s="253"/>
-      <c r="F219" s="253"/>
-      <c r="G219" s="253"/>
-      <c r="H219" s="253"/>
-      <c r="I219" s="253"/>
-      <c r="J219" s="253"/>
-      <c r="K219" s="261"/>
+      <c r="D219" s="255"/>
+      <c r="E219" s="256"/>
+      <c r="F219" s="256"/>
+      <c r="G219" s="256"/>
+      <c r="H219" s="256"/>
+      <c r="I219" s="256"/>
+      <c r="J219" s="256"/>
+      <c r="K219" s="257"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11073,16 +11073,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="258" t="s">
+      <c r="D220" s="270" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="250"/>
-      <c r="F220" s="250"/>
-      <c r="G220" s="250"/>
-      <c r="H220" s="250"/>
-      <c r="I220" s="250"/>
-      <c r="J220" s="250"/>
-      <c r="K220" s="259"/>
+      <c r="E220" s="262"/>
+      <c r="F220" s="262"/>
+      <c r="G220" s="262"/>
+      <c r="H220" s="262"/>
+      <c r="I220" s="262"/>
+      <c r="J220" s="262"/>
+      <c r="K220" s="271"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11094,14 +11094,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="260"/>
-      <c r="E221" s="253"/>
-      <c r="F221" s="253"/>
-      <c r="G221" s="253"/>
-      <c r="H221" s="253"/>
-      <c r="I221" s="253"/>
-      <c r="J221" s="253"/>
-      <c r="K221" s="261"/>
+      <c r="D221" s="255"/>
+      <c r="E221" s="256"/>
+      <c r="F221" s="256"/>
+      <c r="G221" s="256"/>
+      <c r="H221" s="256"/>
+      <c r="I221" s="256"/>
+      <c r="J221" s="256"/>
+      <c r="K221" s="257"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11113,16 +11113,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="265" t="s">
+      <c r="D222" s="249" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="266"/>
-      <c r="F222" s="266"/>
-      <c r="G222" s="266"/>
-      <c r="H222" s="266"/>
-      <c r="I222" s="266"/>
-      <c r="J222" s="266"/>
-      <c r="K222" s="267"/>
+      <c r="E222" s="250"/>
+      <c r="F222" s="250"/>
+      <c r="G222" s="250"/>
+      <c r="H222" s="250"/>
+      <c r="I222" s="250"/>
+      <c r="J222" s="250"/>
+      <c r="K222" s="251"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11153,16 +11153,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="265" t="s">
+      <c r="D224" s="249" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="266"/>
-      <c r="F224" s="266"/>
-      <c r="G224" s="266"/>
-      <c r="H224" s="266"/>
-      <c r="I224" s="266"/>
-      <c r="J224" s="266"/>
-      <c r="K224" s="267"/>
+      <c r="E224" s="250"/>
+      <c r="F224" s="250"/>
+      <c r="G224" s="250"/>
+      <c r="H224" s="250"/>
+      <c r="I224" s="250"/>
+      <c r="J224" s="250"/>
+      <c r="K224" s="251"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11196,16 +11196,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="268" t="s">
+      <c r="D226" s="276" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="269"/>
-      <c r="F226" s="269"/>
-      <c r="G226" s="269"/>
-      <c r="H226" s="269"/>
-      <c r="I226" s="269"/>
-      <c r="J226" s="269"/>
-      <c r="K226" s="270"/>
+      <c r="E226" s="277"/>
+      <c r="F226" s="277"/>
+      <c r="G226" s="277"/>
+      <c r="H226" s="277"/>
+      <c r="I226" s="277"/>
+      <c r="J226" s="277"/>
+      <c r="K226" s="278"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -11350,16 +11350,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="262" t="s">
+      <c r="D234" s="274" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="263"/>
-      <c r="F234" s="263"/>
-      <c r="G234" s="263"/>
-      <c r="H234" s="263"/>
-      <c r="I234" s="263"/>
-      <c r="J234" s="263"/>
-      <c r="K234" s="264"/>
+      <c r="E234" s="259"/>
+      <c r="F234" s="259"/>
+      <c r="G234" s="259"/>
+      <c r="H234" s="259"/>
+      <c r="I234" s="259"/>
+      <c r="J234" s="259"/>
+      <c r="K234" s="275"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -11428,16 +11428,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="249" t="s">
+      <c r="D238" s="266" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="250"/>
-      <c r="F238" s="250"/>
-      <c r="G238" s="250"/>
-      <c r="H238" s="250"/>
-      <c r="I238" s="250"/>
-      <c r="J238" s="250"/>
-      <c r="K238" s="251"/>
+      <c r="E238" s="262"/>
+      <c r="F238" s="262"/>
+      <c r="G238" s="262"/>
+      <c r="H238" s="262"/>
+      <c r="I238" s="262"/>
+      <c r="J238" s="262"/>
+      <c r="K238" s="263"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -11449,14 +11449,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="252"/>
-      <c r="E239" s="253"/>
-      <c r="F239" s="253"/>
-      <c r="G239" s="253"/>
-      <c r="H239" s="253"/>
-      <c r="I239" s="253"/>
-      <c r="J239" s="253"/>
-      <c r="K239" s="254"/>
+      <c r="D239" s="272"/>
+      <c r="E239" s="256"/>
+      <c r="F239" s="256"/>
+      <c r="G239" s="256"/>
+      <c r="H239" s="256"/>
+      <c r="I239" s="256"/>
+      <c r="J239" s="256"/>
+      <c r="K239" s="273"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -11468,16 +11468,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="250" t="s">
+      <c r="D240" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="250"/>
-      <c r="F240" s="250"/>
-      <c r="G240" s="250"/>
-      <c r="H240" s="250"/>
-      <c r="I240" s="250"/>
-      <c r="J240" s="250"/>
-      <c r="K240" s="251"/>
+      <c r="E240" s="262"/>
+      <c r="F240" s="262"/>
+      <c r="G240" s="262"/>
+      <c r="H240" s="262"/>
+      <c r="I240" s="262"/>
+      <c r="J240" s="262"/>
+      <c r="K240" s="263"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -11489,14 +11489,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="277"/>
-      <c r="E241" s="277"/>
-      <c r="F241" s="277"/>
-      <c r="G241" s="277"/>
-      <c r="H241" s="277"/>
-      <c r="I241" s="277"/>
-      <c r="J241" s="277"/>
-      <c r="K241" s="278"/>
+      <c r="D241" s="264"/>
+      <c r="E241" s="264"/>
+      <c r="F241" s="264"/>
+      <c r="G241" s="264"/>
+      <c r="H241" s="264"/>
+      <c r="I241" s="264"/>
+      <c r="J241" s="264"/>
+      <c r="K241" s="265"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -11687,16 +11687,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="274" t="s">
+      <c r="D250" s="258" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="263"/>
-      <c r="F250" s="263"/>
-      <c r="G250" s="263"/>
-      <c r="H250" s="263"/>
-      <c r="I250" s="263"/>
-      <c r="J250" s="263"/>
-      <c r="K250" s="275"/>
+      <c r="E250" s="259"/>
+      <c r="F250" s="259"/>
+      <c r="G250" s="259"/>
+      <c r="H250" s="259"/>
+      <c r="I250" s="259"/>
+      <c r="J250" s="259"/>
+      <c r="K250" s="260"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12265,16 +12265,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="276" t="s">
+      <c r="D280" s="261" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="266"/>
-      <c r="F280" s="266"/>
-      <c r="G280" s="266"/>
-      <c r="H280" s="266"/>
-      <c r="I280" s="266"/>
-      <c r="J280" s="266"/>
-      <c r="K280" s="267"/>
+      <c r="E280" s="250"/>
+      <c r="F280" s="250"/>
+      <c r="G280" s="250"/>
+      <c r="H280" s="250"/>
+      <c r="I280" s="250"/>
+      <c r="J280" s="250"/>
+      <c r="K280" s="251"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -12381,16 +12381,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="276" t="s">
+      <c r="D286" s="261" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="266"/>
-      <c r="F286" s="266"/>
-      <c r="G286" s="266"/>
-      <c r="H286" s="266"/>
-      <c r="I286" s="266"/>
-      <c r="J286" s="266"/>
-      <c r="K286" s="267"/>
+      <c r="E286" s="250"/>
+      <c r="F286" s="250"/>
+      <c r="G286" s="250"/>
+      <c r="H286" s="250"/>
+      <c r="I286" s="250"/>
+      <c r="J286" s="250"/>
+      <c r="K286" s="251"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -12578,16 +12578,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="265" t="s">
+      <c r="D296" s="249" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="266"/>
-      <c r="F296" s="266"/>
-      <c r="G296" s="266"/>
-      <c r="H296" s="266"/>
-      <c r="I296" s="266"/>
-      <c r="J296" s="266"/>
-      <c r="K296" s="267"/>
+      <c r="E296" s="250"/>
+      <c r="F296" s="250"/>
+      <c r="G296" s="250"/>
+      <c r="H296" s="250"/>
+      <c r="I296" s="250"/>
+      <c r="J296" s="250"/>
+      <c r="K296" s="251"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -12618,16 +12618,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="249" t="s">
+      <c r="D298" s="266" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="250"/>
-      <c r="F298" s="250"/>
-      <c r="G298" s="250"/>
-      <c r="H298" s="250"/>
-      <c r="I298" s="250"/>
-      <c r="J298" s="250"/>
-      <c r="K298" s="251"/>
+      <c r="E298" s="262"/>
+      <c r="F298" s="262"/>
+      <c r="G298" s="262"/>
+      <c r="H298" s="262"/>
+      <c r="I298" s="262"/>
+      <c r="J298" s="262"/>
+      <c r="K298" s="263"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -12639,14 +12639,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="252"/>
-      <c r="E299" s="253"/>
-      <c r="F299" s="253"/>
-      <c r="G299" s="253"/>
-      <c r="H299" s="253"/>
-      <c r="I299" s="253"/>
-      <c r="J299" s="253"/>
-      <c r="K299" s="254"/>
+      <c r="D299" s="272"/>
+      <c r="E299" s="256"/>
+      <c r="F299" s="256"/>
+      <c r="G299" s="256"/>
+      <c r="H299" s="256"/>
+      <c r="I299" s="256"/>
+      <c r="J299" s="256"/>
+      <c r="K299" s="273"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -12658,16 +12658,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="249" t="s">
+      <c r="D300" s="266" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="250"/>
-      <c r="F300" s="250"/>
-      <c r="G300" s="250"/>
-      <c r="H300" s="250"/>
-      <c r="I300" s="250"/>
-      <c r="J300" s="250"/>
-      <c r="K300" s="251"/>
+      <c r="E300" s="262"/>
+      <c r="F300" s="262"/>
+      <c r="G300" s="262"/>
+      <c r="H300" s="262"/>
+      <c r="I300" s="262"/>
+      <c r="J300" s="262"/>
+      <c r="K300" s="263"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -12679,14 +12679,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="252"/>
-      <c r="E301" s="253"/>
-      <c r="F301" s="253"/>
-      <c r="G301" s="253"/>
-      <c r="H301" s="253"/>
-      <c r="I301" s="253"/>
-      <c r="J301" s="253"/>
-      <c r="K301" s="254"/>
+      <c r="D301" s="272"/>
+      <c r="E301" s="256"/>
+      <c r="F301" s="256"/>
+      <c r="G301" s="256"/>
+      <c r="H301" s="256"/>
+      <c r="I301" s="256"/>
+      <c r="J301" s="256"/>
+      <c r="K301" s="273"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -12698,16 +12698,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="249" t="s">
+      <c r="D302" s="266" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="250"/>
-      <c r="F302" s="250"/>
-      <c r="G302" s="250"/>
-      <c r="H302" s="250"/>
-      <c r="I302" s="250"/>
-      <c r="J302" s="250"/>
-      <c r="K302" s="251"/>
+      <c r="E302" s="262"/>
+      <c r="F302" s="262"/>
+      <c r="G302" s="262"/>
+      <c r="H302" s="262"/>
+      <c r="I302" s="262"/>
+      <c r="J302" s="262"/>
+      <c r="K302" s="263"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -12719,14 +12719,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="252"/>
-      <c r="E303" s="253"/>
-      <c r="F303" s="253"/>
-      <c r="G303" s="253"/>
-      <c r="H303" s="253"/>
-      <c r="I303" s="253"/>
-      <c r="J303" s="253"/>
-      <c r="K303" s="254"/>
+      <c r="D303" s="272"/>
+      <c r="E303" s="256"/>
+      <c r="F303" s="256"/>
+      <c r="G303" s="256"/>
+      <c r="H303" s="256"/>
+      <c r="I303" s="256"/>
+      <c r="J303" s="256"/>
+      <c r="K303" s="273"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -12738,16 +12738,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="249" t="s">
+      <c r="D304" s="266" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="250"/>
-      <c r="F304" s="250"/>
-      <c r="G304" s="250"/>
-      <c r="H304" s="250"/>
-      <c r="I304" s="250"/>
-      <c r="J304" s="250"/>
-      <c r="K304" s="251"/>
+      <c r="E304" s="262"/>
+      <c r="F304" s="262"/>
+      <c r="G304" s="262"/>
+      <c r="H304" s="262"/>
+      <c r="I304" s="262"/>
+      <c r="J304" s="262"/>
+      <c r="K304" s="263"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -12759,14 +12759,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="252"/>
-      <c r="E305" s="253"/>
-      <c r="F305" s="253"/>
-      <c r="G305" s="253"/>
-      <c r="H305" s="253"/>
-      <c r="I305" s="253"/>
-      <c r="J305" s="253"/>
-      <c r="K305" s="254"/>
+      <c r="D305" s="272"/>
+      <c r="E305" s="256"/>
+      <c r="F305" s="256"/>
+      <c r="G305" s="256"/>
+      <c r="H305" s="256"/>
+      <c r="I305" s="256"/>
+      <c r="J305" s="256"/>
+      <c r="K305" s="273"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -12781,16 +12781,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="249" t="s">
+      <c r="D306" s="266" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="250"/>
-      <c r="F306" s="250"/>
-      <c r="G306" s="250"/>
-      <c r="H306" s="250"/>
-      <c r="I306" s="250"/>
-      <c r="J306" s="250"/>
-      <c r="K306" s="251"/>
+      <c r="E306" s="262"/>
+      <c r="F306" s="262"/>
+      <c r="G306" s="262"/>
+      <c r="H306" s="262"/>
+      <c r="I306" s="262"/>
+      <c r="J306" s="262"/>
+      <c r="K306" s="263"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -12802,14 +12802,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="252"/>
-      <c r="E307" s="253"/>
-      <c r="F307" s="253"/>
-      <c r="G307" s="253"/>
-      <c r="H307" s="253"/>
-      <c r="I307" s="253"/>
-      <c r="J307" s="253"/>
-      <c r="K307" s="254"/>
+      <c r="D307" s="272"/>
+      <c r="E307" s="256"/>
+      <c r="F307" s="256"/>
+      <c r="G307" s="256"/>
+      <c r="H307" s="256"/>
+      <c r="I307" s="256"/>
+      <c r="J307" s="256"/>
+      <c r="K307" s="273"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -12821,16 +12821,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="249" t="s">
+      <c r="D308" s="266" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="250"/>
-      <c r="F308" s="250"/>
-      <c r="G308" s="250"/>
-      <c r="H308" s="250"/>
-      <c r="I308" s="250"/>
-      <c r="J308" s="250"/>
-      <c r="K308" s="251"/>
+      <c r="E308" s="262"/>
+      <c r="F308" s="262"/>
+      <c r="G308" s="262"/>
+      <c r="H308" s="262"/>
+      <c r="I308" s="262"/>
+      <c r="J308" s="262"/>
+      <c r="K308" s="263"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -12842,14 +12842,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="252"/>
-      <c r="E309" s="253"/>
-      <c r="F309" s="253"/>
-      <c r="G309" s="253"/>
-      <c r="H309" s="253"/>
-      <c r="I309" s="253"/>
-      <c r="J309" s="253"/>
-      <c r="K309" s="254"/>
+      <c r="D309" s="272"/>
+      <c r="E309" s="256"/>
+      <c r="F309" s="256"/>
+      <c r="G309" s="256"/>
+      <c r="H309" s="256"/>
+      <c r="I309" s="256"/>
+      <c r="J309" s="256"/>
+      <c r="K309" s="273"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21136,16 +21136,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="247" t="s">
+      <c r="D954" s="282" t="s">
         <v>480</v>
       </c>
-      <c r="E954" s="248"/>
-      <c r="F954" s="248"/>
-      <c r="G954" s="248"/>
-      <c r="H954" s="248"/>
-      <c r="I954" s="248"/>
-      <c r="J954" s="248"/>
-      <c r="K954" s="248"/>
+      <c r="E954" s="283"/>
+      <c r="F954" s="283"/>
+      <c r="G954" s="283"/>
+      <c r="H954" s="283"/>
+      <c r="I954" s="283"/>
+      <c r="J954" s="283"/>
+      <c r="K954" s="283"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -23979,31 +23979,13 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D954:K954"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -24020,13 +24002,31 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D954:K954"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24112,16 +24112,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="249" t="s">
+      <c r="D2" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="251"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="263"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24143,14 +24143,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="257"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="269"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -30399,16 +30399,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="282" t="s">
+      <c r="D178" s="247" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="282"/>
-      <c r="F178" s="282"/>
-      <c r="G178" s="282"/>
-      <c r="H178" s="282"/>
-      <c r="I178" s="282"/>
-      <c r="J178" s="282"/>
-      <c r="K178" s="282"/>
+      <c r="E178" s="247"/>
+      <c r="F178" s="247"/>
+      <c r="G178" s="247"/>
+      <c r="H178" s="247"/>
+      <c r="I178" s="247"/>
+      <c r="J178" s="247"/>
+      <c r="K178" s="247"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -30477,16 +30477,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="265" t="s">
+      <c r="D182" s="249" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="266"/>
-      <c r="F182" s="266"/>
-      <c r="G182" s="266"/>
-      <c r="H182" s="266"/>
-      <c r="I182" s="266"/>
-      <c r="J182" s="266"/>
-      <c r="K182" s="267"/>
+      <c r="E182" s="250"/>
+      <c r="F182" s="250"/>
+      <c r="G182" s="250"/>
+      <c r="H182" s="250"/>
+      <c r="I182" s="250"/>
+      <c r="J182" s="250"/>
+      <c r="K182" s="251"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -30498,16 +30498,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="265" t="s">
+      <c r="D183" s="249" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="266"/>
-      <c r="F183" s="266"/>
-      <c r="G183" s="266"/>
-      <c r="H183" s="266"/>
-      <c r="I183" s="266"/>
-      <c r="J183" s="266"/>
-      <c r="K183" s="267"/>
+      <c r="E183" s="250"/>
+      <c r="F183" s="250"/>
+      <c r="G183" s="250"/>
+      <c r="H183" s="250"/>
+      <c r="I183" s="250"/>
+      <c r="J183" s="250"/>
+      <c r="K183" s="251"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -30519,16 +30519,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="265" t="s">
+      <c r="D184" s="249" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="266"/>
-      <c r="F184" s="266"/>
-      <c r="G184" s="266"/>
-      <c r="H184" s="266"/>
-      <c r="I184" s="266"/>
-      <c r="J184" s="266"/>
-      <c r="K184" s="267"/>
+      <c r="E184" s="250"/>
+      <c r="F184" s="250"/>
+      <c r="G184" s="250"/>
+      <c r="H184" s="250"/>
+      <c r="I184" s="250"/>
+      <c r="J184" s="250"/>
+      <c r="K184" s="251"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -30540,16 +30540,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="265" t="s">
+      <c r="D185" s="249" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="266"/>
-      <c r="F185" s="266"/>
-      <c r="G185" s="266"/>
-      <c r="H185" s="266"/>
-      <c r="I185" s="266"/>
-      <c r="J185" s="266"/>
-      <c r="K185" s="267"/>
+      <c r="E185" s="250"/>
+      <c r="F185" s="250"/>
+      <c r="G185" s="250"/>
+      <c r="H185" s="250"/>
+      <c r="I185" s="250"/>
+      <c r="J185" s="250"/>
+      <c r="K185" s="251"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -30561,16 +30561,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="265" t="s">
+      <c r="D186" s="249" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="266"/>
-      <c r="F186" s="266"/>
-      <c r="G186" s="266"/>
-      <c r="H186" s="266"/>
-      <c r="I186" s="266"/>
-      <c r="J186" s="266"/>
-      <c r="K186" s="267"/>
+      <c r="E186" s="250"/>
+      <c r="F186" s="250"/>
+      <c r="G186" s="250"/>
+      <c r="H186" s="250"/>
+      <c r="I186" s="250"/>
+      <c r="J186" s="250"/>
+      <c r="K186" s="251"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -30582,16 +30582,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="265" t="s">
+      <c r="D187" s="249" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="266"/>
-      <c r="F187" s="266"/>
-      <c r="G187" s="266"/>
-      <c r="H187" s="266"/>
-      <c r="I187" s="266"/>
-      <c r="J187" s="266"/>
-      <c r="K187" s="267"/>
+      <c r="E187" s="250"/>
+      <c r="F187" s="250"/>
+      <c r="G187" s="250"/>
+      <c r="H187" s="250"/>
+      <c r="I187" s="250"/>
+      <c r="J187" s="250"/>
+      <c r="K187" s="251"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -30603,16 +30603,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="265" t="s">
+      <c r="D188" s="249" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="266"/>
-      <c r="F188" s="266"/>
-      <c r="G188" s="266"/>
-      <c r="H188" s="266"/>
-      <c r="I188" s="266"/>
-      <c r="J188" s="266"/>
-      <c r="K188" s="267"/>
+      <c r="E188" s="250"/>
+      <c r="F188" s="250"/>
+      <c r="G188" s="250"/>
+      <c r="H188" s="250"/>
+      <c r="I188" s="250"/>
+      <c r="J188" s="250"/>
+      <c r="K188" s="251"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -30624,16 +30624,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="265" t="s">
+      <c r="D189" s="249" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="266"/>
-      <c r="F189" s="266"/>
-      <c r="G189" s="266"/>
-      <c r="H189" s="266"/>
-      <c r="I189" s="266"/>
-      <c r="J189" s="266"/>
-      <c r="K189" s="267"/>
+      <c r="E189" s="250"/>
+      <c r="F189" s="250"/>
+      <c r="G189" s="250"/>
+      <c r="H189" s="250"/>
+      <c r="I189" s="250"/>
+      <c r="J189" s="250"/>
+      <c r="K189" s="251"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -30645,16 +30645,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="265" t="s">
+      <c r="D190" s="249" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="266"/>
-      <c r="F190" s="266"/>
-      <c r="G190" s="266"/>
-      <c r="H190" s="266"/>
-      <c r="I190" s="266"/>
-      <c r="J190" s="266"/>
-      <c r="K190" s="267"/>
+      <c r="E190" s="250"/>
+      <c r="F190" s="250"/>
+      <c r="G190" s="250"/>
+      <c r="H190" s="250"/>
+      <c r="I190" s="250"/>
+      <c r="J190" s="250"/>
+      <c r="K190" s="251"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -30666,16 +30666,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="265" t="s">
+      <c r="D191" s="249" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="266"/>
-      <c r="F191" s="266"/>
-      <c r="G191" s="266"/>
-      <c r="H191" s="266"/>
-      <c r="I191" s="266"/>
-      <c r="J191" s="266"/>
-      <c r="K191" s="267"/>
+      <c r="E191" s="250"/>
+      <c r="F191" s="250"/>
+      <c r="G191" s="250"/>
+      <c r="H191" s="250"/>
+      <c r="I191" s="250"/>
+      <c r="J191" s="250"/>
+      <c r="K191" s="251"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -30687,16 +30687,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="265" t="s">
+      <c r="D192" s="249" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="266"/>
-      <c r="F192" s="266"/>
-      <c r="G192" s="266"/>
-      <c r="H192" s="266"/>
-      <c r="I192" s="266"/>
-      <c r="J192" s="266"/>
-      <c r="K192" s="267"/>
+      <c r="E192" s="250"/>
+      <c r="F192" s="250"/>
+      <c r="G192" s="250"/>
+      <c r="H192" s="250"/>
+      <c r="I192" s="250"/>
+      <c r="J192" s="250"/>
+      <c r="K192" s="251"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -30708,16 +30708,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="279" t="s">
+      <c r="D193" s="252" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="280"/>
-      <c r="F193" s="280"/>
-      <c r="G193" s="280"/>
-      <c r="H193" s="280"/>
-      <c r="I193" s="280"/>
-      <c r="J193" s="280"/>
-      <c r="K193" s="281"/>
+      <c r="E193" s="253"/>
+      <c r="F193" s="253"/>
+      <c r="G193" s="253"/>
+      <c r="H193" s="253"/>
+      <c r="I193" s="253"/>
+      <c r="J193" s="253"/>
+      <c r="K193" s="254"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -30732,16 +30732,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="260" t="s">
+      <c r="D194" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="253"/>
-      <c r="F194" s="253"/>
-      <c r="G194" s="253"/>
-      <c r="H194" s="253"/>
-      <c r="I194" s="253"/>
-      <c r="J194" s="253"/>
-      <c r="K194" s="261"/>
+      <c r="E194" s="256"/>
+      <c r="F194" s="256"/>
+      <c r="G194" s="256"/>
+      <c r="H194" s="256"/>
+      <c r="I194" s="256"/>
+      <c r="J194" s="256"/>
+      <c r="K194" s="257"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -30753,16 +30753,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="265" t="s">
+      <c r="D195" s="249" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="266"/>
-      <c r="F195" s="266"/>
-      <c r="G195" s="266"/>
-      <c r="H195" s="266"/>
-      <c r="I195" s="266"/>
-      <c r="J195" s="266"/>
-      <c r="K195" s="267"/>
+      <c r="E195" s="250"/>
+      <c r="F195" s="250"/>
+      <c r="G195" s="250"/>
+      <c r="H195" s="250"/>
+      <c r="I195" s="250"/>
+      <c r="J195" s="250"/>
+      <c r="K195" s="251"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -30774,16 +30774,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="265" t="s">
+      <c r="D196" s="249" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="266"/>
-      <c r="F196" s="266"/>
-      <c r="G196" s="266"/>
-      <c r="H196" s="266"/>
-      <c r="I196" s="266"/>
-      <c r="J196" s="266"/>
-      <c r="K196" s="267"/>
+      <c r="E196" s="250"/>
+      <c r="F196" s="250"/>
+      <c r="G196" s="250"/>
+      <c r="H196" s="250"/>
+      <c r="I196" s="250"/>
+      <c r="J196" s="250"/>
+      <c r="K196" s="251"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -30795,16 +30795,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="265" t="s">
+      <c r="D197" s="249" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="266"/>
-      <c r="F197" s="266"/>
-      <c r="G197" s="266"/>
-      <c r="H197" s="266"/>
-      <c r="I197" s="266"/>
-      <c r="J197" s="266"/>
-      <c r="K197" s="267"/>
+      <c r="E197" s="250"/>
+      <c r="F197" s="250"/>
+      <c r="G197" s="250"/>
+      <c r="H197" s="250"/>
+      <c r="I197" s="250"/>
+      <c r="J197" s="250"/>
+      <c r="K197" s="251"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -30816,16 +30816,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="265" t="s">
+      <c r="D198" s="249" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="266"/>
-      <c r="F198" s="266"/>
-      <c r="G198" s="266"/>
-      <c r="H198" s="266"/>
-      <c r="I198" s="266"/>
-      <c r="J198" s="266"/>
-      <c r="K198" s="267"/>
+      <c r="E198" s="250"/>
+      <c r="F198" s="250"/>
+      <c r="G198" s="250"/>
+      <c r="H198" s="250"/>
+      <c r="I198" s="250"/>
+      <c r="J198" s="250"/>
+      <c r="K198" s="251"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -30856,16 +30856,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="265" t="s">
+      <c r="D200" s="249" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="266"/>
-      <c r="F200" s="266"/>
-      <c r="G200" s="266"/>
-      <c r="H200" s="266"/>
-      <c r="I200" s="266"/>
-      <c r="J200" s="266"/>
-      <c r="K200" s="267"/>
+      <c r="E200" s="250"/>
+      <c r="F200" s="250"/>
+      <c r="G200" s="250"/>
+      <c r="H200" s="250"/>
+      <c r="I200" s="250"/>
+      <c r="J200" s="250"/>
+      <c r="K200" s="251"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -30896,16 +30896,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="271" t="s">
+      <c r="D202" s="279" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="272"/>
-      <c r="F202" s="272"/>
-      <c r="G202" s="272"/>
-      <c r="H202" s="272"/>
-      <c r="I202" s="272"/>
-      <c r="J202" s="272"/>
-      <c r="K202" s="273"/>
+      <c r="E202" s="280"/>
+      <c r="F202" s="280"/>
+      <c r="G202" s="280"/>
+      <c r="H202" s="280"/>
+      <c r="I202" s="280"/>
+      <c r="J202" s="280"/>
+      <c r="K202" s="281"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -30936,16 +30936,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="265" t="s">
+      <c r="D204" s="249" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="266"/>
-      <c r="F204" s="266"/>
-      <c r="G204" s="266"/>
-      <c r="H204" s="266"/>
-      <c r="I204" s="266"/>
-      <c r="J204" s="266"/>
-      <c r="K204" s="267"/>
+      <c r="E204" s="250"/>
+      <c r="F204" s="250"/>
+      <c r="G204" s="250"/>
+      <c r="H204" s="250"/>
+      <c r="I204" s="250"/>
+      <c r="J204" s="250"/>
+      <c r="K204" s="251"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -30976,16 +30976,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="265" t="s">
+      <c r="D206" s="249" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="266"/>
-      <c r="F206" s="266"/>
-      <c r="G206" s="266"/>
-      <c r="H206" s="266"/>
-      <c r="I206" s="266"/>
-      <c r="J206" s="266"/>
-      <c r="K206" s="267"/>
+      <c r="E206" s="250"/>
+      <c r="F206" s="250"/>
+      <c r="G206" s="250"/>
+      <c r="H206" s="250"/>
+      <c r="I206" s="250"/>
+      <c r="J206" s="250"/>
+      <c r="K206" s="251"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31016,16 +31016,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="265" t="s">
+      <c r="D208" s="249" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="266"/>
-      <c r="F208" s="266"/>
-      <c r="G208" s="266"/>
-      <c r="H208" s="266"/>
-      <c r="I208" s="266"/>
-      <c r="J208" s="266"/>
-      <c r="K208" s="267"/>
+      <c r="E208" s="250"/>
+      <c r="F208" s="250"/>
+      <c r="G208" s="250"/>
+      <c r="H208" s="250"/>
+      <c r="I208" s="250"/>
+      <c r="J208" s="250"/>
+      <c r="K208" s="251"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31059,16 +31059,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="260" t="s">
+      <c r="D210" s="255" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="253"/>
-      <c r="F210" s="253"/>
-      <c r="G210" s="253"/>
-      <c r="H210" s="253"/>
-      <c r="I210" s="253"/>
-      <c r="J210" s="253"/>
-      <c r="K210" s="261"/>
+      <c r="E210" s="256"/>
+      <c r="F210" s="256"/>
+      <c r="G210" s="256"/>
+      <c r="H210" s="256"/>
+      <c r="I210" s="256"/>
+      <c r="J210" s="256"/>
+      <c r="K210" s="257"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31137,16 +31137,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="265" t="s">
+      <c r="D214" s="249" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="266"/>
-      <c r="F214" s="266"/>
-      <c r="G214" s="266"/>
-      <c r="H214" s="266"/>
-      <c r="I214" s="266"/>
-      <c r="J214" s="266"/>
-      <c r="K214" s="267"/>
+      <c r="E214" s="250"/>
+      <c r="F214" s="250"/>
+      <c r="G214" s="250"/>
+      <c r="H214" s="250"/>
+      <c r="I214" s="250"/>
+      <c r="J214" s="250"/>
+      <c r="K214" s="251"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31177,16 +31177,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="258" t="s">
+      <c r="D216" s="270" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="250"/>
-      <c r="F216" s="250"/>
-      <c r="G216" s="250"/>
-      <c r="H216" s="250"/>
-      <c r="I216" s="250"/>
-      <c r="J216" s="250"/>
-      <c r="K216" s="259"/>
+      <c r="E216" s="262"/>
+      <c r="F216" s="262"/>
+      <c r="G216" s="262"/>
+      <c r="H216" s="262"/>
+      <c r="I216" s="262"/>
+      <c r="J216" s="262"/>
+      <c r="K216" s="271"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31198,14 +31198,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="260"/>
-      <c r="E217" s="253"/>
-      <c r="F217" s="253"/>
-      <c r="G217" s="253"/>
-      <c r="H217" s="253"/>
-      <c r="I217" s="253"/>
-      <c r="J217" s="253"/>
-      <c r="K217" s="261"/>
+      <c r="D217" s="255"/>
+      <c r="E217" s="256"/>
+      <c r="F217" s="256"/>
+      <c r="G217" s="256"/>
+      <c r="H217" s="256"/>
+      <c r="I217" s="256"/>
+      <c r="J217" s="256"/>
+      <c r="K217" s="257"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31217,16 +31217,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="258" t="s">
+      <c r="D218" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="250"/>
-      <c r="F218" s="250"/>
-      <c r="G218" s="250"/>
-      <c r="H218" s="250"/>
-      <c r="I218" s="250"/>
-      <c r="J218" s="250"/>
-      <c r="K218" s="259"/>
+      <c r="E218" s="262"/>
+      <c r="F218" s="262"/>
+      <c r="G218" s="262"/>
+      <c r="H218" s="262"/>
+      <c r="I218" s="262"/>
+      <c r="J218" s="262"/>
+      <c r="K218" s="271"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31238,14 +31238,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="260"/>
-      <c r="E219" s="253"/>
-      <c r="F219" s="253"/>
-      <c r="G219" s="253"/>
-      <c r="H219" s="253"/>
-      <c r="I219" s="253"/>
-      <c r="J219" s="253"/>
-      <c r="K219" s="261"/>
+      <c r="D219" s="255"/>
+      <c r="E219" s="256"/>
+      <c r="F219" s="256"/>
+      <c r="G219" s="256"/>
+      <c r="H219" s="256"/>
+      <c r="I219" s="256"/>
+      <c r="J219" s="256"/>
+      <c r="K219" s="257"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31257,16 +31257,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="258" t="s">
+      <c r="D220" s="270" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="250"/>
-      <c r="F220" s="250"/>
-      <c r="G220" s="250"/>
-      <c r="H220" s="250"/>
-      <c r="I220" s="250"/>
-      <c r="J220" s="250"/>
-      <c r="K220" s="259"/>
+      <c r="E220" s="262"/>
+      <c r="F220" s="262"/>
+      <c r="G220" s="262"/>
+      <c r="H220" s="262"/>
+      <c r="I220" s="262"/>
+      <c r="J220" s="262"/>
+      <c r="K220" s="271"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31278,14 +31278,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="260"/>
-      <c r="E221" s="253"/>
-      <c r="F221" s="253"/>
-      <c r="G221" s="253"/>
-      <c r="H221" s="253"/>
-      <c r="I221" s="253"/>
-      <c r="J221" s="253"/>
-      <c r="K221" s="261"/>
+      <c r="D221" s="255"/>
+      <c r="E221" s="256"/>
+      <c r="F221" s="256"/>
+      <c r="G221" s="256"/>
+      <c r="H221" s="256"/>
+      <c r="I221" s="256"/>
+      <c r="J221" s="256"/>
+      <c r="K221" s="257"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -31297,16 +31297,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="265" t="s">
+      <c r="D222" s="249" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="266"/>
-      <c r="F222" s="266"/>
-      <c r="G222" s="266"/>
-      <c r="H222" s="266"/>
-      <c r="I222" s="266"/>
-      <c r="J222" s="266"/>
-      <c r="K222" s="267"/>
+      <c r="E222" s="250"/>
+      <c r="F222" s="250"/>
+      <c r="G222" s="250"/>
+      <c r="H222" s="250"/>
+      <c r="I222" s="250"/>
+      <c r="J222" s="250"/>
+      <c r="K222" s="251"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -31337,16 +31337,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="265" t="s">
+      <c r="D224" s="249" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="266"/>
-      <c r="F224" s="266"/>
-      <c r="G224" s="266"/>
-      <c r="H224" s="266"/>
-      <c r="I224" s="266"/>
-      <c r="J224" s="266"/>
-      <c r="K224" s="267"/>
+      <c r="E224" s="250"/>
+      <c r="F224" s="250"/>
+      <c r="G224" s="250"/>
+      <c r="H224" s="250"/>
+      <c r="I224" s="250"/>
+      <c r="J224" s="250"/>
+      <c r="K224" s="251"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -31380,16 +31380,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="268" t="s">
+      <c r="D226" s="276" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="269"/>
-      <c r="F226" s="269"/>
-      <c r="G226" s="269"/>
-      <c r="H226" s="269"/>
-      <c r="I226" s="269"/>
-      <c r="J226" s="269"/>
-      <c r="K226" s="270"/>
+      <c r="E226" s="277"/>
+      <c r="F226" s="277"/>
+      <c r="G226" s="277"/>
+      <c r="H226" s="277"/>
+      <c r="I226" s="277"/>
+      <c r="J226" s="277"/>
+      <c r="K226" s="278"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -31534,16 +31534,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="262" t="s">
+      <c r="D234" s="274" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="263"/>
-      <c r="F234" s="263"/>
-      <c r="G234" s="263"/>
-      <c r="H234" s="263"/>
-      <c r="I234" s="263"/>
-      <c r="J234" s="263"/>
-      <c r="K234" s="264"/>
+      <c r="E234" s="259"/>
+      <c r="F234" s="259"/>
+      <c r="G234" s="259"/>
+      <c r="H234" s="259"/>
+      <c r="I234" s="259"/>
+      <c r="J234" s="259"/>
+      <c r="K234" s="275"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -31612,16 +31612,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="249" t="s">
+      <c r="D238" s="266" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="250"/>
-      <c r="F238" s="250"/>
-      <c r="G238" s="250"/>
-      <c r="H238" s="250"/>
-      <c r="I238" s="250"/>
-      <c r="J238" s="250"/>
-      <c r="K238" s="251"/>
+      <c r="E238" s="262"/>
+      <c r="F238" s="262"/>
+      <c r="G238" s="262"/>
+      <c r="H238" s="262"/>
+      <c r="I238" s="262"/>
+      <c r="J238" s="262"/>
+      <c r="K238" s="263"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -31633,14 +31633,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="252"/>
-      <c r="E239" s="253"/>
-      <c r="F239" s="253"/>
-      <c r="G239" s="253"/>
-      <c r="H239" s="253"/>
-      <c r="I239" s="253"/>
-      <c r="J239" s="253"/>
-      <c r="K239" s="254"/>
+      <c r="D239" s="272"/>
+      <c r="E239" s="256"/>
+      <c r="F239" s="256"/>
+      <c r="G239" s="256"/>
+      <c r="H239" s="256"/>
+      <c r="I239" s="256"/>
+      <c r="J239" s="256"/>
+      <c r="K239" s="273"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -31652,16 +31652,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="250" t="s">
+      <c r="D240" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="250"/>
-      <c r="F240" s="250"/>
-      <c r="G240" s="250"/>
-      <c r="H240" s="250"/>
-      <c r="I240" s="250"/>
-      <c r="J240" s="250"/>
-      <c r="K240" s="251"/>
+      <c r="E240" s="262"/>
+      <c r="F240" s="262"/>
+      <c r="G240" s="262"/>
+      <c r="H240" s="262"/>
+      <c r="I240" s="262"/>
+      <c r="J240" s="262"/>
+      <c r="K240" s="263"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -31673,14 +31673,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="277"/>
-      <c r="E241" s="277"/>
-      <c r="F241" s="277"/>
-      <c r="G241" s="277"/>
-      <c r="H241" s="277"/>
-      <c r="I241" s="277"/>
-      <c r="J241" s="277"/>
-      <c r="K241" s="278"/>
+      <c r="D241" s="264"/>
+      <c r="E241" s="264"/>
+      <c r="F241" s="264"/>
+      <c r="G241" s="264"/>
+      <c r="H241" s="264"/>
+      <c r="I241" s="264"/>
+      <c r="J241" s="264"/>
+      <c r="K241" s="265"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -31871,16 +31871,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="274" t="s">
+      <c r="D250" s="258" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="263"/>
-      <c r="F250" s="263"/>
-      <c r="G250" s="263"/>
-      <c r="H250" s="263"/>
-      <c r="I250" s="263"/>
-      <c r="J250" s="263"/>
-      <c r="K250" s="275"/>
+      <c r="E250" s="259"/>
+      <c r="F250" s="259"/>
+      <c r="G250" s="259"/>
+      <c r="H250" s="259"/>
+      <c r="I250" s="259"/>
+      <c r="J250" s="259"/>
+      <c r="K250" s="260"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -32449,16 +32449,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="265" t="s">
+      <c r="D280" s="249" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="266"/>
-      <c r="F280" s="266"/>
-      <c r="G280" s="266"/>
-      <c r="H280" s="266"/>
-      <c r="I280" s="266"/>
-      <c r="J280" s="266"/>
-      <c r="K280" s="267"/>
+      <c r="E280" s="250"/>
+      <c r="F280" s="250"/>
+      <c r="G280" s="250"/>
+      <c r="H280" s="250"/>
+      <c r="I280" s="250"/>
+      <c r="J280" s="250"/>
+      <c r="K280" s="251"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -32565,16 +32565,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="265" t="s">
+      <c r="D286" s="249" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="266"/>
-      <c r="F286" s="266"/>
-      <c r="G286" s="266"/>
-      <c r="H286" s="266"/>
-      <c r="I286" s="266"/>
-      <c r="J286" s="266"/>
-      <c r="K286" s="267"/>
+      <c r="E286" s="250"/>
+      <c r="F286" s="250"/>
+      <c r="G286" s="250"/>
+      <c r="H286" s="250"/>
+      <c r="I286" s="250"/>
+      <c r="J286" s="250"/>
+      <c r="K286" s="251"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -32762,16 +32762,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="265" t="s">
+      <c r="D296" s="249" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="266"/>
-      <c r="F296" s="266"/>
-      <c r="G296" s="266"/>
-      <c r="H296" s="266"/>
-      <c r="I296" s="266"/>
-      <c r="J296" s="266"/>
-      <c r="K296" s="267"/>
+      <c r="E296" s="250"/>
+      <c r="F296" s="250"/>
+      <c r="G296" s="250"/>
+      <c r="H296" s="250"/>
+      <c r="I296" s="250"/>
+      <c r="J296" s="250"/>
+      <c r="K296" s="251"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -32802,16 +32802,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="249" t="s">
+      <c r="D298" s="266" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="250"/>
-      <c r="F298" s="250"/>
-      <c r="G298" s="250"/>
-      <c r="H298" s="250"/>
-      <c r="I298" s="250"/>
-      <c r="J298" s="250"/>
-      <c r="K298" s="251"/>
+      <c r="E298" s="262"/>
+      <c r="F298" s="262"/>
+      <c r="G298" s="262"/>
+      <c r="H298" s="262"/>
+      <c r="I298" s="262"/>
+      <c r="J298" s="262"/>
+      <c r="K298" s="263"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -32823,14 +32823,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="252"/>
-      <c r="E299" s="253"/>
-      <c r="F299" s="253"/>
-      <c r="G299" s="253"/>
-      <c r="H299" s="253"/>
-      <c r="I299" s="253"/>
-      <c r="J299" s="253"/>
-      <c r="K299" s="254"/>
+      <c r="D299" s="272"/>
+      <c r="E299" s="256"/>
+      <c r="F299" s="256"/>
+      <c r="G299" s="256"/>
+      <c r="H299" s="256"/>
+      <c r="I299" s="256"/>
+      <c r="J299" s="256"/>
+      <c r="K299" s="273"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -32842,16 +32842,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="249" t="s">
+      <c r="D300" s="266" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="250"/>
-      <c r="F300" s="250"/>
-      <c r="G300" s="250"/>
-      <c r="H300" s="250"/>
-      <c r="I300" s="250"/>
-      <c r="J300" s="250"/>
-      <c r="K300" s="251"/>
+      <c r="E300" s="262"/>
+      <c r="F300" s="262"/>
+      <c r="G300" s="262"/>
+      <c r="H300" s="262"/>
+      <c r="I300" s="262"/>
+      <c r="J300" s="262"/>
+      <c r="K300" s="263"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -32863,14 +32863,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="252"/>
-      <c r="E301" s="253"/>
-      <c r="F301" s="253"/>
-      <c r="G301" s="253"/>
-      <c r="H301" s="253"/>
-      <c r="I301" s="253"/>
-      <c r="J301" s="253"/>
-      <c r="K301" s="254"/>
+      <c r="D301" s="272"/>
+      <c r="E301" s="256"/>
+      <c r="F301" s="256"/>
+      <c r="G301" s="256"/>
+      <c r="H301" s="256"/>
+      <c r="I301" s="256"/>
+      <c r="J301" s="256"/>
+      <c r="K301" s="273"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -32882,16 +32882,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="249" t="s">
+      <c r="D302" s="266" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="250"/>
-      <c r="F302" s="250"/>
-      <c r="G302" s="250"/>
-      <c r="H302" s="250"/>
-      <c r="I302" s="250"/>
-      <c r="J302" s="250"/>
-      <c r="K302" s="251"/>
+      <c r="E302" s="262"/>
+      <c r="F302" s="262"/>
+      <c r="G302" s="262"/>
+      <c r="H302" s="262"/>
+      <c r="I302" s="262"/>
+      <c r="J302" s="262"/>
+      <c r="K302" s="263"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -32903,14 +32903,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="252"/>
-      <c r="E303" s="253"/>
-      <c r="F303" s="253"/>
-      <c r="G303" s="253"/>
-      <c r="H303" s="253"/>
-      <c r="I303" s="253"/>
-      <c r="J303" s="253"/>
-      <c r="K303" s="254"/>
+      <c r="D303" s="272"/>
+      <c r="E303" s="256"/>
+      <c r="F303" s="256"/>
+      <c r="G303" s="256"/>
+      <c r="H303" s="256"/>
+      <c r="I303" s="256"/>
+      <c r="J303" s="256"/>
+      <c r="K303" s="273"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -32922,16 +32922,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="249" t="s">
+      <c r="D304" s="266" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="250"/>
-      <c r="F304" s="250"/>
-      <c r="G304" s="250"/>
-      <c r="H304" s="250"/>
-      <c r="I304" s="250"/>
-      <c r="J304" s="250"/>
-      <c r="K304" s="251"/>
+      <c r="E304" s="262"/>
+      <c r="F304" s="262"/>
+      <c r="G304" s="262"/>
+      <c r="H304" s="262"/>
+      <c r="I304" s="262"/>
+      <c r="J304" s="262"/>
+      <c r="K304" s="263"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -32943,14 +32943,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="252"/>
-      <c r="E305" s="253"/>
-      <c r="F305" s="253"/>
-      <c r="G305" s="253"/>
-      <c r="H305" s="253"/>
-      <c r="I305" s="253"/>
-      <c r="J305" s="253"/>
-      <c r="K305" s="254"/>
+      <c r="D305" s="272"/>
+      <c r="E305" s="256"/>
+      <c r="F305" s="256"/>
+      <c r="G305" s="256"/>
+      <c r="H305" s="256"/>
+      <c r="I305" s="256"/>
+      <c r="J305" s="256"/>
+      <c r="K305" s="273"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -32965,16 +32965,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="249" t="s">
+      <c r="D306" s="266" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="250"/>
-      <c r="F306" s="250"/>
-      <c r="G306" s="250"/>
-      <c r="H306" s="250"/>
-      <c r="I306" s="250"/>
-      <c r="J306" s="250"/>
-      <c r="K306" s="251"/>
+      <c r="E306" s="262"/>
+      <c r="F306" s="262"/>
+      <c r="G306" s="262"/>
+      <c r="H306" s="262"/>
+      <c r="I306" s="262"/>
+      <c r="J306" s="262"/>
+      <c r="K306" s="263"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -32986,14 +32986,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="252"/>
-      <c r="E307" s="253"/>
-      <c r="F307" s="253"/>
-      <c r="G307" s="253"/>
-      <c r="H307" s="253"/>
-      <c r="I307" s="253"/>
-      <c r="J307" s="253"/>
-      <c r="K307" s="254"/>
+      <c r="D307" s="272"/>
+      <c r="E307" s="256"/>
+      <c r="F307" s="256"/>
+      <c r="G307" s="256"/>
+      <c r="H307" s="256"/>
+      <c r="I307" s="256"/>
+      <c r="J307" s="256"/>
+      <c r="K307" s="273"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33005,16 +33005,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="249" t="s">
+      <c r="D308" s="266" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="250"/>
-      <c r="F308" s="250"/>
-      <c r="G308" s="250"/>
-      <c r="H308" s="250"/>
-      <c r="I308" s="250"/>
-      <c r="J308" s="250"/>
-      <c r="K308" s="251"/>
+      <c r="E308" s="262"/>
+      <c r="F308" s="262"/>
+      <c r="G308" s="262"/>
+      <c r="H308" s="262"/>
+      <c r="I308" s="262"/>
+      <c r="J308" s="262"/>
+      <c r="K308" s="263"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33026,14 +33026,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="252"/>
-      <c r="E309" s="253"/>
-      <c r="F309" s="253"/>
-      <c r="G309" s="253"/>
-      <c r="H309" s="253"/>
-      <c r="I309" s="253"/>
-      <c r="J309" s="253"/>
-      <c r="K309" s="254"/>
+      <c r="D309" s="272"/>
+      <c r="E309" s="256"/>
+      <c r="F309" s="256"/>
+      <c r="G309" s="256"/>
+      <c r="H309" s="256"/>
+      <c r="I309" s="256"/>
+      <c r="J309" s="256"/>
+      <c r="K309" s="273"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -36913,29 +36913,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -36952,12 +36935,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -36968,7 +36968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06A2E83-CF6B-4C11-9B5E-4BD2BD0371A2}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E5D17-4078-4664-AC27-1AB471543C4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0367EF9D-037F-42D2-A2B3-DCB3E7381B0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="780" windowWidth="20070" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="315" windowWidth="15060" windowHeight="14655" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
     <sheet name="Switches_Vanilla" sheetId="1" r:id="rId2"/>
     <sheet name="ItemCodes" sheetId="6" r:id="rId3"/>
-    <sheet name="SwitchesItemAutoTracking" sheetId="5" r:id="rId4"/>
+    <sheet name="ItemPlacements" sheetId="7" r:id="rId4"/>
+    <sheet name="SwitchesItemAutoTracking" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="719">
   <si>
     <t>ID</t>
   </si>
@@ -1623,18 +1624,609 @@
   </si>
   <si>
     <t>3_red_jewels</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>South Cape</t>
+  </si>
+  <si>
+    <t>Will's House</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Church Bell</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Lance's House</t>
+  </si>
+  <si>
+    <t>Fisherman's pot</t>
+  </si>
+  <si>
+    <t>Underground pot</t>
+  </si>
+  <si>
+    <t>Edward's Castle</t>
+  </si>
+  <si>
+    <t>Underground barrel</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Hidden guard</t>
+  </si>
+  <si>
+    <t>Edward's Prison</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Zone 3</t>
+  </si>
+  <si>
+    <t>Zone 4</t>
+  </si>
+  <si>
+    <t>Zone 6</t>
+  </si>
+  <si>
+    <t>Pathway to Castle</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Chest room</t>
+  </si>
+  <si>
+    <t>Itory</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Hidden room</t>
+  </si>
+  <si>
+    <t>Moon Tribe</t>
+  </si>
+  <si>
+    <t>Trial cave</t>
+  </si>
+  <si>
+    <t>Incan Ruins</t>
+  </si>
+  <si>
+    <t>Diamond block chest</t>
+  </si>
+  <si>
+    <t>Cliffs</t>
+  </si>
+  <si>
+    <t>Zone 3 - south</t>
+  </si>
+  <si>
+    <t>Zone 3 - north</t>
+  </si>
+  <si>
+    <t>Wind melody spot</t>
+  </si>
+  <si>
+    <t>Zone 9</t>
+  </si>
+  <si>
+    <t>Gold Ship</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>Seth's gift</t>
+  </si>
+  <si>
+    <t>Diamond Coast</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Freejia</t>
+  </si>
+  <si>
+    <t>Vanilla item</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Lola's Melody</t>
+  </si>
+  <si>
+    <t>Large Roast</t>
+  </si>
+  <si>
+    <t>Prison Key</t>
+  </si>
+  <si>
+    <t>Incan Statue A</t>
+  </si>
+  <si>
+    <t>Incan Statue B</t>
+  </si>
+  <si>
+    <t>Diamond Block</t>
+  </si>
+  <si>
+    <t>Wind Melody</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>East-South slaver</t>
+  </si>
+  <si>
+    <t>1st floor - last room - pot</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>Fallen trash</t>
+  </si>
+  <si>
+    <t>Slavers</t>
+  </si>
+  <si>
+    <t>Diamond Mine</t>
+  </si>
+  <si>
+    <t>Zone 2</t>
+  </si>
+  <si>
+    <t>Buried Miner</t>
+  </si>
+  <si>
+    <t>3 RJ</t>
+  </si>
+  <si>
+    <t>Alone Miner</t>
+  </si>
+  <si>
+    <t>Elevator Key</t>
+  </si>
+  <si>
+    <t>Bottom - left room</t>
+  </si>
+  <si>
+    <t>Bottom - right room</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Bottme - center</t>
+  </si>
+  <si>
+    <t>Memory Melody</t>
+  </si>
+  <si>
+    <t>Mine Key A</t>
+  </si>
+  <si>
+    <t>Mine Key B</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Sky Garden</t>
+  </si>
+  <si>
+    <t>East Section</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>West Section</t>
+  </si>
+  <si>
+    <t>South-East Section</t>
+  </si>
+  <si>
+    <t>Seaside Palace</t>
+  </si>
+  <si>
+    <t>South-West Section - Below</t>
+  </si>
+  <si>
+    <t>South-West Section - Top</t>
+  </si>
+  <si>
+    <t>Coffin</t>
+  </si>
+  <si>
+    <t>Purity Stone</t>
+  </si>
+  <si>
+    <t>Mu key</t>
+  </si>
+  <si>
+    <t>Buffy</t>
+  </si>
+  <si>
+    <t>Zone 1</t>
+  </si>
+  <si>
+    <t>Zone 1 - Top-Right chest room</t>
+  </si>
+  <si>
+    <t>Zone 2 - Coffin room</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Zone 2 - Top level</t>
+  </si>
+  <si>
+    <t>Zone 4 - Top level</t>
+  </si>
+  <si>
+    <t>Hope Statue</t>
+  </si>
+  <si>
+    <t>Zone 3 - Top level</t>
+  </si>
+  <si>
+    <t>Zone 6 - Middle level</t>
+  </si>
+  <si>
+    <t>Zone 1 - Low level</t>
+  </si>
+  <si>
+    <t>Zone 1 - Middle level</t>
+  </si>
+  <si>
+    <t>Zone 2 - Low level</t>
+  </si>
+  <si>
+    <t>Rama Statue</t>
+  </si>
+  <si>
+    <t>Angel Village</t>
+  </si>
+  <si>
+    <t>Dance hall</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>Zone 5 - chest room</t>
+  </si>
+  <si>
+    <t>Angel Dungeon</t>
+  </si>
+  <si>
+    <t>Ishtar's lobby - 2nd room</t>
+  </si>
+  <si>
+    <t>Ishtar's trial - 1st chest room</t>
+  </si>
+  <si>
+    <t>Ishtar's trial - 2nd chest room</t>
+  </si>
+  <si>
+    <t>Ishtar - Trial's reward</t>
+  </si>
+  <si>
+    <t>Magic Dust</t>
+  </si>
+  <si>
+    <t>Watermia</t>
+  </si>
+  <si>
+    <t>Gambling house</t>
+  </si>
+  <si>
+    <t>Gambling game</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>South-West pot</t>
+  </si>
+  <si>
+    <t>Game reward</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Great Wall</t>
+  </si>
+  <si>
+    <t>Necklace pearl</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Dark Jewel</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Alley</t>
+  </si>
+  <si>
+    <t>Apple vendor</t>
+  </si>
+  <si>
+    <t>Potion 1</t>
+  </si>
+  <si>
+    <t>Potion 2</t>
+  </si>
+  <si>
+    <t>Hidden house</t>
+  </si>
+  <si>
+    <t>Chapel - Underground</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Rolek Mansion</t>
+  </si>
+  <si>
+    <t>Mt Temple</t>
+  </si>
+  <si>
+    <t>Zone 3 - South-East</t>
+  </si>
+  <si>
+    <t>Mushroom Drops</t>
+  </si>
+  <si>
+    <t>Teapot</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Zone 5 (left passage Zone 3)</t>
+  </si>
+  <si>
+    <t>Zone 7</t>
+  </si>
+  <si>
+    <t>Zone 8</t>
+  </si>
+  <si>
+    <t>Natives' Village</t>
+  </si>
+  <si>
+    <t>Girls House</t>
+  </si>
+  <si>
+    <t>Middle Girl</t>
+  </si>
+  <si>
+    <t>Ankor Wat</t>
+  </si>
+  <si>
+    <t>Dao</t>
+  </si>
+  <si>
+    <t>Pyramid</t>
+  </si>
+  <si>
+    <t>Babel Tower</t>
+  </si>
+  <si>
+    <t>Zone 5 (left of first building)</t>
+  </si>
+  <si>
+    <t>Zone 9 (left of second building)</t>
+  </si>
+  <si>
+    <t>Black Glasses</t>
+  </si>
+  <si>
+    <t>Zone 10 - Passage to Main Hall</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Zone 11 - Main Hall</t>
+  </si>
+  <si>
+    <t>Zone 14</t>
+  </si>
+  <si>
+    <t>Last room</t>
+  </si>
+  <si>
+    <t>Gorgon Flower</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Snake Game House</t>
+  </si>
+  <si>
+    <t>Ground close to Kruks</t>
+  </si>
+  <si>
+    <t>Lola's Letter</t>
+  </si>
+  <si>
+    <t>Father's Journal</t>
+  </si>
+  <si>
+    <t>Top Dark Space</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Entrance</t>
+  </si>
+  <si>
+    <t>Right Cavity</t>
+  </si>
+  <si>
+    <t>Zone 5</t>
+  </si>
+  <si>
+    <t>First Room</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>Crystal Ring</t>
+  </si>
+  <si>
+    <t>Hieroglyph</t>
+  </si>
+  <si>
+    <t>Hieroglyph tile</t>
+  </si>
+  <si>
+    <t>Zone 3 - first room</t>
+  </si>
+  <si>
+    <t>Zone 4 - Chest room</t>
+  </si>
+  <si>
+    <t>Zone 5 - first room cavity</t>
+  </si>
+  <si>
+    <t>2 RJ</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Address
+Unsigned Int 1 byte</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x7E0A50</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x7E0A51</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <t>0x7E0A1A</t>
+  </si>
+  <si>
+    <t>0x7E0A1C</t>
+  </si>
+  <si>
+    <t>0x7E0A1B</t>
+  </si>
+  <si>
+    <t>0x7E0A40</t>
+  </si>
+  <si>
+    <t>0x7E0A41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1760,6 +2352,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1847,7 +2455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2374,89 +2982,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2601,11 +3126,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2621,19 +3146,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2642,55 +3167,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2702,13 +3227,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2717,22 +3242,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2762,10 +3287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2774,34 +3299,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2843,12 +3368,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2858,136 +3377,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3008,150 +3410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3164,214 +3422,288 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="60" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3383,43 +3715,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3452,8 +3784,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3462,7 +3800,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3501,22 +3870,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8457C8C2-20C7-411C-B354-54B58C2050B4}" name="Tableau1" displayName="Tableau1" ref="B2:C25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8457C8C2-20C7-411C-B354-54B58C2050B4}" name="Tableau1" displayName="Tableau1" ref="B2:C25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B2:C25" xr:uid="{2F15CC89-C761-4742-A8A9-3DD5E430CD7F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1B5F69A-9DA4-4A56-A977-56E1CC3DFB04}" name="Code" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{948F77C9-1EBE-4152-9D57-3015E46B4F2F}" name="Item" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C1B5F69A-9DA4-4A56-A977-56E1CC3DFB04}" name="Code" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{948F77C9-1EBE-4152-9D57-3015E46B4F2F}" name="Item" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33607311-3D26-45EA-B77B-E3B2327F2B70}" name="Tableau2" displayName="Tableau2" ref="E2:F25" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33607311-3D26-45EA-B77B-E3B2327F2B70}" name="Tableau2" displayName="Tableau2" ref="E2:F25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="E2:F25" xr:uid="{30407E88-6486-443B-B55E-F65D53887449}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6707D14-1027-43C2-8F66-1E75E6D0F1F4}" name="Code" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{18A4C310-7674-4E01-897F-6F76010EDD92}" name="Item" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A6707D14-1027-43C2-8F66-1E75E6D0F1F4}" name="Code" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{18A4C310-7674-4E01-897F-6F76010EDD92}" name="Item" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2145C2C-28E7-4729-95B3-33F4F107767B}" name="Tableau3" displayName="Tableau3" ref="B2:H107" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B2:H107" xr:uid="{43C0CF75-B856-4CC6-A6A8-EEAC4E75867E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4ED943CA-2B52-4FC9-AC61-1CD9FB02091D}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{91401FD4-6D61-468F-9530-BF0307C82E28}" name="Place"/>
+    <tableColumn id="3" xr3:uid="{20A3E718-7616-4DC8-817B-C099CB3B8912}" name="Zone"/>
+    <tableColumn id="4" xr3:uid="{96C9C31E-3EEE-4C51-80E9-F6B671DAD769}" name="Spot"/>
+    <tableColumn id="5" xr3:uid="{C8C8534A-84B6-4EEB-8ABD-7CD59A3AFD48}" name="Vanilla item" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F791C752-4A40-4EDB-8DF2-1A4D5B784FA1}" name="Address_x000a_Unsigned Int 1 byte" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E5EA15A0-2F80-48BA-B3E2-020904BAA6AD}" name="Flag" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3848,9 +4233,9 @@
   </sheetPr>
   <dimension ref="A1:P1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:K3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3896,7 +4281,7 @@
       <c r="I1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="86">
+      <c r="J1" s="84">
         <v>2</v>
       </c>
       <c r="K1" s="10">
@@ -3924,21 +4309,21 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="266" t="s">
+      <c r="D2" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="263"/>
-      <c r="M2" s="83" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="200"/>
+      <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16">
       <c r="A3" s="12">
         <f>A2+1</f>
         <v>1</v>
@@ -3951,19 +4336,19 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="269"/>
-      <c r="M3" s="83" t="s">
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="206"/>
+      <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16">
       <c r="A4" s="12">
         <f t="shared" ref="A4:A67" si="2">A3+1</f>
         <v>2</v>
@@ -3976,35 +4361,35 @@
         <f t="shared" si="1"/>
         <v>16-23</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="158" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16">
       <c r="A5" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4013,39 +4398,39 @@
         <f t="shared" si="0"/>
         <v>A03</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="149" t="str">
         <f t="shared" si="1"/>
         <v>24-31</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="138" t="s">
+      <c r="K5" s="163" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16">
       <c r="A6" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4058,35 +4443,35 @@
         <f t="shared" si="1"/>
         <v>32-39</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="162" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16">
       <c r="A7" s="12">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4095,39 +4480,39 @@
         <f t="shared" si="0"/>
         <v>A05</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="149" t="str">
         <f t="shared" si="1"/>
         <v>40-47</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="162" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16">
       <c r="A8" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4136,39 +4521,39 @@
         <f t="shared" si="0"/>
         <v>A06</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="149" t="str">
         <f t="shared" si="1"/>
         <v>48-55</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="145" t="s">
+      <c r="I8" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="144" t="s">
+      <c r="J8" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="144" t="s">
+      <c r="K8" s="166" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16">
       <c r="A9" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4181,31 +4566,31 @@
         <f t="shared" si="1"/>
         <v>56-63</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="92"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
       <c r="M9" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16">
       <c r="A10" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4214,39 +4599,39 @@
         <f t="shared" si="0"/>
         <v>A08</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="149" t="str">
         <f t="shared" si="1"/>
         <v>64-71</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="180" t="s">
+      <c r="I10" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="181" t="s">
+      <c r="J10" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="144" t="s">
+      <c r="K10" s="166" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16">
       <c r="A11" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4259,28 +4644,28 @@
         <f t="shared" si="1"/>
         <v>72-79</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="138" t="s">
+      <c r="E11" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="H11" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="171" t="s">
+      <c r="K11" s="167" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="6">
@@ -4290,7 +4675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+    <row r="12" spans="1:16">
       <c r="A12" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4299,32 +4684,32 @@
         <f t="shared" si="0"/>
         <v>A0A</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="149" t="str">
         <f t="shared" si="1"/>
         <v>80-87</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="164" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="6">
@@ -4340,39 +4725,39 @@
         <f t="shared" si="0"/>
         <v>A0B</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="149" t="str">
         <f t="shared" si="1"/>
         <v>88-95</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="147" t="s">
+      <c r="E13" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="146" t="s">
+      <c r="F13" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="170" t="s">
+      <c r="H13" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="160" t="s">
+      <c r="J13" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="107" t="s">
+      <c r="K13" s="158" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1">
+    <row r="14" spans="1:16">
       <c r="A14" s="12">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4381,39 +4766,39 @@
         <f t="shared" si="0"/>
         <v>A0C</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="149" t="str">
         <f t="shared" si="1"/>
         <v>96-103</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="94" t="s">
+      <c r="I14" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="94" t="s">
+      <c r="J14" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="164" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1">
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4426,28 +4811,28 @@
         <f t="shared" si="1"/>
         <v>104-111</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="111" t="s">
+      <c r="H15" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="167" t="s">
+      <c r="J15" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="107" t="s">
+      <c r="K15" s="158" t="s">
         <v>93</v>
       </c>
       <c r="M15" s="6">
@@ -4463,32 +4848,32 @@
         <f t="shared" si="0"/>
         <v>A0E</v>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C16" s="149" t="str">
         <f t="shared" si="1"/>
         <v>112-119</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="107" t="s">
+      <c r="I16" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="107" t="s">
+      <c r="J16" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="144" t="s">
+      <c r="K16" s="166" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="6">
@@ -4504,32 +4889,32 @@
         <f t="shared" si="0"/>
         <v>A0F</v>
       </c>
-      <c r="C17" s="33" t="str">
+      <c r="C17" s="156" t="str">
         <f t="shared" si="1"/>
         <v>120-127</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="112" t="s">
+      <c r="H17" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="114" t="s">
+      <c r="I17" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="169" t="s">
+      <c r="J17" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="116" t="s">
+      <c r="K17" s="162" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="56">
@@ -4538,7 +4923,7 @@
       <c r="N17" s="57"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1">
+    <row r="18" spans="1:16">
       <c r="A18" s="37">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4547,39 +4932,39 @@
         <f t="shared" si="0"/>
         <v>A10</v>
       </c>
-      <c r="C18" s="38" t="str">
+      <c r="C18" s="52" t="str">
         <f t="shared" si="1"/>
         <v>128-135</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="179" t="s">
+      <c r="I18" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="97" t="s">
+      <c r="J18" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="97" t="s">
+      <c r="K18" s="164" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+    <row r="19" spans="1:16">
       <c r="A19" s="12">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4588,39 +4973,39 @@
         <f t="shared" si="0"/>
         <v>A11</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="149" t="str">
         <f t="shared" si="1"/>
         <v>136-143</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="162" t="s">
+      <c r="E19" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="178" t="s">
+      <c r="H19" s="170" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="163" t="s">
+      <c r="I19" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="104" t="s">
+      <c r="J19" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="164" t="s">
         <v>123</v>
       </c>
       <c r="M19" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1">
+    <row r="20" spans="1:16">
       <c r="A20" s="12">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4633,35 +5018,35 @@
         <f t="shared" si="1"/>
         <v>144-151</v>
       </c>
-      <c r="D20" s="183" t="s">
+      <c r="D20" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="148" t="s">
+      <c r="F20" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="147" t="s">
+      <c r="I20" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="107" t="s">
+      <c r="J20" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="109" t="s">
+      <c r="K20" s="158" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1">
+    <row r="21" spans="1:16">
       <c r="A21" s="12">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4670,39 +5055,39 @@
         <f t="shared" si="0"/>
         <v>A13</v>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="149" t="str">
         <f t="shared" si="1"/>
         <v>152-159</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="E21" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="173" t="s">
+      <c r="I21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="142" t="s">
+      <c r="J21" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="173" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1">
+    <row r="22" spans="1:16">
       <c r="A22" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4711,39 +5096,39 @@
         <f t="shared" si="0"/>
         <v>A14</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="149" t="str">
         <f t="shared" si="1"/>
         <v>160-167</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="122" t="s">
+      <c r="G22" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="174" t="s">
+      <c r="H22" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="175" t="s">
+      <c r="I22" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="97" t="s">
+      <c r="K22" s="164" t="s">
         <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1">
+    <row r="23" spans="1:16">
       <c r="A23" s="12">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4752,39 +5137,39 @@
         <f t="shared" si="0"/>
         <v>A15</v>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="149" t="str">
         <f t="shared" si="1"/>
         <v>168-175</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="123" t="s">
+      <c r="G23" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="97" t="s">
+      <c r="K23" s="164" t="s">
         <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+    <row r="24" spans="1:16">
       <c r="A24" s="12">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4793,32 +5178,32 @@
         <f t="shared" si="0"/>
         <v>A16</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="149" t="str">
         <f t="shared" si="1"/>
         <v>176-183</v>
       </c>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="109" t="s">
+      <c r="E24" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="122" t="s">
+      <c r="G24" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="158" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="107" t="s">
+      <c r="J24" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="109" t="s">
+      <c r="K24" s="158" t="s">
         <v>163</v>
       </c>
       <c r="M24" s="6" t="s">
@@ -4837,32 +5222,32 @@
         <f t="shared" si="0"/>
         <v>A17</v>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="149" t="str">
         <f t="shared" si="1"/>
         <v>184-191</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="149" t="s">
+      <c r="F25" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="138" t="s">
+      <c r="G25" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="124" t="s">
+      <c r="H25" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="150" t="s">
+      <c r="I25" s="167" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="182" t="s">
+      <c r="K25" s="165" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -4878,32 +5263,32 @@
         <f t="shared" si="0"/>
         <v>A18</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="149" t="str">
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="167" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="146" t="s">
+      <c r="F26" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="150" t="s">
+      <c r="G26" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="151" t="s">
+      <c r="H26" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="146" t="s">
+      <c r="I26" s="167" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="94" t="s">
+      <c r="J26" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="94" t="s">
+      <c r="K26" s="164" t="s">
         <v>181</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -4919,39 +5304,39 @@
         <f t="shared" si="0"/>
         <v>A19</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="149" t="str">
         <f t="shared" si="1"/>
         <v>200-207</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="109" t="s">
+      <c r="E27" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="138" t="s">
+      <c r="F27" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="138" t="s">
+      <c r="G27" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="141" t="s">
+      <c r="H27" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="93" t="s">
+      <c r="I27" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="138" t="s">
+      <c r="J27" s="163" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="K27" s="162" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1">
+    <row r="28" spans="1:16">
       <c r="A28" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4960,39 +5345,39 @@
         <f t="shared" si="0"/>
         <v>A1A</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="149" t="str">
         <f t="shared" si="1"/>
         <v>208-215</v>
       </c>
-      <c r="D28" s="154" t="s">
+      <c r="D28" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="109" t="s">
+      <c r="E28" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="138" t="s">
+      <c r="F28" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="125" t="s">
+      <c r="G28" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="124" t="s">
+      <c r="H28" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="97" t="s">
+      <c r="J28" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="109" t="s">
+      <c r="K28" s="158" t="s">
         <v>196</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1">
+    <row r="29" spans="1:16">
       <c r="A29" s="12">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -5001,39 +5386,39 @@
         <f t="shared" si="0"/>
         <v>A1B</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="149" t="str">
         <f t="shared" si="1"/>
         <v>216-223</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="109" t="s">
+      <c r="E29" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="158" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="152" t="s">
+      <c r="G29" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="126" t="s">
+      <c r="H29" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="138" t="s">
+      <c r="I29" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="142" t="s">
+      <c r="J29" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="142" t="s">
+      <c r="K29" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="M29" s="83" t="s">
+      <c r="M29" s="81" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16">
       <c r="A30" s="12">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -5042,39 +5427,39 @@
         <f t="shared" si="0"/>
         <v>A1C</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="149" t="str">
         <f t="shared" si="1"/>
         <v>224-231</v>
       </c>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="153" t="s">
+      <c r="E30" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="142" t="s">
+      <c r="F30" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="158" t="s">
+      <c r="G30" s="170" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="159" t="s">
+      <c r="H30" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="157" t="s">
+      <c r="I30" s="165" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="142" t="s">
+      <c r="J30" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="142" t="s">
+      <c r="K30" s="173" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1">
+    <row r="31" spans="1:16">
       <c r="A31" s="12">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -5083,39 +5468,39 @@
         <f t="shared" si="0"/>
         <v>A1D</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="149" t="str">
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="176" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="160" t="s">
+      <c r="E31" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="160" t="s">
+      <c r="F31" s="165" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="161" t="s">
+      <c r="G31" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="143" t="s">
+      <c r="H31" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="160" t="s">
+      <c r="I31" s="165" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="160" t="s">
+      <c r="J31" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="97" t="s">
+      <c r="K31" s="164" t="s">
         <v>221</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1">
+    <row r="32" spans="1:16">
       <c r="A32" s="12">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -5124,35 +5509,35 @@
         <f>DEC2HEX(2560+A32)</f>
         <v>A1E</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="149" t="str">
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="155" t="s">
+      <c r="F32" s="169" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="126" t="s">
+      <c r="G32" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="91" t="s">
+      <c r="H32" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="94" t="s">
+      <c r="I32" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="164" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="97" t="s">
+      <c r="K32" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="M32" s="83" t="s">
+      <c r="M32" s="81" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5165,30 +5550,30 @@
         <f>DEC2HEX(2560+A33)</f>
         <v>A1F</v>
       </c>
-      <c r="C33" s="33" t="str">
+      <c r="C33" s="156" t="str">
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="127"/>
-      <c r="E33" s="114" t="s">
+      <c r="D33" s="162"/>
+      <c r="E33" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="164" t="s">
+      <c r="F33" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="165" t="s">
+      <c r="G33" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="166" t="s">
+      <c r="H33" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="164" t="s">
+      <c r="I33" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="164" t="s">
+      <c r="J33" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="164" t="s">
+      <c r="K33" s="177" t="s">
         <v>237</v>
       </c>
       <c r="M33" s="56" t="s">
@@ -5207,27 +5592,27 @@
         <v>A20</v>
       </c>
       <c r="C34" s="38"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="128" t="s">
+      <c r="F34" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="157" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="128" t="s">
+      <c r="H34" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="128" t="s">
+      <c r="I34" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="128" t="s">
+      <c r="J34" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="K34" s="130"/>
-      <c r="M34" s="83" t="s">
+      <c r="K34" s="89"/>
+      <c r="M34" s="81" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5241,29 +5626,29 @@
         <v>A21</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="131" t="s">
+      <c r="D35" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="132" t="s">
+      <c r="E35" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="131" t="s">
+      <c r="F35" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="133" t="s">
+      <c r="G35" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="134" t="s">
+      <c r="H35" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="132" t="s">
+      <c r="I35" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="J35" s="132"/>
-      <c r="K35" s="133" t="s">
+      <c r="J35" s="91"/>
+      <c r="K35" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="M35" s="83" t="s">
+      <c r="M35" s="81" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5277,26 +5662,26 @@
         <v>A22</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="131" t="s">
+      <c r="D36" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="E36" s="132" t="s">
+      <c r="E36" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="132" t="s">
+      <c r="F36" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="133" t="s">
+      <c r="G36" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="111" t="s">
+      <c r="H36" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="132" t="s">
+      <c r="I36" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="J36" s="132"/>
-      <c r="K36" s="133" t="s">
+      <c r="J36" s="91"/>
+      <c r="K36" s="92" t="s">
         <v>258</v>
       </c>
       <c r="M36" s="5">
@@ -5313,26 +5698,26 @@
         <v>A23</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="131" t="s">
+      <c r="D37" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="132"/>
-      <c r="F37" s="94" t="s">
+      <c r="E37" s="91"/>
+      <c r="F37" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="G37" s="133" t="s">
+      <c r="G37" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="H37" s="95" t="s">
+      <c r="H37" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="I37" s="132" t="s">
+      <c r="I37" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J37" s="132" t="s">
+      <c r="J37" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="K37" s="131" t="s">
+      <c r="K37" s="90" t="s">
         <v>265</v>
       </c>
       <c r="M37" s="6">
@@ -5349,26 +5734,26 @@
         <v>A24</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="132" t="s">
+      <c r="D38" s="90"/>
+      <c r="E38" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="132" t="s">
+      <c r="F38" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="133" t="s">
+      <c r="G38" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="H38" s="134" t="s">
+      <c r="H38" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="I38" s="132" t="s">
+      <c r="I38" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="J38" s="132" t="s">
+      <c r="J38" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="K38" s="133"/>
+      <c r="K38" s="92"/>
       <c r="M38" s="6">
         <v>20</v>
       </c>
@@ -5383,24 +5768,24 @@
         <v>A25</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="131" t="s">
+      <c r="D39" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="E39" s="132" t="s">
+      <c r="E39" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="132" t="s">
+      <c r="F39" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="G39" s="133" t="s">
+      <c r="G39" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="134" t="s">
+      <c r="H39" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="133" t="s">
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="92" t="s">
         <v>271</v>
       </c>
       <c r="M39" s="6">
@@ -5417,28 +5802,28 @@
         <v>A26</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="131" t="s">
+      <c r="D40" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="132" t="s">
+      <c r="E40" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="132" t="s">
+      <c r="F40" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="132" t="s">
+      <c r="G40" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="H40" s="134" t="s">
+      <c r="H40" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="I40" s="132" t="s">
+      <c r="I40" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="J40" s="132" t="s">
+      <c r="J40" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="K40" s="133" t="s">
+      <c r="K40" s="92" t="s">
         <v>282</v>
       </c>
       <c r="M40" s="6">
@@ -5455,26 +5840,26 @@
         <v>A27</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="132" t="s">
+      <c r="D41" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="132" t="s">
+      <c r="E41" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="F41" s="132" t="s">
+      <c r="F41" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="G41" s="133"/>
-      <c r="H41" s="95" t="s">
+      <c r="G41" s="92"/>
+      <c r="H41" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="132" t="s">
+      <c r="I41" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="J41" s="132" t="s">
+      <c r="J41" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="133" t="s">
+      <c r="K41" s="92" t="s">
         <v>289</v>
       </c>
       <c r="M41" s="6">
@@ -5491,26 +5876,26 @@
         <v>A28</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="132" t="s">
+      <c r="E42" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="F42" s="132"/>
-      <c r="G42" s="133" t="s">
+      <c r="F42" s="91"/>
+      <c r="G42" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="H42" s="134" t="s">
+      <c r="H42" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="I42" s="132" t="s">
+      <c r="I42" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="J42" s="132" t="s">
+      <c r="J42" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="K42" s="133" t="s">
+      <c r="K42" s="92" t="s">
         <v>296</v>
       </c>
       <c r="M42" s="6">
@@ -5527,28 +5912,28 @@
         <v>A29</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="E43" s="132" t="s">
+      <c r="E43" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="132" t="s">
+      <c r="F43" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="135" t="s">
+      <c r="G43" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="H43" s="131" t="s">
+      <c r="H43" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="I43" s="132" t="s">
+      <c r="I43" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="J43" s="132" t="s">
+      <c r="J43" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="K43" s="133"/>
+      <c r="K43" s="92"/>
       <c r="M43" s="6">
         <v>48</v>
       </c>
@@ -5563,20 +5948,20 @@
         <v>A2A</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="134" t="s">
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="I44" s="132" t="s">
+      <c r="I44" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="J44" s="132" t="s">
+      <c r="J44" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="K44" s="133" t="s">
+      <c r="K44" s="92" t="s">
         <v>307</v>
       </c>
       <c r="M44" s="6">
@@ -5593,18 +5978,18 @@
         <v>A2B</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132" t="s">
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91" t="s">
         <v>309</v>
       </c>
-      <c r="K45" s="133"/>
+      <c r="K45" s="92"/>
       <c r="M45" s="6">
         <v>58</v>
       </c>
@@ -5995,7 +6380,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
-      <c r="M61" s="83" t="s">
+      <c r="M61" s="81" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6061,7 +6446,7 @@
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
-      <c r="M64" s="83" t="s">
+      <c r="M64" s="81" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10015,16 +10400,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="247" t="s">
+      <c r="D168" s="184" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="247"/>
-      <c r="F168" s="247"/>
-      <c r="G168" s="247"/>
-      <c r="H168" s="247"/>
-      <c r="I168" s="247"/>
-      <c r="J168" s="247"/>
-      <c r="K168" s="247"/>
+      <c r="E168" s="184"/>
+      <c r="F168" s="184"/>
+      <c r="G168" s="184"/>
+      <c r="H168" s="184"/>
+      <c r="I168" s="184"/>
+      <c r="J168" s="184"/>
+      <c r="K168" s="184"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10150,16 +10535,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="247" t="s">
+      <c r="D175" s="184" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="247"/>
-      <c r="F175" s="247"/>
-      <c r="G175" s="247"/>
-      <c r="H175" s="247"/>
-      <c r="I175" s="247"/>
-      <c r="J175" s="247"/>
-      <c r="K175" s="247"/>
+      <c r="E175" s="184"/>
+      <c r="F175" s="184"/>
+      <c r="G175" s="184"/>
+      <c r="H175" s="184"/>
+      <c r="I175" s="184"/>
+      <c r="J175" s="184"/>
+      <c r="K175" s="184"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10212,16 +10597,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="248" t="s">
+      <c r="D178" s="185" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="247"/>
-      <c r="F178" s="247"/>
-      <c r="G178" s="247"/>
-      <c r="H178" s="247"/>
-      <c r="I178" s="247"/>
-      <c r="J178" s="247"/>
-      <c r="K178" s="247"/>
+      <c r="E178" s="184"/>
+      <c r="F178" s="184"/>
+      <c r="G178" s="184"/>
+      <c r="H178" s="184"/>
+      <c r="I178" s="184"/>
+      <c r="J178" s="184"/>
+      <c r="K178" s="184"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -10293,16 +10678,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="249" t="s">
+      <c r="D182" s="186" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="250"/>
-      <c r="F182" s="250"/>
-      <c r="G182" s="250"/>
-      <c r="H182" s="250"/>
-      <c r="I182" s="250"/>
-      <c r="J182" s="250"/>
-      <c r="K182" s="251"/>
+      <c r="E182" s="187"/>
+      <c r="F182" s="187"/>
+      <c r="G182" s="187"/>
+      <c r="H182" s="187"/>
+      <c r="I182" s="187"/>
+      <c r="J182" s="187"/>
+      <c r="K182" s="188"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -10314,16 +10699,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="249" t="s">
+      <c r="D183" s="186" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="250"/>
-      <c r="F183" s="250"/>
-      <c r="G183" s="250"/>
-      <c r="H183" s="250"/>
-      <c r="I183" s="250"/>
-      <c r="J183" s="250"/>
-      <c r="K183" s="251"/>
+      <c r="E183" s="187"/>
+      <c r="F183" s="187"/>
+      <c r="G183" s="187"/>
+      <c r="H183" s="187"/>
+      <c r="I183" s="187"/>
+      <c r="J183" s="187"/>
+      <c r="K183" s="188"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -10335,16 +10720,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="249" t="s">
+      <c r="D184" s="186" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="250"/>
-      <c r="F184" s="250"/>
-      <c r="G184" s="250"/>
-      <c r="H184" s="250"/>
-      <c r="I184" s="250"/>
-      <c r="J184" s="250"/>
-      <c r="K184" s="251"/>
+      <c r="E184" s="187"/>
+      <c r="F184" s="187"/>
+      <c r="G184" s="187"/>
+      <c r="H184" s="187"/>
+      <c r="I184" s="187"/>
+      <c r="J184" s="187"/>
+      <c r="K184" s="188"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -10356,16 +10741,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="249" t="s">
+      <c r="D185" s="186" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="250"/>
-      <c r="F185" s="250"/>
-      <c r="G185" s="250"/>
-      <c r="H185" s="250"/>
-      <c r="I185" s="250"/>
-      <c r="J185" s="250"/>
-      <c r="K185" s="251"/>
+      <c r="E185" s="187"/>
+      <c r="F185" s="187"/>
+      <c r="G185" s="187"/>
+      <c r="H185" s="187"/>
+      <c r="I185" s="187"/>
+      <c r="J185" s="187"/>
+      <c r="K185" s="188"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -10377,16 +10762,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="249" t="s">
+      <c r="D186" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="250"/>
-      <c r="F186" s="250"/>
-      <c r="G186" s="250"/>
-      <c r="H186" s="250"/>
-      <c r="I186" s="250"/>
-      <c r="J186" s="250"/>
-      <c r="K186" s="251"/>
+      <c r="E186" s="187"/>
+      <c r="F186" s="187"/>
+      <c r="G186" s="187"/>
+      <c r="H186" s="187"/>
+      <c r="I186" s="187"/>
+      <c r="J186" s="187"/>
+      <c r="K186" s="188"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -10398,16 +10783,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="249" t="s">
+      <c r="D187" s="186" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="250"/>
-      <c r="F187" s="250"/>
-      <c r="G187" s="250"/>
-      <c r="H187" s="250"/>
-      <c r="I187" s="250"/>
-      <c r="J187" s="250"/>
-      <c r="K187" s="251"/>
+      <c r="E187" s="187"/>
+      <c r="F187" s="187"/>
+      <c r="G187" s="187"/>
+      <c r="H187" s="187"/>
+      <c r="I187" s="187"/>
+      <c r="J187" s="187"/>
+      <c r="K187" s="188"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -10419,16 +10804,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="249" t="s">
+      <c r="D188" s="186" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="250"/>
-      <c r="F188" s="250"/>
-      <c r="G188" s="250"/>
-      <c r="H188" s="250"/>
-      <c r="I188" s="250"/>
-      <c r="J188" s="250"/>
-      <c r="K188" s="251"/>
+      <c r="E188" s="187"/>
+      <c r="F188" s="187"/>
+      <c r="G188" s="187"/>
+      <c r="H188" s="187"/>
+      <c r="I188" s="187"/>
+      <c r="J188" s="187"/>
+      <c r="K188" s="188"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -10440,16 +10825,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="249" t="s">
+      <c r="D189" s="186" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="250"/>
-      <c r="F189" s="250"/>
-      <c r="G189" s="250"/>
-      <c r="H189" s="250"/>
-      <c r="I189" s="250"/>
-      <c r="J189" s="250"/>
-      <c r="K189" s="251"/>
+      <c r="E189" s="187"/>
+      <c r="F189" s="187"/>
+      <c r="G189" s="187"/>
+      <c r="H189" s="187"/>
+      <c r="I189" s="187"/>
+      <c r="J189" s="187"/>
+      <c r="K189" s="188"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -10461,16 +10846,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="249" t="s">
+      <c r="D190" s="186" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="250"/>
-      <c r="F190" s="250"/>
-      <c r="G190" s="250"/>
-      <c r="H190" s="250"/>
-      <c r="I190" s="250"/>
-      <c r="J190" s="250"/>
-      <c r="K190" s="251"/>
+      <c r="E190" s="187"/>
+      <c r="F190" s="187"/>
+      <c r="G190" s="187"/>
+      <c r="H190" s="187"/>
+      <c r="I190" s="187"/>
+      <c r="J190" s="187"/>
+      <c r="K190" s="188"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -10482,16 +10867,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="249" t="s">
+      <c r="D191" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="250"/>
-      <c r="F191" s="250"/>
-      <c r="G191" s="250"/>
-      <c r="H191" s="250"/>
-      <c r="I191" s="250"/>
-      <c r="J191" s="250"/>
-      <c r="K191" s="251"/>
+      <c r="E191" s="187"/>
+      <c r="F191" s="187"/>
+      <c r="G191" s="187"/>
+      <c r="H191" s="187"/>
+      <c r="I191" s="187"/>
+      <c r="J191" s="187"/>
+      <c r="K191" s="188"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -10503,16 +10888,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="249" t="s">
+      <c r="D192" s="186" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="250"/>
-      <c r="F192" s="250"/>
-      <c r="G192" s="250"/>
-      <c r="H192" s="250"/>
-      <c r="I192" s="250"/>
-      <c r="J192" s="250"/>
-      <c r="K192" s="251"/>
+      <c r="E192" s="187"/>
+      <c r="F192" s="187"/>
+      <c r="G192" s="187"/>
+      <c r="H192" s="187"/>
+      <c r="I192" s="187"/>
+      <c r="J192" s="187"/>
+      <c r="K192" s="188"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -10524,16 +10909,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="252" t="s">
+      <c r="D193" s="189" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="253"/>
-      <c r="F193" s="253"/>
-      <c r="G193" s="253"/>
-      <c r="H193" s="253"/>
-      <c r="I193" s="253"/>
-      <c r="J193" s="253"/>
-      <c r="K193" s="254"/>
+      <c r="E193" s="190"/>
+      <c r="F193" s="190"/>
+      <c r="G193" s="190"/>
+      <c r="H193" s="190"/>
+      <c r="I193" s="190"/>
+      <c r="J193" s="190"/>
+      <c r="K193" s="191"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -10548,16 +10933,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="255" t="s">
+      <c r="D194" s="192" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="256"/>
-      <c r="F194" s="256"/>
-      <c r="G194" s="256"/>
-      <c r="H194" s="256"/>
-      <c r="I194" s="256"/>
-      <c r="J194" s="256"/>
-      <c r="K194" s="257"/>
+      <c r="E194" s="193"/>
+      <c r="F194" s="193"/>
+      <c r="G194" s="193"/>
+      <c r="H194" s="193"/>
+      <c r="I194" s="193"/>
+      <c r="J194" s="193"/>
+      <c r="K194" s="194"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -10569,16 +10954,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="249" t="s">
+      <c r="D195" s="186" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="250"/>
-      <c r="F195" s="250"/>
-      <c r="G195" s="250"/>
-      <c r="H195" s="250"/>
-      <c r="I195" s="250"/>
-      <c r="J195" s="250"/>
-      <c r="K195" s="251"/>
+      <c r="E195" s="187"/>
+      <c r="F195" s="187"/>
+      <c r="G195" s="187"/>
+      <c r="H195" s="187"/>
+      <c r="I195" s="187"/>
+      <c r="J195" s="187"/>
+      <c r="K195" s="188"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -10590,16 +10975,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="249" t="s">
+      <c r="D196" s="186" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="250"/>
-      <c r="F196" s="250"/>
-      <c r="G196" s="250"/>
-      <c r="H196" s="250"/>
-      <c r="I196" s="250"/>
-      <c r="J196" s="250"/>
-      <c r="K196" s="251"/>
+      <c r="E196" s="187"/>
+      <c r="F196" s="187"/>
+      <c r="G196" s="187"/>
+      <c r="H196" s="187"/>
+      <c r="I196" s="187"/>
+      <c r="J196" s="187"/>
+      <c r="K196" s="188"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -10611,16 +10996,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="249" t="s">
+      <c r="D197" s="186" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="250"/>
-      <c r="F197" s="250"/>
-      <c r="G197" s="250"/>
-      <c r="H197" s="250"/>
-      <c r="I197" s="250"/>
-      <c r="J197" s="250"/>
-      <c r="K197" s="251"/>
+      <c r="E197" s="187"/>
+      <c r="F197" s="187"/>
+      <c r="G197" s="187"/>
+      <c r="H197" s="187"/>
+      <c r="I197" s="187"/>
+      <c r="J197" s="187"/>
+      <c r="K197" s="188"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -10632,16 +11017,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="249" t="s">
+      <c r="D198" s="186" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="250"/>
-      <c r="F198" s="250"/>
-      <c r="G198" s="250"/>
-      <c r="H198" s="250"/>
-      <c r="I198" s="250"/>
-      <c r="J198" s="250"/>
-      <c r="K198" s="251"/>
+      <c r="E198" s="187"/>
+      <c r="F198" s="187"/>
+      <c r="G198" s="187"/>
+      <c r="H198" s="187"/>
+      <c r="I198" s="187"/>
+      <c r="J198" s="187"/>
+      <c r="K198" s="188"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -10672,16 +11057,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="249" t="s">
+      <c r="D200" s="186" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="250"/>
-      <c r="F200" s="250"/>
-      <c r="G200" s="250"/>
-      <c r="H200" s="250"/>
-      <c r="I200" s="250"/>
-      <c r="J200" s="250"/>
-      <c r="K200" s="251"/>
+      <c r="E200" s="187"/>
+      <c r="F200" s="187"/>
+      <c r="G200" s="187"/>
+      <c r="H200" s="187"/>
+      <c r="I200" s="187"/>
+      <c r="J200" s="187"/>
+      <c r="K200" s="188"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -10712,16 +11097,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="279" t="s">
+      <c r="D202" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="280"/>
-      <c r="F202" s="280"/>
-      <c r="G202" s="280"/>
-      <c r="H202" s="280"/>
-      <c r="I202" s="280"/>
-      <c r="J202" s="280"/>
-      <c r="K202" s="281"/>
+      <c r="E202" s="217"/>
+      <c r="F202" s="217"/>
+      <c r="G202" s="217"/>
+      <c r="H202" s="217"/>
+      <c r="I202" s="217"/>
+      <c r="J202" s="217"/>
+      <c r="K202" s="218"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -10752,16 +11137,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="249" t="s">
+      <c r="D204" s="186" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="250"/>
-      <c r="F204" s="250"/>
-      <c r="G204" s="250"/>
-      <c r="H204" s="250"/>
-      <c r="I204" s="250"/>
-      <c r="J204" s="250"/>
-      <c r="K204" s="251"/>
+      <c r="E204" s="187"/>
+      <c r="F204" s="187"/>
+      <c r="G204" s="187"/>
+      <c r="H204" s="187"/>
+      <c r="I204" s="187"/>
+      <c r="J204" s="187"/>
+      <c r="K204" s="188"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -10792,16 +11177,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="249" t="s">
+      <c r="D206" s="186" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="250"/>
-      <c r="F206" s="250"/>
-      <c r="G206" s="250"/>
-      <c r="H206" s="250"/>
-      <c r="I206" s="250"/>
-      <c r="J206" s="250"/>
-      <c r="K206" s="251"/>
+      <c r="E206" s="187"/>
+      <c r="F206" s="187"/>
+      <c r="G206" s="187"/>
+      <c r="H206" s="187"/>
+      <c r="I206" s="187"/>
+      <c r="J206" s="187"/>
+      <c r="K206" s="188"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -10832,16 +11217,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="249" t="s">
+      <c r="D208" s="186" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="250"/>
-      <c r="F208" s="250"/>
-      <c r="G208" s="250"/>
-      <c r="H208" s="250"/>
-      <c r="I208" s="250"/>
-      <c r="J208" s="250"/>
-      <c r="K208" s="251"/>
+      <c r="E208" s="187"/>
+      <c r="F208" s="187"/>
+      <c r="G208" s="187"/>
+      <c r="H208" s="187"/>
+      <c r="I208" s="187"/>
+      <c r="J208" s="187"/>
+      <c r="K208" s="188"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -10875,16 +11260,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="255" t="s">
+      <c r="D210" s="192" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="256"/>
-      <c r="F210" s="256"/>
-      <c r="G210" s="256"/>
-      <c r="H210" s="256"/>
-      <c r="I210" s="256"/>
-      <c r="J210" s="256"/>
-      <c r="K210" s="257"/>
+      <c r="E210" s="193"/>
+      <c r="F210" s="193"/>
+      <c r="G210" s="193"/>
+      <c r="H210" s="193"/>
+      <c r="I210" s="193"/>
+      <c r="J210" s="193"/>
+      <c r="K210" s="194"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -10953,16 +11338,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="249" t="s">
+      <c r="D214" s="186" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="250"/>
-      <c r="F214" s="250"/>
-      <c r="G214" s="250"/>
-      <c r="H214" s="250"/>
-      <c r="I214" s="250"/>
-      <c r="J214" s="250"/>
-      <c r="K214" s="251"/>
+      <c r="E214" s="187"/>
+      <c r="F214" s="187"/>
+      <c r="G214" s="187"/>
+      <c r="H214" s="187"/>
+      <c r="I214" s="187"/>
+      <c r="J214" s="187"/>
+      <c r="K214" s="188"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -10993,16 +11378,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="270" t="s">
+      <c r="D216" s="207" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="262"/>
-      <c r="F216" s="262"/>
-      <c r="G216" s="262"/>
-      <c r="H216" s="262"/>
-      <c r="I216" s="262"/>
-      <c r="J216" s="262"/>
-      <c r="K216" s="271"/>
+      <c r="E216" s="199"/>
+      <c r="F216" s="199"/>
+      <c r="G216" s="199"/>
+      <c r="H216" s="199"/>
+      <c r="I216" s="199"/>
+      <c r="J216" s="199"/>
+      <c r="K216" s="208"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11014,14 +11399,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="255"/>
-      <c r="E217" s="256"/>
-      <c r="F217" s="256"/>
-      <c r="G217" s="256"/>
-      <c r="H217" s="256"/>
-      <c r="I217" s="256"/>
-      <c r="J217" s="256"/>
-      <c r="K217" s="257"/>
+      <c r="D217" s="192"/>
+      <c r="E217" s="193"/>
+      <c r="F217" s="193"/>
+      <c r="G217" s="193"/>
+      <c r="H217" s="193"/>
+      <c r="I217" s="193"/>
+      <c r="J217" s="193"/>
+      <c r="K217" s="194"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11033,16 +11418,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="270" t="s">
+      <c r="D218" s="207" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="262"/>
-      <c r="F218" s="262"/>
-      <c r="G218" s="262"/>
-      <c r="H218" s="262"/>
-      <c r="I218" s="262"/>
-      <c r="J218" s="262"/>
-      <c r="K218" s="271"/>
+      <c r="E218" s="199"/>
+      <c r="F218" s="199"/>
+      <c r="G218" s="199"/>
+      <c r="H218" s="199"/>
+      <c r="I218" s="199"/>
+      <c r="J218" s="199"/>
+      <c r="K218" s="208"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11054,14 +11439,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="255"/>
-      <c r="E219" s="256"/>
-      <c r="F219" s="256"/>
-      <c r="G219" s="256"/>
-      <c r="H219" s="256"/>
-      <c r="I219" s="256"/>
-      <c r="J219" s="256"/>
-      <c r="K219" s="257"/>
+      <c r="D219" s="192"/>
+      <c r="E219" s="193"/>
+      <c r="F219" s="193"/>
+      <c r="G219" s="193"/>
+      <c r="H219" s="193"/>
+      <c r="I219" s="193"/>
+      <c r="J219" s="193"/>
+      <c r="K219" s="194"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11073,16 +11458,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="270" t="s">
+      <c r="D220" s="207" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="262"/>
-      <c r="F220" s="262"/>
-      <c r="G220" s="262"/>
-      <c r="H220" s="262"/>
-      <c r="I220" s="262"/>
-      <c r="J220" s="262"/>
-      <c r="K220" s="271"/>
+      <c r="E220" s="199"/>
+      <c r="F220" s="199"/>
+      <c r="G220" s="199"/>
+      <c r="H220" s="199"/>
+      <c r="I220" s="199"/>
+      <c r="J220" s="199"/>
+      <c r="K220" s="208"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11094,14 +11479,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="255"/>
-      <c r="E221" s="256"/>
-      <c r="F221" s="256"/>
-      <c r="G221" s="256"/>
-      <c r="H221" s="256"/>
-      <c r="I221" s="256"/>
-      <c r="J221" s="256"/>
-      <c r="K221" s="257"/>
+      <c r="D221" s="192"/>
+      <c r="E221" s="193"/>
+      <c r="F221" s="193"/>
+      <c r="G221" s="193"/>
+      <c r="H221" s="193"/>
+      <c r="I221" s="193"/>
+      <c r="J221" s="193"/>
+      <c r="K221" s="194"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11113,16 +11498,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="249" t="s">
+      <c r="D222" s="186" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="250"/>
-      <c r="F222" s="250"/>
-      <c r="G222" s="250"/>
-      <c r="H222" s="250"/>
-      <c r="I222" s="250"/>
-      <c r="J222" s="250"/>
-      <c r="K222" s="251"/>
+      <c r="E222" s="187"/>
+      <c r="F222" s="187"/>
+      <c r="G222" s="187"/>
+      <c r="H222" s="187"/>
+      <c r="I222" s="187"/>
+      <c r="J222" s="187"/>
+      <c r="K222" s="188"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11153,16 +11538,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="249" t="s">
+      <c r="D224" s="186" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="250"/>
-      <c r="F224" s="250"/>
-      <c r="G224" s="250"/>
-      <c r="H224" s="250"/>
-      <c r="I224" s="250"/>
-      <c r="J224" s="250"/>
-      <c r="K224" s="251"/>
+      <c r="E224" s="187"/>
+      <c r="F224" s="187"/>
+      <c r="G224" s="187"/>
+      <c r="H224" s="187"/>
+      <c r="I224" s="187"/>
+      <c r="J224" s="187"/>
+      <c r="K224" s="188"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11196,16 +11581,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="276" t="s">
+      <c r="D226" s="213" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="277"/>
-      <c r="F226" s="277"/>
-      <c r="G226" s="277"/>
-      <c r="H226" s="277"/>
-      <c r="I226" s="277"/>
-      <c r="J226" s="277"/>
-      <c r="K226" s="278"/>
+      <c r="E226" s="214"/>
+      <c r="F226" s="214"/>
+      <c r="G226" s="214"/>
+      <c r="H226" s="214"/>
+      <c r="I226" s="214"/>
+      <c r="J226" s="214"/>
+      <c r="K226" s="215"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -11312,14 +11697,14 @@
         <v>AE6</v>
       </c>
       <c r="C232" s="13"/>
-      <c r="D232" s="185"/>
+      <c r="D232" s="96"/>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
-      <c r="G232" s="184"/>
+      <c r="G232" s="95"/>
       <c r="H232" s="48"/>
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
-      <c r="K232" s="184"/>
+      <c r="K232" s="95"/>
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="12">
@@ -11350,16 +11735,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="274" t="s">
+      <c r="D234" s="211" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="259"/>
-      <c r="F234" s="259"/>
-      <c r="G234" s="259"/>
-      <c r="H234" s="259"/>
-      <c r="I234" s="259"/>
-      <c r="J234" s="259"/>
-      <c r="K234" s="275"/>
+      <c r="E234" s="196"/>
+      <c r="F234" s="196"/>
+      <c r="G234" s="196"/>
+      <c r="H234" s="196"/>
+      <c r="I234" s="196"/>
+      <c r="J234" s="196"/>
+      <c r="K234" s="212"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -11428,16 +11813,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="266" t="s">
+      <c r="D238" s="203" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="262"/>
-      <c r="F238" s="262"/>
-      <c r="G238" s="262"/>
-      <c r="H238" s="262"/>
-      <c r="I238" s="262"/>
-      <c r="J238" s="262"/>
-      <c r="K238" s="263"/>
+      <c r="E238" s="199"/>
+      <c r="F238" s="199"/>
+      <c r="G238" s="199"/>
+      <c r="H238" s="199"/>
+      <c r="I238" s="199"/>
+      <c r="J238" s="199"/>
+      <c r="K238" s="200"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -11449,14 +11834,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="272"/>
-      <c r="E239" s="256"/>
-      <c r="F239" s="256"/>
-      <c r="G239" s="256"/>
-      <c r="H239" s="256"/>
-      <c r="I239" s="256"/>
-      <c r="J239" s="256"/>
-      <c r="K239" s="273"/>
+      <c r="D239" s="209"/>
+      <c r="E239" s="193"/>
+      <c r="F239" s="193"/>
+      <c r="G239" s="193"/>
+      <c r="H239" s="193"/>
+      <c r="I239" s="193"/>
+      <c r="J239" s="193"/>
+      <c r="K239" s="210"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -11468,16 +11853,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="262" t="s">
+      <c r="D240" s="199" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="262"/>
-      <c r="F240" s="262"/>
-      <c r="G240" s="262"/>
-      <c r="H240" s="262"/>
-      <c r="I240" s="262"/>
-      <c r="J240" s="262"/>
-      <c r="K240" s="263"/>
+      <c r="E240" s="199"/>
+      <c r="F240" s="199"/>
+      <c r="G240" s="199"/>
+      <c r="H240" s="199"/>
+      <c r="I240" s="199"/>
+      <c r="J240" s="199"/>
+      <c r="K240" s="200"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -11489,14 +11874,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="264"/>
-      <c r="E241" s="264"/>
-      <c r="F241" s="264"/>
-      <c r="G241" s="264"/>
-      <c r="H241" s="264"/>
-      <c r="I241" s="264"/>
-      <c r="J241" s="264"/>
-      <c r="K241" s="265"/>
+      <c r="D241" s="201"/>
+      <c r="E241" s="201"/>
+      <c r="F241" s="201"/>
+      <c r="G241" s="201"/>
+      <c r="H241" s="201"/>
+      <c r="I241" s="201"/>
+      <c r="J241" s="201"/>
+      <c r="K241" s="202"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -11687,16 +12072,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="258" t="s">
+      <c r="D250" s="195" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="259"/>
-      <c r="F250" s="259"/>
-      <c r="G250" s="259"/>
-      <c r="H250" s="259"/>
-      <c r="I250" s="259"/>
-      <c r="J250" s="259"/>
-      <c r="K250" s="260"/>
+      <c r="E250" s="196"/>
+      <c r="F250" s="196"/>
+      <c r="G250" s="196"/>
+      <c r="H250" s="196"/>
+      <c r="I250" s="196"/>
+      <c r="J250" s="196"/>
+      <c r="K250" s="197"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12265,16 +12650,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="261" t="s">
+      <c r="D280" s="198" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="250"/>
-      <c r="F280" s="250"/>
-      <c r="G280" s="250"/>
-      <c r="H280" s="250"/>
-      <c r="I280" s="250"/>
-      <c r="J280" s="250"/>
-      <c r="K280" s="251"/>
+      <c r="E280" s="187"/>
+      <c r="F280" s="187"/>
+      <c r="G280" s="187"/>
+      <c r="H280" s="187"/>
+      <c r="I280" s="187"/>
+      <c r="J280" s="187"/>
+      <c r="K280" s="188"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -12381,16 +12766,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="261" t="s">
+      <c r="D286" s="198" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="250"/>
-      <c r="F286" s="250"/>
-      <c r="G286" s="250"/>
-      <c r="H286" s="250"/>
-      <c r="I286" s="250"/>
-      <c r="J286" s="250"/>
-      <c r="K286" s="251"/>
+      <c r="E286" s="187"/>
+      <c r="F286" s="187"/>
+      <c r="G286" s="187"/>
+      <c r="H286" s="187"/>
+      <c r="I286" s="187"/>
+      <c r="J286" s="187"/>
+      <c r="K286" s="188"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -12578,16 +12963,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="249" t="s">
+      <c r="D296" s="186" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="250"/>
-      <c r="F296" s="250"/>
-      <c r="G296" s="250"/>
-      <c r="H296" s="250"/>
-      <c r="I296" s="250"/>
-      <c r="J296" s="250"/>
-      <c r="K296" s="251"/>
+      <c r="E296" s="187"/>
+      <c r="F296" s="187"/>
+      <c r="G296" s="187"/>
+      <c r="H296" s="187"/>
+      <c r="I296" s="187"/>
+      <c r="J296" s="187"/>
+      <c r="K296" s="188"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -12618,16 +13003,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="266" t="s">
+      <c r="D298" s="203" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="262"/>
-      <c r="F298" s="262"/>
-      <c r="G298" s="262"/>
-      <c r="H298" s="262"/>
-      <c r="I298" s="262"/>
-      <c r="J298" s="262"/>
-      <c r="K298" s="263"/>
+      <c r="E298" s="199"/>
+      <c r="F298" s="199"/>
+      <c r="G298" s="199"/>
+      <c r="H298" s="199"/>
+      <c r="I298" s="199"/>
+      <c r="J298" s="199"/>
+      <c r="K298" s="200"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -12639,14 +13024,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="272"/>
-      <c r="E299" s="256"/>
-      <c r="F299" s="256"/>
-      <c r="G299" s="256"/>
-      <c r="H299" s="256"/>
-      <c r="I299" s="256"/>
-      <c r="J299" s="256"/>
-      <c r="K299" s="273"/>
+      <c r="D299" s="209"/>
+      <c r="E299" s="193"/>
+      <c r="F299" s="193"/>
+      <c r="G299" s="193"/>
+      <c r="H299" s="193"/>
+      <c r="I299" s="193"/>
+      <c r="J299" s="193"/>
+      <c r="K299" s="210"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -12658,16 +13043,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="266" t="s">
+      <c r="D300" s="203" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="262"/>
-      <c r="F300" s="262"/>
-      <c r="G300" s="262"/>
-      <c r="H300" s="262"/>
-      <c r="I300" s="262"/>
-      <c r="J300" s="262"/>
-      <c r="K300" s="263"/>
+      <c r="E300" s="199"/>
+      <c r="F300" s="199"/>
+      <c r="G300" s="199"/>
+      <c r="H300" s="199"/>
+      <c r="I300" s="199"/>
+      <c r="J300" s="199"/>
+      <c r="K300" s="200"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -12679,14 +13064,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="272"/>
-      <c r="E301" s="256"/>
-      <c r="F301" s="256"/>
-      <c r="G301" s="256"/>
-      <c r="H301" s="256"/>
-      <c r="I301" s="256"/>
-      <c r="J301" s="256"/>
-      <c r="K301" s="273"/>
+      <c r="D301" s="209"/>
+      <c r="E301" s="193"/>
+      <c r="F301" s="193"/>
+      <c r="G301" s="193"/>
+      <c r="H301" s="193"/>
+      <c r="I301" s="193"/>
+      <c r="J301" s="193"/>
+      <c r="K301" s="210"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -12698,16 +13083,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="266" t="s">
+      <c r="D302" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="262"/>
-      <c r="F302" s="262"/>
-      <c r="G302" s="262"/>
-      <c r="H302" s="262"/>
-      <c r="I302" s="262"/>
-      <c r="J302" s="262"/>
-      <c r="K302" s="263"/>
+      <c r="E302" s="199"/>
+      <c r="F302" s="199"/>
+      <c r="G302" s="199"/>
+      <c r="H302" s="199"/>
+      <c r="I302" s="199"/>
+      <c r="J302" s="199"/>
+      <c r="K302" s="200"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -12719,14 +13104,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="272"/>
-      <c r="E303" s="256"/>
-      <c r="F303" s="256"/>
-      <c r="G303" s="256"/>
-      <c r="H303" s="256"/>
-      <c r="I303" s="256"/>
-      <c r="J303" s="256"/>
-      <c r="K303" s="273"/>
+      <c r="D303" s="209"/>
+      <c r="E303" s="193"/>
+      <c r="F303" s="193"/>
+      <c r="G303" s="193"/>
+      <c r="H303" s="193"/>
+      <c r="I303" s="193"/>
+      <c r="J303" s="193"/>
+      <c r="K303" s="210"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -12738,16 +13123,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="266" t="s">
+      <c r="D304" s="203" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="262"/>
-      <c r="F304" s="262"/>
-      <c r="G304" s="262"/>
-      <c r="H304" s="262"/>
-      <c r="I304" s="262"/>
-      <c r="J304" s="262"/>
-      <c r="K304" s="263"/>
+      <c r="E304" s="199"/>
+      <c r="F304" s="199"/>
+      <c r="G304" s="199"/>
+      <c r="H304" s="199"/>
+      <c r="I304" s="199"/>
+      <c r="J304" s="199"/>
+      <c r="K304" s="200"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -12759,14 +13144,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="272"/>
-      <c r="E305" s="256"/>
-      <c r="F305" s="256"/>
-      <c r="G305" s="256"/>
-      <c r="H305" s="256"/>
-      <c r="I305" s="256"/>
-      <c r="J305" s="256"/>
-      <c r="K305" s="273"/>
+      <c r="D305" s="209"/>
+      <c r="E305" s="193"/>
+      <c r="F305" s="193"/>
+      <c r="G305" s="193"/>
+      <c r="H305" s="193"/>
+      <c r="I305" s="193"/>
+      <c r="J305" s="193"/>
+      <c r="K305" s="210"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -12781,16 +13166,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="266" t="s">
+      <c r="D306" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="262"/>
-      <c r="F306" s="262"/>
-      <c r="G306" s="262"/>
-      <c r="H306" s="262"/>
-      <c r="I306" s="262"/>
-      <c r="J306" s="262"/>
-      <c r="K306" s="263"/>
+      <c r="E306" s="199"/>
+      <c r="F306" s="199"/>
+      <c r="G306" s="199"/>
+      <c r="H306" s="199"/>
+      <c r="I306" s="199"/>
+      <c r="J306" s="199"/>
+      <c r="K306" s="200"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -12802,14 +13187,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="272"/>
-      <c r="E307" s="256"/>
-      <c r="F307" s="256"/>
-      <c r="G307" s="256"/>
-      <c r="H307" s="256"/>
-      <c r="I307" s="256"/>
-      <c r="J307" s="256"/>
-      <c r="K307" s="273"/>
+      <c r="D307" s="209"/>
+      <c r="E307" s="193"/>
+      <c r="F307" s="193"/>
+      <c r="G307" s="193"/>
+      <c r="H307" s="193"/>
+      <c r="I307" s="193"/>
+      <c r="J307" s="193"/>
+      <c r="K307" s="210"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -12821,16 +13206,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="266" t="s">
+      <c r="D308" s="203" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="262"/>
-      <c r="F308" s="262"/>
-      <c r="G308" s="262"/>
-      <c r="H308" s="262"/>
-      <c r="I308" s="262"/>
-      <c r="J308" s="262"/>
-      <c r="K308" s="263"/>
+      <c r="E308" s="199"/>
+      <c r="F308" s="199"/>
+      <c r="G308" s="199"/>
+      <c r="H308" s="199"/>
+      <c r="I308" s="199"/>
+      <c r="J308" s="199"/>
+      <c r="K308" s="200"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -12842,14 +13227,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="272"/>
-      <c r="E309" s="256"/>
-      <c r="F309" s="256"/>
-      <c r="G309" s="256"/>
-      <c r="H309" s="256"/>
-      <c r="I309" s="256"/>
-      <c r="J309" s="256"/>
-      <c r="K309" s="273"/>
+      <c r="D309" s="209"/>
+      <c r="E309" s="193"/>
+      <c r="F309" s="193"/>
+      <c r="G309" s="193"/>
+      <c r="H309" s="193"/>
+      <c r="I309" s="193"/>
+      <c r="J309" s="193"/>
+      <c r="K309" s="210"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21136,16 +21521,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="282" t="s">
+      <c r="D954" s="219" t="s">
         <v>480</v>
       </c>
-      <c r="E954" s="283"/>
-      <c r="F954" s="283"/>
-      <c r="G954" s="283"/>
-      <c r="H954" s="283"/>
-      <c r="I954" s="283"/>
-      <c r="J954" s="283"/>
-      <c r="K954" s="283"/>
+      <c r="E954" s="220"/>
+      <c r="F954" s="220"/>
+      <c r="G954" s="220"/>
+      <c r="H954" s="220"/>
+      <c r="I954" s="220"/>
+      <c r="J954" s="220"/>
+      <c r="K954" s="220"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24041,8 +24426,8 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -24112,16 +24497,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="266" t="s">
+      <c r="D2" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="263"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="200"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24143,14 +24528,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="269"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="206"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -24196,7 +24581,7 @@
       <c r="K4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="82" t="s">
         <v>398</v>
       </c>
       <c r="M4" s="3">
@@ -24238,7 +24623,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="54"/>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="81" t="s">
         <v>399</v>
       </c>
       <c r="M5" s="3">
@@ -24322,7 +24707,7 @@
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="81" t="s">
         <v>400</v>
       </c>
       <c r="M7" s="3">
@@ -24364,7 +24749,7 @@
       <c r="K8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="81" t="s">
         <v>401</v>
       </c>
       <c r="M8" s="3">
@@ -24408,7 +24793,7 @@
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="81" t="s">
         <v>404</v>
       </c>
       <c r="M9" s="3">
@@ -24448,7 +24833,7 @@
       <c r="K10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="81" t="s">
         <v>406</v>
       </c>
       <c r="M10" s="3">
@@ -24496,7 +24881,7 @@
       <c r="K11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="81" t="s">
         <v>408</v>
       </c>
       <c r="M11" s="3">
@@ -24543,7 +24928,7 @@
       <c r="K12" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="81" t="s">
         <v>409</v>
       </c>
       <c r="M12" s="3">
@@ -24589,7 +24974,7 @@
       <c r="K13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="L13" s="81" t="s">
         <v>410</v>
       </c>
       <c r="M13" s="3">
@@ -24637,7 +25022,7 @@
       <c r="K14" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="81" t="s">
         <v>411</v>
       </c>
       <c r="M14" s="3">
@@ -24685,7 +25070,7 @@
       <c r="K15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="83" t="s">
+      <c r="L15" s="81" t="s">
         <v>412</v>
       </c>
       <c r="M15" s="3">
@@ -24733,7 +25118,7 @@
       <c r="K16" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="83" t="s">
+      <c r="L16" s="81" t="s">
         <v>413</v>
       </c>
       <c r="M16" s="3">
@@ -24781,7 +25166,7 @@
       <c r="K17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="83" t="s">
         <v>406</v>
       </c>
       <c r="M17" s="57">
@@ -24829,7 +25214,7 @@
       <c r="K18" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="83" t="s">
+      <c r="L18" s="81" t="s">
         <v>414</v>
       </c>
       <c r="M18" s="3">
@@ -25273,7 +25658,7 @@
       <c r="K29" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="L29" s="83" t="s">
+      <c r="L29" s="81" t="s">
         <v>420</v>
       </c>
       <c r="M29" s="3">
@@ -25397,7 +25782,7 @@
       <c r="K32" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="L32" s="83" t="s">
+      <c r="L32" s="81" t="s">
         <v>401</v>
       </c>
       <c r="M32" s="3">
@@ -30399,16 +30784,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="247" t="s">
+      <c r="D178" s="184" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="247"/>
-      <c r="F178" s="247"/>
-      <c r="G178" s="247"/>
-      <c r="H178" s="247"/>
-      <c r="I178" s="247"/>
-      <c r="J178" s="247"/>
-      <c r="K178" s="247"/>
+      <c r="E178" s="184"/>
+      <c r="F178" s="184"/>
+      <c r="G178" s="184"/>
+      <c r="H178" s="184"/>
+      <c r="I178" s="184"/>
+      <c r="J178" s="184"/>
+      <c r="K178" s="184"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -30477,16 +30862,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="249" t="s">
+      <c r="D182" s="186" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="250"/>
-      <c r="F182" s="250"/>
-      <c r="G182" s="250"/>
-      <c r="H182" s="250"/>
-      <c r="I182" s="250"/>
-      <c r="J182" s="250"/>
-      <c r="K182" s="251"/>
+      <c r="E182" s="187"/>
+      <c r="F182" s="187"/>
+      <c r="G182" s="187"/>
+      <c r="H182" s="187"/>
+      <c r="I182" s="187"/>
+      <c r="J182" s="187"/>
+      <c r="K182" s="188"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -30498,16 +30883,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="249" t="s">
+      <c r="D183" s="186" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="250"/>
-      <c r="F183" s="250"/>
-      <c r="G183" s="250"/>
-      <c r="H183" s="250"/>
-      <c r="I183" s="250"/>
-      <c r="J183" s="250"/>
-      <c r="K183" s="251"/>
+      <c r="E183" s="187"/>
+      <c r="F183" s="187"/>
+      <c r="G183" s="187"/>
+      <c r="H183" s="187"/>
+      <c r="I183" s="187"/>
+      <c r="J183" s="187"/>
+      <c r="K183" s="188"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -30519,16 +30904,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="249" t="s">
+      <c r="D184" s="186" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="250"/>
-      <c r="F184" s="250"/>
-      <c r="G184" s="250"/>
-      <c r="H184" s="250"/>
-      <c r="I184" s="250"/>
-      <c r="J184" s="250"/>
-      <c r="K184" s="251"/>
+      <c r="E184" s="187"/>
+      <c r="F184" s="187"/>
+      <c r="G184" s="187"/>
+      <c r="H184" s="187"/>
+      <c r="I184" s="187"/>
+      <c r="J184" s="187"/>
+      <c r="K184" s="188"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -30540,16 +30925,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="249" t="s">
+      <c r="D185" s="186" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="250"/>
-      <c r="F185" s="250"/>
-      <c r="G185" s="250"/>
-      <c r="H185" s="250"/>
-      <c r="I185" s="250"/>
-      <c r="J185" s="250"/>
-      <c r="K185" s="251"/>
+      <c r="E185" s="187"/>
+      <c r="F185" s="187"/>
+      <c r="G185" s="187"/>
+      <c r="H185" s="187"/>
+      <c r="I185" s="187"/>
+      <c r="J185" s="187"/>
+      <c r="K185" s="188"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -30561,16 +30946,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="249" t="s">
+      <c r="D186" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="250"/>
-      <c r="F186" s="250"/>
-      <c r="G186" s="250"/>
-      <c r="H186" s="250"/>
-      <c r="I186" s="250"/>
-      <c r="J186" s="250"/>
-      <c r="K186" s="251"/>
+      <c r="E186" s="187"/>
+      <c r="F186" s="187"/>
+      <c r="G186" s="187"/>
+      <c r="H186" s="187"/>
+      <c r="I186" s="187"/>
+      <c r="J186" s="187"/>
+      <c r="K186" s="188"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -30582,16 +30967,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="249" t="s">
+      <c r="D187" s="186" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="250"/>
-      <c r="F187" s="250"/>
-      <c r="G187" s="250"/>
-      <c r="H187" s="250"/>
-      <c r="I187" s="250"/>
-      <c r="J187" s="250"/>
-      <c r="K187" s="251"/>
+      <c r="E187" s="187"/>
+      <c r="F187" s="187"/>
+      <c r="G187" s="187"/>
+      <c r="H187" s="187"/>
+      <c r="I187" s="187"/>
+      <c r="J187" s="187"/>
+      <c r="K187" s="188"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -30603,16 +30988,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="249" t="s">
+      <c r="D188" s="186" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="250"/>
-      <c r="F188" s="250"/>
-      <c r="G188" s="250"/>
-      <c r="H188" s="250"/>
-      <c r="I188" s="250"/>
-      <c r="J188" s="250"/>
-      <c r="K188" s="251"/>
+      <c r="E188" s="187"/>
+      <c r="F188" s="187"/>
+      <c r="G188" s="187"/>
+      <c r="H188" s="187"/>
+      <c r="I188" s="187"/>
+      <c r="J188" s="187"/>
+      <c r="K188" s="188"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -30624,16 +31009,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="249" t="s">
+      <c r="D189" s="186" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="250"/>
-      <c r="F189" s="250"/>
-      <c r="G189" s="250"/>
-      <c r="H189" s="250"/>
-      <c r="I189" s="250"/>
-      <c r="J189" s="250"/>
-      <c r="K189" s="251"/>
+      <c r="E189" s="187"/>
+      <c r="F189" s="187"/>
+      <c r="G189" s="187"/>
+      <c r="H189" s="187"/>
+      <c r="I189" s="187"/>
+      <c r="J189" s="187"/>
+      <c r="K189" s="188"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -30645,16 +31030,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="249" t="s">
+      <c r="D190" s="186" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="250"/>
-      <c r="F190" s="250"/>
-      <c r="G190" s="250"/>
-      <c r="H190" s="250"/>
-      <c r="I190" s="250"/>
-      <c r="J190" s="250"/>
-      <c r="K190" s="251"/>
+      <c r="E190" s="187"/>
+      <c r="F190" s="187"/>
+      <c r="G190" s="187"/>
+      <c r="H190" s="187"/>
+      <c r="I190" s="187"/>
+      <c r="J190" s="187"/>
+      <c r="K190" s="188"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -30666,16 +31051,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="249" t="s">
+      <c r="D191" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="250"/>
-      <c r="F191" s="250"/>
-      <c r="G191" s="250"/>
-      <c r="H191" s="250"/>
-      <c r="I191" s="250"/>
-      <c r="J191" s="250"/>
-      <c r="K191" s="251"/>
+      <c r="E191" s="187"/>
+      <c r="F191" s="187"/>
+      <c r="G191" s="187"/>
+      <c r="H191" s="187"/>
+      <c r="I191" s="187"/>
+      <c r="J191" s="187"/>
+      <c r="K191" s="188"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -30687,16 +31072,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="249" t="s">
+      <c r="D192" s="186" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="250"/>
-      <c r="F192" s="250"/>
-      <c r="G192" s="250"/>
-      <c r="H192" s="250"/>
-      <c r="I192" s="250"/>
-      <c r="J192" s="250"/>
-      <c r="K192" s="251"/>
+      <c r="E192" s="187"/>
+      <c r="F192" s="187"/>
+      <c r="G192" s="187"/>
+      <c r="H192" s="187"/>
+      <c r="I192" s="187"/>
+      <c r="J192" s="187"/>
+      <c r="K192" s="188"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -30708,16 +31093,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="252" t="s">
+      <c r="D193" s="189" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="253"/>
-      <c r="F193" s="253"/>
-      <c r="G193" s="253"/>
-      <c r="H193" s="253"/>
-      <c r="I193" s="253"/>
-      <c r="J193" s="253"/>
-      <c r="K193" s="254"/>
+      <c r="E193" s="190"/>
+      <c r="F193" s="190"/>
+      <c r="G193" s="190"/>
+      <c r="H193" s="190"/>
+      <c r="I193" s="190"/>
+      <c r="J193" s="190"/>
+      <c r="K193" s="191"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -30732,16 +31117,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="255" t="s">
+      <c r="D194" s="192" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="256"/>
-      <c r="F194" s="256"/>
-      <c r="G194" s="256"/>
-      <c r="H194" s="256"/>
-      <c r="I194" s="256"/>
-      <c r="J194" s="256"/>
-      <c r="K194" s="257"/>
+      <c r="E194" s="193"/>
+      <c r="F194" s="193"/>
+      <c r="G194" s="193"/>
+      <c r="H194" s="193"/>
+      <c r="I194" s="193"/>
+      <c r="J194" s="193"/>
+      <c r="K194" s="194"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -30753,16 +31138,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="249" t="s">
+      <c r="D195" s="186" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="250"/>
-      <c r="F195" s="250"/>
-      <c r="G195" s="250"/>
-      <c r="H195" s="250"/>
-      <c r="I195" s="250"/>
-      <c r="J195" s="250"/>
-      <c r="K195" s="251"/>
+      <c r="E195" s="187"/>
+      <c r="F195" s="187"/>
+      <c r="G195" s="187"/>
+      <c r="H195" s="187"/>
+      <c r="I195" s="187"/>
+      <c r="J195" s="187"/>
+      <c r="K195" s="188"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -30774,16 +31159,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="249" t="s">
+      <c r="D196" s="186" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="250"/>
-      <c r="F196" s="250"/>
-      <c r="G196" s="250"/>
-      <c r="H196" s="250"/>
-      <c r="I196" s="250"/>
-      <c r="J196" s="250"/>
-      <c r="K196" s="251"/>
+      <c r="E196" s="187"/>
+      <c r="F196" s="187"/>
+      <c r="G196" s="187"/>
+      <c r="H196" s="187"/>
+      <c r="I196" s="187"/>
+      <c r="J196" s="187"/>
+      <c r="K196" s="188"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -30795,16 +31180,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="249" t="s">
+      <c r="D197" s="186" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="250"/>
-      <c r="F197" s="250"/>
-      <c r="G197" s="250"/>
-      <c r="H197" s="250"/>
-      <c r="I197" s="250"/>
-      <c r="J197" s="250"/>
-      <c r="K197" s="251"/>
+      <c r="E197" s="187"/>
+      <c r="F197" s="187"/>
+      <c r="G197" s="187"/>
+      <c r="H197" s="187"/>
+      <c r="I197" s="187"/>
+      <c r="J197" s="187"/>
+      <c r="K197" s="188"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -30816,16 +31201,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="249" t="s">
+      <c r="D198" s="186" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="250"/>
-      <c r="F198" s="250"/>
-      <c r="G198" s="250"/>
-      <c r="H198" s="250"/>
-      <c r="I198" s="250"/>
-      <c r="J198" s="250"/>
-      <c r="K198" s="251"/>
+      <c r="E198" s="187"/>
+      <c r="F198" s="187"/>
+      <c r="G198" s="187"/>
+      <c r="H198" s="187"/>
+      <c r="I198" s="187"/>
+      <c r="J198" s="187"/>
+      <c r="K198" s="188"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -30856,16 +31241,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="249" t="s">
+      <c r="D200" s="186" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="250"/>
-      <c r="F200" s="250"/>
-      <c r="G200" s="250"/>
-      <c r="H200" s="250"/>
-      <c r="I200" s="250"/>
-      <c r="J200" s="250"/>
-      <c r="K200" s="251"/>
+      <c r="E200" s="187"/>
+      <c r="F200" s="187"/>
+      <c r="G200" s="187"/>
+      <c r="H200" s="187"/>
+      <c r="I200" s="187"/>
+      <c r="J200" s="187"/>
+      <c r="K200" s="188"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -30896,16 +31281,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="279" t="s">
+      <c r="D202" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="280"/>
-      <c r="F202" s="280"/>
-      <c r="G202" s="280"/>
-      <c r="H202" s="280"/>
-      <c r="I202" s="280"/>
-      <c r="J202" s="280"/>
-      <c r="K202" s="281"/>
+      <c r="E202" s="217"/>
+      <c r="F202" s="217"/>
+      <c r="G202" s="217"/>
+      <c r="H202" s="217"/>
+      <c r="I202" s="217"/>
+      <c r="J202" s="217"/>
+      <c r="K202" s="218"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -30936,16 +31321,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="249" t="s">
+      <c r="D204" s="186" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="250"/>
-      <c r="F204" s="250"/>
-      <c r="G204" s="250"/>
-      <c r="H204" s="250"/>
-      <c r="I204" s="250"/>
-      <c r="J204" s="250"/>
-      <c r="K204" s="251"/>
+      <c r="E204" s="187"/>
+      <c r="F204" s="187"/>
+      <c r="G204" s="187"/>
+      <c r="H204" s="187"/>
+      <c r="I204" s="187"/>
+      <c r="J204" s="187"/>
+      <c r="K204" s="188"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -30976,16 +31361,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="249" t="s">
+      <c r="D206" s="186" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="250"/>
-      <c r="F206" s="250"/>
-      <c r="G206" s="250"/>
-      <c r="H206" s="250"/>
-      <c r="I206" s="250"/>
-      <c r="J206" s="250"/>
-      <c r="K206" s="251"/>
+      <c r="E206" s="187"/>
+      <c r="F206" s="187"/>
+      <c r="G206" s="187"/>
+      <c r="H206" s="187"/>
+      <c r="I206" s="187"/>
+      <c r="J206" s="187"/>
+      <c r="K206" s="188"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31016,16 +31401,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="249" t="s">
+      <c r="D208" s="186" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="250"/>
-      <c r="F208" s="250"/>
-      <c r="G208" s="250"/>
-      <c r="H208" s="250"/>
-      <c r="I208" s="250"/>
-      <c r="J208" s="250"/>
-      <c r="K208" s="251"/>
+      <c r="E208" s="187"/>
+      <c r="F208" s="187"/>
+      <c r="G208" s="187"/>
+      <c r="H208" s="187"/>
+      <c r="I208" s="187"/>
+      <c r="J208" s="187"/>
+      <c r="K208" s="188"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31059,16 +31444,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="255" t="s">
+      <c r="D210" s="192" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="256"/>
-      <c r="F210" s="256"/>
-      <c r="G210" s="256"/>
-      <c r="H210" s="256"/>
-      <c r="I210" s="256"/>
-      <c r="J210" s="256"/>
-      <c r="K210" s="257"/>
+      <c r="E210" s="193"/>
+      <c r="F210" s="193"/>
+      <c r="G210" s="193"/>
+      <c r="H210" s="193"/>
+      <c r="I210" s="193"/>
+      <c r="J210" s="193"/>
+      <c r="K210" s="194"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31137,16 +31522,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="249" t="s">
+      <c r="D214" s="186" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="250"/>
-      <c r="F214" s="250"/>
-      <c r="G214" s="250"/>
-      <c r="H214" s="250"/>
-      <c r="I214" s="250"/>
-      <c r="J214" s="250"/>
-      <c r="K214" s="251"/>
+      <c r="E214" s="187"/>
+      <c r="F214" s="187"/>
+      <c r="G214" s="187"/>
+      <c r="H214" s="187"/>
+      <c r="I214" s="187"/>
+      <c r="J214" s="187"/>
+      <c r="K214" s="188"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31177,16 +31562,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="270" t="s">
+      <c r="D216" s="207" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="262"/>
-      <c r="F216" s="262"/>
-      <c r="G216" s="262"/>
-      <c r="H216" s="262"/>
-      <c r="I216" s="262"/>
-      <c r="J216" s="262"/>
-      <c r="K216" s="271"/>
+      <c r="E216" s="199"/>
+      <c r="F216" s="199"/>
+      <c r="G216" s="199"/>
+      <c r="H216" s="199"/>
+      <c r="I216" s="199"/>
+      <c r="J216" s="199"/>
+      <c r="K216" s="208"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31198,14 +31583,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="255"/>
-      <c r="E217" s="256"/>
-      <c r="F217" s="256"/>
-      <c r="G217" s="256"/>
-      <c r="H217" s="256"/>
-      <c r="I217" s="256"/>
-      <c r="J217" s="256"/>
-      <c r="K217" s="257"/>
+      <c r="D217" s="192"/>
+      <c r="E217" s="193"/>
+      <c r="F217" s="193"/>
+      <c r="G217" s="193"/>
+      <c r="H217" s="193"/>
+      <c r="I217" s="193"/>
+      <c r="J217" s="193"/>
+      <c r="K217" s="194"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31217,16 +31602,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="270" t="s">
+      <c r="D218" s="207" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="262"/>
-      <c r="F218" s="262"/>
-      <c r="G218" s="262"/>
-      <c r="H218" s="262"/>
-      <c r="I218" s="262"/>
-      <c r="J218" s="262"/>
-      <c r="K218" s="271"/>
+      <c r="E218" s="199"/>
+      <c r="F218" s="199"/>
+      <c r="G218" s="199"/>
+      <c r="H218" s="199"/>
+      <c r="I218" s="199"/>
+      <c r="J218" s="199"/>
+      <c r="K218" s="208"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31238,14 +31623,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="255"/>
-      <c r="E219" s="256"/>
-      <c r="F219" s="256"/>
-      <c r="G219" s="256"/>
-      <c r="H219" s="256"/>
-      <c r="I219" s="256"/>
-      <c r="J219" s="256"/>
-      <c r="K219" s="257"/>
+      <c r="D219" s="192"/>
+      <c r="E219" s="193"/>
+      <c r="F219" s="193"/>
+      <c r="G219" s="193"/>
+      <c r="H219" s="193"/>
+      <c r="I219" s="193"/>
+      <c r="J219" s="193"/>
+      <c r="K219" s="194"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31257,16 +31642,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="270" t="s">
+      <c r="D220" s="207" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="262"/>
-      <c r="F220" s="262"/>
-      <c r="G220" s="262"/>
-      <c r="H220" s="262"/>
-      <c r="I220" s="262"/>
-      <c r="J220" s="262"/>
-      <c r="K220" s="271"/>
+      <c r="E220" s="199"/>
+      <c r="F220" s="199"/>
+      <c r="G220" s="199"/>
+      <c r="H220" s="199"/>
+      <c r="I220" s="199"/>
+      <c r="J220" s="199"/>
+      <c r="K220" s="208"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31278,14 +31663,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="255"/>
-      <c r="E221" s="256"/>
-      <c r="F221" s="256"/>
-      <c r="G221" s="256"/>
-      <c r="H221" s="256"/>
-      <c r="I221" s="256"/>
-      <c r="J221" s="256"/>
-      <c r="K221" s="257"/>
+      <c r="D221" s="192"/>
+      <c r="E221" s="193"/>
+      <c r="F221" s="193"/>
+      <c r="G221" s="193"/>
+      <c r="H221" s="193"/>
+      <c r="I221" s="193"/>
+      <c r="J221" s="193"/>
+      <c r="K221" s="194"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -31297,16 +31682,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="249" t="s">
+      <c r="D222" s="186" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="250"/>
-      <c r="F222" s="250"/>
-      <c r="G222" s="250"/>
-      <c r="H222" s="250"/>
-      <c r="I222" s="250"/>
-      <c r="J222" s="250"/>
-      <c r="K222" s="251"/>
+      <c r="E222" s="187"/>
+      <c r="F222" s="187"/>
+      <c r="G222" s="187"/>
+      <c r="H222" s="187"/>
+      <c r="I222" s="187"/>
+      <c r="J222" s="187"/>
+      <c r="K222" s="188"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -31337,16 +31722,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="249" t="s">
+      <c r="D224" s="186" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="250"/>
-      <c r="F224" s="250"/>
-      <c r="G224" s="250"/>
-      <c r="H224" s="250"/>
-      <c r="I224" s="250"/>
-      <c r="J224" s="250"/>
-      <c r="K224" s="251"/>
+      <c r="E224" s="187"/>
+      <c r="F224" s="187"/>
+      <c r="G224" s="187"/>
+      <c r="H224" s="187"/>
+      <c r="I224" s="187"/>
+      <c r="J224" s="187"/>
+      <c r="K224" s="188"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -31380,16 +31765,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="276" t="s">
+      <c r="D226" s="213" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="277"/>
-      <c r="F226" s="277"/>
-      <c r="G226" s="277"/>
-      <c r="H226" s="277"/>
-      <c r="I226" s="277"/>
-      <c r="J226" s="277"/>
-      <c r="K226" s="278"/>
+      <c r="E226" s="214"/>
+      <c r="F226" s="214"/>
+      <c r="G226" s="214"/>
+      <c r="H226" s="214"/>
+      <c r="I226" s="214"/>
+      <c r="J226" s="214"/>
+      <c r="K226" s="215"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -31534,16 +31919,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="274" t="s">
+      <c r="D234" s="211" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="259"/>
-      <c r="F234" s="259"/>
-      <c r="G234" s="259"/>
-      <c r="H234" s="259"/>
-      <c r="I234" s="259"/>
-      <c r="J234" s="259"/>
-      <c r="K234" s="275"/>
+      <c r="E234" s="196"/>
+      <c r="F234" s="196"/>
+      <c r="G234" s="196"/>
+      <c r="H234" s="196"/>
+      <c r="I234" s="196"/>
+      <c r="J234" s="196"/>
+      <c r="K234" s="212"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -31612,16 +31997,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="266" t="s">
+      <c r="D238" s="203" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="262"/>
-      <c r="F238" s="262"/>
-      <c r="G238" s="262"/>
-      <c r="H238" s="262"/>
-      <c r="I238" s="262"/>
-      <c r="J238" s="262"/>
-      <c r="K238" s="263"/>
+      <c r="E238" s="199"/>
+      <c r="F238" s="199"/>
+      <c r="G238" s="199"/>
+      <c r="H238" s="199"/>
+      <c r="I238" s="199"/>
+      <c r="J238" s="199"/>
+      <c r="K238" s="200"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -31633,14 +32018,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="272"/>
-      <c r="E239" s="256"/>
-      <c r="F239" s="256"/>
-      <c r="G239" s="256"/>
-      <c r="H239" s="256"/>
-      <c r="I239" s="256"/>
-      <c r="J239" s="256"/>
-      <c r="K239" s="273"/>
+      <c r="D239" s="209"/>
+      <c r="E239" s="193"/>
+      <c r="F239" s="193"/>
+      <c r="G239" s="193"/>
+      <c r="H239" s="193"/>
+      <c r="I239" s="193"/>
+      <c r="J239" s="193"/>
+      <c r="K239" s="210"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -31652,16 +32037,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="262" t="s">
+      <c r="D240" s="199" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="262"/>
-      <c r="F240" s="262"/>
-      <c r="G240" s="262"/>
-      <c r="H240" s="262"/>
-      <c r="I240" s="262"/>
-      <c r="J240" s="262"/>
-      <c r="K240" s="263"/>
+      <c r="E240" s="199"/>
+      <c r="F240" s="199"/>
+      <c r="G240" s="199"/>
+      <c r="H240" s="199"/>
+      <c r="I240" s="199"/>
+      <c r="J240" s="199"/>
+      <c r="K240" s="200"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -31673,14 +32058,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="264"/>
-      <c r="E241" s="264"/>
-      <c r="F241" s="264"/>
-      <c r="G241" s="264"/>
-      <c r="H241" s="264"/>
-      <c r="I241" s="264"/>
-      <c r="J241" s="264"/>
-      <c r="K241" s="265"/>
+      <c r="D241" s="201"/>
+      <c r="E241" s="201"/>
+      <c r="F241" s="201"/>
+      <c r="G241" s="201"/>
+      <c r="H241" s="201"/>
+      <c r="I241" s="201"/>
+      <c r="J241" s="201"/>
+      <c r="K241" s="202"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -31871,16 +32256,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="258" t="s">
+      <c r="D250" s="195" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="259"/>
-      <c r="F250" s="259"/>
-      <c r="G250" s="259"/>
-      <c r="H250" s="259"/>
-      <c r="I250" s="259"/>
-      <c r="J250" s="259"/>
-      <c r="K250" s="260"/>
+      <c r="E250" s="196"/>
+      <c r="F250" s="196"/>
+      <c r="G250" s="196"/>
+      <c r="H250" s="196"/>
+      <c r="I250" s="196"/>
+      <c r="J250" s="196"/>
+      <c r="K250" s="197"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -32449,16 +32834,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="249" t="s">
+      <c r="D280" s="186" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="250"/>
-      <c r="F280" s="250"/>
-      <c r="G280" s="250"/>
-      <c r="H280" s="250"/>
-      <c r="I280" s="250"/>
-      <c r="J280" s="250"/>
-      <c r="K280" s="251"/>
+      <c r="E280" s="187"/>
+      <c r="F280" s="187"/>
+      <c r="G280" s="187"/>
+      <c r="H280" s="187"/>
+      <c r="I280" s="187"/>
+      <c r="J280" s="187"/>
+      <c r="K280" s="188"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -32565,16 +32950,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="249" t="s">
+      <c r="D286" s="186" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="250"/>
-      <c r="F286" s="250"/>
-      <c r="G286" s="250"/>
-      <c r="H286" s="250"/>
-      <c r="I286" s="250"/>
-      <c r="J286" s="250"/>
-      <c r="K286" s="251"/>
+      <c r="E286" s="187"/>
+      <c r="F286" s="187"/>
+      <c r="G286" s="187"/>
+      <c r="H286" s="187"/>
+      <c r="I286" s="187"/>
+      <c r="J286" s="187"/>
+      <c r="K286" s="188"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -32762,16 +33147,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="249" t="s">
+      <c r="D296" s="186" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="250"/>
-      <c r="F296" s="250"/>
-      <c r="G296" s="250"/>
-      <c r="H296" s="250"/>
-      <c r="I296" s="250"/>
-      <c r="J296" s="250"/>
-      <c r="K296" s="251"/>
+      <c r="E296" s="187"/>
+      <c r="F296" s="187"/>
+      <c r="G296" s="187"/>
+      <c r="H296" s="187"/>
+      <c r="I296" s="187"/>
+      <c r="J296" s="187"/>
+      <c r="K296" s="188"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -32802,16 +33187,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="266" t="s">
+      <c r="D298" s="203" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="262"/>
-      <c r="F298" s="262"/>
-      <c r="G298" s="262"/>
-      <c r="H298" s="262"/>
-      <c r="I298" s="262"/>
-      <c r="J298" s="262"/>
-      <c r="K298" s="263"/>
+      <c r="E298" s="199"/>
+      <c r="F298" s="199"/>
+      <c r="G298" s="199"/>
+      <c r="H298" s="199"/>
+      <c r="I298" s="199"/>
+      <c r="J298" s="199"/>
+      <c r="K298" s="200"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -32823,14 +33208,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="272"/>
-      <c r="E299" s="256"/>
-      <c r="F299" s="256"/>
-      <c r="G299" s="256"/>
-      <c r="H299" s="256"/>
-      <c r="I299" s="256"/>
-      <c r="J299" s="256"/>
-      <c r="K299" s="273"/>
+      <c r="D299" s="209"/>
+      <c r="E299" s="193"/>
+      <c r="F299" s="193"/>
+      <c r="G299" s="193"/>
+      <c r="H299" s="193"/>
+      <c r="I299" s="193"/>
+      <c r="J299" s="193"/>
+      <c r="K299" s="210"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -32842,16 +33227,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="266" t="s">
+      <c r="D300" s="203" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="262"/>
-      <c r="F300" s="262"/>
-      <c r="G300" s="262"/>
-      <c r="H300" s="262"/>
-      <c r="I300" s="262"/>
-      <c r="J300" s="262"/>
-      <c r="K300" s="263"/>
+      <c r="E300" s="199"/>
+      <c r="F300" s="199"/>
+      <c r="G300" s="199"/>
+      <c r="H300" s="199"/>
+      <c r="I300" s="199"/>
+      <c r="J300" s="199"/>
+      <c r="K300" s="200"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -32863,14 +33248,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="272"/>
-      <c r="E301" s="256"/>
-      <c r="F301" s="256"/>
-      <c r="G301" s="256"/>
-      <c r="H301" s="256"/>
-      <c r="I301" s="256"/>
-      <c r="J301" s="256"/>
-      <c r="K301" s="273"/>
+      <c r="D301" s="209"/>
+      <c r="E301" s="193"/>
+      <c r="F301" s="193"/>
+      <c r="G301" s="193"/>
+      <c r="H301" s="193"/>
+      <c r="I301" s="193"/>
+      <c r="J301" s="193"/>
+      <c r="K301" s="210"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -32882,16 +33267,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="266" t="s">
+      <c r="D302" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="262"/>
-      <c r="F302" s="262"/>
-      <c r="G302" s="262"/>
-      <c r="H302" s="262"/>
-      <c r="I302" s="262"/>
-      <c r="J302" s="262"/>
-      <c r="K302" s="263"/>
+      <c r="E302" s="199"/>
+      <c r="F302" s="199"/>
+      <c r="G302" s="199"/>
+      <c r="H302" s="199"/>
+      <c r="I302" s="199"/>
+      <c r="J302" s="199"/>
+      <c r="K302" s="200"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -32903,14 +33288,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="272"/>
-      <c r="E303" s="256"/>
-      <c r="F303" s="256"/>
-      <c r="G303" s="256"/>
-      <c r="H303" s="256"/>
-      <c r="I303" s="256"/>
-      <c r="J303" s="256"/>
-      <c r="K303" s="273"/>
+      <c r="D303" s="209"/>
+      <c r="E303" s="193"/>
+      <c r="F303" s="193"/>
+      <c r="G303" s="193"/>
+      <c r="H303" s="193"/>
+      <c r="I303" s="193"/>
+      <c r="J303" s="193"/>
+      <c r="K303" s="210"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -32922,16 +33307,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="266" t="s">
+      <c r="D304" s="203" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="262"/>
-      <c r="F304" s="262"/>
-      <c r="G304" s="262"/>
-      <c r="H304" s="262"/>
-      <c r="I304" s="262"/>
-      <c r="J304" s="262"/>
-      <c r="K304" s="263"/>
+      <c r="E304" s="199"/>
+      <c r="F304" s="199"/>
+      <c r="G304" s="199"/>
+      <c r="H304" s="199"/>
+      <c r="I304" s="199"/>
+      <c r="J304" s="199"/>
+      <c r="K304" s="200"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -32943,14 +33328,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="272"/>
-      <c r="E305" s="256"/>
-      <c r="F305" s="256"/>
-      <c r="G305" s="256"/>
-      <c r="H305" s="256"/>
-      <c r="I305" s="256"/>
-      <c r="J305" s="256"/>
-      <c r="K305" s="273"/>
+      <c r="D305" s="209"/>
+      <c r="E305" s="193"/>
+      <c r="F305" s="193"/>
+      <c r="G305" s="193"/>
+      <c r="H305" s="193"/>
+      <c r="I305" s="193"/>
+      <c r="J305" s="193"/>
+      <c r="K305" s="210"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -32965,16 +33350,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="266" t="s">
+      <c r="D306" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="262"/>
-      <c r="F306" s="262"/>
-      <c r="G306" s="262"/>
-      <c r="H306" s="262"/>
-      <c r="I306" s="262"/>
-      <c r="J306" s="262"/>
-      <c r="K306" s="263"/>
+      <c r="E306" s="199"/>
+      <c r="F306" s="199"/>
+      <c r="G306" s="199"/>
+      <c r="H306" s="199"/>
+      <c r="I306" s="199"/>
+      <c r="J306" s="199"/>
+      <c r="K306" s="200"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -32986,14 +33371,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="272"/>
-      <c r="E307" s="256"/>
-      <c r="F307" s="256"/>
-      <c r="G307" s="256"/>
-      <c r="H307" s="256"/>
-      <c r="I307" s="256"/>
-      <c r="J307" s="256"/>
-      <c r="K307" s="273"/>
+      <c r="D307" s="209"/>
+      <c r="E307" s="193"/>
+      <c r="F307" s="193"/>
+      <c r="G307" s="193"/>
+      <c r="H307" s="193"/>
+      <c r="I307" s="193"/>
+      <c r="J307" s="193"/>
+      <c r="K307" s="210"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33005,16 +33390,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="266" t="s">
+      <c r="D308" s="203" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="262"/>
-      <c r="F308" s="262"/>
-      <c r="G308" s="262"/>
-      <c r="H308" s="262"/>
-      <c r="I308" s="262"/>
-      <c r="J308" s="262"/>
-      <c r="K308" s="263"/>
+      <c r="E308" s="199"/>
+      <c r="F308" s="199"/>
+      <c r="G308" s="199"/>
+      <c r="H308" s="199"/>
+      <c r="I308" s="199"/>
+      <c r="J308" s="199"/>
+      <c r="K308" s="200"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33026,14 +33411,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="272"/>
-      <c r="E309" s="256"/>
-      <c r="F309" s="256"/>
-      <c r="G309" s="256"/>
-      <c r="H309" s="256"/>
-      <c r="I309" s="256"/>
-      <c r="J309" s="256"/>
-      <c r="K309" s="273"/>
+      <c r="D309" s="209"/>
+      <c r="E309" s="193"/>
+      <c r="F309" s="193"/>
+      <c r="G309" s="193"/>
+      <c r="H309" s="193"/>
+      <c r="I309" s="193"/>
+      <c r="J309" s="193"/>
+      <c r="K309" s="210"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37344,11 +37729,1894 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA480A7D-7842-4326-A491-9C5672303D17}">
+  <dimension ref="B2:H107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30">
+      <c r="B2" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="222" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="222" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="222" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="222" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2" s="223" t="s">
+        <v>703</v>
+      </c>
+      <c r="H2" s="223" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" s="181" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="181" t="s">
+        <v>533</v>
+      </c>
+      <c r="F3" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" s="181" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" s="181" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="181" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6" s="181" t="s">
+        <v>532</v>
+      </c>
+      <c r="F6" s="183" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="182" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" s="182" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="182" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" s="183" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="182" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="182" t="s">
+        <v>540</v>
+      </c>
+      <c r="E8" s="182" t="s">
+        <v>539</v>
+      </c>
+      <c r="F8" s="183" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="182" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="182" t="s">
+        <v>543</v>
+      </c>
+      <c r="E9" s="182" t="s">
+        <v>544</v>
+      </c>
+      <c r="F9" s="183" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" s="182" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="182" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="182" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" s="182" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="182" t="s">
+        <v>547</v>
+      </c>
+      <c r="E12" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>542</v>
+      </c>
+      <c r="D13" s="182" t="s">
+        <v>548</v>
+      </c>
+      <c r="E13" s="182" t="s">
+        <v>549</v>
+      </c>
+      <c r="F13" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="182" t="s">
+        <v>552</v>
+      </c>
+      <c r="D14" s="182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="182" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="182" t="s">
+        <v>554</v>
+      </c>
+      <c r="E15" s="182" t="s">
+        <v>555</v>
+      </c>
+      <c r="F15" s="183" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="182" t="s">
+        <v>556</v>
+      </c>
+      <c r="D16" s="182" t="s">
+        <v>557</v>
+      </c>
+      <c r="E16" s="182" t="s">
+        <v>557</v>
+      </c>
+      <c r="F16" s="183" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="182" t="s">
+        <v>560</v>
+      </c>
+      <c r="E17" s="182" t="s">
+        <v>559</v>
+      </c>
+      <c r="F17" s="183" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="182" t="s">
+        <v>561</v>
+      </c>
+      <c r="E18" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="182" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" s="182" t="s">
+        <v>560</v>
+      </c>
+      <c r="E19" s="182" t="s">
+        <v>563</v>
+      </c>
+      <c r="F19" s="183" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="182" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="182" t="s">
+        <v>564</v>
+      </c>
+      <c r="E20" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="182" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="182" t="s">
+        <v>562</v>
+      </c>
+      <c r="E21" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="182" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" s="182" t="s">
+        <v>566</v>
+      </c>
+      <c r="E22" s="182" t="s">
+        <v>567</v>
+      </c>
+      <c r="F22" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="182" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E23" s="182" t="s">
+        <v>569</v>
+      </c>
+      <c r="F23" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>570</v>
+      </c>
+      <c r="D24" s="182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E24" s="182" t="s">
+        <v>581</v>
+      </c>
+      <c r="F24" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="182" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" s="182" t="s">
+        <v>580</v>
+      </c>
+      <c r="E25" s="182" t="s">
+        <v>582</v>
+      </c>
+      <c r="F25" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="182" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" s="182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E26" s="182" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="182" t="s">
+        <v>570</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" s="182" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="182" t="s">
+        <v>570</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E28" s="182" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="D29" s="182" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="D30" s="182" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="182" t="s">
+        <v>588</v>
+      </c>
+      <c r="F30" s="183" t="s">
+        <v>589</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" s="182" t="s">
+        <v>546</v>
+      </c>
+      <c r="E31" s="182" t="s">
+        <v>590</v>
+      </c>
+      <c r="F31" s="183" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="D32" s="182" t="s">
+        <v>592</v>
+      </c>
+      <c r="E32" s="182" t="s">
+        <v>600</v>
+      </c>
+      <c r="F32" s="183" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="182" t="s">
+        <v>593</v>
+      </c>
+      <c r="E33" s="182" t="s">
+        <v>599</v>
+      </c>
+      <c r="F33" s="183" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="182" t="s">
+        <v>586</v>
+      </c>
+      <c r="D34" s="182" t="s">
+        <v>595</v>
+      </c>
+      <c r="E34" s="182" t="s">
+        <v>594</v>
+      </c>
+      <c r="F34" s="183" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D35" s="182" t="s">
+        <v>602</v>
+      </c>
+      <c r="E35" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="F35" s="183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D36" s="182" t="s">
+        <v>602</v>
+      </c>
+      <c r="E36" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D37" s="182" t="s">
+        <v>602</v>
+      </c>
+      <c r="E37" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="F37" s="183" t="s">
+        <v>603</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D38" s="182" t="s">
+        <v>605</v>
+      </c>
+      <c r="E38" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="F38" s="183" t="s">
+        <v>603</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D39" s="182" t="s">
+        <v>607</v>
+      </c>
+      <c r="E39" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D40" s="182" t="s">
+        <v>608</v>
+      </c>
+      <c r="E40" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="F40" s="183" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D41" s="182" t="s">
+        <v>604</v>
+      </c>
+      <c r="E41" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="182" t="s">
+        <v>601</v>
+      </c>
+      <c r="D42" s="182" t="s">
+        <v>604</v>
+      </c>
+      <c r="E42" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" s="183" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>606</v>
+      </c>
+      <c r="D43" s="182" t="s">
+        <v>614</v>
+      </c>
+      <c r="E43" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="C44" s="182" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" s="182" t="s">
+        <v>613</v>
+      </c>
+      <c r="E44" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="3">
+        <v>43</v>
+      </c>
+      <c r="C45" s="182" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="182" t="s">
+        <v>615</v>
+      </c>
+      <c r="E45" s="182" t="s">
+        <v>609</v>
+      </c>
+      <c r="F45" s="183" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46" s="182" t="s">
+        <v>606</v>
+      </c>
+      <c r="D46" s="182" t="s">
+        <v>587</v>
+      </c>
+      <c r="E46" s="182" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="3">
+        <v>45</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>606</v>
+      </c>
+      <c r="D47" s="182" t="s">
+        <v>613</v>
+      </c>
+      <c r="E47" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="F47" s="183" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="3">
+        <v>46</v>
+      </c>
+      <c r="C48" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="D48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E48" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="3">
+        <v>47</v>
+      </c>
+      <c r="C49" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" t="s">
+        <v>620</v>
+      </c>
+      <c r="E49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="3">
+        <v>48</v>
+      </c>
+      <c r="C50" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="D50" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" t="s">
+        <v>600</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="3">
+        <v>49</v>
+      </c>
+      <c r="C51" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="D51" t="s">
+        <v>621</v>
+      </c>
+      <c r="E51" t="s">
+        <v>600</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="3">
+        <v>50</v>
+      </c>
+      <c r="C52" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="D52" t="s">
+        <v>622</v>
+      </c>
+      <c r="E52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="3">
+        <v>51</v>
+      </c>
+      <c r="C53" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="D53" t="s">
+        <v>623</v>
+      </c>
+      <c r="E53" t="s">
+        <v>550</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="3">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>616</v>
+      </c>
+      <c r="D54" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" t="s">
+        <v>550</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="3">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>626</v>
+      </c>
+      <c r="D55" t="s">
+        <v>627</v>
+      </c>
+      <c r="E55" t="s">
+        <v>628</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="3">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>630</v>
+      </c>
+      <c r="D56" t="s">
+        <v>629</v>
+      </c>
+      <c r="E56" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="3">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>630</v>
+      </c>
+      <c r="D57" t="s">
+        <v>631</v>
+      </c>
+      <c r="E57" t="s">
+        <v>569</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="3">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>630</v>
+      </c>
+      <c r="D58" t="s">
+        <v>632</v>
+      </c>
+      <c r="E58" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="3">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>630</v>
+      </c>
+      <c r="D59" t="s">
+        <v>633</v>
+      </c>
+      <c r="E59" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="3">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>630</v>
+      </c>
+      <c r="D60" t="s">
+        <v>634</v>
+      </c>
+      <c r="E60" t="s">
+        <v>550</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="3">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>636</v>
+      </c>
+      <c r="D61" t="s">
+        <v>534</v>
+      </c>
+      <c r="E61" t="s">
+        <v>640</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="3">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>636</v>
+      </c>
+      <c r="D62" t="s">
+        <v>637</v>
+      </c>
+      <c r="E62" t="s">
+        <v>569</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="3">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>636</v>
+      </c>
+      <c r="D63" t="s">
+        <v>638</v>
+      </c>
+      <c r="E63" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="3">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>636</v>
+      </c>
+      <c r="D64" t="s">
+        <v>535</v>
+      </c>
+      <c r="E64" t="s">
+        <v>639</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="3">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>643</v>
+      </c>
+      <c r="D65" t="s">
+        <v>613</v>
+      </c>
+      <c r="E65" t="s">
+        <v>600</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="3">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>643</v>
+      </c>
+      <c r="D66" t="s">
+        <v>587</v>
+      </c>
+      <c r="E66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="3">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>643</v>
+      </c>
+      <c r="D67" t="s">
+        <v>587</v>
+      </c>
+      <c r="E67" t="s">
+        <v>600</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="3">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>643</v>
+      </c>
+      <c r="D68" t="s">
+        <v>545</v>
+      </c>
+      <c r="E68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="3">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>645</v>
+      </c>
+      <c r="D69" t="s">
+        <v>534</v>
+      </c>
+      <c r="E69" t="s">
+        <v>649</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="3">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>645</v>
+      </c>
+      <c r="D70" t="s">
+        <v>534</v>
+      </c>
+      <c r="E70" t="s">
+        <v>650</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="3">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>645</v>
+      </c>
+      <c r="D71" t="s">
+        <v>646</v>
+      </c>
+      <c r="E71" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="3">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>645</v>
+      </c>
+      <c r="D72" t="s">
+        <v>646</v>
+      </c>
+      <c r="E72" t="s">
+        <v>652</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="3">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>645</v>
+      </c>
+      <c r="D73" t="s">
+        <v>653</v>
+      </c>
+      <c r="E73" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="3">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>645</v>
+      </c>
+      <c r="D74" t="s">
+        <v>654</v>
+      </c>
+      <c r="E74" t="s">
+        <v>549</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="3">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>645</v>
+      </c>
+      <c r="D75" t="s">
+        <v>657</v>
+      </c>
+      <c r="E75" t="s">
+        <v>656</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="3">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>658</v>
+      </c>
+      <c r="D76" t="s">
+        <v>659</v>
+      </c>
+      <c r="E76" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="3">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>658</v>
+      </c>
+      <c r="D77" t="s">
+        <v>663</v>
+      </c>
+      <c r="E77" t="s">
+        <v>550</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="3">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>658</v>
+      </c>
+      <c r="D78" t="s">
+        <v>664</v>
+      </c>
+      <c r="E78" t="s">
+        <v>550</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="3">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>658</v>
+      </c>
+      <c r="D79" t="s">
+        <v>665</v>
+      </c>
+      <c r="E79" t="s">
+        <v>550</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="3">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>658</v>
+      </c>
+      <c r="D80" t="s">
+        <v>662</v>
+      </c>
+      <c r="E80" t="s">
+        <v>550</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="3">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>666</v>
+      </c>
+      <c r="D81" t="s">
+        <v>667</v>
+      </c>
+      <c r="E81" t="s">
+        <v>569</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="3">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>666</v>
+      </c>
+      <c r="D82" t="s">
+        <v>667</v>
+      </c>
+      <c r="E82" t="s">
+        <v>668</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="3">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>669</v>
+      </c>
+      <c r="D83" t="s">
+        <v>587</v>
+      </c>
+      <c r="E83" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="3">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>669</v>
+      </c>
+      <c r="D84" t="s">
+        <v>673</v>
+      </c>
+      <c r="E84" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="3">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>669</v>
+      </c>
+      <c r="D85" t="s">
+        <v>674</v>
+      </c>
+      <c r="E85" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="3">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>669</v>
+      </c>
+      <c r="D86" t="s">
+        <v>676</v>
+      </c>
+      <c r="E86" t="s">
+        <v>600</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="3">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>669</v>
+      </c>
+      <c r="D87" t="s">
+        <v>678</v>
+      </c>
+      <c r="E87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="3">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>669</v>
+      </c>
+      <c r="D88" t="s">
+        <v>679</v>
+      </c>
+      <c r="E88" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="3">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>669</v>
+      </c>
+      <c r="D89" t="s">
+        <v>680</v>
+      </c>
+      <c r="E89" t="s">
+        <v>677</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="3">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>670</v>
+      </c>
+      <c r="D90" t="s">
+        <v>534</v>
+      </c>
+      <c r="E90" t="s">
+        <v>682</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="3">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>670</v>
+      </c>
+      <c r="D91" t="s">
+        <v>534</v>
+      </c>
+      <c r="E91" t="s">
+        <v>682</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="3">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>670</v>
+      </c>
+      <c r="D92" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" t="s">
+        <v>641</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="3">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>670</v>
+      </c>
+      <c r="D93" t="s">
+        <v>534</v>
+      </c>
+      <c r="E93" t="s">
+        <v>684</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="3">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>671</v>
+      </c>
+      <c r="D94" t="s">
+        <v>689</v>
+      </c>
+      <c r="E94" t="s">
+        <v>687</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="3">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>671</v>
+      </c>
+      <c r="D95" t="s">
+        <v>689</v>
+      </c>
+      <c r="E95" t="s">
+        <v>690</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="3">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>671</v>
+      </c>
+      <c r="D96" t="s">
+        <v>613</v>
+      </c>
+      <c r="E96" t="s">
+        <v>697</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="3">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>671</v>
+      </c>
+      <c r="D97" t="s">
+        <v>587</v>
+      </c>
+      <c r="E97" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="3">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>671</v>
+      </c>
+      <c r="D98" t="s">
+        <v>587</v>
+      </c>
+      <c r="E98" t="s">
+        <v>697</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="3">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>671</v>
+      </c>
+      <c r="D99" t="s">
+        <v>698</v>
+      </c>
+      <c r="E99" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="3">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>671</v>
+      </c>
+      <c r="D100" t="s">
+        <v>545</v>
+      </c>
+      <c r="E100" t="s">
+        <v>697</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="3">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>671</v>
+      </c>
+      <c r="D101" t="s">
+        <v>699</v>
+      </c>
+      <c r="E101" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="3">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>671</v>
+      </c>
+      <c r="D102" t="s">
+        <v>546</v>
+      </c>
+      <c r="E102" t="s">
+        <v>697</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="3">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>671</v>
+      </c>
+      <c r="D103" t="s">
+        <v>700</v>
+      </c>
+      <c r="E103" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="3">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>671</v>
+      </c>
+      <c r="D104" t="s">
+        <v>691</v>
+      </c>
+      <c r="E104" t="s">
+        <v>697</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="3">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>671</v>
+      </c>
+      <c r="D105" t="s">
+        <v>547</v>
+      </c>
+      <c r="E105" t="s">
+        <v>697</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="3">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>672</v>
+      </c>
+      <c r="D106" t="s">
+        <v>692</v>
+      </c>
+      <c r="E106" t="s">
+        <v>693</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="3">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>672</v>
+      </c>
+      <c r="D107" t="s">
+        <v>692</v>
+      </c>
+      <c r="E107" t="s">
+        <v>694</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E9773-BB41-4A15-BA41-CDFF1EE0CEBE}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37364,402 +39632,402 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="221" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="284"/>
+      <c r="C2" s="221"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:10">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="102" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="191" t="s">
+      <c r="D4" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="190" t="s">
+      <c r="E4" s="102" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="191" t="s">
+      <c r="F4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="192" t="s">
+      <c r="G4" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="192" t="s">
+      <c r="I4" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="101" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="195" t="s">
+      <c r="C5" s="104" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="196" t="s">
+      <c r="D5" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="198" t="s">
+      <c r="F5" s="107" t="s">
         <v>476</v>
       </c>
-      <c r="G5" s="197" t="s">
+      <c r="G5" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="199" t="s">
+      <c r="H5" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="197" t="s">
+      <c r="I5" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="200" t="s">
+      <c r="J5" s="109" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="111" t="s">
         <v>473</v>
       </c>
-      <c r="E6" s="203" t="s">
+      <c r="E6" s="154" t="s">
         <v>472</v>
       </c>
-      <c r="F6" s="191" t="s">
+      <c r="F6" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="111" t="s">
         <v>441</v>
       </c>
-      <c r="I6" s="203" t="s">
+      <c r="I6" s="154" t="s">
         <v>443</v>
       </c>
-      <c r="J6" s="205" t="s">
+      <c r="J6" s="112" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="197" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="208" t="s">
+      <c r="F7" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="209" t="s">
+      <c r="G7" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="210" t="s">
+      <c r="H7" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="I7" s="211"/>
-      <c r="J7" s="212"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="153" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="214" t="s">
+      <c r="D8" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="154" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="202" t="s">
+      <c r="F8" s="111" t="s">
         <v>446</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="203" t="s">
+      <c r="I8" s="154" t="s">
         <v>444</v>
       </c>
-      <c r="J8" s="215" t="s">
+      <c r="J8" s="155" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="121" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="217" t="s">
+      <c r="C9" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="D9" s="115" t="s">
         <v>477</v>
       </c>
-      <c r="E9" s="218"/>
-      <c r="F9" s="196" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="206" t="s">
+      <c r="G9" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="208" t="s">
+      <c r="H9" s="115" t="s">
         <v>474</v>
       </c>
-      <c r="I9" s="206" t="s">
+      <c r="I9" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="219" t="s">
+      <c r="J9" s="124" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="60">
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="100" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="125" t="s">
         <v>427</v>
       </c>
-      <c r="D10" s="221" t="s">
+      <c r="D10" s="126" t="s">
         <v>428</v>
       </c>
-      <c r="E10" s="220" t="s">
+      <c r="E10" s="125" t="s">
         <v>429</v>
       </c>
-      <c r="F10" s="221" t="s">
+      <c r="F10" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="G10" s="220" t="s">
+      <c r="G10" s="125" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="221" t="s">
+      <c r="H10" s="126" t="s">
         <v>432</v>
       </c>
-      <c r="I10" s="192" t="s">
+      <c r="I10" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="222" t="s">
+      <c r="J10" s="127" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="223"/>
-      <c r="C11" s="224" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="150" t="s">
         <v>433</v>
       </c>
-      <c r="D11" s="225" t="s">
+      <c r="D11" s="151" t="s">
         <v>434</v>
       </c>
-      <c r="E11" s="224" t="s">
+      <c r="E11" s="150" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="225" t="s">
+      <c r="F11" s="151" t="s">
         <v>436</v>
       </c>
-      <c r="G11" s="224" t="s">
+      <c r="G11" s="150" t="s">
         <v>437</v>
       </c>
-      <c r="H11" s="225" t="s">
+      <c r="H11" s="151" t="s">
         <v>438</v>
       </c>
-      <c r="I11" s="211"/>
-      <c r="J11" s="219" t="s">
+      <c r="I11" s="118"/>
+      <c r="J11" s="124" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30">
-      <c r="B12" s="226" t="s">
+      <c r="B12" s="129" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="227" t="s">
+      <c r="C12" s="130" t="s">
         <v>346</v>
       </c>
-      <c r="D12" s="228" t="s">
+      <c r="D12" s="131" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="227" t="s">
+      <c r="E12" s="130" t="s">
         <v>344</v>
       </c>
-      <c r="F12" s="228" t="s">
+      <c r="F12" s="131" t="s">
         <v>343</v>
       </c>
-      <c r="G12" s="227" t="s">
+      <c r="G12" s="130" t="s">
         <v>342</v>
       </c>
-      <c r="H12" s="229"/>
-      <c r="I12" s="203" t="s">
+      <c r="H12" s="132"/>
+      <c r="I12" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="J12" s="230" t="s">
+      <c r="J12" s="133" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="105.75" thickBot="1">
-      <c r="B13" s="231" t="s">
+      <c r="B13" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="233" t="s">
+      <c r="C13" s="118"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="F13" s="232"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="234" t="s">
+      <c r="B14" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="137" t="s">
         <v>462</v>
       </c>
-      <c r="D14" s="236" t="s">
+      <c r="D14" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="E14" s="237" t="s">
+      <c r="E14" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="236" t="s">
+      <c r="F14" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="237" t="s">
+      <c r="G14" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="236" t="s">
+      <c r="H14" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="237" t="s">
+      <c r="I14" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="238"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="223"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="225" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="151" t="s">
         <v>455</v>
       </c>
-      <c r="E15" s="224" t="s">
+      <c r="E15" s="150" t="s">
         <v>460</v>
       </c>
-      <c r="F15" s="225" t="s">
+      <c r="F15" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="224" t="s">
+      <c r="G15" s="150" t="s">
         <v>458</v>
       </c>
-      <c r="H15" s="225" t="s">
+      <c r="H15" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="I15" s="224" t="s">
+      <c r="I15" s="150" t="s">
         <v>456</v>
       </c>
-      <c r="J15" s="212"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="99" t="s">
         <v>450</v>
       </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="141" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="142" t="s">
         <v>463</v>
       </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="143" t="s">
         <v>452</v>
       </c>
-      <c r="C20" s="242" t="s">
+      <c r="C20" s="144" t="s">
         <v>468</v>
       </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="243" t="s">
+      <c r="B21" s="145" t="s">
         <v>453</v>
       </c>
-      <c r="C21" s="244" t="s">
+      <c r="C21" s="146" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="147" t="s">
         <v>454</v>
       </c>
-      <c r="C22" s="246" t="s">
+      <c r="C22" s="148" t="s">
         <v>479</v>
       </c>
     </row>

--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0367EF9D-037F-42D2-A2B3-DCB3E7381B0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E84D46-FE15-4F9E-AB77-9E7E47873E45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="315" windowWidth="15060" windowHeight="14655" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="720">
   <si>
     <t>ID</t>
   </si>
@@ -2201,6 +2201,9 @@
   </si>
   <si>
     <t>0x7E0A41</t>
+  </si>
+  <si>
+    <t>Talking to Teacher</t>
   </si>
 </sst>
 </file>
@@ -3673,49 +3676,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3724,13 +3697,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3748,16 +3721,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3778,20 +3763,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3806,6 +3809,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3828,9 +3834,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3892,10 +3895,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2145C2C-28E7-4729-95B3-33F4F107767B}" name="Tableau3" displayName="Tableau3" ref="B2:H107" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2145C2C-28E7-4729-95B3-33F4F107767B}" name="Tableau3" displayName="Tableau3" ref="B2:H107" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:H107" xr:uid="{43C0CF75-B856-4CC6-A6A8-EEAC4E75867E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4ED943CA-2B52-4FC9-AC61-1CD9FB02091D}" name="ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4ED943CA-2B52-4FC9-AC61-1CD9FB02091D}" name="ID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{91401FD4-6D61-468F-9530-BF0307C82E28}" name="Place"/>
     <tableColumn id="3" xr3:uid="{20A3E718-7616-4DC8-817B-C099CB3B8912}" name="Zone"/>
     <tableColumn id="4" xr3:uid="{96C9C31E-3EEE-4C51-80E9-F6B671DAD769}" name="Spot"/>
@@ -4233,9 +4236,9 @@
   </sheetPr>
   <dimension ref="A1:P1237"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="H32:I32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4309,16 +4312,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="203" t="s">
+      <c r="D2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="200"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190"/>
       <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
@@ -4336,14 +4339,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="206"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
       <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
@@ -4585,7 +4588,9 @@
         <v>50</v>
       </c>
       <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
+      <c r="K9" s="166" t="s">
+        <v>719</v>
+      </c>
       <c r="M9" s="6">
         <v>38</v>
       </c>
@@ -10400,16 +10405,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="184" t="s">
+      <c r="D168" s="221" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="184"/>
-      <c r="F168" s="184"/>
-      <c r="G168" s="184"/>
-      <c r="H168" s="184"/>
-      <c r="I168" s="184"/>
-      <c r="J168" s="184"/>
-      <c r="K168" s="184"/>
+      <c r="E168" s="221"/>
+      <c r="F168" s="221"/>
+      <c r="G168" s="221"/>
+      <c r="H168" s="221"/>
+      <c r="I168" s="221"/>
+      <c r="J168" s="221"/>
+      <c r="K168" s="221"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10535,16 +10540,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="184" t="s">
+      <c r="D175" s="221" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="184"/>
-      <c r="F175" s="184"/>
-      <c r="G175" s="184"/>
-      <c r="H175" s="184"/>
-      <c r="I175" s="184"/>
-      <c r="J175" s="184"/>
-      <c r="K175" s="184"/>
+      <c r="E175" s="221"/>
+      <c r="F175" s="221"/>
+      <c r="G175" s="221"/>
+      <c r="H175" s="221"/>
+      <c r="I175" s="221"/>
+      <c r="J175" s="221"/>
+      <c r="K175" s="221"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10597,16 +10602,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="185" t="s">
+      <c r="D178" s="222" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="184"/>
-      <c r="F178" s="184"/>
-      <c r="G178" s="184"/>
-      <c r="H178" s="184"/>
-      <c r="I178" s="184"/>
-      <c r="J178" s="184"/>
-      <c r="K178" s="184"/>
+      <c r="E178" s="221"/>
+      <c r="F178" s="221"/>
+      <c r="G178" s="221"/>
+      <c r="H178" s="221"/>
+      <c r="I178" s="221"/>
+      <c r="J178" s="221"/>
+      <c r="K178" s="221"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -10678,16 +10683,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="186" t="s">
+      <c r="D182" s="204" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="187"/>
-      <c r="F182" s="187"/>
-      <c r="G182" s="187"/>
-      <c r="H182" s="187"/>
-      <c r="I182" s="187"/>
-      <c r="J182" s="187"/>
-      <c r="K182" s="188"/>
+      <c r="E182" s="205"/>
+      <c r="F182" s="205"/>
+      <c r="G182" s="205"/>
+      <c r="H182" s="205"/>
+      <c r="I182" s="205"/>
+      <c r="J182" s="205"/>
+      <c r="K182" s="206"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -10699,16 +10704,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="186" t="s">
+      <c r="D183" s="204" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="187"/>
-      <c r="F183" s="187"/>
-      <c r="G183" s="187"/>
-      <c r="H183" s="187"/>
-      <c r="I183" s="187"/>
-      <c r="J183" s="187"/>
-      <c r="K183" s="188"/>
+      <c r="E183" s="205"/>
+      <c r="F183" s="205"/>
+      <c r="G183" s="205"/>
+      <c r="H183" s="205"/>
+      <c r="I183" s="205"/>
+      <c r="J183" s="205"/>
+      <c r="K183" s="206"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -10720,16 +10725,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="186" t="s">
+      <c r="D184" s="204" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="187"/>
-      <c r="F184" s="187"/>
-      <c r="G184" s="187"/>
-      <c r="H184" s="187"/>
-      <c r="I184" s="187"/>
-      <c r="J184" s="187"/>
-      <c r="K184" s="188"/>
+      <c r="E184" s="205"/>
+      <c r="F184" s="205"/>
+      <c r="G184" s="205"/>
+      <c r="H184" s="205"/>
+      <c r="I184" s="205"/>
+      <c r="J184" s="205"/>
+      <c r="K184" s="206"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -10741,16 +10746,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="186" t="s">
+      <c r="D185" s="204" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="187"/>
-      <c r="F185" s="187"/>
-      <c r="G185" s="187"/>
-      <c r="H185" s="187"/>
-      <c r="I185" s="187"/>
-      <c r="J185" s="187"/>
-      <c r="K185" s="188"/>
+      <c r="E185" s="205"/>
+      <c r="F185" s="205"/>
+      <c r="G185" s="205"/>
+      <c r="H185" s="205"/>
+      <c r="I185" s="205"/>
+      <c r="J185" s="205"/>
+      <c r="K185" s="206"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -10762,16 +10767,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="186" t="s">
+      <c r="D186" s="204" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="187"/>
-      <c r="F186" s="187"/>
-      <c r="G186" s="187"/>
-      <c r="H186" s="187"/>
-      <c r="I186" s="187"/>
-      <c r="J186" s="187"/>
-      <c r="K186" s="188"/>
+      <c r="E186" s="205"/>
+      <c r="F186" s="205"/>
+      <c r="G186" s="205"/>
+      <c r="H186" s="205"/>
+      <c r="I186" s="205"/>
+      <c r="J186" s="205"/>
+      <c r="K186" s="206"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -10783,16 +10788,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="186" t="s">
+      <c r="D187" s="204" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="187"/>
-      <c r="F187" s="187"/>
-      <c r="G187" s="187"/>
-      <c r="H187" s="187"/>
-      <c r="I187" s="187"/>
-      <c r="J187" s="187"/>
-      <c r="K187" s="188"/>
+      <c r="E187" s="205"/>
+      <c r="F187" s="205"/>
+      <c r="G187" s="205"/>
+      <c r="H187" s="205"/>
+      <c r="I187" s="205"/>
+      <c r="J187" s="205"/>
+      <c r="K187" s="206"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -10804,16 +10809,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="186" t="s">
+      <c r="D188" s="204" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="187"/>
-      <c r="F188" s="187"/>
-      <c r="G188" s="187"/>
-      <c r="H188" s="187"/>
-      <c r="I188" s="187"/>
-      <c r="J188" s="187"/>
-      <c r="K188" s="188"/>
+      <c r="E188" s="205"/>
+      <c r="F188" s="205"/>
+      <c r="G188" s="205"/>
+      <c r="H188" s="205"/>
+      <c r="I188" s="205"/>
+      <c r="J188" s="205"/>
+      <c r="K188" s="206"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -10825,16 +10830,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="186" t="s">
+      <c r="D189" s="204" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="187"/>
-      <c r="F189" s="187"/>
-      <c r="G189" s="187"/>
-      <c r="H189" s="187"/>
-      <c r="I189" s="187"/>
-      <c r="J189" s="187"/>
-      <c r="K189" s="188"/>
+      <c r="E189" s="205"/>
+      <c r="F189" s="205"/>
+      <c r="G189" s="205"/>
+      <c r="H189" s="205"/>
+      <c r="I189" s="205"/>
+      <c r="J189" s="205"/>
+      <c r="K189" s="206"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -10846,16 +10851,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="186" t="s">
+      <c r="D190" s="204" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="187"/>
-      <c r="F190" s="187"/>
-      <c r="G190" s="187"/>
-      <c r="H190" s="187"/>
-      <c r="I190" s="187"/>
-      <c r="J190" s="187"/>
-      <c r="K190" s="188"/>
+      <c r="E190" s="205"/>
+      <c r="F190" s="205"/>
+      <c r="G190" s="205"/>
+      <c r="H190" s="205"/>
+      <c r="I190" s="205"/>
+      <c r="J190" s="205"/>
+      <c r="K190" s="206"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -10867,16 +10872,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="186" t="s">
+      <c r="D191" s="204" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="187"/>
-      <c r="F191" s="187"/>
-      <c r="G191" s="187"/>
-      <c r="H191" s="187"/>
-      <c r="I191" s="187"/>
-      <c r="J191" s="187"/>
-      <c r="K191" s="188"/>
+      <c r="E191" s="205"/>
+      <c r="F191" s="205"/>
+      <c r="G191" s="205"/>
+      <c r="H191" s="205"/>
+      <c r="I191" s="205"/>
+      <c r="J191" s="205"/>
+      <c r="K191" s="206"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -10888,16 +10893,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="186" t="s">
+      <c r="D192" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="187"/>
-      <c r="F192" s="187"/>
-      <c r="G192" s="187"/>
-      <c r="H192" s="187"/>
-      <c r="I192" s="187"/>
-      <c r="J192" s="187"/>
-      <c r="K192" s="188"/>
+      <c r="E192" s="205"/>
+      <c r="F192" s="205"/>
+      <c r="G192" s="205"/>
+      <c r="H192" s="205"/>
+      <c r="I192" s="205"/>
+      <c r="J192" s="205"/>
+      <c r="K192" s="206"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -10909,16 +10914,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="189" t="s">
+      <c r="D193" s="218" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="190"/>
-      <c r="F193" s="190"/>
-      <c r="G193" s="190"/>
-      <c r="H193" s="190"/>
-      <c r="I193" s="190"/>
-      <c r="J193" s="190"/>
-      <c r="K193" s="191"/>
+      <c r="E193" s="219"/>
+      <c r="F193" s="219"/>
+      <c r="G193" s="219"/>
+      <c r="H193" s="219"/>
+      <c r="I193" s="219"/>
+      <c r="J193" s="219"/>
+      <c r="K193" s="220"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -10933,16 +10938,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="192" t="s">
+      <c r="D194" s="199" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="193"/>
-      <c r="F194" s="193"/>
-      <c r="G194" s="193"/>
-      <c r="H194" s="193"/>
-      <c r="I194" s="193"/>
-      <c r="J194" s="193"/>
-      <c r="K194" s="194"/>
+      <c r="E194" s="192"/>
+      <c r="F194" s="192"/>
+      <c r="G194" s="192"/>
+      <c r="H194" s="192"/>
+      <c r="I194" s="192"/>
+      <c r="J194" s="192"/>
+      <c r="K194" s="200"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -10954,16 +10959,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="186" t="s">
+      <c r="D195" s="204" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="187"/>
-      <c r="F195" s="187"/>
-      <c r="G195" s="187"/>
-      <c r="H195" s="187"/>
-      <c r="I195" s="187"/>
-      <c r="J195" s="187"/>
-      <c r="K195" s="188"/>
+      <c r="E195" s="205"/>
+      <c r="F195" s="205"/>
+      <c r="G195" s="205"/>
+      <c r="H195" s="205"/>
+      <c r="I195" s="205"/>
+      <c r="J195" s="205"/>
+      <c r="K195" s="206"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -10975,16 +10980,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="186" t="s">
+      <c r="D196" s="204" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="187"/>
-      <c r="F196" s="187"/>
-      <c r="G196" s="187"/>
-      <c r="H196" s="187"/>
-      <c r="I196" s="187"/>
-      <c r="J196" s="187"/>
-      <c r="K196" s="188"/>
+      <c r="E196" s="205"/>
+      <c r="F196" s="205"/>
+      <c r="G196" s="205"/>
+      <c r="H196" s="205"/>
+      <c r="I196" s="205"/>
+      <c r="J196" s="205"/>
+      <c r="K196" s="206"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -10996,16 +11001,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="186" t="s">
+      <c r="D197" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="187"/>
-      <c r="F197" s="187"/>
-      <c r="G197" s="187"/>
-      <c r="H197" s="187"/>
-      <c r="I197" s="187"/>
-      <c r="J197" s="187"/>
-      <c r="K197" s="188"/>
+      <c r="E197" s="205"/>
+      <c r="F197" s="205"/>
+      <c r="G197" s="205"/>
+      <c r="H197" s="205"/>
+      <c r="I197" s="205"/>
+      <c r="J197" s="205"/>
+      <c r="K197" s="206"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -11017,16 +11022,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="186" t="s">
+      <c r="D198" s="204" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="187"/>
-      <c r="F198" s="187"/>
-      <c r="G198" s="187"/>
-      <c r="H198" s="187"/>
-      <c r="I198" s="187"/>
-      <c r="J198" s="187"/>
-      <c r="K198" s="188"/>
+      <c r="E198" s="205"/>
+      <c r="F198" s="205"/>
+      <c r="G198" s="205"/>
+      <c r="H198" s="205"/>
+      <c r="I198" s="205"/>
+      <c r="J198" s="205"/>
+      <c r="K198" s="206"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -11057,16 +11062,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="186" t="s">
+      <c r="D200" s="204" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="187"/>
-      <c r="F200" s="187"/>
-      <c r="G200" s="187"/>
-      <c r="H200" s="187"/>
-      <c r="I200" s="187"/>
-      <c r="J200" s="187"/>
-      <c r="K200" s="188"/>
+      <c r="E200" s="205"/>
+      <c r="F200" s="205"/>
+      <c r="G200" s="205"/>
+      <c r="H200" s="205"/>
+      <c r="I200" s="205"/>
+      <c r="J200" s="205"/>
+      <c r="K200" s="206"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -11097,16 +11102,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="216" t="s">
+      <c r="D202" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="217"/>
-      <c r="F202" s="217"/>
-      <c r="G202" s="217"/>
-      <c r="H202" s="217"/>
-      <c r="I202" s="217"/>
-      <c r="J202" s="217"/>
-      <c r="K202" s="218"/>
+      <c r="E202" s="211"/>
+      <c r="F202" s="211"/>
+      <c r="G202" s="211"/>
+      <c r="H202" s="211"/>
+      <c r="I202" s="211"/>
+      <c r="J202" s="211"/>
+      <c r="K202" s="212"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -11137,16 +11142,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="186" t="s">
+      <c r="D204" s="204" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="187"/>
-      <c r="F204" s="187"/>
-      <c r="G204" s="187"/>
-      <c r="H204" s="187"/>
-      <c r="I204" s="187"/>
-      <c r="J204" s="187"/>
-      <c r="K204" s="188"/>
+      <c r="E204" s="205"/>
+      <c r="F204" s="205"/>
+      <c r="G204" s="205"/>
+      <c r="H204" s="205"/>
+      <c r="I204" s="205"/>
+      <c r="J204" s="205"/>
+      <c r="K204" s="206"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -11177,16 +11182,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="186" t="s">
+      <c r="D206" s="204" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="187"/>
-      <c r="F206" s="187"/>
-      <c r="G206" s="187"/>
-      <c r="H206" s="187"/>
-      <c r="I206" s="187"/>
-      <c r="J206" s="187"/>
-      <c r="K206" s="188"/>
+      <c r="E206" s="205"/>
+      <c r="F206" s="205"/>
+      <c r="G206" s="205"/>
+      <c r="H206" s="205"/>
+      <c r="I206" s="205"/>
+      <c r="J206" s="205"/>
+      <c r="K206" s="206"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -11217,16 +11222,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="186" t="s">
+      <c r="D208" s="204" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="187"/>
-      <c r="F208" s="187"/>
-      <c r="G208" s="187"/>
-      <c r="H208" s="187"/>
-      <c r="I208" s="187"/>
-      <c r="J208" s="187"/>
-      <c r="K208" s="188"/>
+      <c r="E208" s="205"/>
+      <c r="F208" s="205"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="205"/>
+      <c r="I208" s="205"/>
+      <c r="J208" s="205"/>
+      <c r="K208" s="206"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -11260,16 +11265,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="192" t="s">
+      <c r="D210" s="199" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="193"/>
-      <c r="F210" s="193"/>
-      <c r="G210" s="193"/>
-      <c r="H210" s="193"/>
-      <c r="I210" s="193"/>
-      <c r="J210" s="193"/>
-      <c r="K210" s="194"/>
+      <c r="E210" s="192"/>
+      <c r="F210" s="192"/>
+      <c r="G210" s="192"/>
+      <c r="H210" s="192"/>
+      <c r="I210" s="192"/>
+      <c r="J210" s="192"/>
+      <c r="K210" s="200"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -11338,16 +11343,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="186" t="s">
+      <c r="D214" s="204" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="187"/>
-      <c r="F214" s="187"/>
-      <c r="G214" s="187"/>
-      <c r="H214" s="187"/>
-      <c r="I214" s="187"/>
-      <c r="J214" s="187"/>
-      <c r="K214" s="188"/>
+      <c r="E214" s="205"/>
+      <c r="F214" s="205"/>
+      <c r="G214" s="205"/>
+      <c r="H214" s="205"/>
+      <c r="I214" s="205"/>
+      <c r="J214" s="205"/>
+      <c r="K214" s="206"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -11378,16 +11383,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="207" t="s">
+      <c r="D216" s="197" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="199"/>
-      <c r="F216" s="199"/>
-      <c r="G216" s="199"/>
-      <c r="H216" s="199"/>
-      <c r="I216" s="199"/>
-      <c r="J216" s="199"/>
-      <c r="K216" s="208"/>
+      <c r="E216" s="189"/>
+      <c r="F216" s="189"/>
+      <c r="G216" s="189"/>
+      <c r="H216" s="189"/>
+      <c r="I216" s="189"/>
+      <c r="J216" s="189"/>
+      <c r="K216" s="198"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11399,14 +11404,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="192"/>
-      <c r="E217" s="193"/>
-      <c r="F217" s="193"/>
-      <c r="G217" s="193"/>
-      <c r="H217" s="193"/>
-      <c r="I217" s="193"/>
-      <c r="J217" s="193"/>
-      <c r="K217" s="194"/>
+      <c r="D217" s="199"/>
+      <c r="E217" s="192"/>
+      <c r="F217" s="192"/>
+      <c r="G217" s="192"/>
+      <c r="H217" s="192"/>
+      <c r="I217" s="192"/>
+      <c r="J217" s="192"/>
+      <c r="K217" s="200"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11418,16 +11423,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="207" t="s">
+      <c r="D218" s="197" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="199"/>
-      <c r="F218" s="199"/>
-      <c r="G218" s="199"/>
-      <c r="H218" s="199"/>
-      <c r="I218" s="199"/>
-      <c r="J218" s="199"/>
-      <c r="K218" s="208"/>
+      <c r="E218" s="189"/>
+      <c r="F218" s="189"/>
+      <c r="G218" s="189"/>
+      <c r="H218" s="189"/>
+      <c r="I218" s="189"/>
+      <c r="J218" s="189"/>
+      <c r="K218" s="198"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11439,14 +11444,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="192"/>
-      <c r="E219" s="193"/>
-      <c r="F219" s="193"/>
-      <c r="G219" s="193"/>
-      <c r="H219" s="193"/>
-      <c r="I219" s="193"/>
-      <c r="J219" s="193"/>
-      <c r="K219" s="194"/>
+      <c r="D219" s="199"/>
+      <c r="E219" s="192"/>
+      <c r="F219" s="192"/>
+      <c r="G219" s="192"/>
+      <c r="H219" s="192"/>
+      <c r="I219" s="192"/>
+      <c r="J219" s="192"/>
+      <c r="K219" s="200"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11458,16 +11463,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="207" t="s">
+      <c r="D220" s="197" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="199"/>
-      <c r="F220" s="199"/>
-      <c r="G220" s="199"/>
-      <c r="H220" s="199"/>
-      <c r="I220" s="199"/>
-      <c r="J220" s="199"/>
-      <c r="K220" s="208"/>
+      <c r="E220" s="189"/>
+      <c r="F220" s="189"/>
+      <c r="G220" s="189"/>
+      <c r="H220" s="189"/>
+      <c r="I220" s="189"/>
+      <c r="J220" s="189"/>
+      <c r="K220" s="198"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11479,14 +11484,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="192"/>
-      <c r="E221" s="193"/>
-      <c r="F221" s="193"/>
-      <c r="G221" s="193"/>
-      <c r="H221" s="193"/>
-      <c r="I221" s="193"/>
-      <c r="J221" s="193"/>
-      <c r="K221" s="194"/>
+      <c r="D221" s="199"/>
+      <c r="E221" s="192"/>
+      <c r="F221" s="192"/>
+      <c r="G221" s="192"/>
+      <c r="H221" s="192"/>
+      <c r="I221" s="192"/>
+      <c r="J221" s="192"/>
+      <c r="K221" s="200"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11498,16 +11503,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="186" t="s">
+      <c r="D222" s="204" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="187"/>
-      <c r="F222" s="187"/>
-      <c r="G222" s="187"/>
-      <c r="H222" s="187"/>
-      <c r="I222" s="187"/>
-      <c r="J222" s="187"/>
-      <c r="K222" s="188"/>
+      <c r="E222" s="205"/>
+      <c r="F222" s="205"/>
+      <c r="G222" s="205"/>
+      <c r="H222" s="205"/>
+      <c r="I222" s="205"/>
+      <c r="J222" s="205"/>
+      <c r="K222" s="206"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11538,16 +11543,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="186" t="s">
+      <c r="D224" s="204" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="187"/>
-      <c r="F224" s="187"/>
-      <c r="G224" s="187"/>
-      <c r="H224" s="187"/>
-      <c r="I224" s="187"/>
-      <c r="J224" s="187"/>
-      <c r="K224" s="188"/>
+      <c r="E224" s="205"/>
+      <c r="F224" s="205"/>
+      <c r="G224" s="205"/>
+      <c r="H224" s="205"/>
+      <c r="I224" s="205"/>
+      <c r="J224" s="205"/>
+      <c r="K224" s="206"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11581,16 +11586,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="213" t="s">
+      <c r="D226" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="214"/>
-      <c r="F226" s="214"/>
-      <c r="G226" s="214"/>
-      <c r="H226" s="214"/>
-      <c r="I226" s="214"/>
-      <c r="J226" s="214"/>
-      <c r="K226" s="215"/>
+      <c r="E226" s="208"/>
+      <c r="F226" s="208"/>
+      <c r="G226" s="208"/>
+      <c r="H226" s="208"/>
+      <c r="I226" s="208"/>
+      <c r="J226" s="208"/>
+      <c r="K226" s="209"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -11735,16 +11740,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="211" t="s">
+      <c r="D234" s="201" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="196"/>
-      <c r="F234" s="196"/>
-      <c r="G234" s="196"/>
-      <c r="H234" s="196"/>
-      <c r="I234" s="196"/>
-      <c r="J234" s="196"/>
-      <c r="K234" s="212"/>
+      <c r="E234" s="202"/>
+      <c r="F234" s="202"/>
+      <c r="G234" s="202"/>
+      <c r="H234" s="202"/>
+      <c r="I234" s="202"/>
+      <c r="J234" s="202"/>
+      <c r="K234" s="203"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -11813,16 +11818,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="203" t="s">
+      <c r="D238" s="188" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="199"/>
-      <c r="F238" s="199"/>
-      <c r="G238" s="199"/>
-      <c r="H238" s="199"/>
-      <c r="I238" s="199"/>
-      <c r="J238" s="199"/>
-      <c r="K238" s="200"/>
+      <c r="E238" s="189"/>
+      <c r="F238" s="189"/>
+      <c r="G238" s="189"/>
+      <c r="H238" s="189"/>
+      <c r="I238" s="189"/>
+      <c r="J238" s="189"/>
+      <c r="K238" s="190"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -11834,14 +11839,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="209"/>
-      <c r="E239" s="193"/>
-      <c r="F239" s="193"/>
-      <c r="G239" s="193"/>
-      <c r="H239" s="193"/>
-      <c r="I239" s="193"/>
-      <c r="J239" s="193"/>
-      <c r="K239" s="210"/>
+      <c r="D239" s="191"/>
+      <c r="E239" s="192"/>
+      <c r="F239" s="192"/>
+      <c r="G239" s="192"/>
+      <c r="H239" s="192"/>
+      <c r="I239" s="192"/>
+      <c r="J239" s="192"/>
+      <c r="K239" s="193"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -11853,16 +11858,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="199" t="s">
+      <c r="D240" s="189" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="199"/>
-      <c r="F240" s="199"/>
-      <c r="G240" s="199"/>
-      <c r="H240" s="199"/>
-      <c r="I240" s="199"/>
-      <c r="J240" s="199"/>
-      <c r="K240" s="200"/>
+      <c r="E240" s="189"/>
+      <c r="F240" s="189"/>
+      <c r="G240" s="189"/>
+      <c r="H240" s="189"/>
+      <c r="I240" s="189"/>
+      <c r="J240" s="189"/>
+      <c r="K240" s="190"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -11874,14 +11879,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="201"/>
-      <c r="E241" s="201"/>
-      <c r="F241" s="201"/>
-      <c r="G241" s="201"/>
-      <c r="H241" s="201"/>
-      <c r="I241" s="201"/>
-      <c r="J241" s="201"/>
-      <c r="K241" s="202"/>
+      <c r="D241" s="216"/>
+      <c r="E241" s="216"/>
+      <c r="F241" s="216"/>
+      <c r="G241" s="216"/>
+      <c r="H241" s="216"/>
+      <c r="I241" s="216"/>
+      <c r="J241" s="216"/>
+      <c r="K241" s="217"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -12072,16 +12077,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="195" t="s">
+      <c r="D250" s="213" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="196"/>
-      <c r="F250" s="196"/>
-      <c r="G250" s="196"/>
-      <c r="H250" s="196"/>
-      <c r="I250" s="196"/>
-      <c r="J250" s="196"/>
-      <c r="K250" s="197"/>
+      <c r="E250" s="202"/>
+      <c r="F250" s="202"/>
+      <c r="G250" s="202"/>
+      <c r="H250" s="202"/>
+      <c r="I250" s="202"/>
+      <c r="J250" s="202"/>
+      <c r="K250" s="214"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12650,16 +12655,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="198" t="s">
+      <c r="D280" s="215" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="187"/>
-      <c r="F280" s="187"/>
-      <c r="G280" s="187"/>
-      <c r="H280" s="187"/>
-      <c r="I280" s="187"/>
-      <c r="J280" s="187"/>
-      <c r="K280" s="188"/>
+      <c r="E280" s="205"/>
+      <c r="F280" s="205"/>
+      <c r="G280" s="205"/>
+      <c r="H280" s="205"/>
+      <c r="I280" s="205"/>
+      <c r="J280" s="205"/>
+      <c r="K280" s="206"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -12766,16 +12771,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="198" t="s">
+      <c r="D286" s="215" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="187"/>
-      <c r="F286" s="187"/>
-      <c r="G286" s="187"/>
-      <c r="H286" s="187"/>
-      <c r="I286" s="187"/>
-      <c r="J286" s="187"/>
-      <c r="K286" s="188"/>
+      <c r="E286" s="205"/>
+      <c r="F286" s="205"/>
+      <c r="G286" s="205"/>
+      <c r="H286" s="205"/>
+      <c r="I286" s="205"/>
+      <c r="J286" s="205"/>
+      <c r="K286" s="206"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -12963,16 +12968,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="186" t="s">
+      <c r="D296" s="204" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="187"/>
-      <c r="F296" s="187"/>
-      <c r="G296" s="187"/>
-      <c r="H296" s="187"/>
-      <c r="I296" s="187"/>
-      <c r="J296" s="187"/>
-      <c r="K296" s="188"/>
+      <c r="E296" s="205"/>
+      <c r="F296" s="205"/>
+      <c r="G296" s="205"/>
+      <c r="H296" s="205"/>
+      <c r="I296" s="205"/>
+      <c r="J296" s="205"/>
+      <c r="K296" s="206"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -13003,16 +13008,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="203" t="s">
+      <c r="D298" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="199"/>
-      <c r="F298" s="199"/>
-      <c r="G298" s="199"/>
-      <c r="H298" s="199"/>
-      <c r="I298" s="199"/>
-      <c r="J298" s="199"/>
-      <c r="K298" s="200"/>
+      <c r="E298" s="189"/>
+      <c r="F298" s="189"/>
+      <c r="G298" s="189"/>
+      <c r="H298" s="189"/>
+      <c r="I298" s="189"/>
+      <c r="J298" s="189"/>
+      <c r="K298" s="190"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -13024,14 +13029,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="209"/>
-      <c r="E299" s="193"/>
-      <c r="F299" s="193"/>
-      <c r="G299" s="193"/>
-      <c r="H299" s="193"/>
-      <c r="I299" s="193"/>
-      <c r="J299" s="193"/>
-      <c r="K299" s="210"/>
+      <c r="D299" s="191"/>
+      <c r="E299" s="192"/>
+      <c r="F299" s="192"/>
+      <c r="G299" s="192"/>
+      <c r="H299" s="192"/>
+      <c r="I299" s="192"/>
+      <c r="J299" s="192"/>
+      <c r="K299" s="193"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -13043,16 +13048,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="203" t="s">
+      <c r="D300" s="188" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="199"/>
-      <c r="F300" s="199"/>
-      <c r="G300" s="199"/>
-      <c r="H300" s="199"/>
-      <c r="I300" s="199"/>
-      <c r="J300" s="199"/>
-      <c r="K300" s="200"/>
+      <c r="E300" s="189"/>
+      <c r="F300" s="189"/>
+      <c r="G300" s="189"/>
+      <c r="H300" s="189"/>
+      <c r="I300" s="189"/>
+      <c r="J300" s="189"/>
+      <c r="K300" s="190"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -13064,14 +13069,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="209"/>
-      <c r="E301" s="193"/>
-      <c r="F301" s="193"/>
-      <c r="G301" s="193"/>
-      <c r="H301" s="193"/>
-      <c r="I301" s="193"/>
-      <c r="J301" s="193"/>
-      <c r="K301" s="210"/>
+      <c r="D301" s="191"/>
+      <c r="E301" s="192"/>
+      <c r="F301" s="192"/>
+      <c r="G301" s="192"/>
+      <c r="H301" s="192"/>
+      <c r="I301" s="192"/>
+      <c r="J301" s="192"/>
+      <c r="K301" s="193"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -13083,16 +13088,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="203" t="s">
+      <c r="D302" s="188" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="199"/>
-      <c r="F302" s="199"/>
-      <c r="G302" s="199"/>
-      <c r="H302" s="199"/>
-      <c r="I302" s="199"/>
-      <c r="J302" s="199"/>
-      <c r="K302" s="200"/>
+      <c r="E302" s="189"/>
+      <c r="F302" s="189"/>
+      <c r="G302" s="189"/>
+      <c r="H302" s="189"/>
+      <c r="I302" s="189"/>
+      <c r="J302" s="189"/>
+      <c r="K302" s="190"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -13104,14 +13109,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="209"/>
-      <c r="E303" s="193"/>
-      <c r="F303" s="193"/>
-      <c r="G303" s="193"/>
-      <c r="H303" s="193"/>
-      <c r="I303" s="193"/>
-      <c r="J303" s="193"/>
-      <c r="K303" s="210"/>
+      <c r="D303" s="191"/>
+      <c r="E303" s="192"/>
+      <c r="F303" s="192"/>
+      <c r="G303" s="192"/>
+      <c r="H303" s="192"/>
+      <c r="I303" s="192"/>
+      <c r="J303" s="192"/>
+      <c r="K303" s="193"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -13123,16 +13128,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="203" t="s">
+      <c r="D304" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="199"/>
-      <c r="F304" s="199"/>
-      <c r="G304" s="199"/>
-      <c r="H304" s="199"/>
-      <c r="I304" s="199"/>
-      <c r="J304" s="199"/>
-      <c r="K304" s="200"/>
+      <c r="E304" s="189"/>
+      <c r="F304" s="189"/>
+      <c r="G304" s="189"/>
+      <c r="H304" s="189"/>
+      <c r="I304" s="189"/>
+      <c r="J304" s="189"/>
+      <c r="K304" s="190"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -13144,14 +13149,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="209"/>
-      <c r="E305" s="193"/>
-      <c r="F305" s="193"/>
-      <c r="G305" s="193"/>
-      <c r="H305" s="193"/>
-      <c r="I305" s="193"/>
-      <c r="J305" s="193"/>
-      <c r="K305" s="210"/>
+      <c r="D305" s="191"/>
+      <c r="E305" s="192"/>
+      <c r="F305" s="192"/>
+      <c r="G305" s="192"/>
+      <c r="H305" s="192"/>
+      <c r="I305" s="192"/>
+      <c r="J305" s="192"/>
+      <c r="K305" s="193"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -13166,16 +13171,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="203" t="s">
+      <c r="D306" s="188" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="199"/>
-      <c r="F306" s="199"/>
-      <c r="G306" s="199"/>
-      <c r="H306" s="199"/>
-      <c r="I306" s="199"/>
-      <c r="J306" s="199"/>
-      <c r="K306" s="200"/>
+      <c r="E306" s="189"/>
+      <c r="F306" s="189"/>
+      <c r="G306" s="189"/>
+      <c r="H306" s="189"/>
+      <c r="I306" s="189"/>
+      <c r="J306" s="189"/>
+      <c r="K306" s="190"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -13187,14 +13192,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="209"/>
-      <c r="E307" s="193"/>
-      <c r="F307" s="193"/>
-      <c r="G307" s="193"/>
-      <c r="H307" s="193"/>
-      <c r="I307" s="193"/>
-      <c r="J307" s="193"/>
-      <c r="K307" s="210"/>
+      <c r="D307" s="191"/>
+      <c r="E307" s="192"/>
+      <c r="F307" s="192"/>
+      <c r="G307" s="192"/>
+      <c r="H307" s="192"/>
+      <c r="I307" s="192"/>
+      <c r="J307" s="192"/>
+      <c r="K307" s="193"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -13206,16 +13211,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="203" t="s">
+      <c r="D308" s="188" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="199"/>
-      <c r="F308" s="199"/>
-      <c r="G308" s="199"/>
-      <c r="H308" s="199"/>
-      <c r="I308" s="199"/>
-      <c r="J308" s="199"/>
-      <c r="K308" s="200"/>
+      <c r="E308" s="189"/>
+      <c r="F308" s="189"/>
+      <c r="G308" s="189"/>
+      <c r="H308" s="189"/>
+      <c r="I308" s="189"/>
+      <c r="J308" s="189"/>
+      <c r="K308" s="190"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -13227,14 +13232,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="209"/>
-      <c r="E309" s="193"/>
-      <c r="F309" s="193"/>
-      <c r="G309" s="193"/>
-      <c r="H309" s="193"/>
-      <c r="I309" s="193"/>
-      <c r="J309" s="193"/>
-      <c r="K309" s="210"/>
+      <c r="D309" s="191"/>
+      <c r="E309" s="192"/>
+      <c r="F309" s="192"/>
+      <c r="G309" s="192"/>
+      <c r="H309" s="192"/>
+      <c r="I309" s="192"/>
+      <c r="J309" s="192"/>
+      <c r="K309" s="193"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21521,16 +21526,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="219" t="s">
+      <c r="D954" s="186" t="s">
         <v>480</v>
       </c>
-      <c r="E954" s="220"/>
-      <c r="F954" s="220"/>
-      <c r="G954" s="220"/>
-      <c r="H954" s="220"/>
-      <c r="I954" s="220"/>
-      <c r="J954" s="220"/>
-      <c r="K954" s="220"/>
+      <c r="E954" s="187"/>
+      <c r="F954" s="187"/>
+      <c r="G954" s="187"/>
+      <c r="H954" s="187"/>
+      <c r="I954" s="187"/>
+      <c r="J954" s="187"/>
+      <c r="K954" s="187"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24364,13 +24369,31 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D954:K954"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -24387,31 +24410,13 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D954:K954"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24497,16 +24502,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="203" t="s">
+      <c r="D2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="200"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24528,14 +24533,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="209"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="206"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="196"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -30784,16 +30789,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="184" t="s">
+      <c r="D178" s="221" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="184"/>
-      <c r="F178" s="184"/>
-      <c r="G178" s="184"/>
-      <c r="H178" s="184"/>
-      <c r="I178" s="184"/>
-      <c r="J178" s="184"/>
-      <c r="K178" s="184"/>
+      <c r="E178" s="221"/>
+      <c r="F178" s="221"/>
+      <c r="G178" s="221"/>
+      <c r="H178" s="221"/>
+      <c r="I178" s="221"/>
+      <c r="J178" s="221"/>
+      <c r="K178" s="221"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -30862,16 +30867,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="186" t="s">
+      <c r="D182" s="204" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="187"/>
-      <c r="F182" s="187"/>
-      <c r="G182" s="187"/>
-      <c r="H182" s="187"/>
-      <c r="I182" s="187"/>
-      <c r="J182" s="187"/>
-      <c r="K182" s="188"/>
+      <c r="E182" s="205"/>
+      <c r="F182" s="205"/>
+      <c r="G182" s="205"/>
+      <c r="H182" s="205"/>
+      <c r="I182" s="205"/>
+      <c r="J182" s="205"/>
+      <c r="K182" s="206"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -30883,16 +30888,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="186" t="s">
+      <c r="D183" s="204" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="187"/>
-      <c r="F183" s="187"/>
-      <c r="G183" s="187"/>
-      <c r="H183" s="187"/>
-      <c r="I183" s="187"/>
-      <c r="J183" s="187"/>
-      <c r="K183" s="188"/>
+      <c r="E183" s="205"/>
+      <c r="F183" s="205"/>
+      <c r="G183" s="205"/>
+      <c r="H183" s="205"/>
+      <c r="I183" s="205"/>
+      <c r="J183" s="205"/>
+      <c r="K183" s="206"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -30904,16 +30909,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="186" t="s">
+      <c r="D184" s="204" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="187"/>
-      <c r="F184" s="187"/>
-      <c r="G184" s="187"/>
-      <c r="H184" s="187"/>
-      <c r="I184" s="187"/>
-      <c r="J184" s="187"/>
-      <c r="K184" s="188"/>
+      <c r="E184" s="205"/>
+      <c r="F184" s="205"/>
+      <c r="G184" s="205"/>
+      <c r="H184" s="205"/>
+      <c r="I184" s="205"/>
+      <c r="J184" s="205"/>
+      <c r="K184" s="206"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -30925,16 +30930,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="186" t="s">
+      <c r="D185" s="204" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="187"/>
-      <c r="F185" s="187"/>
-      <c r="G185" s="187"/>
-      <c r="H185" s="187"/>
-      <c r="I185" s="187"/>
-      <c r="J185" s="187"/>
-      <c r="K185" s="188"/>
+      <c r="E185" s="205"/>
+      <c r="F185" s="205"/>
+      <c r="G185" s="205"/>
+      <c r="H185" s="205"/>
+      <c r="I185" s="205"/>
+      <c r="J185" s="205"/>
+      <c r="K185" s="206"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -30946,16 +30951,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="186" t="s">
+      <c r="D186" s="204" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="187"/>
-      <c r="F186" s="187"/>
-      <c r="G186" s="187"/>
-      <c r="H186" s="187"/>
-      <c r="I186" s="187"/>
-      <c r="J186" s="187"/>
-      <c r="K186" s="188"/>
+      <c r="E186" s="205"/>
+      <c r="F186" s="205"/>
+      <c r="G186" s="205"/>
+      <c r="H186" s="205"/>
+      <c r="I186" s="205"/>
+      <c r="J186" s="205"/>
+      <c r="K186" s="206"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -30967,16 +30972,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="186" t="s">
+      <c r="D187" s="204" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="187"/>
-      <c r="F187" s="187"/>
-      <c r="G187" s="187"/>
-      <c r="H187" s="187"/>
-      <c r="I187" s="187"/>
-      <c r="J187" s="187"/>
-      <c r="K187" s="188"/>
+      <c r="E187" s="205"/>
+      <c r="F187" s="205"/>
+      <c r="G187" s="205"/>
+      <c r="H187" s="205"/>
+      <c r="I187" s="205"/>
+      <c r="J187" s="205"/>
+      <c r="K187" s="206"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -30988,16 +30993,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="186" t="s">
+      <c r="D188" s="204" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="187"/>
-      <c r="F188" s="187"/>
-      <c r="G188" s="187"/>
-      <c r="H188" s="187"/>
-      <c r="I188" s="187"/>
-      <c r="J188" s="187"/>
-      <c r="K188" s="188"/>
+      <c r="E188" s="205"/>
+      <c r="F188" s="205"/>
+      <c r="G188" s="205"/>
+      <c r="H188" s="205"/>
+      <c r="I188" s="205"/>
+      <c r="J188" s="205"/>
+      <c r="K188" s="206"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -31009,16 +31014,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="186" t="s">
+      <c r="D189" s="204" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="187"/>
-      <c r="F189" s="187"/>
-      <c r="G189" s="187"/>
-      <c r="H189" s="187"/>
-      <c r="I189" s="187"/>
-      <c r="J189" s="187"/>
-      <c r="K189" s="188"/>
+      <c r="E189" s="205"/>
+      <c r="F189" s="205"/>
+      <c r="G189" s="205"/>
+      <c r="H189" s="205"/>
+      <c r="I189" s="205"/>
+      <c r="J189" s="205"/>
+      <c r="K189" s="206"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -31030,16 +31035,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="186" t="s">
+      <c r="D190" s="204" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="187"/>
-      <c r="F190" s="187"/>
-      <c r="G190" s="187"/>
-      <c r="H190" s="187"/>
-      <c r="I190" s="187"/>
-      <c r="J190" s="187"/>
-      <c r="K190" s="188"/>
+      <c r="E190" s="205"/>
+      <c r="F190" s="205"/>
+      <c r="G190" s="205"/>
+      <c r="H190" s="205"/>
+      <c r="I190" s="205"/>
+      <c r="J190" s="205"/>
+      <c r="K190" s="206"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -31051,16 +31056,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="186" t="s">
+      <c r="D191" s="204" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="187"/>
-      <c r="F191" s="187"/>
-      <c r="G191" s="187"/>
-      <c r="H191" s="187"/>
-      <c r="I191" s="187"/>
-      <c r="J191" s="187"/>
-      <c r="K191" s="188"/>
+      <c r="E191" s="205"/>
+      <c r="F191" s="205"/>
+      <c r="G191" s="205"/>
+      <c r="H191" s="205"/>
+      <c r="I191" s="205"/>
+      <c r="J191" s="205"/>
+      <c r="K191" s="206"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -31072,16 +31077,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="186" t="s">
+      <c r="D192" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="187"/>
-      <c r="F192" s="187"/>
-      <c r="G192" s="187"/>
-      <c r="H192" s="187"/>
-      <c r="I192" s="187"/>
-      <c r="J192" s="187"/>
-      <c r="K192" s="188"/>
+      <c r="E192" s="205"/>
+      <c r="F192" s="205"/>
+      <c r="G192" s="205"/>
+      <c r="H192" s="205"/>
+      <c r="I192" s="205"/>
+      <c r="J192" s="205"/>
+      <c r="K192" s="206"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -31093,16 +31098,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="189" t="s">
+      <c r="D193" s="218" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="190"/>
-      <c r="F193" s="190"/>
-      <c r="G193" s="190"/>
-      <c r="H193" s="190"/>
-      <c r="I193" s="190"/>
-      <c r="J193" s="190"/>
-      <c r="K193" s="191"/>
+      <c r="E193" s="219"/>
+      <c r="F193" s="219"/>
+      <c r="G193" s="219"/>
+      <c r="H193" s="219"/>
+      <c r="I193" s="219"/>
+      <c r="J193" s="219"/>
+      <c r="K193" s="220"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -31117,16 +31122,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="192" t="s">
+      <c r="D194" s="199" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="193"/>
-      <c r="F194" s="193"/>
-      <c r="G194" s="193"/>
-      <c r="H194" s="193"/>
-      <c r="I194" s="193"/>
-      <c r="J194" s="193"/>
-      <c r="K194" s="194"/>
+      <c r="E194" s="192"/>
+      <c r="F194" s="192"/>
+      <c r="G194" s="192"/>
+      <c r="H194" s="192"/>
+      <c r="I194" s="192"/>
+      <c r="J194" s="192"/>
+      <c r="K194" s="200"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -31138,16 +31143,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="186" t="s">
+      <c r="D195" s="204" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="187"/>
-      <c r="F195" s="187"/>
-      <c r="G195" s="187"/>
-      <c r="H195" s="187"/>
-      <c r="I195" s="187"/>
-      <c r="J195" s="187"/>
-      <c r="K195" s="188"/>
+      <c r="E195" s="205"/>
+      <c r="F195" s="205"/>
+      <c r="G195" s="205"/>
+      <c r="H195" s="205"/>
+      <c r="I195" s="205"/>
+      <c r="J195" s="205"/>
+      <c r="K195" s="206"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -31159,16 +31164,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="186" t="s">
+      <c r="D196" s="204" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="187"/>
-      <c r="F196" s="187"/>
-      <c r="G196" s="187"/>
-      <c r="H196" s="187"/>
-      <c r="I196" s="187"/>
-      <c r="J196" s="187"/>
-      <c r="K196" s="188"/>
+      <c r="E196" s="205"/>
+      <c r="F196" s="205"/>
+      <c r="G196" s="205"/>
+      <c r="H196" s="205"/>
+      <c r="I196" s="205"/>
+      <c r="J196" s="205"/>
+      <c r="K196" s="206"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -31180,16 +31185,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="186" t="s">
+      <c r="D197" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="187"/>
-      <c r="F197" s="187"/>
-      <c r="G197" s="187"/>
-      <c r="H197" s="187"/>
-      <c r="I197" s="187"/>
-      <c r="J197" s="187"/>
-      <c r="K197" s="188"/>
+      <c r="E197" s="205"/>
+      <c r="F197" s="205"/>
+      <c r="G197" s="205"/>
+      <c r="H197" s="205"/>
+      <c r="I197" s="205"/>
+      <c r="J197" s="205"/>
+      <c r="K197" s="206"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -31201,16 +31206,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="186" t="s">
+      <c r="D198" s="204" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="187"/>
-      <c r="F198" s="187"/>
-      <c r="G198" s="187"/>
-      <c r="H198" s="187"/>
-      <c r="I198" s="187"/>
-      <c r="J198" s="187"/>
-      <c r="K198" s="188"/>
+      <c r="E198" s="205"/>
+      <c r="F198" s="205"/>
+      <c r="G198" s="205"/>
+      <c r="H198" s="205"/>
+      <c r="I198" s="205"/>
+      <c r="J198" s="205"/>
+      <c r="K198" s="206"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -31241,16 +31246,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="186" t="s">
+      <c r="D200" s="204" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="187"/>
-      <c r="F200" s="187"/>
-      <c r="G200" s="187"/>
-      <c r="H200" s="187"/>
-      <c r="I200" s="187"/>
-      <c r="J200" s="187"/>
-      <c r="K200" s="188"/>
+      <c r="E200" s="205"/>
+      <c r="F200" s="205"/>
+      <c r="G200" s="205"/>
+      <c r="H200" s="205"/>
+      <c r="I200" s="205"/>
+      <c r="J200" s="205"/>
+      <c r="K200" s="206"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -31281,16 +31286,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="216" t="s">
+      <c r="D202" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="217"/>
-      <c r="F202" s="217"/>
-      <c r="G202" s="217"/>
-      <c r="H202" s="217"/>
-      <c r="I202" s="217"/>
-      <c r="J202" s="217"/>
-      <c r="K202" s="218"/>
+      <c r="E202" s="211"/>
+      <c r="F202" s="211"/>
+      <c r="G202" s="211"/>
+      <c r="H202" s="211"/>
+      <c r="I202" s="211"/>
+      <c r="J202" s="211"/>
+      <c r="K202" s="212"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -31321,16 +31326,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="186" t="s">
+      <c r="D204" s="204" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="187"/>
-      <c r="F204" s="187"/>
-      <c r="G204" s="187"/>
-      <c r="H204" s="187"/>
-      <c r="I204" s="187"/>
-      <c r="J204" s="187"/>
-      <c r="K204" s="188"/>
+      <c r="E204" s="205"/>
+      <c r="F204" s="205"/>
+      <c r="G204" s="205"/>
+      <c r="H204" s="205"/>
+      <c r="I204" s="205"/>
+      <c r="J204" s="205"/>
+      <c r="K204" s="206"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -31361,16 +31366,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="186" t="s">
+      <c r="D206" s="204" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="187"/>
-      <c r="F206" s="187"/>
-      <c r="G206" s="187"/>
-      <c r="H206" s="187"/>
-      <c r="I206" s="187"/>
-      <c r="J206" s="187"/>
-      <c r="K206" s="188"/>
+      <c r="E206" s="205"/>
+      <c r="F206" s="205"/>
+      <c r="G206" s="205"/>
+      <c r="H206" s="205"/>
+      <c r="I206" s="205"/>
+      <c r="J206" s="205"/>
+      <c r="K206" s="206"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31401,16 +31406,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="186" t="s">
+      <c r="D208" s="204" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="187"/>
-      <c r="F208" s="187"/>
-      <c r="G208" s="187"/>
-      <c r="H208" s="187"/>
-      <c r="I208" s="187"/>
-      <c r="J208" s="187"/>
-      <c r="K208" s="188"/>
+      <c r="E208" s="205"/>
+      <c r="F208" s="205"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="205"/>
+      <c r="I208" s="205"/>
+      <c r="J208" s="205"/>
+      <c r="K208" s="206"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31444,16 +31449,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="192" t="s">
+      <c r="D210" s="199" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="193"/>
-      <c r="F210" s="193"/>
-      <c r="G210" s="193"/>
-      <c r="H210" s="193"/>
-      <c r="I210" s="193"/>
-      <c r="J210" s="193"/>
-      <c r="K210" s="194"/>
+      <c r="E210" s="192"/>
+      <c r="F210" s="192"/>
+      <c r="G210" s="192"/>
+      <c r="H210" s="192"/>
+      <c r="I210" s="192"/>
+      <c r="J210" s="192"/>
+      <c r="K210" s="200"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31522,16 +31527,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="186" t="s">
+      <c r="D214" s="204" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="187"/>
-      <c r="F214" s="187"/>
-      <c r="G214" s="187"/>
-      <c r="H214" s="187"/>
-      <c r="I214" s="187"/>
-      <c r="J214" s="187"/>
-      <c r="K214" s="188"/>
+      <c r="E214" s="205"/>
+      <c r="F214" s="205"/>
+      <c r="G214" s="205"/>
+      <c r="H214" s="205"/>
+      <c r="I214" s="205"/>
+      <c r="J214" s="205"/>
+      <c r="K214" s="206"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31562,16 +31567,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="207" t="s">
+      <c r="D216" s="197" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="199"/>
-      <c r="F216" s="199"/>
-      <c r="G216" s="199"/>
-      <c r="H216" s="199"/>
-      <c r="I216" s="199"/>
-      <c r="J216" s="199"/>
-      <c r="K216" s="208"/>
+      <c r="E216" s="189"/>
+      <c r="F216" s="189"/>
+      <c r="G216" s="189"/>
+      <c r="H216" s="189"/>
+      <c r="I216" s="189"/>
+      <c r="J216" s="189"/>
+      <c r="K216" s="198"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31583,14 +31588,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="192"/>
-      <c r="E217" s="193"/>
-      <c r="F217" s="193"/>
-      <c r="G217" s="193"/>
-      <c r="H217" s="193"/>
-      <c r="I217" s="193"/>
-      <c r="J217" s="193"/>
-      <c r="K217" s="194"/>
+      <c r="D217" s="199"/>
+      <c r="E217" s="192"/>
+      <c r="F217" s="192"/>
+      <c r="G217" s="192"/>
+      <c r="H217" s="192"/>
+      <c r="I217" s="192"/>
+      <c r="J217" s="192"/>
+      <c r="K217" s="200"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31602,16 +31607,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="207" t="s">
+      <c r="D218" s="197" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="199"/>
-      <c r="F218" s="199"/>
-      <c r="G218" s="199"/>
-      <c r="H218" s="199"/>
-      <c r="I218" s="199"/>
-      <c r="J218" s="199"/>
-      <c r="K218" s="208"/>
+      <c r="E218" s="189"/>
+      <c r="F218" s="189"/>
+      <c r="G218" s="189"/>
+      <c r="H218" s="189"/>
+      <c r="I218" s="189"/>
+      <c r="J218" s="189"/>
+      <c r="K218" s="198"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31623,14 +31628,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="192"/>
-      <c r="E219" s="193"/>
-      <c r="F219" s="193"/>
-      <c r="G219" s="193"/>
-      <c r="H219" s="193"/>
-      <c r="I219" s="193"/>
-      <c r="J219" s="193"/>
-      <c r="K219" s="194"/>
+      <c r="D219" s="199"/>
+      <c r="E219" s="192"/>
+      <c r="F219" s="192"/>
+      <c r="G219" s="192"/>
+      <c r="H219" s="192"/>
+      <c r="I219" s="192"/>
+      <c r="J219" s="192"/>
+      <c r="K219" s="200"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31642,16 +31647,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="207" t="s">
+      <c r="D220" s="197" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="199"/>
-      <c r="F220" s="199"/>
-      <c r="G220" s="199"/>
-      <c r="H220" s="199"/>
-      <c r="I220" s="199"/>
-      <c r="J220" s="199"/>
-      <c r="K220" s="208"/>
+      <c r="E220" s="189"/>
+      <c r="F220" s="189"/>
+      <c r="G220" s="189"/>
+      <c r="H220" s="189"/>
+      <c r="I220" s="189"/>
+      <c r="J220" s="189"/>
+      <c r="K220" s="198"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31663,14 +31668,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="192"/>
-      <c r="E221" s="193"/>
-      <c r="F221" s="193"/>
-      <c r="G221" s="193"/>
-      <c r="H221" s="193"/>
-      <c r="I221" s="193"/>
-      <c r="J221" s="193"/>
-      <c r="K221" s="194"/>
+      <c r="D221" s="199"/>
+      <c r="E221" s="192"/>
+      <c r="F221" s="192"/>
+      <c r="G221" s="192"/>
+      <c r="H221" s="192"/>
+      <c r="I221" s="192"/>
+      <c r="J221" s="192"/>
+      <c r="K221" s="200"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -31682,16 +31687,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="186" t="s">
+      <c r="D222" s="204" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="187"/>
-      <c r="F222" s="187"/>
-      <c r="G222" s="187"/>
-      <c r="H222" s="187"/>
-      <c r="I222" s="187"/>
-      <c r="J222" s="187"/>
-      <c r="K222" s="188"/>
+      <c r="E222" s="205"/>
+      <c r="F222" s="205"/>
+      <c r="G222" s="205"/>
+      <c r="H222" s="205"/>
+      <c r="I222" s="205"/>
+      <c r="J222" s="205"/>
+      <c r="K222" s="206"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -31722,16 +31727,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="186" t="s">
+      <c r="D224" s="204" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="187"/>
-      <c r="F224" s="187"/>
-      <c r="G224" s="187"/>
-      <c r="H224" s="187"/>
-      <c r="I224" s="187"/>
-      <c r="J224" s="187"/>
-      <c r="K224" s="188"/>
+      <c r="E224" s="205"/>
+      <c r="F224" s="205"/>
+      <c r="G224" s="205"/>
+      <c r="H224" s="205"/>
+      <c r="I224" s="205"/>
+      <c r="J224" s="205"/>
+      <c r="K224" s="206"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -31765,16 +31770,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="213" t="s">
+      <c r="D226" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="214"/>
-      <c r="F226" s="214"/>
-      <c r="G226" s="214"/>
-      <c r="H226" s="214"/>
-      <c r="I226" s="214"/>
-      <c r="J226" s="214"/>
-      <c r="K226" s="215"/>
+      <c r="E226" s="208"/>
+      <c r="F226" s="208"/>
+      <c r="G226" s="208"/>
+      <c r="H226" s="208"/>
+      <c r="I226" s="208"/>
+      <c r="J226" s="208"/>
+      <c r="K226" s="209"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -31919,16 +31924,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="211" t="s">
+      <c r="D234" s="201" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="196"/>
-      <c r="F234" s="196"/>
-      <c r="G234" s="196"/>
-      <c r="H234" s="196"/>
-      <c r="I234" s="196"/>
-      <c r="J234" s="196"/>
-      <c r="K234" s="212"/>
+      <c r="E234" s="202"/>
+      <c r="F234" s="202"/>
+      <c r="G234" s="202"/>
+      <c r="H234" s="202"/>
+      <c r="I234" s="202"/>
+      <c r="J234" s="202"/>
+      <c r="K234" s="203"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -31997,16 +32002,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="203" t="s">
+      <c r="D238" s="188" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="199"/>
-      <c r="F238" s="199"/>
-      <c r="G238" s="199"/>
-      <c r="H238" s="199"/>
-      <c r="I238" s="199"/>
-      <c r="J238" s="199"/>
-      <c r="K238" s="200"/>
+      <c r="E238" s="189"/>
+      <c r="F238" s="189"/>
+      <c r="G238" s="189"/>
+      <c r="H238" s="189"/>
+      <c r="I238" s="189"/>
+      <c r="J238" s="189"/>
+      <c r="K238" s="190"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -32018,14 +32023,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="209"/>
-      <c r="E239" s="193"/>
-      <c r="F239" s="193"/>
-      <c r="G239" s="193"/>
-      <c r="H239" s="193"/>
-      <c r="I239" s="193"/>
-      <c r="J239" s="193"/>
-      <c r="K239" s="210"/>
+      <c r="D239" s="191"/>
+      <c r="E239" s="192"/>
+      <c r="F239" s="192"/>
+      <c r="G239" s="192"/>
+      <c r="H239" s="192"/>
+      <c r="I239" s="192"/>
+      <c r="J239" s="192"/>
+      <c r="K239" s="193"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -32037,16 +32042,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="199" t="s">
+      <c r="D240" s="189" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="199"/>
-      <c r="F240" s="199"/>
-      <c r="G240" s="199"/>
-      <c r="H240" s="199"/>
-      <c r="I240" s="199"/>
-      <c r="J240" s="199"/>
-      <c r="K240" s="200"/>
+      <c r="E240" s="189"/>
+      <c r="F240" s="189"/>
+      <c r="G240" s="189"/>
+      <c r="H240" s="189"/>
+      <c r="I240" s="189"/>
+      <c r="J240" s="189"/>
+      <c r="K240" s="190"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -32058,14 +32063,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="201"/>
-      <c r="E241" s="201"/>
-      <c r="F241" s="201"/>
-      <c r="G241" s="201"/>
-      <c r="H241" s="201"/>
-      <c r="I241" s="201"/>
-      <c r="J241" s="201"/>
-      <c r="K241" s="202"/>
+      <c r="D241" s="216"/>
+      <c r="E241" s="216"/>
+      <c r="F241" s="216"/>
+      <c r="G241" s="216"/>
+      <c r="H241" s="216"/>
+      <c r="I241" s="216"/>
+      <c r="J241" s="216"/>
+      <c r="K241" s="217"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -32256,16 +32261,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="195" t="s">
+      <c r="D250" s="213" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="196"/>
-      <c r="F250" s="196"/>
-      <c r="G250" s="196"/>
-      <c r="H250" s="196"/>
-      <c r="I250" s="196"/>
-      <c r="J250" s="196"/>
-      <c r="K250" s="197"/>
+      <c r="E250" s="202"/>
+      <c r="F250" s="202"/>
+      <c r="G250" s="202"/>
+      <c r="H250" s="202"/>
+      <c r="I250" s="202"/>
+      <c r="J250" s="202"/>
+      <c r="K250" s="214"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -32834,16 +32839,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="186" t="s">
+      <c r="D280" s="204" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="187"/>
-      <c r="F280" s="187"/>
-      <c r="G280" s="187"/>
-      <c r="H280" s="187"/>
-      <c r="I280" s="187"/>
-      <c r="J280" s="187"/>
-      <c r="K280" s="188"/>
+      <c r="E280" s="205"/>
+      <c r="F280" s="205"/>
+      <c r="G280" s="205"/>
+      <c r="H280" s="205"/>
+      <c r="I280" s="205"/>
+      <c r="J280" s="205"/>
+      <c r="K280" s="206"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -32950,16 +32955,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="186" t="s">
+      <c r="D286" s="204" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="187"/>
-      <c r="F286" s="187"/>
-      <c r="G286" s="187"/>
-      <c r="H286" s="187"/>
-      <c r="I286" s="187"/>
-      <c r="J286" s="187"/>
-      <c r="K286" s="188"/>
+      <c r="E286" s="205"/>
+      <c r="F286" s="205"/>
+      <c r="G286" s="205"/>
+      <c r="H286" s="205"/>
+      <c r="I286" s="205"/>
+      <c r="J286" s="205"/>
+      <c r="K286" s="206"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -33147,16 +33152,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="186" t="s">
+      <c r="D296" s="204" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="187"/>
-      <c r="F296" s="187"/>
-      <c r="G296" s="187"/>
-      <c r="H296" s="187"/>
-      <c r="I296" s="187"/>
-      <c r="J296" s="187"/>
-      <c r="K296" s="188"/>
+      <c r="E296" s="205"/>
+      <c r="F296" s="205"/>
+      <c r="G296" s="205"/>
+      <c r="H296" s="205"/>
+      <c r="I296" s="205"/>
+      <c r="J296" s="205"/>
+      <c r="K296" s="206"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -33187,16 +33192,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="203" t="s">
+      <c r="D298" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="199"/>
-      <c r="F298" s="199"/>
-      <c r="G298" s="199"/>
-      <c r="H298" s="199"/>
-      <c r="I298" s="199"/>
-      <c r="J298" s="199"/>
-      <c r="K298" s="200"/>
+      <c r="E298" s="189"/>
+      <c r="F298" s="189"/>
+      <c r="G298" s="189"/>
+      <c r="H298" s="189"/>
+      <c r="I298" s="189"/>
+      <c r="J298" s="189"/>
+      <c r="K298" s="190"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -33208,14 +33213,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="209"/>
-      <c r="E299" s="193"/>
-      <c r="F299" s="193"/>
-      <c r="G299" s="193"/>
-      <c r="H299" s="193"/>
-      <c r="I299" s="193"/>
-      <c r="J299" s="193"/>
-      <c r="K299" s="210"/>
+      <c r="D299" s="191"/>
+      <c r="E299" s="192"/>
+      <c r="F299" s="192"/>
+      <c r="G299" s="192"/>
+      <c r="H299" s="192"/>
+      <c r="I299" s="192"/>
+      <c r="J299" s="192"/>
+      <c r="K299" s="193"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -33227,16 +33232,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="203" t="s">
+      <c r="D300" s="188" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="199"/>
-      <c r="F300" s="199"/>
-      <c r="G300" s="199"/>
-      <c r="H300" s="199"/>
-      <c r="I300" s="199"/>
-      <c r="J300" s="199"/>
-      <c r="K300" s="200"/>
+      <c r="E300" s="189"/>
+      <c r="F300" s="189"/>
+      <c r="G300" s="189"/>
+      <c r="H300" s="189"/>
+      <c r="I300" s="189"/>
+      <c r="J300" s="189"/>
+      <c r="K300" s="190"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -33248,14 +33253,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="209"/>
-      <c r="E301" s="193"/>
-      <c r="F301" s="193"/>
-      <c r="G301" s="193"/>
-      <c r="H301" s="193"/>
-      <c r="I301" s="193"/>
-      <c r="J301" s="193"/>
-      <c r="K301" s="210"/>
+      <c r="D301" s="191"/>
+      <c r="E301" s="192"/>
+      <c r="F301" s="192"/>
+      <c r="G301" s="192"/>
+      <c r="H301" s="192"/>
+      <c r="I301" s="192"/>
+      <c r="J301" s="192"/>
+      <c r="K301" s="193"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -33267,16 +33272,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="203" t="s">
+      <c r="D302" s="188" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="199"/>
-      <c r="F302" s="199"/>
-      <c r="G302" s="199"/>
-      <c r="H302" s="199"/>
-      <c r="I302" s="199"/>
-      <c r="J302" s="199"/>
-      <c r="K302" s="200"/>
+      <c r="E302" s="189"/>
+      <c r="F302" s="189"/>
+      <c r="G302" s="189"/>
+      <c r="H302" s="189"/>
+      <c r="I302" s="189"/>
+      <c r="J302" s="189"/>
+      <c r="K302" s="190"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -33288,14 +33293,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="209"/>
-      <c r="E303" s="193"/>
-      <c r="F303" s="193"/>
-      <c r="G303" s="193"/>
-      <c r="H303" s="193"/>
-      <c r="I303" s="193"/>
-      <c r="J303" s="193"/>
-      <c r="K303" s="210"/>
+      <c r="D303" s="191"/>
+      <c r="E303" s="192"/>
+      <c r="F303" s="192"/>
+      <c r="G303" s="192"/>
+      <c r="H303" s="192"/>
+      <c r="I303" s="192"/>
+      <c r="J303" s="192"/>
+      <c r="K303" s="193"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -33307,16 +33312,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="203" t="s">
+      <c r="D304" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="199"/>
-      <c r="F304" s="199"/>
-      <c r="G304" s="199"/>
-      <c r="H304" s="199"/>
-      <c r="I304" s="199"/>
-      <c r="J304" s="199"/>
-      <c r="K304" s="200"/>
+      <c r="E304" s="189"/>
+      <c r="F304" s="189"/>
+      <c r="G304" s="189"/>
+      <c r="H304" s="189"/>
+      <c r="I304" s="189"/>
+      <c r="J304" s="189"/>
+      <c r="K304" s="190"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -33328,14 +33333,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="209"/>
-      <c r="E305" s="193"/>
-      <c r="F305" s="193"/>
-      <c r="G305" s="193"/>
-      <c r="H305" s="193"/>
-      <c r="I305" s="193"/>
-      <c r="J305" s="193"/>
-      <c r="K305" s="210"/>
+      <c r="D305" s="191"/>
+      <c r="E305" s="192"/>
+      <c r="F305" s="192"/>
+      <c r="G305" s="192"/>
+      <c r="H305" s="192"/>
+      <c r="I305" s="192"/>
+      <c r="J305" s="192"/>
+      <c r="K305" s="193"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -33350,16 +33355,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="203" t="s">
+      <c r="D306" s="188" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="199"/>
-      <c r="F306" s="199"/>
-      <c r="G306" s="199"/>
-      <c r="H306" s="199"/>
-      <c r="I306" s="199"/>
-      <c r="J306" s="199"/>
-      <c r="K306" s="200"/>
+      <c r="E306" s="189"/>
+      <c r="F306" s="189"/>
+      <c r="G306" s="189"/>
+      <c r="H306" s="189"/>
+      <c r="I306" s="189"/>
+      <c r="J306" s="189"/>
+      <c r="K306" s="190"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -33371,14 +33376,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="209"/>
-      <c r="E307" s="193"/>
-      <c r="F307" s="193"/>
-      <c r="G307" s="193"/>
-      <c r="H307" s="193"/>
-      <c r="I307" s="193"/>
-      <c r="J307" s="193"/>
-      <c r="K307" s="210"/>
+      <c r="D307" s="191"/>
+      <c r="E307" s="192"/>
+      <c r="F307" s="192"/>
+      <c r="G307" s="192"/>
+      <c r="H307" s="192"/>
+      <c r="I307" s="192"/>
+      <c r="J307" s="192"/>
+      <c r="K307" s="193"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33390,16 +33395,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="203" t="s">
+      <c r="D308" s="188" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="199"/>
-      <c r="F308" s="199"/>
-      <c r="G308" s="199"/>
-      <c r="H308" s="199"/>
-      <c r="I308" s="199"/>
-      <c r="J308" s="199"/>
-      <c r="K308" s="200"/>
+      <c r="E308" s="189"/>
+      <c r="F308" s="189"/>
+      <c r="G308" s="189"/>
+      <c r="H308" s="189"/>
+      <c r="I308" s="189"/>
+      <c r="J308" s="189"/>
+      <c r="K308" s="190"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33411,14 +33416,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="209"/>
-      <c r="E309" s="193"/>
-      <c r="F309" s="193"/>
-      <c r="G309" s="193"/>
-      <c r="H309" s="193"/>
-      <c r="I309" s="193"/>
-      <c r="J309" s="193"/>
-      <c r="K309" s="210"/>
+      <c r="D309" s="191"/>
+      <c r="E309" s="192"/>
+      <c r="F309" s="192"/>
+      <c r="G309" s="192"/>
+      <c r="H309" s="192"/>
+      <c r="I309" s="192"/>
+      <c r="J309" s="192"/>
+      <c r="K309" s="193"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37298,12 +37303,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -37320,29 +37342,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -37732,7 +37737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA480A7D-7842-4326-A491-9C5672303D17}">
   <dimension ref="B2:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -37748,25 +37753,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="222" t="s">
+      <c r="C2" s="184" t="s">
         <v>527</v>
       </c>
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="184" t="s">
         <v>528</v>
       </c>
-      <c r="E2" s="222" t="s">
+      <c r="E2" s="184" t="s">
         <v>529</v>
       </c>
-      <c r="F2" s="222" t="s">
+      <c r="F2" s="184" t="s">
         <v>571</v>
       </c>
-      <c r="G2" s="223" t="s">
+      <c r="G2" s="185" t="s">
         <v>703</v>
       </c>
-      <c r="H2" s="223" t="s">
+      <c r="H2" s="185" t="s">
         <v>702</v>
       </c>
     </row>
@@ -39632,10 +39637,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="223" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="221"/>
+      <c r="C2" s="223"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:10">

--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E84D46-FE15-4F9E-AB77-9E7E47873E45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE9AE5-D93E-42CF-9D6A-394AC7AF2E54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="732">
   <si>
     <t>ID</t>
   </si>
@@ -2204,6 +2204,42 @@
   </si>
   <si>
     <t>Talking to Teacher</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 1</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 2</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 3</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 4</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 5</t>
+  </si>
+  <si>
+    <t>Hieroglyph slot 6</t>
+  </si>
+  <si>
+    <t>Mystic Statue 1 needed</t>
+  </si>
+  <si>
+    <t>Mystic Statue 6 needed</t>
+  </si>
+  <si>
+    <t>Mystic Statue 5 needed</t>
+  </si>
+  <si>
+    <t>Mystic Statue 3 needed</t>
+  </si>
+  <si>
+    <t>Mystic Statue 2 needed</t>
+  </si>
+  <si>
+    <t>Kara's location (01 = Ed's, 02 = Mine, 03 = Angel, 04 = Kress, 05 = Ankor Wat)</t>
   </si>
 </sst>
 </file>
@@ -2458,7 +2494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -3126,6 +3162,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3133,7 +3206,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3682,13 +3755,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3697,13 +3806,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3721,28 +3830,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3763,38 +3860,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4237,8 +4319,8 @@
   <dimension ref="A1:P1237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90:K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4312,16 +4394,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="202"/>
       <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
@@ -4339,14 +4421,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="208"/>
       <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
@@ -7357,14 +7439,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="D90" s="224" t="s">
+        <v>720</v>
+      </c>
+      <c r="E90" s="225"/>
+      <c r="F90" s="225"/>
+      <c r="G90" s="225"/>
+      <c r="H90" s="225"/>
+      <c r="I90" s="225"/>
+      <c r="J90" s="225"/>
+      <c r="K90" s="226"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="12">
@@ -7376,14 +7460,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="D91" s="224" t="s">
+        <v>721</v>
+      </c>
+      <c r="E91" s="225"/>
+      <c r="F91" s="225"/>
+      <c r="G91" s="225"/>
+      <c r="H91" s="225"/>
+      <c r="I91" s="225"/>
+      <c r="J91" s="225"/>
+      <c r="K91" s="226"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="12">
@@ -7395,14 +7481,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="D92" s="224" t="s">
+        <v>722</v>
+      </c>
+      <c r="E92" s="225"/>
+      <c r="F92" s="225"/>
+      <c r="G92" s="225"/>
+      <c r="H92" s="225"/>
+      <c r="I92" s="225"/>
+      <c r="J92" s="225"/>
+      <c r="K92" s="226"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="12">
@@ -7414,14 +7502,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="D93" s="224" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="225"/>
+      <c r="F93" s="225"/>
+      <c r="G93" s="225"/>
+      <c r="H93" s="225"/>
+      <c r="I93" s="225"/>
+      <c r="J93" s="225"/>
+      <c r="K93" s="226"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="12">
@@ -7433,14 +7523,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="D94" s="224" t="s">
+        <v>724</v>
+      </c>
+      <c r="E94" s="225"/>
+      <c r="F94" s="225"/>
+      <c r="G94" s="225"/>
+      <c r="H94" s="225"/>
+      <c r="I94" s="225"/>
+      <c r="J94" s="225"/>
+      <c r="K94" s="226"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="12">
@@ -7452,14 +7544,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="D95" s="224" t="s">
+        <v>725</v>
+      </c>
+      <c r="E95" s="225"/>
+      <c r="F95" s="225"/>
+      <c r="G95" s="225"/>
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
+      <c r="J95" s="225"/>
+      <c r="K95" s="226"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="12">
@@ -7471,14 +7565,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="D96" s="224" t="s">
+        <v>731</v>
+      </c>
+      <c r="E96" s="225"/>
+      <c r="F96" s="225"/>
+      <c r="G96" s="225"/>
+      <c r="H96" s="225"/>
+      <c r="I96" s="225"/>
+      <c r="J96" s="225"/>
+      <c r="K96" s="226"/>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1">
       <c r="A97" s="31">
@@ -7492,12 +7588,24 @@
       <c r="C97" s="32"/>
       <c r="D97" s="49"/>
       <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="50"/>
+      <c r="F97" s="169" t="s">
+        <v>727</v>
+      </c>
+      <c r="G97" s="169" t="s">
+        <v>728</v>
+      </c>
+      <c r="H97" s="169" t="s">
+        <v>729</v>
+      </c>
+      <c r="I97" s="169" t="s">
+        <v>729</v>
+      </c>
+      <c r="J97" s="169" t="s">
+        <v>730</v>
+      </c>
+      <c r="K97" s="169" t="s">
+        <v>726</v>
+      </c>
       <c r="M97" s="56"/>
       <c r="N97" s="57"/>
       <c r="O97" s="57"/>
@@ -10405,16 +10513,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="221" t="s">
+      <c r="D168" s="186" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="221"/>
-      <c r="F168" s="221"/>
-      <c r="G168" s="221"/>
-      <c r="H168" s="221"/>
-      <c r="I168" s="221"/>
-      <c r="J168" s="221"/>
-      <c r="K168" s="221"/>
+      <c r="E168" s="186"/>
+      <c r="F168" s="186"/>
+      <c r="G168" s="186"/>
+      <c r="H168" s="186"/>
+      <c r="I168" s="186"/>
+      <c r="J168" s="186"/>
+      <c r="K168" s="186"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10540,16 +10648,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="221" t="s">
+      <c r="D175" s="186" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="221"/>
-      <c r="F175" s="221"/>
-      <c r="G175" s="221"/>
-      <c r="H175" s="221"/>
-      <c r="I175" s="221"/>
-      <c r="J175" s="221"/>
-      <c r="K175" s="221"/>
+      <c r="E175" s="186"/>
+      <c r="F175" s="186"/>
+      <c r="G175" s="186"/>
+      <c r="H175" s="186"/>
+      <c r="I175" s="186"/>
+      <c r="J175" s="186"/>
+      <c r="K175" s="186"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10602,16 +10710,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="222" t="s">
+      <c r="D178" s="187" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="221"/>
-      <c r="F178" s="221"/>
-      <c r="G178" s="221"/>
-      <c r="H178" s="221"/>
-      <c r="I178" s="221"/>
-      <c r="J178" s="221"/>
-      <c r="K178" s="221"/>
+      <c r="E178" s="186"/>
+      <c r="F178" s="186"/>
+      <c r="G178" s="186"/>
+      <c r="H178" s="186"/>
+      <c r="I178" s="186"/>
+      <c r="J178" s="186"/>
+      <c r="K178" s="186"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -10683,16 +10791,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="204" t="s">
+      <c r="D182" s="188" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="205"/>
-      <c r="F182" s="205"/>
-      <c r="G182" s="205"/>
-      <c r="H182" s="205"/>
-      <c r="I182" s="205"/>
-      <c r="J182" s="205"/>
-      <c r="K182" s="206"/>
+      <c r="E182" s="189"/>
+      <c r="F182" s="189"/>
+      <c r="G182" s="189"/>
+      <c r="H182" s="189"/>
+      <c r="I182" s="189"/>
+      <c r="J182" s="189"/>
+      <c r="K182" s="190"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -10704,16 +10812,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="204" t="s">
+      <c r="D183" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="205"/>
-      <c r="F183" s="205"/>
-      <c r="G183" s="205"/>
-      <c r="H183" s="205"/>
-      <c r="I183" s="205"/>
-      <c r="J183" s="205"/>
-      <c r="K183" s="206"/>
+      <c r="E183" s="189"/>
+      <c r="F183" s="189"/>
+      <c r="G183" s="189"/>
+      <c r="H183" s="189"/>
+      <c r="I183" s="189"/>
+      <c r="J183" s="189"/>
+      <c r="K183" s="190"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -10725,16 +10833,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="204" t="s">
+      <c r="D184" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="205"/>
-      <c r="F184" s="205"/>
-      <c r="G184" s="205"/>
-      <c r="H184" s="205"/>
-      <c r="I184" s="205"/>
-      <c r="J184" s="205"/>
-      <c r="K184" s="206"/>
+      <c r="E184" s="189"/>
+      <c r="F184" s="189"/>
+      <c r="G184" s="189"/>
+      <c r="H184" s="189"/>
+      <c r="I184" s="189"/>
+      <c r="J184" s="189"/>
+      <c r="K184" s="190"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -10746,16 +10854,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="204" t="s">
+      <c r="D185" s="188" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="205"/>
-      <c r="F185" s="205"/>
-      <c r="G185" s="205"/>
-      <c r="H185" s="205"/>
-      <c r="I185" s="205"/>
-      <c r="J185" s="205"/>
-      <c r="K185" s="206"/>
+      <c r="E185" s="189"/>
+      <c r="F185" s="189"/>
+      <c r="G185" s="189"/>
+      <c r="H185" s="189"/>
+      <c r="I185" s="189"/>
+      <c r="J185" s="189"/>
+      <c r="K185" s="190"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -10767,16 +10875,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="204" t="s">
+      <c r="D186" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="205"/>
-      <c r="F186" s="205"/>
-      <c r="G186" s="205"/>
-      <c r="H186" s="205"/>
-      <c r="I186" s="205"/>
-      <c r="J186" s="205"/>
-      <c r="K186" s="206"/>
+      <c r="E186" s="189"/>
+      <c r="F186" s="189"/>
+      <c r="G186" s="189"/>
+      <c r="H186" s="189"/>
+      <c r="I186" s="189"/>
+      <c r="J186" s="189"/>
+      <c r="K186" s="190"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -10788,16 +10896,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="204" t="s">
+      <c r="D187" s="188" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="205"/>
-      <c r="F187" s="205"/>
-      <c r="G187" s="205"/>
-      <c r="H187" s="205"/>
-      <c r="I187" s="205"/>
-      <c r="J187" s="205"/>
-      <c r="K187" s="206"/>
+      <c r="E187" s="189"/>
+      <c r="F187" s="189"/>
+      <c r="G187" s="189"/>
+      <c r="H187" s="189"/>
+      <c r="I187" s="189"/>
+      <c r="J187" s="189"/>
+      <c r="K187" s="190"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -10809,16 +10917,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="204" t="s">
+      <c r="D188" s="188" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="205"/>
-      <c r="F188" s="205"/>
-      <c r="G188" s="205"/>
-      <c r="H188" s="205"/>
-      <c r="I188" s="205"/>
-      <c r="J188" s="205"/>
-      <c r="K188" s="206"/>
+      <c r="E188" s="189"/>
+      <c r="F188" s="189"/>
+      <c r="G188" s="189"/>
+      <c r="H188" s="189"/>
+      <c r="I188" s="189"/>
+      <c r="J188" s="189"/>
+      <c r="K188" s="190"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -10830,16 +10938,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="204" t="s">
+      <c r="D189" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="205"/>
-      <c r="F189" s="205"/>
-      <c r="G189" s="205"/>
-      <c r="H189" s="205"/>
-      <c r="I189" s="205"/>
-      <c r="J189" s="205"/>
-      <c r="K189" s="206"/>
+      <c r="E189" s="189"/>
+      <c r="F189" s="189"/>
+      <c r="G189" s="189"/>
+      <c r="H189" s="189"/>
+      <c r="I189" s="189"/>
+      <c r="J189" s="189"/>
+      <c r="K189" s="190"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -10851,16 +10959,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="204" t="s">
+      <c r="D190" s="188" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="205"/>
-      <c r="F190" s="205"/>
-      <c r="G190" s="205"/>
-      <c r="H190" s="205"/>
-      <c r="I190" s="205"/>
-      <c r="J190" s="205"/>
-      <c r="K190" s="206"/>
+      <c r="E190" s="189"/>
+      <c r="F190" s="189"/>
+      <c r="G190" s="189"/>
+      <c r="H190" s="189"/>
+      <c r="I190" s="189"/>
+      <c r="J190" s="189"/>
+      <c r="K190" s="190"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -10872,16 +10980,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="204" t="s">
+      <c r="D191" s="188" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="205"/>
-      <c r="F191" s="205"/>
-      <c r="G191" s="205"/>
-      <c r="H191" s="205"/>
-      <c r="I191" s="205"/>
-      <c r="J191" s="205"/>
-      <c r="K191" s="206"/>
+      <c r="E191" s="189"/>
+      <c r="F191" s="189"/>
+      <c r="G191" s="189"/>
+      <c r="H191" s="189"/>
+      <c r="I191" s="189"/>
+      <c r="J191" s="189"/>
+      <c r="K191" s="190"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -10893,16 +11001,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="204" t="s">
+      <c r="D192" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="205"/>
-      <c r="F192" s="205"/>
-      <c r="G192" s="205"/>
-      <c r="H192" s="205"/>
-      <c r="I192" s="205"/>
-      <c r="J192" s="205"/>
-      <c r="K192" s="206"/>
+      <c r="E192" s="189"/>
+      <c r="F192" s="189"/>
+      <c r="G192" s="189"/>
+      <c r="H192" s="189"/>
+      <c r="I192" s="189"/>
+      <c r="J192" s="189"/>
+      <c r="K192" s="190"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -10914,16 +11022,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="218" t="s">
+      <c r="D193" s="191" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="219"/>
-      <c r="F193" s="219"/>
-      <c r="G193" s="219"/>
-      <c r="H193" s="219"/>
-      <c r="I193" s="219"/>
-      <c r="J193" s="219"/>
-      <c r="K193" s="220"/>
+      <c r="E193" s="192"/>
+      <c r="F193" s="192"/>
+      <c r="G193" s="192"/>
+      <c r="H193" s="192"/>
+      <c r="I193" s="192"/>
+      <c r="J193" s="192"/>
+      <c r="K193" s="193"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -10938,16 +11046,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="199" t="s">
+      <c r="D194" s="194" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="192"/>
-      <c r="F194" s="192"/>
-      <c r="G194" s="192"/>
-      <c r="H194" s="192"/>
-      <c r="I194" s="192"/>
-      <c r="J194" s="192"/>
-      <c r="K194" s="200"/>
+      <c r="E194" s="195"/>
+      <c r="F194" s="195"/>
+      <c r="G194" s="195"/>
+      <c r="H194" s="195"/>
+      <c r="I194" s="195"/>
+      <c r="J194" s="195"/>
+      <c r="K194" s="196"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -10959,16 +11067,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="204" t="s">
+      <c r="D195" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="205"/>
-      <c r="F195" s="205"/>
-      <c r="G195" s="205"/>
-      <c r="H195" s="205"/>
-      <c r="I195" s="205"/>
-      <c r="J195" s="205"/>
-      <c r="K195" s="206"/>
+      <c r="E195" s="189"/>
+      <c r="F195" s="189"/>
+      <c r="G195" s="189"/>
+      <c r="H195" s="189"/>
+      <c r="I195" s="189"/>
+      <c r="J195" s="189"/>
+      <c r="K195" s="190"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -10980,16 +11088,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="204" t="s">
+      <c r="D196" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="205"/>
-      <c r="F196" s="205"/>
-      <c r="G196" s="205"/>
-      <c r="H196" s="205"/>
-      <c r="I196" s="205"/>
-      <c r="J196" s="205"/>
-      <c r="K196" s="206"/>
+      <c r="E196" s="189"/>
+      <c r="F196" s="189"/>
+      <c r="G196" s="189"/>
+      <c r="H196" s="189"/>
+      <c r="I196" s="189"/>
+      <c r="J196" s="189"/>
+      <c r="K196" s="190"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -11001,16 +11109,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="204" t="s">
+      <c r="D197" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="205"/>
-      <c r="F197" s="205"/>
-      <c r="G197" s="205"/>
-      <c r="H197" s="205"/>
-      <c r="I197" s="205"/>
-      <c r="J197" s="205"/>
-      <c r="K197" s="206"/>
+      <c r="E197" s="189"/>
+      <c r="F197" s="189"/>
+      <c r="G197" s="189"/>
+      <c r="H197" s="189"/>
+      <c r="I197" s="189"/>
+      <c r="J197" s="189"/>
+      <c r="K197" s="190"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -11022,16 +11130,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="204" t="s">
+      <c r="D198" s="188" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="205"/>
-      <c r="F198" s="205"/>
-      <c r="G198" s="205"/>
-      <c r="H198" s="205"/>
-      <c r="I198" s="205"/>
-      <c r="J198" s="205"/>
-      <c r="K198" s="206"/>
+      <c r="E198" s="189"/>
+      <c r="F198" s="189"/>
+      <c r="G198" s="189"/>
+      <c r="H198" s="189"/>
+      <c r="I198" s="189"/>
+      <c r="J198" s="189"/>
+      <c r="K198" s="190"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -11062,16 +11170,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="204" t="s">
+      <c r="D200" s="188" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="205"/>
-      <c r="F200" s="205"/>
-      <c r="G200" s="205"/>
-      <c r="H200" s="205"/>
-      <c r="I200" s="205"/>
-      <c r="J200" s="205"/>
-      <c r="K200" s="206"/>
+      <c r="E200" s="189"/>
+      <c r="F200" s="189"/>
+      <c r="G200" s="189"/>
+      <c r="H200" s="189"/>
+      <c r="I200" s="189"/>
+      <c r="J200" s="189"/>
+      <c r="K200" s="190"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -11102,16 +11210,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="210" t="s">
+      <c r="D202" s="218" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="211"/>
-      <c r="F202" s="211"/>
-      <c r="G202" s="211"/>
-      <c r="H202" s="211"/>
-      <c r="I202" s="211"/>
-      <c r="J202" s="211"/>
-      <c r="K202" s="212"/>
+      <c r="E202" s="219"/>
+      <c r="F202" s="219"/>
+      <c r="G202" s="219"/>
+      <c r="H202" s="219"/>
+      <c r="I202" s="219"/>
+      <c r="J202" s="219"/>
+      <c r="K202" s="220"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -11142,16 +11250,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="204" t="s">
+      <c r="D204" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="205"/>
-      <c r="F204" s="205"/>
-      <c r="G204" s="205"/>
-      <c r="H204" s="205"/>
-      <c r="I204" s="205"/>
-      <c r="J204" s="205"/>
-      <c r="K204" s="206"/>
+      <c r="E204" s="189"/>
+      <c r="F204" s="189"/>
+      <c r="G204" s="189"/>
+      <c r="H204" s="189"/>
+      <c r="I204" s="189"/>
+      <c r="J204" s="189"/>
+      <c r="K204" s="190"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -11182,16 +11290,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="204" t="s">
+      <c r="D206" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="205"/>
-      <c r="F206" s="205"/>
-      <c r="G206" s="205"/>
-      <c r="H206" s="205"/>
-      <c r="I206" s="205"/>
-      <c r="J206" s="205"/>
-      <c r="K206" s="206"/>
+      <c r="E206" s="189"/>
+      <c r="F206" s="189"/>
+      <c r="G206" s="189"/>
+      <c r="H206" s="189"/>
+      <c r="I206" s="189"/>
+      <c r="J206" s="189"/>
+      <c r="K206" s="190"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -11222,16 +11330,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="204" t="s">
+      <c r="D208" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="205"/>
-      <c r="F208" s="205"/>
-      <c r="G208" s="205"/>
-      <c r="H208" s="205"/>
-      <c r="I208" s="205"/>
-      <c r="J208" s="205"/>
-      <c r="K208" s="206"/>
+      <c r="E208" s="189"/>
+      <c r="F208" s="189"/>
+      <c r="G208" s="189"/>
+      <c r="H208" s="189"/>
+      <c r="I208" s="189"/>
+      <c r="J208" s="189"/>
+      <c r="K208" s="190"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -11265,16 +11373,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="199" t="s">
+      <c r="D210" s="194" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="192"/>
-      <c r="F210" s="192"/>
-      <c r="G210" s="192"/>
-      <c r="H210" s="192"/>
-      <c r="I210" s="192"/>
-      <c r="J210" s="192"/>
-      <c r="K210" s="200"/>
+      <c r="E210" s="195"/>
+      <c r="F210" s="195"/>
+      <c r="G210" s="195"/>
+      <c r="H210" s="195"/>
+      <c r="I210" s="195"/>
+      <c r="J210" s="195"/>
+      <c r="K210" s="196"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -11343,16 +11451,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="204" t="s">
+      <c r="D214" s="188" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="205"/>
-      <c r="F214" s="205"/>
-      <c r="G214" s="205"/>
-      <c r="H214" s="205"/>
-      <c r="I214" s="205"/>
-      <c r="J214" s="205"/>
-      <c r="K214" s="206"/>
+      <c r="E214" s="189"/>
+      <c r="F214" s="189"/>
+      <c r="G214" s="189"/>
+      <c r="H214" s="189"/>
+      <c r="I214" s="189"/>
+      <c r="J214" s="189"/>
+      <c r="K214" s="190"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -11383,16 +11491,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="197" t="s">
+      <c r="D216" s="209" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="189"/>
-      <c r="F216" s="189"/>
-      <c r="G216" s="189"/>
-      <c r="H216" s="189"/>
-      <c r="I216" s="189"/>
-      <c r="J216" s="189"/>
-      <c r="K216" s="198"/>
+      <c r="E216" s="201"/>
+      <c r="F216" s="201"/>
+      <c r="G216" s="201"/>
+      <c r="H216" s="201"/>
+      <c r="I216" s="201"/>
+      <c r="J216" s="201"/>
+      <c r="K216" s="210"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11404,14 +11512,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="199"/>
-      <c r="E217" s="192"/>
-      <c r="F217" s="192"/>
-      <c r="G217" s="192"/>
-      <c r="H217" s="192"/>
-      <c r="I217" s="192"/>
-      <c r="J217" s="192"/>
-      <c r="K217" s="200"/>
+      <c r="D217" s="194"/>
+      <c r="E217" s="195"/>
+      <c r="F217" s="195"/>
+      <c r="G217" s="195"/>
+      <c r="H217" s="195"/>
+      <c r="I217" s="195"/>
+      <c r="J217" s="195"/>
+      <c r="K217" s="196"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11423,16 +11531,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="197" t="s">
+      <c r="D218" s="209" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="189"/>
-      <c r="F218" s="189"/>
-      <c r="G218" s="189"/>
-      <c r="H218" s="189"/>
-      <c r="I218" s="189"/>
-      <c r="J218" s="189"/>
-      <c r="K218" s="198"/>
+      <c r="E218" s="201"/>
+      <c r="F218" s="201"/>
+      <c r="G218" s="201"/>
+      <c r="H218" s="201"/>
+      <c r="I218" s="201"/>
+      <c r="J218" s="201"/>
+      <c r="K218" s="210"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11444,14 +11552,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="199"/>
-      <c r="E219" s="192"/>
-      <c r="F219" s="192"/>
-      <c r="G219" s="192"/>
-      <c r="H219" s="192"/>
-      <c r="I219" s="192"/>
-      <c r="J219" s="192"/>
-      <c r="K219" s="200"/>
+      <c r="D219" s="194"/>
+      <c r="E219" s="195"/>
+      <c r="F219" s="195"/>
+      <c r="G219" s="195"/>
+      <c r="H219" s="195"/>
+      <c r="I219" s="195"/>
+      <c r="J219" s="195"/>
+      <c r="K219" s="196"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11463,16 +11571,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="197" t="s">
+      <c r="D220" s="209" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="189"/>
-      <c r="F220" s="189"/>
-      <c r="G220" s="189"/>
-      <c r="H220" s="189"/>
-      <c r="I220" s="189"/>
-      <c r="J220" s="189"/>
-      <c r="K220" s="198"/>
+      <c r="E220" s="201"/>
+      <c r="F220" s="201"/>
+      <c r="G220" s="201"/>
+      <c r="H220" s="201"/>
+      <c r="I220" s="201"/>
+      <c r="J220" s="201"/>
+      <c r="K220" s="210"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11484,14 +11592,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="199"/>
-      <c r="E221" s="192"/>
-      <c r="F221" s="192"/>
-      <c r="G221" s="192"/>
-      <c r="H221" s="192"/>
-      <c r="I221" s="192"/>
-      <c r="J221" s="192"/>
-      <c r="K221" s="200"/>
+      <c r="D221" s="194"/>
+      <c r="E221" s="195"/>
+      <c r="F221" s="195"/>
+      <c r="G221" s="195"/>
+      <c r="H221" s="195"/>
+      <c r="I221" s="195"/>
+      <c r="J221" s="195"/>
+      <c r="K221" s="196"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11503,16 +11611,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="204" t="s">
+      <c r="D222" s="188" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="205"/>
-      <c r="F222" s="205"/>
-      <c r="G222" s="205"/>
-      <c r="H222" s="205"/>
-      <c r="I222" s="205"/>
-      <c r="J222" s="205"/>
-      <c r="K222" s="206"/>
+      <c r="E222" s="189"/>
+      <c r="F222" s="189"/>
+      <c r="G222" s="189"/>
+      <c r="H222" s="189"/>
+      <c r="I222" s="189"/>
+      <c r="J222" s="189"/>
+      <c r="K222" s="190"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11543,16 +11651,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="204" t="s">
+      <c r="D224" s="188" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="205"/>
-      <c r="F224" s="205"/>
-      <c r="G224" s="205"/>
-      <c r="H224" s="205"/>
-      <c r="I224" s="205"/>
-      <c r="J224" s="205"/>
-      <c r="K224" s="206"/>
+      <c r="E224" s="189"/>
+      <c r="F224" s="189"/>
+      <c r="G224" s="189"/>
+      <c r="H224" s="189"/>
+      <c r="I224" s="189"/>
+      <c r="J224" s="189"/>
+      <c r="K224" s="190"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11586,16 +11694,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="207" t="s">
+      <c r="D226" s="215" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="208"/>
-      <c r="F226" s="208"/>
-      <c r="G226" s="208"/>
-      <c r="H226" s="208"/>
-      <c r="I226" s="208"/>
-      <c r="J226" s="208"/>
-      <c r="K226" s="209"/>
+      <c r="E226" s="216"/>
+      <c r="F226" s="216"/>
+      <c r="G226" s="216"/>
+      <c r="H226" s="216"/>
+      <c r="I226" s="216"/>
+      <c r="J226" s="216"/>
+      <c r="K226" s="217"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -11740,16 +11848,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="201" t="s">
+      <c r="D234" s="213" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="202"/>
-      <c r="F234" s="202"/>
-      <c r="G234" s="202"/>
-      <c r="H234" s="202"/>
-      <c r="I234" s="202"/>
-      <c r="J234" s="202"/>
-      <c r="K234" s="203"/>
+      <c r="E234" s="198"/>
+      <c r="F234" s="198"/>
+      <c r="G234" s="198"/>
+      <c r="H234" s="198"/>
+      <c r="I234" s="198"/>
+      <c r="J234" s="198"/>
+      <c r="K234" s="214"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -11818,16 +11926,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="188" t="s">
+      <c r="D238" s="205" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="189"/>
-      <c r="F238" s="189"/>
-      <c r="G238" s="189"/>
-      <c r="H238" s="189"/>
-      <c r="I238" s="189"/>
-      <c r="J238" s="189"/>
-      <c r="K238" s="190"/>
+      <c r="E238" s="201"/>
+      <c r="F238" s="201"/>
+      <c r="G238" s="201"/>
+      <c r="H238" s="201"/>
+      <c r="I238" s="201"/>
+      <c r="J238" s="201"/>
+      <c r="K238" s="202"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -11839,14 +11947,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="191"/>
-      <c r="E239" s="192"/>
-      <c r="F239" s="192"/>
-      <c r="G239" s="192"/>
-      <c r="H239" s="192"/>
-      <c r="I239" s="192"/>
-      <c r="J239" s="192"/>
-      <c r="K239" s="193"/>
+      <c r="D239" s="211"/>
+      <c r="E239" s="195"/>
+      <c r="F239" s="195"/>
+      <c r="G239" s="195"/>
+      <c r="H239" s="195"/>
+      <c r="I239" s="195"/>
+      <c r="J239" s="195"/>
+      <c r="K239" s="212"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -11858,16 +11966,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="189" t="s">
+      <c r="D240" s="201" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="189"/>
-      <c r="F240" s="189"/>
-      <c r="G240" s="189"/>
-      <c r="H240" s="189"/>
-      <c r="I240" s="189"/>
-      <c r="J240" s="189"/>
-      <c r="K240" s="190"/>
+      <c r="E240" s="201"/>
+      <c r="F240" s="201"/>
+      <c r="G240" s="201"/>
+      <c r="H240" s="201"/>
+      <c r="I240" s="201"/>
+      <c r="J240" s="201"/>
+      <c r="K240" s="202"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -11879,14 +11987,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="216"/>
-      <c r="E241" s="216"/>
-      <c r="F241" s="216"/>
-      <c r="G241" s="216"/>
-      <c r="H241" s="216"/>
-      <c r="I241" s="216"/>
-      <c r="J241" s="216"/>
-      <c r="K241" s="217"/>
+      <c r="D241" s="203"/>
+      <c r="E241" s="203"/>
+      <c r="F241" s="203"/>
+      <c r="G241" s="203"/>
+      <c r="H241" s="203"/>
+      <c r="I241" s="203"/>
+      <c r="J241" s="203"/>
+      <c r="K241" s="204"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -12077,16 +12185,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="213" t="s">
+      <c r="D250" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="202"/>
-      <c r="F250" s="202"/>
-      <c r="G250" s="202"/>
-      <c r="H250" s="202"/>
-      <c r="I250" s="202"/>
-      <c r="J250" s="202"/>
-      <c r="K250" s="214"/>
+      <c r="E250" s="198"/>
+      <c r="F250" s="198"/>
+      <c r="G250" s="198"/>
+      <c r="H250" s="198"/>
+      <c r="I250" s="198"/>
+      <c r="J250" s="198"/>
+      <c r="K250" s="199"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12655,16 +12763,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="215" t="s">
+      <c r="D280" s="200" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="205"/>
-      <c r="F280" s="205"/>
-      <c r="G280" s="205"/>
-      <c r="H280" s="205"/>
-      <c r="I280" s="205"/>
-      <c r="J280" s="205"/>
-      <c r="K280" s="206"/>
+      <c r="E280" s="189"/>
+      <c r="F280" s="189"/>
+      <c r="G280" s="189"/>
+      <c r="H280" s="189"/>
+      <c r="I280" s="189"/>
+      <c r="J280" s="189"/>
+      <c r="K280" s="190"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -12771,16 +12879,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="215" t="s">
+      <c r="D286" s="200" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="205"/>
-      <c r="F286" s="205"/>
-      <c r="G286" s="205"/>
-      <c r="H286" s="205"/>
-      <c r="I286" s="205"/>
-      <c r="J286" s="205"/>
-      <c r="K286" s="206"/>
+      <c r="E286" s="189"/>
+      <c r="F286" s="189"/>
+      <c r="G286" s="189"/>
+      <c r="H286" s="189"/>
+      <c r="I286" s="189"/>
+      <c r="J286" s="189"/>
+      <c r="K286" s="190"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -12968,16 +13076,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="204" t="s">
+      <c r="D296" s="188" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="205"/>
-      <c r="F296" s="205"/>
-      <c r="G296" s="205"/>
-      <c r="H296" s="205"/>
-      <c r="I296" s="205"/>
-      <c r="J296" s="205"/>
-      <c r="K296" s="206"/>
+      <c r="E296" s="189"/>
+      <c r="F296" s="189"/>
+      <c r="G296" s="189"/>
+      <c r="H296" s="189"/>
+      <c r="I296" s="189"/>
+      <c r="J296" s="189"/>
+      <c r="K296" s="190"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -13008,16 +13116,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="188" t="s">
+      <c r="D298" s="205" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="189"/>
-      <c r="F298" s="189"/>
-      <c r="G298" s="189"/>
-      <c r="H298" s="189"/>
-      <c r="I298" s="189"/>
-      <c r="J298" s="189"/>
-      <c r="K298" s="190"/>
+      <c r="E298" s="201"/>
+      <c r="F298" s="201"/>
+      <c r="G298" s="201"/>
+      <c r="H298" s="201"/>
+      <c r="I298" s="201"/>
+      <c r="J298" s="201"/>
+      <c r="K298" s="202"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -13029,14 +13137,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="191"/>
-      <c r="E299" s="192"/>
-      <c r="F299" s="192"/>
-      <c r="G299" s="192"/>
-      <c r="H299" s="192"/>
-      <c r="I299" s="192"/>
-      <c r="J299" s="192"/>
-      <c r="K299" s="193"/>
+      <c r="D299" s="211"/>
+      <c r="E299" s="195"/>
+      <c r="F299" s="195"/>
+      <c r="G299" s="195"/>
+      <c r="H299" s="195"/>
+      <c r="I299" s="195"/>
+      <c r="J299" s="195"/>
+      <c r="K299" s="212"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -13048,16 +13156,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="188" t="s">
+      <c r="D300" s="205" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="189"/>
-      <c r="F300" s="189"/>
-      <c r="G300" s="189"/>
-      <c r="H300" s="189"/>
-      <c r="I300" s="189"/>
-      <c r="J300" s="189"/>
-      <c r="K300" s="190"/>
+      <c r="E300" s="201"/>
+      <c r="F300" s="201"/>
+      <c r="G300" s="201"/>
+      <c r="H300" s="201"/>
+      <c r="I300" s="201"/>
+      <c r="J300" s="201"/>
+      <c r="K300" s="202"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -13069,14 +13177,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="191"/>
-      <c r="E301" s="192"/>
-      <c r="F301" s="192"/>
-      <c r="G301" s="192"/>
-      <c r="H301" s="192"/>
-      <c r="I301" s="192"/>
-      <c r="J301" s="192"/>
-      <c r="K301" s="193"/>
+      <c r="D301" s="211"/>
+      <c r="E301" s="195"/>
+      <c r="F301" s="195"/>
+      <c r="G301" s="195"/>
+      <c r="H301" s="195"/>
+      <c r="I301" s="195"/>
+      <c r="J301" s="195"/>
+      <c r="K301" s="212"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -13088,16 +13196,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="188" t="s">
+      <c r="D302" s="205" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="189"/>
-      <c r="F302" s="189"/>
-      <c r="G302" s="189"/>
-      <c r="H302" s="189"/>
-      <c r="I302" s="189"/>
-      <c r="J302" s="189"/>
-      <c r="K302" s="190"/>
+      <c r="E302" s="201"/>
+      <c r="F302" s="201"/>
+      <c r="G302" s="201"/>
+      <c r="H302" s="201"/>
+      <c r="I302" s="201"/>
+      <c r="J302" s="201"/>
+      <c r="K302" s="202"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -13109,14 +13217,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="191"/>
-      <c r="E303" s="192"/>
-      <c r="F303" s="192"/>
-      <c r="G303" s="192"/>
-      <c r="H303" s="192"/>
-      <c r="I303" s="192"/>
-      <c r="J303" s="192"/>
-      <c r="K303" s="193"/>
+      <c r="D303" s="211"/>
+      <c r="E303" s="195"/>
+      <c r="F303" s="195"/>
+      <c r="G303" s="195"/>
+      <c r="H303" s="195"/>
+      <c r="I303" s="195"/>
+      <c r="J303" s="195"/>
+      <c r="K303" s="212"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -13128,16 +13236,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="188" t="s">
+      <c r="D304" s="205" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="189"/>
-      <c r="F304" s="189"/>
-      <c r="G304" s="189"/>
-      <c r="H304" s="189"/>
-      <c r="I304" s="189"/>
-      <c r="J304" s="189"/>
-      <c r="K304" s="190"/>
+      <c r="E304" s="201"/>
+      <c r="F304" s="201"/>
+      <c r="G304" s="201"/>
+      <c r="H304" s="201"/>
+      <c r="I304" s="201"/>
+      <c r="J304" s="201"/>
+      <c r="K304" s="202"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -13149,14 +13257,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="191"/>
-      <c r="E305" s="192"/>
-      <c r="F305" s="192"/>
-      <c r="G305" s="192"/>
-      <c r="H305" s="192"/>
-      <c r="I305" s="192"/>
-      <c r="J305" s="192"/>
-      <c r="K305" s="193"/>
+      <c r="D305" s="211"/>
+      <c r="E305" s="195"/>
+      <c r="F305" s="195"/>
+      <c r="G305" s="195"/>
+      <c r="H305" s="195"/>
+      <c r="I305" s="195"/>
+      <c r="J305" s="195"/>
+      <c r="K305" s="212"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -13171,16 +13279,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="188" t="s">
+      <c r="D306" s="205" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="189"/>
-      <c r="F306" s="189"/>
-      <c r="G306" s="189"/>
-      <c r="H306" s="189"/>
-      <c r="I306" s="189"/>
-      <c r="J306" s="189"/>
-      <c r="K306" s="190"/>
+      <c r="E306" s="201"/>
+      <c r="F306" s="201"/>
+      <c r="G306" s="201"/>
+      <c r="H306" s="201"/>
+      <c r="I306" s="201"/>
+      <c r="J306" s="201"/>
+      <c r="K306" s="202"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -13192,14 +13300,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="191"/>
-      <c r="E307" s="192"/>
-      <c r="F307" s="192"/>
-      <c r="G307" s="192"/>
-      <c r="H307" s="192"/>
-      <c r="I307" s="192"/>
-      <c r="J307" s="192"/>
-      <c r="K307" s="193"/>
+      <c r="D307" s="211"/>
+      <c r="E307" s="195"/>
+      <c r="F307" s="195"/>
+      <c r="G307" s="195"/>
+      <c r="H307" s="195"/>
+      <c r="I307" s="195"/>
+      <c r="J307" s="195"/>
+      <c r="K307" s="212"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -13211,16 +13319,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="188" t="s">
+      <c r="D308" s="205" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="189"/>
-      <c r="F308" s="189"/>
-      <c r="G308" s="189"/>
-      <c r="H308" s="189"/>
-      <c r="I308" s="189"/>
-      <c r="J308" s="189"/>
-      <c r="K308" s="190"/>
+      <c r="E308" s="201"/>
+      <c r="F308" s="201"/>
+      <c r="G308" s="201"/>
+      <c r="H308" s="201"/>
+      <c r="I308" s="201"/>
+      <c r="J308" s="201"/>
+      <c r="K308" s="202"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -13232,14 +13340,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="191"/>
-      <c r="E309" s="192"/>
-      <c r="F309" s="192"/>
-      <c r="G309" s="192"/>
-      <c r="H309" s="192"/>
-      <c r="I309" s="192"/>
-      <c r="J309" s="192"/>
-      <c r="K309" s="193"/>
+      <c r="D309" s="211"/>
+      <c r="E309" s="195"/>
+      <c r="F309" s="195"/>
+      <c r="G309" s="195"/>
+      <c r="H309" s="195"/>
+      <c r="I309" s="195"/>
+      <c r="J309" s="195"/>
+      <c r="K309" s="212"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21526,16 +21634,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="186" t="s">
+      <c r="D954" s="221" t="s">
         <v>480</v>
       </c>
-      <c r="E954" s="187"/>
-      <c r="F954" s="187"/>
-      <c r="G954" s="187"/>
-      <c r="H954" s="187"/>
-      <c r="I954" s="187"/>
-      <c r="J954" s="187"/>
-      <c r="K954" s="187"/>
+      <c r="E954" s="222"/>
+      <c r="F954" s="222"/>
+      <c r="G954" s="222"/>
+      <c r="H954" s="222"/>
+      <c r="I954" s="222"/>
+      <c r="J954" s="222"/>
+      <c r="K954" s="222"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24368,32 +24476,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
+  <mergeCells count="55">
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D954:K954"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -24410,13 +24507,31 @@
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
     <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D954:K954"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24502,16 +24617,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="202"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24533,14 +24648,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="196"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="208"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -30789,16 +30904,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="221" t="s">
+      <c r="D178" s="186" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="221"/>
-      <c r="F178" s="221"/>
-      <c r="G178" s="221"/>
-      <c r="H178" s="221"/>
-      <c r="I178" s="221"/>
-      <c r="J178" s="221"/>
-      <c r="K178" s="221"/>
+      <c r="E178" s="186"/>
+      <c r="F178" s="186"/>
+      <c r="G178" s="186"/>
+      <c r="H178" s="186"/>
+      <c r="I178" s="186"/>
+      <c r="J178" s="186"/>
+      <c r="K178" s="186"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -30867,16 +30982,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="204" t="s">
+      <c r="D182" s="188" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="205"/>
-      <c r="F182" s="205"/>
-      <c r="G182" s="205"/>
-      <c r="H182" s="205"/>
-      <c r="I182" s="205"/>
-      <c r="J182" s="205"/>
-      <c r="K182" s="206"/>
+      <c r="E182" s="189"/>
+      <c r="F182" s="189"/>
+      <c r="G182" s="189"/>
+      <c r="H182" s="189"/>
+      <c r="I182" s="189"/>
+      <c r="J182" s="189"/>
+      <c r="K182" s="190"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -30888,16 +31003,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="204" t="s">
+      <c r="D183" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="205"/>
-      <c r="F183" s="205"/>
-      <c r="G183" s="205"/>
-      <c r="H183" s="205"/>
-      <c r="I183" s="205"/>
-      <c r="J183" s="205"/>
-      <c r="K183" s="206"/>
+      <c r="E183" s="189"/>
+      <c r="F183" s="189"/>
+      <c r="G183" s="189"/>
+      <c r="H183" s="189"/>
+      <c r="I183" s="189"/>
+      <c r="J183" s="189"/>
+      <c r="K183" s="190"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -30909,16 +31024,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="204" t="s">
+      <c r="D184" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="205"/>
-      <c r="F184" s="205"/>
-      <c r="G184" s="205"/>
-      <c r="H184" s="205"/>
-      <c r="I184" s="205"/>
-      <c r="J184" s="205"/>
-      <c r="K184" s="206"/>
+      <c r="E184" s="189"/>
+      <c r="F184" s="189"/>
+      <c r="G184" s="189"/>
+      <c r="H184" s="189"/>
+      <c r="I184" s="189"/>
+      <c r="J184" s="189"/>
+      <c r="K184" s="190"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -30930,16 +31045,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="204" t="s">
+      <c r="D185" s="188" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="205"/>
-      <c r="F185" s="205"/>
-      <c r="G185" s="205"/>
-      <c r="H185" s="205"/>
-      <c r="I185" s="205"/>
-      <c r="J185" s="205"/>
-      <c r="K185" s="206"/>
+      <c r="E185" s="189"/>
+      <c r="F185" s="189"/>
+      <c r="G185" s="189"/>
+      <c r="H185" s="189"/>
+      <c r="I185" s="189"/>
+      <c r="J185" s="189"/>
+      <c r="K185" s="190"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -30951,16 +31066,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="204" t="s">
+      <c r="D186" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="205"/>
-      <c r="F186" s="205"/>
-      <c r="G186" s="205"/>
-      <c r="H186" s="205"/>
-      <c r="I186" s="205"/>
-      <c r="J186" s="205"/>
-      <c r="K186" s="206"/>
+      <c r="E186" s="189"/>
+      <c r="F186" s="189"/>
+      <c r="G186" s="189"/>
+      <c r="H186" s="189"/>
+      <c r="I186" s="189"/>
+      <c r="J186" s="189"/>
+      <c r="K186" s="190"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -30972,16 +31087,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="204" t="s">
+      <c r="D187" s="188" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="205"/>
-      <c r="F187" s="205"/>
-      <c r="G187" s="205"/>
-      <c r="H187" s="205"/>
-      <c r="I187" s="205"/>
-      <c r="J187" s="205"/>
-      <c r="K187" s="206"/>
+      <c r="E187" s="189"/>
+      <c r="F187" s="189"/>
+      <c r="G187" s="189"/>
+      <c r="H187" s="189"/>
+      <c r="I187" s="189"/>
+      <c r="J187" s="189"/>
+      <c r="K187" s="190"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -30993,16 +31108,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="204" t="s">
+      <c r="D188" s="188" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="205"/>
-      <c r="F188" s="205"/>
-      <c r="G188" s="205"/>
-      <c r="H188" s="205"/>
-      <c r="I188" s="205"/>
-      <c r="J188" s="205"/>
-      <c r="K188" s="206"/>
+      <c r="E188" s="189"/>
+      <c r="F188" s="189"/>
+      <c r="G188" s="189"/>
+      <c r="H188" s="189"/>
+      <c r="I188" s="189"/>
+      <c r="J188" s="189"/>
+      <c r="K188" s="190"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -31014,16 +31129,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="204" t="s">
+      <c r="D189" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="205"/>
-      <c r="F189" s="205"/>
-      <c r="G189" s="205"/>
-      <c r="H189" s="205"/>
-      <c r="I189" s="205"/>
-      <c r="J189" s="205"/>
-      <c r="K189" s="206"/>
+      <c r="E189" s="189"/>
+      <c r="F189" s="189"/>
+      <c r="G189" s="189"/>
+      <c r="H189" s="189"/>
+      <c r="I189" s="189"/>
+      <c r="J189" s="189"/>
+      <c r="K189" s="190"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -31035,16 +31150,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="204" t="s">
+      <c r="D190" s="188" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="205"/>
-      <c r="F190" s="205"/>
-      <c r="G190" s="205"/>
-      <c r="H190" s="205"/>
-      <c r="I190" s="205"/>
-      <c r="J190" s="205"/>
-      <c r="K190" s="206"/>
+      <c r="E190" s="189"/>
+      <c r="F190" s="189"/>
+      <c r="G190" s="189"/>
+      <c r="H190" s="189"/>
+      <c r="I190" s="189"/>
+      <c r="J190" s="189"/>
+      <c r="K190" s="190"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -31056,16 +31171,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="204" t="s">
+      <c r="D191" s="188" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="205"/>
-      <c r="F191" s="205"/>
-      <c r="G191" s="205"/>
-      <c r="H191" s="205"/>
-      <c r="I191" s="205"/>
-      <c r="J191" s="205"/>
-      <c r="K191" s="206"/>
+      <c r="E191" s="189"/>
+      <c r="F191" s="189"/>
+      <c r="G191" s="189"/>
+      <c r="H191" s="189"/>
+      <c r="I191" s="189"/>
+      <c r="J191" s="189"/>
+      <c r="K191" s="190"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -31077,16 +31192,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="204" t="s">
+      <c r="D192" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="205"/>
-      <c r="F192" s="205"/>
-      <c r="G192" s="205"/>
-      <c r="H192" s="205"/>
-      <c r="I192" s="205"/>
-      <c r="J192" s="205"/>
-      <c r="K192" s="206"/>
+      <c r="E192" s="189"/>
+      <c r="F192" s="189"/>
+      <c r="G192" s="189"/>
+      <c r="H192" s="189"/>
+      <c r="I192" s="189"/>
+      <c r="J192" s="189"/>
+      <c r="K192" s="190"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -31098,16 +31213,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="218" t="s">
+      <c r="D193" s="191" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="219"/>
-      <c r="F193" s="219"/>
-      <c r="G193" s="219"/>
-      <c r="H193" s="219"/>
-      <c r="I193" s="219"/>
-      <c r="J193" s="219"/>
-      <c r="K193" s="220"/>
+      <c r="E193" s="192"/>
+      <c r="F193" s="192"/>
+      <c r="G193" s="192"/>
+      <c r="H193" s="192"/>
+      <c r="I193" s="192"/>
+      <c r="J193" s="192"/>
+      <c r="K193" s="193"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -31122,16 +31237,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="199" t="s">
+      <c r="D194" s="194" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="192"/>
-      <c r="F194" s="192"/>
-      <c r="G194" s="192"/>
-      <c r="H194" s="192"/>
-      <c r="I194" s="192"/>
-      <c r="J194" s="192"/>
-      <c r="K194" s="200"/>
+      <c r="E194" s="195"/>
+      <c r="F194" s="195"/>
+      <c r="G194" s="195"/>
+      <c r="H194" s="195"/>
+      <c r="I194" s="195"/>
+      <c r="J194" s="195"/>
+      <c r="K194" s="196"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -31143,16 +31258,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="204" t="s">
+      <c r="D195" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="205"/>
-      <c r="F195" s="205"/>
-      <c r="G195" s="205"/>
-      <c r="H195" s="205"/>
-      <c r="I195" s="205"/>
-      <c r="J195" s="205"/>
-      <c r="K195" s="206"/>
+      <c r="E195" s="189"/>
+      <c r="F195" s="189"/>
+      <c r="G195" s="189"/>
+      <c r="H195" s="189"/>
+      <c r="I195" s="189"/>
+      <c r="J195" s="189"/>
+      <c r="K195" s="190"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -31164,16 +31279,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="204" t="s">
+      <c r="D196" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="205"/>
-      <c r="F196" s="205"/>
-      <c r="G196" s="205"/>
-      <c r="H196" s="205"/>
-      <c r="I196" s="205"/>
-      <c r="J196" s="205"/>
-      <c r="K196" s="206"/>
+      <c r="E196" s="189"/>
+      <c r="F196" s="189"/>
+      <c r="G196" s="189"/>
+      <c r="H196" s="189"/>
+      <c r="I196" s="189"/>
+      <c r="J196" s="189"/>
+      <c r="K196" s="190"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -31185,16 +31300,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="204" t="s">
+      <c r="D197" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="205"/>
-      <c r="F197" s="205"/>
-      <c r="G197" s="205"/>
-      <c r="H197" s="205"/>
-      <c r="I197" s="205"/>
-      <c r="J197" s="205"/>
-      <c r="K197" s="206"/>
+      <c r="E197" s="189"/>
+      <c r="F197" s="189"/>
+      <c r="G197" s="189"/>
+      <c r="H197" s="189"/>
+      <c r="I197" s="189"/>
+      <c r="J197" s="189"/>
+      <c r="K197" s="190"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -31206,16 +31321,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="204" t="s">
+      <c r="D198" s="188" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="205"/>
-      <c r="F198" s="205"/>
-      <c r="G198" s="205"/>
-      <c r="H198" s="205"/>
-      <c r="I198" s="205"/>
-      <c r="J198" s="205"/>
-      <c r="K198" s="206"/>
+      <c r="E198" s="189"/>
+      <c r="F198" s="189"/>
+      <c r="G198" s="189"/>
+      <c r="H198" s="189"/>
+      <c r="I198" s="189"/>
+      <c r="J198" s="189"/>
+      <c r="K198" s="190"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -31246,16 +31361,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="204" t="s">
+      <c r="D200" s="188" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="205"/>
-      <c r="F200" s="205"/>
-      <c r="G200" s="205"/>
-      <c r="H200" s="205"/>
-      <c r="I200" s="205"/>
-      <c r="J200" s="205"/>
-      <c r="K200" s="206"/>
+      <c r="E200" s="189"/>
+      <c r="F200" s="189"/>
+      <c r="G200" s="189"/>
+      <c r="H200" s="189"/>
+      <c r="I200" s="189"/>
+      <c r="J200" s="189"/>
+      <c r="K200" s="190"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -31286,16 +31401,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="210" t="s">
+      <c r="D202" s="218" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="211"/>
-      <c r="F202" s="211"/>
-      <c r="G202" s="211"/>
-      <c r="H202" s="211"/>
-      <c r="I202" s="211"/>
-      <c r="J202" s="211"/>
-      <c r="K202" s="212"/>
+      <c r="E202" s="219"/>
+      <c r="F202" s="219"/>
+      <c r="G202" s="219"/>
+      <c r="H202" s="219"/>
+      <c r="I202" s="219"/>
+      <c r="J202" s="219"/>
+      <c r="K202" s="220"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -31326,16 +31441,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="204" t="s">
+      <c r="D204" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="205"/>
-      <c r="F204" s="205"/>
-      <c r="G204" s="205"/>
-      <c r="H204" s="205"/>
-      <c r="I204" s="205"/>
-      <c r="J204" s="205"/>
-      <c r="K204" s="206"/>
+      <c r="E204" s="189"/>
+      <c r="F204" s="189"/>
+      <c r="G204" s="189"/>
+      <c r="H204" s="189"/>
+      <c r="I204" s="189"/>
+      <c r="J204" s="189"/>
+      <c r="K204" s="190"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -31366,16 +31481,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="204" t="s">
+      <c r="D206" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="205"/>
-      <c r="F206" s="205"/>
-      <c r="G206" s="205"/>
-      <c r="H206" s="205"/>
-      <c r="I206" s="205"/>
-      <c r="J206" s="205"/>
-      <c r="K206" s="206"/>
+      <c r="E206" s="189"/>
+      <c r="F206" s="189"/>
+      <c r="G206" s="189"/>
+      <c r="H206" s="189"/>
+      <c r="I206" s="189"/>
+      <c r="J206" s="189"/>
+      <c r="K206" s="190"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31406,16 +31521,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="204" t="s">
+      <c r="D208" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="205"/>
-      <c r="F208" s="205"/>
-      <c r="G208" s="205"/>
-      <c r="H208" s="205"/>
-      <c r="I208" s="205"/>
-      <c r="J208" s="205"/>
-      <c r="K208" s="206"/>
+      <c r="E208" s="189"/>
+      <c r="F208" s="189"/>
+      <c r="G208" s="189"/>
+      <c r="H208" s="189"/>
+      <c r="I208" s="189"/>
+      <c r="J208" s="189"/>
+      <c r="K208" s="190"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31449,16 +31564,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="199" t="s">
+      <c r="D210" s="194" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="192"/>
-      <c r="F210" s="192"/>
-      <c r="G210" s="192"/>
-      <c r="H210" s="192"/>
-      <c r="I210" s="192"/>
-      <c r="J210" s="192"/>
-      <c r="K210" s="200"/>
+      <c r="E210" s="195"/>
+      <c r="F210" s="195"/>
+      <c r="G210" s="195"/>
+      <c r="H210" s="195"/>
+      <c r="I210" s="195"/>
+      <c r="J210" s="195"/>
+      <c r="K210" s="196"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31527,16 +31642,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="204" t="s">
+      <c r="D214" s="188" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="205"/>
-      <c r="F214" s="205"/>
-      <c r="G214" s="205"/>
-      <c r="H214" s="205"/>
-      <c r="I214" s="205"/>
-      <c r="J214" s="205"/>
-      <c r="K214" s="206"/>
+      <c r="E214" s="189"/>
+      <c r="F214" s="189"/>
+      <c r="G214" s="189"/>
+      <c r="H214" s="189"/>
+      <c r="I214" s="189"/>
+      <c r="J214" s="189"/>
+      <c r="K214" s="190"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31567,16 +31682,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="197" t="s">
+      <c r="D216" s="209" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="189"/>
-      <c r="F216" s="189"/>
-      <c r="G216" s="189"/>
-      <c r="H216" s="189"/>
-      <c r="I216" s="189"/>
-      <c r="J216" s="189"/>
-      <c r="K216" s="198"/>
+      <c r="E216" s="201"/>
+      <c r="F216" s="201"/>
+      <c r="G216" s="201"/>
+      <c r="H216" s="201"/>
+      <c r="I216" s="201"/>
+      <c r="J216" s="201"/>
+      <c r="K216" s="210"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31588,14 +31703,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="199"/>
-      <c r="E217" s="192"/>
-      <c r="F217" s="192"/>
-      <c r="G217" s="192"/>
-      <c r="H217" s="192"/>
-      <c r="I217" s="192"/>
-      <c r="J217" s="192"/>
-      <c r="K217" s="200"/>
+      <c r="D217" s="194"/>
+      <c r="E217" s="195"/>
+      <c r="F217" s="195"/>
+      <c r="G217" s="195"/>
+      <c r="H217" s="195"/>
+      <c r="I217" s="195"/>
+      <c r="J217" s="195"/>
+      <c r="K217" s="196"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31607,16 +31722,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="197" t="s">
+      <c r="D218" s="209" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="189"/>
-      <c r="F218" s="189"/>
-      <c r="G218" s="189"/>
-      <c r="H218" s="189"/>
-      <c r="I218" s="189"/>
-      <c r="J218" s="189"/>
-      <c r="K218" s="198"/>
+      <c r="E218" s="201"/>
+      <c r="F218" s="201"/>
+      <c r="G218" s="201"/>
+      <c r="H218" s="201"/>
+      <c r="I218" s="201"/>
+      <c r="J218" s="201"/>
+      <c r="K218" s="210"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31628,14 +31743,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="199"/>
-      <c r="E219" s="192"/>
-      <c r="F219" s="192"/>
-      <c r="G219" s="192"/>
-      <c r="H219" s="192"/>
-      <c r="I219" s="192"/>
-      <c r="J219" s="192"/>
-      <c r="K219" s="200"/>
+      <c r="D219" s="194"/>
+      <c r="E219" s="195"/>
+      <c r="F219" s="195"/>
+      <c r="G219" s="195"/>
+      <c r="H219" s="195"/>
+      <c r="I219" s="195"/>
+      <c r="J219" s="195"/>
+      <c r="K219" s="196"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31647,16 +31762,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="197" t="s">
+      <c r="D220" s="209" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="189"/>
-      <c r="F220" s="189"/>
-      <c r="G220" s="189"/>
-      <c r="H220" s="189"/>
-      <c r="I220" s="189"/>
-      <c r="J220" s="189"/>
-      <c r="K220" s="198"/>
+      <c r="E220" s="201"/>
+      <c r="F220" s="201"/>
+      <c r="G220" s="201"/>
+      <c r="H220" s="201"/>
+      <c r="I220" s="201"/>
+      <c r="J220" s="201"/>
+      <c r="K220" s="210"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31668,14 +31783,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="199"/>
-      <c r="E221" s="192"/>
-      <c r="F221" s="192"/>
-      <c r="G221" s="192"/>
-      <c r="H221" s="192"/>
-      <c r="I221" s="192"/>
-      <c r="J221" s="192"/>
-      <c r="K221" s="200"/>
+      <c r="D221" s="194"/>
+      <c r="E221" s="195"/>
+      <c r="F221" s="195"/>
+      <c r="G221" s="195"/>
+      <c r="H221" s="195"/>
+      <c r="I221" s="195"/>
+      <c r="J221" s="195"/>
+      <c r="K221" s="196"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -31687,16 +31802,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="204" t="s">
+      <c r="D222" s="188" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="205"/>
-      <c r="F222" s="205"/>
-      <c r="G222" s="205"/>
-      <c r="H222" s="205"/>
-      <c r="I222" s="205"/>
-      <c r="J222" s="205"/>
-      <c r="K222" s="206"/>
+      <c r="E222" s="189"/>
+      <c r="F222" s="189"/>
+      <c r="G222" s="189"/>
+      <c r="H222" s="189"/>
+      <c r="I222" s="189"/>
+      <c r="J222" s="189"/>
+      <c r="K222" s="190"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -31727,16 +31842,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="204" t="s">
+      <c r="D224" s="188" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="205"/>
-      <c r="F224" s="205"/>
-      <c r="G224" s="205"/>
-      <c r="H224" s="205"/>
-      <c r="I224" s="205"/>
-      <c r="J224" s="205"/>
-      <c r="K224" s="206"/>
+      <c r="E224" s="189"/>
+      <c r="F224" s="189"/>
+      <c r="G224" s="189"/>
+      <c r="H224" s="189"/>
+      <c r="I224" s="189"/>
+      <c r="J224" s="189"/>
+      <c r="K224" s="190"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -31770,16 +31885,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="207" t="s">
+      <c r="D226" s="215" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="208"/>
-      <c r="F226" s="208"/>
-      <c r="G226" s="208"/>
-      <c r="H226" s="208"/>
-      <c r="I226" s="208"/>
-      <c r="J226" s="208"/>
-      <c r="K226" s="209"/>
+      <c r="E226" s="216"/>
+      <c r="F226" s="216"/>
+      <c r="G226" s="216"/>
+      <c r="H226" s="216"/>
+      <c r="I226" s="216"/>
+      <c r="J226" s="216"/>
+      <c r="K226" s="217"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -31924,16 +32039,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="201" t="s">
+      <c r="D234" s="213" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="202"/>
-      <c r="F234" s="202"/>
-      <c r="G234" s="202"/>
-      <c r="H234" s="202"/>
-      <c r="I234" s="202"/>
-      <c r="J234" s="202"/>
-      <c r="K234" s="203"/>
+      <c r="E234" s="198"/>
+      <c r="F234" s="198"/>
+      <c r="G234" s="198"/>
+      <c r="H234" s="198"/>
+      <c r="I234" s="198"/>
+      <c r="J234" s="198"/>
+      <c r="K234" s="214"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -32002,16 +32117,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="188" t="s">
+      <c r="D238" s="205" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="189"/>
-      <c r="F238" s="189"/>
-      <c r="G238" s="189"/>
-      <c r="H238" s="189"/>
-      <c r="I238" s="189"/>
-      <c r="J238" s="189"/>
-      <c r="K238" s="190"/>
+      <c r="E238" s="201"/>
+      <c r="F238" s="201"/>
+      <c r="G238" s="201"/>
+      <c r="H238" s="201"/>
+      <c r="I238" s="201"/>
+      <c r="J238" s="201"/>
+      <c r="K238" s="202"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -32023,14 +32138,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="191"/>
-      <c r="E239" s="192"/>
-      <c r="F239" s="192"/>
-      <c r="G239" s="192"/>
-      <c r="H239" s="192"/>
-      <c r="I239" s="192"/>
-      <c r="J239" s="192"/>
-      <c r="K239" s="193"/>
+      <c r="D239" s="211"/>
+      <c r="E239" s="195"/>
+      <c r="F239" s="195"/>
+      <c r="G239" s="195"/>
+      <c r="H239" s="195"/>
+      <c r="I239" s="195"/>
+      <c r="J239" s="195"/>
+      <c r="K239" s="212"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -32042,16 +32157,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="189" t="s">
+      <c r="D240" s="201" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="189"/>
-      <c r="F240" s="189"/>
-      <c r="G240" s="189"/>
-      <c r="H240" s="189"/>
-      <c r="I240" s="189"/>
-      <c r="J240" s="189"/>
-      <c r="K240" s="190"/>
+      <c r="E240" s="201"/>
+      <c r="F240" s="201"/>
+      <c r="G240" s="201"/>
+      <c r="H240" s="201"/>
+      <c r="I240" s="201"/>
+      <c r="J240" s="201"/>
+      <c r="K240" s="202"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -32063,14 +32178,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="216"/>
-      <c r="E241" s="216"/>
-      <c r="F241" s="216"/>
-      <c r="G241" s="216"/>
-      <c r="H241" s="216"/>
-      <c r="I241" s="216"/>
-      <c r="J241" s="216"/>
-      <c r="K241" s="217"/>
+      <c r="D241" s="203"/>
+      <c r="E241" s="203"/>
+      <c r="F241" s="203"/>
+      <c r="G241" s="203"/>
+      <c r="H241" s="203"/>
+      <c r="I241" s="203"/>
+      <c r="J241" s="203"/>
+      <c r="K241" s="204"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -32261,16 +32376,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="213" t="s">
+      <c r="D250" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="202"/>
-      <c r="F250" s="202"/>
-      <c r="G250" s="202"/>
-      <c r="H250" s="202"/>
-      <c r="I250" s="202"/>
-      <c r="J250" s="202"/>
-      <c r="K250" s="214"/>
+      <c r="E250" s="198"/>
+      <c r="F250" s="198"/>
+      <c r="G250" s="198"/>
+      <c r="H250" s="198"/>
+      <c r="I250" s="198"/>
+      <c r="J250" s="198"/>
+      <c r="K250" s="199"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -32839,16 +32954,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="204" t="s">
+      <c r="D280" s="188" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="205"/>
-      <c r="F280" s="205"/>
-      <c r="G280" s="205"/>
-      <c r="H280" s="205"/>
-      <c r="I280" s="205"/>
-      <c r="J280" s="205"/>
-      <c r="K280" s="206"/>
+      <c r="E280" s="189"/>
+      <c r="F280" s="189"/>
+      <c r="G280" s="189"/>
+      <c r="H280" s="189"/>
+      <c r="I280" s="189"/>
+      <c r="J280" s="189"/>
+      <c r="K280" s="190"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -32955,16 +33070,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="204" t="s">
+      <c r="D286" s="188" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="205"/>
-      <c r="F286" s="205"/>
-      <c r="G286" s="205"/>
-      <c r="H286" s="205"/>
-      <c r="I286" s="205"/>
-      <c r="J286" s="205"/>
-      <c r="K286" s="206"/>
+      <c r="E286" s="189"/>
+      <c r="F286" s="189"/>
+      <c r="G286" s="189"/>
+      <c r="H286" s="189"/>
+      <c r="I286" s="189"/>
+      <c r="J286" s="189"/>
+      <c r="K286" s="190"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -33152,16 +33267,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="204" t="s">
+      <c r="D296" s="188" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="205"/>
-      <c r="F296" s="205"/>
-      <c r="G296" s="205"/>
-      <c r="H296" s="205"/>
-      <c r="I296" s="205"/>
-      <c r="J296" s="205"/>
-      <c r="K296" s="206"/>
+      <c r="E296" s="189"/>
+      <c r="F296" s="189"/>
+      <c r="G296" s="189"/>
+      <c r="H296" s="189"/>
+      <c r="I296" s="189"/>
+      <c r="J296" s="189"/>
+      <c r="K296" s="190"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -33192,16 +33307,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="188" t="s">
+      <c r="D298" s="205" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="189"/>
-      <c r="F298" s="189"/>
-      <c r="G298" s="189"/>
-      <c r="H298" s="189"/>
-      <c r="I298" s="189"/>
-      <c r="J298" s="189"/>
-      <c r="K298" s="190"/>
+      <c r="E298" s="201"/>
+      <c r="F298" s="201"/>
+      <c r="G298" s="201"/>
+      <c r="H298" s="201"/>
+      <c r="I298" s="201"/>
+      <c r="J298" s="201"/>
+      <c r="K298" s="202"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -33213,14 +33328,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="191"/>
-      <c r="E299" s="192"/>
-      <c r="F299" s="192"/>
-      <c r="G299" s="192"/>
-      <c r="H299" s="192"/>
-      <c r="I299" s="192"/>
-      <c r="J299" s="192"/>
-      <c r="K299" s="193"/>
+      <c r="D299" s="211"/>
+      <c r="E299" s="195"/>
+      <c r="F299" s="195"/>
+      <c r="G299" s="195"/>
+      <c r="H299" s="195"/>
+      <c r="I299" s="195"/>
+      <c r="J299" s="195"/>
+      <c r="K299" s="212"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -33232,16 +33347,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="188" t="s">
+      <c r="D300" s="205" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="189"/>
-      <c r="F300" s="189"/>
-      <c r="G300" s="189"/>
-      <c r="H300" s="189"/>
-      <c r="I300" s="189"/>
-      <c r="J300" s="189"/>
-      <c r="K300" s="190"/>
+      <c r="E300" s="201"/>
+      <c r="F300" s="201"/>
+      <c r="G300" s="201"/>
+      <c r="H300" s="201"/>
+      <c r="I300" s="201"/>
+      <c r="J300" s="201"/>
+      <c r="K300" s="202"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -33253,14 +33368,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="191"/>
-      <c r="E301" s="192"/>
-      <c r="F301" s="192"/>
-      <c r="G301" s="192"/>
-      <c r="H301" s="192"/>
-      <c r="I301" s="192"/>
-      <c r="J301" s="192"/>
-      <c r="K301" s="193"/>
+      <c r="D301" s="211"/>
+      <c r="E301" s="195"/>
+      <c r="F301" s="195"/>
+      <c r="G301" s="195"/>
+      <c r="H301" s="195"/>
+      <c r="I301" s="195"/>
+      <c r="J301" s="195"/>
+      <c r="K301" s="212"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -33272,16 +33387,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="188" t="s">
+      <c r="D302" s="205" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="189"/>
-      <c r="F302" s="189"/>
-      <c r="G302" s="189"/>
-      <c r="H302" s="189"/>
-      <c r="I302" s="189"/>
-      <c r="J302" s="189"/>
-      <c r="K302" s="190"/>
+      <c r="E302" s="201"/>
+      <c r="F302" s="201"/>
+      <c r="G302" s="201"/>
+      <c r="H302" s="201"/>
+      <c r="I302" s="201"/>
+      <c r="J302" s="201"/>
+      <c r="K302" s="202"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -33293,14 +33408,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="191"/>
-      <c r="E303" s="192"/>
-      <c r="F303" s="192"/>
-      <c r="G303" s="192"/>
-      <c r="H303" s="192"/>
-      <c r="I303" s="192"/>
-      <c r="J303" s="192"/>
-      <c r="K303" s="193"/>
+      <c r="D303" s="211"/>
+      <c r="E303" s="195"/>
+      <c r="F303" s="195"/>
+      <c r="G303" s="195"/>
+      <c r="H303" s="195"/>
+      <c r="I303" s="195"/>
+      <c r="J303" s="195"/>
+      <c r="K303" s="212"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -33312,16 +33427,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="188" t="s">
+      <c r="D304" s="205" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="189"/>
-      <c r="F304" s="189"/>
-      <c r="G304" s="189"/>
-      <c r="H304" s="189"/>
-      <c r="I304" s="189"/>
-      <c r="J304" s="189"/>
-      <c r="K304" s="190"/>
+      <c r="E304" s="201"/>
+      <c r="F304" s="201"/>
+      <c r="G304" s="201"/>
+      <c r="H304" s="201"/>
+      <c r="I304" s="201"/>
+      <c r="J304" s="201"/>
+      <c r="K304" s="202"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -33333,14 +33448,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="191"/>
-      <c r="E305" s="192"/>
-      <c r="F305" s="192"/>
-      <c r="G305" s="192"/>
-      <c r="H305" s="192"/>
-      <c r="I305" s="192"/>
-      <c r="J305" s="192"/>
-      <c r="K305" s="193"/>
+      <c r="D305" s="211"/>
+      <c r="E305" s="195"/>
+      <c r="F305" s="195"/>
+      <c r="G305" s="195"/>
+      <c r="H305" s="195"/>
+      <c r="I305" s="195"/>
+      <c r="J305" s="195"/>
+      <c r="K305" s="212"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -33355,16 +33470,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="188" t="s">
+      <c r="D306" s="205" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="189"/>
-      <c r="F306" s="189"/>
-      <c r="G306" s="189"/>
-      <c r="H306" s="189"/>
-      <c r="I306" s="189"/>
-      <c r="J306" s="189"/>
-      <c r="K306" s="190"/>
+      <c r="E306" s="201"/>
+      <c r="F306" s="201"/>
+      <c r="G306" s="201"/>
+      <c r="H306" s="201"/>
+      <c r="I306" s="201"/>
+      <c r="J306" s="201"/>
+      <c r="K306" s="202"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -33376,14 +33491,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="191"/>
-      <c r="E307" s="192"/>
-      <c r="F307" s="192"/>
-      <c r="G307" s="192"/>
-      <c r="H307" s="192"/>
-      <c r="I307" s="192"/>
-      <c r="J307" s="192"/>
-      <c r="K307" s="193"/>
+      <c r="D307" s="211"/>
+      <c r="E307" s="195"/>
+      <c r="F307" s="195"/>
+      <c r="G307" s="195"/>
+      <c r="H307" s="195"/>
+      <c r="I307" s="195"/>
+      <c r="J307" s="195"/>
+      <c r="K307" s="212"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33395,16 +33510,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="188" t="s">
+      <c r="D308" s="205" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="189"/>
-      <c r="F308" s="189"/>
-      <c r="G308" s="189"/>
-      <c r="H308" s="189"/>
-      <c r="I308" s="189"/>
-      <c r="J308" s="189"/>
-      <c r="K308" s="190"/>
+      <c r="E308" s="201"/>
+      <c r="F308" s="201"/>
+      <c r="G308" s="201"/>
+      <c r="H308" s="201"/>
+      <c r="I308" s="201"/>
+      <c r="J308" s="201"/>
+      <c r="K308" s="202"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33416,14 +33531,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="191"/>
-      <c r="E309" s="192"/>
-      <c r="F309" s="192"/>
-      <c r="G309" s="192"/>
-      <c r="H309" s="192"/>
-      <c r="I309" s="192"/>
-      <c r="J309" s="192"/>
-      <c r="K309" s="193"/>
+      <c r="D309" s="211"/>
+      <c r="E309" s="195"/>
+      <c r="F309" s="195"/>
+      <c r="G309" s="195"/>
+      <c r="H309" s="195"/>
+      <c r="I309" s="195"/>
+      <c r="J309" s="195"/>
+      <c r="K309" s="212"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37303,29 +37418,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -37342,12 +37440,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>

--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apokalysme\LaunchMyCraft\git_repository\iogr_emotracker_apokalysme\autotracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE9AE5-D93E-42CF-9D6A-394AC7AF2E54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAFFE9-1F6D-4FDF-B2D6-F925CF8B012B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="772">
   <si>
     <t>ID</t>
   </si>
@@ -1357,12 +1357,6 @@
     <t>Combination 6</t>
   </si>
   <si>
-    <t>Got Hieroglyph 1 to 6</t>
-  </si>
-  <si>
-    <t>Prison unlocked</t>
-  </si>
-  <si>
     <t>Got Rama Statue A</t>
   </si>
   <si>
@@ -1424,9 +1418,6 @@
   </si>
   <si>
     <t>Kara's location</t>
-  </si>
-  <si>
-    <t>Kara saved</t>
   </si>
   <si>
     <t>Ability gotten</t>
@@ -1467,9 +1458,6 @@
     <t>Got Crystal Ball</t>
   </si>
   <si>
-    <t>Used Gorgon Flower</t>
-  </si>
-  <si>
     <t>Item AutoTracking - Triggers</t>
   </si>
   <si>
@@ -2240,18 +2228,199 @@
   </si>
   <si>
     <t>Kara's location (01 = Ed's, 02 = Mine, 03 = Angel, 04 = Kress, 05 = Ankor Wat)</t>
+  </si>
+  <si>
+    <t>MD Used</t>
+  </si>
+  <si>
+    <t>Herbs Used / Discarded</t>
+  </si>
+  <si>
+    <t>Got Lola's Melody
+0x7e0a06 - 0x20</t>
+  </si>
+  <si>
+    <t>Got Wind Melody
+0x7e0a06 - 0x04</t>
+  </si>
+  <si>
+    <t>Got Inca Statue A
+0x7e0a05 - 0x20</t>
+  </si>
+  <si>
+    <t>Got the roast
+0x7e0a08 - 0x40</t>
+  </si>
+  <si>
+    <t>Got Inca Statue B
+0x7e0a08 - 0x01</t>
+  </si>
+  <si>
+    <t>Got Memory Melody
+0x7e0a0b - 0x40</t>
+  </si>
+  <si>
+    <t>Find Mine Key A
+0x7e0a0b - 0x20</t>
+  </si>
+  <si>
+    <t>Got Hope Statue 2
+0x7e0a0f - 0x80</t>
+  </si>
+  <si>
+    <t>Got Hope Statue 1
+0x7e0a0f - 0x02</t>
+  </si>
+  <si>
+    <t>Got Mu Key
+0x7e0a10 - 0x20</t>
+  </si>
+  <si>
+    <t>Get Will
+0x7e0a12 - 0x20</t>
+  </si>
+  <si>
+    <t>Got Lance's Letter
+0x7e0a12 - 0x04</t>
+  </si>
+  <si>
+    <t>GOT THE APPLE
+0x7e0a13 - 0x04</t>
+  </si>
+  <si>
+    <t>GOT AURA
+0x7e0a17 - 0x20</t>
+  </si>
+  <si>
+    <t>Got Gorgon Flower
+0x7e0a17 - 0x40</t>
+  </si>
+  <si>
+    <t>Got black glasses
+0x7e0a17 - 0x04</t>
+  </si>
+  <si>
+    <t>Got Hieroglyph 1 to 6
+0x7e0a18 - 0x04 to 0x80</t>
+  </si>
+  <si>
+    <t>GOT CRYSTAL RING
+0x7e0a1b - 0x10</t>
+  </si>
+  <si>
+    <t>CB Used
+0x7e0a0c - 0x01 to 0x04</t>
+  </si>
+  <si>
+    <t>Give away Journal
+0x7e0a1d - 0x80</t>
+  </si>
+  <si>
+    <t>WEARING SUNGLASSES
+0x7e0a1e - 0x20</t>
+  </si>
+  <si>
+    <t>Used Gorgon Flower
+0x7e0a19 - 0x40</t>
+  </si>
+  <si>
+    <t>WEARING RING
+0x7e0a07 - 0x40</t>
+  </si>
+  <si>
+    <t>Kara saved
+0x7e0a11 - 0x04</t>
+  </si>
+  <si>
+    <t>Awaken Moon Tribe
+0x7e0a05 - 0x04</t>
+  </si>
+  <si>
+    <t>Prison unlocked
+0x7e0a04 - 0x10</t>
+  </si>
+  <si>
+    <t>KNOW MORSE CODE
+0x7e0a02 - 0x02</t>
+  </si>
+  <si>
+    <t>Open Elevator
+0x7e0a0d - 0x02</t>
+  </si>
+  <si>
+    <t>RESTORE NEIL MEMORY
+0x7e0a02 - 0x10</t>
+  </si>
+  <si>
+    <t>Purify seaside
+0x7e0a0e - 0x01</t>
+  </si>
+  <si>
+    <t>Itory appears
+0x7e0a08 - 0x01</t>
+  </si>
+  <si>
+    <t>FEED NATIVES
+0x7e0a08 - 0x02</t>
+  </si>
+  <si>
+    <t>Place diamond block
+0x7e0a05 - 0x80</t>
+  </si>
+  <si>
+    <t>Place Inca A
+0x7e0a06 - 0x01</t>
+  </si>
+  <si>
+    <t>Place Inca B
+0x7e0a06 - 0x02</t>
+  </si>
+  <si>
+    <t>Use Mine Key B
+0x7e0a0b - 0x10</t>
+  </si>
+  <si>
+    <t>Use Mine Key A
+0x7e0a0b - 0x08</t>
+  </si>
+  <si>
+    <t>LL read
+0x7e0a11 - 0x40</t>
+  </si>
+  <si>
+    <t>HS1 Used
+0x7e0a0f - 0x08</t>
+  </si>
+  <si>
+    <t>HS2 Used
+0x7e0a0f - 0x40</t>
+  </si>
+  <si>
+    <t>RSA Used
+0x7e0a10 - 0x01</t>
+  </si>
+  <si>
+    <t>RSB Used
+0x7e0a10 - 0x02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2494,7 +2663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -3199,14 +3368,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3222,19 +3426,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3243,55 +3447,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3303,13 +3507,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3318,22 +3522,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3363,10 +3567,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3375,34 +3579,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3453,16 +3657,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3498,175 +3702,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3675,117 +3798,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3797,43 +3920,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3866,17 +3989,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4318,9 +4533,9 @@
   </sheetPr>
   <dimension ref="A1:P1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90:K90"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4329,7 +4544,8 @@
     <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="5" customWidth="1"/>
-    <col min="5" max="7" width="23.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="25.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="23.7109375" style="3" customWidth="1"/>
@@ -4394,16 +4610,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="202"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
       <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
@@ -4421,14 +4637,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="208"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
@@ -4446,28 +4662,28 @@
         <f t="shared" si="1"/>
         <v>16-23</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="179" t="s">
+      <c r="G4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="179" t="s">
+      <c r="J4" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="158" t="s">
+      <c r="K4" s="131" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="5">
@@ -4483,32 +4699,32 @@
         <f t="shared" si="0"/>
         <v>A03</v>
       </c>
-      <c r="C5" s="149" t="str">
+      <c r="C5" s="125" t="str">
         <f t="shared" si="1"/>
         <v>24-31</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="158" t="s">
+      <c r="H5" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="163" t="s">
+      <c r="K5" s="136" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6">
@@ -4528,28 +4744,28 @@
         <f t="shared" si="1"/>
         <v>32-39</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="164" t="s">
+      <c r="I6" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="164" t="s">
+      <c r="J6" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="135" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6">
@@ -4565,32 +4781,32 @@
         <f t="shared" si="0"/>
         <v>A05</v>
       </c>
-      <c r="C7" s="149" t="str">
+      <c r="C7" s="125" t="str">
         <f t="shared" si="1"/>
         <v>40-47</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="179" t="s">
+      <c r="I7" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="164" t="s">
+      <c r="J7" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="162" t="s">
+      <c r="K7" s="135" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="6">
@@ -4606,32 +4822,32 @@
         <f t="shared" si="0"/>
         <v>A06</v>
       </c>
-      <c r="C8" s="149" t="str">
+      <c r="C8" s="125" t="str">
         <f t="shared" si="1"/>
         <v>48-55</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="163" t="s">
+      <c r="G8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="167" t="s">
+      <c r="I8" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="166" t="s">
+      <c r="J8" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="166" t="s">
+      <c r="K8" s="139" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="6">
@@ -4651,27 +4867,27 @@
         <f t="shared" si="1"/>
         <v>56-63</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="169" t="s">
+      <c r="E9" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="158" t="s">
+      <c r="F9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="164" t="s">
+      <c r="G9" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="162"/>
-      <c r="K9" s="166" t="s">
-        <v>719</v>
+      <c r="J9" s="135"/>
+      <c r="K9" s="139" t="s">
+        <v>715</v>
       </c>
       <c r="M9" s="6">
         <v>38</v>
@@ -4686,32 +4902,32 @@
         <f t="shared" si="0"/>
         <v>A08</v>
       </c>
-      <c r="C10" s="149" t="str">
+      <c r="C10" s="125" t="str">
         <f t="shared" si="1"/>
         <v>64-71</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="167" t="s">
+      <c r="E10" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="162" t="s">
+      <c r="F10" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="162" t="s">
+      <c r="H10" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="169" t="s">
+      <c r="J10" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="166" t="s">
+      <c r="K10" s="139" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6">
@@ -4731,28 +4947,28 @@
         <f t="shared" si="1"/>
         <v>72-79</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="158" t="s">
+      <c r="H11" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="158" t="s">
+      <c r="I11" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="158" t="s">
+      <c r="J11" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="167" t="s">
+      <c r="K11" s="140" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="6">
@@ -4771,32 +4987,32 @@
         <f t="shared" si="0"/>
         <v>A0A</v>
       </c>
-      <c r="C12" s="149" t="str">
+      <c r="C12" s="125" t="str">
         <f t="shared" si="1"/>
         <v>80-87</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="158" t="s">
+      <c r="E12" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="164" t="s">
+      <c r="H12" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="162" t="s">
+      <c r="I12" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="164" t="s">
+      <c r="J12" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="164" t="s">
+      <c r="K12" s="137" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="6">
@@ -4812,32 +5028,32 @@
         <f t="shared" si="0"/>
         <v>A0B</v>
       </c>
-      <c r="C13" s="149" t="str">
+      <c r="C13" s="125" t="str">
         <f t="shared" si="1"/>
         <v>88-95</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="167" t="s">
+      <c r="F13" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="166" t="s">
+      <c r="G13" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="166" t="s">
+      <c r="H13" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="158" t="s">
+      <c r="I13" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="165" t="s">
+      <c r="J13" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="158" t="s">
+      <c r="K13" s="131" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="6">
@@ -4853,32 +5069,32 @@
         <f t="shared" si="0"/>
         <v>A0C</v>
       </c>
-      <c r="C14" s="149" t="str">
+      <c r="C14" s="125" t="str">
         <f t="shared" si="1"/>
         <v>96-103</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="158" t="s">
+      <c r="E14" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="158" t="s">
+      <c r="G14" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="164" t="s">
+      <c r="H14" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="164" t="s">
+      <c r="I14" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="164" t="s">
+      <c r="J14" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="164" t="s">
+      <c r="K14" s="139" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="6">
@@ -4898,28 +5114,28 @@
         <f t="shared" si="1"/>
         <v>104-111</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="158" t="s">
+      <c r="E15" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="158" t="s">
+      <c r="H15" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="158" t="s">
+      <c r="I15" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="166" t="s">
+      <c r="J15" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="158" t="s">
+      <c r="K15" s="131" t="s">
         <v>93</v>
       </c>
       <c r="M15" s="6">
@@ -4935,32 +5151,32 @@
         <f t="shared" si="0"/>
         <v>A0E</v>
       </c>
-      <c r="C16" s="149" t="str">
+      <c r="C16" s="125" t="str">
         <f t="shared" si="1"/>
         <v>112-119</v>
       </c>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="158" t="s">
+      <c r="E16" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="158" t="s">
+      <c r="G16" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="158" t="s">
+      <c r="I16" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="158" t="s">
+      <c r="J16" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="166" t="s">
+      <c r="K16" s="139" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="6">
@@ -4976,32 +5192,32 @@
         <f t="shared" si="0"/>
         <v>A0F</v>
       </c>
-      <c r="C17" s="156" t="str">
+      <c r="C17" s="129" t="str">
         <f t="shared" si="1"/>
         <v>120-127</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="158" t="s">
+      <c r="F17" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="158" t="s">
+      <c r="G17" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="164" t="s">
+      <c r="H17" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="158" t="s">
+      <c r="I17" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="167" t="s">
+      <c r="J17" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="162" t="s">
+      <c r="K17" s="135" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="56">
@@ -5023,28 +5239,28 @@
         <f t="shared" si="1"/>
         <v>128-135</v>
       </c>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="158" t="s">
+      <c r="E18" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="167" t="s">
+      <c r="F18" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="158" t="s">
+      <c r="G18" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="158" t="s">
+      <c r="H18" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="159" t="s">
+      <c r="I18" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="164" t="s">
+      <c r="J18" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="164" t="s">
+      <c r="K18" s="139" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="6">
@@ -5060,32 +5276,32 @@
         <f t="shared" si="0"/>
         <v>A11</v>
       </c>
-      <c r="C19" s="149" t="str">
+      <c r="C19" s="125" t="str">
         <f t="shared" si="1"/>
         <v>136-143</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="178" t="s">
+      <c r="E19" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="158" t="s">
+      <c r="F19" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="158" t="s">
+      <c r="G19" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="170" t="s">
+      <c r="H19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="171" t="s">
+      <c r="I19" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="158" t="s">
+      <c r="J19" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="164" t="s">
+      <c r="K19" s="137" t="s">
         <v>123</v>
       </c>
       <c r="M19" s="6">
@@ -5105,28 +5321,28 @@
         <f t="shared" si="1"/>
         <v>144-151</v>
       </c>
-      <c r="D20" s="170" t="s">
+      <c r="D20" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="164" t="s">
+      <c r="E20" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="167" t="s">
+      <c r="F20" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="158" t="s">
+      <c r="G20" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="158" t="s">
+      <c r="H20" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="167" t="s">
+      <c r="I20" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="158" t="s">
+      <c r="J20" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="158" t="s">
+      <c r="K20" s="131" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
@@ -5142,32 +5358,32 @@
         <f t="shared" si="0"/>
         <v>A13</v>
       </c>
-      <c r="C21" s="149" t="str">
+      <c r="C21" s="125" t="str">
         <f t="shared" si="1"/>
         <v>152-159</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="163" t="s">
+      <c r="G21" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="163" t="s">
+      <c r="H21" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="172" t="s">
+      <c r="I21" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="173" t="s">
+      <c r="J21" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="173" t="s">
+      <c r="K21" s="146" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="6">
@@ -5183,32 +5399,32 @@
         <f t="shared" si="0"/>
         <v>A14</v>
       </c>
-      <c r="C22" s="149" t="str">
+      <c r="C22" s="125" t="str">
         <f t="shared" si="1"/>
         <v>160-167</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="164" t="s">
+      <c r="E22" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="158" t="s">
+      <c r="F22" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="158" t="s">
+      <c r="G22" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="165" t="s">
+      <c r="H22" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="165" t="s">
+      <c r="I22" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="164" t="s">
+      <c r="J22" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="164" t="s">
+      <c r="K22" s="137" t="s">
         <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
@@ -5224,32 +5440,32 @@
         <f t="shared" si="0"/>
         <v>A15</v>
       </c>
-      <c r="C23" s="149" t="str">
+      <c r="C23" s="125" t="str">
         <f t="shared" si="1"/>
         <v>168-175</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="158" t="s">
+      <c r="E23" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="158" t="s">
+      <c r="F23" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="158" t="s">
+      <c r="G23" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="164" t="s">
+      <c r="H23" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="164" t="s">
+      <c r="I23" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="158" t="s">
+      <c r="J23" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="164" t="s">
+      <c r="K23" s="137" t="s">
         <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -5265,32 +5481,32 @@
         <f t="shared" si="0"/>
         <v>A16</v>
       </c>
-      <c r="C24" s="149" t="str">
+      <c r="C24" s="125" t="str">
         <f t="shared" si="1"/>
         <v>176-183</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="158" t="s">
+      <c r="E24" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="162" t="s">
+      <c r="F24" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="158" t="s">
+      <c r="G24" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="158" t="s">
+      <c r="H24" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="158" t="s">
+      <c r="I24" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="158" t="s">
+      <c r="J24" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="158" t="s">
+      <c r="K24" s="131" t="s">
         <v>163</v>
       </c>
       <c r="M24" s="6" t="s">
@@ -5309,32 +5525,32 @@
         <f t="shared" si="0"/>
         <v>A17</v>
       </c>
-      <c r="C25" s="149" t="str">
+      <c r="C25" s="125" t="str">
         <f t="shared" si="1"/>
         <v>184-191</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="167" t="s">
+      <c r="E25" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="174" t="s">
+      <c r="F25" s="147" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="163" t="s">
+      <c r="G25" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="162" t="s">
+      <c r="H25" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="167" t="s">
+      <c r="I25" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="164" t="s">
+      <c r="J25" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="165" t="s">
+      <c r="K25" s="138" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -5350,32 +5566,32 @@
         <f t="shared" si="0"/>
         <v>A18</v>
       </c>
-      <c r="C26" s="149" t="str">
+      <c r="C26" s="125" t="str">
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="167" t="s">
+      <c r="D26" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="167" t="s">
+      <c r="E26" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="167" t="s">
+      <c r="F26" s="140" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="167" t="s">
+      <c r="G26" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="167" t="s">
+      <c r="H26" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="167" t="s">
+      <c r="I26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="164" t="s">
+      <c r="J26" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="164" t="s">
+      <c r="K26" s="137" t="s">
         <v>181</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -5391,32 +5607,32 @@
         <f t="shared" si="0"/>
         <v>A19</v>
       </c>
-      <c r="C27" s="149" t="str">
+      <c r="C27" s="125" t="str">
         <f t="shared" si="1"/>
         <v>200-207</v>
       </c>
-      <c r="D27" s="162" t="s">
+      <c r="D27" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="176" t="s">
+      <c r="E27" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="163" t="s">
+      <c r="F27" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="163" t="s">
+      <c r="G27" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="163" t="s">
+      <c r="H27" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="162" t="s">
+      <c r="I27" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="163" t="s">
+      <c r="J27" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="162" t="s">
+      <c r="K27" s="135" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -5432,32 +5648,32 @@
         <f t="shared" si="0"/>
         <v>A1A</v>
       </c>
-      <c r="C28" s="149" t="str">
+      <c r="C28" s="125" t="str">
         <f t="shared" si="1"/>
         <v>208-215</v>
       </c>
-      <c r="D28" s="173" t="s">
+      <c r="D28" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="158" t="s">
+      <c r="E28" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="163" t="s">
+      <c r="F28" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="162" t="s">
+      <c r="G28" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="162" t="s">
+      <c r="H28" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="162" t="s">
+      <c r="I28" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="164" t="s">
+      <c r="J28" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="158" t="s">
+      <c r="K28" s="131" t="s">
         <v>196</v>
       </c>
       <c r="M28" s="6" t="s">
@@ -5473,32 +5689,32 @@
         <f t="shared" si="0"/>
         <v>A1B</v>
       </c>
-      <c r="C29" s="149" t="str">
+      <c r="C29" s="125" t="str">
         <f t="shared" si="1"/>
         <v>216-223</v>
       </c>
-      <c r="D29" s="158" t="s">
+      <c r="D29" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="158" t="s">
+      <c r="E29" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="158" t="s">
+      <c r="F29" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="175" t="s">
+      <c r="G29" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="162" t="s">
+      <c r="H29" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="163" t="s">
+      <c r="I29" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="173" t="s">
+      <c r="J29" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="173" t="s">
+      <c r="K29" s="146" t="s">
         <v>204</v>
       </c>
       <c r="M29" s="81" t="s">
@@ -5514,32 +5730,32 @@
         <f t="shared" si="0"/>
         <v>A1C</v>
       </c>
-      <c r="C30" s="149" t="str">
+      <c r="C30" s="125" t="str">
         <f t="shared" si="1"/>
         <v>224-231</v>
       </c>
-      <c r="D30" s="165" t="s">
+      <c r="D30" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="173" t="s">
+      <c r="E30" s="146" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="173" t="s">
+      <c r="F30" s="146" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="170" t="s">
+      <c r="G30" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="170" t="s">
+      <c r="H30" s="143" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="165" t="s">
+      <c r="I30" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="173" t="s">
+      <c r="J30" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="173" t="s">
+      <c r="K30" s="146" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -5555,32 +5771,32 @@
         <f t="shared" si="0"/>
         <v>A1D</v>
       </c>
-      <c r="C31" s="149" t="str">
+      <c r="C31" s="125" t="str">
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="176" t="s">
+      <c r="D31" s="149" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="165" t="s">
+      <c r="E31" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="165" t="s">
+      <c r="F31" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="165" t="s">
+      <c r="G31" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="165" t="s">
+      <c r="H31" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="165" t="s">
+      <c r="I31" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="165" t="s">
+      <c r="J31" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="164" t="s">
+      <c r="K31" s="137" t="s">
         <v>221</v>
       </c>
       <c r="M31" s="6" t="s">
@@ -5596,32 +5812,32 @@
         <f>DEC2HEX(2560+A32)</f>
         <v>A1E</v>
       </c>
-      <c r="C32" s="149" t="str">
+      <c r="C32" s="125" t="str">
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="162" t="s">
+      <c r="E32" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="169" t="s">
+      <c r="F32" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="162" t="s">
+      <c r="G32" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="164" t="s">
+      <c r="H32" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="164" t="s">
+      <c r="I32" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="164" t="s">
+      <c r="J32" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="164" t="s">
+      <c r="K32" s="137" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="81" t="s">
@@ -5637,30 +5853,30 @@
         <f>DEC2HEX(2560+A33)</f>
         <v>A1F</v>
       </c>
-      <c r="C33" s="156" t="str">
+      <c r="C33" s="129" t="str">
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="162"/>
-      <c r="E33" s="158" t="s">
+      <c r="D33" s="135"/>
+      <c r="E33" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="177" t="s">
+      <c r="F33" s="150" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="177" t="s">
+      <c r="G33" s="150" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="177" t="s">
+      <c r="H33" s="150" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="177" t="s">
+      <c r="I33" s="150" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="177" t="s">
+      <c r="J33" s="150" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="177" t="s">
+      <c r="K33" s="150" t="s">
         <v>237</v>
       </c>
       <c r="M33" s="56" t="s">
@@ -5686,7 +5902,7 @@
       <c r="F34" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="157" t="s">
+      <c r="G34" s="130" t="s">
         <v>241</v>
       </c>
       <c r="H34" s="88" t="s">
@@ -7439,16 +7655,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="224" t="s">
-        <v>720</v>
-      </c>
-      <c r="E90" s="225"/>
-      <c r="F90" s="225"/>
-      <c r="G90" s="225"/>
-      <c r="H90" s="225"/>
-      <c r="I90" s="225"/>
-      <c r="J90" s="225"/>
-      <c r="K90" s="226"/>
+      <c r="D90" s="196" t="s">
+        <v>716</v>
+      </c>
+      <c r="E90" s="197"/>
+      <c r="F90" s="197"/>
+      <c r="G90" s="197"/>
+      <c r="H90" s="197"/>
+      <c r="I90" s="197"/>
+      <c r="J90" s="197"/>
+      <c r="K90" s="198"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="12">
@@ -7460,16 +7676,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="224" t="s">
-        <v>721</v>
-      </c>
-      <c r="E91" s="225"/>
-      <c r="F91" s="225"/>
-      <c r="G91" s="225"/>
-      <c r="H91" s="225"/>
-      <c r="I91" s="225"/>
-      <c r="J91" s="225"/>
-      <c r="K91" s="226"/>
+      <c r="D91" s="196" t="s">
+        <v>717</v>
+      </c>
+      <c r="E91" s="197"/>
+      <c r="F91" s="197"/>
+      <c r="G91" s="197"/>
+      <c r="H91" s="197"/>
+      <c r="I91" s="197"/>
+      <c r="J91" s="197"/>
+      <c r="K91" s="198"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="12">
@@ -7481,16 +7697,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="224" t="s">
-        <v>722</v>
-      </c>
-      <c r="E92" s="225"/>
-      <c r="F92" s="225"/>
-      <c r="G92" s="225"/>
-      <c r="H92" s="225"/>
-      <c r="I92" s="225"/>
-      <c r="J92" s="225"/>
-      <c r="K92" s="226"/>
+      <c r="D92" s="196" t="s">
+        <v>718</v>
+      </c>
+      <c r="E92" s="197"/>
+      <c r="F92" s="197"/>
+      <c r="G92" s="197"/>
+      <c r="H92" s="197"/>
+      <c r="I92" s="197"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="198"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="12">
@@ -7502,16 +7718,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="224" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="225"/>
-      <c r="F93" s="225"/>
-      <c r="G93" s="225"/>
-      <c r="H93" s="225"/>
-      <c r="I93" s="225"/>
-      <c r="J93" s="225"/>
-      <c r="K93" s="226"/>
+      <c r="D93" s="196" t="s">
+        <v>719</v>
+      </c>
+      <c r="E93" s="197"/>
+      <c r="F93" s="197"/>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="197"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="198"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="12">
@@ -7523,16 +7739,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="224" t="s">
-        <v>724</v>
-      </c>
-      <c r="E94" s="225"/>
-      <c r="F94" s="225"/>
-      <c r="G94" s="225"/>
-      <c r="H94" s="225"/>
-      <c r="I94" s="225"/>
-      <c r="J94" s="225"/>
-      <c r="K94" s="226"/>
+      <c r="D94" s="196" t="s">
+        <v>720</v>
+      </c>
+      <c r="E94" s="197"/>
+      <c r="F94" s="197"/>
+      <c r="G94" s="197"/>
+      <c r="H94" s="197"/>
+      <c r="I94" s="197"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="198"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="12">
@@ -7544,16 +7760,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="224" t="s">
-        <v>725</v>
-      </c>
-      <c r="E95" s="225"/>
-      <c r="F95" s="225"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="225"/>
-      <c r="I95" s="225"/>
-      <c r="J95" s="225"/>
-      <c r="K95" s="226"/>
+      <c r="D95" s="196" t="s">
+        <v>721</v>
+      </c>
+      <c r="E95" s="197"/>
+      <c r="F95" s="197"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="197"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+      <c r="K95" s="198"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="12">
@@ -7565,16 +7781,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="224" t="s">
-        <v>731</v>
-      </c>
-      <c r="E96" s="225"/>
-      <c r="F96" s="225"/>
-      <c r="G96" s="225"/>
-      <c r="H96" s="225"/>
-      <c r="I96" s="225"/>
-      <c r="J96" s="225"/>
-      <c r="K96" s="226"/>
+      <c r="D96" s="196" t="s">
+        <v>727</v>
+      </c>
+      <c r="E96" s="197"/>
+      <c r="F96" s="197"/>
+      <c r="G96" s="197"/>
+      <c r="H96" s="197"/>
+      <c r="I96" s="197"/>
+      <c r="J96" s="197"/>
+      <c r="K96" s="198"/>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1">
       <c r="A97" s="31">
@@ -7588,23 +7804,23 @@
       <c r="C97" s="32"/>
       <c r="D97" s="49"/>
       <c r="E97" s="31"/>
-      <c r="F97" s="169" t="s">
-        <v>727</v>
-      </c>
-      <c r="G97" s="169" t="s">
-        <v>728</v>
-      </c>
-      <c r="H97" s="169" t="s">
-        <v>729</v>
-      </c>
-      <c r="I97" s="169" t="s">
-        <v>729</v>
-      </c>
-      <c r="J97" s="169" t="s">
-        <v>730</v>
-      </c>
-      <c r="K97" s="169" t="s">
+      <c r="F97" s="142" t="s">
+        <v>723</v>
+      </c>
+      <c r="G97" s="142" t="s">
+        <v>724</v>
+      </c>
+      <c r="H97" s="142" t="s">
+        <v>725</v>
+      </c>
+      <c r="I97" s="142" t="s">
+        <v>725</v>
+      </c>
+      <c r="J97" s="142" t="s">
         <v>726</v>
+      </c>
+      <c r="K97" s="142" t="s">
+        <v>722</v>
       </c>
       <c r="M97" s="56"/>
       <c r="N97" s="57"/>
@@ -10513,16 +10729,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="186" t="s">
+      <c r="D168" s="159" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="186"/>
-      <c r="F168" s="186"/>
-      <c r="G168" s="186"/>
-      <c r="H168" s="186"/>
-      <c r="I168" s="186"/>
-      <c r="J168" s="186"/>
-      <c r="K168" s="186"/>
+      <c r="E168" s="159"/>
+      <c r="F168" s="159"/>
+      <c r="G168" s="159"/>
+      <c r="H168" s="159"/>
+      <c r="I168" s="159"/>
+      <c r="J168" s="159"/>
+      <c r="K168" s="159"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10648,16 +10864,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="186" t="s">
+      <c r="D175" s="159" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="186"/>
-      <c r="F175" s="186"/>
-      <c r="G175" s="186"/>
-      <c r="H175" s="186"/>
-      <c r="I175" s="186"/>
-      <c r="J175" s="186"/>
-      <c r="K175" s="186"/>
+      <c r="E175" s="159"/>
+      <c r="F175" s="159"/>
+      <c r="G175" s="159"/>
+      <c r="H175" s="159"/>
+      <c r="I175" s="159"/>
+      <c r="J175" s="159"/>
+      <c r="K175" s="159"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10710,16 +10926,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="187" t="s">
+      <c r="D178" s="160" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="186"/>
-      <c r="F178" s="186"/>
-      <c r="G178" s="186"/>
-      <c r="H178" s="186"/>
-      <c r="I178" s="186"/>
-      <c r="J178" s="186"/>
-      <c r="K178" s="186"/>
+      <c r="E178" s="159"/>
+      <c r="F178" s="159"/>
+      <c r="G178" s="159"/>
+      <c r="H178" s="159"/>
+      <c r="I178" s="159"/>
+      <c r="J178" s="159"/>
+      <c r="K178" s="159"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -10791,16 +11007,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="188" t="s">
+      <c r="D182" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="189"/>
-      <c r="F182" s="189"/>
-      <c r="G182" s="189"/>
-      <c r="H182" s="189"/>
-      <c r="I182" s="189"/>
-      <c r="J182" s="189"/>
-      <c r="K182" s="190"/>
+      <c r="E182" s="162"/>
+      <c r="F182" s="162"/>
+      <c r="G182" s="162"/>
+      <c r="H182" s="162"/>
+      <c r="I182" s="162"/>
+      <c r="J182" s="162"/>
+      <c r="K182" s="163"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -10812,16 +11028,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="188" t="s">
+      <c r="D183" s="161" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="189"/>
-      <c r="F183" s="189"/>
-      <c r="G183" s="189"/>
-      <c r="H183" s="189"/>
-      <c r="I183" s="189"/>
-      <c r="J183" s="189"/>
-      <c r="K183" s="190"/>
+      <c r="E183" s="162"/>
+      <c r="F183" s="162"/>
+      <c r="G183" s="162"/>
+      <c r="H183" s="162"/>
+      <c r="I183" s="162"/>
+      <c r="J183" s="162"/>
+      <c r="K183" s="163"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -10833,16 +11049,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="188" t="s">
+      <c r="D184" s="161" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="189"/>
-      <c r="F184" s="189"/>
-      <c r="G184" s="189"/>
-      <c r="H184" s="189"/>
-      <c r="I184" s="189"/>
-      <c r="J184" s="189"/>
-      <c r="K184" s="190"/>
+      <c r="E184" s="162"/>
+      <c r="F184" s="162"/>
+      <c r="G184" s="162"/>
+      <c r="H184" s="162"/>
+      <c r="I184" s="162"/>
+      <c r="J184" s="162"/>
+      <c r="K184" s="163"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -10854,16 +11070,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="188" t="s">
+      <c r="D185" s="161" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="189"/>
-      <c r="F185" s="189"/>
-      <c r="G185" s="189"/>
-      <c r="H185" s="189"/>
-      <c r="I185" s="189"/>
-      <c r="J185" s="189"/>
-      <c r="K185" s="190"/>
+      <c r="E185" s="162"/>
+      <c r="F185" s="162"/>
+      <c r="G185" s="162"/>
+      <c r="H185" s="162"/>
+      <c r="I185" s="162"/>
+      <c r="J185" s="162"/>
+      <c r="K185" s="163"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -10875,16 +11091,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="188" t="s">
+      <c r="D186" s="161" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="189"/>
-      <c r="F186" s="189"/>
-      <c r="G186" s="189"/>
-      <c r="H186" s="189"/>
-      <c r="I186" s="189"/>
-      <c r="J186" s="189"/>
-      <c r="K186" s="190"/>
+      <c r="E186" s="162"/>
+      <c r="F186" s="162"/>
+      <c r="G186" s="162"/>
+      <c r="H186" s="162"/>
+      <c r="I186" s="162"/>
+      <c r="J186" s="162"/>
+      <c r="K186" s="163"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -10896,16 +11112,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="188" t="s">
+      <c r="D187" s="161" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="189"/>
-      <c r="F187" s="189"/>
-      <c r="G187" s="189"/>
-      <c r="H187" s="189"/>
-      <c r="I187" s="189"/>
-      <c r="J187" s="189"/>
-      <c r="K187" s="190"/>
+      <c r="E187" s="162"/>
+      <c r="F187" s="162"/>
+      <c r="G187" s="162"/>
+      <c r="H187" s="162"/>
+      <c r="I187" s="162"/>
+      <c r="J187" s="162"/>
+      <c r="K187" s="163"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -10917,16 +11133,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="188" t="s">
+      <c r="D188" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="189"/>
-      <c r="F188" s="189"/>
-      <c r="G188" s="189"/>
-      <c r="H188" s="189"/>
-      <c r="I188" s="189"/>
-      <c r="J188" s="189"/>
-      <c r="K188" s="190"/>
+      <c r="E188" s="162"/>
+      <c r="F188" s="162"/>
+      <c r="G188" s="162"/>
+      <c r="H188" s="162"/>
+      <c r="I188" s="162"/>
+      <c r="J188" s="162"/>
+      <c r="K188" s="163"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -10938,16 +11154,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="188" t="s">
+      <c r="D189" s="161" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="189"/>
-      <c r="F189" s="189"/>
-      <c r="G189" s="189"/>
-      <c r="H189" s="189"/>
-      <c r="I189" s="189"/>
-      <c r="J189" s="189"/>
-      <c r="K189" s="190"/>
+      <c r="E189" s="162"/>
+      <c r="F189" s="162"/>
+      <c r="G189" s="162"/>
+      <c r="H189" s="162"/>
+      <c r="I189" s="162"/>
+      <c r="J189" s="162"/>
+      <c r="K189" s="163"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -10959,16 +11175,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="188" t="s">
+      <c r="D190" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="189"/>
-      <c r="F190" s="189"/>
-      <c r="G190" s="189"/>
-      <c r="H190" s="189"/>
-      <c r="I190" s="189"/>
-      <c r="J190" s="189"/>
-      <c r="K190" s="190"/>
+      <c r="E190" s="162"/>
+      <c r="F190" s="162"/>
+      <c r="G190" s="162"/>
+      <c r="H190" s="162"/>
+      <c r="I190" s="162"/>
+      <c r="J190" s="162"/>
+      <c r="K190" s="163"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -10980,16 +11196,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="188" t="s">
+      <c r="D191" s="161" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="189"/>
-      <c r="F191" s="189"/>
-      <c r="G191" s="189"/>
-      <c r="H191" s="189"/>
-      <c r="I191" s="189"/>
-      <c r="J191" s="189"/>
-      <c r="K191" s="190"/>
+      <c r="E191" s="162"/>
+      <c r="F191" s="162"/>
+      <c r="G191" s="162"/>
+      <c r="H191" s="162"/>
+      <c r="I191" s="162"/>
+      <c r="J191" s="162"/>
+      <c r="K191" s="163"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -11001,16 +11217,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="188" t="s">
+      <c r="D192" s="161" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="189"/>
-      <c r="F192" s="189"/>
-      <c r="G192" s="189"/>
-      <c r="H192" s="189"/>
-      <c r="I192" s="189"/>
-      <c r="J192" s="189"/>
-      <c r="K192" s="190"/>
+      <c r="E192" s="162"/>
+      <c r="F192" s="162"/>
+      <c r="G192" s="162"/>
+      <c r="H192" s="162"/>
+      <c r="I192" s="162"/>
+      <c r="J192" s="162"/>
+      <c r="K192" s="163"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -11022,16 +11238,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="191" t="s">
+      <c r="D193" s="164" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="192"/>
-      <c r="F193" s="192"/>
-      <c r="G193" s="192"/>
-      <c r="H193" s="192"/>
-      <c r="I193" s="192"/>
-      <c r="J193" s="192"/>
-      <c r="K193" s="193"/>
+      <c r="E193" s="165"/>
+      <c r="F193" s="165"/>
+      <c r="G193" s="165"/>
+      <c r="H193" s="165"/>
+      <c r="I193" s="165"/>
+      <c r="J193" s="165"/>
+      <c r="K193" s="166"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -11046,16 +11262,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="194" t="s">
+      <c r="D194" s="167" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="195"/>
-      <c r="F194" s="195"/>
-      <c r="G194" s="195"/>
-      <c r="H194" s="195"/>
-      <c r="I194" s="195"/>
-      <c r="J194" s="195"/>
-      <c r="K194" s="196"/>
+      <c r="E194" s="168"/>
+      <c r="F194" s="168"/>
+      <c r="G194" s="168"/>
+      <c r="H194" s="168"/>
+      <c r="I194" s="168"/>
+      <c r="J194" s="168"/>
+      <c r="K194" s="169"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -11067,16 +11283,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="188" t="s">
+      <c r="D195" s="161" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="189"/>
-      <c r="F195" s="189"/>
-      <c r="G195" s="189"/>
-      <c r="H195" s="189"/>
-      <c r="I195" s="189"/>
-      <c r="J195" s="189"/>
-      <c r="K195" s="190"/>
+      <c r="E195" s="162"/>
+      <c r="F195" s="162"/>
+      <c r="G195" s="162"/>
+      <c r="H195" s="162"/>
+      <c r="I195" s="162"/>
+      <c r="J195" s="162"/>
+      <c r="K195" s="163"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -11088,16 +11304,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="188" t="s">
+      <c r="D196" s="161" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="189"/>
-      <c r="F196" s="189"/>
-      <c r="G196" s="189"/>
-      <c r="H196" s="189"/>
-      <c r="I196" s="189"/>
-      <c r="J196" s="189"/>
-      <c r="K196" s="190"/>
+      <c r="E196" s="162"/>
+      <c r="F196" s="162"/>
+      <c r="G196" s="162"/>
+      <c r="H196" s="162"/>
+      <c r="I196" s="162"/>
+      <c r="J196" s="162"/>
+      <c r="K196" s="163"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -11109,16 +11325,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="188" t="s">
+      <c r="D197" s="161" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="189"/>
-      <c r="F197" s="189"/>
-      <c r="G197" s="189"/>
-      <c r="H197" s="189"/>
-      <c r="I197" s="189"/>
-      <c r="J197" s="189"/>
-      <c r="K197" s="190"/>
+      <c r="E197" s="162"/>
+      <c r="F197" s="162"/>
+      <c r="G197" s="162"/>
+      <c r="H197" s="162"/>
+      <c r="I197" s="162"/>
+      <c r="J197" s="162"/>
+      <c r="K197" s="163"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -11130,16 +11346,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="188" t="s">
+      <c r="D198" s="161" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="189"/>
-      <c r="F198" s="189"/>
-      <c r="G198" s="189"/>
-      <c r="H198" s="189"/>
-      <c r="I198" s="189"/>
-      <c r="J198" s="189"/>
-      <c r="K198" s="190"/>
+      <c r="E198" s="162"/>
+      <c r="F198" s="162"/>
+      <c r="G198" s="162"/>
+      <c r="H198" s="162"/>
+      <c r="I198" s="162"/>
+      <c r="J198" s="162"/>
+      <c r="K198" s="163"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -11170,16 +11386,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="188" t="s">
+      <c r="D200" s="161" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="189"/>
-      <c r="F200" s="189"/>
-      <c r="G200" s="189"/>
-      <c r="H200" s="189"/>
-      <c r="I200" s="189"/>
-      <c r="J200" s="189"/>
-      <c r="K200" s="190"/>
+      <c r="E200" s="162"/>
+      <c r="F200" s="162"/>
+      <c r="G200" s="162"/>
+      <c r="H200" s="162"/>
+      <c r="I200" s="162"/>
+      <c r="J200" s="162"/>
+      <c r="K200" s="163"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -11210,16 +11426,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="218" t="s">
+      <c r="D202" s="191" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="219"/>
-      <c r="F202" s="219"/>
-      <c r="G202" s="219"/>
-      <c r="H202" s="219"/>
-      <c r="I202" s="219"/>
-      <c r="J202" s="219"/>
-      <c r="K202" s="220"/>
+      <c r="E202" s="192"/>
+      <c r="F202" s="192"/>
+      <c r="G202" s="192"/>
+      <c r="H202" s="192"/>
+      <c r="I202" s="192"/>
+      <c r="J202" s="192"/>
+      <c r="K202" s="193"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -11250,16 +11466,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="188" t="s">
+      <c r="D204" s="161" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="189"/>
-      <c r="F204" s="189"/>
-      <c r="G204" s="189"/>
-      <c r="H204" s="189"/>
-      <c r="I204" s="189"/>
-      <c r="J204" s="189"/>
-      <c r="K204" s="190"/>
+      <c r="E204" s="162"/>
+      <c r="F204" s="162"/>
+      <c r="G204" s="162"/>
+      <c r="H204" s="162"/>
+      <c r="I204" s="162"/>
+      <c r="J204" s="162"/>
+      <c r="K204" s="163"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -11290,16 +11506,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="188" t="s">
+      <c r="D206" s="161" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="189"/>
-      <c r="F206" s="189"/>
-      <c r="G206" s="189"/>
-      <c r="H206" s="189"/>
-      <c r="I206" s="189"/>
-      <c r="J206" s="189"/>
-      <c r="K206" s="190"/>
+      <c r="E206" s="162"/>
+      <c r="F206" s="162"/>
+      <c r="G206" s="162"/>
+      <c r="H206" s="162"/>
+      <c r="I206" s="162"/>
+      <c r="J206" s="162"/>
+      <c r="K206" s="163"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -11330,16 +11546,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="188" t="s">
+      <c r="D208" s="161" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="189"/>
-      <c r="F208" s="189"/>
-      <c r="G208" s="189"/>
-      <c r="H208" s="189"/>
-      <c r="I208" s="189"/>
-      <c r="J208" s="189"/>
-      <c r="K208" s="190"/>
+      <c r="E208" s="162"/>
+      <c r="F208" s="162"/>
+      <c r="G208" s="162"/>
+      <c r="H208" s="162"/>
+      <c r="I208" s="162"/>
+      <c r="J208" s="162"/>
+      <c r="K208" s="163"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -11373,16 +11589,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="194" t="s">
+      <c r="D210" s="167" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="195"/>
-      <c r="F210" s="195"/>
-      <c r="G210" s="195"/>
-      <c r="H210" s="195"/>
-      <c r="I210" s="195"/>
-      <c r="J210" s="195"/>
-      <c r="K210" s="196"/>
+      <c r="E210" s="168"/>
+      <c r="F210" s="168"/>
+      <c r="G210" s="168"/>
+      <c r="H210" s="168"/>
+      <c r="I210" s="168"/>
+      <c r="J210" s="168"/>
+      <c r="K210" s="169"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -11451,16 +11667,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="188" t="s">
+      <c r="D214" s="161" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="189"/>
-      <c r="F214" s="189"/>
-      <c r="G214" s="189"/>
-      <c r="H214" s="189"/>
-      <c r="I214" s="189"/>
-      <c r="J214" s="189"/>
-      <c r="K214" s="190"/>
+      <c r="E214" s="162"/>
+      <c r="F214" s="162"/>
+      <c r="G214" s="162"/>
+      <c r="H214" s="162"/>
+      <c r="I214" s="162"/>
+      <c r="J214" s="162"/>
+      <c r="K214" s="163"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -11491,16 +11707,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="209" t="s">
+      <c r="D216" s="182" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="201"/>
-      <c r="F216" s="201"/>
-      <c r="G216" s="201"/>
-      <c r="H216" s="201"/>
-      <c r="I216" s="201"/>
-      <c r="J216" s="201"/>
-      <c r="K216" s="210"/>
+      <c r="E216" s="174"/>
+      <c r="F216" s="174"/>
+      <c r="G216" s="174"/>
+      <c r="H216" s="174"/>
+      <c r="I216" s="174"/>
+      <c r="J216" s="174"/>
+      <c r="K216" s="183"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11512,14 +11728,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="194"/>
-      <c r="E217" s="195"/>
-      <c r="F217" s="195"/>
-      <c r="G217" s="195"/>
-      <c r="H217" s="195"/>
-      <c r="I217" s="195"/>
-      <c r="J217" s="195"/>
-      <c r="K217" s="196"/>
+      <c r="D217" s="167"/>
+      <c r="E217" s="168"/>
+      <c r="F217" s="168"/>
+      <c r="G217" s="168"/>
+      <c r="H217" s="168"/>
+      <c r="I217" s="168"/>
+      <c r="J217" s="168"/>
+      <c r="K217" s="169"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11531,16 +11747,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="209" t="s">
+      <c r="D218" s="182" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="201"/>
-      <c r="F218" s="201"/>
-      <c r="G218" s="201"/>
-      <c r="H218" s="201"/>
-      <c r="I218" s="201"/>
-      <c r="J218" s="201"/>
-      <c r="K218" s="210"/>
+      <c r="E218" s="174"/>
+      <c r="F218" s="174"/>
+      <c r="G218" s="174"/>
+      <c r="H218" s="174"/>
+      <c r="I218" s="174"/>
+      <c r="J218" s="174"/>
+      <c r="K218" s="183"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11552,14 +11768,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="194"/>
-      <c r="E219" s="195"/>
-      <c r="F219" s="195"/>
-      <c r="G219" s="195"/>
-      <c r="H219" s="195"/>
-      <c r="I219" s="195"/>
-      <c r="J219" s="195"/>
-      <c r="K219" s="196"/>
+      <c r="D219" s="167"/>
+      <c r="E219" s="168"/>
+      <c r="F219" s="168"/>
+      <c r="G219" s="168"/>
+      <c r="H219" s="168"/>
+      <c r="I219" s="168"/>
+      <c r="J219" s="168"/>
+      <c r="K219" s="169"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11571,16 +11787,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="209" t="s">
+      <c r="D220" s="182" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="201"/>
-      <c r="F220" s="201"/>
-      <c r="G220" s="201"/>
-      <c r="H220" s="201"/>
-      <c r="I220" s="201"/>
-      <c r="J220" s="201"/>
-      <c r="K220" s="210"/>
+      <c r="E220" s="174"/>
+      <c r="F220" s="174"/>
+      <c r="G220" s="174"/>
+      <c r="H220" s="174"/>
+      <c r="I220" s="174"/>
+      <c r="J220" s="174"/>
+      <c r="K220" s="183"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11592,14 +11808,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="194"/>
-      <c r="E221" s="195"/>
-      <c r="F221" s="195"/>
-      <c r="G221" s="195"/>
-      <c r="H221" s="195"/>
-      <c r="I221" s="195"/>
-      <c r="J221" s="195"/>
-      <c r="K221" s="196"/>
+      <c r="D221" s="167"/>
+      <c r="E221" s="168"/>
+      <c r="F221" s="168"/>
+      <c r="G221" s="168"/>
+      <c r="H221" s="168"/>
+      <c r="I221" s="168"/>
+      <c r="J221" s="168"/>
+      <c r="K221" s="169"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11611,16 +11827,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="188" t="s">
+      <c r="D222" s="161" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="189"/>
-      <c r="F222" s="189"/>
-      <c r="G222" s="189"/>
-      <c r="H222" s="189"/>
-      <c r="I222" s="189"/>
-      <c r="J222" s="189"/>
-      <c r="K222" s="190"/>
+      <c r="E222" s="162"/>
+      <c r="F222" s="162"/>
+      <c r="G222" s="162"/>
+      <c r="H222" s="162"/>
+      <c r="I222" s="162"/>
+      <c r="J222" s="162"/>
+      <c r="K222" s="163"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11651,16 +11867,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="188" t="s">
+      <c r="D224" s="161" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="189"/>
-      <c r="F224" s="189"/>
-      <c r="G224" s="189"/>
-      <c r="H224" s="189"/>
-      <c r="I224" s="189"/>
-      <c r="J224" s="189"/>
-      <c r="K224" s="190"/>
+      <c r="E224" s="162"/>
+      <c r="F224" s="162"/>
+      <c r="G224" s="162"/>
+      <c r="H224" s="162"/>
+      <c r="I224" s="162"/>
+      <c r="J224" s="162"/>
+      <c r="K224" s="163"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11694,16 +11910,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="215" t="s">
+      <c r="D226" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="216"/>
-      <c r="F226" s="216"/>
-      <c r="G226" s="216"/>
-      <c r="H226" s="216"/>
-      <c r="I226" s="216"/>
-      <c r="J226" s="216"/>
-      <c r="K226" s="217"/>
+      <c r="E226" s="189"/>
+      <c r="F226" s="189"/>
+      <c r="G226" s="189"/>
+      <c r="H226" s="189"/>
+      <c r="I226" s="189"/>
+      <c r="J226" s="189"/>
+      <c r="K226" s="190"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -11848,16 +12064,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="213" t="s">
+      <c r="D234" s="186" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="198"/>
-      <c r="F234" s="198"/>
-      <c r="G234" s="198"/>
-      <c r="H234" s="198"/>
-      <c r="I234" s="198"/>
-      <c r="J234" s="198"/>
-      <c r="K234" s="214"/>
+      <c r="E234" s="171"/>
+      <c r="F234" s="171"/>
+      <c r="G234" s="171"/>
+      <c r="H234" s="171"/>
+      <c r="I234" s="171"/>
+      <c r="J234" s="171"/>
+      <c r="K234" s="187"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -11926,16 +12142,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="205" t="s">
+      <c r="D238" s="178" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="201"/>
-      <c r="F238" s="201"/>
-      <c r="G238" s="201"/>
-      <c r="H238" s="201"/>
-      <c r="I238" s="201"/>
-      <c r="J238" s="201"/>
-      <c r="K238" s="202"/>
+      <c r="E238" s="174"/>
+      <c r="F238" s="174"/>
+      <c r="G238" s="174"/>
+      <c r="H238" s="174"/>
+      <c r="I238" s="174"/>
+      <c r="J238" s="174"/>
+      <c r="K238" s="175"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -11947,14 +12163,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="211"/>
-      <c r="E239" s="195"/>
-      <c r="F239" s="195"/>
-      <c r="G239" s="195"/>
-      <c r="H239" s="195"/>
-      <c r="I239" s="195"/>
-      <c r="J239" s="195"/>
-      <c r="K239" s="212"/>
+      <c r="D239" s="184"/>
+      <c r="E239" s="168"/>
+      <c r="F239" s="168"/>
+      <c r="G239" s="168"/>
+      <c r="H239" s="168"/>
+      <c r="I239" s="168"/>
+      <c r="J239" s="168"/>
+      <c r="K239" s="185"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -11966,16 +12182,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="201" t="s">
+      <c r="D240" s="174" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="201"/>
-      <c r="F240" s="201"/>
-      <c r="G240" s="201"/>
-      <c r="H240" s="201"/>
-      <c r="I240" s="201"/>
-      <c r="J240" s="201"/>
-      <c r="K240" s="202"/>
+      <c r="E240" s="174"/>
+      <c r="F240" s="174"/>
+      <c r="G240" s="174"/>
+      <c r="H240" s="174"/>
+      <c r="I240" s="174"/>
+      <c r="J240" s="174"/>
+      <c r="K240" s="175"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -11987,14 +12203,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="203"/>
-      <c r="E241" s="203"/>
-      <c r="F241" s="203"/>
-      <c r="G241" s="203"/>
-      <c r="H241" s="203"/>
-      <c r="I241" s="203"/>
-      <c r="J241" s="203"/>
-      <c r="K241" s="204"/>
+      <c r="D241" s="176"/>
+      <c r="E241" s="176"/>
+      <c r="F241" s="176"/>
+      <c r="G241" s="176"/>
+      <c r="H241" s="176"/>
+      <c r="I241" s="176"/>
+      <c r="J241" s="176"/>
+      <c r="K241" s="177"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -12185,16 +12401,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="197" t="s">
+      <c r="D250" s="170" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="198"/>
-      <c r="F250" s="198"/>
-      <c r="G250" s="198"/>
-      <c r="H250" s="198"/>
-      <c r="I250" s="198"/>
-      <c r="J250" s="198"/>
-      <c r="K250" s="199"/>
+      <c r="E250" s="171"/>
+      <c r="F250" s="171"/>
+      <c r="G250" s="171"/>
+      <c r="H250" s="171"/>
+      <c r="I250" s="171"/>
+      <c r="J250" s="171"/>
+      <c r="K250" s="172"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12763,16 +12979,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="200" t="s">
+      <c r="D280" s="173" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="189"/>
-      <c r="F280" s="189"/>
-      <c r="G280" s="189"/>
-      <c r="H280" s="189"/>
-      <c r="I280" s="189"/>
-      <c r="J280" s="189"/>
-      <c r="K280" s="190"/>
+      <c r="E280" s="162"/>
+      <c r="F280" s="162"/>
+      <c r="G280" s="162"/>
+      <c r="H280" s="162"/>
+      <c r="I280" s="162"/>
+      <c r="J280" s="162"/>
+      <c r="K280" s="163"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -12879,16 +13095,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="200" t="s">
+      <c r="D286" s="173" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="189"/>
-      <c r="F286" s="189"/>
-      <c r="G286" s="189"/>
-      <c r="H286" s="189"/>
-      <c r="I286" s="189"/>
-      <c r="J286" s="189"/>
-      <c r="K286" s="190"/>
+      <c r="E286" s="162"/>
+      <c r="F286" s="162"/>
+      <c r="G286" s="162"/>
+      <c r="H286" s="162"/>
+      <c r="I286" s="162"/>
+      <c r="J286" s="162"/>
+      <c r="K286" s="163"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -13076,16 +13292,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="188" t="s">
+      <c r="D296" s="161" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="189"/>
-      <c r="F296" s="189"/>
-      <c r="G296" s="189"/>
-      <c r="H296" s="189"/>
-      <c r="I296" s="189"/>
-      <c r="J296" s="189"/>
-      <c r="K296" s="190"/>
+      <c r="E296" s="162"/>
+      <c r="F296" s="162"/>
+      <c r="G296" s="162"/>
+      <c r="H296" s="162"/>
+      <c r="I296" s="162"/>
+      <c r="J296" s="162"/>
+      <c r="K296" s="163"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -13116,16 +13332,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="205" t="s">
+      <c r="D298" s="178" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="201"/>
-      <c r="F298" s="201"/>
-      <c r="G298" s="201"/>
-      <c r="H298" s="201"/>
-      <c r="I298" s="201"/>
-      <c r="J298" s="201"/>
-      <c r="K298" s="202"/>
+      <c r="E298" s="174"/>
+      <c r="F298" s="174"/>
+      <c r="G298" s="174"/>
+      <c r="H298" s="174"/>
+      <c r="I298" s="174"/>
+      <c r="J298" s="174"/>
+      <c r="K298" s="175"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -13137,14 +13353,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="211"/>
-      <c r="E299" s="195"/>
-      <c r="F299" s="195"/>
-      <c r="G299" s="195"/>
-      <c r="H299" s="195"/>
-      <c r="I299" s="195"/>
-      <c r="J299" s="195"/>
-      <c r="K299" s="212"/>
+      <c r="D299" s="184"/>
+      <c r="E299" s="168"/>
+      <c r="F299" s="168"/>
+      <c r="G299" s="168"/>
+      <c r="H299" s="168"/>
+      <c r="I299" s="168"/>
+      <c r="J299" s="168"/>
+      <c r="K299" s="185"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -13156,16 +13372,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="205" t="s">
+      <c r="D300" s="178" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="201"/>
-      <c r="F300" s="201"/>
-      <c r="G300" s="201"/>
-      <c r="H300" s="201"/>
-      <c r="I300" s="201"/>
-      <c r="J300" s="201"/>
-      <c r="K300" s="202"/>
+      <c r="E300" s="174"/>
+      <c r="F300" s="174"/>
+      <c r="G300" s="174"/>
+      <c r="H300" s="174"/>
+      <c r="I300" s="174"/>
+      <c r="J300" s="174"/>
+      <c r="K300" s="175"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -13177,14 +13393,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="211"/>
-      <c r="E301" s="195"/>
-      <c r="F301" s="195"/>
-      <c r="G301" s="195"/>
-      <c r="H301" s="195"/>
-      <c r="I301" s="195"/>
-      <c r="J301" s="195"/>
-      <c r="K301" s="212"/>
+      <c r="D301" s="184"/>
+      <c r="E301" s="168"/>
+      <c r="F301" s="168"/>
+      <c r="G301" s="168"/>
+      <c r="H301" s="168"/>
+      <c r="I301" s="168"/>
+      <c r="J301" s="168"/>
+      <c r="K301" s="185"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -13196,16 +13412,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="205" t="s">
+      <c r="D302" s="178" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="201"/>
-      <c r="F302" s="201"/>
-      <c r="G302" s="201"/>
-      <c r="H302" s="201"/>
-      <c r="I302" s="201"/>
-      <c r="J302" s="201"/>
-      <c r="K302" s="202"/>
+      <c r="E302" s="174"/>
+      <c r="F302" s="174"/>
+      <c r="G302" s="174"/>
+      <c r="H302" s="174"/>
+      <c r="I302" s="174"/>
+      <c r="J302" s="174"/>
+      <c r="K302" s="175"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -13217,14 +13433,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="211"/>
-      <c r="E303" s="195"/>
-      <c r="F303" s="195"/>
-      <c r="G303" s="195"/>
-      <c r="H303" s="195"/>
-      <c r="I303" s="195"/>
-      <c r="J303" s="195"/>
-      <c r="K303" s="212"/>
+      <c r="D303" s="184"/>
+      <c r="E303" s="168"/>
+      <c r="F303" s="168"/>
+      <c r="G303" s="168"/>
+      <c r="H303" s="168"/>
+      <c r="I303" s="168"/>
+      <c r="J303" s="168"/>
+      <c r="K303" s="185"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -13236,16 +13452,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="205" t="s">
+      <c r="D304" s="178" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="201"/>
-      <c r="F304" s="201"/>
-      <c r="G304" s="201"/>
-      <c r="H304" s="201"/>
-      <c r="I304" s="201"/>
-      <c r="J304" s="201"/>
-      <c r="K304" s="202"/>
+      <c r="E304" s="174"/>
+      <c r="F304" s="174"/>
+      <c r="G304" s="174"/>
+      <c r="H304" s="174"/>
+      <c r="I304" s="174"/>
+      <c r="J304" s="174"/>
+      <c r="K304" s="175"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -13257,14 +13473,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="211"/>
-      <c r="E305" s="195"/>
-      <c r="F305" s="195"/>
-      <c r="G305" s="195"/>
-      <c r="H305" s="195"/>
-      <c r="I305" s="195"/>
-      <c r="J305" s="195"/>
-      <c r="K305" s="212"/>
+      <c r="D305" s="184"/>
+      <c r="E305" s="168"/>
+      <c r="F305" s="168"/>
+      <c r="G305" s="168"/>
+      <c r="H305" s="168"/>
+      <c r="I305" s="168"/>
+      <c r="J305" s="168"/>
+      <c r="K305" s="185"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -13279,16 +13495,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="205" t="s">
+      <c r="D306" s="178" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="201"/>
-      <c r="F306" s="201"/>
-      <c r="G306" s="201"/>
-      <c r="H306" s="201"/>
-      <c r="I306" s="201"/>
-      <c r="J306" s="201"/>
-      <c r="K306" s="202"/>
+      <c r="E306" s="174"/>
+      <c r="F306" s="174"/>
+      <c r="G306" s="174"/>
+      <c r="H306" s="174"/>
+      <c r="I306" s="174"/>
+      <c r="J306" s="174"/>
+      <c r="K306" s="175"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -13300,14 +13516,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="211"/>
-      <c r="E307" s="195"/>
-      <c r="F307" s="195"/>
-      <c r="G307" s="195"/>
-      <c r="H307" s="195"/>
-      <c r="I307" s="195"/>
-      <c r="J307" s="195"/>
-      <c r="K307" s="212"/>
+      <c r="D307" s="184"/>
+      <c r="E307" s="168"/>
+      <c r="F307" s="168"/>
+      <c r="G307" s="168"/>
+      <c r="H307" s="168"/>
+      <c r="I307" s="168"/>
+      <c r="J307" s="168"/>
+      <c r="K307" s="185"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -13319,16 +13535,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="205" t="s">
+      <c r="D308" s="178" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="201"/>
-      <c r="F308" s="201"/>
-      <c r="G308" s="201"/>
-      <c r="H308" s="201"/>
-      <c r="I308" s="201"/>
-      <c r="J308" s="201"/>
-      <c r="K308" s="202"/>
+      <c r="E308" s="174"/>
+      <c r="F308" s="174"/>
+      <c r="G308" s="174"/>
+      <c r="H308" s="174"/>
+      <c r="I308" s="174"/>
+      <c r="J308" s="174"/>
+      <c r="K308" s="175"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -13340,14 +13556,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="211"/>
-      <c r="E309" s="195"/>
-      <c r="F309" s="195"/>
-      <c r="G309" s="195"/>
-      <c r="H309" s="195"/>
-      <c r="I309" s="195"/>
-      <c r="J309" s="195"/>
-      <c r="K309" s="212"/>
+      <c r="D309" s="184"/>
+      <c r="E309" s="168"/>
+      <c r="F309" s="168"/>
+      <c r="G309" s="168"/>
+      <c r="H309" s="168"/>
+      <c r="I309" s="168"/>
+      <c r="J309" s="168"/>
+      <c r="K309" s="185"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21634,16 +21850,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="221" t="s">
-        <v>480</v>
-      </c>
-      <c r="E954" s="222"/>
-      <c r="F954" s="222"/>
-      <c r="G954" s="222"/>
-      <c r="H954" s="222"/>
-      <c r="I954" s="222"/>
-      <c r="J954" s="222"/>
-      <c r="K954" s="222"/>
+      <c r="D954" s="194" t="s">
+        <v>476</v>
+      </c>
+      <c r="E954" s="195"/>
+      <c r="F954" s="195"/>
+      <c r="G954" s="195"/>
+      <c r="H954" s="195"/>
+      <c r="I954" s="195"/>
+      <c r="J954" s="195"/>
+      <c r="K954" s="195"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24546,7 +24762,7 @@
   <dimension ref="A1:O513"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -24617,16 +24833,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="202"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24648,14 +24864,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="208"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="181"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -30904,16 +31120,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="186" t="s">
+      <c r="D178" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="186"/>
-      <c r="F178" s="186"/>
-      <c r="G178" s="186"/>
-      <c r="H178" s="186"/>
-      <c r="I178" s="186"/>
-      <c r="J178" s="186"/>
-      <c r="K178" s="186"/>
+      <c r="E178" s="159"/>
+      <c r="F178" s="159"/>
+      <c r="G178" s="159"/>
+      <c r="H178" s="159"/>
+      <c r="I178" s="159"/>
+      <c r="J178" s="159"/>
+      <c r="K178" s="159"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -30982,16 +31198,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="188" t="s">
+      <c r="D182" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="189"/>
-      <c r="F182" s="189"/>
-      <c r="G182" s="189"/>
-      <c r="H182" s="189"/>
-      <c r="I182" s="189"/>
-      <c r="J182" s="189"/>
-      <c r="K182" s="190"/>
+      <c r="E182" s="162"/>
+      <c r="F182" s="162"/>
+      <c r="G182" s="162"/>
+      <c r="H182" s="162"/>
+      <c r="I182" s="162"/>
+      <c r="J182" s="162"/>
+      <c r="K182" s="163"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -31003,16 +31219,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="188" t="s">
+      <c r="D183" s="161" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="189"/>
-      <c r="F183" s="189"/>
-      <c r="G183" s="189"/>
-      <c r="H183" s="189"/>
-      <c r="I183" s="189"/>
-      <c r="J183" s="189"/>
-      <c r="K183" s="190"/>
+      <c r="E183" s="162"/>
+      <c r="F183" s="162"/>
+      <c r="G183" s="162"/>
+      <c r="H183" s="162"/>
+      <c r="I183" s="162"/>
+      <c r="J183" s="162"/>
+      <c r="K183" s="163"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -31024,16 +31240,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="188" t="s">
+      <c r="D184" s="161" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="189"/>
-      <c r="F184" s="189"/>
-      <c r="G184" s="189"/>
-      <c r="H184" s="189"/>
-      <c r="I184" s="189"/>
-      <c r="J184" s="189"/>
-      <c r="K184" s="190"/>
+      <c r="E184" s="162"/>
+      <c r="F184" s="162"/>
+      <c r="G184" s="162"/>
+      <c r="H184" s="162"/>
+      <c r="I184" s="162"/>
+      <c r="J184" s="162"/>
+      <c r="K184" s="163"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -31045,16 +31261,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="188" t="s">
+      <c r="D185" s="161" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="189"/>
-      <c r="F185" s="189"/>
-      <c r="G185" s="189"/>
-      <c r="H185" s="189"/>
-      <c r="I185" s="189"/>
-      <c r="J185" s="189"/>
-      <c r="K185" s="190"/>
+      <c r="E185" s="162"/>
+      <c r="F185" s="162"/>
+      <c r="G185" s="162"/>
+      <c r="H185" s="162"/>
+      <c r="I185" s="162"/>
+      <c r="J185" s="162"/>
+      <c r="K185" s="163"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -31066,16 +31282,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="188" t="s">
+      <c r="D186" s="161" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="189"/>
-      <c r="F186" s="189"/>
-      <c r="G186" s="189"/>
-      <c r="H186" s="189"/>
-      <c r="I186" s="189"/>
-      <c r="J186" s="189"/>
-      <c r="K186" s="190"/>
+      <c r="E186" s="162"/>
+      <c r="F186" s="162"/>
+      <c r="G186" s="162"/>
+      <c r="H186" s="162"/>
+      <c r="I186" s="162"/>
+      <c r="J186" s="162"/>
+      <c r="K186" s="163"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -31087,16 +31303,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="188" t="s">
+      <c r="D187" s="161" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="189"/>
-      <c r="F187" s="189"/>
-      <c r="G187" s="189"/>
-      <c r="H187" s="189"/>
-      <c r="I187" s="189"/>
-      <c r="J187" s="189"/>
-      <c r="K187" s="190"/>
+      <c r="E187" s="162"/>
+      <c r="F187" s="162"/>
+      <c r="G187" s="162"/>
+      <c r="H187" s="162"/>
+      <c r="I187" s="162"/>
+      <c r="J187" s="162"/>
+      <c r="K187" s="163"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -31108,16 +31324,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="188" t="s">
+      <c r="D188" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="189"/>
-      <c r="F188" s="189"/>
-      <c r="G188" s="189"/>
-      <c r="H188" s="189"/>
-      <c r="I188" s="189"/>
-      <c r="J188" s="189"/>
-      <c r="K188" s="190"/>
+      <c r="E188" s="162"/>
+      <c r="F188" s="162"/>
+      <c r="G188" s="162"/>
+      <c r="H188" s="162"/>
+      <c r="I188" s="162"/>
+      <c r="J188" s="162"/>
+      <c r="K188" s="163"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -31129,16 +31345,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="188" t="s">
+      <c r="D189" s="161" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="189"/>
-      <c r="F189" s="189"/>
-      <c r="G189" s="189"/>
-      <c r="H189" s="189"/>
-      <c r="I189" s="189"/>
-      <c r="J189" s="189"/>
-      <c r="K189" s="190"/>
+      <c r="E189" s="162"/>
+      <c r="F189" s="162"/>
+      <c r="G189" s="162"/>
+      <c r="H189" s="162"/>
+      <c r="I189" s="162"/>
+      <c r="J189" s="162"/>
+      <c r="K189" s="163"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -31150,16 +31366,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="188" t="s">
+      <c r="D190" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="189"/>
-      <c r="F190" s="189"/>
-      <c r="G190" s="189"/>
-      <c r="H190" s="189"/>
-      <c r="I190" s="189"/>
-      <c r="J190" s="189"/>
-      <c r="K190" s="190"/>
+      <c r="E190" s="162"/>
+      <c r="F190" s="162"/>
+      <c r="G190" s="162"/>
+      <c r="H190" s="162"/>
+      <c r="I190" s="162"/>
+      <c r="J190" s="162"/>
+      <c r="K190" s="163"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -31171,16 +31387,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="188" t="s">
+      <c r="D191" s="161" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="189"/>
-      <c r="F191" s="189"/>
-      <c r="G191" s="189"/>
-      <c r="H191" s="189"/>
-      <c r="I191" s="189"/>
-      <c r="J191" s="189"/>
-      <c r="K191" s="190"/>
+      <c r="E191" s="162"/>
+      <c r="F191" s="162"/>
+      <c r="G191" s="162"/>
+      <c r="H191" s="162"/>
+      <c r="I191" s="162"/>
+      <c r="J191" s="162"/>
+      <c r="K191" s="163"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -31192,16 +31408,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="188" t="s">
+      <c r="D192" s="161" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="189"/>
-      <c r="F192" s="189"/>
-      <c r="G192" s="189"/>
-      <c r="H192" s="189"/>
-      <c r="I192" s="189"/>
-      <c r="J192" s="189"/>
-      <c r="K192" s="190"/>
+      <c r="E192" s="162"/>
+      <c r="F192" s="162"/>
+      <c r="G192" s="162"/>
+      <c r="H192" s="162"/>
+      <c r="I192" s="162"/>
+      <c r="J192" s="162"/>
+      <c r="K192" s="163"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -31213,16 +31429,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="191" t="s">
+      <c r="D193" s="164" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="192"/>
-      <c r="F193" s="192"/>
-      <c r="G193" s="192"/>
-      <c r="H193" s="192"/>
-      <c r="I193" s="192"/>
-      <c r="J193" s="192"/>
-      <c r="K193" s="193"/>
+      <c r="E193" s="165"/>
+      <c r="F193" s="165"/>
+      <c r="G193" s="165"/>
+      <c r="H193" s="165"/>
+      <c r="I193" s="165"/>
+      <c r="J193" s="165"/>
+      <c r="K193" s="166"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -31237,16 +31453,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="194" t="s">
+      <c r="D194" s="167" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="195"/>
-      <c r="F194" s="195"/>
-      <c r="G194" s="195"/>
-      <c r="H194" s="195"/>
-      <c r="I194" s="195"/>
-      <c r="J194" s="195"/>
-      <c r="K194" s="196"/>
+      <c r="E194" s="168"/>
+      <c r="F194" s="168"/>
+      <c r="G194" s="168"/>
+      <c r="H194" s="168"/>
+      <c r="I194" s="168"/>
+      <c r="J194" s="168"/>
+      <c r="K194" s="169"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -31258,16 +31474,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="188" t="s">
+      <c r="D195" s="161" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="189"/>
-      <c r="F195" s="189"/>
-      <c r="G195" s="189"/>
-      <c r="H195" s="189"/>
-      <c r="I195" s="189"/>
-      <c r="J195" s="189"/>
-      <c r="K195" s="190"/>
+      <c r="E195" s="162"/>
+      <c r="F195" s="162"/>
+      <c r="G195" s="162"/>
+      <c r="H195" s="162"/>
+      <c r="I195" s="162"/>
+      <c r="J195" s="162"/>
+      <c r="K195" s="163"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -31279,16 +31495,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="188" t="s">
+      <c r="D196" s="161" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="189"/>
-      <c r="F196" s="189"/>
-      <c r="G196" s="189"/>
-      <c r="H196" s="189"/>
-      <c r="I196" s="189"/>
-      <c r="J196" s="189"/>
-      <c r="K196" s="190"/>
+      <c r="E196" s="162"/>
+      <c r="F196" s="162"/>
+      <c r="G196" s="162"/>
+      <c r="H196" s="162"/>
+      <c r="I196" s="162"/>
+      <c r="J196" s="162"/>
+      <c r="K196" s="163"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -31300,16 +31516,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="188" t="s">
+      <c r="D197" s="161" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="189"/>
-      <c r="F197" s="189"/>
-      <c r="G197" s="189"/>
-      <c r="H197" s="189"/>
-      <c r="I197" s="189"/>
-      <c r="J197" s="189"/>
-      <c r="K197" s="190"/>
+      <c r="E197" s="162"/>
+      <c r="F197" s="162"/>
+      <c r="G197" s="162"/>
+      <c r="H197" s="162"/>
+      <c r="I197" s="162"/>
+      <c r="J197" s="162"/>
+      <c r="K197" s="163"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -31321,16 +31537,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="188" t="s">
+      <c r="D198" s="161" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="189"/>
-      <c r="F198" s="189"/>
-      <c r="G198" s="189"/>
-      <c r="H198" s="189"/>
-      <c r="I198" s="189"/>
-      <c r="J198" s="189"/>
-      <c r="K198" s="190"/>
+      <c r="E198" s="162"/>
+      <c r="F198" s="162"/>
+      <c r="G198" s="162"/>
+      <c r="H198" s="162"/>
+      <c r="I198" s="162"/>
+      <c r="J198" s="162"/>
+      <c r="K198" s="163"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -31361,16 +31577,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="188" t="s">
+      <c r="D200" s="161" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="189"/>
-      <c r="F200" s="189"/>
-      <c r="G200" s="189"/>
-      <c r="H200" s="189"/>
-      <c r="I200" s="189"/>
-      <c r="J200" s="189"/>
-      <c r="K200" s="190"/>
+      <c r="E200" s="162"/>
+      <c r="F200" s="162"/>
+      <c r="G200" s="162"/>
+      <c r="H200" s="162"/>
+      <c r="I200" s="162"/>
+      <c r="J200" s="162"/>
+      <c r="K200" s="163"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -31401,16 +31617,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="218" t="s">
+      <c r="D202" s="191" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="219"/>
-      <c r="F202" s="219"/>
-      <c r="G202" s="219"/>
-      <c r="H202" s="219"/>
-      <c r="I202" s="219"/>
-      <c r="J202" s="219"/>
-      <c r="K202" s="220"/>
+      <c r="E202" s="192"/>
+      <c r="F202" s="192"/>
+      <c r="G202" s="192"/>
+      <c r="H202" s="192"/>
+      <c r="I202" s="192"/>
+      <c r="J202" s="192"/>
+      <c r="K202" s="193"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -31441,16 +31657,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="188" t="s">
+      <c r="D204" s="161" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="189"/>
-      <c r="F204" s="189"/>
-      <c r="G204" s="189"/>
-      <c r="H204" s="189"/>
-      <c r="I204" s="189"/>
-      <c r="J204" s="189"/>
-      <c r="K204" s="190"/>
+      <c r="E204" s="162"/>
+      <c r="F204" s="162"/>
+      <c r="G204" s="162"/>
+      <c r="H204" s="162"/>
+      <c r="I204" s="162"/>
+      <c r="J204" s="162"/>
+      <c r="K204" s="163"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -31481,16 +31697,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="188" t="s">
+      <c r="D206" s="161" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="189"/>
-      <c r="F206" s="189"/>
-      <c r="G206" s="189"/>
-      <c r="H206" s="189"/>
-      <c r="I206" s="189"/>
-      <c r="J206" s="189"/>
-      <c r="K206" s="190"/>
+      <c r="E206" s="162"/>
+      <c r="F206" s="162"/>
+      <c r="G206" s="162"/>
+      <c r="H206" s="162"/>
+      <c r="I206" s="162"/>
+      <c r="J206" s="162"/>
+      <c r="K206" s="163"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31521,16 +31737,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="188" t="s">
+      <c r="D208" s="161" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="189"/>
-      <c r="F208" s="189"/>
-      <c r="G208" s="189"/>
-      <c r="H208" s="189"/>
-      <c r="I208" s="189"/>
-      <c r="J208" s="189"/>
-      <c r="K208" s="190"/>
+      <c r="E208" s="162"/>
+      <c r="F208" s="162"/>
+      <c r="G208" s="162"/>
+      <c r="H208" s="162"/>
+      <c r="I208" s="162"/>
+      <c r="J208" s="162"/>
+      <c r="K208" s="163"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31564,16 +31780,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="194" t="s">
+      <c r="D210" s="167" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="195"/>
-      <c r="F210" s="195"/>
-      <c r="G210" s="195"/>
-      <c r="H210" s="195"/>
-      <c r="I210" s="195"/>
-      <c r="J210" s="195"/>
-      <c r="K210" s="196"/>
+      <c r="E210" s="168"/>
+      <c r="F210" s="168"/>
+      <c r="G210" s="168"/>
+      <c r="H210" s="168"/>
+      <c r="I210" s="168"/>
+      <c r="J210" s="168"/>
+      <c r="K210" s="169"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31642,16 +31858,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="188" t="s">
+      <c r="D214" s="161" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="189"/>
-      <c r="F214" s="189"/>
-      <c r="G214" s="189"/>
-      <c r="H214" s="189"/>
-      <c r="I214" s="189"/>
-      <c r="J214" s="189"/>
-      <c r="K214" s="190"/>
+      <c r="E214" s="162"/>
+      <c r="F214" s="162"/>
+      <c r="G214" s="162"/>
+      <c r="H214" s="162"/>
+      <c r="I214" s="162"/>
+      <c r="J214" s="162"/>
+      <c r="K214" s="163"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31682,16 +31898,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="209" t="s">
+      <c r="D216" s="182" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="201"/>
-      <c r="F216" s="201"/>
-      <c r="G216" s="201"/>
-      <c r="H216" s="201"/>
-      <c r="I216" s="201"/>
-      <c r="J216" s="201"/>
-      <c r="K216" s="210"/>
+      <c r="E216" s="174"/>
+      <c r="F216" s="174"/>
+      <c r="G216" s="174"/>
+      <c r="H216" s="174"/>
+      <c r="I216" s="174"/>
+      <c r="J216" s="174"/>
+      <c r="K216" s="183"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31703,14 +31919,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="194"/>
-      <c r="E217" s="195"/>
-      <c r="F217" s="195"/>
-      <c r="G217" s="195"/>
-      <c r="H217" s="195"/>
-      <c r="I217" s="195"/>
-      <c r="J217" s="195"/>
-      <c r="K217" s="196"/>
+      <c r="D217" s="167"/>
+      <c r="E217" s="168"/>
+      <c r="F217" s="168"/>
+      <c r="G217" s="168"/>
+      <c r="H217" s="168"/>
+      <c r="I217" s="168"/>
+      <c r="J217" s="168"/>
+      <c r="K217" s="169"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31722,16 +31938,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="209" t="s">
+      <c r="D218" s="182" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="201"/>
-      <c r="F218" s="201"/>
-      <c r="G218" s="201"/>
-      <c r="H218" s="201"/>
-      <c r="I218" s="201"/>
-      <c r="J218" s="201"/>
-      <c r="K218" s="210"/>
+      <c r="E218" s="174"/>
+      <c r="F218" s="174"/>
+      <c r="G218" s="174"/>
+      <c r="H218" s="174"/>
+      <c r="I218" s="174"/>
+      <c r="J218" s="174"/>
+      <c r="K218" s="183"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31743,14 +31959,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="194"/>
-      <c r="E219" s="195"/>
-      <c r="F219" s="195"/>
-      <c r="G219" s="195"/>
-      <c r="H219" s="195"/>
-      <c r="I219" s="195"/>
-      <c r="J219" s="195"/>
-      <c r="K219" s="196"/>
+      <c r="D219" s="167"/>
+      <c r="E219" s="168"/>
+      <c r="F219" s="168"/>
+      <c r="G219" s="168"/>
+      <c r="H219" s="168"/>
+      <c r="I219" s="168"/>
+      <c r="J219" s="168"/>
+      <c r="K219" s="169"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31762,16 +31978,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="209" t="s">
+      <c r="D220" s="182" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="201"/>
-      <c r="F220" s="201"/>
-      <c r="G220" s="201"/>
-      <c r="H220" s="201"/>
-      <c r="I220" s="201"/>
-      <c r="J220" s="201"/>
-      <c r="K220" s="210"/>
+      <c r="E220" s="174"/>
+      <c r="F220" s="174"/>
+      <c r="G220" s="174"/>
+      <c r="H220" s="174"/>
+      <c r="I220" s="174"/>
+      <c r="J220" s="174"/>
+      <c r="K220" s="183"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31783,14 +31999,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="194"/>
-      <c r="E221" s="195"/>
-      <c r="F221" s="195"/>
-      <c r="G221" s="195"/>
-      <c r="H221" s="195"/>
-      <c r="I221" s="195"/>
-      <c r="J221" s="195"/>
-      <c r="K221" s="196"/>
+      <c r="D221" s="167"/>
+      <c r="E221" s="168"/>
+      <c r="F221" s="168"/>
+      <c r="G221" s="168"/>
+      <c r="H221" s="168"/>
+      <c r="I221" s="168"/>
+      <c r="J221" s="168"/>
+      <c r="K221" s="169"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -31802,16 +32018,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="188" t="s">
+      <c r="D222" s="161" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="189"/>
-      <c r="F222" s="189"/>
-      <c r="G222" s="189"/>
-      <c r="H222" s="189"/>
-      <c r="I222" s="189"/>
-      <c r="J222" s="189"/>
-      <c r="K222" s="190"/>
+      <c r="E222" s="162"/>
+      <c r="F222" s="162"/>
+      <c r="G222" s="162"/>
+      <c r="H222" s="162"/>
+      <c r="I222" s="162"/>
+      <c r="J222" s="162"/>
+      <c r="K222" s="163"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -31842,16 +32058,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="188" t="s">
+      <c r="D224" s="161" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="189"/>
-      <c r="F224" s="189"/>
-      <c r="G224" s="189"/>
-      <c r="H224" s="189"/>
-      <c r="I224" s="189"/>
-      <c r="J224" s="189"/>
-      <c r="K224" s="190"/>
+      <c r="E224" s="162"/>
+      <c r="F224" s="162"/>
+      <c r="G224" s="162"/>
+      <c r="H224" s="162"/>
+      <c r="I224" s="162"/>
+      <c r="J224" s="162"/>
+      <c r="K224" s="163"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -31885,16 +32101,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="215" t="s">
+      <c r="D226" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="216"/>
-      <c r="F226" s="216"/>
-      <c r="G226" s="216"/>
-      <c r="H226" s="216"/>
-      <c r="I226" s="216"/>
-      <c r="J226" s="216"/>
-      <c r="K226" s="217"/>
+      <c r="E226" s="189"/>
+      <c r="F226" s="189"/>
+      <c r="G226" s="189"/>
+      <c r="H226" s="189"/>
+      <c r="I226" s="189"/>
+      <c r="J226" s="189"/>
+      <c r="K226" s="190"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -32039,16 +32255,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="213" t="s">
+      <c r="D234" s="186" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="198"/>
-      <c r="F234" s="198"/>
-      <c r="G234" s="198"/>
-      <c r="H234" s="198"/>
-      <c r="I234" s="198"/>
-      <c r="J234" s="198"/>
-      <c r="K234" s="214"/>
+      <c r="E234" s="171"/>
+      <c r="F234" s="171"/>
+      <c r="G234" s="171"/>
+      <c r="H234" s="171"/>
+      <c r="I234" s="171"/>
+      <c r="J234" s="171"/>
+      <c r="K234" s="187"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -32117,16 +32333,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="205" t="s">
+      <c r="D238" s="178" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="201"/>
-      <c r="F238" s="201"/>
-      <c r="G238" s="201"/>
-      <c r="H238" s="201"/>
-      <c r="I238" s="201"/>
-      <c r="J238" s="201"/>
-      <c r="K238" s="202"/>
+      <c r="E238" s="174"/>
+      <c r="F238" s="174"/>
+      <c r="G238" s="174"/>
+      <c r="H238" s="174"/>
+      <c r="I238" s="174"/>
+      <c r="J238" s="174"/>
+      <c r="K238" s="175"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -32138,14 +32354,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="211"/>
-      <c r="E239" s="195"/>
-      <c r="F239" s="195"/>
-      <c r="G239" s="195"/>
-      <c r="H239" s="195"/>
-      <c r="I239" s="195"/>
-      <c r="J239" s="195"/>
-      <c r="K239" s="212"/>
+      <c r="D239" s="184"/>
+      <c r="E239" s="168"/>
+      <c r="F239" s="168"/>
+      <c r="G239" s="168"/>
+      <c r="H239" s="168"/>
+      <c r="I239" s="168"/>
+      <c r="J239" s="168"/>
+      <c r="K239" s="185"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -32157,16 +32373,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="201" t="s">
+      <c r="D240" s="174" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="201"/>
-      <c r="F240" s="201"/>
-      <c r="G240" s="201"/>
-      <c r="H240" s="201"/>
-      <c r="I240" s="201"/>
-      <c r="J240" s="201"/>
-      <c r="K240" s="202"/>
+      <c r="E240" s="174"/>
+      <c r="F240" s="174"/>
+      <c r="G240" s="174"/>
+      <c r="H240" s="174"/>
+      <c r="I240" s="174"/>
+      <c r="J240" s="174"/>
+      <c r="K240" s="175"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -32178,14 +32394,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="203"/>
-      <c r="E241" s="203"/>
-      <c r="F241" s="203"/>
-      <c r="G241" s="203"/>
-      <c r="H241" s="203"/>
-      <c r="I241" s="203"/>
-      <c r="J241" s="203"/>
-      <c r="K241" s="204"/>
+      <c r="D241" s="176"/>
+      <c r="E241" s="176"/>
+      <c r="F241" s="176"/>
+      <c r="G241" s="176"/>
+      <c r="H241" s="176"/>
+      <c r="I241" s="176"/>
+      <c r="J241" s="176"/>
+      <c r="K241" s="177"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -32376,16 +32592,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="197" t="s">
+      <c r="D250" s="170" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="198"/>
-      <c r="F250" s="198"/>
-      <c r="G250" s="198"/>
-      <c r="H250" s="198"/>
-      <c r="I250" s="198"/>
-      <c r="J250" s="198"/>
-      <c r="K250" s="199"/>
+      <c r="E250" s="171"/>
+      <c r="F250" s="171"/>
+      <c r="G250" s="171"/>
+      <c r="H250" s="171"/>
+      <c r="I250" s="171"/>
+      <c r="J250" s="171"/>
+      <c r="K250" s="172"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -32954,16 +33170,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="188" t="s">
+      <c r="D280" s="161" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="189"/>
-      <c r="F280" s="189"/>
-      <c r="G280" s="189"/>
-      <c r="H280" s="189"/>
-      <c r="I280" s="189"/>
-      <c r="J280" s="189"/>
-      <c r="K280" s="190"/>
+      <c r="E280" s="162"/>
+      <c r="F280" s="162"/>
+      <c r="G280" s="162"/>
+      <c r="H280" s="162"/>
+      <c r="I280" s="162"/>
+      <c r="J280" s="162"/>
+      <c r="K280" s="163"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -33070,16 +33286,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="188" t="s">
+      <c r="D286" s="161" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="189"/>
-      <c r="F286" s="189"/>
-      <c r="G286" s="189"/>
-      <c r="H286" s="189"/>
-      <c r="I286" s="189"/>
-      <c r="J286" s="189"/>
-      <c r="K286" s="190"/>
+      <c r="E286" s="162"/>
+      <c r="F286" s="162"/>
+      <c r="G286" s="162"/>
+      <c r="H286" s="162"/>
+      <c r="I286" s="162"/>
+      <c r="J286" s="162"/>
+      <c r="K286" s="163"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -33267,16 +33483,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="188" t="s">
+      <c r="D296" s="161" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="189"/>
-      <c r="F296" s="189"/>
-      <c r="G296" s="189"/>
-      <c r="H296" s="189"/>
-      <c r="I296" s="189"/>
-      <c r="J296" s="189"/>
-      <c r="K296" s="190"/>
+      <c r="E296" s="162"/>
+      <c r="F296" s="162"/>
+      <c r="G296" s="162"/>
+      <c r="H296" s="162"/>
+      <c r="I296" s="162"/>
+      <c r="J296" s="162"/>
+      <c r="K296" s="163"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -33307,16 +33523,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="205" t="s">
+      <c r="D298" s="178" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="201"/>
-      <c r="F298" s="201"/>
-      <c r="G298" s="201"/>
-      <c r="H298" s="201"/>
-      <c r="I298" s="201"/>
-      <c r="J298" s="201"/>
-      <c r="K298" s="202"/>
+      <c r="E298" s="174"/>
+      <c r="F298" s="174"/>
+      <c r="G298" s="174"/>
+      <c r="H298" s="174"/>
+      <c r="I298" s="174"/>
+      <c r="J298" s="174"/>
+      <c r="K298" s="175"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -33328,14 +33544,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="211"/>
-      <c r="E299" s="195"/>
-      <c r="F299" s="195"/>
-      <c r="G299" s="195"/>
-      <c r="H299" s="195"/>
-      <c r="I299" s="195"/>
-      <c r="J299" s="195"/>
-      <c r="K299" s="212"/>
+      <c r="D299" s="184"/>
+      <c r="E299" s="168"/>
+      <c r="F299" s="168"/>
+      <c r="G299" s="168"/>
+      <c r="H299" s="168"/>
+      <c r="I299" s="168"/>
+      <c r="J299" s="168"/>
+      <c r="K299" s="185"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -33347,16 +33563,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="205" t="s">
+      <c r="D300" s="178" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="201"/>
-      <c r="F300" s="201"/>
-      <c r="G300" s="201"/>
-      <c r="H300" s="201"/>
-      <c r="I300" s="201"/>
-      <c r="J300" s="201"/>
-      <c r="K300" s="202"/>
+      <c r="E300" s="174"/>
+      <c r="F300" s="174"/>
+      <c r="G300" s="174"/>
+      <c r="H300" s="174"/>
+      <c r="I300" s="174"/>
+      <c r="J300" s="174"/>
+      <c r="K300" s="175"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -33368,14 +33584,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="211"/>
-      <c r="E301" s="195"/>
-      <c r="F301" s="195"/>
-      <c r="G301" s="195"/>
-      <c r="H301" s="195"/>
-      <c r="I301" s="195"/>
-      <c r="J301" s="195"/>
-      <c r="K301" s="212"/>
+      <c r="D301" s="184"/>
+      <c r="E301" s="168"/>
+      <c r="F301" s="168"/>
+      <c r="G301" s="168"/>
+      <c r="H301" s="168"/>
+      <c r="I301" s="168"/>
+      <c r="J301" s="168"/>
+      <c r="K301" s="185"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -33387,16 +33603,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="205" t="s">
+      <c r="D302" s="178" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="201"/>
-      <c r="F302" s="201"/>
-      <c r="G302" s="201"/>
-      <c r="H302" s="201"/>
-      <c r="I302" s="201"/>
-      <c r="J302" s="201"/>
-      <c r="K302" s="202"/>
+      <c r="E302" s="174"/>
+      <c r="F302" s="174"/>
+      <c r="G302" s="174"/>
+      <c r="H302" s="174"/>
+      <c r="I302" s="174"/>
+      <c r="J302" s="174"/>
+      <c r="K302" s="175"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -33408,14 +33624,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="211"/>
-      <c r="E303" s="195"/>
-      <c r="F303" s="195"/>
-      <c r="G303" s="195"/>
-      <c r="H303" s="195"/>
-      <c r="I303" s="195"/>
-      <c r="J303" s="195"/>
-      <c r="K303" s="212"/>
+      <c r="D303" s="184"/>
+      <c r="E303" s="168"/>
+      <c r="F303" s="168"/>
+      <c r="G303" s="168"/>
+      <c r="H303" s="168"/>
+      <c r="I303" s="168"/>
+      <c r="J303" s="168"/>
+      <c r="K303" s="185"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -33427,16 +33643,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="205" t="s">
+      <c r="D304" s="178" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="201"/>
-      <c r="F304" s="201"/>
-      <c r="G304" s="201"/>
-      <c r="H304" s="201"/>
-      <c r="I304" s="201"/>
-      <c r="J304" s="201"/>
-      <c r="K304" s="202"/>
+      <c r="E304" s="174"/>
+      <c r="F304" s="174"/>
+      <c r="G304" s="174"/>
+      <c r="H304" s="174"/>
+      <c r="I304" s="174"/>
+      <c r="J304" s="174"/>
+      <c r="K304" s="175"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -33448,14 +33664,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="211"/>
-      <c r="E305" s="195"/>
-      <c r="F305" s="195"/>
-      <c r="G305" s="195"/>
-      <c r="H305" s="195"/>
-      <c r="I305" s="195"/>
-      <c r="J305" s="195"/>
-      <c r="K305" s="212"/>
+      <c r="D305" s="184"/>
+      <c r="E305" s="168"/>
+      <c r="F305" s="168"/>
+      <c r="G305" s="168"/>
+      <c r="H305" s="168"/>
+      <c r="I305" s="168"/>
+      <c r="J305" s="168"/>
+      <c r="K305" s="185"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -33470,16 +33686,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="205" t="s">
+      <c r="D306" s="178" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="201"/>
-      <c r="F306" s="201"/>
-      <c r="G306" s="201"/>
-      <c r="H306" s="201"/>
-      <c r="I306" s="201"/>
-      <c r="J306" s="201"/>
-      <c r="K306" s="202"/>
+      <c r="E306" s="174"/>
+      <c r="F306" s="174"/>
+      <c r="G306" s="174"/>
+      <c r="H306" s="174"/>
+      <c r="I306" s="174"/>
+      <c r="J306" s="174"/>
+      <c r="K306" s="175"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -33491,14 +33707,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="211"/>
-      <c r="E307" s="195"/>
-      <c r="F307" s="195"/>
-      <c r="G307" s="195"/>
-      <c r="H307" s="195"/>
-      <c r="I307" s="195"/>
-      <c r="J307" s="195"/>
-      <c r="K307" s="212"/>
+      <c r="D307" s="184"/>
+      <c r="E307" s="168"/>
+      <c r="F307" s="168"/>
+      <c r="G307" s="168"/>
+      <c r="H307" s="168"/>
+      <c r="I307" s="168"/>
+      <c r="J307" s="168"/>
+      <c r="K307" s="185"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33510,16 +33726,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="205" t="s">
+      <c r="D308" s="178" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="201"/>
-      <c r="F308" s="201"/>
-      <c r="G308" s="201"/>
-      <c r="H308" s="201"/>
-      <c r="I308" s="201"/>
-      <c r="J308" s="201"/>
-      <c r="K308" s="202"/>
+      <c r="E308" s="174"/>
+      <c r="F308" s="174"/>
+      <c r="G308" s="174"/>
+      <c r="H308" s="174"/>
+      <c r="I308" s="174"/>
+      <c r="J308" s="174"/>
+      <c r="K308" s="175"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33531,14 +33747,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="211"/>
-      <c r="E309" s="195"/>
-      <c r="F309" s="195"/>
-      <c r="G309" s="195"/>
-      <c r="H309" s="195"/>
-      <c r="I309" s="195"/>
-      <c r="J309" s="195"/>
-      <c r="K309" s="212"/>
+      <c r="D309" s="184"/>
+      <c r="E309" s="168"/>
+      <c r="F309" s="168"/>
+      <c r="G309" s="168"/>
+      <c r="H309" s="168"/>
+      <c r="I309" s="168"/>
+      <c r="J309" s="168"/>
+      <c r="K309" s="185"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37485,17 +37701,17 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -37503,14 +37719,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -37518,14 +37734,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -37533,14 +37749,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -37548,14 +37764,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -37563,14 +37779,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -37578,14 +37794,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -37593,14 +37809,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -37608,14 +37824,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -37623,14 +37839,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -37638,14 +37854,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -37653,14 +37869,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -37668,14 +37884,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -37683,14 +37899,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -37698,14 +37914,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -37713,14 +37929,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -37728,14 +37944,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -37743,14 +37959,14 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -37758,14 +37974,14 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -37773,14 +37989,14 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -37788,14 +38004,14 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -37803,14 +38019,14 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -37818,7 +38034,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
@@ -37833,7 +38049,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -37852,8 +38068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA480A7D-7842-4326-A491-9C5672303D17}">
   <dimension ref="B2:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37868,932 +38084,932 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184" t="s">
-        <v>527</v>
-      </c>
-      <c r="D2" s="184" t="s">
-        <v>528</v>
-      </c>
-      <c r="E2" s="184" t="s">
-        <v>529</v>
-      </c>
-      <c r="F2" s="184" t="s">
-        <v>571</v>
-      </c>
-      <c r="G2" s="185" t="s">
-        <v>703</v>
-      </c>
-      <c r="H2" s="185" t="s">
-        <v>702</v>
+      <c r="C2" s="157" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="157" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="158" t="s">
+        <v>699</v>
+      </c>
+      <c r="H2" s="158" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="181" t="s">
+      <c r="C3" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="154" t="s">
         <v>530</v>
       </c>
-      <c r="D3" s="181" t="s">
-        <v>534</v>
-      </c>
-      <c r="E3" s="181" t="s">
-        <v>533</v>
-      </c>
-      <c r="F3" s="183" t="s">
-        <v>572</v>
+      <c r="E3" s="154" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="181" t="s">
-        <v>530</v>
-      </c>
-      <c r="D4" s="181" t="s">
-        <v>535</v>
-      </c>
-      <c r="E4" s="181" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4" s="183" t="s">
-        <v>572</v>
+      <c r="C4" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="154" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="154" t="s">
         <v>530</v>
       </c>
-      <c r="D5" s="181" t="s">
-        <v>534</v>
-      </c>
-      <c r="E5" s="181" t="s">
-        <v>536</v>
-      </c>
-      <c r="F5" s="183" t="s">
-        <v>572</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>714</v>
+      <c r="E5" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="156" t="s">
+        <v>568</v>
+      </c>
+      <c r="G5" s="206" t="s">
+        <v>710</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="181" t="s">
-        <v>530</v>
-      </c>
-      <c r="D6" s="181" t="s">
-        <v>531</v>
-      </c>
-      <c r="E6" s="181" t="s">
-        <v>532</v>
-      </c>
-      <c r="F6" s="183" t="s">
-        <v>573</v>
+      <c r="C6" s="154" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" s="154" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="156" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="182" t="s">
-        <v>538</v>
-      </c>
-      <c r="D7" s="182" t="s">
-        <v>540</v>
-      </c>
-      <c r="E7" s="182" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" s="183" t="s">
-        <v>572</v>
+      <c r="C7" s="155" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>536</v>
+      </c>
+      <c r="E7" s="155" t="s">
+        <v>537</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="182" t="s">
-        <v>538</v>
-      </c>
-      <c r="D8" s="182" t="s">
-        <v>540</v>
-      </c>
-      <c r="E8" s="182" t="s">
-        <v>539</v>
-      </c>
-      <c r="F8" s="183" t="s">
-        <v>574</v>
+      <c r="C8" s="155" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" s="155" t="s">
+        <v>535</v>
+      </c>
+      <c r="F8" s="156" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="182" t="s">
-        <v>542</v>
-      </c>
-      <c r="D9" s="182" t="s">
-        <v>543</v>
-      </c>
-      <c r="E9" s="182" t="s">
-        <v>544</v>
-      </c>
-      <c r="F9" s="183" t="s">
-        <v>575</v>
+      <c r="C9" s="155" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="155" t="s">
+        <v>540</v>
+      </c>
+      <c r="F9" s="156" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="182" t="s">
-        <v>542</v>
-      </c>
-      <c r="D10" s="182" t="s">
-        <v>545</v>
-      </c>
-      <c r="E10" s="182" t="s">
-        <v>550</v>
+      <c r="C10" s="155" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>541</v>
+      </c>
+      <c r="E10" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="155" t="s">
+        <v>538</v>
+      </c>
+      <c r="D11" s="155" t="s">
         <v>542</v>
       </c>
-      <c r="D11" s="182" t="s">
-        <v>546</v>
-      </c>
-      <c r="E11" s="182" t="s">
-        <v>551</v>
+      <c r="E11" s="155" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="182" t="s">
-        <v>542</v>
-      </c>
-      <c r="D12" s="182" t="s">
-        <v>547</v>
-      </c>
-      <c r="E12" s="182" t="s">
-        <v>550</v>
+      <c r="C12" s="155" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>543</v>
+      </c>
+      <c r="E12" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="182" t="s">
-        <v>542</v>
-      </c>
-      <c r="D13" s="182" t="s">
-        <v>548</v>
-      </c>
-      <c r="E13" s="182" t="s">
-        <v>549</v>
-      </c>
-      <c r="F13" s="183" t="s">
-        <v>572</v>
+      <c r="C13" s="155" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="155" t="s">
+        <v>544</v>
+      </c>
+      <c r="E13" s="155" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="182" t="s">
-        <v>552</v>
-      </c>
-      <c r="D14" s="182" t="s">
-        <v>534</v>
-      </c>
-      <c r="E14" s="182" t="s">
-        <v>553</v>
-      </c>
-      <c r="F14" s="183" t="s">
-        <v>572</v>
+      <c r="C14" s="155" t="s">
+        <v>548</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="155" t="s">
+        <v>549</v>
+      </c>
+      <c r="F14" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="182" t="s">
-        <v>552</v>
-      </c>
-      <c r="D15" s="182" t="s">
-        <v>554</v>
-      </c>
-      <c r="E15" s="182" t="s">
-        <v>555</v>
-      </c>
-      <c r="F15" s="183" t="s">
-        <v>576</v>
+      <c r="C15" s="155" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>551</v>
+      </c>
+      <c r="F15" s="156" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="182" t="s">
-        <v>556</v>
-      </c>
-      <c r="D16" s="182" t="s">
-        <v>557</v>
-      </c>
-      <c r="E16" s="182" t="s">
-        <v>557</v>
-      </c>
-      <c r="F16" s="183" t="s">
-        <v>577</v>
+      <c r="C16" s="155" t="s">
+        <v>552</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>553</v>
+      </c>
+      <c r="E16" s="155" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="156" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="182" t="s">
-        <v>558</v>
-      </c>
-      <c r="D17" s="182" t="s">
-        <v>560</v>
-      </c>
-      <c r="E17" s="182" t="s">
-        <v>559</v>
-      </c>
-      <c r="F17" s="183" t="s">
-        <v>578</v>
+      <c r="C17" s="155" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>556</v>
+      </c>
+      <c r="E17" s="155" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="156" t="s">
+        <v>574</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="182" t="s">
-        <v>558</v>
-      </c>
-      <c r="D18" s="182" t="s">
-        <v>561</v>
-      </c>
-      <c r="E18" s="182" t="s">
-        <v>550</v>
+      <c r="C18" s="155" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="182" t="s">
-        <v>558</v>
-      </c>
-      <c r="D19" s="182" t="s">
-        <v>560</v>
-      </c>
-      <c r="E19" s="182" t="s">
-        <v>563</v>
-      </c>
-      <c r="F19" s="183" t="s">
-        <v>579</v>
+      <c r="C19" s="155" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>556</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="156" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="182" t="s">
-        <v>558</v>
-      </c>
-      <c r="D20" s="182" t="s">
-        <v>564</v>
-      </c>
-      <c r="E20" s="182" t="s">
-        <v>550</v>
+      <c r="C20" s="155" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="E20" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="182" t="s">
+      <c r="C21" s="155" t="s">
+        <v>554</v>
+      </c>
+      <c r="D21" s="155" t="s">
         <v>558</v>
       </c>
-      <c r="D21" s="182" t="s">
-        <v>562</v>
-      </c>
-      <c r="E21" s="182" t="s">
-        <v>550</v>
+      <c r="E21" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="182" t="s">
-        <v>565</v>
-      </c>
-      <c r="D22" s="182" t="s">
-        <v>566</v>
-      </c>
-      <c r="E22" s="182" t="s">
-        <v>567</v>
-      </c>
-      <c r="F22" s="183" t="s">
-        <v>572</v>
+      <c r="C22" s="155" t="s">
+        <v>561</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>562</v>
+      </c>
+      <c r="E22" s="155" t="s">
+        <v>563</v>
+      </c>
+      <c r="F22" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="155" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="E23" s="155" t="s">
+        <v>565</v>
+      </c>
+      <c r="F23" s="156" t="s">
         <v>568</v>
       </c>
-      <c r="D23" s="182" t="s">
-        <v>534</v>
-      </c>
-      <c r="E23" s="182" t="s">
-        <v>569</v>
-      </c>
-      <c r="F23" s="183" t="s">
-        <v>572</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="182" t="s">
-        <v>570</v>
-      </c>
-      <c r="D24" s="182" t="s">
-        <v>534</v>
-      </c>
-      <c r="E24" s="182" t="s">
-        <v>581</v>
-      </c>
-      <c r="F24" s="183" t="s">
-        <v>572</v>
+      <c r="C24" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="155" t="s">
+        <v>577</v>
+      </c>
+      <c r="F24" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="182" t="s">
-        <v>570</v>
-      </c>
-      <c r="D25" s="182" t="s">
-        <v>580</v>
-      </c>
-      <c r="E25" s="182" t="s">
-        <v>582</v>
-      </c>
-      <c r="F25" s="183" t="s">
-        <v>572</v>
+      <c r="C25" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D25" s="155" t="s">
+        <v>576</v>
+      </c>
+      <c r="E25" s="155" t="s">
+        <v>578</v>
+      </c>
+      <c r="F25" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="182" t="s">
-        <v>570</v>
-      </c>
-      <c r="D26" s="182" t="s">
-        <v>534</v>
-      </c>
-      <c r="E26" s="182" t="s">
-        <v>584</v>
+      <c r="C26" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="E26" s="155" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="182" t="s">
-        <v>570</v>
-      </c>
-      <c r="D27" s="182" t="s">
-        <v>534</v>
-      </c>
-      <c r="E27" s="182" t="s">
-        <v>583</v>
+      <c r="C27" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" s="155" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="182" t="s">
-        <v>570</v>
-      </c>
-      <c r="D28" s="182" t="s">
-        <v>534</v>
-      </c>
-      <c r="E28" s="182" t="s">
-        <v>585</v>
+      <c r="C28" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D28" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="E28" s="155" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="182" t="s">
-        <v>586</v>
-      </c>
-      <c r="D29" s="182" t="s">
-        <v>587</v>
-      </c>
-      <c r="E29" s="182" t="s">
-        <v>550</v>
+      <c r="C29" s="155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D29" s="155" t="s">
+        <v>583</v>
+      </c>
+      <c r="E29" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="182" t="s">
-        <v>586</v>
-      </c>
-      <c r="D30" s="182" t="s">
-        <v>545</v>
-      </c>
-      <c r="E30" s="182" t="s">
-        <v>588</v>
-      </c>
-      <c r="F30" s="183" t="s">
-        <v>589</v>
+      <c r="C30" s="155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D30" s="155" t="s">
+        <v>541</v>
+      </c>
+      <c r="E30" s="155" t="s">
+        <v>584</v>
+      </c>
+      <c r="F30" s="156" t="s">
+        <v>585</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D31" s="155" t="s">
+        <v>542</v>
+      </c>
+      <c r="E31" s="155" t="s">
         <v>586</v>
       </c>
-      <c r="D31" s="182" t="s">
-        <v>546</v>
-      </c>
-      <c r="E31" s="182" t="s">
-        <v>590</v>
-      </c>
-      <c r="F31" s="183" t="s">
-        <v>591</v>
+      <c r="F31" s="156" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="182" t="s">
-        <v>586</v>
-      </c>
-      <c r="D32" s="182" t="s">
-        <v>592</v>
-      </c>
-      <c r="E32" s="182" t="s">
-        <v>600</v>
-      </c>
-      <c r="F32" s="183" t="s">
-        <v>597</v>
+      <c r="C32" s="155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D32" s="155" t="s">
+        <v>588</v>
+      </c>
+      <c r="E32" s="155" t="s">
+        <v>596</v>
+      </c>
+      <c r="F32" s="156" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="182" t="s">
-        <v>586</v>
-      </c>
-      <c r="D33" s="182" t="s">
-        <v>593</v>
-      </c>
-      <c r="E33" s="182" t="s">
-        <v>599</v>
-      </c>
-      <c r="F33" s="183" t="s">
-        <v>598</v>
+      <c r="C33" s="155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" s="155" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="155" t="s">
+        <v>595</v>
+      </c>
+      <c r="F33" s="156" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="182" t="s">
-        <v>586</v>
-      </c>
-      <c r="D34" s="182" t="s">
-        <v>595</v>
-      </c>
-      <c r="E34" s="182" t="s">
-        <v>594</v>
-      </c>
-      <c r="F34" s="183" t="s">
-        <v>596</v>
+      <c r="C34" s="155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D34" s="155" t="s">
+        <v>591</v>
+      </c>
+      <c r="E34" s="155" t="s">
+        <v>590</v>
+      </c>
+      <c r="F34" s="156" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D35" s="182" t="s">
-        <v>602</v>
-      </c>
-      <c r="E35" s="182" t="s">
-        <v>550</v>
-      </c>
-      <c r="F35" s="183" t="s">
-        <v>572</v>
+      <c r="C35" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D35" s="155" t="s">
+        <v>598</v>
+      </c>
+      <c r="E35" s="155" t="s">
+        <v>546</v>
+      </c>
+      <c r="F35" s="156" t="s">
+        <v>568</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D36" s="182" t="s">
-        <v>602</v>
-      </c>
-      <c r="E36" s="182" t="s">
-        <v>550</v>
+      <c r="C36" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D36" s="155" t="s">
+        <v>598</v>
+      </c>
+      <c r="E36" s="155" t="s">
+        <v>546</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D37" s="182" t="s">
-        <v>602</v>
-      </c>
-      <c r="E37" s="182" t="s">
-        <v>550</v>
-      </c>
-      <c r="F37" s="183" t="s">
-        <v>603</v>
+      <c r="C37" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D37" s="155" t="s">
+        <v>598</v>
+      </c>
+      <c r="E37" s="155" t="s">
+        <v>546</v>
+      </c>
+      <c r="F37" s="156" t="s">
+        <v>599</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D38" s="155" t="s">
         <v>601</v>
       </c>
-      <c r="D38" s="182" t="s">
-        <v>605</v>
-      </c>
-      <c r="E38" s="182" t="s">
-        <v>550</v>
-      </c>
-      <c r="F38" s="183" t="s">
-        <v>603</v>
+      <c r="E38" s="155" t="s">
+        <v>546</v>
+      </c>
+      <c r="F38" s="156" t="s">
+        <v>599</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D39" s="182" t="s">
-        <v>607</v>
-      </c>
-      <c r="E39" s="182" t="s">
-        <v>550</v>
+      <c r="C39" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D39" s="155" t="s">
+        <v>603</v>
+      </c>
+      <c r="E39" s="155" t="s">
+        <v>546</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D40" s="182" t="s">
-        <v>608</v>
-      </c>
-      <c r="E40" s="182" t="s">
-        <v>550</v>
-      </c>
-      <c r="F40" s="183" t="s">
-        <v>603</v>
+      <c r="C40" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D40" s="155" t="s">
+        <v>604</v>
+      </c>
+      <c r="E40" s="155" t="s">
+        <v>546</v>
+      </c>
+      <c r="F40" s="156" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D41" s="182" t="s">
-        <v>604</v>
-      </c>
-      <c r="E41" s="182" t="s">
-        <v>550</v>
+      <c r="C41" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D41" s="155" t="s">
+        <v>600</v>
+      </c>
+      <c r="E41" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="182" t="s">
-        <v>601</v>
-      </c>
-      <c r="D42" s="182" t="s">
-        <v>604</v>
-      </c>
-      <c r="E42" s="182" t="s">
-        <v>550</v>
-      </c>
-      <c r="F42" s="183" t="s">
-        <v>603</v>
+      <c r="C42" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="D42" s="155" t="s">
+        <v>600</v>
+      </c>
+      <c r="E42" s="155" t="s">
+        <v>546</v>
+      </c>
+      <c r="F42" s="156" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="182" t="s">
-        <v>606</v>
-      </c>
-      <c r="D43" s="182" t="s">
-        <v>614</v>
-      </c>
-      <c r="E43" s="182" t="s">
-        <v>550</v>
+      <c r="C43" s="155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D43" s="155" t="s">
+        <v>610</v>
+      </c>
+      <c r="E43" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="182" t="s">
-        <v>606</v>
-      </c>
-      <c r="D44" s="182" t="s">
-        <v>613</v>
-      </c>
-      <c r="E44" s="182" t="s">
-        <v>550</v>
+      <c r="C44" s="155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D44" s="155" t="s">
+        <v>609</v>
+      </c>
+      <c r="E44" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D45" s="155" t="s">
+        <v>611</v>
+      </c>
+      <c r="E45" s="155" t="s">
+        <v>605</v>
+      </c>
+      <c r="F45" s="156" t="s">
         <v>606</v>
-      </c>
-      <c r="D45" s="182" t="s">
-        <v>615</v>
-      </c>
-      <c r="E45" s="182" t="s">
-        <v>609</v>
-      </c>
-      <c r="F45" s="183" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="182" t="s">
-        <v>606</v>
-      </c>
-      <c r="D46" s="182" t="s">
-        <v>587</v>
-      </c>
-      <c r="E46" s="182" t="s">
-        <v>550</v>
+      <c r="C46" s="155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D46" s="155" t="s">
+        <v>583</v>
+      </c>
+      <c r="E46" s="155" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="182" t="s">
-        <v>606</v>
-      </c>
-      <c r="D47" s="182" t="s">
-        <v>613</v>
-      </c>
-      <c r="E47" s="182" t="s">
-        <v>612</v>
-      </c>
-      <c r="F47" s="183" t="s">
-        <v>611</v>
+      <c r="C47" s="155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D47" s="155" t="s">
+        <v>609</v>
+      </c>
+      <c r="E47" s="155" t="s">
+        <v>608</v>
+      </c>
+      <c r="F47" s="156" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="182" t="s">
-        <v>616</v>
+      <c r="C48" s="155" t="s">
+        <v>612</v>
       </c>
       <c r="D48" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E48" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="155" t="s">
+        <v>612</v>
+      </c>
+      <c r="D49" t="s">
         <v>616</v>
       </c>
-      <c r="D49" t="s">
-        <v>620</v>
-      </c>
       <c r="E49" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="182" t="s">
-        <v>616</v>
+      <c r="C50" s="155" t="s">
+        <v>612</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E50" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="182" t="s">
-        <v>616</v>
+      <c r="C51" s="155" t="s">
+        <v>612</v>
       </c>
       <c r="D51" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E51" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="182" t="s">
-        <v>616</v>
+      <c r="C52" s="155" t="s">
+        <v>612</v>
       </c>
       <c r="D52" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E52" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="182" t="s">
-        <v>616</v>
+      <c r="C53" s="155" t="s">
+        <v>612</v>
       </c>
       <c r="D53" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E53" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -38801,16 +39017,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D54" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E54" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -38818,22 +39034,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D55" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E55" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -38841,13 +39057,13 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D56" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E56" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -38855,22 +39071,22 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D57" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E57" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -38878,13 +39094,13 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D58" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E58" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -38892,13 +39108,13 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D59" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E59" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -38906,16 +39122,16 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
+        <v>626</v>
+      </c>
+      <c r="D60" t="s">
         <v>630</v>
       </c>
-      <c r="D60" t="s">
-        <v>634</v>
-      </c>
       <c r="E60" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -38923,22 +39139,22 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
+        <v>632</v>
+      </c>
+      <c r="D61" t="s">
+        <v>530</v>
+      </c>
+      <c r="E61" t="s">
         <v>636</v>
       </c>
-      <c r="D61" t="s">
-        <v>534</v>
-      </c>
-      <c r="E61" t="s">
-        <v>640</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -38946,22 +39162,22 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D62" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E62" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -38969,16 +39185,16 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D63" t="s">
+        <v>634</v>
+      </c>
+      <c r="E63" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="E63" t="s">
-        <v>641</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -38986,22 +39202,22 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D64" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E64" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -39009,16 +39225,16 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D65" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E65" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -39026,13 +39242,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D66" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E66" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -39040,16 +39256,16 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D67" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E67" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -39057,13 +39273,13 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D68" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E68" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -39071,22 +39287,22 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
+        <v>641</v>
+      </c>
+      <c r="D69" t="s">
+        <v>530</v>
+      </c>
+      <c r="E69" t="s">
         <v>645</v>
       </c>
-      <c r="D69" t="s">
-        <v>534</v>
-      </c>
-      <c r="E69" t="s">
-        <v>649</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -39094,16 +39310,16 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E70" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -39111,13 +39327,13 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D71" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E71" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -39125,16 +39341,16 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D72" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E72" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -39142,13 +39358,13 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D73" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E73" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -39156,22 +39372,22 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D74" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E74" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -39179,16 +39395,16 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D75" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E75" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -39196,13 +39412,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D76" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E76" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -39210,16 +39426,16 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D77" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E77" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -39227,16 +39443,16 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D78" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E78" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -39244,16 +39460,16 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D79" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E79" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -39261,16 +39477,16 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
+        <v>654</v>
+      </c>
+      <c r="D80" t="s">
         <v>658</v>
       </c>
-      <c r="D80" t="s">
-        <v>662</v>
-      </c>
       <c r="E80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -39278,22 +39494,22 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D81" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E81" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="82" spans="2:8">
@@ -39301,16 +39517,16 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D82" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E82" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="2:8">
@@ -39318,13 +39534,13 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D83" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E83" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -39332,13 +39548,13 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
+        <v>665</v>
+      </c>
+      <c r="D84" t="s">
         <v>669</v>
       </c>
-      <c r="D84" t="s">
-        <v>673</v>
-      </c>
       <c r="E84" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" spans="2:8">
@@ -39346,13 +39562,13 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D85" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E85" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -39360,16 +39576,16 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D86" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E86" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="2:8">
@@ -39377,13 +39593,13 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D87" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E87" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -39391,13 +39607,13 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D88" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E88" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="2:8">
@@ -39405,16 +39621,16 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D89" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E89" t="s">
+        <v>673</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="90" spans="2:8">
@@ -39422,16 +39638,16 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D90" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E90" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -39439,16 +39655,16 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D91" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E91" t="s">
+        <v>678</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -39456,16 +39672,16 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D92" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E92" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="93" spans="2:8">
@@ -39473,22 +39689,22 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D93" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E93" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G93" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -39496,16 +39712,16 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D94" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E94" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="2:8">
@@ -39513,22 +39729,22 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D95" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E95" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="96" spans="2:8">
@@ -39536,16 +39752,16 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D96" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E96" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -39553,13 +39769,13 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D97" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E97" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -39567,16 +39783,16 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D98" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E98" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -39584,13 +39800,13 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D99" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E99" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -39598,16 +39814,16 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D100" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E100" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -39615,13 +39831,13 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D101" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E101" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -39629,16 +39845,16 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D102" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E102" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="103" spans="2:6">
@@ -39646,13 +39862,13 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D103" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E103" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="104" spans="2:6">
@@ -39660,16 +39876,16 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D104" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E104" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="2:6">
@@ -39677,16 +39893,16 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D105" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E105" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -39694,16 +39910,16 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D106" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E106" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -39711,16 +39927,16 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D107" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E107" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -39733,385 +39949,398 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E9773-BB41-4A15-BA41-CDFF1EE0CEBE}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="223" t="s">
-        <v>475</v>
-      </c>
-      <c r="C2" s="223"/>
+      <c r="B2" s="199" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="199"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:10">
-      <c r="B4" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="102" t="s">
+    <row r="4" spans="2:10" ht="30">
+      <c r="B4" s="205" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="213" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="102" t="s">
+      <c r="D4" s="207" t="s">
+        <v>733</v>
+      </c>
+      <c r="E4" s="213" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="101" t="s">
+      <c r="F4" s="207" t="s">
+        <v>731</v>
+      </c>
+      <c r="G4" s="208" t="s">
+        <v>732</v>
+      </c>
+      <c r="H4" s="207" t="s">
+        <v>734</v>
+      </c>
+      <c r="I4" s="208" t="s">
+        <v>736</v>
+      </c>
+      <c r="J4" s="213" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B5" s="224" t="s">
+        <v>760</v>
+      </c>
+      <c r="C5" s="225" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5" s="223" t="s">
+        <v>761</v>
+      </c>
+      <c r="E5" s="225" t="s">
+        <v>762</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>472</v>
+      </c>
+      <c r="G5" s="225" t="s">
+        <v>763</v>
+      </c>
+      <c r="H5" s="229" t="s">
+        <v>764</v>
+      </c>
+      <c r="I5" s="225" t="s">
+        <v>766</v>
+      </c>
+      <c r="J5" s="230" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30">
+      <c r="B6" s="221" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="208" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="216" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" s="101" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B5" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="104" t="s">
+      <c r="F6" s="207" t="s">
+        <v>739</v>
+      </c>
+      <c r="G6" s="205" t="s">
+        <v>738</v>
+      </c>
+      <c r="H6" s="208" t="s">
+        <v>737</v>
+      </c>
+      <c r="I6" s="216" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="101" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="109" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="100" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B7" s="228" t="s">
+        <v>757</v>
+      </c>
+      <c r="C7" s="219" t="s">
+        <v>758</v>
+      </c>
+      <c r="D7" s="217" t="s">
+        <v>748</v>
+      </c>
+      <c r="E7" s="225" t="s">
+        <v>759</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="220" t="s">
+        <v>768</v>
+      </c>
+      <c r="H7" s="220" t="s">
+        <v>769</v>
+      </c>
+      <c r="I7" s="220" t="s">
+        <v>770</v>
+      </c>
+      <c r="J7" s="220" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30">
+      <c r="B8" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="209" t="s">
+        <v>741</v>
+      </c>
+      <c r="D8" s="215" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="208" t="s">
+        <v>740</v>
+      </c>
+      <c r="F8" s="210" t="s">
+        <v>742</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="H8" s="222" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="208" t="s">
+        <v>745</v>
+      </c>
+      <c r="J8" s="211" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B9" s="227" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" s="231" t="s">
+        <v>767</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>728</v>
+      </c>
+      <c r="H9" s="223" t="s">
+        <v>754</v>
+      </c>
+      <c r="I9" s="219" t="s">
+        <v>750</v>
+      </c>
+      <c r="J9" s="220" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30">
+      <c r="B10" s="226" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="214" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="208" t="s">
+        <v>743</v>
+      </c>
+      <c r="E10" s="212" t="s">
+        <v>747</v>
+      </c>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+    </row>
+    <row r="11" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B11" s="219" t="s">
+        <v>756</v>
+      </c>
+      <c r="C11" s="218" t="s">
+        <v>749</v>
+      </c>
+      <c r="D11" s="204"/>
+      <c r="E11" s="218" t="s">
+        <v>752</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+    </row>
+    <row r="12" spans="2:10" ht="60.75" thickBot="1">
+      <c r="B12" s="205" t="s">
+        <v>746</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>432</v>
+      </c>
+      <c r="I12" s="101" t="s">
+        <v>462</v>
+      </c>
+      <c r="J12" s="203" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B13" s="204"/>
+      <c r="C13" s="126" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>436</v>
+      </c>
+      <c r="G13" s="126" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="127" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>729</v>
+      </c>
+      <c r="J13" s="204"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="109" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="202"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+    </row>
+    <row r="15" spans="2:10" ht="75.75" thickBot="1">
+      <c r="B15" s="112" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="113"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="128" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="202"/>
+      <c r="D16" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="202"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B17" s="108"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="127" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" s="127" t="s">
+        <v>457</v>
+      </c>
+      <c r="G17" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>455</v>
+      </c>
+      <c r="I17" s="126" t="s">
+        <v>454</v>
+      </c>
+      <c r="J17" s="103"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>473</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>472</v>
-      </c>
-      <c r="F6" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="111" t="s">
-        <v>441</v>
-      </c>
-      <c r="I6" s="154" t="s">
-        <v>443</v>
-      </c>
-      <c r="J6" s="112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B7" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="115" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="117" t="s">
-        <v>442</v>
-      </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="153" t="s">
-        <v>447</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="F8" s="111" t="s">
-        <v>446</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="154" t="s">
-        <v>444</v>
-      </c>
-      <c r="J8" s="155" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B9" s="121" t="s">
-        <v>449</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>470</v>
-      </c>
-      <c r="D9" s="115" t="s">
-        <v>477</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="113" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="115" t="s">
-        <v>474</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="124" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="60">
-      <c r="B10" s="100" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>427</v>
-      </c>
-      <c r="D10" s="126" t="s">
-        <v>428</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>430</v>
-      </c>
-      <c r="G10" s="125" t="s">
-        <v>431</v>
-      </c>
-      <c r="H10" s="126" t="s">
-        <v>432</v>
-      </c>
-      <c r="I10" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="J10" s="127" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="150" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="151" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" s="150" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="150" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="124" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="30">
-      <c r="B12" s="129" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="130" t="s">
-        <v>346</v>
-      </c>
-      <c r="D12" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="E12" s="130" t="s">
-        <v>344</v>
-      </c>
-      <c r="F12" s="131" t="s">
-        <v>343</v>
-      </c>
-      <c r="G12" s="130" t="s">
-        <v>342</v>
-      </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="110" t="s">
-        <v>465</v>
-      </c>
-      <c r="J12" s="133" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="105.75" thickBot="1">
-      <c r="B13" s="134" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="152" t="s">
-        <v>461</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>462</v>
-      </c>
-      <c r="D14" s="138" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="138" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="139" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="I14" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" s="140"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="151" t="s">
-        <v>455</v>
-      </c>
-      <c r="E15" s="150" t="s">
-        <v>460</v>
-      </c>
-      <c r="F15" s="151" t="s">
-        <v>459</v>
-      </c>
-      <c r="G15" s="150" t="s">
-        <v>458</v>
-      </c>
-      <c r="H15" s="151" t="s">
-        <v>457</v>
-      </c>
-      <c r="I15" s="150" t="s">
-        <v>456</v>
-      </c>
-      <c r="J15" s="119"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="99" t="s">
-        <v>450</v>
-      </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="141" t="s">
-        <v>451</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>463</v>
-      </c>
+      <c r="C19" s="97"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
       <c r="F19" s="97"/>
@@ -40121,11 +40350,11 @@
       <c r="J19" s="97"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="143" t="s">
-        <v>452</v>
-      </c>
-      <c r="C20" s="144" t="s">
-        <v>468</v>
+      <c r="B20" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="118" t="s">
+        <v>460</v>
       </c>
       <c r="D20" s="97"/>
       <c r="E20" s="97"/>
@@ -40136,19 +40365,34 @@
       <c r="J20" s="97"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="145" t="s">
-        <v>453</v>
-      </c>
-      <c r="C21" s="146" t="s">
-        <v>478</v>
-      </c>
+      <c r="B21" s="119" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="147" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="148" t="s">
-        <v>479</v>
+      <c r="B22" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="123" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -40156,5 +40400,6 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAFFE9-1F6D-4FDF-B2D6-F925CF8B012B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2B4E0-BFE5-4CFC-8F6D-2134DD81BE87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="778">
   <si>
     <t>ID</t>
   </si>
@@ -1379,9 +1379,6 @@
   </si>
   <si>
     <t>Got Elevator key</t>
-  </si>
-  <si>
-    <t>Give Necklace to Lilly</t>
   </si>
   <si>
     <t>Legend :</t>
@@ -1446,9 +1443,6 @@
     <t>Got Mine Key B</t>
   </si>
   <si>
-    <t>Used Will</t>
-  </si>
-  <si>
     <t>Got Mushroom Drops</t>
   </si>
   <si>
@@ -1459,18 +1453,6 @@
   </si>
   <si>
     <t>Item AutoTracking - Triggers</t>
-  </si>
-  <si>
-    <t>Tile lighted</t>
-  </si>
-  <si>
-    <t>Given Apple</t>
-  </si>
-  <si>
-    <t>Trigger exists</t>
-  </si>
-  <si>
-    <t>Trigger doesn't exist</t>
   </si>
   <si>
     <t>Last item ID added to inventory</t>
@@ -2230,9 +2212,6 @@
     <t>Kara's location (01 = Ed's, 02 = Mine, 03 = Angel, 04 = Kress, 05 = Ankor Wat)</t>
   </si>
   <si>
-    <t>MD Used</t>
-  </si>
-  <si>
     <t>Herbs Used / Discarded</t>
   </si>
   <si>
@@ -2300,10 +2279,6 @@
 0x7e0a17 - 0x04</t>
   </si>
   <si>
-    <t>Got Hieroglyph 1 to 6
-0x7e0a18 - 0x04 to 0x80</t>
-  </si>
-  <si>
     <t>GOT CRYSTAL RING
 0x7e0a1b - 0x10</t>
   </si>
@@ -2384,10 +2359,6 @@
 0x7e0a0b - 0x08</t>
   </si>
   <si>
-    <t>LL read
-0x7e0a11 - 0x40</t>
-  </si>
-  <si>
     <t>HS1 Used
 0x7e0a0f - 0x08</t>
   </si>
@@ -2402,18 +2373,80 @@
   <si>
     <t>RSB Used
 0x7e0a10 - 0x02</t>
+  </si>
+  <si>
+    <t>Item spot</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Jeweler</t>
+  </si>
+  <si>
+    <t>Tile room opened
+0x7e0a22 - 0x04</t>
+  </si>
+  <si>
+    <t>MD1 used - 0x7e0a2a - 0x02
+MD2 used - 0x7e0a2b - 0x80 
+MD3 used - 0x7e0a2c - 0x80</t>
+  </si>
+  <si>
+    <t>Ann Apple 2
+0x7e0a1c - 0x10</t>
+  </si>
+  <si>
+    <t>Mu door open
+0x7e0a27 - 0x01</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Leave Watermia
+0x7e0a12 - 0x10 ?</t>
+  </si>
+  <si>
+    <t>Switch exists</t>
+  </si>
+  <si>
+    <t>Switch doesn't exist</t>
+  </si>
+  <si>
+    <t>Switch may be that one</t>
+  </si>
+  <si>
+    <t>Lance's Letter read
+0x7e0a11 - 0x40</t>
+  </si>
+  <si>
+    <t>Got Hieroglyphs</t>
+  </si>
+  <si>
+    <t>Leave Itory with Lilly 
+0x7e0a06 - 0x80
+Lilly in Seaside
+0x7e0a0d - 0x80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2507,14 +2540,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2576,8 +2601,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2629,12 +2662,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3406,11 +3433,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3426,19 +3453,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3447,55 +3474,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3507,13 +3534,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3522,22 +3549,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3567,10 +3594,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3579,34 +3606,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3657,16 +3684,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3705,22 +3732,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3732,22 +3747,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3756,25 +3771,25 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3798,67 +3813,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,139 +3864,16 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
@@ -4015,7 +3889,7 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4091,6 +3965,165 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4531,11 +4564,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P1237"/>
+  <dimension ref="A1:T1237"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4549,12 +4582,14 @@
     <col min="8" max="8" width="25.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="23.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="6" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
     <col min="15" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:20">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -4610,21 +4645,21 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="175"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="195"/>
       <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:20">
       <c r="A3" s="12">
         <f>A2+1</f>
         <v>1</v>
@@ -4637,19 +4672,23 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="206"/>
       <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="99" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q3" s="97"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="12">
         <f t="shared" ref="A4:A67" si="2">A3+1</f>
         <v>2</v>
@@ -4662,35 +4701,41 @@
         <f t="shared" si="1"/>
         <v>16-23</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="152" t="s">
+      <c r="J4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="127" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q4" s="141" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4699,39 +4744,43 @@
         <f t="shared" si="0"/>
         <v>A03</v>
       </c>
-      <c r="C5" s="125" t="str">
+      <c r="C5" s="121" t="str">
         <f t="shared" si="1"/>
         <v>24-31</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="131" t="s">
+      <c r="I5" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="131" t="s">
+      <c r="J5" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="136" t="s">
+      <c r="K5" s="131" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="115" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q5" s="182"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4744,35 +4793,39 @@
         <f t="shared" si="1"/>
         <v>32-39</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="153" t="s">
+      <c r="G6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="130" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="181" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q6" s="118"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="12">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4781,39 +4834,45 @@
         <f t="shared" si="0"/>
         <v>A05</v>
       </c>
-      <c r="C7" s="125" t="str">
+      <c r="C7" s="121" t="str">
         <f t="shared" si="1"/>
         <v>40-47</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="140" t="s">
+      <c r="F7" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="135" t="s">
+      <c r="K7" s="130" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="183" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q7" s="185" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4822,39 +4881,39 @@
         <f t="shared" si="0"/>
         <v>A06</v>
       </c>
-      <c r="C8" s="125" t="str">
+      <c r="C8" s="121" t="str">
         <f t="shared" si="1"/>
         <v>48-55</v>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="140" t="s">
+      <c r="I8" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="139" t="s">
+      <c r="K8" s="143" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:20">
       <c r="A9" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4867,33 +4926,33 @@
         <f t="shared" si="1"/>
         <v>56-63</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="131" t="s">
+      <c r="H9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="135"/>
-      <c r="K9" s="139" t="s">
-        <v>715</v>
+      <c r="J9" s="130"/>
+      <c r="K9" s="143" t="s">
+        <v>709</v>
       </c>
       <c r="M9" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:20">
       <c r="A10" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4902,39 +4961,39 @@
         <f t="shared" si="0"/>
         <v>A08</v>
       </c>
-      <c r="C10" s="125" t="str">
+      <c r="C10" s="121" t="str">
         <f t="shared" si="1"/>
         <v>64-71</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="140" t="s">
+      <c r="E10" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="135" t="s">
+      <c r="F10" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="135" t="s">
+      <c r="G10" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="135" t="s">
+      <c r="H10" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="139" t="s">
+      <c r="I10" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="142" t="s">
+      <c r="J10" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="139" t="s">
+      <c r="K10" s="143" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:20">
       <c r="A11" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4947,38 +5006,42 @@
         <f t="shared" si="1"/>
         <v>72-79</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="131" t="s">
+      <c r="I11" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="131" t="s">
+      <c r="J11" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="140" t="s">
+      <c r="K11" s="134" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="6">
         <v>48</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="226" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="226"/>
+      <c r="R11" s="226"/>
+      <c r="S11" s="226"/>
+      <c r="T11" s="226"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4987,39 +5050,39 @@
         <f t="shared" si="0"/>
         <v>A0A</v>
       </c>
-      <c r="C12" s="125" t="str">
+      <c r="C12" s="121" t="str">
         <f t="shared" si="1"/>
         <v>80-87</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="135" t="s">
+      <c r="F12" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="137" t="s">
+      <c r="H12" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="135" t="s">
+      <c r="I12" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="137" t="s">
+      <c r="J12" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="137" t="s">
+      <c r="K12" s="132" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:20">
       <c r="A13" s="12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5028,39 +5091,39 @@
         <f t="shared" si="0"/>
         <v>A0B</v>
       </c>
-      <c r="C13" s="125" t="str">
+      <c r="C13" s="121" t="str">
         <f t="shared" si="1"/>
         <v>88-95</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="139" t="s">
+      <c r="H13" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="138" t="s">
+      <c r="J13" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="131" t="s">
+      <c r="K13" s="127" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:20">
       <c r="A14" s="12">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5069,39 +5132,39 @@
         <f t="shared" si="0"/>
         <v>A0C</v>
       </c>
-      <c r="C14" s="125" t="str">
+      <c r="C14" s="121" t="str">
         <f t="shared" si="1"/>
         <v>96-103</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="139" t="s">
+      <c r="J14" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="139" t="s">
+      <c r="K14" s="143" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:20">
       <c r="A15" s="12">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5114,35 +5177,35 @@
         <f t="shared" si="1"/>
         <v>104-111</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="131" t="s">
+      <c r="E15" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="131" t="s">
+      <c r="I15" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="139" t="s">
+      <c r="J15" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="131" t="s">
+      <c r="K15" s="127" t="s">
         <v>93</v>
       </c>
       <c r="M15" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:20">
       <c r="A16" s="12">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5151,39 +5214,39 @@
         <f t="shared" si="0"/>
         <v>A0E</v>
       </c>
-      <c r="C16" s="125" t="str">
+      <c r="C16" s="121" t="str">
         <f t="shared" si="1"/>
         <v>112-119</v>
       </c>
-      <c r="D16" s="131" t="s">
+      <c r="D16" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="131" t="s">
+      <c r="F16" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="131" t="s">
+      <c r="H16" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="131" t="s">
+      <c r="I16" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="131" t="s">
+      <c r="J16" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="139" t="s">
+      <c r="K16" s="143" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1">
+    <row r="17" spans="1:20" s="1" customFormat="1">
       <c r="A17" s="31">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -5192,32 +5255,32 @@
         <f t="shared" si="0"/>
         <v>A0F</v>
       </c>
-      <c r="C17" s="129" t="str">
+      <c r="C17" s="125" t="str">
         <f t="shared" si="1"/>
         <v>120-127</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="131" t="s">
+      <c r="F17" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="140" t="s">
+      <c r="J17" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="135" t="s">
+      <c r="K17" s="130" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="56">
@@ -5226,7 +5289,7 @@
       <c r="N17" s="57"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:20">
       <c r="A18" s="37">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -5239,35 +5302,35 @@
         <f t="shared" si="1"/>
         <v>128-135</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="140" t="s">
+      <c r="F18" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="H18" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="132" t="s">
+      <c r="I18" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="139" t="s">
+      <c r="J18" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="143" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:20">
       <c r="A19" s="12">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -5276,39 +5339,39 @@
         <f t="shared" si="0"/>
         <v>A11</v>
       </c>
-      <c r="C19" s="125" t="str">
+      <c r="C19" s="121" t="str">
         <f t="shared" si="1"/>
         <v>136-143</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="151" t="s">
+      <c r="E19" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="131" t="s">
+      <c r="F19" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="143" t="s">
+      <c r="H19" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="144" t="s">
+      <c r="I19" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="137" t="s">
+      <c r="K19" s="132" t="s">
         <v>123</v>
       </c>
       <c r="M19" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:20">
       <c r="A20" s="12">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -5321,35 +5384,35 @@
         <f t="shared" si="1"/>
         <v>144-151</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="140" t="s">
+      <c r="I20" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="131" t="s">
+      <c r="J20" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="131" t="s">
+      <c r="K20" s="127" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:20">
       <c r="A21" s="12">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -5358,39 +5421,39 @@
         <f t="shared" si="0"/>
         <v>A13</v>
       </c>
-      <c r="C21" s="125" t="str">
+      <c r="C21" s="121" t="str">
         <f t="shared" si="1"/>
         <v>152-159</v>
       </c>
-      <c r="D21" s="131" t="s">
+      <c r="D21" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="131" t="s">
+      <c r="F21" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="145" t="s">
+      <c r="I21" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="146" t="s">
+      <c r="J21" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="146" t="s">
+      <c r="K21" s="131" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:20">
       <c r="A22" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5399,39 +5462,39 @@
         <f t="shared" si="0"/>
         <v>A14</v>
       </c>
-      <c r="C22" s="125" t="str">
+      <c r="C22" s="121" t="str">
         <f t="shared" si="1"/>
         <v>160-167</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="131" t="s">
+      <c r="G22" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="138" t="s">
+      <c r="H22" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="I22" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="137" t="s">
+      <c r="J22" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="137" t="s">
+      <c r="K22" s="132" t="s">
         <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:20">
       <c r="A23" s="12">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -5440,39 +5503,39 @@
         <f t="shared" si="0"/>
         <v>A15</v>
       </c>
-      <c r="C23" s="125" t="str">
+      <c r="C23" s="121" t="str">
         <f t="shared" si="1"/>
         <v>168-175</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="131" t="s">
+      <c r="F23" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="137" t="s">
+      <c r="H23" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="137" t="s">
+      <c r="I23" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="131" t="s">
+      <c r="J23" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="137" t="s">
+      <c r="K23" s="132" t="s">
         <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:20">
       <c r="A24" s="12">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -5481,42 +5544,46 @@
         <f t="shared" si="0"/>
         <v>A16</v>
       </c>
-      <c r="C24" s="125" t="str">
+      <c r="C24" s="121" t="str">
         <f t="shared" si="1"/>
         <v>176-183</v>
       </c>
-      <c r="D24" s="131" t="s">
+      <c r="D24" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="131" t="s">
+      <c r="E24" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="135" t="s">
+      <c r="F24" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="131" t="s">
+      <c r="G24" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="131" t="s">
+      <c r="H24" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="131" t="s">
+      <c r="J24" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="131" t="s">
+      <c r="K24" s="127" t="s">
         <v>163</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="226" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="226"/>
+      <c r="R24" s="226"/>
+      <c r="S24" s="226"/>
+      <c r="T24" s="226"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="12">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5525,39 +5592,39 @@
         <f t="shared" si="0"/>
         <v>A17</v>
       </c>
-      <c r="C25" s="125" t="str">
+      <c r="C25" s="121" t="str">
         <f t="shared" si="1"/>
         <v>184-191</v>
       </c>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="147" t="s">
+      <c r="F25" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="136" t="s">
+      <c r="G25" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="135" t="s">
+      <c r="H25" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="140" t="s">
+      <c r="I25" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="137" t="s">
+      <c r="J25" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="138" t="s">
+      <c r="K25" s="131" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:20">
       <c r="A26" s="12">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -5566,39 +5633,39 @@
         <f t="shared" si="0"/>
         <v>A18</v>
       </c>
-      <c r="C26" s="125" t="str">
+      <c r="C26" s="121" t="str">
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="140" t="s">
+      <c r="E26" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="140" t="s">
+      <c r="G26" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="140" t="s">
+      <c r="H26" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="140" t="s">
+      <c r="I26" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="137" t="s">
+      <c r="J26" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="137" t="s">
+      <c r="K26" s="132" t="s">
         <v>181</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:20">
       <c r="A27" s="12">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -5607,39 +5674,39 @@
         <f t="shared" si="0"/>
         <v>A19</v>
       </c>
-      <c r="C27" s="125" t="str">
+      <c r="C27" s="121" t="str">
         <f t="shared" si="1"/>
         <v>200-207</v>
       </c>
-      <c r="D27" s="135" t="s">
+      <c r="D27" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="149" t="s">
+      <c r="E27" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="136" t="s">
+      <c r="F27" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="136" t="s">
+      <c r="G27" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="136" t="s">
+      <c r="H27" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="135" t="s">
+      <c r="I27" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="136" t="s">
+      <c r="J27" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="130" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:20">
       <c r="A28" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -5648,39 +5715,39 @@
         <f t="shared" si="0"/>
         <v>A1A</v>
       </c>
-      <c r="C28" s="125" t="str">
+      <c r="C28" s="121" t="str">
         <f t="shared" si="1"/>
         <v>208-215</v>
       </c>
-      <c r="D28" s="146" t="s">
+      <c r="D28" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="136" t="s">
+      <c r="F28" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="135" t="s">
+      <c r="G28" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="135" t="s">
+      <c r="H28" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="135" t="s">
+      <c r="I28" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="137" t="s">
+      <c r="J28" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="131" t="s">
+      <c r="K28" s="127" t="s">
         <v>196</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:20">
       <c r="A29" s="12">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -5689,39 +5756,39 @@
         <f t="shared" si="0"/>
         <v>A1B</v>
       </c>
-      <c r="C29" s="125" t="str">
+      <c r="C29" s="121" t="str">
         <f t="shared" si="1"/>
         <v>216-223</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="131" t="s">
+      <c r="E29" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="131" t="s">
+      <c r="F29" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="148" t="s">
+      <c r="G29" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="135" t="s">
+      <c r="H29" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="136" t="s">
+      <c r="I29" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="146" t="s">
+      <c r="J29" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="146" t="s">
+      <c r="K29" s="131" t="s">
         <v>204</v>
       </c>
       <c r="M29" s="81" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:20">
       <c r="A30" s="12">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -5730,39 +5797,39 @@
         <f t="shared" si="0"/>
         <v>A1C</v>
       </c>
-      <c r="C30" s="125" t="str">
+      <c r="C30" s="121" t="str">
         <f t="shared" si="1"/>
         <v>224-231</v>
       </c>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="146" t="s">
+      <c r="E30" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="146" t="s">
+      <c r="F30" s="131" t="s">
         <v>208</v>
       </c>
       <c r="G30" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="143" t="s">
+      <c r="H30" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="138" t="s">
+      <c r="I30" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="146" t="s">
+      <c r="J30" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="146" t="s">
+      <c r="K30" s="131" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:20">
       <c r="A31" s="12">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -5771,39 +5838,39 @@
         <f t="shared" si="0"/>
         <v>A1D</v>
       </c>
-      <c r="C31" s="125" t="str">
+      <c r="C31" s="121" t="str">
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="149" t="s">
+      <c r="D31" s="143" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="138" t="s">
+      <c r="E31" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="138" t="s">
+      <c r="G31" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="138" t="s">
+      <c r="H31" s="133" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="138" t="s">
+      <c r="I31" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="138" t="s">
+      <c r="J31" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="137" t="s">
+      <c r="K31" s="132" t="s">
         <v>221</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:20">
       <c r="A32" s="12">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -5812,32 +5879,32 @@
         <f>DEC2HEX(2560+A32)</f>
         <v>A1E</v>
       </c>
-      <c r="C32" s="125" t="str">
+      <c r="C32" s="121" t="str">
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="131" t="s">
+      <c r="D32" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="142" t="s">
+      <c r="F32" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="135" t="s">
+      <c r="G32" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="137" t="s">
+      <c r="I32" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="137" t="s">
+      <c r="J32" s="131" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="131" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="81" t="s">
@@ -5853,30 +5920,30 @@
         <f>DEC2HEX(2560+A33)</f>
         <v>A1F</v>
       </c>
-      <c r="C33" s="129" t="str">
+      <c r="C33" s="125" t="str">
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="135"/>
-      <c r="E33" s="131" t="s">
+      <c r="D33" s="130"/>
+      <c r="E33" s="127" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="150" t="s">
+      <c r="F33" s="141" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="150" t="s">
+      <c r="G33" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="150" t="s">
+      <c r="H33" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="150" t="s">
+      <c r="I33" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="150" t="s">
+      <c r="J33" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="150" t="s">
+      <c r="K33" s="141" t="s">
         <v>237</v>
       </c>
       <c r="M33" s="56" t="s">
@@ -5902,7 +5969,7 @@
       <c r="F34" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="130" t="s">
+      <c r="G34" s="126" t="s">
         <v>241</v>
       </c>
       <c r="H34" s="88" t="s">
@@ -5980,7 +6047,7 @@
       <c r="H36" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="91" t="s">
+      <c r="I36" s="143" t="s">
         <v>257</v>
       </c>
       <c r="J36" s="91"/>
@@ -6153,16 +6220,16 @@
         <v>285</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="91" t="s">
+      <c r="I41" s="131" t="s">
         <v>287</v>
       </c>
       <c r="J41" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="K41" s="143" t="s">
         <v>289</v>
       </c>
       <c r="M41" s="6">
@@ -6281,7 +6348,7 @@
         <v>A2B</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="143" t="s">
         <v>308</v>
       </c>
       <c r="E45" s="91"/>
@@ -6289,7 +6356,7 @@
       <c r="G45" s="92"/>
       <c r="H45" s="93"/>
       <c r="I45" s="91"/>
-      <c r="J45" s="91" t="s">
+      <c r="J45" s="143" t="s">
         <v>309</v>
       </c>
       <c r="K45" s="92"/>
@@ -6307,7 +6374,7 @@
         <v>A2C</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="143" t="s">
         <v>310</v>
       </c>
       <c r="E46" s="12"/>
@@ -7655,16 +7722,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="196" t="s">
-        <v>716</v>
-      </c>
-      <c r="E90" s="197"/>
-      <c r="F90" s="197"/>
-      <c r="G90" s="197"/>
-      <c r="H90" s="197"/>
-      <c r="I90" s="197"/>
-      <c r="J90" s="197"/>
-      <c r="K90" s="198"/>
+      <c r="D90" s="229" t="s">
+        <v>710</v>
+      </c>
+      <c r="E90" s="230"/>
+      <c r="F90" s="230"/>
+      <c r="G90" s="230"/>
+      <c r="H90" s="230"/>
+      <c r="I90" s="230"/>
+      <c r="J90" s="230"/>
+      <c r="K90" s="231"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="12">
@@ -7676,16 +7743,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="196" t="s">
-        <v>717</v>
-      </c>
-      <c r="E91" s="197"/>
-      <c r="F91" s="197"/>
-      <c r="G91" s="197"/>
-      <c r="H91" s="197"/>
-      <c r="I91" s="197"/>
-      <c r="J91" s="197"/>
-      <c r="K91" s="198"/>
+      <c r="D91" s="229" t="s">
+        <v>711</v>
+      </c>
+      <c r="E91" s="230"/>
+      <c r="F91" s="230"/>
+      <c r="G91" s="230"/>
+      <c r="H91" s="230"/>
+      <c r="I91" s="230"/>
+      <c r="J91" s="230"/>
+      <c r="K91" s="231"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="12">
@@ -7697,16 +7764,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="196" t="s">
-        <v>718</v>
-      </c>
-      <c r="E92" s="197"/>
-      <c r="F92" s="197"/>
-      <c r="G92" s="197"/>
-      <c r="H92" s="197"/>
-      <c r="I92" s="197"/>
-      <c r="J92" s="197"/>
-      <c r="K92" s="198"/>
+      <c r="D92" s="229" t="s">
+        <v>712</v>
+      </c>
+      <c r="E92" s="230"/>
+      <c r="F92" s="230"/>
+      <c r="G92" s="230"/>
+      <c r="H92" s="230"/>
+      <c r="I92" s="230"/>
+      <c r="J92" s="230"/>
+      <c r="K92" s="231"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="12">
@@ -7718,16 +7785,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="196" t="s">
-        <v>719</v>
-      </c>
-      <c r="E93" s="197"/>
-      <c r="F93" s="197"/>
-      <c r="G93" s="197"/>
-      <c r="H93" s="197"/>
-      <c r="I93" s="197"/>
-      <c r="J93" s="197"/>
-      <c r="K93" s="198"/>
+      <c r="D93" s="229" t="s">
+        <v>713</v>
+      </c>
+      <c r="E93" s="230"/>
+      <c r="F93" s="230"/>
+      <c r="G93" s="230"/>
+      <c r="H93" s="230"/>
+      <c r="I93" s="230"/>
+      <c r="J93" s="230"/>
+      <c r="K93" s="231"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="12">
@@ -7739,16 +7806,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="196" t="s">
-        <v>720</v>
-      </c>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
-      <c r="G94" s="197"/>
-      <c r="H94" s="197"/>
-      <c r="I94" s="197"/>
-      <c r="J94" s="197"/>
-      <c r="K94" s="198"/>
+      <c r="D94" s="229" t="s">
+        <v>714</v>
+      </c>
+      <c r="E94" s="230"/>
+      <c r="F94" s="230"/>
+      <c r="G94" s="230"/>
+      <c r="H94" s="230"/>
+      <c r="I94" s="230"/>
+      <c r="J94" s="230"/>
+      <c r="K94" s="231"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="12">
@@ -7760,16 +7827,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="196" t="s">
-        <v>721</v>
-      </c>
-      <c r="E95" s="197"/>
-      <c r="F95" s="197"/>
-      <c r="G95" s="197"/>
-      <c r="H95" s="197"/>
-      <c r="I95" s="197"/>
-      <c r="J95" s="197"/>
-      <c r="K95" s="198"/>
+      <c r="D95" s="229" t="s">
+        <v>715</v>
+      </c>
+      <c r="E95" s="230"/>
+      <c r="F95" s="230"/>
+      <c r="G95" s="230"/>
+      <c r="H95" s="230"/>
+      <c r="I95" s="230"/>
+      <c r="J95" s="230"/>
+      <c r="K95" s="231"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="12">
@@ -7781,16 +7848,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="196" t="s">
-        <v>727</v>
-      </c>
-      <c r="E96" s="197"/>
-      <c r="F96" s="197"/>
-      <c r="G96" s="197"/>
-      <c r="H96" s="197"/>
-      <c r="I96" s="197"/>
-      <c r="J96" s="197"/>
-      <c r="K96" s="198"/>
+      <c r="D96" s="229" t="s">
+        <v>721</v>
+      </c>
+      <c r="E96" s="230"/>
+      <c r="F96" s="230"/>
+      <c r="G96" s="230"/>
+      <c r="H96" s="230"/>
+      <c r="I96" s="230"/>
+      <c r="J96" s="230"/>
+      <c r="K96" s="231"/>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1">
       <c r="A97" s="31">
@@ -7804,23 +7871,23 @@
       <c r="C97" s="32"/>
       <c r="D97" s="49"/>
       <c r="E97" s="31"/>
-      <c r="F97" s="142" t="s">
-        <v>723</v>
-      </c>
-      <c r="G97" s="142" t="s">
-        <v>724</v>
-      </c>
-      <c r="H97" s="142" t="s">
-        <v>725</v>
-      </c>
-      <c r="I97" s="142" t="s">
-        <v>725</v>
-      </c>
-      <c r="J97" s="142" t="s">
-        <v>726</v>
-      </c>
-      <c r="K97" s="142" t="s">
-        <v>722</v>
+      <c r="F97" s="136" t="s">
+        <v>717</v>
+      </c>
+      <c r="G97" s="136" t="s">
+        <v>718</v>
+      </c>
+      <c r="H97" s="136" t="s">
+        <v>719</v>
+      </c>
+      <c r="I97" s="136" t="s">
+        <v>719</v>
+      </c>
+      <c r="J97" s="136" t="s">
+        <v>720</v>
+      </c>
+      <c r="K97" s="136" t="s">
+        <v>716</v>
       </c>
       <c r="M97" s="56"/>
       <c r="N97" s="57"/>
@@ -10729,16 +10796,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="159" t="s">
+      <c r="D168" s="227" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="159"/>
-      <c r="F168" s="159"/>
-      <c r="G168" s="159"/>
-      <c r="H168" s="159"/>
-      <c r="I168" s="159"/>
-      <c r="J168" s="159"/>
-      <c r="K168" s="159"/>
+      <c r="E168" s="227"/>
+      <c r="F168" s="227"/>
+      <c r="G168" s="227"/>
+      <c r="H168" s="227"/>
+      <c r="I168" s="227"/>
+      <c r="J168" s="227"/>
+      <c r="K168" s="227"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10864,16 +10931,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="159" t="s">
+      <c r="D175" s="227" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="159"/>
-      <c r="F175" s="159"/>
-      <c r="G175" s="159"/>
-      <c r="H175" s="159"/>
-      <c r="I175" s="159"/>
-      <c r="J175" s="159"/>
-      <c r="K175" s="159"/>
+      <c r="E175" s="227"/>
+      <c r="F175" s="227"/>
+      <c r="G175" s="227"/>
+      <c r="H175" s="227"/>
+      <c r="I175" s="227"/>
+      <c r="J175" s="227"/>
+      <c r="K175" s="227"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10926,16 +10993,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="160" t="s">
+      <c r="D178" s="228" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="159"/>
-      <c r="F178" s="159"/>
-      <c r="G178" s="159"/>
-      <c r="H178" s="159"/>
-      <c r="I178" s="159"/>
-      <c r="J178" s="159"/>
-      <c r="K178" s="159"/>
+      <c r="E178" s="227"/>
+      <c r="F178" s="227"/>
+      <c r="G178" s="227"/>
+      <c r="H178" s="227"/>
+      <c r="I178" s="227"/>
+      <c r="J178" s="227"/>
+      <c r="K178" s="227"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -11007,16 +11074,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="161" t="s">
+      <c r="D182" s="199" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="162"/>
-      <c r="F182" s="162"/>
-      <c r="G182" s="162"/>
-      <c r="H182" s="162"/>
-      <c r="I182" s="162"/>
-      <c r="J182" s="162"/>
-      <c r="K182" s="163"/>
+      <c r="E182" s="200"/>
+      <c r="F182" s="200"/>
+      <c r="G182" s="200"/>
+      <c r="H182" s="200"/>
+      <c r="I182" s="200"/>
+      <c r="J182" s="200"/>
+      <c r="K182" s="201"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -11028,16 +11095,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="161" t="s">
+      <c r="D183" s="199" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="162"/>
-      <c r="F183" s="162"/>
-      <c r="G183" s="162"/>
-      <c r="H183" s="162"/>
-      <c r="I183" s="162"/>
-      <c r="J183" s="162"/>
-      <c r="K183" s="163"/>
+      <c r="E183" s="200"/>
+      <c r="F183" s="200"/>
+      <c r="G183" s="200"/>
+      <c r="H183" s="200"/>
+      <c r="I183" s="200"/>
+      <c r="J183" s="200"/>
+      <c r="K183" s="201"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -11049,16 +11116,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="161" t="s">
+      <c r="D184" s="199" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="162"/>
-      <c r="F184" s="162"/>
-      <c r="G184" s="162"/>
-      <c r="H184" s="162"/>
-      <c r="I184" s="162"/>
-      <c r="J184" s="162"/>
-      <c r="K184" s="163"/>
+      <c r="E184" s="200"/>
+      <c r="F184" s="200"/>
+      <c r="G184" s="200"/>
+      <c r="H184" s="200"/>
+      <c r="I184" s="200"/>
+      <c r="J184" s="200"/>
+      <c r="K184" s="201"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -11070,16 +11137,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="161" t="s">
+      <c r="D185" s="199" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="162"/>
-      <c r="F185" s="162"/>
-      <c r="G185" s="162"/>
-      <c r="H185" s="162"/>
-      <c r="I185" s="162"/>
-      <c r="J185" s="162"/>
-      <c r="K185" s="163"/>
+      <c r="E185" s="200"/>
+      <c r="F185" s="200"/>
+      <c r="G185" s="200"/>
+      <c r="H185" s="200"/>
+      <c r="I185" s="200"/>
+      <c r="J185" s="200"/>
+      <c r="K185" s="201"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -11091,16 +11158,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="161" t="s">
+      <c r="D186" s="199" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="162"/>
-      <c r="F186" s="162"/>
-      <c r="G186" s="162"/>
-      <c r="H186" s="162"/>
-      <c r="I186" s="162"/>
-      <c r="J186" s="162"/>
-      <c r="K186" s="163"/>
+      <c r="E186" s="200"/>
+      <c r="F186" s="200"/>
+      <c r="G186" s="200"/>
+      <c r="H186" s="200"/>
+      <c r="I186" s="200"/>
+      <c r="J186" s="200"/>
+      <c r="K186" s="201"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -11112,16 +11179,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="161" t="s">
+      <c r="D187" s="199" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="162"/>
-      <c r="F187" s="162"/>
-      <c r="G187" s="162"/>
-      <c r="H187" s="162"/>
-      <c r="I187" s="162"/>
-      <c r="J187" s="162"/>
-      <c r="K187" s="163"/>
+      <c r="E187" s="200"/>
+      <c r="F187" s="200"/>
+      <c r="G187" s="200"/>
+      <c r="H187" s="200"/>
+      <c r="I187" s="200"/>
+      <c r="J187" s="200"/>
+      <c r="K187" s="201"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -11133,16 +11200,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="161" t="s">
+      <c r="D188" s="199" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="162"/>
-      <c r="F188" s="162"/>
-      <c r="G188" s="162"/>
-      <c r="H188" s="162"/>
-      <c r="I188" s="162"/>
-      <c r="J188" s="162"/>
-      <c r="K188" s="163"/>
+      <c r="E188" s="200"/>
+      <c r="F188" s="200"/>
+      <c r="G188" s="200"/>
+      <c r="H188" s="200"/>
+      <c r="I188" s="200"/>
+      <c r="J188" s="200"/>
+      <c r="K188" s="201"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -11154,16 +11221,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="161" t="s">
+      <c r="D189" s="199" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="162"/>
-      <c r="F189" s="162"/>
-      <c r="G189" s="162"/>
-      <c r="H189" s="162"/>
-      <c r="I189" s="162"/>
-      <c r="J189" s="162"/>
-      <c r="K189" s="163"/>
+      <c r="E189" s="200"/>
+      <c r="F189" s="200"/>
+      <c r="G189" s="200"/>
+      <c r="H189" s="200"/>
+      <c r="I189" s="200"/>
+      <c r="J189" s="200"/>
+      <c r="K189" s="201"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -11175,16 +11242,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="161" t="s">
+      <c r="D190" s="199" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="162"/>
-      <c r="F190" s="162"/>
-      <c r="G190" s="162"/>
-      <c r="H190" s="162"/>
-      <c r="I190" s="162"/>
-      <c r="J190" s="162"/>
-      <c r="K190" s="163"/>
+      <c r="E190" s="200"/>
+      <c r="F190" s="200"/>
+      <c r="G190" s="200"/>
+      <c r="H190" s="200"/>
+      <c r="I190" s="200"/>
+      <c r="J190" s="200"/>
+      <c r="K190" s="201"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -11196,16 +11263,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="161" t="s">
+      <c r="D191" s="199" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="162"/>
-      <c r="F191" s="162"/>
-      <c r="G191" s="162"/>
-      <c r="H191" s="162"/>
-      <c r="I191" s="162"/>
-      <c r="J191" s="162"/>
-      <c r="K191" s="163"/>
+      <c r="E191" s="200"/>
+      <c r="F191" s="200"/>
+      <c r="G191" s="200"/>
+      <c r="H191" s="200"/>
+      <c r="I191" s="200"/>
+      <c r="J191" s="200"/>
+      <c r="K191" s="201"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -11217,16 +11284,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="161" t="s">
+      <c r="D192" s="199" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="162"/>
-      <c r="F192" s="162"/>
-      <c r="G192" s="162"/>
-      <c r="H192" s="162"/>
-      <c r="I192" s="162"/>
-      <c r="J192" s="162"/>
-      <c r="K192" s="163"/>
+      <c r="E192" s="200"/>
+      <c r="F192" s="200"/>
+      <c r="G192" s="200"/>
+      <c r="H192" s="200"/>
+      <c r="I192" s="200"/>
+      <c r="J192" s="200"/>
+      <c r="K192" s="201"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -11238,16 +11305,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="164" t="s">
+      <c r="D193" s="223" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="165"/>
-      <c r="F193" s="165"/>
-      <c r="G193" s="165"/>
-      <c r="H193" s="165"/>
-      <c r="I193" s="165"/>
-      <c r="J193" s="165"/>
-      <c r="K193" s="166"/>
+      <c r="E193" s="224"/>
+      <c r="F193" s="224"/>
+      <c r="G193" s="224"/>
+      <c r="H193" s="224"/>
+      <c r="I193" s="224"/>
+      <c r="J193" s="224"/>
+      <c r="K193" s="225"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -11262,16 +11329,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="167" t="s">
+      <c r="D194" s="209" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="168"/>
-      <c r="F194" s="168"/>
-      <c r="G194" s="168"/>
-      <c r="H194" s="168"/>
-      <c r="I194" s="168"/>
-      <c r="J194" s="168"/>
-      <c r="K194" s="169"/>
+      <c r="E194" s="197"/>
+      <c r="F194" s="197"/>
+      <c r="G194" s="197"/>
+      <c r="H194" s="197"/>
+      <c r="I194" s="197"/>
+      <c r="J194" s="197"/>
+      <c r="K194" s="210"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -11283,16 +11350,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="161" t="s">
+      <c r="D195" s="199" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="162"/>
-      <c r="F195" s="162"/>
-      <c r="G195" s="162"/>
-      <c r="H195" s="162"/>
-      <c r="I195" s="162"/>
-      <c r="J195" s="162"/>
-      <c r="K195" s="163"/>
+      <c r="E195" s="200"/>
+      <c r="F195" s="200"/>
+      <c r="G195" s="200"/>
+      <c r="H195" s="200"/>
+      <c r="I195" s="200"/>
+      <c r="J195" s="200"/>
+      <c r="K195" s="201"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -11304,16 +11371,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="161" t="s">
+      <c r="D196" s="199" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="162"/>
-      <c r="F196" s="162"/>
-      <c r="G196" s="162"/>
-      <c r="H196" s="162"/>
-      <c r="I196" s="162"/>
-      <c r="J196" s="162"/>
-      <c r="K196" s="163"/>
+      <c r="E196" s="200"/>
+      <c r="F196" s="200"/>
+      <c r="G196" s="200"/>
+      <c r="H196" s="200"/>
+      <c r="I196" s="200"/>
+      <c r="J196" s="200"/>
+      <c r="K196" s="201"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -11325,16 +11392,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="161" t="s">
+      <c r="D197" s="199" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="162"/>
-      <c r="F197" s="162"/>
-      <c r="G197" s="162"/>
-      <c r="H197" s="162"/>
-      <c r="I197" s="162"/>
-      <c r="J197" s="162"/>
-      <c r="K197" s="163"/>
+      <c r="E197" s="200"/>
+      <c r="F197" s="200"/>
+      <c r="G197" s="200"/>
+      <c r="H197" s="200"/>
+      <c r="I197" s="200"/>
+      <c r="J197" s="200"/>
+      <c r="K197" s="201"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -11346,16 +11413,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="161" t="s">
+      <c r="D198" s="199" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="162"/>
-      <c r="F198" s="162"/>
-      <c r="G198" s="162"/>
-      <c r="H198" s="162"/>
-      <c r="I198" s="162"/>
-      <c r="J198" s="162"/>
-      <c r="K198" s="163"/>
+      <c r="E198" s="200"/>
+      <c r="F198" s="200"/>
+      <c r="G198" s="200"/>
+      <c r="H198" s="200"/>
+      <c r="I198" s="200"/>
+      <c r="J198" s="200"/>
+      <c r="K198" s="201"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -11386,16 +11453,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="161" t="s">
+      <c r="D200" s="199" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="162"/>
-      <c r="F200" s="162"/>
-      <c r="G200" s="162"/>
-      <c r="H200" s="162"/>
-      <c r="I200" s="162"/>
-      <c r="J200" s="162"/>
-      <c r="K200" s="163"/>
+      <c r="E200" s="200"/>
+      <c r="F200" s="200"/>
+      <c r="G200" s="200"/>
+      <c r="H200" s="200"/>
+      <c r="I200" s="200"/>
+      <c r="J200" s="200"/>
+      <c r="K200" s="201"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -11426,16 +11493,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="191" t="s">
+      <c r="D202" s="217" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="192"/>
-      <c r="F202" s="192"/>
-      <c r="G202" s="192"/>
-      <c r="H202" s="192"/>
-      <c r="I202" s="192"/>
-      <c r="J202" s="192"/>
-      <c r="K202" s="193"/>
+      <c r="E202" s="218"/>
+      <c r="F202" s="218"/>
+      <c r="G202" s="218"/>
+      <c r="H202" s="218"/>
+      <c r="I202" s="218"/>
+      <c r="J202" s="218"/>
+      <c r="K202" s="219"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -11466,16 +11533,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="161" t="s">
+      <c r="D204" s="199" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="162"/>
-      <c r="F204" s="162"/>
-      <c r="G204" s="162"/>
-      <c r="H204" s="162"/>
-      <c r="I204" s="162"/>
-      <c r="J204" s="162"/>
-      <c r="K204" s="163"/>
+      <c r="E204" s="200"/>
+      <c r="F204" s="200"/>
+      <c r="G204" s="200"/>
+      <c r="H204" s="200"/>
+      <c r="I204" s="200"/>
+      <c r="J204" s="200"/>
+      <c r="K204" s="201"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -11506,16 +11573,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="161" t="s">
+      <c r="D206" s="199" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="162"/>
-      <c r="F206" s="162"/>
-      <c r="G206" s="162"/>
-      <c r="H206" s="162"/>
-      <c r="I206" s="162"/>
-      <c r="J206" s="162"/>
-      <c r="K206" s="163"/>
+      <c r="E206" s="200"/>
+      <c r="F206" s="200"/>
+      <c r="G206" s="200"/>
+      <c r="H206" s="200"/>
+      <c r="I206" s="200"/>
+      <c r="J206" s="200"/>
+      <c r="K206" s="201"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -11546,16 +11613,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="161" t="s">
+      <c r="D208" s="199" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="162"/>
-      <c r="F208" s="162"/>
-      <c r="G208" s="162"/>
-      <c r="H208" s="162"/>
-      <c r="I208" s="162"/>
-      <c r="J208" s="162"/>
-      <c r="K208" s="163"/>
+      <c r="E208" s="200"/>
+      <c r="F208" s="200"/>
+      <c r="G208" s="200"/>
+      <c r="H208" s="200"/>
+      <c r="I208" s="200"/>
+      <c r="J208" s="200"/>
+      <c r="K208" s="201"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -11589,16 +11656,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="167" t="s">
+      <c r="D210" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="168"/>
-      <c r="F210" s="168"/>
-      <c r="G210" s="168"/>
-      <c r="H210" s="168"/>
-      <c r="I210" s="168"/>
-      <c r="J210" s="168"/>
-      <c r="K210" s="169"/>
+      <c r="E210" s="197"/>
+      <c r="F210" s="197"/>
+      <c r="G210" s="197"/>
+      <c r="H210" s="197"/>
+      <c r="I210" s="197"/>
+      <c r="J210" s="197"/>
+      <c r="K210" s="210"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -11667,16 +11734,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="161" t="s">
+      <c r="D214" s="199" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="162"/>
-      <c r="F214" s="162"/>
-      <c r="G214" s="162"/>
-      <c r="H214" s="162"/>
-      <c r="I214" s="162"/>
-      <c r="J214" s="162"/>
-      <c r="K214" s="163"/>
+      <c r="E214" s="200"/>
+      <c r="F214" s="200"/>
+      <c r="G214" s="200"/>
+      <c r="H214" s="200"/>
+      <c r="I214" s="200"/>
+      <c r="J214" s="200"/>
+      <c r="K214" s="201"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -11707,16 +11774,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="182" t="s">
+      <c r="D216" s="207" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="174"/>
-      <c r="F216" s="174"/>
-      <c r="G216" s="174"/>
-      <c r="H216" s="174"/>
-      <c r="I216" s="174"/>
-      <c r="J216" s="174"/>
-      <c r="K216" s="183"/>
+      <c r="E216" s="194"/>
+      <c r="F216" s="194"/>
+      <c r="G216" s="194"/>
+      <c r="H216" s="194"/>
+      <c r="I216" s="194"/>
+      <c r="J216" s="194"/>
+      <c r="K216" s="208"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11728,14 +11795,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="167"/>
-      <c r="E217" s="168"/>
-      <c r="F217" s="168"/>
-      <c r="G217" s="168"/>
-      <c r="H217" s="168"/>
-      <c r="I217" s="168"/>
-      <c r="J217" s="168"/>
-      <c r="K217" s="169"/>
+      <c r="D217" s="209"/>
+      <c r="E217" s="197"/>
+      <c r="F217" s="197"/>
+      <c r="G217" s="197"/>
+      <c r="H217" s="197"/>
+      <c r="I217" s="197"/>
+      <c r="J217" s="197"/>
+      <c r="K217" s="210"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11747,16 +11814,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="182" t="s">
+      <c r="D218" s="207" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="174"/>
-      <c r="F218" s="174"/>
-      <c r="G218" s="174"/>
-      <c r="H218" s="174"/>
-      <c r="I218" s="174"/>
-      <c r="J218" s="174"/>
-      <c r="K218" s="183"/>
+      <c r="E218" s="194"/>
+      <c r="F218" s="194"/>
+      <c r="G218" s="194"/>
+      <c r="H218" s="194"/>
+      <c r="I218" s="194"/>
+      <c r="J218" s="194"/>
+      <c r="K218" s="208"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11768,14 +11835,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="167"/>
-      <c r="E219" s="168"/>
-      <c r="F219" s="168"/>
-      <c r="G219" s="168"/>
-      <c r="H219" s="168"/>
-      <c r="I219" s="168"/>
-      <c r="J219" s="168"/>
-      <c r="K219" s="169"/>
+      <c r="D219" s="209"/>
+      <c r="E219" s="197"/>
+      <c r="F219" s="197"/>
+      <c r="G219" s="197"/>
+      <c r="H219" s="197"/>
+      <c r="I219" s="197"/>
+      <c r="J219" s="197"/>
+      <c r="K219" s="210"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11787,16 +11854,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="182" t="s">
+      <c r="D220" s="207" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="174"/>
-      <c r="F220" s="174"/>
-      <c r="G220" s="174"/>
-      <c r="H220" s="174"/>
-      <c r="I220" s="174"/>
-      <c r="J220" s="174"/>
-      <c r="K220" s="183"/>
+      <c r="E220" s="194"/>
+      <c r="F220" s="194"/>
+      <c r="G220" s="194"/>
+      <c r="H220" s="194"/>
+      <c r="I220" s="194"/>
+      <c r="J220" s="194"/>
+      <c r="K220" s="208"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11808,14 +11875,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="167"/>
-      <c r="E221" s="168"/>
-      <c r="F221" s="168"/>
-      <c r="G221" s="168"/>
-      <c r="H221" s="168"/>
-      <c r="I221" s="168"/>
-      <c r="J221" s="168"/>
-      <c r="K221" s="169"/>
+      <c r="D221" s="209"/>
+      <c r="E221" s="197"/>
+      <c r="F221" s="197"/>
+      <c r="G221" s="197"/>
+      <c r="H221" s="197"/>
+      <c r="I221" s="197"/>
+      <c r="J221" s="197"/>
+      <c r="K221" s="210"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11827,16 +11894,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="161" t="s">
+      <c r="D222" s="199" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="162"/>
-      <c r="F222" s="162"/>
-      <c r="G222" s="162"/>
-      <c r="H222" s="162"/>
-      <c r="I222" s="162"/>
-      <c r="J222" s="162"/>
-      <c r="K222" s="163"/>
+      <c r="E222" s="200"/>
+      <c r="F222" s="200"/>
+      <c r="G222" s="200"/>
+      <c r="H222" s="200"/>
+      <c r="I222" s="200"/>
+      <c r="J222" s="200"/>
+      <c r="K222" s="201"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11867,16 +11934,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="161" t="s">
+      <c r="D224" s="199" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="162"/>
-      <c r="F224" s="162"/>
-      <c r="G224" s="162"/>
-      <c r="H224" s="162"/>
-      <c r="I224" s="162"/>
-      <c r="J224" s="162"/>
-      <c r="K224" s="163"/>
+      <c r="E224" s="200"/>
+      <c r="F224" s="200"/>
+      <c r="G224" s="200"/>
+      <c r="H224" s="200"/>
+      <c r="I224" s="200"/>
+      <c r="J224" s="200"/>
+      <c r="K224" s="201"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11910,16 +11977,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="188" t="s">
+      <c r="D226" s="214" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="189"/>
-      <c r="F226" s="189"/>
-      <c r="G226" s="189"/>
-      <c r="H226" s="189"/>
-      <c r="I226" s="189"/>
-      <c r="J226" s="189"/>
-      <c r="K226" s="190"/>
+      <c r="E226" s="215"/>
+      <c r="F226" s="215"/>
+      <c r="G226" s="215"/>
+      <c r="H226" s="215"/>
+      <c r="I226" s="215"/>
+      <c r="J226" s="215"/>
+      <c r="K226" s="216"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -12064,16 +12131,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="186" t="s">
+      <c r="D234" s="211" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="171"/>
-      <c r="F234" s="171"/>
-      <c r="G234" s="171"/>
-      <c r="H234" s="171"/>
-      <c r="I234" s="171"/>
-      <c r="J234" s="171"/>
-      <c r="K234" s="187"/>
+      <c r="E234" s="212"/>
+      <c r="F234" s="212"/>
+      <c r="G234" s="212"/>
+      <c r="H234" s="212"/>
+      <c r="I234" s="212"/>
+      <c r="J234" s="212"/>
+      <c r="K234" s="213"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -12142,16 +12209,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="178" t="s">
+      <c r="D238" s="193" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="174"/>
-      <c r="F238" s="174"/>
-      <c r="G238" s="174"/>
-      <c r="H238" s="174"/>
-      <c r="I238" s="174"/>
-      <c r="J238" s="174"/>
-      <c r="K238" s="175"/>
+      <c r="E238" s="194"/>
+      <c r="F238" s="194"/>
+      <c r="G238" s="194"/>
+      <c r="H238" s="194"/>
+      <c r="I238" s="194"/>
+      <c r="J238" s="194"/>
+      <c r="K238" s="195"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -12163,14 +12230,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="184"/>
-      <c r="E239" s="168"/>
-      <c r="F239" s="168"/>
-      <c r="G239" s="168"/>
-      <c r="H239" s="168"/>
-      <c r="I239" s="168"/>
-      <c r="J239" s="168"/>
-      <c r="K239" s="185"/>
+      <c r="D239" s="196"/>
+      <c r="E239" s="197"/>
+      <c r="F239" s="197"/>
+      <c r="G239" s="197"/>
+      <c r="H239" s="197"/>
+      <c r="I239" s="197"/>
+      <c r="J239" s="197"/>
+      <c r="K239" s="198"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -12182,16 +12249,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="174" t="s">
+      <c r="D240" s="194" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="174"/>
-      <c r="F240" s="174"/>
-      <c r="G240" s="174"/>
-      <c r="H240" s="174"/>
-      <c r="I240" s="174"/>
-      <c r="J240" s="174"/>
-      <c r="K240" s="175"/>
+      <c r="E240" s="194"/>
+      <c r="F240" s="194"/>
+      <c r="G240" s="194"/>
+      <c r="H240" s="194"/>
+      <c r="I240" s="194"/>
+      <c r="J240" s="194"/>
+      <c r="K240" s="195"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -12203,14 +12270,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="176"/>
-      <c r="E241" s="176"/>
-      <c r="F241" s="176"/>
-      <c r="G241" s="176"/>
-      <c r="H241" s="176"/>
-      <c r="I241" s="176"/>
-      <c r="J241" s="176"/>
-      <c r="K241" s="177"/>
+      <c r="D241" s="202"/>
+      <c r="E241" s="202"/>
+      <c r="F241" s="202"/>
+      <c r="G241" s="202"/>
+      <c r="H241" s="202"/>
+      <c r="I241" s="202"/>
+      <c r="J241" s="202"/>
+      <c r="K241" s="203"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -12401,16 +12468,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="170" t="s">
+      <c r="D250" s="220" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="171"/>
-      <c r="F250" s="171"/>
-      <c r="G250" s="171"/>
-      <c r="H250" s="171"/>
-      <c r="I250" s="171"/>
-      <c r="J250" s="171"/>
-      <c r="K250" s="172"/>
+      <c r="E250" s="212"/>
+      <c r="F250" s="212"/>
+      <c r="G250" s="212"/>
+      <c r="H250" s="212"/>
+      <c r="I250" s="212"/>
+      <c r="J250" s="212"/>
+      <c r="K250" s="221"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12979,16 +13046,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="173" t="s">
+      <c r="D280" s="222" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="162"/>
-      <c r="F280" s="162"/>
-      <c r="G280" s="162"/>
-      <c r="H280" s="162"/>
-      <c r="I280" s="162"/>
-      <c r="J280" s="162"/>
-      <c r="K280" s="163"/>
+      <c r="E280" s="200"/>
+      <c r="F280" s="200"/>
+      <c r="G280" s="200"/>
+      <c r="H280" s="200"/>
+      <c r="I280" s="200"/>
+      <c r="J280" s="200"/>
+      <c r="K280" s="201"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -13095,16 +13162,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="173" t="s">
+      <c r="D286" s="222" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="162"/>
-      <c r="F286" s="162"/>
-      <c r="G286" s="162"/>
-      <c r="H286" s="162"/>
-      <c r="I286" s="162"/>
-      <c r="J286" s="162"/>
-      <c r="K286" s="163"/>
+      <c r="E286" s="200"/>
+      <c r="F286" s="200"/>
+      <c r="G286" s="200"/>
+      <c r="H286" s="200"/>
+      <c r="I286" s="200"/>
+      <c r="J286" s="200"/>
+      <c r="K286" s="201"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -13292,16 +13359,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="161" t="s">
+      <c r="D296" s="199" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="162"/>
-      <c r="F296" s="162"/>
-      <c r="G296" s="162"/>
-      <c r="H296" s="162"/>
-      <c r="I296" s="162"/>
-      <c r="J296" s="162"/>
-      <c r="K296" s="163"/>
+      <c r="E296" s="200"/>
+      <c r="F296" s="200"/>
+      <c r="G296" s="200"/>
+      <c r="H296" s="200"/>
+      <c r="I296" s="200"/>
+      <c r="J296" s="200"/>
+      <c r="K296" s="201"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -13332,16 +13399,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="178" t="s">
+      <c r="D298" s="193" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="174"/>
-      <c r="F298" s="174"/>
-      <c r="G298" s="174"/>
-      <c r="H298" s="174"/>
-      <c r="I298" s="174"/>
-      <c r="J298" s="174"/>
-      <c r="K298" s="175"/>
+      <c r="E298" s="194"/>
+      <c r="F298" s="194"/>
+      <c r="G298" s="194"/>
+      <c r="H298" s="194"/>
+      <c r="I298" s="194"/>
+      <c r="J298" s="194"/>
+      <c r="K298" s="195"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -13353,14 +13420,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="184"/>
-      <c r="E299" s="168"/>
-      <c r="F299" s="168"/>
-      <c r="G299" s="168"/>
-      <c r="H299" s="168"/>
-      <c r="I299" s="168"/>
-      <c r="J299" s="168"/>
-      <c r="K299" s="185"/>
+      <c r="D299" s="196"/>
+      <c r="E299" s="197"/>
+      <c r="F299" s="197"/>
+      <c r="G299" s="197"/>
+      <c r="H299" s="197"/>
+      <c r="I299" s="197"/>
+      <c r="J299" s="197"/>
+      <c r="K299" s="198"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -13372,16 +13439,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="178" t="s">
+      <c r="D300" s="193" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="174"/>
-      <c r="F300" s="174"/>
-      <c r="G300" s="174"/>
-      <c r="H300" s="174"/>
-      <c r="I300" s="174"/>
-      <c r="J300" s="174"/>
-      <c r="K300" s="175"/>
+      <c r="E300" s="194"/>
+      <c r="F300" s="194"/>
+      <c r="G300" s="194"/>
+      <c r="H300" s="194"/>
+      <c r="I300" s="194"/>
+      <c r="J300" s="194"/>
+      <c r="K300" s="195"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -13393,14 +13460,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="184"/>
-      <c r="E301" s="168"/>
-      <c r="F301" s="168"/>
-      <c r="G301" s="168"/>
-      <c r="H301" s="168"/>
-      <c r="I301" s="168"/>
-      <c r="J301" s="168"/>
-      <c r="K301" s="185"/>
+      <c r="D301" s="196"/>
+      <c r="E301" s="197"/>
+      <c r="F301" s="197"/>
+      <c r="G301" s="197"/>
+      <c r="H301" s="197"/>
+      <c r="I301" s="197"/>
+      <c r="J301" s="197"/>
+      <c r="K301" s="198"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -13412,16 +13479,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="178" t="s">
+      <c r="D302" s="193" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="174"/>
-      <c r="F302" s="174"/>
-      <c r="G302" s="174"/>
-      <c r="H302" s="174"/>
-      <c r="I302" s="174"/>
-      <c r="J302" s="174"/>
-      <c r="K302" s="175"/>
+      <c r="E302" s="194"/>
+      <c r="F302" s="194"/>
+      <c r="G302" s="194"/>
+      <c r="H302" s="194"/>
+      <c r="I302" s="194"/>
+      <c r="J302" s="194"/>
+      <c r="K302" s="195"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -13433,14 +13500,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="184"/>
-      <c r="E303" s="168"/>
-      <c r="F303" s="168"/>
-      <c r="G303" s="168"/>
-      <c r="H303" s="168"/>
-      <c r="I303" s="168"/>
-      <c r="J303" s="168"/>
-      <c r="K303" s="185"/>
+      <c r="D303" s="196"/>
+      <c r="E303" s="197"/>
+      <c r="F303" s="197"/>
+      <c r="G303" s="197"/>
+      <c r="H303" s="197"/>
+      <c r="I303" s="197"/>
+      <c r="J303" s="197"/>
+      <c r="K303" s="198"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -13452,16 +13519,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="178" t="s">
+      <c r="D304" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="174"/>
-      <c r="F304" s="174"/>
-      <c r="G304" s="174"/>
-      <c r="H304" s="174"/>
-      <c r="I304" s="174"/>
-      <c r="J304" s="174"/>
-      <c r="K304" s="175"/>
+      <c r="E304" s="194"/>
+      <c r="F304" s="194"/>
+      <c r="G304" s="194"/>
+      <c r="H304" s="194"/>
+      <c r="I304" s="194"/>
+      <c r="J304" s="194"/>
+      <c r="K304" s="195"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -13473,14 +13540,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="184"/>
-      <c r="E305" s="168"/>
-      <c r="F305" s="168"/>
-      <c r="G305" s="168"/>
-      <c r="H305" s="168"/>
-      <c r="I305" s="168"/>
-      <c r="J305" s="168"/>
-      <c r="K305" s="185"/>
+      <c r="D305" s="196"/>
+      <c r="E305" s="197"/>
+      <c r="F305" s="197"/>
+      <c r="G305" s="197"/>
+      <c r="H305" s="197"/>
+      <c r="I305" s="197"/>
+      <c r="J305" s="197"/>
+      <c r="K305" s="198"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -13495,16 +13562,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="178" t="s">
+      <c r="D306" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="174"/>
-      <c r="F306" s="174"/>
-      <c r="G306" s="174"/>
-      <c r="H306" s="174"/>
-      <c r="I306" s="174"/>
-      <c r="J306" s="174"/>
-      <c r="K306" s="175"/>
+      <c r="E306" s="194"/>
+      <c r="F306" s="194"/>
+      <c r="G306" s="194"/>
+      <c r="H306" s="194"/>
+      <c r="I306" s="194"/>
+      <c r="J306" s="194"/>
+      <c r="K306" s="195"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -13516,14 +13583,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="184"/>
-      <c r="E307" s="168"/>
-      <c r="F307" s="168"/>
-      <c r="G307" s="168"/>
-      <c r="H307" s="168"/>
-      <c r="I307" s="168"/>
-      <c r="J307" s="168"/>
-      <c r="K307" s="185"/>
+      <c r="D307" s="196"/>
+      <c r="E307" s="197"/>
+      <c r="F307" s="197"/>
+      <c r="G307" s="197"/>
+      <c r="H307" s="197"/>
+      <c r="I307" s="197"/>
+      <c r="J307" s="197"/>
+      <c r="K307" s="198"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -13535,16 +13602,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="178" t="s">
+      <c r="D308" s="193" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="174"/>
-      <c r="F308" s="174"/>
-      <c r="G308" s="174"/>
-      <c r="H308" s="174"/>
-      <c r="I308" s="174"/>
-      <c r="J308" s="174"/>
-      <c r="K308" s="175"/>
+      <c r="E308" s="194"/>
+      <c r="F308" s="194"/>
+      <c r="G308" s="194"/>
+      <c r="H308" s="194"/>
+      <c r="I308" s="194"/>
+      <c r="J308" s="194"/>
+      <c r="K308" s="195"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -13556,14 +13623,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="184"/>
-      <c r="E309" s="168"/>
-      <c r="F309" s="168"/>
-      <c r="G309" s="168"/>
-      <c r="H309" s="168"/>
-      <c r="I309" s="168"/>
-      <c r="J309" s="168"/>
-      <c r="K309" s="185"/>
+      <c r="D309" s="196"/>
+      <c r="E309" s="197"/>
+      <c r="F309" s="197"/>
+      <c r="G309" s="197"/>
+      <c r="H309" s="197"/>
+      <c r="I309" s="197"/>
+      <c r="J309" s="197"/>
+      <c r="K309" s="198"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21850,16 +21917,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="194" t="s">
-        <v>476</v>
-      </c>
-      <c r="E954" s="195"/>
-      <c r="F954" s="195"/>
-      <c r="G954" s="195"/>
-      <c r="H954" s="195"/>
-      <c r="I954" s="195"/>
-      <c r="J954" s="195"/>
-      <c r="K954" s="195"/>
+      <c r="D954" s="191" t="s">
+        <v>470</v>
+      </c>
+      <c r="E954" s="192"/>
+      <c r="F954" s="192"/>
+      <c r="G954" s="192"/>
+      <c r="H954" s="192"/>
+      <c r="I954" s="192"/>
+      <c r="J954" s="192"/>
+      <c r="K954" s="192"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24692,7 +24759,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="57">
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
     <mergeCell ref="D95:K95"/>
     <mergeCell ref="D96:K96"/>
     <mergeCell ref="D90:K90"/>
@@ -24700,13 +24772,30 @@
     <mergeCell ref="D92:K92"/>
     <mergeCell ref="D93:K93"/>
     <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D954:K954"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D206:K206"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D296:K296"/>
+    <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="D216:K217"/>
     <mergeCell ref="D218:K219"/>
@@ -24721,33 +24810,13 @@
     <mergeCell ref="D200:K200"/>
     <mergeCell ref="D202:K202"/>
     <mergeCell ref="D204:K204"/>
-    <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D296:K296"/>
-    <mergeCell ref="D240:K241"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D954:K954"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24833,16 +24902,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="175"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="195"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24864,14 +24933,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="184"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="181"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="206"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -31120,16 +31189,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="159" t="s">
+      <c r="D178" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="159"/>
-      <c r="F178" s="159"/>
-      <c r="G178" s="159"/>
-      <c r="H178" s="159"/>
-      <c r="I178" s="159"/>
-      <c r="J178" s="159"/>
-      <c r="K178" s="159"/>
+      <c r="E178" s="227"/>
+      <c r="F178" s="227"/>
+      <c r="G178" s="227"/>
+      <c r="H178" s="227"/>
+      <c r="I178" s="227"/>
+      <c r="J178" s="227"/>
+      <c r="K178" s="227"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -31198,16 +31267,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="161" t="s">
+      <c r="D182" s="199" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="162"/>
-      <c r="F182" s="162"/>
-      <c r="G182" s="162"/>
-      <c r="H182" s="162"/>
-      <c r="I182" s="162"/>
-      <c r="J182" s="162"/>
-      <c r="K182" s="163"/>
+      <c r="E182" s="200"/>
+      <c r="F182" s="200"/>
+      <c r="G182" s="200"/>
+      <c r="H182" s="200"/>
+      <c r="I182" s="200"/>
+      <c r="J182" s="200"/>
+      <c r="K182" s="201"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -31219,16 +31288,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="161" t="s">
+      <c r="D183" s="199" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="162"/>
-      <c r="F183" s="162"/>
-      <c r="G183" s="162"/>
-      <c r="H183" s="162"/>
-      <c r="I183" s="162"/>
-      <c r="J183" s="162"/>
-      <c r="K183" s="163"/>
+      <c r="E183" s="200"/>
+      <c r="F183" s="200"/>
+      <c r="G183" s="200"/>
+      <c r="H183" s="200"/>
+      <c r="I183" s="200"/>
+      <c r="J183" s="200"/>
+      <c r="K183" s="201"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -31240,16 +31309,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="161" t="s">
+      <c r="D184" s="199" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="162"/>
-      <c r="F184" s="162"/>
-      <c r="G184" s="162"/>
-      <c r="H184" s="162"/>
-      <c r="I184" s="162"/>
-      <c r="J184" s="162"/>
-      <c r="K184" s="163"/>
+      <c r="E184" s="200"/>
+      <c r="F184" s="200"/>
+      <c r="G184" s="200"/>
+      <c r="H184" s="200"/>
+      <c r="I184" s="200"/>
+      <c r="J184" s="200"/>
+      <c r="K184" s="201"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -31261,16 +31330,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="161" t="s">
+      <c r="D185" s="199" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="162"/>
-      <c r="F185" s="162"/>
-      <c r="G185" s="162"/>
-      <c r="H185" s="162"/>
-      <c r="I185" s="162"/>
-      <c r="J185" s="162"/>
-      <c r="K185" s="163"/>
+      <c r="E185" s="200"/>
+      <c r="F185" s="200"/>
+      <c r="G185" s="200"/>
+      <c r="H185" s="200"/>
+      <c r="I185" s="200"/>
+      <c r="J185" s="200"/>
+      <c r="K185" s="201"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -31282,16 +31351,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="161" t="s">
+      <c r="D186" s="199" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="162"/>
-      <c r="F186" s="162"/>
-      <c r="G186" s="162"/>
-      <c r="H186" s="162"/>
-      <c r="I186" s="162"/>
-      <c r="J186" s="162"/>
-      <c r="K186" s="163"/>
+      <c r="E186" s="200"/>
+      <c r="F186" s="200"/>
+      <c r="G186" s="200"/>
+      <c r="H186" s="200"/>
+      <c r="I186" s="200"/>
+      <c r="J186" s="200"/>
+      <c r="K186" s="201"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -31303,16 +31372,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="161" t="s">
+      <c r="D187" s="199" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="162"/>
-      <c r="F187" s="162"/>
-      <c r="G187" s="162"/>
-      <c r="H187" s="162"/>
-      <c r="I187" s="162"/>
-      <c r="J187" s="162"/>
-      <c r="K187" s="163"/>
+      <c r="E187" s="200"/>
+      <c r="F187" s="200"/>
+      <c r="G187" s="200"/>
+      <c r="H187" s="200"/>
+      <c r="I187" s="200"/>
+      <c r="J187" s="200"/>
+      <c r="K187" s="201"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -31324,16 +31393,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="161" t="s">
+      <c r="D188" s="199" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="162"/>
-      <c r="F188" s="162"/>
-      <c r="G188" s="162"/>
-      <c r="H188" s="162"/>
-      <c r="I188" s="162"/>
-      <c r="J188" s="162"/>
-      <c r="K188" s="163"/>
+      <c r="E188" s="200"/>
+      <c r="F188" s="200"/>
+      <c r="G188" s="200"/>
+      <c r="H188" s="200"/>
+      <c r="I188" s="200"/>
+      <c r="J188" s="200"/>
+      <c r="K188" s="201"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -31345,16 +31414,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="161" t="s">
+      <c r="D189" s="199" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="162"/>
-      <c r="F189" s="162"/>
-      <c r="G189" s="162"/>
-      <c r="H189" s="162"/>
-      <c r="I189" s="162"/>
-      <c r="J189" s="162"/>
-      <c r="K189" s="163"/>
+      <c r="E189" s="200"/>
+      <c r="F189" s="200"/>
+      <c r="G189" s="200"/>
+      <c r="H189" s="200"/>
+      <c r="I189" s="200"/>
+      <c r="J189" s="200"/>
+      <c r="K189" s="201"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -31366,16 +31435,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="161" t="s">
+      <c r="D190" s="199" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="162"/>
-      <c r="F190" s="162"/>
-      <c r="G190" s="162"/>
-      <c r="H190" s="162"/>
-      <c r="I190" s="162"/>
-      <c r="J190" s="162"/>
-      <c r="K190" s="163"/>
+      <c r="E190" s="200"/>
+      <c r="F190" s="200"/>
+      <c r="G190" s="200"/>
+      <c r="H190" s="200"/>
+      <c r="I190" s="200"/>
+      <c r="J190" s="200"/>
+      <c r="K190" s="201"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -31387,16 +31456,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="161" t="s">
+      <c r="D191" s="199" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="162"/>
-      <c r="F191" s="162"/>
-      <c r="G191" s="162"/>
-      <c r="H191" s="162"/>
-      <c r="I191" s="162"/>
-      <c r="J191" s="162"/>
-      <c r="K191" s="163"/>
+      <c r="E191" s="200"/>
+      <c r="F191" s="200"/>
+      <c r="G191" s="200"/>
+      <c r="H191" s="200"/>
+      <c r="I191" s="200"/>
+      <c r="J191" s="200"/>
+      <c r="K191" s="201"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -31408,16 +31477,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="161" t="s">
+      <c r="D192" s="199" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="162"/>
-      <c r="F192" s="162"/>
-      <c r="G192" s="162"/>
-      <c r="H192" s="162"/>
-      <c r="I192" s="162"/>
-      <c r="J192" s="162"/>
-      <c r="K192" s="163"/>
+      <c r="E192" s="200"/>
+      <c r="F192" s="200"/>
+      <c r="G192" s="200"/>
+      <c r="H192" s="200"/>
+      <c r="I192" s="200"/>
+      <c r="J192" s="200"/>
+      <c r="K192" s="201"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -31429,16 +31498,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="164" t="s">
+      <c r="D193" s="223" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="165"/>
-      <c r="F193" s="165"/>
-      <c r="G193" s="165"/>
-      <c r="H193" s="165"/>
-      <c r="I193" s="165"/>
-      <c r="J193" s="165"/>
-      <c r="K193" s="166"/>
+      <c r="E193" s="224"/>
+      <c r="F193" s="224"/>
+      <c r="G193" s="224"/>
+      <c r="H193" s="224"/>
+      <c r="I193" s="224"/>
+      <c r="J193" s="224"/>
+      <c r="K193" s="225"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -31453,16 +31522,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="167" t="s">
+      <c r="D194" s="209" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="168"/>
-      <c r="F194" s="168"/>
-      <c r="G194" s="168"/>
-      <c r="H194" s="168"/>
-      <c r="I194" s="168"/>
-      <c r="J194" s="168"/>
-      <c r="K194" s="169"/>
+      <c r="E194" s="197"/>
+      <c r="F194" s="197"/>
+      <c r="G194" s="197"/>
+      <c r="H194" s="197"/>
+      <c r="I194" s="197"/>
+      <c r="J194" s="197"/>
+      <c r="K194" s="210"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -31474,16 +31543,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="161" t="s">
+      <c r="D195" s="199" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="162"/>
-      <c r="F195" s="162"/>
-      <c r="G195" s="162"/>
-      <c r="H195" s="162"/>
-      <c r="I195" s="162"/>
-      <c r="J195" s="162"/>
-      <c r="K195" s="163"/>
+      <c r="E195" s="200"/>
+      <c r="F195" s="200"/>
+      <c r="G195" s="200"/>
+      <c r="H195" s="200"/>
+      <c r="I195" s="200"/>
+      <c r="J195" s="200"/>
+      <c r="K195" s="201"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -31495,16 +31564,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="161" t="s">
+      <c r="D196" s="199" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="162"/>
-      <c r="F196" s="162"/>
-      <c r="G196" s="162"/>
-      <c r="H196" s="162"/>
-      <c r="I196" s="162"/>
-      <c r="J196" s="162"/>
-      <c r="K196" s="163"/>
+      <c r="E196" s="200"/>
+      <c r="F196" s="200"/>
+      <c r="G196" s="200"/>
+      <c r="H196" s="200"/>
+      <c r="I196" s="200"/>
+      <c r="J196" s="200"/>
+      <c r="K196" s="201"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -31516,16 +31585,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="161" t="s">
+      <c r="D197" s="199" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="162"/>
-      <c r="F197" s="162"/>
-      <c r="G197" s="162"/>
-      <c r="H197" s="162"/>
-      <c r="I197" s="162"/>
-      <c r="J197" s="162"/>
-      <c r="K197" s="163"/>
+      <c r="E197" s="200"/>
+      <c r="F197" s="200"/>
+      <c r="G197" s="200"/>
+      <c r="H197" s="200"/>
+      <c r="I197" s="200"/>
+      <c r="J197" s="200"/>
+      <c r="K197" s="201"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -31537,16 +31606,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="161" t="s">
+      <c r="D198" s="199" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="162"/>
-      <c r="F198" s="162"/>
-      <c r="G198" s="162"/>
-      <c r="H198" s="162"/>
-      <c r="I198" s="162"/>
-      <c r="J198" s="162"/>
-      <c r="K198" s="163"/>
+      <c r="E198" s="200"/>
+      <c r="F198" s="200"/>
+      <c r="G198" s="200"/>
+      <c r="H198" s="200"/>
+      <c r="I198" s="200"/>
+      <c r="J198" s="200"/>
+      <c r="K198" s="201"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -31577,16 +31646,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="161" t="s">
+      <c r="D200" s="199" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="162"/>
-      <c r="F200" s="162"/>
-      <c r="G200" s="162"/>
-      <c r="H200" s="162"/>
-      <c r="I200" s="162"/>
-      <c r="J200" s="162"/>
-      <c r="K200" s="163"/>
+      <c r="E200" s="200"/>
+      <c r="F200" s="200"/>
+      <c r="G200" s="200"/>
+      <c r="H200" s="200"/>
+      <c r="I200" s="200"/>
+      <c r="J200" s="200"/>
+      <c r="K200" s="201"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -31617,16 +31686,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="191" t="s">
+      <c r="D202" s="217" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="192"/>
-      <c r="F202" s="192"/>
-      <c r="G202" s="192"/>
-      <c r="H202" s="192"/>
-      <c r="I202" s="192"/>
-      <c r="J202" s="192"/>
-      <c r="K202" s="193"/>
+      <c r="E202" s="218"/>
+      <c r="F202" s="218"/>
+      <c r="G202" s="218"/>
+      <c r="H202" s="218"/>
+      <c r="I202" s="218"/>
+      <c r="J202" s="218"/>
+      <c r="K202" s="219"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -31657,16 +31726,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="161" t="s">
+      <c r="D204" s="199" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="162"/>
-      <c r="F204" s="162"/>
-      <c r="G204" s="162"/>
-      <c r="H204" s="162"/>
-      <c r="I204" s="162"/>
-      <c r="J204" s="162"/>
-      <c r="K204" s="163"/>
+      <c r="E204" s="200"/>
+      <c r="F204" s="200"/>
+      <c r="G204" s="200"/>
+      <c r="H204" s="200"/>
+      <c r="I204" s="200"/>
+      <c r="J204" s="200"/>
+      <c r="K204" s="201"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -31697,16 +31766,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="161" t="s">
+      <c r="D206" s="199" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="162"/>
-      <c r="F206" s="162"/>
-      <c r="G206" s="162"/>
-      <c r="H206" s="162"/>
-      <c r="I206" s="162"/>
-      <c r="J206" s="162"/>
-      <c r="K206" s="163"/>
+      <c r="E206" s="200"/>
+      <c r="F206" s="200"/>
+      <c r="G206" s="200"/>
+      <c r="H206" s="200"/>
+      <c r="I206" s="200"/>
+      <c r="J206" s="200"/>
+      <c r="K206" s="201"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31737,16 +31806,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="161" t="s">
+      <c r="D208" s="199" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="162"/>
-      <c r="F208" s="162"/>
-      <c r="G208" s="162"/>
-      <c r="H208" s="162"/>
-      <c r="I208" s="162"/>
-      <c r="J208" s="162"/>
-      <c r="K208" s="163"/>
+      <c r="E208" s="200"/>
+      <c r="F208" s="200"/>
+      <c r="G208" s="200"/>
+      <c r="H208" s="200"/>
+      <c r="I208" s="200"/>
+      <c r="J208" s="200"/>
+      <c r="K208" s="201"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31780,16 +31849,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="167" t="s">
+      <c r="D210" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="168"/>
-      <c r="F210" s="168"/>
-      <c r="G210" s="168"/>
-      <c r="H210" s="168"/>
-      <c r="I210" s="168"/>
-      <c r="J210" s="168"/>
-      <c r="K210" s="169"/>
+      <c r="E210" s="197"/>
+      <c r="F210" s="197"/>
+      <c r="G210" s="197"/>
+      <c r="H210" s="197"/>
+      <c r="I210" s="197"/>
+      <c r="J210" s="197"/>
+      <c r="K210" s="210"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31858,16 +31927,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="161" t="s">
+      <c r="D214" s="199" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="162"/>
-      <c r="F214" s="162"/>
-      <c r="G214" s="162"/>
-      <c r="H214" s="162"/>
-      <c r="I214" s="162"/>
-      <c r="J214" s="162"/>
-      <c r="K214" s="163"/>
+      <c r="E214" s="200"/>
+      <c r="F214" s="200"/>
+      <c r="G214" s="200"/>
+      <c r="H214" s="200"/>
+      <c r="I214" s="200"/>
+      <c r="J214" s="200"/>
+      <c r="K214" s="201"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31898,16 +31967,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="182" t="s">
+      <c r="D216" s="207" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="174"/>
-      <c r="F216" s="174"/>
-      <c r="G216" s="174"/>
-      <c r="H216" s="174"/>
-      <c r="I216" s="174"/>
-      <c r="J216" s="174"/>
-      <c r="K216" s="183"/>
+      <c r="E216" s="194"/>
+      <c r="F216" s="194"/>
+      <c r="G216" s="194"/>
+      <c r="H216" s="194"/>
+      <c r="I216" s="194"/>
+      <c r="J216" s="194"/>
+      <c r="K216" s="208"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31919,14 +31988,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="167"/>
-      <c r="E217" s="168"/>
-      <c r="F217" s="168"/>
-      <c r="G217" s="168"/>
-      <c r="H217" s="168"/>
-      <c r="I217" s="168"/>
-      <c r="J217" s="168"/>
-      <c r="K217" s="169"/>
+      <c r="D217" s="209"/>
+      <c r="E217" s="197"/>
+      <c r="F217" s="197"/>
+      <c r="G217" s="197"/>
+      <c r="H217" s="197"/>
+      <c r="I217" s="197"/>
+      <c r="J217" s="197"/>
+      <c r="K217" s="210"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31938,16 +32007,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="182" t="s">
+      <c r="D218" s="207" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="174"/>
-      <c r="F218" s="174"/>
-      <c r="G218" s="174"/>
-      <c r="H218" s="174"/>
-      <c r="I218" s="174"/>
-      <c r="J218" s="174"/>
-      <c r="K218" s="183"/>
+      <c r="E218" s="194"/>
+      <c r="F218" s="194"/>
+      <c r="G218" s="194"/>
+      <c r="H218" s="194"/>
+      <c r="I218" s="194"/>
+      <c r="J218" s="194"/>
+      <c r="K218" s="208"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31959,14 +32028,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="167"/>
-      <c r="E219" s="168"/>
-      <c r="F219" s="168"/>
-      <c r="G219" s="168"/>
-      <c r="H219" s="168"/>
-      <c r="I219" s="168"/>
-      <c r="J219" s="168"/>
-      <c r="K219" s="169"/>
+      <c r="D219" s="209"/>
+      <c r="E219" s="197"/>
+      <c r="F219" s="197"/>
+      <c r="G219" s="197"/>
+      <c r="H219" s="197"/>
+      <c r="I219" s="197"/>
+      <c r="J219" s="197"/>
+      <c r="K219" s="210"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31978,16 +32047,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="182" t="s">
+      <c r="D220" s="207" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="174"/>
-      <c r="F220" s="174"/>
-      <c r="G220" s="174"/>
-      <c r="H220" s="174"/>
-      <c r="I220" s="174"/>
-      <c r="J220" s="174"/>
-      <c r="K220" s="183"/>
+      <c r="E220" s="194"/>
+      <c r="F220" s="194"/>
+      <c r="G220" s="194"/>
+      <c r="H220" s="194"/>
+      <c r="I220" s="194"/>
+      <c r="J220" s="194"/>
+      <c r="K220" s="208"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31999,14 +32068,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="167"/>
-      <c r="E221" s="168"/>
-      <c r="F221" s="168"/>
-      <c r="G221" s="168"/>
-      <c r="H221" s="168"/>
-      <c r="I221" s="168"/>
-      <c r="J221" s="168"/>
-      <c r="K221" s="169"/>
+      <c r="D221" s="209"/>
+      <c r="E221" s="197"/>
+      <c r="F221" s="197"/>
+      <c r="G221" s="197"/>
+      <c r="H221" s="197"/>
+      <c r="I221" s="197"/>
+      <c r="J221" s="197"/>
+      <c r="K221" s="210"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -32018,16 +32087,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="161" t="s">
+      <c r="D222" s="199" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="162"/>
-      <c r="F222" s="162"/>
-      <c r="G222" s="162"/>
-      <c r="H222" s="162"/>
-      <c r="I222" s="162"/>
-      <c r="J222" s="162"/>
-      <c r="K222" s="163"/>
+      <c r="E222" s="200"/>
+      <c r="F222" s="200"/>
+      <c r="G222" s="200"/>
+      <c r="H222" s="200"/>
+      <c r="I222" s="200"/>
+      <c r="J222" s="200"/>
+      <c r="K222" s="201"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -32058,16 +32127,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="161" t="s">
+      <c r="D224" s="199" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="162"/>
-      <c r="F224" s="162"/>
-      <c r="G224" s="162"/>
-      <c r="H224" s="162"/>
-      <c r="I224" s="162"/>
-      <c r="J224" s="162"/>
-      <c r="K224" s="163"/>
+      <c r="E224" s="200"/>
+      <c r="F224" s="200"/>
+      <c r="G224" s="200"/>
+      <c r="H224" s="200"/>
+      <c r="I224" s="200"/>
+      <c r="J224" s="200"/>
+      <c r="K224" s="201"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -32101,16 +32170,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="188" t="s">
+      <c r="D226" s="214" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="189"/>
-      <c r="F226" s="189"/>
-      <c r="G226" s="189"/>
-      <c r="H226" s="189"/>
-      <c r="I226" s="189"/>
-      <c r="J226" s="189"/>
-      <c r="K226" s="190"/>
+      <c r="E226" s="215"/>
+      <c r="F226" s="215"/>
+      <c r="G226" s="215"/>
+      <c r="H226" s="215"/>
+      <c r="I226" s="215"/>
+      <c r="J226" s="215"/>
+      <c r="K226" s="216"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -32255,16 +32324,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="186" t="s">
+      <c r="D234" s="211" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="171"/>
-      <c r="F234" s="171"/>
-      <c r="G234" s="171"/>
-      <c r="H234" s="171"/>
-      <c r="I234" s="171"/>
-      <c r="J234" s="171"/>
-      <c r="K234" s="187"/>
+      <c r="E234" s="212"/>
+      <c r="F234" s="212"/>
+      <c r="G234" s="212"/>
+      <c r="H234" s="212"/>
+      <c r="I234" s="212"/>
+      <c r="J234" s="212"/>
+      <c r="K234" s="213"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -32333,16 +32402,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="178" t="s">
+      <c r="D238" s="193" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="174"/>
-      <c r="F238" s="174"/>
-      <c r="G238" s="174"/>
-      <c r="H238" s="174"/>
-      <c r="I238" s="174"/>
-      <c r="J238" s="174"/>
-      <c r="K238" s="175"/>
+      <c r="E238" s="194"/>
+      <c r="F238" s="194"/>
+      <c r="G238" s="194"/>
+      <c r="H238" s="194"/>
+      <c r="I238" s="194"/>
+      <c r="J238" s="194"/>
+      <c r="K238" s="195"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -32354,14 +32423,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="184"/>
-      <c r="E239" s="168"/>
-      <c r="F239" s="168"/>
-      <c r="G239" s="168"/>
-      <c r="H239" s="168"/>
-      <c r="I239" s="168"/>
-      <c r="J239" s="168"/>
-      <c r="K239" s="185"/>
+      <c r="D239" s="196"/>
+      <c r="E239" s="197"/>
+      <c r="F239" s="197"/>
+      <c r="G239" s="197"/>
+      <c r="H239" s="197"/>
+      <c r="I239" s="197"/>
+      <c r="J239" s="197"/>
+      <c r="K239" s="198"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -32373,16 +32442,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="174" t="s">
+      <c r="D240" s="194" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="174"/>
-      <c r="F240" s="174"/>
-      <c r="G240" s="174"/>
-      <c r="H240" s="174"/>
-      <c r="I240" s="174"/>
-      <c r="J240" s="174"/>
-      <c r="K240" s="175"/>
+      <c r="E240" s="194"/>
+      <c r="F240" s="194"/>
+      <c r="G240" s="194"/>
+      <c r="H240" s="194"/>
+      <c r="I240" s="194"/>
+      <c r="J240" s="194"/>
+      <c r="K240" s="195"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -32394,14 +32463,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="176"/>
-      <c r="E241" s="176"/>
-      <c r="F241" s="176"/>
-      <c r="G241" s="176"/>
-      <c r="H241" s="176"/>
-      <c r="I241" s="176"/>
-      <c r="J241" s="176"/>
-      <c r="K241" s="177"/>
+      <c r="D241" s="202"/>
+      <c r="E241" s="202"/>
+      <c r="F241" s="202"/>
+      <c r="G241" s="202"/>
+      <c r="H241" s="202"/>
+      <c r="I241" s="202"/>
+      <c r="J241" s="202"/>
+      <c r="K241" s="203"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -32592,16 +32661,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="170" t="s">
+      <c r="D250" s="220" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="171"/>
-      <c r="F250" s="171"/>
-      <c r="G250" s="171"/>
-      <c r="H250" s="171"/>
-      <c r="I250" s="171"/>
-      <c r="J250" s="171"/>
-      <c r="K250" s="172"/>
+      <c r="E250" s="212"/>
+      <c r="F250" s="212"/>
+      <c r="G250" s="212"/>
+      <c r="H250" s="212"/>
+      <c r="I250" s="212"/>
+      <c r="J250" s="212"/>
+      <c r="K250" s="221"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -33170,16 +33239,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="161" t="s">
+      <c r="D280" s="199" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="162"/>
-      <c r="F280" s="162"/>
-      <c r="G280" s="162"/>
-      <c r="H280" s="162"/>
-      <c r="I280" s="162"/>
-      <c r="J280" s="162"/>
-      <c r="K280" s="163"/>
+      <c r="E280" s="200"/>
+      <c r="F280" s="200"/>
+      <c r="G280" s="200"/>
+      <c r="H280" s="200"/>
+      <c r="I280" s="200"/>
+      <c r="J280" s="200"/>
+      <c r="K280" s="201"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -33286,16 +33355,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="161" t="s">
+      <c r="D286" s="199" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="162"/>
-      <c r="F286" s="162"/>
-      <c r="G286" s="162"/>
-      <c r="H286" s="162"/>
-      <c r="I286" s="162"/>
-      <c r="J286" s="162"/>
-      <c r="K286" s="163"/>
+      <c r="E286" s="200"/>
+      <c r="F286" s="200"/>
+      <c r="G286" s="200"/>
+      <c r="H286" s="200"/>
+      <c r="I286" s="200"/>
+      <c r="J286" s="200"/>
+      <c r="K286" s="201"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -33483,16 +33552,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="161" t="s">
+      <c r="D296" s="199" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="162"/>
-      <c r="F296" s="162"/>
-      <c r="G296" s="162"/>
-      <c r="H296" s="162"/>
-      <c r="I296" s="162"/>
-      <c r="J296" s="162"/>
-      <c r="K296" s="163"/>
+      <c r="E296" s="200"/>
+      <c r="F296" s="200"/>
+      <c r="G296" s="200"/>
+      <c r="H296" s="200"/>
+      <c r="I296" s="200"/>
+      <c r="J296" s="200"/>
+      <c r="K296" s="201"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -33523,16 +33592,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="178" t="s">
+      <c r="D298" s="193" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="174"/>
-      <c r="F298" s="174"/>
-      <c r="G298" s="174"/>
-      <c r="H298" s="174"/>
-      <c r="I298" s="174"/>
-      <c r="J298" s="174"/>
-      <c r="K298" s="175"/>
+      <c r="E298" s="194"/>
+      <c r="F298" s="194"/>
+      <c r="G298" s="194"/>
+      <c r="H298" s="194"/>
+      <c r="I298" s="194"/>
+      <c r="J298" s="194"/>
+      <c r="K298" s="195"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -33544,14 +33613,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="184"/>
-      <c r="E299" s="168"/>
-      <c r="F299" s="168"/>
-      <c r="G299" s="168"/>
-      <c r="H299" s="168"/>
-      <c r="I299" s="168"/>
-      <c r="J299" s="168"/>
-      <c r="K299" s="185"/>
+      <c r="D299" s="196"/>
+      <c r="E299" s="197"/>
+      <c r="F299" s="197"/>
+      <c r="G299" s="197"/>
+      <c r="H299" s="197"/>
+      <c r="I299" s="197"/>
+      <c r="J299" s="197"/>
+      <c r="K299" s="198"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -33563,16 +33632,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="178" t="s">
+      <c r="D300" s="193" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="174"/>
-      <c r="F300" s="174"/>
-      <c r="G300" s="174"/>
-      <c r="H300" s="174"/>
-      <c r="I300" s="174"/>
-      <c r="J300" s="174"/>
-      <c r="K300" s="175"/>
+      <c r="E300" s="194"/>
+      <c r="F300" s="194"/>
+      <c r="G300" s="194"/>
+      <c r="H300" s="194"/>
+      <c r="I300" s="194"/>
+      <c r="J300" s="194"/>
+      <c r="K300" s="195"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -33584,14 +33653,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="184"/>
-      <c r="E301" s="168"/>
-      <c r="F301" s="168"/>
-      <c r="G301" s="168"/>
-      <c r="H301" s="168"/>
-      <c r="I301" s="168"/>
-      <c r="J301" s="168"/>
-      <c r="K301" s="185"/>
+      <c r="D301" s="196"/>
+      <c r="E301" s="197"/>
+      <c r="F301" s="197"/>
+      <c r="G301" s="197"/>
+      <c r="H301" s="197"/>
+      <c r="I301" s="197"/>
+      <c r="J301" s="197"/>
+      <c r="K301" s="198"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -33603,16 +33672,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="178" t="s">
+      <c r="D302" s="193" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="174"/>
-      <c r="F302" s="174"/>
-      <c r="G302" s="174"/>
-      <c r="H302" s="174"/>
-      <c r="I302" s="174"/>
-      <c r="J302" s="174"/>
-      <c r="K302" s="175"/>
+      <c r="E302" s="194"/>
+      <c r="F302" s="194"/>
+      <c r="G302" s="194"/>
+      <c r="H302" s="194"/>
+      <c r="I302" s="194"/>
+      <c r="J302" s="194"/>
+      <c r="K302" s="195"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -33624,14 +33693,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="184"/>
-      <c r="E303" s="168"/>
-      <c r="F303" s="168"/>
-      <c r="G303" s="168"/>
-      <c r="H303" s="168"/>
-      <c r="I303" s="168"/>
-      <c r="J303" s="168"/>
-      <c r="K303" s="185"/>
+      <c r="D303" s="196"/>
+      <c r="E303" s="197"/>
+      <c r="F303" s="197"/>
+      <c r="G303" s="197"/>
+      <c r="H303" s="197"/>
+      <c r="I303" s="197"/>
+      <c r="J303" s="197"/>
+      <c r="K303" s="198"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -33643,16 +33712,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="178" t="s">
+      <c r="D304" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="174"/>
-      <c r="F304" s="174"/>
-      <c r="G304" s="174"/>
-      <c r="H304" s="174"/>
-      <c r="I304" s="174"/>
-      <c r="J304" s="174"/>
-      <c r="K304" s="175"/>
+      <c r="E304" s="194"/>
+      <c r="F304" s="194"/>
+      <c r="G304" s="194"/>
+      <c r="H304" s="194"/>
+      <c r="I304" s="194"/>
+      <c r="J304" s="194"/>
+      <c r="K304" s="195"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -33664,14 +33733,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="184"/>
-      <c r="E305" s="168"/>
-      <c r="F305" s="168"/>
-      <c r="G305" s="168"/>
-      <c r="H305" s="168"/>
-      <c r="I305" s="168"/>
-      <c r="J305" s="168"/>
-      <c r="K305" s="185"/>
+      <c r="D305" s="196"/>
+      <c r="E305" s="197"/>
+      <c r="F305" s="197"/>
+      <c r="G305" s="197"/>
+      <c r="H305" s="197"/>
+      <c r="I305" s="197"/>
+      <c r="J305" s="197"/>
+      <c r="K305" s="198"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -33686,16 +33755,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="178" t="s">
+      <c r="D306" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="174"/>
-      <c r="F306" s="174"/>
-      <c r="G306" s="174"/>
-      <c r="H306" s="174"/>
-      <c r="I306" s="174"/>
-      <c r="J306" s="174"/>
-      <c r="K306" s="175"/>
+      <c r="E306" s="194"/>
+      <c r="F306" s="194"/>
+      <c r="G306" s="194"/>
+      <c r="H306" s="194"/>
+      <c r="I306" s="194"/>
+      <c r="J306" s="194"/>
+      <c r="K306" s="195"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -33707,14 +33776,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="184"/>
-      <c r="E307" s="168"/>
-      <c r="F307" s="168"/>
-      <c r="G307" s="168"/>
-      <c r="H307" s="168"/>
-      <c r="I307" s="168"/>
-      <c r="J307" s="168"/>
-      <c r="K307" s="185"/>
+      <c r="D307" s="196"/>
+      <c r="E307" s="197"/>
+      <c r="F307" s="197"/>
+      <c r="G307" s="197"/>
+      <c r="H307" s="197"/>
+      <c r="I307" s="197"/>
+      <c r="J307" s="197"/>
+      <c r="K307" s="198"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33726,16 +33795,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="178" t="s">
+      <c r="D308" s="193" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="174"/>
-      <c r="F308" s="174"/>
-      <c r="G308" s="174"/>
-      <c r="H308" s="174"/>
-      <c r="I308" s="174"/>
-      <c r="J308" s="174"/>
-      <c r="K308" s="175"/>
+      <c r="E308" s="194"/>
+      <c r="F308" s="194"/>
+      <c r="G308" s="194"/>
+      <c r="H308" s="194"/>
+      <c r="I308" s="194"/>
+      <c r="J308" s="194"/>
+      <c r="K308" s="195"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33747,14 +33816,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="184"/>
-      <c r="E309" s="168"/>
-      <c r="F309" s="168"/>
-      <c r="G309" s="168"/>
-      <c r="H309" s="168"/>
-      <c r="I309" s="168"/>
-      <c r="J309" s="168"/>
-      <c r="K309" s="185"/>
+      <c r="D309" s="196"/>
+      <c r="E309" s="197"/>
+      <c r="F309" s="197"/>
+      <c r="G309" s="197"/>
+      <c r="H309" s="197"/>
+      <c r="I309" s="197"/>
+      <c r="J309" s="197"/>
+      <c r="K309" s="198"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37634,12 +37703,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -37656,29 +37742,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -37701,17 +37770,17 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -37719,14 +37788,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -37734,14 +37803,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -37749,14 +37818,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -37764,14 +37833,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -37779,14 +37848,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -37794,14 +37863,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -37809,14 +37878,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -37824,14 +37893,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -37839,14 +37908,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -37854,14 +37923,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -37869,14 +37938,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -37884,14 +37953,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -37899,14 +37968,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -37914,14 +37983,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -37929,14 +37998,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -37944,14 +38013,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -37959,14 +38028,14 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -37974,14 +38043,14 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -37989,14 +38058,14 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -38004,14 +38073,14 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -38019,14 +38088,14 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -38034,7 +38103,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
@@ -38049,7 +38118,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -38084,932 +38153,932 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="157" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="157" t="s">
-        <v>524</v>
-      </c>
-      <c r="E2" s="157" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" s="157" t="s">
-        <v>567</v>
-      </c>
-      <c r="G2" s="158" t="s">
-        <v>699</v>
-      </c>
-      <c r="H2" s="158" t="s">
-        <v>698</v>
+      <c r="C2" s="147" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" s="147" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="147" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>693</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="154" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="154" t="s">
-        <v>530</v>
-      </c>
-      <c r="E3" s="154" t="s">
-        <v>529</v>
-      </c>
-      <c r="F3" s="156" t="s">
-        <v>568</v>
+      <c r="C3" s="144" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="154" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" s="154" t="s">
-        <v>531</v>
-      </c>
-      <c r="E4" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="F4" s="156" t="s">
-        <v>568</v>
+      <c r="C4" s="144" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="144" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="144" t="s">
         <v>526</v>
       </c>
-      <c r="D5" s="154" t="s">
-        <v>530</v>
-      </c>
-      <c r="E5" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="F5" s="156" t="s">
-        <v>568</v>
-      </c>
-      <c r="G5" s="206" t="s">
-        <v>710</v>
+      <c r="F5" s="146" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>704</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="154" t="s">
-        <v>526</v>
-      </c>
-      <c r="D6" s="154" t="s">
-        <v>527</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>528</v>
-      </c>
-      <c r="F6" s="156" t="s">
-        <v>569</v>
+      <c r="C6" s="144" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="155" t="s">
-        <v>534</v>
-      </c>
-      <c r="D7" s="155" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" s="155" t="s">
-        <v>537</v>
-      </c>
-      <c r="F7" s="156" t="s">
-        <v>568</v>
+      <c r="C7" s="145" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" s="145" t="s">
+        <v>530</v>
+      </c>
+      <c r="E7" s="145" t="s">
+        <v>531</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
-        <v>534</v>
-      </c>
-      <c r="D8" s="155" t="s">
-        <v>536</v>
-      </c>
-      <c r="E8" s="155" t="s">
-        <v>535</v>
-      </c>
-      <c r="F8" s="156" t="s">
-        <v>570</v>
+      <c r="C8" s="145" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>530</v>
+      </c>
+      <c r="E8" s="145" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
-        <v>538</v>
-      </c>
-      <c r="D9" s="155" t="s">
-        <v>539</v>
-      </c>
-      <c r="E9" s="155" t="s">
-        <v>540</v>
-      </c>
-      <c r="F9" s="156" t="s">
-        <v>571</v>
+      <c r="C9" s="145" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>533</v>
+      </c>
+      <c r="E9" s="145" t="s">
+        <v>534</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
-        <v>538</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" s="155" t="s">
-        <v>546</v>
+      <c r="C10" s="145" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="145" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
-        <v>538</v>
-      </c>
-      <c r="D11" s="155" t="s">
-        <v>542</v>
-      </c>
-      <c r="E11" s="155" t="s">
-        <v>547</v>
+      <c r="C11" s="145" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="145" t="s">
+        <v>536</v>
+      </c>
+      <c r="E11" s="145" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
-        <v>538</v>
-      </c>
-      <c r="D12" s="155" t="s">
-        <v>543</v>
-      </c>
-      <c r="E12" s="155" t="s">
-        <v>546</v>
+      <c r="C12" s="145" t="s">
+        <v>532</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="145" t="s">
+        <v>532</v>
+      </c>
+      <c r="D13" s="145" t="s">
         <v>538</v>
       </c>
-      <c r="D13" s="155" t="s">
-        <v>544</v>
-      </c>
-      <c r="E13" s="155" t="s">
-        <v>545</v>
-      </c>
-      <c r="F13" s="156" t="s">
-        <v>568</v>
+      <c r="E13" s="145" t="s">
+        <v>539</v>
+      </c>
+      <c r="F13" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
-        <v>548</v>
-      </c>
-      <c r="D14" s="155" t="s">
-        <v>530</v>
-      </c>
-      <c r="E14" s="155" t="s">
-        <v>549</v>
-      </c>
-      <c r="F14" s="156" t="s">
-        <v>568</v>
+      <c r="C14" s="145" t="s">
+        <v>542</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="145" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
-        <v>548</v>
-      </c>
-      <c r="D15" s="155" t="s">
-        <v>550</v>
-      </c>
-      <c r="E15" s="155" t="s">
-        <v>551</v>
-      </c>
-      <c r="F15" s="156" t="s">
-        <v>572</v>
+      <c r="C15" s="145" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="145" t="s">
+        <v>544</v>
+      </c>
+      <c r="E15" s="145" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="146" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
-        <v>552</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>553</v>
-      </c>
-      <c r="E16" s="155" t="s">
-        <v>553</v>
-      </c>
-      <c r="F16" s="156" t="s">
-        <v>573</v>
+      <c r="C16" s="145" t="s">
+        <v>546</v>
+      </c>
+      <c r="D16" s="145" t="s">
+        <v>547</v>
+      </c>
+      <c r="E16" s="145" t="s">
+        <v>547</v>
+      </c>
+      <c r="F16" s="146" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
-        <v>554</v>
-      </c>
-      <c r="D17" s="155" t="s">
-        <v>556</v>
-      </c>
-      <c r="E17" s="155" t="s">
-        <v>555</v>
-      </c>
-      <c r="F17" s="156" t="s">
-        <v>574</v>
+      <c r="C17" s="145" t="s">
+        <v>548</v>
+      </c>
+      <c r="D17" s="145" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="145" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" s="146" t="s">
+        <v>568</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
-        <v>554</v>
-      </c>
-      <c r="D18" s="155" t="s">
-        <v>557</v>
-      </c>
-      <c r="E18" s="155" t="s">
-        <v>546</v>
+      <c r="C18" s="145" t="s">
+        <v>548</v>
+      </c>
+      <c r="D18" s="145" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
-        <v>554</v>
-      </c>
-      <c r="D19" s="155" t="s">
-        <v>556</v>
-      </c>
-      <c r="E19" s="155" t="s">
-        <v>559</v>
-      </c>
-      <c r="F19" s="156" t="s">
-        <v>575</v>
+      <c r="C19" s="145" t="s">
+        <v>548</v>
+      </c>
+      <c r="D19" s="145" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="145" t="s">
+        <v>553</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="145" t="s">
+        <v>548</v>
+      </c>
+      <c r="D20" s="145" t="s">
         <v>554</v>
       </c>
-      <c r="D20" s="155" t="s">
-        <v>560</v>
-      </c>
-      <c r="E20" s="155" t="s">
-        <v>546</v>
+      <c r="E20" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="155" t="s">
-        <v>554</v>
-      </c>
-      <c r="D21" s="155" t="s">
-        <v>558</v>
-      </c>
-      <c r="E21" s="155" t="s">
-        <v>546</v>
+      <c r="C21" s="145" t="s">
+        <v>548</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>552</v>
+      </c>
+      <c r="E21" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="155" t="s">
-        <v>561</v>
-      </c>
-      <c r="D22" s="155" t="s">
+      <c r="C22" s="145" t="s">
+        <v>555</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="E22" s="145" t="s">
+        <v>557</v>
+      </c>
+      <c r="F22" s="146" t="s">
         <v>562</v>
       </c>
-      <c r="E22" s="155" t="s">
-        <v>563</v>
-      </c>
-      <c r="F22" s="156" t="s">
-        <v>568</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="155" t="s">
-        <v>564</v>
-      </c>
-      <c r="D23" s="155" t="s">
-        <v>530</v>
-      </c>
-      <c r="E23" s="155" t="s">
-        <v>565</v>
-      </c>
-      <c r="F23" s="156" t="s">
-        <v>568</v>
+      <c r="C23" s="145" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E23" s="145" t="s">
+        <v>559</v>
+      </c>
+      <c r="F23" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="155" t="s">
-        <v>566</v>
-      </c>
-      <c r="D24" s="155" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="155" t="s">
-        <v>577</v>
-      </c>
-      <c r="F24" s="156" t="s">
-        <v>568</v>
+      <c r="C24" s="145" t="s">
+        <v>560</v>
+      </c>
+      <c r="D24" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="145" t="s">
+        <v>571</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="155" t="s">
-        <v>566</v>
-      </c>
-      <c r="D25" s="155" t="s">
-        <v>576</v>
-      </c>
-      <c r="E25" s="155" t="s">
-        <v>578</v>
-      </c>
-      <c r="F25" s="156" t="s">
-        <v>568</v>
+      <c r="C25" s="145" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" s="145" t="s">
+        <v>570</v>
+      </c>
+      <c r="E25" s="145" t="s">
+        <v>572</v>
+      </c>
+      <c r="F25" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="155" t="s">
-        <v>566</v>
-      </c>
-      <c r="D26" s="155" t="s">
-        <v>530</v>
-      </c>
-      <c r="E26" s="155" t="s">
-        <v>580</v>
+      <c r="C26" s="145" t="s">
+        <v>560</v>
+      </c>
+      <c r="D26" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="155" t="s">
-        <v>566</v>
-      </c>
-      <c r="D27" s="155" t="s">
-        <v>530</v>
-      </c>
-      <c r="E27" s="155" t="s">
-        <v>579</v>
+      <c r="C27" s="145" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E27" s="145" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="155" t="s">
-        <v>566</v>
-      </c>
-      <c r="D28" s="155" t="s">
-        <v>530</v>
-      </c>
-      <c r="E28" s="155" t="s">
-        <v>581</v>
+      <c r="C28" s="145" t="s">
+        <v>560</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E28" s="145" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="155" t="s">
-        <v>582</v>
-      </c>
-      <c r="D29" s="155" t="s">
-        <v>583</v>
-      </c>
-      <c r="E29" s="155" t="s">
-        <v>546</v>
+      <c r="C29" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" s="145" t="s">
+        <v>577</v>
+      </c>
+      <c r="E29" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="155" t="s">
-        <v>582</v>
-      </c>
-      <c r="D30" s="155" t="s">
-        <v>541</v>
-      </c>
-      <c r="E30" s="155" t="s">
-        <v>584</v>
-      </c>
-      <c r="F30" s="156" t="s">
-        <v>585</v>
+      <c r="C30" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" s="145" t="s">
+        <v>535</v>
+      </c>
+      <c r="E30" s="145" t="s">
+        <v>578</v>
+      </c>
+      <c r="F30" s="146" t="s">
+        <v>579</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="155" t="s">
-        <v>582</v>
-      </c>
-      <c r="D31" s="155" t="s">
-        <v>542</v>
-      </c>
-      <c r="E31" s="155" t="s">
-        <v>586</v>
-      </c>
-      <c r="F31" s="156" t="s">
-        <v>587</v>
+      <c r="C31" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D31" s="145" t="s">
+        <v>536</v>
+      </c>
+      <c r="E31" s="145" t="s">
+        <v>580</v>
+      </c>
+      <c r="F31" s="146" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D32" s="145" t="s">
         <v>582</v>
       </c>
-      <c r="D32" s="155" t="s">
-        <v>588</v>
-      </c>
-      <c r="E32" s="155" t="s">
-        <v>596</v>
-      </c>
-      <c r="F32" s="156" t="s">
-        <v>593</v>
+      <c r="E32" s="145" t="s">
+        <v>590</v>
+      </c>
+      <c r="F32" s="146" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="155" t="s">
-        <v>582</v>
-      </c>
-      <c r="D33" s="155" t="s">
+      <c r="C33" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D33" s="145" t="s">
+        <v>583</v>
+      </c>
+      <c r="E33" s="145" t="s">
         <v>589</v>
       </c>
-      <c r="E33" s="155" t="s">
-        <v>595</v>
-      </c>
-      <c r="F33" s="156" t="s">
-        <v>594</v>
+      <c r="F33" s="146" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="155" t="s">
-        <v>582</v>
-      </c>
-      <c r="D34" s="155" t="s">
-        <v>591</v>
-      </c>
-      <c r="E34" s="155" t="s">
-        <v>590</v>
-      </c>
-      <c r="F34" s="156" t="s">
-        <v>592</v>
+      <c r="C34" s="145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>585</v>
+      </c>
+      <c r="E34" s="145" t="s">
+        <v>584</v>
+      </c>
+      <c r="F34" s="146" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D35" s="155" t="s">
-        <v>598</v>
-      </c>
-      <c r="E35" s="155" t="s">
-        <v>546</v>
-      </c>
-      <c r="F35" s="156" t="s">
-        <v>568</v>
+      <c r="C35" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D35" s="145" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" s="145" t="s">
+        <v>540</v>
+      </c>
+      <c r="F35" s="146" t="s">
+        <v>562</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D36" s="155" t="s">
-        <v>598</v>
-      </c>
-      <c r="E36" s="155" t="s">
-        <v>546</v>
+      <c r="C36" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D36" s="145" t="s">
+        <v>592</v>
+      </c>
+      <c r="E36" s="145" t="s">
+        <v>540</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D37" s="155" t="s">
-        <v>598</v>
-      </c>
-      <c r="E37" s="155" t="s">
-        <v>546</v>
-      </c>
-      <c r="F37" s="156" t="s">
-        <v>599</v>
+      <c r="C37" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="145" t="s">
+        <v>592</v>
+      </c>
+      <c r="E37" s="145" t="s">
+        <v>540</v>
+      </c>
+      <c r="F37" s="146" t="s">
+        <v>593</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D38" s="155" t="s">
-        <v>601</v>
-      </c>
-      <c r="E38" s="155" t="s">
-        <v>546</v>
-      </c>
-      <c r="F38" s="156" t="s">
-        <v>599</v>
+      <c r="C38" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D38" s="145" t="s">
+        <v>595</v>
+      </c>
+      <c r="E38" s="145" t="s">
+        <v>540</v>
+      </c>
+      <c r="F38" s="146" t="s">
+        <v>593</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D39" s="145" t="s">
         <v>597</v>
       </c>
-      <c r="D39" s="155" t="s">
-        <v>603</v>
-      </c>
-      <c r="E39" s="155" t="s">
-        <v>546</v>
+      <c r="E39" s="145" t="s">
+        <v>540</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D40" s="155" t="s">
-        <v>604</v>
-      </c>
-      <c r="E40" s="155" t="s">
-        <v>546</v>
-      </c>
-      <c r="F40" s="156" t="s">
-        <v>599</v>
+      <c r="C40" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" s="145" t="s">
+        <v>598</v>
+      </c>
+      <c r="E40" s="145" t="s">
+        <v>540</v>
+      </c>
+      <c r="F40" s="146" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D41" s="155" t="s">
-        <v>600</v>
-      </c>
-      <c r="E41" s="155" t="s">
-        <v>546</v>
+      <c r="C41" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D41" s="145" t="s">
+        <v>594</v>
+      </c>
+      <c r="E41" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="D42" s="155" t="s">
-        <v>600</v>
-      </c>
-      <c r="E42" s="155" t="s">
-        <v>546</v>
-      </c>
-      <c r="F42" s="156" t="s">
-        <v>599</v>
+      <c r="C42" s="145" t="s">
+        <v>591</v>
+      </c>
+      <c r="D42" s="145" t="s">
+        <v>594</v>
+      </c>
+      <c r="E42" s="145" t="s">
+        <v>540</v>
+      </c>
+      <c r="F42" s="146" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="155" t="s">
-        <v>602</v>
-      </c>
-      <c r="D43" s="155" t="s">
-        <v>610</v>
-      </c>
-      <c r="E43" s="155" t="s">
-        <v>546</v>
+      <c r="C43" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="D43" s="145" t="s">
+        <v>604</v>
+      </c>
+      <c r="E43" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="155" t="s">
-        <v>602</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>609</v>
-      </c>
-      <c r="E44" s="155" t="s">
-        <v>546</v>
+      <c r="C44" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="D44" s="145" t="s">
+        <v>603</v>
+      </c>
+      <c r="E44" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="155" t="s">
-        <v>602</v>
-      </c>
-      <c r="D45" s="155" t="s">
-        <v>611</v>
-      </c>
-      <c r="E45" s="155" t="s">
+      <c r="C45" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="D45" s="145" t="s">
         <v>605</v>
       </c>
-      <c r="F45" s="156" t="s">
-        <v>606</v>
+      <c r="E45" s="145" t="s">
+        <v>599</v>
+      </c>
+      <c r="F45" s="146" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="155" t="s">
-        <v>602</v>
-      </c>
-      <c r="D46" s="155" t="s">
-        <v>583</v>
-      </c>
-      <c r="E46" s="155" t="s">
-        <v>546</v>
+      <c r="C46" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="D46" s="145" t="s">
+        <v>577</v>
+      </c>
+      <c r="E46" s="145" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="D47" s="145" t="s">
+        <v>603</v>
+      </c>
+      <c r="E47" s="145" t="s">
         <v>602</v>
       </c>
-      <c r="D47" s="155" t="s">
-        <v>609</v>
-      </c>
-      <c r="E47" s="155" t="s">
-        <v>608</v>
-      </c>
-      <c r="F47" s="156" t="s">
-        <v>607</v>
+      <c r="F47" s="146" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="155" t="s">
-        <v>612</v>
+      <c r="C48" s="145" t="s">
+        <v>606</v>
       </c>
       <c r="D48" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E48" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="155" t="s">
-        <v>612</v>
+      <c r="C49" s="145" t="s">
+        <v>606</v>
       </c>
       <c r="D49" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E49" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="155" t="s">
-        <v>612</v>
+      <c r="C50" s="145" t="s">
+        <v>606</v>
       </c>
       <c r="D50" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E50" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="155" t="s">
-        <v>612</v>
+      <c r="C51" s="145" t="s">
+        <v>606</v>
       </c>
       <c r="D51" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E51" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="155" t="s">
+      <c r="C52" s="145" t="s">
+        <v>606</v>
+      </c>
+      <c r="D52" t="s">
         <v>612</v>
       </c>
-      <c r="D52" t="s">
-        <v>618</v>
-      </c>
       <c r="E52" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="155" t="s">
-        <v>612</v>
+      <c r="C53" s="145" t="s">
+        <v>606</v>
       </c>
       <c r="D53" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E53" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -39017,16 +39086,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D54" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E54" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -39034,22 +39103,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D55" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E55" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="2:8">
@@ -39057,13 +39126,13 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D56" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E56" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -39071,22 +39140,22 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D57" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E57" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -39094,13 +39163,13 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E58" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -39108,13 +39177,13 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D59" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E59" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -39122,16 +39191,16 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D60" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E60" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -39139,22 +39208,22 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D61" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E61" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -39162,22 +39231,22 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D62" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E62" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -39185,16 +39254,16 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
+        <v>626</v>
+      </c>
+      <c r="D63" t="s">
+        <v>628</v>
+      </c>
+      <c r="E63" t="s">
+        <v>631</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="D63" t="s">
-        <v>634</v>
-      </c>
-      <c r="E63" t="s">
-        <v>637</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -39202,22 +39271,22 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D64" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E64" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -39225,16 +39294,16 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D65" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E65" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="2:8">
@@ -39242,13 +39311,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D66" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E66" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -39256,16 +39325,16 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D67" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E67" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="2:8">
@@ -39273,13 +39342,13 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D68" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E68" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -39287,22 +39356,22 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E69" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -39310,16 +39379,16 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D70" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E70" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -39327,13 +39396,13 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
+        <v>635</v>
+      </c>
+      <c r="D71" t="s">
+        <v>636</v>
+      </c>
+      <c r="E71" t="s">
         <v>641</v>
-      </c>
-      <c r="D71" t="s">
-        <v>642</v>
-      </c>
-      <c r="E71" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -39341,16 +39410,16 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D72" t="s">
+        <v>636</v>
+      </c>
+      <c r="E72" t="s">
         <v>642</v>
       </c>
-      <c r="E72" t="s">
-        <v>648</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -39358,13 +39427,13 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D73" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E73" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -39372,22 +39441,22 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D74" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E74" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -39395,16 +39464,16 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D75" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E75" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -39412,13 +39481,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D76" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E76" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -39426,16 +39495,16 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D77" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E77" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -39443,16 +39512,16 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
+        <v>648</v>
+      </c>
+      <c r="D78" t="s">
         <v>654</v>
       </c>
-      <c r="D78" t="s">
-        <v>660</v>
-      </c>
       <c r="E78" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -39460,16 +39529,16 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D79" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E79" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -39477,16 +39546,16 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D80" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E80" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -39494,22 +39563,22 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D81" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E81" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="2:8">
@@ -39517,16 +39586,16 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D82" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E82" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="2:8">
@@ -39534,13 +39603,13 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D83" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E83" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -39548,13 +39617,13 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D84" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="2:8">
@@ -39562,13 +39631,13 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D85" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E85" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -39576,16 +39645,16 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
+        <v>659</v>
+      </c>
+      <c r="D86" t="s">
+        <v>666</v>
+      </c>
+      <c r="E86" t="s">
+        <v>590</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="D86" t="s">
-        <v>672</v>
-      </c>
-      <c r="E86" t="s">
-        <v>596</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="87" spans="2:8">
@@ -39593,13 +39662,13 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D87" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E87" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -39607,13 +39676,13 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D88" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E88" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="2:8">
@@ -39621,16 +39690,16 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D89" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E89" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="90" spans="2:8">
@@ -39638,16 +39707,16 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D90" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E90" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -39655,16 +39724,16 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D91" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E91" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -39672,16 +39741,16 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D92" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E92" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="2:8">
@@ -39689,22 +39758,22 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D93" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E93" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -39712,16 +39781,16 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D94" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E94" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="95" spans="2:8">
@@ -39729,22 +39798,22 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D95" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E95" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="96" spans="2:8">
@@ -39752,16 +39821,16 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D96" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E96" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -39769,13 +39838,13 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D97" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E97" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -39783,16 +39852,16 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E98" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -39800,13 +39869,13 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D99" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E99" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -39814,16 +39883,16 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D100" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E100" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -39831,13 +39900,13 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D101" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E101" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -39845,16 +39914,16 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D102" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E102" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="103" spans="2:6">
@@ -39862,13 +39931,13 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D103" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E103" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="104" spans="2:6">
@@ -39876,16 +39945,16 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D104" t="s">
+        <v>681</v>
+      </c>
+      <c r="E104" t="s">
         <v>687</v>
       </c>
-      <c r="E104" t="s">
-        <v>693</v>
-      </c>
       <c r="F104" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="105" spans="2:6">
@@ -39893,16 +39962,16 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D105" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E105" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -39910,16 +39979,16 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D106" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E106" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -39927,16 +39996,16 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D107" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E107" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -39951,8 +40020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E9773-BB41-4A15-BA41-CDFF1EE0CEBE}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39962,368 +40031,368 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="199" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="199"/>
+      <c r="B2" s="232" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="232"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:10" ht="30">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="154" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>726</v>
+      </c>
+      <c r="E4" s="162" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="156" t="s">
+        <v>724</v>
+      </c>
+      <c r="G4" s="157" t="s">
+        <v>725</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>727</v>
+      </c>
+      <c r="I4" s="157" t="s">
+        <v>729</v>
+      </c>
+      <c r="J4" s="162" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B5" s="173" t="s">
+        <v>752</v>
+      </c>
+      <c r="C5" s="174" t="s">
+        <v>747</v>
+      </c>
+      <c r="D5" s="172" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="174" t="s">
+        <v>754</v>
+      </c>
+      <c r="F5" s="184" t="s">
+        <v>766</v>
+      </c>
+      <c r="G5" s="174" t="s">
+        <v>755</v>
+      </c>
+      <c r="H5" s="178" t="s">
+        <v>756</v>
+      </c>
+      <c r="I5" s="174" t="s">
+        <v>758</v>
+      </c>
+      <c r="J5" s="179" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30">
+      <c r="B6" s="170" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="165" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="F6" s="156" t="s">
+        <v>732</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>731</v>
+      </c>
+      <c r="H6" s="157" t="s">
         <v>730</v>
       </c>
-      <c r="C4" s="213" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="207" t="s">
+      <c r="I6" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B7" s="177" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="168" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="166" t="s">
+        <v>740</v>
+      </c>
+      <c r="E7" s="174" t="s">
+        <v>751</v>
+      </c>
+      <c r="F7" s="166" t="s">
+        <v>769</v>
+      </c>
+      <c r="G7" s="169" t="s">
+        <v>759</v>
+      </c>
+      <c r="H7" s="169" t="s">
+        <v>760</v>
+      </c>
+      <c r="I7" s="169" t="s">
+        <v>761</v>
+      </c>
+      <c r="J7" s="169" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30">
+      <c r="B8" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>734</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="157" t="s">
         <v>733</v>
       </c>
-      <c r="E4" s="213" t="s">
-        <v>426</v>
-      </c>
-      <c r="F4" s="207" t="s">
-        <v>731</v>
-      </c>
-      <c r="G4" s="208" t="s">
-        <v>732</v>
-      </c>
-      <c r="H4" s="207" t="s">
-        <v>734</v>
-      </c>
-      <c r="I4" s="208" t="s">
+      <c r="F8" s="159" t="s">
+        <v>735</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="171" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="157" t="s">
+        <v>738</v>
+      </c>
+      <c r="J8" s="160" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="60.75" thickBot="1">
+      <c r="B9" s="176" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" s="180" t="s">
+        <v>775</v>
+      </c>
+      <c r="D9" s="233" t="s">
+        <v>777</v>
+      </c>
+      <c r="E9" s="186" t="s">
+        <v>771</v>
+      </c>
+      <c r="F9" s="166" t="s">
+        <v>768</v>
+      </c>
+      <c r="G9" s="169" t="s">
+        <v>767</v>
+      </c>
+      <c r="H9" s="172" t="s">
+        <v>746</v>
+      </c>
+      <c r="I9" s="168" t="s">
+        <v>742</v>
+      </c>
+      <c r="J9" s="169" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30">
+      <c r="B10" s="175" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="163" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="157" t="s">
         <v>736</v>
       </c>
-      <c r="J4" s="213" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B5" s="224" t="s">
-        <v>760</v>
-      </c>
-      <c r="C5" s="225" t="s">
-        <v>755</v>
-      </c>
-      <c r="D5" s="223" t="s">
-        <v>761</v>
-      </c>
-      <c r="E5" s="225" t="s">
-        <v>762</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>472</v>
-      </c>
-      <c r="G5" s="225" t="s">
-        <v>763</v>
-      </c>
-      <c r="H5" s="229" t="s">
-        <v>764</v>
-      </c>
-      <c r="I5" s="225" t="s">
-        <v>766</v>
-      </c>
-      <c r="J5" s="230" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="30">
-      <c r="B6" s="221" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="208" t="s">
-        <v>735</v>
-      </c>
-      <c r="D6" s="216" t="s">
-        <v>470</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>469</v>
-      </c>
-      <c r="F6" s="207" t="s">
+      <c r="E10" s="161" t="s">
         <v>739</v>
       </c>
-      <c r="G6" s="205" t="s">
-        <v>738</v>
-      </c>
-      <c r="H6" s="208" t="s">
-        <v>737</v>
-      </c>
-      <c r="I6" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="J6" s="101" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B7" s="228" t="s">
-        <v>757</v>
-      </c>
-      <c r="C7" s="219" t="s">
-        <v>758</v>
-      </c>
-      <c r="D7" s="217" t="s">
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+    </row>
+    <row r="11" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B11" s="168" t="s">
         <v>748</v>
       </c>
-      <c r="E7" s="225" t="s">
-        <v>759</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="220" t="s">
-        <v>768</v>
-      </c>
-      <c r="H7" s="220" t="s">
-        <v>769</v>
-      </c>
-      <c r="I7" s="220" t="s">
-        <v>770</v>
-      </c>
-      <c r="J7" s="220" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="30">
-      <c r="B8" s="101" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="209" t="s">
+      <c r="C11" s="167" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="215" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="208" t="s">
-        <v>740</v>
-      </c>
-      <c r="F8" s="210" t="s">
-        <v>742</v>
-      </c>
-      <c r="G8" s="101" t="s">
-        <v>468</v>
-      </c>
-      <c r="H8" s="222" t="s">
-        <v>444</v>
-      </c>
-      <c r="I8" s="208" t="s">
-        <v>745</v>
-      </c>
-      <c r="J8" s="211" t="s">
+      <c r="D11" s="153"/>
+      <c r="E11" s="167" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B9" s="227" t="s">
-        <v>753</v>
-      </c>
-      <c r="C9" s="231" t="s">
-        <v>767</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>473</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>728</v>
-      </c>
-      <c r="H9" s="223" t="s">
-        <v>754</v>
-      </c>
-      <c r="I9" s="219" t="s">
-        <v>750</v>
-      </c>
-      <c r="J9" s="220" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30">
-      <c r="B10" s="226" t="s">
-        <v>442</v>
-      </c>
-      <c r="C10" s="214" t="s">
-        <v>443</v>
-      </c>
-      <c r="D10" s="208" t="s">
-        <v>743</v>
-      </c>
-      <c r="E10" s="212" t="s">
-        <v>747</v>
-      </c>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-    </row>
-    <row r="11" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B11" s="219" t="s">
-        <v>756</v>
-      </c>
-      <c r="C11" s="218" t="s">
-        <v>749</v>
-      </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="218" t="s">
-        <v>752</v>
-      </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="12" spans="2:10" ht="60.75" thickBot="1">
-      <c r="B12" s="205" t="s">
-        <v>746</v>
-      </c>
-      <c r="C12" s="106" t="s">
+      <c r="B12" s="190" t="s">
+        <v>776</v>
+      </c>
+      <c r="C12" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="102" t="s">
         <v>429</v>
       </c>
-      <c r="F12" s="107" t="s">
+      <c r="F12" s="103" t="s">
         <v>430</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="103" t="s">
         <v>432</v>
       </c>
-      <c r="I12" s="101" t="s">
+      <c r="I12" s="100" t="s">
+        <v>461</v>
+      </c>
+      <c r="J12" s="152" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B13" s="153"/>
+      <c r="C13" s="122" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>436</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="123" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="J13" s="153"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="105" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="151"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+    </row>
+    <row r="15" spans="2:10" ht="75.75" thickBot="1">
+      <c r="B15" s="108" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110" t="s">
         <v>462</v>
       </c>
-      <c r="J12" s="203" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="204"/>
-      <c r="C13" s="126" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>434</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>435</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>436</v>
-      </c>
-      <c r="G13" s="126" t="s">
-        <v>437</v>
-      </c>
-      <c r="H13" s="127" t="s">
-        <v>438</v>
-      </c>
-      <c r="I13" s="101" t="s">
-        <v>729</v>
-      </c>
-      <c r="J13" s="204"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="109" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="110" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14" s="110" t="s">
-        <v>344</v>
-      </c>
-      <c r="F14" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" s="202"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-    </row>
-    <row r="15" spans="2:10" ht="75.75" thickBot="1">
-      <c r="B15" s="112" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114" t="s">
-        <v>463</v>
-      </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="128" t="s">
-        <v>459</v>
-      </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="115" t="s">
+      <c r="B16" s="124" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="151"/>
+      <c r="D16" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="J16" s="202"/>
+      <c r="J16" s="151"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="127" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="123" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="123" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>455</v>
+      </c>
+      <c r="H17" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" s="122" t="s">
         <v>453</v>
       </c>
-      <c r="E17" s="126" t="s">
-        <v>458</v>
-      </c>
-      <c r="F17" s="127" t="s">
-        <v>457</v>
-      </c>
-      <c r="G17" s="126" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="127" t="s">
-        <v>455</v>
-      </c>
-      <c r="I17" s="126" t="s">
-        <v>454</v>
-      </c>
-      <c r="J17" s="103"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="98"/>
@@ -40338,7 +40407,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="99" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="97"/>
@@ -40350,13 +40419,15 @@
       <c r="J19" s="97"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="117" t="s">
-        <v>449</v>
-      </c>
-      <c r="C20" s="118" t="s">
-        <v>460</v>
-      </c>
-      <c r="D20" s="97"/>
+      <c r="B20" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="189" t="s">
+        <v>774</v>
+      </c>
       <c r="E20" s="97"/>
       <c r="F20" s="97"/>
       <c r="G20" s="97"/>
@@ -40365,13 +40436,13 @@
       <c r="J20" s="97"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="119" t="s">
-        <v>450</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>465</v>
-      </c>
-      <c r="D21" s="97"/>
+      <c r="B21" s="115" t="s">
+        <v>449</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="187"/>
       <c r="E21" s="97"/>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
@@ -40380,20 +40451,22 @@
       <c r="J21" s="97"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="117" t="s">
+        <v>450</v>
+      </c>
+      <c r="C22" s="118" t="s">
+        <v>772</v>
+      </c>
+      <c r="D22" s="188"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="119" t="s">
         <v>451</v>
       </c>
-      <c r="C22" s="122" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="123" t="s">
-        <v>452</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>475</v>
-      </c>
+      <c r="C23" s="120" t="s">
+        <v>773</v>
+      </c>
+      <c r="D23" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2B4E0-BFE5-4CFC-8F6D-2134DD81BE87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D041FED4-1CCB-45E3-AA8C-1D3DEFF58E9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Switches_New" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="761">
   <si>
     <t>ID</t>
   </si>
@@ -2213,74 +2213,6 @@
   </si>
   <si>
     <t>Herbs Used / Discarded</t>
-  </si>
-  <si>
-    <t>Got Lola's Melody
-0x7e0a06 - 0x20</t>
-  </si>
-  <si>
-    <t>Got Wind Melody
-0x7e0a06 - 0x04</t>
-  </si>
-  <si>
-    <t>Got Inca Statue A
-0x7e0a05 - 0x20</t>
-  </si>
-  <si>
-    <t>Got the roast
-0x7e0a08 - 0x40</t>
-  </si>
-  <si>
-    <t>Got Inca Statue B
-0x7e0a08 - 0x01</t>
-  </si>
-  <si>
-    <t>Got Memory Melody
-0x7e0a0b - 0x40</t>
-  </si>
-  <si>
-    <t>Find Mine Key A
-0x7e0a0b - 0x20</t>
-  </si>
-  <si>
-    <t>Got Hope Statue 2
-0x7e0a0f - 0x80</t>
-  </si>
-  <si>
-    <t>Got Hope Statue 1
-0x7e0a0f - 0x02</t>
-  </si>
-  <si>
-    <t>Got Mu Key
-0x7e0a10 - 0x20</t>
-  </si>
-  <si>
-    <t>Get Will
-0x7e0a12 - 0x20</t>
-  </si>
-  <si>
-    <t>Got Lance's Letter
-0x7e0a12 - 0x04</t>
-  </si>
-  <si>
-    <t>GOT THE APPLE
-0x7e0a13 - 0x04</t>
-  </si>
-  <si>
-    <t>GOT AURA
-0x7e0a17 - 0x20</t>
-  </si>
-  <si>
-    <t>Got Gorgon Flower
-0x7e0a17 - 0x40</t>
-  </si>
-  <si>
-    <t>Got black glasses
-0x7e0a17 - 0x04</t>
-  </si>
-  <si>
-    <t>GOT CRYSTAL RING
-0x7e0a1b - 0x10</t>
   </si>
   <si>
     <t>CB Used
@@ -2532,14 +2464,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2605,6 +2529,14 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3437,7 +3369,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3729,46 +3661,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3786,25 +3718,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3834,9 +3763,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3846,27 +3772,18 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="54" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3877,94 +3794,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3976,13 +3851,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3991,34 +3866,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -4030,10 +3956,49 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -4051,16 +4016,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4084,47 +4046,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4566,9 +4495,9 @@
   </sheetPr>
   <dimension ref="A1:T1237"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4645,16 +4574,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="193" t="s">
+      <c r="D2" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="195"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="211"/>
       <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
@@ -4672,14 +4601,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="206"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="217"/>
       <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
@@ -4701,28 +4630,28 @@
         <f t="shared" si="1"/>
         <v>16-23</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="I4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="142" t="s">
+      <c r="J4" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="127" t="s">
+      <c r="K4" s="126" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="5">
@@ -4731,8 +4660,8 @@
       <c r="P4" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="Q4" s="141" t="s">
-        <v>764</v>
+      <c r="Q4" s="136" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4744,32 +4673,32 @@
         <f t="shared" si="0"/>
         <v>A03</v>
       </c>
-      <c r="C5" s="121" t="str">
+      <c r="C5" s="120" t="str">
         <f t="shared" si="1"/>
         <v>24-31</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="127" t="s">
+      <c r="J5" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="131" t="s">
+      <c r="K5" s="130" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6">
@@ -4778,7 +4707,7 @@
       <c r="P5" s="115" t="s">
         <v>449</v>
       </c>
-      <c r="Q5" s="182"/>
+      <c r="Q5" s="163"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="12">
@@ -4793,35 +4722,35 @@
         <f t="shared" si="1"/>
         <v>32-39</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="132" t="s">
+      <c r="I6" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="132" t="s">
+      <c r="J6" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="130" t="s">
+      <c r="K6" s="129" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6">
         <v>20</v>
       </c>
-      <c r="P6" s="181" t="s">
-        <v>763</v>
+      <c r="P6" s="162" t="s">
+        <v>746</v>
       </c>
       <c r="Q6" s="118"/>
     </row>
@@ -4834,42 +4763,42 @@
         <f t="shared" si="0"/>
         <v>A05</v>
       </c>
-      <c r="C7" s="121" t="str">
+      <c r="C7" s="120" t="str">
         <f t="shared" si="1"/>
         <v>40-47</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="130" t="s">
+      <c r="K7" s="129" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="6">
         <v>28</v>
       </c>
-      <c r="P7" s="183" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q7" s="185" t="s">
-        <v>770</v>
+      <c r="P7" s="164" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q7" s="166" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4881,32 +4810,32 @@
         <f t="shared" si="0"/>
         <v>A06</v>
       </c>
-      <c r="C8" s="121" t="str">
+      <c r="C8" s="120" t="str">
         <f t="shared" si="1"/>
         <v>48-55</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="131" t="s">
+      <c r="G8" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="131" t="s">
+      <c r="H8" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="143" t="s">
+      <c r="J8" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="143" t="s">
+      <c r="K8" s="138" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="6">
@@ -4926,26 +4855,26 @@
         <f t="shared" si="1"/>
         <v>56-63</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="127" t="s">
+      <c r="F9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="132" t="s">
+      <c r="G9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="127" t="s">
+      <c r="H9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="130"/>
-      <c r="K9" s="143" t="s">
+      <c r="J9" s="129"/>
+      <c r="K9" s="138" t="s">
         <v>709</v>
       </c>
       <c r="M9" s="6">
@@ -4961,32 +4890,32 @@
         <f t="shared" si="0"/>
         <v>A08</v>
       </c>
-      <c r="C10" s="121" t="str">
+      <c r="C10" s="120" t="str">
         <f t="shared" si="1"/>
         <v>64-71</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="143" t="s">
+      <c r="K10" s="138" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6">
@@ -5006,40 +4935,40 @@
         <f t="shared" si="1"/>
         <v>72-79</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="127" t="s">
+      <c r="I11" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="127" t="s">
+      <c r="J11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="134" t="s">
+      <c r="K11" s="188" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="6">
         <v>48</v>
       </c>
-      <c r="P11" s="226" t="s">
+      <c r="P11" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="226"/>
-      <c r="R11" s="226"/>
-      <c r="S11" s="226"/>
-      <c r="T11" s="226"/>
+      <c r="Q11" s="191"/>
+      <c r="R11" s="191"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="191"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="12">
@@ -5050,32 +4979,32 @@
         <f t="shared" si="0"/>
         <v>A0A</v>
       </c>
-      <c r="C12" s="121" t="str">
+      <c r="C12" s="120" t="str">
         <f t="shared" si="1"/>
         <v>80-87</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="130" t="s">
+      <c r="F12" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="132" t="s">
+      <c r="K12" s="131" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="6">
@@ -5091,32 +5020,32 @@
         <f t="shared" si="0"/>
         <v>A0B</v>
       </c>
-      <c r="C13" s="121" t="str">
+      <c r="C13" s="120" t="str">
         <f t="shared" si="1"/>
         <v>88-95</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E13" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="143" t="s">
+      <c r="H13" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="131" t="s">
+      <c r="J13" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="127" t="s">
+      <c r="K13" s="126" t="s">
         <v>77</v>
       </c>
       <c r="M13" s="6">
@@ -5132,32 +5061,32 @@
         <f t="shared" si="0"/>
         <v>A0C</v>
       </c>
-      <c r="C14" s="121" t="str">
+      <c r="C14" s="120" t="str">
         <f t="shared" si="1"/>
         <v>96-103</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="143" t="s">
+      <c r="H14" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="143" t="s">
+      <c r="I14" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="143" t="s">
+      <c r="J14" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="143" t="s">
+      <c r="K14" s="138" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="6">
@@ -5177,28 +5106,28 @@
         <f t="shared" si="1"/>
         <v>104-111</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="127" t="s">
+      <c r="G15" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="127" t="s">
+      <c r="I15" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="143" t="s">
+      <c r="J15" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="127" t="s">
+      <c r="K15" s="126" t="s">
         <v>93</v>
       </c>
       <c r="M15" s="6">
@@ -5214,32 +5143,32 @@
         <f t="shared" si="0"/>
         <v>A0E</v>
       </c>
-      <c r="C16" s="121" t="str">
+      <c r="C16" s="120" t="str">
         <f t="shared" si="1"/>
         <v>112-119</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="127" t="s">
+      <c r="I16" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="127" t="s">
+      <c r="J16" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="143" t="s">
+      <c r="K16" s="138" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="6">
@@ -5255,32 +5184,32 @@
         <f t="shared" si="0"/>
         <v>A0F</v>
       </c>
-      <c r="C17" s="125" t="str">
+      <c r="C17" s="124" t="str">
         <f t="shared" si="1"/>
         <v>120-127</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="143" t="s">
+      <c r="E17" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="127" t="s">
+      <c r="G17" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="134" t="s">
+      <c r="J17" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="130" t="s">
+      <c r="K17" s="129" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="56">
@@ -5302,28 +5231,28 @@
         <f t="shared" si="1"/>
         <v>128-135</v>
       </c>
-      <c r="D18" s="132" t="s">
+      <c r="D18" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="127" t="s">
+      <c r="I18" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="143" t="s">
+      <c r="J18" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="143" t="s">
+      <c r="K18" s="138" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="6">
@@ -5339,32 +5268,32 @@
         <f t="shared" si="0"/>
         <v>A11</v>
       </c>
-      <c r="C19" s="121" t="str">
+      <c r="C19" s="120" t="str">
         <f t="shared" si="1"/>
         <v>136-143</v>
       </c>
-      <c r="D19" s="130" t="s">
+      <c r="D19" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="127" t="s">
+      <c r="F19" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="131" t="s">
+      <c r="H19" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="137" t="s">
+      <c r="I19" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="127" t="s">
+      <c r="J19" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="132" t="s">
+      <c r="K19" s="131" t="s">
         <v>123</v>
       </c>
       <c r="M19" s="6">
@@ -5384,28 +5313,28 @@
         <f t="shared" si="1"/>
         <v>144-151</v>
       </c>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="185" t="s">
+      <c r="G20" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="127" t="s">
+      <c r="H20" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="134" t="s">
+      <c r="I20" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="127" t="s">
+      <c r="J20" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="127" t="s">
+      <c r="K20" s="126" t="s">
         <v>131</v>
       </c>
       <c r="M20" s="6">
@@ -5421,32 +5350,32 @@
         <f t="shared" si="0"/>
         <v>A13</v>
       </c>
-      <c r="C21" s="121" t="str">
+      <c r="C21" s="120" t="str">
         <f t="shared" si="1"/>
         <v>152-159</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="127" t="s">
+      <c r="E21" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="131" t="s">
+      <c r="G21" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="131" t="s">
+      <c r="H21" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="138" t="s">
+      <c r="I21" s="189" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="131" t="s">
+      <c r="J21" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="131" t="s">
+      <c r="K21" s="130" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="6">
@@ -5462,32 +5391,32 @@
         <f t="shared" si="0"/>
         <v>A14</v>
       </c>
-      <c r="C22" s="121" t="str">
+      <c r="C22" s="120" t="str">
         <f t="shared" si="1"/>
         <v>160-167</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="132" t="s">
+      <c r="E22" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="127" t="s">
+      <c r="F22" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="131" t="s">
+      <c r="I22" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="132" t="s">
+      <c r="J22" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="132" t="s">
+      <c r="K22" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
@@ -5503,32 +5432,32 @@
         <f t="shared" si="0"/>
         <v>A15</v>
       </c>
-      <c r="C23" s="121" t="str">
+      <c r="C23" s="120" t="str">
         <f t="shared" si="1"/>
         <v>168-175</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="127" t="s">
+      <c r="E23" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="132" t="s">
+      <c r="H23" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="132" t="s">
+      <c r="I23" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="127" t="s">
+      <c r="J23" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="132" t="s">
+      <c r="K23" s="131" t="s">
         <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -5544,44 +5473,44 @@
         <f t="shared" si="0"/>
         <v>A16</v>
       </c>
-      <c r="C24" s="121" t="str">
+      <c r="C24" s="120" t="str">
         <f t="shared" si="1"/>
         <v>176-183</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="E24" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="G24" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="127" t="s">
+      <c r="I24" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="127" t="s">
+      <c r="J24" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="127" t="s">
+      <c r="K24" s="126" t="s">
         <v>163</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="P24" s="226" t="s">
+      <c r="P24" s="191" t="s">
         <v>165</v>
       </c>
-      <c r="Q24" s="226"/>
-      <c r="R24" s="226"/>
-      <c r="S24" s="226"/>
-      <c r="T24" s="226"/>
+      <c r="Q24" s="191"/>
+      <c r="R24" s="191"/>
+      <c r="S24" s="191"/>
+      <c r="T24" s="191"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="12">
@@ -5592,32 +5521,32 @@
         <f t="shared" si="0"/>
         <v>A17</v>
       </c>
-      <c r="C25" s="121" t="str">
+      <c r="C25" s="120" t="str">
         <f t="shared" si="1"/>
         <v>184-191</v>
       </c>
-      <c r="D25" s="132" t="s">
+      <c r="D25" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="134" t="s">
+      <c r="E25" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="F25" s="188" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="131" t="s">
+      <c r="G25" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="130" t="s">
+      <c r="H25" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="134" t="s">
+      <c r="I25" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="132" t="s">
+      <c r="J25" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="131" t="s">
+      <c r="K25" s="130" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -5633,32 +5562,32 @@
         <f t="shared" si="0"/>
         <v>A18</v>
       </c>
-      <c r="C26" s="121" t="str">
+      <c r="C26" s="120" t="str">
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="131" t="s">
+      <c r="D26" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="131" t="s">
+      <c r="E26" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="131" t="s">
+      <c r="F26" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="131" t="s">
+      <c r="G26" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="131" t="s">
+      <c r="H26" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="131" t="s">
+      <c r="I26" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="132" t="s">
+      <c r="J26" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="132" t="s">
+      <c r="K26" s="131" t="s">
         <v>181</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -5674,32 +5603,32 @@
         <f t="shared" si="0"/>
         <v>A19</v>
       </c>
-      <c r="C27" s="121" t="str">
+      <c r="C27" s="120" t="str">
         <f t="shared" si="1"/>
         <v>200-207</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="143" t="s">
+      <c r="E27" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="131" t="s">
+      <c r="F27" s="130" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="131" t="s">
+      <c r="G27" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="131" t="s">
+      <c r="H27" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="130" t="s">
+      <c r="I27" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="131" t="s">
+      <c r="J27" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="130" t="s">
+      <c r="K27" s="129" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -5715,32 +5644,32 @@
         <f t="shared" si="0"/>
         <v>A1A</v>
       </c>
-      <c r="C28" s="121" t="str">
+      <c r="C28" s="120" t="str">
         <f t="shared" si="1"/>
         <v>208-215</v>
       </c>
-      <c r="D28" s="131" t="s">
+      <c r="D28" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="127" t="s">
+      <c r="E28" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="131" t="s">
+      <c r="F28" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="130" t="s">
+      <c r="G28" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="130" t="s">
+      <c r="H28" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="130" t="s">
+      <c r="I28" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="132" t="s">
+      <c r="J28" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="127" t="s">
+      <c r="K28" s="126" t="s">
         <v>196</v>
       </c>
       <c r="M28" s="6" t="s">
@@ -5756,32 +5685,32 @@
         <f t="shared" si="0"/>
         <v>A1B</v>
       </c>
-      <c r="C29" s="121" t="str">
+      <c r="C29" s="120" t="str">
         <f t="shared" si="1"/>
         <v>216-223</v>
       </c>
-      <c r="D29" s="127" t="s">
+      <c r="D29" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="127" t="s">
+      <c r="E29" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="140" t="s">
+      <c r="G29" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="131" t="s">
+      <c r="I29" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="131" t="s">
+      <c r="J29" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="131" t="s">
+      <c r="K29" s="130" t="s">
         <v>204</v>
       </c>
       <c r="M29" s="81" t="s">
@@ -5797,32 +5726,32 @@
         <f t="shared" si="0"/>
         <v>A1C</v>
       </c>
-      <c r="C30" s="121" t="str">
+      <c r="C30" s="120" t="str">
         <f t="shared" si="1"/>
         <v>224-231</v>
       </c>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="131" t="s">
+      <c r="E30" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="131" t="s">
+      <c r="F30" s="190" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="131" t="s">
+      <c r="I30" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="131" t="s">
+      <c r="J30" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="131" t="s">
+      <c r="K30" s="130" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -5838,32 +5767,32 @@
         <f t="shared" si="0"/>
         <v>A1D</v>
       </c>
-      <c r="C31" s="121" t="str">
+      <c r="C31" s="120" t="str">
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="138" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="133" t="s">
+      <c r="E31" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="133" t="s">
+      <c r="F31" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="133" t="s">
+      <c r="G31" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="133" t="s">
+      <c r="H31" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="133" t="s">
+      <c r="I31" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="133" t="s">
+      <c r="J31" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="132" t="s">
+      <c r="K31" s="131" t="s">
         <v>221</v>
       </c>
       <c r="M31" s="6" t="s">
@@ -5879,32 +5808,32 @@
         <f>DEC2HEX(2560+A32)</f>
         <v>A1E</v>
       </c>
-      <c r="C32" s="121" t="str">
+      <c r="C32" s="120" t="str">
         <f t="shared" si="1"/>
         <v>240-247</v>
       </c>
-      <c r="D32" s="127" t="s">
+      <c r="D32" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="130" t="s">
+      <c r="E32" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="143" t="s">
+      <c r="F32" s="138" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="130" t="s">
+      <c r="G32" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="132" t="s">
+      <c r="H32" s="131" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="132" t="s">
+      <c r="I32" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="131" t="s">
+      <c r="J32" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="131" t="s">
+      <c r="K32" s="130" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="81" t="s">
@@ -5920,30 +5849,30 @@
         <f>DEC2HEX(2560+A33)</f>
         <v>A1F</v>
       </c>
-      <c r="C33" s="125" t="str">
+      <c r="C33" s="124" t="str">
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="127" t="s">
+      <c r="D33" s="129"/>
+      <c r="E33" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="141" t="s">
+      <c r="F33" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="141" t="s">
+      <c r="G33" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="141" t="s">
+      <c r="H33" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="141" t="s">
+      <c r="I33" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="141" t="s">
+      <c r="J33" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="141" t="s">
+      <c r="K33" s="136" t="s">
         <v>237</v>
       </c>
       <c r="M33" s="56" t="s">
@@ -5969,7 +5898,7 @@
       <c r="F34" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="126" t="s">
+      <c r="G34" s="125" t="s">
         <v>241</v>
       </c>
       <c r="H34" s="88" t="s">
@@ -6047,7 +5976,7 @@
       <c r="H36" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="143" t="s">
+      <c r="I36" s="138" t="s">
         <v>257</v>
       </c>
       <c r="J36" s="91"/>
@@ -6220,16 +6149,16 @@
         <v>285</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="131" t="s">
+      <c r="H41" s="130" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="131" t="s">
+      <c r="I41" s="130" t="s">
         <v>287</v>
       </c>
       <c r="J41" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="143" t="s">
+      <c r="K41" s="138" t="s">
         <v>289</v>
       </c>
       <c r="M41" s="6">
@@ -6348,7 +6277,7 @@
         <v>A2B</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="143" t="s">
+      <c r="D45" s="138" t="s">
         <v>308</v>
       </c>
       <c r="E45" s="91"/>
@@ -6356,7 +6285,7 @@
       <c r="G45" s="92"/>
       <c r="H45" s="93"/>
       <c r="I45" s="91"/>
-      <c r="J45" s="143" t="s">
+      <c r="J45" s="138" t="s">
         <v>309</v>
       </c>
       <c r="K45" s="92"/>
@@ -6374,7 +6303,7 @@
         <v>A2C</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="143" t="s">
+      <c r="D46" s="138" t="s">
         <v>310</v>
       </c>
       <c r="E46" s="12"/>
@@ -7722,16 +7651,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="229" t="s">
+      <c r="D90" s="194" t="s">
         <v>710</v>
       </c>
-      <c r="E90" s="230"/>
-      <c r="F90" s="230"/>
-      <c r="G90" s="230"/>
-      <c r="H90" s="230"/>
-      <c r="I90" s="230"/>
-      <c r="J90" s="230"/>
-      <c r="K90" s="231"/>
+      <c r="E90" s="195"/>
+      <c r="F90" s="195"/>
+      <c r="G90" s="195"/>
+      <c r="H90" s="195"/>
+      <c r="I90" s="195"/>
+      <c r="J90" s="195"/>
+      <c r="K90" s="196"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="12">
@@ -7743,16 +7672,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="229" t="s">
+      <c r="D91" s="194" t="s">
         <v>711</v>
       </c>
-      <c r="E91" s="230"/>
-      <c r="F91" s="230"/>
-      <c r="G91" s="230"/>
-      <c r="H91" s="230"/>
-      <c r="I91" s="230"/>
-      <c r="J91" s="230"/>
-      <c r="K91" s="231"/>
+      <c r="E91" s="195"/>
+      <c r="F91" s="195"/>
+      <c r="G91" s="195"/>
+      <c r="H91" s="195"/>
+      <c r="I91" s="195"/>
+      <c r="J91" s="195"/>
+      <c r="K91" s="196"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="12">
@@ -7764,16 +7693,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="229" t="s">
+      <c r="D92" s="194" t="s">
         <v>712</v>
       </c>
-      <c r="E92" s="230"/>
-      <c r="F92" s="230"/>
-      <c r="G92" s="230"/>
-      <c r="H92" s="230"/>
-      <c r="I92" s="230"/>
-      <c r="J92" s="230"/>
-      <c r="K92" s="231"/>
+      <c r="E92" s="195"/>
+      <c r="F92" s="195"/>
+      <c r="G92" s="195"/>
+      <c r="H92" s="195"/>
+      <c r="I92" s="195"/>
+      <c r="J92" s="195"/>
+      <c r="K92" s="196"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="12">
@@ -7785,16 +7714,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="229" t="s">
+      <c r="D93" s="194" t="s">
         <v>713</v>
       </c>
-      <c r="E93" s="230"/>
-      <c r="F93" s="230"/>
-      <c r="G93" s="230"/>
-      <c r="H93" s="230"/>
-      <c r="I93" s="230"/>
-      <c r="J93" s="230"/>
-      <c r="K93" s="231"/>
+      <c r="E93" s="195"/>
+      <c r="F93" s="195"/>
+      <c r="G93" s="195"/>
+      <c r="H93" s="195"/>
+      <c r="I93" s="195"/>
+      <c r="J93" s="195"/>
+      <c r="K93" s="196"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="12">
@@ -7806,16 +7735,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="229" t="s">
+      <c r="D94" s="194" t="s">
         <v>714</v>
       </c>
-      <c r="E94" s="230"/>
-      <c r="F94" s="230"/>
-      <c r="G94" s="230"/>
-      <c r="H94" s="230"/>
-      <c r="I94" s="230"/>
-      <c r="J94" s="230"/>
-      <c r="K94" s="231"/>
+      <c r="E94" s="195"/>
+      <c r="F94" s="195"/>
+      <c r="G94" s="195"/>
+      <c r="H94" s="195"/>
+      <c r="I94" s="195"/>
+      <c r="J94" s="195"/>
+      <c r="K94" s="196"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="12">
@@ -7827,16 +7756,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="229" t="s">
+      <c r="D95" s="194" t="s">
         <v>715</v>
       </c>
-      <c r="E95" s="230"/>
-      <c r="F95" s="230"/>
-      <c r="G95" s="230"/>
-      <c r="H95" s="230"/>
-      <c r="I95" s="230"/>
-      <c r="J95" s="230"/>
-      <c r="K95" s="231"/>
+      <c r="E95" s="195"/>
+      <c r="F95" s="195"/>
+      <c r="G95" s="195"/>
+      <c r="H95" s="195"/>
+      <c r="I95" s="195"/>
+      <c r="J95" s="195"/>
+      <c r="K95" s="196"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="12">
@@ -7848,16 +7777,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="229" t="s">
+      <c r="D96" s="194" t="s">
         <v>721</v>
       </c>
-      <c r="E96" s="230"/>
-      <c r="F96" s="230"/>
-      <c r="G96" s="230"/>
-      <c r="H96" s="230"/>
-      <c r="I96" s="230"/>
-      <c r="J96" s="230"/>
-      <c r="K96" s="231"/>
+      <c r="E96" s="195"/>
+      <c r="F96" s="195"/>
+      <c r="G96" s="195"/>
+      <c r="H96" s="195"/>
+      <c r="I96" s="195"/>
+      <c r="J96" s="195"/>
+      <c r="K96" s="196"/>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1">
       <c r="A97" s="31">
@@ -7871,22 +7800,22 @@
       <c r="C97" s="32"/>
       <c r="D97" s="49"/>
       <c r="E97" s="31"/>
-      <c r="F97" s="136" t="s">
+      <c r="F97" s="134" t="s">
         <v>717</v>
       </c>
-      <c r="G97" s="136" t="s">
+      <c r="G97" s="134" t="s">
         <v>718</v>
       </c>
-      <c r="H97" s="136" t="s">
+      <c r="H97" s="134" t="s">
         <v>719</v>
       </c>
-      <c r="I97" s="136" t="s">
+      <c r="I97" s="134" t="s">
         <v>719</v>
       </c>
-      <c r="J97" s="136" t="s">
+      <c r="J97" s="134" t="s">
         <v>720</v>
       </c>
-      <c r="K97" s="136" t="s">
+      <c r="K97" s="134" t="s">
         <v>716</v>
       </c>
       <c r="M97" s="56"/>
@@ -10796,16 +10725,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="227" t="s">
+      <c r="D168" s="192" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="227"/>
-      <c r="F168" s="227"/>
-      <c r="G168" s="227"/>
-      <c r="H168" s="227"/>
-      <c r="I168" s="227"/>
-      <c r="J168" s="227"/>
-      <c r="K168" s="227"/>
+      <c r="E168" s="192"/>
+      <c r="F168" s="192"/>
+      <c r="G168" s="192"/>
+      <c r="H168" s="192"/>
+      <c r="I168" s="192"/>
+      <c r="J168" s="192"/>
+      <c r="K168" s="192"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10931,16 +10860,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="227" t="s">
+      <c r="D175" s="192" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="227"/>
-      <c r="F175" s="227"/>
-      <c r="G175" s="227"/>
-      <c r="H175" s="227"/>
-      <c r="I175" s="227"/>
-      <c r="J175" s="227"/>
-      <c r="K175" s="227"/>
+      <c r="E175" s="192"/>
+      <c r="F175" s="192"/>
+      <c r="G175" s="192"/>
+      <c r="H175" s="192"/>
+      <c r="I175" s="192"/>
+      <c r="J175" s="192"/>
+      <c r="K175" s="192"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10993,16 +10922,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="228" t="s">
+      <c r="D178" s="193" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="227"/>
-      <c r="F178" s="227"/>
-      <c r="G178" s="227"/>
-      <c r="H178" s="227"/>
-      <c r="I178" s="227"/>
-      <c r="J178" s="227"/>
-      <c r="K178" s="227"/>
+      <c r="E178" s="192"/>
+      <c r="F178" s="192"/>
+      <c r="G178" s="192"/>
+      <c r="H178" s="192"/>
+      <c r="I178" s="192"/>
+      <c r="J178" s="192"/>
+      <c r="K178" s="192"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -11074,16 +11003,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="199" t="s">
+      <c r="D182" s="197" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="200"/>
-      <c r="F182" s="200"/>
-      <c r="G182" s="200"/>
-      <c r="H182" s="200"/>
-      <c r="I182" s="200"/>
-      <c r="J182" s="200"/>
-      <c r="K182" s="201"/>
+      <c r="E182" s="198"/>
+      <c r="F182" s="198"/>
+      <c r="G182" s="198"/>
+      <c r="H182" s="198"/>
+      <c r="I182" s="198"/>
+      <c r="J182" s="198"/>
+      <c r="K182" s="199"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -11095,16 +11024,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="199" t="s">
+      <c r="D183" s="197" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="200"/>
-      <c r="F183" s="200"/>
-      <c r="G183" s="200"/>
-      <c r="H183" s="200"/>
-      <c r="I183" s="200"/>
-      <c r="J183" s="200"/>
-      <c r="K183" s="201"/>
+      <c r="E183" s="198"/>
+      <c r="F183" s="198"/>
+      <c r="G183" s="198"/>
+      <c r="H183" s="198"/>
+      <c r="I183" s="198"/>
+      <c r="J183" s="198"/>
+      <c r="K183" s="199"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -11116,16 +11045,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="199" t="s">
+      <c r="D184" s="197" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="200"/>
-      <c r="F184" s="200"/>
-      <c r="G184" s="200"/>
-      <c r="H184" s="200"/>
-      <c r="I184" s="200"/>
-      <c r="J184" s="200"/>
-      <c r="K184" s="201"/>
+      <c r="E184" s="198"/>
+      <c r="F184" s="198"/>
+      <c r="G184" s="198"/>
+      <c r="H184" s="198"/>
+      <c r="I184" s="198"/>
+      <c r="J184" s="198"/>
+      <c r="K184" s="199"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -11137,16 +11066,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="199" t="s">
+      <c r="D185" s="197" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="200"/>
-      <c r="F185" s="200"/>
-      <c r="G185" s="200"/>
-      <c r="H185" s="200"/>
-      <c r="I185" s="200"/>
-      <c r="J185" s="200"/>
-      <c r="K185" s="201"/>
+      <c r="E185" s="198"/>
+      <c r="F185" s="198"/>
+      <c r="G185" s="198"/>
+      <c r="H185" s="198"/>
+      <c r="I185" s="198"/>
+      <c r="J185" s="198"/>
+      <c r="K185" s="199"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -11158,16 +11087,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="199" t="s">
+      <c r="D186" s="197" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="200"/>
-      <c r="F186" s="200"/>
-      <c r="G186" s="200"/>
-      <c r="H186" s="200"/>
-      <c r="I186" s="200"/>
-      <c r="J186" s="200"/>
-      <c r="K186" s="201"/>
+      <c r="E186" s="198"/>
+      <c r="F186" s="198"/>
+      <c r="G186" s="198"/>
+      <c r="H186" s="198"/>
+      <c r="I186" s="198"/>
+      <c r="J186" s="198"/>
+      <c r="K186" s="199"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -11179,16 +11108,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="199" t="s">
+      <c r="D187" s="197" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="200"/>
-      <c r="F187" s="200"/>
-      <c r="G187" s="200"/>
-      <c r="H187" s="200"/>
-      <c r="I187" s="200"/>
-      <c r="J187" s="200"/>
-      <c r="K187" s="201"/>
+      <c r="E187" s="198"/>
+      <c r="F187" s="198"/>
+      <c r="G187" s="198"/>
+      <c r="H187" s="198"/>
+      <c r="I187" s="198"/>
+      <c r="J187" s="198"/>
+      <c r="K187" s="199"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -11200,16 +11129,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="199" t="s">
+      <c r="D188" s="197" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="200"/>
-      <c r="F188" s="200"/>
-      <c r="G188" s="200"/>
-      <c r="H188" s="200"/>
-      <c r="I188" s="200"/>
-      <c r="J188" s="200"/>
-      <c r="K188" s="201"/>
+      <c r="E188" s="198"/>
+      <c r="F188" s="198"/>
+      <c r="G188" s="198"/>
+      <c r="H188" s="198"/>
+      <c r="I188" s="198"/>
+      <c r="J188" s="198"/>
+      <c r="K188" s="199"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -11221,16 +11150,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="199" t="s">
+      <c r="D189" s="197" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="200"/>
-      <c r="F189" s="200"/>
-      <c r="G189" s="200"/>
-      <c r="H189" s="200"/>
-      <c r="I189" s="200"/>
-      <c r="J189" s="200"/>
-      <c r="K189" s="201"/>
+      <c r="E189" s="198"/>
+      <c r="F189" s="198"/>
+      <c r="G189" s="198"/>
+      <c r="H189" s="198"/>
+      <c r="I189" s="198"/>
+      <c r="J189" s="198"/>
+      <c r="K189" s="199"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -11242,16 +11171,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="199" t="s">
+      <c r="D190" s="197" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="200"/>
-      <c r="F190" s="200"/>
-      <c r="G190" s="200"/>
-      <c r="H190" s="200"/>
-      <c r="I190" s="200"/>
-      <c r="J190" s="200"/>
-      <c r="K190" s="201"/>
+      <c r="E190" s="198"/>
+      <c r="F190" s="198"/>
+      <c r="G190" s="198"/>
+      <c r="H190" s="198"/>
+      <c r="I190" s="198"/>
+      <c r="J190" s="198"/>
+      <c r="K190" s="199"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -11263,16 +11192,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="199" t="s">
+      <c r="D191" s="197" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="200"/>
-      <c r="F191" s="200"/>
-      <c r="G191" s="200"/>
-      <c r="H191" s="200"/>
-      <c r="I191" s="200"/>
-      <c r="J191" s="200"/>
-      <c r="K191" s="201"/>
+      <c r="E191" s="198"/>
+      <c r="F191" s="198"/>
+      <c r="G191" s="198"/>
+      <c r="H191" s="198"/>
+      <c r="I191" s="198"/>
+      <c r="J191" s="198"/>
+      <c r="K191" s="199"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -11284,16 +11213,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="199" t="s">
+      <c r="D192" s="197" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="200"/>
-      <c r="F192" s="200"/>
-      <c r="G192" s="200"/>
-      <c r="H192" s="200"/>
-      <c r="I192" s="200"/>
-      <c r="J192" s="200"/>
-      <c r="K192" s="201"/>
+      <c r="E192" s="198"/>
+      <c r="F192" s="198"/>
+      <c r="G192" s="198"/>
+      <c r="H192" s="198"/>
+      <c r="I192" s="198"/>
+      <c r="J192" s="198"/>
+      <c r="K192" s="199"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -11305,16 +11234,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="223" t="s">
+      <c r="D193" s="200" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="224"/>
-      <c r="F193" s="224"/>
-      <c r="G193" s="224"/>
-      <c r="H193" s="224"/>
-      <c r="I193" s="224"/>
-      <c r="J193" s="224"/>
-      <c r="K193" s="225"/>
+      <c r="E193" s="201"/>
+      <c r="F193" s="201"/>
+      <c r="G193" s="201"/>
+      <c r="H193" s="201"/>
+      <c r="I193" s="201"/>
+      <c r="J193" s="201"/>
+      <c r="K193" s="202"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -11329,16 +11258,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="209" t="s">
+      <c r="D194" s="203" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="197"/>
-      <c r="F194" s="197"/>
-      <c r="G194" s="197"/>
-      <c r="H194" s="197"/>
-      <c r="I194" s="197"/>
-      <c r="J194" s="197"/>
-      <c r="K194" s="210"/>
+      <c r="E194" s="204"/>
+      <c r="F194" s="204"/>
+      <c r="G194" s="204"/>
+      <c r="H194" s="204"/>
+      <c r="I194" s="204"/>
+      <c r="J194" s="204"/>
+      <c r="K194" s="205"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -11350,16 +11279,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="199" t="s">
+      <c r="D195" s="197" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="200"/>
-      <c r="F195" s="200"/>
-      <c r="G195" s="200"/>
-      <c r="H195" s="200"/>
-      <c r="I195" s="200"/>
-      <c r="J195" s="200"/>
-      <c r="K195" s="201"/>
+      <c r="E195" s="198"/>
+      <c r="F195" s="198"/>
+      <c r="G195" s="198"/>
+      <c r="H195" s="198"/>
+      <c r="I195" s="198"/>
+      <c r="J195" s="198"/>
+      <c r="K195" s="199"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -11371,16 +11300,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="199" t="s">
+      <c r="D196" s="197" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="200"/>
-      <c r="F196" s="200"/>
-      <c r="G196" s="200"/>
-      <c r="H196" s="200"/>
-      <c r="I196" s="200"/>
-      <c r="J196" s="200"/>
-      <c r="K196" s="201"/>
+      <c r="E196" s="198"/>
+      <c r="F196" s="198"/>
+      <c r="G196" s="198"/>
+      <c r="H196" s="198"/>
+      <c r="I196" s="198"/>
+      <c r="J196" s="198"/>
+      <c r="K196" s="199"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -11392,16 +11321,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="199" t="s">
+      <c r="D197" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="200"/>
-      <c r="F197" s="200"/>
-      <c r="G197" s="200"/>
-      <c r="H197" s="200"/>
-      <c r="I197" s="200"/>
-      <c r="J197" s="200"/>
-      <c r="K197" s="201"/>
+      <c r="E197" s="198"/>
+      <c r="F197" s="198"/>
+      <c r="G197" s="198"/>
+      <c r="H197" s="198"/>
+      <c r="I197" s="198"/>
+      <c r="J197" s="198"/>
+      <c r="K197" s="199"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -11413,16 +11342,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="199" t="s">
+      <c r="D198" s="197" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="200"/>
-      <c r="F198" s="200"/>
-      <c r="G198" s="200"/>
-      <c r="H198" s="200"/>
-      <c r="I198" s="200"/>
-      <c r="J198" s="200"/>
-      <c r="K198" s="201"/>
+      <c r="E198" s="198"/>
+      <c r="F198" s="198"/>
+      <c r="G198" s="198"/>
+      <c r="H198" s="198"/>
+      <c r="I198" s="198"/>
+      <c r="J198" s="198"/>
+      <c r="K198" s="199"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -11453,16 +11382,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="199" t="s">
+      <c r="D200" s="197" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="200"/>
-      <c r="F200" s="200"/>
-      <c r="G200" s="200"/>
-      <c r="H200" s="200"/>
-      <c r="I200" s="200"/>
-      <c r="J200" s="200"/>
-      <c r="K200" s="201"/>
+      <c r="E200" s="198"/>
+      <c r="F200" s="198"/>
+      <c r="G200" s="198"/>
+      <c r="H200" s="198"/>
+      <c r="I200" s="198"/>
+      <c r="J200" s="198"/>
+      <c r="K200" s="199"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -11493,16 +11422,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="217" t="s">
+      <c r="D202" s="227" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="218"/>
-      <c r="F202" s="218"/>
-      <c r="G202" s="218"/>
-      <c r="H202" s="218"/>
-      <c r="I202" s="218"/>
-      <c r="J202" s="218"/>
-      <c r="K202" s="219"/>
+      <c r="E202" s="228"/>
+      <c r="F202" s="228"/>
+      <c r="G202" s="228"/>
+      <c r="H202" s="228"/>
+      <c r="I202" s="228"/>
+      <c r="J202" s="228"/>
+      <c r="K202" s="229"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -11533,16 +11462,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="199" t="s">
+      <c r="D204" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="200"/>
-      <c r="F204" s="200"/>
-      <c r="G204" s="200"/>
-      <c r="H204" s="200"/>
-      <c r="I204" s="200"/>
-      <c r="J204" s="200"/>
-      <c r="K204" s="201"/>
+      <c r="E204" s="198"/>
+      <c r="F204" s="198"/>
+      <c r="G204" s="198"/>
+      <c r="H204" s="198"/>
+      <c r="I204" s="198"/>
+      <c r="J204" s="198"/>
+      <c r="K204" s="199"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -11573,16 +11502,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="199" t="s">
+      <c r="D206" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="200"/>
-      <c r="F206" s="200"/>
-      <c r="G206" s="200"/>
-      <c r="H206" s="200"/>
-      <c r="I206" s="200"/>
-      <c r="J206" s="200"/>
-      <c r="K206" s="201"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="198"/>
+      <c r="G206" s="198"/>
+      <c r="H206" s="198"/>
+      <c r="I206" s="198"/>
+      <c r="J206" s="198"/>
+      <c r="K206" s="199"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -11613,16 +11542,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="199" t="s">
+      <c r="D208" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="200"/>
-      <c r="F208" s="200"/>
-      <c r="G208" s="200"/>
-      <c r="H208" s="200"/>
-      <c r="I208" s="200"/>
-      <c r="J208" s="200"/>
-      <c r="K208" s="201"/>
+      <c r="E208" s="198"/>
+      <c r="F208" s="198"/>
+      <c r="G208" s="198"/>
+      <c r="H208" s="198"/>
+      <c r="I208" s="198"/>
+      <c r="J208" s="198"/>
+      <c r="K208" s="199"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -11656,16 +11585,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="209" t="s">
+      <c r="D210" s="203" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="197"/>
-      <c r="F210" s="197"/>
-      <c r="G210" s="197"/>
-      <c r="H210" s="197"/>
-      <c r="I210" s="197"/>
-      <c r="J210" s="197"/>
-      <c r="K210" s="210"/>
+      <c r="E210" s="204"/>
+      <c r="F210" s="204"/>
+      <c r="G210" s="204"/>
+      <c r="H210" s="204"/>
+      <c r="I210" s="204"/>
+      <c r="J210" s="204"/>
+      <c r="K210" s="205"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -11734,16 +11663,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="199" t="s">
+      <c r="D214" s="197" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="200"/>
-      <c r="F214" s="200"/>
-      <c r="G214" s="200"/>
-      <c r="H214" s="200"/>
-      <c r="I214" s="200"/>
-      <c r="J214" s="200"/>
-      <c r="K214" s="201"/>
+      <c r="E214" s="198"/>
+      <c r="F214" s="198"/>
+      <c r="G214" s="198"/>
+      <c r="H214" s="198"/>
+      <c r="I214" s="198"/>
+      <c r="J214" s="198"/>
+      <c r="K214" s="199"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -11774,16 +11703,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="207" t="s">
+      <c r="D216" s="218" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="194"/>
-      <c r="F216" s="194"/>
-      <c r="G216" s="194"/>
-      <c r="H216" s="194"/>
-      <c r="I216" s="194"/>
-      <c r="J216" s="194"/>
-      <c r="K216" s="208"/>
+      <c r="E216" s="210"/>
+      <c r="F216" s="210"/>
+      <c r="G216" s="210"/>
+      <c r="H216" s="210"/>
+      <c r="I216" s="210"/>
+      <c r="J216" s="210"/>
+      <c r="K216" s="219"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11795,14 +11724,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="209"/>
-      <c r="E217" s="197"/>
-      <c r="F217" s="197"/>
-      <c r="G217" s="197"/>
-      <c r="H217" s="197"/>
-      <c r="I217" s="197"/>
-      <c r="J217" s="197"/>
-      <c r="K217" s="210"/>
+      <c r="D217" s="203"/>
+      <c r="E217" s="204"/>
+      <c r="F217" s="204"/>
+      <c r="G217" s="204"/>
+      <c r="H217" s="204"/>
+      <c r="I217" s="204"/>
+      <c r="J217" s="204"/>
+      <c r="K217" s="205"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11814,16 +11743,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="207" t="s">
+      <c r="D218" s="218" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="194"/>
-      <c r="F218" s="194"/>
-      <c r="G218" s="194"/>
-      <c r="H218" s="194"/>
-      <c r="I218" s="194"/>
-      <c r="J218" s="194"/>
-      <c r="K218" s="208"/>
+      <c r="E218" s="210"/>
+      <c r="F218" s="210"/>
+      <c r="G218" s="210"/>
+      <c r="H218" s="210"/>
+      <c r="I218" s="210"/>
+      <c r="J218" s="210"/>
+      <c r="K218" s="219"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11835,14 +11764,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="209"/>
-      <c r="E219" s="197"/>
-      <c r="F219" s="197"/>
-      <c r="G219" s="197"/>
-      <c r="H219" s="197"/>
-      <c r="I219" s="197"/>
-      <c r="J219" s="197"/>
-      <c r="K219" s="210"/>
+      <c r="D219" s="203"/>
+      <c r="E219" s="204"/>
+      <c r="F219" s="204"/>
+      <c r="G219" s="204"/>
+      <c r="H219" s="204"/>
+      <c r="I219" s="204"/>
+      <c r="J219" s="204"/>
+      <c r="K219" s="205"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11854,16 +11783,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="207" t="s">
+      <c r="D220" s="218" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="194"/>
-      <c r="F220" s="194"/>
-      <c r="G220" s="194"/>
-      <c r="H220" s="194"/>
-      <c r="I220" s="194"/>
-      <c r="J220" s="194"/>
-      <c r="K220" s="208"/>
+      <c r="E220" s="210"/>
+      <c r="F220" s="210"/>
+      <c r="G220" s="210"/>
+      <c r="H220" s="210"/>
+      <c r="I220" s="210"/>
+      <c r="J220" s="210"/>
+      <c r="K220" s="219"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11875,14 +11804,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="209"/>
-      <c r="E221" s="197"/>
-      <c r="F221" s="197"/>
-      <c r="G221" s="197"/>
-      <c r="H221" s="197"/>
-      <c r="I221" s="197"/>
-      <c r="J221" s="197"/>
-      <c r="K221" s="210"/>
+      <c r="D221" s="203"/>
+      <c r="E221" s="204"/>
+      <c r="F221" s="204"/>
+      <c r="G221" s="204"/>
+      <c r="H221" s="204"/>
+      <c r="I221" s="204"/>
+      <c r="J221" s="204"/>
+      <c r="K221" s="205"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11894,16 +11823,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="199" t="s">
+      <c r="D222" s="197" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="200"/>
-      <c r="F222" s="200"/>
-      <c r="G222" s="200"/>
-      <c r="H222" s="200"/>
-      <c r="I222" s="200"/>
-      <c r="J222" s="200"/>
-      <c r="K222" s="201"/>
+      <c r="E222" s="198"/>
+      <c r="F222" s="198"/>
+      <c r="G222" s="198"/>
+      <c r="H222" s="198"/>
+      <c r="I222" s="198"/>
+      <c r="J222" s="198"/>
+      <c r="K222" s="199"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11934,16 +11863,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="199" t="s">
+      <c r="D224" s="197" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="200"/>
-      <c r="F224" s="200"/>
-      <c r="G224" s="200"/>
-      <c r="H224" s="200"/>
-      <c r="I224" s="200"/>
-      <c r="J224" s="200"/>
-      <c r="K224" s="201"/>
+      <c r="E224" s="198"/>
+      <c r="F224" s="198"/>
+      <c r="G224" s="198"/>
+      <c r="H224" s="198"/>
+      <c r="I224" s="198"/>
+      <c r="J224" s="198"/>
+      <c r="K224" s="199"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11977,16 +11906,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="214" t="s">
+      <c r="D226" s="224" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="215"/>
-      <c r="F226" s="215"/>
-      <c r="G226" s="215"/>
-      <c r="H226" s="215"/>
-      <c r="I226" s="215"/>
-      <c r="J226" s="215"/>
-      <c r="K226" s="216"/>
+      <c r="E226" s="225"/>
+      <c r="F226" s="225"/>
+      <c r="G226" s="225"/>
+      <c r="H226" s="225"/>
+      <c r="I226" s="225"/>
+      <c r="J226" s="225"/>
+      <c r="K226" s="226"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -12131,16 +12060,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="211" t="s">
+      <c r="D234" s="222" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="212"/>
-      <c r="F234" s="212"/>
-      <c r="G234" s="212"/>
-      <c r="H234" s="212"/>
-      <c r="I234" s="212"/>
-      <c r="J234" s="212"/>
-      <c r="K234" s="213"/>
+      <c r="E234" s="207"/>
+      <c r="F234" s="207"/>
+      <c r="G234" s="207"/>
+      <c r="H234" s="207"/>
+      <c r="I234" s="207"/>
+      <c r="J234" s="207"/>
+      <c r="K234" s="223"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -12209,16 +12138,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="193" t="s">
+      <c r="D238" s="214" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="194"/>
-      <c r="F238" s="194"/>
-      <c r="G238" s="194"/>
-      <c r="H238" s="194"/>
-      <c r="I238" s="194"/>
-      <c r="J238" s="194"/>
-      <c r="K238" s="195"/>
+      <c r="E238" s="210"/>
+      <c r="F238" s="210"/>
+      <c r="G238" s="210"/>
+      <c r="H238" s="210"/>
+      <c r="I238" s="210"/>
+      <c r="J238" s="210"/>
+      <c r="K238" s="211"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -12230,14 +12159,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="196"/>
-      <c r="E239" s="197"/>
-      <c r="F239" s="197"/>
-      <c r="G239" s="197"/>
-      <c r="H239" s="197"/>
-      <c r="I239" s="197"/>
-      <c r="J239" s="197"/>
-      <c r="K239" s="198"/>
+      <c r="D239" s="220"/>
+      <c r="E239" s="204"/>
+      <c r="F239" s="204"/>
+      <c r="G239" s="204"/>
+      <c r="H239" s="204"/>
+      <c r="I239" s="204"/>
+      <c r="J239" s="204"/>
+      <c r="K239" s="221"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -12249,16 +12178,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="194" t="s">
+      <c r="D240" s="210" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="194"/>
-      <c r="F240" s="194"/>
-      <c r="G240" s="194"/>
-      <c r="H240" s="194"/>
-      <c r="I240" s="194"/>
-      <c r="J240" s="194"/>
-      <c r="K240" s="195"/>
+      <c r="E240" s="210"/>
+      <c r="F240" s="210"/>
+      <c r="G240" s="210"/>
+      <c r="H240" s="210"/>
+      <c r="I240" s="210"/>
+      <c r="J240" s="210"/>
+      <c r="K240" s="211"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -12270,14 +12199,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="202"/>
-      <c r="E241" s="202"/>
-      <c r="F241" s="202"/>
-      <c r="G241" s="202"/>
-      <c r="H241" s="202"/>
-      <c r="I241" s="202"/>
-      <c r="J241" s="202"/>
-      <c r="K241" s="203"/>
+      <c r="D241" s="212"/>
+      <c r="E241" s="212"/>
+      <c r="F241" s="212"/>
+      <c r="G241" s="212"/>
+      <c r="H241" s="212"/>
+      <c r="I241" s="212"/>
+      <c r="J241" s="212"/>
+      <c r="K241" s="213"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -12468,16 +12397,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="220" t="s">
+      <c r="D250" s="206" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="212"/>
-      <c r="F250" s="212"/>
-      <c r="G250" s="212"/>
-      <c r="H250" s="212"/>
-      <c r="I250" s="212"/>
-      <c r="J250" s="212"/>
-      <c r="K250" s="221"/>
+      <c r="E250" s="207"/>
+      <c r="F250" s="207"/>
+      <c r="G250" s="207"/>
+      <c r="H250" s="207"/>
+      <c r="I250" s="207"/>
+      <c r="J250" s="207"/>
+      <c r="K250" s="208"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -13046,16 +12975,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="222" t="s">
+      <c r="D280" s="209" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="200"/>
-      <c r="F280" s="200"/>
-      <c r="G280" s="200"/>
-      <c r="H280" s="200"/>
-      <c r="I280" s="200"/>
-      <c r="J280" s="200"/>
-      <c r="K280" s="201"/>
+      <c r="E280" s="198"/>
+      <c r="F280" s="198"/>
+      <c r="G280" s="198"/>
+      <c r="H280" s="198"/>
+      <c r="I280" s="198"/>
+      <c r="J280" s="198"/>
+      <c r="K280" s="199"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -13162,16 +13091,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="222" t="s">
+      <c r="D286" s="209" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="200"/>
-      <c r="F286" s="200"/>
-      <c r="G286" s="200"/>
-      <c r="H286" s="200"/>
-      <c r="I286" s="200"/>
-      <c r="J286" s="200"/>
-      <c r="K286" s="201"/>
+      <c r="E286" s="198"/>
+      <c r="F286" s="198"/>
+      <c r="G286" s="198"/>
+      <c r="H286" s="198"/>
+      <c r="I286" s="198"/>
+      <c r="J286" s="198"/>
+      <c r="K286" s="199"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -13359,16 +13288,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="199" t="s">
+      <c r="D296" s="197" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="200"/>
-      <c r="F296" s="200"/>
-      <c r="G296" s="200"/>
-      <c r="H296" s="200"/>
-      <c r="I296" s="200"/>
-      <c r="J296" s="200"/>
-      <c r="K296" s="201"/>
+      <c r="E296" s="198"/>
+      <c r="F296" s="198"/>
+      <c r="G296" s="198"/>
+      <c r="H296" s="198"/>
+      <c r="I296" s="198"/>
+      <c r="J296" s="198"/>
+      <c r="K296" s="199"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -13399,16 +13328,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="193" t="s">
+      <c r="D298" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="194"/>
-      <c r="F298" s="194"/>
-      <c r="G298" s="194"/>
-      <c r="H298" s="194"/>
-      <c r="I298" s="194"/>
-      <c r="J298" s="194"/>
-      <c r="K298" s="195"/>
+      <c r="E298" s="210"/>
+      <c r="F298" s="210"/>
+      <c r="G298" s="210"/>
+      <c r="H298" s="210"/>
+      <c r="I298" s="210"/>
+      <c r="J298" s="210"/>
+      <c r="K298" s="211"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -13420,14 +13349,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="196"/>
-      <c r="E299" s="197"/>
-      <c r="F299" s="197"/>
-      <c r="G299" s="197"/>
-      <c r="H299" s="197"/>
-      <c r="I299" s="197"/>
-      <c r="J299" s="197"/>
-      <c r="K299" s="198"/>
+      <c r="D299" s="220"/>
+      <c r="E299" s="204"/>
+      <c r="F299" s="204"/>
+      <c r="G299" s="204"/>
+      <c r="H299" s="204"/>
+      <c r="I299" s="204"/>
+      <c r="J299" s="204"/>
+      <c r="K299" s="221"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -13439,16 +13368,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="193" t="s">
+      <c r="D300" s="214" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="194"/>
-      <c r="F300" s="194"/>
-      <c r="G300" s="194"/>
-      <c r="H300" s="194"/>
-      <c r="I300" s="194"/>
-      <c r="J300" s="194"/>
-      <c r="K300" s="195"/>
+      <c r="E300" s="210"/>
+      <c r="F300" s="210"/>
+      <c r="G300" s="210"/>
+      <c r="H300" s="210"/>
+      <c r="I300" s="210"/>
+      <c r="J300" s="210"/>
+      <c r="K300" s="211"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -13460,14 +13389,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="196"/>
-      <c r="E301" s="197"/>
-      <c r="F301" s="197"/>
-      <c r="G301" s="197"/>
-      <c r="H301" s="197"/>
-      <c r="I301" s="197"/>
-      <c r="J301" s="197"/>
-      <c r="K301" s="198"/>
+      <c r="D301" s="220"/>
+      <c r="E301" s="204"/>
+      <c r="F301" s="204"/>
+      <c r="G301" s="204"/>
+      <c r="H301" s="204"/>
+      <c r="I301" s="204"/>
+      <c r="J301" s="204"/>
+      <c r="K301" s="221"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -13479,16 +13408,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="193" t="s">
+      <c r="D302" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="194"/>
-      <c r="F302" s="194"/>
-      <c r="G302" s="194"/>
-      <c r="H302" s="194"/>
-      <c r="I302" s="194"/>
-      <c r="J302" s="194"/>
-      <c r="K302" s="195"/>
+      <c r="E302" s="210"/>
+      <c r="F302" s="210"/>
+      <c r="G302" s="210"/>
+      <c r="H302" s="210"/>
+      <c r="I302" s="210"/>
+      <c r="J302" s="210"/>
+      <c r="K302" s="211"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -13500,14 +13429,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="196"/>
-      <c r="E303" s="197"/>
-      <c r="F303" s="197"/>
-      <c r="G303" s="197"/>
-      <c r="H303" s="197"/>
-      <c r="I303" s="197"/>
-      <c r="J303" s="197"/>
-      <c r="K303" s="198"/>
+      <c r="D303" s="220"/>
+      <c r="E303" s="204"/>
+      <c r="F303" s="204"/>
+      <c r="G303" s="204"/>
+      <c r="H303" s="204"/>
+      <c r="I303" s="204"/>
+      <c r="J303" s="204"/>
+      <c r="K303" s="221"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -13519,16 +13448,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="193" t="s">
+      <c r="D304" s="214" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="194"/>
-      <c r="F304" s="194"/>
-      <c r="G304" s="194"/>
-      <c r="H304" s="194"/>
-      <c r="I304" s="194"/>
-      <c r="J304" s="194"/>
-      <c r="K304" s="195"/>
+      <c r="E304" s="210"/>
+      <c r="F304" s="210"/>
+      <c r="G304" s="210"/>
+      <c r="H304" s="210"/>
+      <c r="I304" s="210"/>
+      <c r="J304" s="210"/>
+      <c r="K304" s="211"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -13540,14 +13469,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="196"/>
-      <c r="E305" s="197"/>
-      <c r="F305" s="197"/>
-      <c r="G305" s="197"/>
-      <c r="H305" s="197"/>
-      <c r="I305" s="197"/>
-      <c r="J305" s="197"/>
-      <c r="K305" s="198"/>
+      <c r="D305" s="220"/>
+      <c r="E305" s="204"/>
+      <c r="F305" s="204"/>
+      <c r="G305" s="204"/>
+      <c r="H305" s="204"/>
+      <c r="I305" s="204"/>
+      <c r="J305" s="204"/>
+      <c r="K305" s="221"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -13562,16 +13491,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="193" t="s">
+      <c r="D306" s="214" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="194"/>
-      <c r="F306" s="194"/>
-      <c r="G306" s="194"/>
-      <c r="H306" s="194"/>
-      <c r="I306" s="194"/>
-      <c r="J306" s="194"/>
-      <c r="K306" s="195"/>
+      <c r="E306" s="210"/>
+      <c r="F306" s="210"/>
+      <c r="G306" s="210"/>
+      <c r="H306" s="210"/>
+      <c r="I306" s="210"/>
+      <c r="J306" s="210"/>
+      <c r="K306" s="211"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -13583,14 +13512,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="196"/>
-      <c r="E307" s="197"/>
-      <c r="F307" s="197"/>
-      <c r="G307" s="197"/>
-      <c r="H307" s="197"/>
-      <c r="I307" s="197"/>
-      <c r="J307" s="197"/>
-      <c r="K307" s="198"/>
+      <c r="D307" s="220"/>
+      <c r="E307" s="204"/>
+      <c r="F307" s="204"/>
+      <c r="G307" s="204"/>
+      <c r="H307" s="204"/>
+      <c r="I307" s="204"/>
+      <c r="J307" s="204"/>
+      <c r="K307" s="221"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -13602,16 +13531,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="193" t="s">
+      <c r="D308" s="214" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="194"/>
-      <c r="F308" s="194"/>
-      <c r="G308" s="194"/>
-      <c r="H308" s="194"/>
-      <c r="I308" s="194"/>
-      <c r="J308" s="194"/>
-      <c r="K308" s="195"/>
+      <c r="E308" s="210"/>
+      <c r="F308" s="210"/>
+      <c r="G308" s="210"/>
+      <c r="H308" s="210"/>
+      <c r="I308" s="210"/>
+      <c r="J308" s="210"/>
+      <c r="K308" s="211"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -13623,14 +13552,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="196"/>
-      <c r="E309" s="197"/>
-      <c r="F309" s="197"/>
-      <c r="G309" s="197"/>
-      <c r="H309" s="197"/>
-      <c r="I309" s="197"/>
-      <c r="J309" s="197"/>
-      <c r="K309" s="198"/>
+      <c r="D309" s="220"/>
+      <c r="E309" s="204"/>
+      <c r="F309" s="204"/>
+      <c r="G309" s="204"/>
+      <c r="H309" s="204"/>
+      <c r="I309" s="204"/>
+      <c r="J309" s="204"/>
+      <c r="K309" s="221"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21917,16 +21846,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="191" t="s">
+      <c r="D954" s="230" t="s">
         <v>470</v>
       </c>
-      <c r="E954" s="192"/>
-      <c r="F954" s="192"/>
-      <c r="G954" s="192"/>
-      <c r="H954" s="192"/>
-      <c r="I954" s="192"/>
-      <c r="J954" s="192"/>
-      <c r="K954" s="192"/>
+      <c r="E954" s="231"/>
+      <c r="F954" s="231"/>
+      <c r="G954" s="231"/>
+      <c r="H954" s="231"/>
+      <c r="I954" s="231"/>
+      <c r="J954" s="231"/>
+      <c r="K954" s="231"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24760,40 +24689,13 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D94:K94"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D954:K954"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
     <mergeCell ref="D296:K296"/>
     <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
@@ -24810,13 +24712,40 @@
     <mergeCell ref="D200:K200"/>
     <mergeCell ref="D202:K202"/>
     <mergeCell ref="D204:K204"/>
-    <mergeCell ref="D954:K954"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D206:K206"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D94:K94"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24902,16 +24831,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="193" t="s">
+      <c r="D2" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="195"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="211"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24933,14 +24862,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="206"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="217"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -31189,16 +31118,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="227" t="s">
+      <c r="D178" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="227"/>
-      <c r="F178" s="227"/>
-      <c r="G178" s="227"/>
-      <c r="H178" s="227"/>
-      <c r="I178" s="227"/>
-      <c r="J178" s="227"/>
-      <c r="K178" s="227"/>
+      <c r="E178" s="192"/>
+      <c r="F178" s="192"/>
+      <c r="G178" s="192"/>
+      <c r="H178" s="192"/>
+      <c r="I178" s="192"/>
+      <c r="J178" s="192"/>
+      <c r="K178" s="192"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -31267,16 +31196,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="199" t="s">
+      <c r="D182" s="197" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="200"/>
-      <c r="F182" s="200"/>
-      <c r="G182" s="200"/>
-      <c r="H182" s="200"/>
-      <c r="I182" s="200"/>
-      <c r="J182" s="200"/>
-      <c r="K182" s="201"/>
+      <c r="E182" s="198"/>
+      <c r="F182" s="198"/>
+      <c r="G182" s="198"/>
+      <c r="H182" s="198"/>
+      <c r="I182" s="198"/>
+      <c r="J182" s="198"/>
+      <c r="K182" s="199"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -31288,16 +31217,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="199" t="s">
+      <c r="D183" s="197" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="200"/>
-      <c r="F183" s="200"/>
-      <c r="G183" s="200"/>
-      <c r="H183" s="200"/>
-      <c r="I183" s="200"/>
-      <c r="J183" s="200"/>
-      <c r="K183" s="201"/>
+      <c r="E183" s="198"/>
+      <c r="F183" s="198"/>
+      <c r="G183" s="198"/>
+      <c r="H183" s="198"/>
+      <c r="I183" s="198"/>
+      <c r="J183" s="198"/>
+      <c r="K183" s="199"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -31309,16 +31238,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="199" t="s">
+      <c r="D184" s="197" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="200"/>
-      <c r="F184" s="200"/>
-      <c r="G184" s="200"/>
-      <c r="H184" s="200"/>
-      <c r="I184" s="200"/>
-      <c r="J184" s="200"/>
-      <c r="K184" s="201"/>
+      <c r="E184" s="198"/>
+      <c r="F184" s="198"/>
+      <c r="G184" s="198"/>
+      <c r="H184" s="198"/>
+      <c r="I184" s="198"/>
+      <c r="J184" s="198"/>
+      <c r="K184" s="199"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -31330,16 +31259,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="199" t="s">
+      <c r="D185" s="197" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="200"/>
-      <c r="F185" s="200"/>
-      <c r="G185" s="200"/>
-      <c r="H185" s="200"/>
-      <c r="I185" s="200"/>
-      <c r="J185" s="200"/>
-      <c r="K185" s="201"/>
+      <c r="E185" s="198"/>
+      <c r="F185" s="198"/>
+      <c r="G185" s="198"/>
+      <c r="H185" s="198"/>
+      <c r="I185" s="198"/>
+      <c r="J185" s="198"/>
+      <c r="K185" s="199"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -31351,16 +31280,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="199" t="s">
+      <c r="D186" s="197" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="200"/>
-      <c r="F186" s="200"/>
-      <c r="G186" s="200"/>
-      <c r="H186" s="200"/>
-      <c r="I186" s="200"/>
-      <c r="J186" s="200"/>
-      <c r="K186" s="201"/>
+      <c r="E186" s="198"/>
+      <c r="F186" s="198"/>
+      <c r="G186" s="198"/>
+      <c r="H186" s="198"/>
+      <c r="I186" s="198"/>
+      <c r="J186" s="198"/>
+      <c r="K186" s="199"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -31372,16 +31301,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="199" t="s">
+      <c r="D187" s="197" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="200"/>
-      <c r="F187" s="200"/>
-      <c r="G187" s="200"/>
-      <c r="H187" s="200"/>
-      <c r="I187" s="200"/>
-      <c r="J187" s="200"/>
-      <c r="K187" s="201"/>
+      <c r="E187" s="198"/>
+      <c r="F187" s="198"/>
+      <c r="G187" s="198"/>
+      <c r="H187" s="198"/>
+      <c r="I187" s="198"/>
+      <c r="J187" s="198"/>
+      <c r="K187" s="199"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -31393,16 +31322,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="199" t="s">
+      <c r="D188" s="197" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="200"/>
-      <c r="F188" s="200"/>
-      <c r="G188" s="200"/>
-      <c r="H188" s="200"/>
-      <c r="I188" s="200"/>
-      <c r="J188" s="200"/>
-      <c r="K188" s="201"/>
+      <c r="E188" s="198"/>
+      <c r="F188" s="198"/>
+      <c r="G188" s="198"/>
+      <c r="H188" s="198"/>
+      <c r="I188" s="198"/>
+      <c r="J188" s="198"/>
+      <c r="K188" s="199"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -31414,16 +31343,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="199" t="s">
+      <c r="D189" s="197" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="200"/>
-      <c r="F189" s="200"/>
-      <c r="G189" s="200"/>
-      <c r="H189" s="200"/>
-      <c r="I189" s="200"/>
-      <c r="J189" s="200"/>
-      <c r="K189" s="201"/>
+      <c r="E189" s="198"/>
+      <c r="F189" s="198"/>
+      <c r="G189" s="198"/>
+      <c r="H189" s="198"/>
+      <c r="I189" s="198"/>
+      <c r="J189" s="198"/>
+      <c r="K189" s="199"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -31435,16 +31364,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="199" t="s">
+      <c r="D190" s="197" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="200"/>
-      <c r="F190" s="200"/>
-      <c r="G190" s="200"/>
-      <c r="H190" s="200"/>
-      <c r="I190" s="200"/>
-      <c r="J190" s="200"/>
-      <c r="K190" s="201"/>
+      <c r="E190" s="198"/>
+      <c r="F190" s="198"/>
+      <c r="G190" s="198"/>
+      <c r="H190" s="198"/>
+      <c r="I190" s="198"/>
+      <c r="J190" s="198"/>
+      <c r="K190" s="199"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -31456,16 +31385,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="199" t="s">
+      <c r="D191" s="197" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="200"/>
-      <c r="F191" s="200"/>
-      <c r="G191" s="200"/>
-      <c r="H191" s="200"/>
-      <c r="I191" s="200"/>
-      <c r="J191" s="200"/>
-      <c r="K191" s="201"/>
+      <c r="E191" s="198"/>
+      <c r="F191" s="198"/>
+      <c r="G191" s="198"/>
+      <c r="H191" s="198"/>
+      <c r="I191" s="198"/>
+      <c r="J191" s="198"/>
+      <c r="K191" s="199"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -31477,16 +31406,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="199" t="s">
+      <c r="D192" s="197" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="200"/>
-      <c r="F192" s="200"/>
-      <c r="G192" s="200"/>
-      <c r="H192" s="200"/>
-      <c r="I192" s="200"/>
-      <c r="J192" s="200"/>
-      <c r="K192" s="201"/>
+      <c r="E192" s="198"/>
+      <c r="F192" s="198"/>
+      <c r="G192" s="198"/>
+      <c r="H192" s="198"/>
+      <c r="I192" s="198"/>
+      <c r="J192" s="198"/>
+      <c r="K192" s="199"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -31498,16 +31427,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="223" t="s">
+      <c r="D193" s="200" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="224"/>
-      <c r="F193" s="224"/>
-      <c r="G193" s="224"/>
-      <c r="H193" s="224"/>
-      <c r="I193" s="224"/>
-      <c r="J193" s="224"/>
-      <c r="K193" s="225"/>
+      <c r="E193" s="201"/>
+      <c r="F193" s="201"/>
+      <c r="G193" s="201"/>
+      <c r="H193" s="201"/>
+      <c r="I193" s="201"/>
+      <c r="J193" s="201"/>
+      <c r="K193" s="202"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -31522,16 +31451,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="209" t="s">
+      <c r="D194" s="203" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="197"/>
-      <c r="F194" s="197"/>
-      <c r="G194" s="197"/>
-      <c r="H194" s="197"/>
-      <c r="I194" s="197"/>
-      <c r="J194" s="197"/>
-      <c r="K194" s="210"/>
+      <c r="E194" s="204"/>
+      <c r="F194" s="204"/>
+      <c r="G194" s="204"/>
+      <c r="H194" s="204"/>
+      <c r="I194" s="204"/>
+      <c r="J194" s="204"/>
+      <c r="K194" s="205"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -31543,16 +31472,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="199" t="s">
+      <c r="D195" s="197" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="200"/>
-      <c r="F195" s="200"/>
-      <c r="G195" s="200"/>
-      <c r="H195" s="200"/>
-      <c r="I195" s="200"/>
-      <c r="J195" s="200"/>
-      <c r="K195" s="201"/>
+      <c r="E195" s="198"/>
+      <c r="F195" s="198"/>
+      <c r="G195" s="198"/>
+      <c r="H195" s="198"/>
+      <c r="I195" s="198"/>
+      <c r="J195" s="198"/>
+      <c r="K195" s="199"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -31564,16 +31493,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="199" t="s">
+      <c r="D196" s="197" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="200"/>
-      <c r="F196" s="200"/>
-      <c r="G196" s="200"/>
-      <c r="H196" s="200"/>
-      <c r="I196" s="200"/>
-      <c r="J196" s="200"/>
-      <c r="K196" s="201"/>
+      <c r="E196" s="198"/>
+      <c r="F196" s="198"/>
+      <c r="G196" s="198"/>
+      <c r="H196" s="198"/>
+      <c r="I196" s="198"/>
+      <c r="J196" s="198"/>
+      <c r="K196" s="199"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -31585,16 +31514,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="199" t="s">
+      <c r="D197" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="200"/>
-      <c r="F197" s="200"/>
-      <c r="G197" s="200"/>
-      <c r="H197" s="200"/>
-      <c r="I197" s="200"/>
-      <c r="J197" s="200"/>
-      <c r="K197" s="201"/>
+      <c r="E197" s="198"/>
+      <c r="F197" s="198"/>
+      <c r="G197" s="198"/>
+      <c r="H197" s="198"/>
+      <c r="I197" s="198"/>
+      <c r="J197" s="198"/>
+      <c r="K197" s="199"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -31606,16 +31535,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="199" t="s">
+      <c r="D198" s="197" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="200"/>
-      <c r="F198" s="200"/>
-      <c r="G198" s="200"/>
-      <c r="H198" s="200"/>
-      <c r="I198" s="200"/>
-      <c r="J198" s="200"/>
-      <c r="K198" s="201"/>
+      <c r="E198" s="198"/>
+      <c r="F198" s="198"/>
+      <c r="G198" s="198"/>
+      <c r="H198" s="198"/>
+      <c r="I198" s="198"/>
+      <c r="J198" s="198"/>
+      <c r="K198" s="199"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -31646,16 +31575,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="199" t="s">
+      <c r="D200" s="197" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="200"/>
-      <c r="F200" s="200"/>
-      <c r="G200" s="200"/>
-      <c r="H200" s="200"/>
-      <c r="I200" s="200"/>
-      <c r="J200" s="200"/>
-      <c r="K200" s="201"/>
+      <c r="E200" s="198"/>
+      <c r="F200" s="198"/>
+      <c r="G200" s="198"/>
+      <c r="H200" s="198"/>
+      <c r="I200" s="198"/>
+      <c r="J200" s="198"/>
+      <c r="K200" s="199"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -31686,16 +31615,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="217" t="s">
+      <c r="D202" s="227" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="218"/>
-      <c r="F202" s="218"/>
-      <c r="G202" s="218"/>
-      <c r="H202" s="218"/>
-      <c r="I202" s="218"/>
-      <c r="J202" s="218"/>
-      <c r="K202" s="219"/>
+      <c r="E202" s="228"/>
+      <c r="F202" s="228"/>
+      <c r="G202" s="228"/>
+      <c r="H202" s="228"/>
+      <c r="I202" s="228"/>
+      <c r="J202" s="228"/>
+      <c r="K202" s="229"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -31726,16 +31655,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="199" t="s">
+      <c r="D204" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="200"/>
-      <c r="F204" s="200"/>
-      <c r="G204" s="200"/>
-      <c r="H204" s="200"/>
-      <c r="I204" s="200"/>
-      <c r="J204" s="200"/>
-      <c r="K204" s="201"/>
+      <c r="E204" s="198"/>
+      <c r="F204" s="198"/>
+      <c r="G204" s="198"/>
+      <c r="H204" s="198"/>
+      <c r="I204" s="198"/>
+      <c r="J204" s="198"/>
+      <c r="K204" s="199"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -31766,16 +31695,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="199" t="s">
+      <c r="D206" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="200"/>
-      <c r="F206" s="200"/>
-      <c r="G206" s="200"/>
-      <c r="H206" s="200"/>
-      <c r="I206" s="200"/>
-      <c r="J206" s="200"/>
-      <c r="K206" s="201"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="198"/>
+      <c r="G206" s="198"/>
+      <c r="H206" s="198"/>
+      <c r="I206" s="198"/>
+      <c r="J206" s="198"/>
+      <c r="K206" s="199"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31806,16 +31735,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="199" t="s">
+      <c r="D208" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="200"/>
-      <c r="F208" s="200"/>
-      <c r="G208" s="200"/>
-      <c r="H208" s="200"/>
-      <c r="I208" s="200"/>
-      <c r="J208" s="200"/>
-      <c r="K208" s="201"/>
+      <c r="E208" s="198"/>
+      <c r="F208" s="198"/>
+      <c r="G208" s="198"/>
+      <c r="H208" s="198"/>
+      <c r="I208" s="198"/>
+      <c r="J208" s="198"/>
+      <c r="K208" s="199"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31849,16 +31778,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="209" t="s">
+      <c r="D210" s="203" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="197"/>
-      <c r="F210" s="197"/>
-      <c r="G210" s="197"/>
-      <c r="H210" s="197"/>
-      <c r="I210" s="197"/>
-      <c r="J210" s="197"/>
-      <c r="K210" s="210"/>
+      <c r="E210" s="204"/>
+      <c r="F210" s="204"/>
+      <c r="G210" s="204"/>
+      <c r="H210" s="204"/>
+      <c r="I210" s="204"/>
+      <c r="J210" s="204"/>
+      <c r="K210" s="205"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31927,16 +31856,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="199" t="s">
+      <c r="D214" s="197" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="200"/>
-      <c r="F214" s="200"/>
-      <c r="G214" s="200"/>
-      <c r="H214" s="200"/>
-      <c r="I214" s="200"/>
-      <c r="J214" s="200"/>
-      <c r="K214" s="201"/>
+      <c r="E214" s="198"/>
+      <c r="F214" s="198"/>
+      <c r="G214" s="198"/>
+      <c r="H214" s="198"/>
+      <c r="I214" s="198"/>
+      <c r="J214" s="198"/>
+      <c r="K214" s="199"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31967,16 +31896,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="207" t="s">
+      <c r="D216" s="218" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="194"/>
-      <c r="F216" s="194"/>
-      <c r="G216" s="194"/>
-      <c r="H216" s="194"/>
-      <c r="I216" s="194"/>
-      <c r="J216" s="194"/>
-      <c r="K216" s="208"/>
+      <c r="E216" s="210"/>
+      <c r="F216" s="210"/>
+      <c r="G216" s="210"/>
+      <c r="H216" s="210"/>
+      <c r="I216" s="210"/>
+      <c r="J216" s="210"/>
+      <c r="K216" s="219"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31988,14 +31917,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="209"/>
-      <c r="E217" s="197"/>
-      <c r="F217" s="197"/>
-      <c r="G217" s="197"/>
-      <c r="H217" s="197"/>
-      <c r="I217" s="197"/>
-      <c r="J217" s="197"/>
-      <c r="K217" s="210"/>
+      <c r="D217" s="203"/>
+      <c r="E217" s="204"/>
+      <c r="F217" s="204"/>
+      <c r="G217" s="204"/>
+      <c r="H217" s="204"/>
+      <c r="I217" s="204"/>
+      <c r="J217" s="204"/>
+      <c r="K217" s="205"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -32007,16 +31936,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="207" t="s">
+      <c r="D218" s="218" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="194"/>
-      <c r="F218" s="194"/>
-      <c r="G218" s="194"/>
-      <c r="H218" s="194"/>
-      <c r="I218" s="194"/>
-      <c r="J218" s="194"/>
-      <c r="K218" s="208"/>
+      <c r="E218" s="210"/>
+      <c r="F218" s="210"/>
+      <c r="G218" s="210"/>
+      <c r="H218" s="210"/>
+      <c r="I218" s="210"/>
+      <c r="J218" s="210"/>
+      <c r="K218" s="219"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -32028,14 +31957,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="209"/>
-      <c r="E219" s="197"/>
-      <c r="F219" s="197"/>
-      <c r="G219" s="197"/>
-      <c r="H219" s="197"/>
-      <c r="I219" s="197"/>
-      <c r="J219" s="197"/>
-      <c r="K219" s="210"/>
+      <c r="D219" s="203"/>
+      <c r="E219" s="204"/>
+      <c r="F219" s="204"/>
+      <c r="G219" s="204"/>
+      <c r="H219" s="204"/>
+      <c r="I219" s="204"/>
+      <c r="J219" s="204"/>
+      <c r="K219" s="205"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -32047,16 +31976,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="207" t="s">
+      <c r="D220" s="218" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="194"/>
-      <c r="F220" s="194"/>
-      <c r="G220" s="194"/>
-      <c r="H220" s="194"/>
-      <c r="I220" s="194"/>
-      <c r="J220" s="194"/>
-      <c r="K220" s="208"/>
+      <c r="E220" s="210"/>
+      <c r="F220" s="210"/>
+      <c r="G220" s="210"/>
+      <c r="H220" s="210"/>
+      <c r="I220" s="210"/>
+      <c r="J220" s="210"/>
+      <c r="K220" s="219"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -32068,14 +31997,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="209"/>
-      <c r="E221" s="197"/>
-      <c r="F221" s="197"/>
-      <c r="G221" s="197"/>
-      <c r="H221" s="197"/>
-      <c r="I221" s="197"/>
-      <c r="J221" s="197"/>
-      <c r="K221" s="210"/>
+      <c r="D221" s="203"/>
+      <c r="E221" s="204"/>
+      <c r="F221" s="204"/>
+      <c r="G221" s="204"/>
+      <c r="H221" s="204"/>
+      <c r="I221" s="204"/>
+      <c r="J221" s="204"/>
+      <c r="K221" s="205"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -32087,16 +32016,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="199" t="s">
+      <c r="D222" s="197" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="200"/>
-      <c r="F222" s="200"/>
-      <c r="G222" s="200"/>
-      <c r="H222" s="200"/>
-      <c r="I222" s="200"/>
-      <c r="J222" s="200"/>
-      <c r="K222" s="201"/>
+      <c r="E222" s="198"/>
+      <c r="F222" s="198"/>
+      <c r="G222" s="198"/>
+      <c r="H222" s="198"/>
+      <c r="I222" s="198"/>
+      <c r="J222" s="198"/>
+      <c r="K222" s="199"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -32127,16 +32056,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="199" t="s">
+      <c r="D224" s="197" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="200"/>
-      <c r="F224" s="200"/>
-      <c r="G224" s="200"/>
-      <c r="H224" s="200"/>
-      <c r="I224" s="200"/>
-      <c r="J224" s="200"/>
-      <c r="K224" s="201"/>
+      <c r="E224" s="198"/>
+      <c r="F224" s="198"/>
+      <c r="G224" s="198"/>
+      <c r="H224" s="198"/>
+      <c r="I224" s="198"/>
+      <c r="J224" s="198"/>
+      <c r="K224" s="199"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -32170,16 +32099,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="214" t="s">
+      <c r="D226" s="224" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="215"/>
-      <c r="F226" s="215"/>
-      <c r="G226" s="215"/>
-      <c r="H226" s="215"/>
-      <c r="I226" s="215"/>
-      <c r="J226" s="215"/>
-      <c r="K226" s="216"/>
+      <c r="E226" s="225"/>
+      <c r="F226" s="225"/>
+      <c r="G226" s="225"/>
+      <c r="H226" s="225"/>
+      <c r="I226" s="225"/>
+      <c r="J226" s="225"/>
+      <c r="K226" s="226"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -32324,16 +32253,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="211" t="s">
+      <c r="D234" s="222" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="212"/>
-      <c r="F234" s="212"/>
-      <c r="G234" s="212"/>
-      <c r="H234" s="212"/>
-      <c r="I234" s="212"/>
-      <c r="J234" s="212"/>
-      <c r="K234" s="213"/>
+      <c r="E234" s="207"/>
+      <c r="F234" s="207"/>
+      <c r="G234" s="207"/>
+      <c r="H234" s="207"/>
+      <c r="I234" s="207"/>
+      <c r="J234" s="207"/>
+      <c r="K234" s="223"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -32402,16 +32331,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="193" t="s">
+      <c r="D238" s="214" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="194"/>
-      <c r="F238" s="194"/>
-      <c r="G238" s="194"/>
-      <c r="H238" s="194"/>
-      <c r="I238" s="194"/>
-      <c r="J238" s="194"/>
-      <c r="K238" s="195"/>
+      <c r="E238" s="210"/>
+      <c r="F238" s="210"/>
+      <c r="G238" s="210"/>
+      <c r="H238" s="210"/>
+      <c r="I238" s="210"/>
+      <c r="J238" s="210"/>
+      <c r="K238" s="211"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -32423,14 +32352,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="196"/>
-      <c r="E239" s="197"/>
-      <c r="F239" s="197"/>
-      <c r="G239" s="197"/>
-      <c r="H239" s="197"/>
-      <c r="I239" s="197"/>
-      <c r="J239" s="197"/>
-      <c r="K239" s="198"/>
+      <c r="D239" s="220"/>
+      <c r="E239" s="204"/>
+      <c r="F239" s="204"/>
+      <c r="G239" s="204"/>
+      <c r="H239" s="204"/>
+      <c r="I239" s="204"/>
+      <c r="J239" s="204"/>
+      <c r="K239" s="221"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -32442,16 +32371,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="194" t="s">
+      <c r="D240" s="210" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="194"/>
-      <c r="F240" s="194"/>
-      <c r="G240" s="194"/>
-      <c r="H240" s="194"/>
-      <c r="I240" s="194"/>
-      <c r="J240" s="194"/>
-      <c r="K240" s="195"/>
+      <c r="E240" s="210"/>
+      <c r="F240" s="210"/>
+      <c r="G240" s="210"/>
+      <c r="H240" s="210"/>
+      <c r="I240" s="210"/>
+      <c r="J240" s="210"/>
+      <c r="K240" s="211"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -32463,14 +32392,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="202"/>
-      <c r="E241" s="202"/>
-      <c r="F241" s="202"/>
-      <c r="G241" s="202"/>
-      <c r="H241" s="202"/>
-      <c r="I241" s="202"/>
-      <c r="J241" s="202"/>
-      <c r="K241" s="203"/>
+      <c r="D241" s="212"/>
+      <c r="E241" s="212"/>
+      <c r="F241" s="212"/>
+      <c r="G241" s="212"/>
+      <c r="H241" s="212"/>
+      <c r="I241" s="212"/>
+      <c r="J241" s="212"/>
+      <c r="K241" s="213"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -32661,16 +32590,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="220" t="s">
+      <c r="D250" s="206" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="212"/>
-      <c r="F250" s="212"/>
-      <c r="G250" s="212"/>
-      <c r="H250" s="212"/>
-      <c r="I250" s="212"/>
-      <c r="J250" s="212"/>
-      <c r="K250" s="221"/>
+      <c r="E250" s="207"/>
+      <c r="F250" s="207"/>
+      <c r="G250" s="207"/>
+      <c r="H250" s="207"/>
+      <c r="I250" s="207"/>
+      <c r="J250" s="207"/>
+      <c r="K250" s="208"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -33239,16 +33168,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="199" t="s">
+      <c r="D280" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="200"/>
-      <c r="F280" s="200"/>
-      <c r="G280" s="200"/>
-      <c r="H280" s="200"/>
-      <c r="I280" s="200"/>
-      <c r="J280" s="200"/>
-      <c r="K280" s="201"/>
+      <c r="E280" s="198"/>
+      <c r="F280" s="198"/>
+      <c r="G280" s="198"/>
+      <c r="H280" s="198"/>
+      <c r="I280" s="198"/>
+      <c r="J280" s="198"/>
+      <c r="K280" s="199"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -33355,16 +33284,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="199" t="s">
+      <c r="D286" s="197" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="200"/>
-      <c r="F286" s="200"/>
-      <c r="G286" s="200"/>
-      <c r="H286" s="200"/>
-      <c r="I286" s="200"/>
-      <c r="J286" s="200"/>
-      <c r="K286" s="201"/>
+      <c r="E286" s="198"/>
+      <c r="F286" s="198"/>
+      <c r="G286" s="198"/>
+      <c r="H286" s="198"/>
+      <c r="I286" s="198"/>
+      <c r="J286" s="198"/>
+      <c r="K286" s="199"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -33552,16 +33481,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="199" t="s">
+      <c r="D296" s="197" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="200"/>
-      <c r="F296" s="200"/>
-      <c r="G296" s="200"/>
-      <c r="H296" s="200"/>
-      <c r="I296" s="200"/>
-      <c r="J296" s="200"/>
-      <c r="K296" s="201"/>
+      <c r="E296" s="198"/>
+      <c r="F296" s="198"/>
+      <c r="G296" s="198"/>
+      <c r="H296" s="198"/>
+      <c r="I296" s="198"/>
+      <c r="J296" s="198"/>
+      <c r="K296" s="199"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -33592,16 +33521,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="193" t="s">
+      <c r="D298" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="194"/>
-      <c r="F298" s="194"/>
-      <c r="G298" s="194"/>
-      <c r="H298" s="194"/>
-      <c r="I298" s="194"/>
-      <c r="J298" s="194"/>
-      <c r="K298" s="195"/>
+      <c r="E298" s="210"/>
+      <c r="F298" s="210"/>
+      <c r="G298" s="210"/>
+      <c r="H298" s="210"/>
+      <c r="I298" s="210"/>
+      <c r="J298" s="210"/>
+      <c r="K298" s="211"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -33613,14 +33542,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="196"/>
-      <c r="E299" s="197"/>
-      <c r="F299" s="197"/>
-      <c r="G299" s="197"/>
-      <c r="H299" s="197"/>
-      <c r="I299" s="197"/>
-      <c r="J299" s="197"/>
-      <c r="K299" s="198"/>
+      <c r="D299" s="220"/>
+      <c r="E299" s="204"/>
+      <c r="F299" s="204"/>
+      <c r="G299" s="204"/>
+      <c r="H299" s="204"/>
+      <c r="I299" s="204"/>
+      <c r="J299" s="204"/>
+      <c r="K299" s="221"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -33632,16 +33561,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="193" t="s">
+      <c r="D300" s="214" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="194"/>
-      <c r="F300" s="194"/>
-      <c r="G300" s="194"/>
-      <c r="H300" s="194"/>
-      <c r="I300" s="194"/>
-      <c r="J300" s="194"/>
-      <c r="K300" s="195"/>
+      <c r="E300" s="210"/>
+      <c r="F300" s="210"/>
+      <c r="G300" s="210"/>
+      <c r="H300" s="210"/>
+      <c r="I300" s="210"/>
+      <c r="J300" s="210"/>
+      <c r="K300" s="211"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -33653,14 +33582,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="196"/>
-      <c r="E301" s="197"/>
-      <c r="F301" s="197"/>
-      <c r="G301" s="197"/>
-      <c r="H301" s="197"/>
-      <c r="I301" s="197"/>
-      <c r="J301" s="197"/>
-      <c r="K301" s="198"/>
+      <c r="D301" s="220"/>
+      <c r="E301" s="204"/>
+      <c r="F301" s="204"/>
+      <c r="G301" s="204"/>
+      <c r="H301" s="204"/>
+      <c r="I301" s="204"/>
+      <c r="J301" s="204"/>
+      <c r="K301" s="221"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -33672,16 +33601,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="193" t="s">
+      <c r="D302" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="194"/>
-      <c r="F302" s="194"/>
-      <c r="G302" s="194"/>
-      <c r="H302" s="194"/>
-      <c r="I302" s="194"/>
-      <c r="J302" s="194"/>
-      <c r="K302" s="195"/>
+      <c r="E302" s="210"/>
+      <c r="F302" s="210"/>
+      <c r="G302" s="210"/>
+      <c r="H302" s="210"/>
+      <c r="I302" s="210"/>
+      <c r="J302" s="210"/>
+      <c r="K302" s="211"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -33693,14 +33622,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="196"/>
-      <c r="E303" s="197"/>
-      <c r="F303" s="197"/>
-      <c r="G303" s="197"/>
-      <c r="H303" s="197"/>
-      <c r="I303" s="197"/>
-      <c r="J303" s="197"/>
-      <c r="K303" s="198"/>
+      <c r="D303" s="220"/>
+      <c r="E303" s="204"/>
+      <c r="F303" s="204"/>
+      <c r="G303" s="204"/>
+      <c r="H303" s="204"/>
+      <c r="I303" s="204"/>
+      <c r="J303" s="204"/>
+      <c r="K303" s="221"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -33712,16 +33641,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="193" t="s">
+      <c r="D304" s="214" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="194"/>
-      <c r="F304" s="194"/>
-      <c r="G304" s="194"/>
-      <c r="H304" s="194"/>
-      <c r="I304" s="194"/>
-      <c r="J304" s="194"/>
-      <c r="K304" s="195"/>
+      <c r="E304" s="210"/>
+      <c r="F304" s="210"/>
+      <c r="G304" s="210"/>
+      <c r="H304" s="210"/>
+      <c r="I304" s="210"/>
+      <c r="J304" s="210"/>
+      <c r="K304" s="211"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -33733,14 +33662,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="196"/>
-      <c r="E305" s="197"/>
-      <c r="F305" s="197"/>
-      <c r="G305" s="197"/>
-      <c r="H305" s="197"/>
-      <c r="I305" s="197"/>
-      <c r="J305" s="197"/>
-      <c r="K305" s="198"/>
+      <c r="D305" s="220"/>
+      <c r="E305" s="204"/>
+      <c r="F305" s="204"/>
+      <c r="G305" s="204"/>
+      <c r="H305" s="204"/>
+      <c r="I305" s="204"/>
+      <c r="J305" s="204"/>
+      <c r="K305" s="221"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -33755,16 +33684,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="193" t="s">
+      <c r="D306" s="214" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="194"/>
-      <c r="F306" s="194"/>
-      <c r="G306" s="194"/>
-      <c r="H306" s="194"/>
-      <c r="I306" s="194"/>
-      <c r="J306" s="194"/>
-      <c r="K306" s="195"/>
+      <c r="E306" s="210"/>
+      <c r="F306" s="210"/>
+      <c r="G306" s="210"/>
+      <c r="H306" s="210"/>
+      <c r="I306" s="210"/>
+      <c r="J306" s="210"/>
+      <c r="K306" s="211"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -33776,14 +33705,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="196"/>
-      <c r="E307" s="197"/>
-      <c r="F307" s="197"/>
-      <c r="G307" s="197"/>
-      <c r="H307" s="197"/>
-      <c r="I307" s="197"/>
-      <c r="J307" s="197"/>
-      <c r="K307" s="198"/>
+      <c r="D307" s="220"/>
+      <c r="E307" s="204"/>
+      <c r="F307" s="204"/>
+      <c r="G307" s="204"/>
+      <c r="H307" s="204"/>
+      <c r="I307" s="204"/>
+      <c r="J307" s="204"/>
+      <c r="K307" s="221"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33795,16 +33724,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="193" t="s">
+      <c r="D308" s="214" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="194"/>
-      <c r="F308" s="194"/>
-      <c r="G308" s="194"/>
-      <c r="H308" s="194"/>
-      <c r="I308" s="194"/>
-      <c r="J308" s="194"/>
-      <c r="K308" s="195"/>
+      <c r="E308" s="210"/>
+      <c r="F308" s="210"/>
+      <c r="G308" s="210"/>
+      <c r="H308" s="210"/>
+      <c r="I308" s="210"/>
+      <c r="J308" s="210"/>
+      <c r="K308" s="211"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33816,14 +33745,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="196"/>
-      <c r="E309" s="197"/>
-      <c r="F309" s="197"/>
-      <c r="G309" s="197"/>
-      <c r="H309" s="197"/>
-      <c r="I309" s="197"/>
-      <c r="J309" s="197"/>
-      <c r="K309" s="198"/>
+      <c r="D309" s="220"/>
+      <c r="E309" s="204"/>
+      <c r="F309" s="204"/>
+      <c r="G309" s="204"/>
+      <c r="H309" s="204"/>
+      <c r="I309" s="204"/>
+      <c r="J309" s="204"/>
+      <c r="K309" s="221"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37703,29 +37632,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -37742,12 +37654,29 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -38153,25 +38082,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="142" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="142" t="s">
         <v>518</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="142" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="142" t="s">
         <v>561</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="143" t="s">
         <v>693</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="143" t="s">
         <v>692</v>
       </c>
     </row>
@@ -38179,16 +38108,16 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="139" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -38202,16 +38131,16 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="139" t="s">
         <v>525</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="139" t="s">
         <v>527</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -38225,19 +38154,19 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="139" t="s">
         <v>526</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="141" t="s">
         <v>562</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="149" t="s">
         <v>704</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -38248,16 +38177,16 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="139" t="s">
         <v>521</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="139" t="s">
         <v>522</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="141" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38265,16 +38194,16 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="140" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="140" t="s">
         <v>530</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="140" t="s">
         <v>531</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="141" t="s">
         <v>562</v>
       </c>
     </row>
@@ -38282,16 +38211,16 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="140" t="s">
         <v>528</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="140" t="s">
         <v>530</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="140" t="s">
         <v>529</v>
       </c>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="141" t="s">
         <v>564</v>
       </c>
     </row>
@@ -38299,16 +38228,16 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="140" t="s">
         <v>532</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="E9" s="145" t="s">
+      <c r="E9" s="140" t="s">
         <v>534</v>
       </c>
-      <c r="F9" s="146" t="s">
+      <c r="F9" s="141" t="s">
         <v>565</v>
       </c>
     </row>
@@ -38316,13 +38245,13 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="140" t="s">
         <v>532</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="140" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38330,13 +38259,13 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="140" t="s">
         <v>532</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="E11" s="145" t="s">
+      <c r="E11" s="140" t="s">
         <v>541</v>
       </c>
     </row>
@@ -38344,13 +38273,13 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="140" t="s">
         <v>532</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="140" t="s">
         <v>537</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38358,16 +38287,16 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="140" t="s">
         <v>532</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="140" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="140" t="s">
         <v>539</v>
       </c>
-      <c r="F13" s="146" t="s">
+      <c r="F13" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -38381,16 +38310,16 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="140" t="s">
         <v>542</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="E14" s="145" t="s">
+      <c r="E14" s="140" t="s">
         <v>543</v>
       </c>
-      <c r="F14" s="146" t="s">
+      <c r="F14" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -38404,16 +38333,16 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="140" t="s">
         <v>542</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="140" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="140" t="s">
         <v>545</v>
       </c>
-      <c r="F15" s="146" t="s">
+      <c r="F15" s="141" t="s">
         <v>566</v>
       </c>
     </row>
@@ -38421,16 +38350,16 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="140" t="s">
         <v>546</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="145" t="s">
+      <c r="E16" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="F16" s="146" t="s">
+      <c r="F16" s="141" t="s">
         <v>567</v>
       </c>
     </row>
@@ -38438,16 +38367,16 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="140" t="s">
         <v>548</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="140" t="s">
         <v>550</v>
       </c>
-      <c r="E17" s="145" t="s">
+      <c r="E17" s="140" t="s">
         <v>549</v>
       </c>
-      <c r="F17" s="146" t="s">
+      <c r="F17" s="141" t="s">
         <v>568</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -38461,13 +38390,13 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="140" t="s">
         <v>548</v>
       </c>
-      <c r="D18" s="145" t="s">
+      <c r="D18" s="140" t="s">
         <v>551</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38475,16 +38404,16 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="140" t="s">
         <v>548</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="140" t="s">
         <v>550</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="140" t="s">
         <v>553</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="141" t="s">
         <v>569</v>
       </c>
     </row>
@@ -38492,13 +38421,13 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="140" t="s">
         <v>548</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="140" t="s">
         <v>554</v>
       </c>
-      <c r="E20" s="145" t="s">
+      <c r="E20" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38506,13 +38435,13 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="140" t="s">
         <v>548</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="140" t="s">
         <v>552</v>
       </c>
-      <c r="E21" s="145" t="s">
+      <c r="E21" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38520,16 +38449,16 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="140" t="s">
         <v>555</v>
       </c>
-      <c r="D22" s="145" t="s">
+      <c r="D22" s="140" t="s">
         <v>556</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="140" t="s">
         <v>557</v>
       </c>
-      <c r="F22" s="146" t="s">
+      <c r="F22" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -38543,16 +38472,16 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="140" t="s">
         <v>558</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="140" t="s">
         <v>559</v>
       </c>
-      <c r="F23" s="146" t="s">
+      <c r="F23" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -38566,16 +38495,16 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="D24" s="145" t="s">
+      <c r="D24" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="E24" s="145" t="s">
+      <c r="E24" s="140" t="s">
         <v>571</v>
       </c>
-      <c r="F24" s="146" t="s">
+      <c r="F24" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -38589,16 +38518,16 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="145" t="s">
+      <c r="C25" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="140" t="s">
         <v>570</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="140" t="s">
         <v>572</v>
       </c>
-      <c r="F25" s="146" t="s">
+      <c r="F25" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -38612,13 +38541,13 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="140" t="s">
         <v>574</v>
       </c>
     </row>
@@ -38626,13 +38555,13 @@
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="145" t="s">
+      <c r="C27" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="D27" s="145" t="s">
+      <c r="D27" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="E27" s="145" t="s">
+      <c r="E27" s="140" t="s">
         <v>573</v>
       </c>
     </row>
@@ -38640,13 +38569,13 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="E28" s="145" t="s">
+      <c r="E28" s="140" t="s">
         <v>575</v>
       </c>
     </row>
@@ -38654,13 +38583,13 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="D29" s="145" t="s">
+      <c r="D29" s="140" t="s">
         <v>577</v>
       </c>
-      <c r="E29" s="145" t="s">
+      <c r="E29" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38668,16 +38597,16 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="D30" s="145" t="s">
+      <c r="D30" s="140" t="s">
         <v>535</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="140" t="s">
         <v>578</v>
       </c>
-      <c r="F30" s="146" t="s">
+      <c r="F30" s="141" t="s">
         <v>579</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -38691,16 +38620,16 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="D31" s="145" t="s">
+      <c r="D31" s="140" t="s">
         <v>536</v>
       </c>
-      <c r="E31" s="145" t="s">
+      <c r="E31" s="140" t="s">
         <v>580</v>
       </c>
-      <c r="F31" s="146" t="s">
+      <c r="F31" s="141" t="s">
         <v>581</v>
       </c>
     </row>
@@ -38708,16 +38637,16 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="140" t="s">
         <v>582</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="140" t="s">
         <v>590</v>
       </c>
-      <c r="F32" s="146" t="s">
+      <c r="F32" s="141" t="s">
         <v>587</v>
       </c>
     </row>
@@ -38725,16 +38654,16 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="D33" s="145" t="s">
+      <c r="D33" s="140" t="s">
         <v>583</v>
       </c>
-      <c r="E33" s="145" t="s">
+      <c r="E33" s="140" t="s">
         <v>589</v>
       </c>
-      <c r="F33" s="146" t="s">
+      <c r="F33" s="141" t="s">
         <v>588</v>
       </c>
     </row>
@@ -38742,16 +38671,16 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="140" t="s">
         <v>585</v>
       </c>
-      <c r="E34" s="145" t="s">
+      <c r="E34" s="140" t="s">
         <v>584</v>
       </c>
-      <c r="F34" s="146" t="s">
+      <c r="F34" s="141" t="s">
         <v>586</v>
       </c>
     </row>
@@ -38759,16 +38688,16 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="C35" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="140" t="s">
         <v>592</v>
       </c>
-      <c r="E35" s="145" t="s">
+      <c r="E35" s="140" t="s">
         <v>540</v>
       </c>
-      <c r="F35" s="146" t="s">
+      <c r="F35" s="141" t="s">
         <v>562</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -38782,13 +38711,13 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="145" t="s">
+      <c r="C36" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D36" s="145" t="s">
+      <c r="D36" s="140" t="s">
         <v>592</v>
       </c>
-      <c r="E36" s="145" t="s">
+      <c r="E36" s="140" t="s">
         <v>540</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -38802,16 +38731,16 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="145" t="s">
+      <c r="C37" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="140" t="s">
         <v>592</v>
       </c>
-      <c r="E37" s="145" t="s">
+      <c r="E37" s="140" t="s">
         <v>540</v>
       </c>
-      <c r="F37" s="146" t="s">
+      <c r="F37" s="141" t="s">
         <v>593</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -38825,16 +38754,16 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="145" t="s">
+      <c r="C38" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D38" s="145" t="s">
+      <c r="D38" s="140" t="s">
         <v>595</v>
       </c>
-      <c r="E38" s="145" t="s">
+      <c r="E38" s="140" t="s">
         <v>540</v>
       </c>
-      <c r="F38" s="146" t="s">
+      <c r="F38" s="141" t="s">
         <v>593</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -38848,13 +38777,13 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="145" t="s">
+      <c r="C39" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="140" t="s">
         <v>597</v>
       </c>
-      <c r="E39" s="145" t="s">
+      <c r="E39" s="140" t="s">
         <v>540</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -38868,16 +38797,16 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="145" t="s">
+      <c r="D40" s="140" t="s">
         <v>598</v>
       </c>
-      <c r="E40" s="145" t="s">
+      <c r="E40" s="140" t="s">
         <v>540</v>
       </c>
-      <c r="F40" s="146" t="s">
+      <c r="F40" s="141" t="s">
         <v>593</v>
       </c>
     </row>
@@ -38885,13 +38814,13 @@
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="145" t="s">
+      <c r="C41" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D41" s="145" t="s">
+      <c r="D41" s="140" t="s">
         <v>594</v>
       </c>
-      <c r="E41" s="145" t="s">
+      <c r="E41" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38899,16 +38828,16 @@
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="145" t="s">
+      <c r="C42" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="D42" s="145" t="s">
+      <c r="D42" s="140" t="s">
         <v>594</v>
       </c>
-      <c r="E42" s="145" t="s">
+      <c r="E42" s="140" t="s">
         <v>540</v>
       </c>
-      <c r="F42" s="146" t="s">
+      <c r="F42" s="141" t="s">
         <v>593</v>
       </c>
     </row>
@@ -38916,13 +38845,13 @@
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="145" t="s">
+      <c r="C43" s="140" t="s">
         <v>596</v>
       </c>
-      <c r="D43" s="145" t="s">
+      <c r="D43" s="140" t="s">
         <v>604</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38930,13 +38859,13 @@
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="145" t="s">
+      <c r="C44" s="140" t="s">
         <v>596</v>
       </c>
-      <c r="D44" s="145" t="s">
+      <c r="D44" s="140" t="s">
         <v>603</v>
       </c>
-      <c r="E44" s="145" t="s">
+      <c r="E44" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38944,16 +38873,16 @@
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="145" t="s">
+      <c r="C45" s="140" t="s">
         <v>596</v>
       </c>
-      <c r="D45" s="145" t="s">
+      <c r="D45" s="140" t="s">
         <v>605</v>
       </c>
-      <c r="E45" s="145" t="s">
+      <c r="E45" s="140" t="s">
         <v>599</v>
       </c>
-      <c r="F45" s="146" t="s">
+      <c r="F45" s="141" t="s">
         <v>600</v>
       </c>
     </row>
@@ -38961,13 +38890,13 @@
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="140" t="s">
         <v>596</v>
       </c>
-      <c r="D46" s="145" t="s">
+      <c r="D46" s="140" t="s">
         <v>577</v>
       </c>
-      <c r="E46" s="145" t="s">
+      <c r="E46" s="140" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38975,16 +38904,16 @@
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="145" t="s">
+      <c r="C47" s="140" t="s">
         <v>596</v>
       </c>
-      <c r="D47" s="145" t="s">
+      <c r="D47" s="140" t="s">
         <v>603</v>
       </c>
-      <c r="E47" s="145" t="s">
+      <c r="E47" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="F47" s="146" t="s">
+      <c r="F47" s="141" t="s">
         <v>601</v>
       </c>
     </row>
@@ -38992,7 +38921,7 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="145" t="s">
+      <c r="C48" s="140" t="s">
         <v>606</v>
       </c>
       <c r="D48" t="s">
@@ -39006,7 +38935,7 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="145" t="s">
+      <c r="C49" s="140" t="s">
         <v>606</v>
       </c>
       <c r="D49" t="s">
@@ -39020,7 +38949,7 @@
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="145" t="s">
+      <c r="C50" s="140" t="s">
         <v>606</v>
       </c>
       <c r="D50" t="s">
@@ -39037,7 +38966,7 @@
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="145" t="s">
+      <c r="C51" s="140" t="s">
         <v>606</v>
       </c>
       <c r="D51" t="s">
@@ -39054,7 +38983,7 @@
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="145" t="s">
+      <c r="C52" s="140" t="s">
         <v>606</v>
       </c>
       <c r="D52" t="s">
@@ -39068,7 +38997,7 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="C53" s="140" t="s">
         <v>606</v>
       </c>
       <c r="D53" t="s">
@@ -40020,8 +39949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E9773-BB41-4A15-BA41-CDFF1EE0CEBE}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -40044,219 +39973,219 @@
       <c r="C2" s="232"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:10" ht="30">
-      <c r="B4" s="154" t="s">
+    <row r="4" spans="2:10">
+      <c r="B4" s="172" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="173" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="174" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="173" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="174" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="175" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="173" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B5" s="155" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" s="156" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="154" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" s="156" t="s">
+        <v>737</v>
+      </c>
+      <c r="F5" s="165" t="s">
+        <v>749</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>738</v>
+      </c>
+      <c r="H5" s="159" t="s">
+        <v>739</v>
+      </c>
+      <c r="I5" s="156" t="s">
+        <v>741</v>
+      </c>
+      <c r="J5" s="160" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="176" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="177" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="178" t="s">
+        <v>467</v>
+      </c>
+      <c r="F6" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="178" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B7" s="158" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>733</v>
+      </c>
+      <c r="D7" s="150" t="s">
         <v>723</v>
       </c>
-      <c r="C4" s="162" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="156" t="s">
+      <c r="E7" s="156" t="s">
+        <v>734</v>
+      </c>
+      <c r="F7" s="150" t="s">
+        <v>752</v>
+      </c>
+      <c r="G7" s="153" t="s">
+        <v>742</v>
+      </c>
+      <c r="H7" s="153" t="s">
+        <v>743</v>
+      </c>
+      <c r="I7" s="153" t="s">
+        <v>744</v>
+      </c>
+      <c r="J7" s="153" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="178" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="180" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="181" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="178" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="182" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="183" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="60.75" thickBot="1">
+      <c r="B9" s="157" t="s">
+        <v>728</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>758</v>
+      </c>
+      <c r="D9" s="171" t="s">
+        <v>760</v>
+      </c>
+      <c r="E9" s="167" t="s">
+        <v>754</v>
+      </c>
+      <c r="F9" s="150" t="s">
+        <v>751</v>
+      </c>
+      <c r="G9" s="153" t="s">
+        <v>750</v>
+      </c>
+      <c r="H9" s="154" t="s">
+        <v>729</v>
+      </c>
+      <c r="I9" s="152" t="s">
+        <v>725</v>
+      </c>
+      <c r="J9" s="153" t="s">
         <v>726</v>
       </c>
-      <c r="E4" s="162" t="s">
-        <v>426</v>
-      </c>
-      <c r="F4" s="156" t="s">
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="184" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="185" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="175" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="186" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+    </row>
+    <row r="11" spans="2:10" ht="30.75" thickBot="1">
+      <c r="B11" s="152" t="s">
+        <v>731</v>
+      </c>
+      <c r="C11" s="151" t="s">
         <v>724</v>
       </c>
-      <c r="G4" s="157" t="s">
-        <v>725</v>
-      </c>
-      <c r="H4" s="156" t="s">
+      <c r="D11" s="148"/>
+      <c r="E11" s="151" t="s">
         <v>727</v>
       </c>
-      <c r="I4" s="157" t="s">
-        <v>729</v>
-      </c>
-      <c r="J4" s="162" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B5" s="173" t="s">
-        <v>752</v>
-      </c>
-      <c r="C5" s="174" t="s">
-        <v>747</v>
-      </c>
-      <c r="D5" s="172" t="s">
-        <v>753</v>
-      </c>
-      <c r="E5" s="174" t="s">
-        <v>754</v>
-      </c>
-      <c r="F5" s="184" t="s">
-        <v>766</v>
-      </c>
-      <c r="G5" s="174" t="s">
-        <v>755</v>
-      </c>
-      <c r="H5" s="178" t="s">
-        <v>756</v>
-      </c>
-      <c r="I5" s="174" t="s">
-        <v>758</v>
-      </c>
-      <c r="J5" s="179" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="30">
-      <c r="B6" s="170" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="157" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" s="165" t="s">
-        <v>468</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>467</v>
-      </c>
-      <c r="F6" s="156" t="s">
-        <v>732</v>
-      </c>
-      <c r="G6" s="154" t="s">
-        <v>731</v>
-      </c>
-      <c r="H6" s="157" t="s">
-        <v>730</v>
-      </c>
-      <c r="I6" s="165" t="s">
-        <v>439</v>
-      </c>
-      <c r="J6" s="100" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B7" s="177" t="s">
-        <v>749</v>
-      </c>
-      <c r="C7" s="168" t="s">
-        <v>750</v>
-      </c>
-      <c r="D7" s="166" t="s">
-        <v>740</v>
-      </c>
-      <c r="E7" s="174" t="s">
-        <v>751</v>
-      </c>
-      <c r="F7" s="166" t="s">
-        <v>769</v>
-      </c>
-      <c r="G7" s="169" t="s">
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+    </row>
+    <row r="12" spans="2:10" ht="60.75" thickBot="1">
+      <c r="B12" s="172" t="s">
         <v>759</v>
-      </c>
-      <c r="H7" s="169" t="s">
-        <v>760</v>
-      </c>
-      <c r="I7" s="169" t="s">
-        <v>761</v>
-      </c>
-      <c r="J7" s="169" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="30">
-      <c r="B8" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="158" t="s">
-        <v>734</v>
-      </c>
-      <c r="D8" s="164" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="157" t="s">
-        <v>733</v>
-      </c>
-      <c r="F8" s="159" t="s">
-        <v>735</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" s="171" t="s">
-        <v>444</v>
-      </c>
-      <c r="I8" s="157" t="s">
-        <v>738</v>
-      </c>
-      <c r="J8" s="160" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="60.75" thickBot="1">
-      <c r="B9" s="176" t="s">
-        <v>745</v>
-      </c>
-      <c r="C9" s="180" t="s">
-        <v>775</v>
-      </c>
-      <c r="D9" s="233" t="s">
-        <v>777</v>
-      </c>
-      <c r="E9" s="186" t="s">
-        <v>771</v>
-      </c>
-      <c r="F9" s="166" t="s">
-        <v>768</v>
-      </c>
-      <c r="G9" s="169" t="s">
-        <v>767</v>
-      </c>
-      <c r="H9" s="172" t="s">
-        <v>746</v>
-      </c>
-      <c r="I9" s="168" t="s">
-        <v>742</v>
-      </c>
-      <c r="J9" s="169" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="30">
-      <c r="B10" s="175" t="s">
-        <v>442</v>
-      </c>
-      <c r="C10" s="163" t="s">
-        <v>443</v>
-      </c>
-      <c r="D10" s="157" t="s">
-        <v>736</v>
-      </c>
-      <c r="E10" s="161" t="s">
-        <v>739</v>
-      </c>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-    </row>
-    <row r="11" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B11" s="168" t="s">
-        <v>748</v>
-      </c>
-      <c r="C11" s="167" t="s">
-        <v>741</v>
-      </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="167" t="s">
-        <v>744</v>
-      </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-    </row>
-    <row r="12" spans="2:10" ht="60.75" thickBot="1">
-      <c r="B12" s="190" t="s">
-        <v>776</v>
       </c>
       <c r="C12" s="102" t="s">
         <v>427</v>
@@ -40279,34 +40208,34 @@
       <c r="I12" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="J12" s="152" t="s">
+      <c r="J12" s="147" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="153"/>
-      <c r="C13" s="122" t="s">
+      <c r="B13" s="148"/>
+      <c r="C13" s="121" t="s">
         <v>433</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="122" t="s">
         <v>434</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="121" t="s">
         <v>435</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="121" t="s">
         <v>437</v>
       </c>
-      <c r="H13" s="123" t="s">
+      <c r="H13" s="122" t="s">
         <v>438</v>
       </c>
       <c r="I13" s="100" t="s">
         <v>722</v>
       </c>
-      <c r="J13" s="153"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="105" t="s">
@@ -40327,9 +40256,9 @@
       <c r="G14" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
     </row>
     <row r="15" spans="2:10" ht="75.75" thickBot="1">
       <c r="B15" s="108" t="s">
@@ -40343,14 +40272,14 @@
       <c r="F15" s="109"/>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C16" s="151"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="111" t="s">
         <v>237</v>
       </c>
@@ -40369,27 +40298,27 @@
       <c r="I16" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="J16" s="151"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="104"/>
       <c r="C17" s="101"/>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="122" t="s">
         <v>452</v>
       </c>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="121" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="122" t="s">
         <v>454</v>
       </c>
-      <c r="I17" s="122" t="s">
+      <c r="I17" s="121" t="s">
         <v>453</v>
       </c>
       <c r="J17" s="101"/>
@@ -40425,8 +40354,8 @@
       <c r="C20" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="D20" s="189" t="s">
-        <v>774</v>
+      <c r="D20" s="170" t="s">
+        <v>757</v>
       </c>
       <c r="E20" s="97"/>
       <c r="F20" s="97"/>
@@ -40442,7 +40371,7 @@
       <c r="C21" s="116" t="s">
         <v>464</v>
       </c>
-      <c r="D21" s="187"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="97"/>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
@@ -40455,18 +40384,18 @@
         <v>450</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>772</v>
-      </c>
-      <c r="D22" s="188"/>
+        <v>755</v>
+      </c>
+      <c r="D22" s="169"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="119" t="s">
         <v>451</v>
       </c>
-      <c r="C23" s="120" t="s">
-        <v>773</v>
-      </c>
-      <c r="D23" s="188"/>
+      <c r="C23" s="187" t="s">
+        <v>756</v>
+      </c>
+      <c r="D23" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/autotracking/Switches.xlsx
+++ b/autotracking/Switches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\autotracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D041FED4-1CCB-45E3-AA8C-1D3DEFF58E9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A87CC1-0303-459E-B8A3-CE84D31893C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3369,7 +3369,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3748,9 +3748,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3929,22 +3926,28 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3956,49 +3959,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
@@ -4016,13 +3980,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4046,11 +4013,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4497,7 +4494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4574,16 +4571,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="211"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
       <c r="M2" s="81" t="s">
         <v>7</v>
       </c>
@@ -4601,14 +4598,14 @@
         <f t="shared" ref="C3:C33" si="1">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="217"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205"/>
       <c r="M3" s="81" t="s">
         <v>8</v>
       </c>
@@ -4648,7 +4645,7 @@
       <c r="I4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="136" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="126" t="s">
@@ -4660,7 +4657,7 @@
       <c r="P4" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="Q4" s="136" t="s">
+      <c r="Q4" s="135" t="s">
         <v>747</v>
       </c>
     </row>
@@ -4677,10 +4674,10 @@
         <f t="shared" si="1"/>
         <v>24-31</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="128" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="126" t="s">
@@ -4698,7 +4695,7 @@
       <c r="J5" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="130" t="s">
+      <c r="K5" s="129" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6">
@@ -4707,7 +4704,7 @@
       <c r="P5" s="115" t="s">
         <v>449</v>
       </c>
-      <c r="Q5" s="163"/>
+      <c r="Q5" s="162"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="12">
@@ -4725,31 +4722,31 @@
       <c r="D6" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="128" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6">
         <v>20</v>
       </c>
-      <c r="P6" s="162" t="s">
+      <c r="P6" s="161" t="s">
         <v>746</v>
       </c>
       <c r="Q6" s="118"/>
@@ -4767,37 +4764,37 @@
         <f t="shared" si="1"/>
         <v>40-47</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="131" t="s">
+      <c r="J7" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="128" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="6">
         <v>28</v>
       </c>
-      <c r="P7" s="164" t="s">
+      <c r="P7" s="163" t="s">
         <v>748</v>
       </c>
-      <c r="Q7" s="166" t="s">
+      <c r="Q7" s="165" t="s">
         <v>753</v>
       </c>
     </row>
@@ -4814,28 +4811,28 @@
         <f t="shared" si="1"/>
         <v>48-55</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="I8" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="138" t="s">
+      <c r="K8" s="137" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="6">
@@ -4858,23 +4855,23 @@
       <c r="D9" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="137" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="130" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="129"/>
-      <c r="K9" s="138" t="s">
+      <c r="J9" s="128"/>
+      <c r="K9" s="137" t="s">
         <v>709</v>
       </c>
       <c r="M9" s="6">
@@ -4894,28 +4891,28 @@
         <f t="shared" si="1"/>
         <v>64-71</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="188" t="s">
+      <c r="E10" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="138" t="s">
+      <c r="J10" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="138" t="s">
+      <c r="K10" s="137" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6">
@@ -4935,16 +4932,16 @@
         <f t="shared" si="1"/>
         <v>72-79</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="126" t="s">
@@ -4956,19 +4953,19 @@
       <c r="J11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="188" t="s">
+      <c r="K11" s="187" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="6">
         <v>48</v>
       </c>
-      <c r="P11" s="191" t="s">
+      <c r="P11" s="225" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="191"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="191"/>
-      <c r="T11" s="191"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="225"/>
+      <c r="T11" s="225"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="12">
@@ -4989,22 +4986,22 @@
       <c r="E12" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="129" t="s">
+      <c r="F12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="H12" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="I12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="130" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="6">
@@ -5024,25 +5021,25 @@
         <f t="shared" si="1"/>
         <v>88-95</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="188" t="s">
+      <c r="E13" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="188" t="s">
+      <c r="F13" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="137" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="130" t="s">
+      <c r="J13" s="129" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="126" t="s">
@@ -5058,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(2560+A14)</f>
         <v>A0C</v>
       </c>
       <c r="C14" s="120" t="str">
@@ -5077,16 +5074,16 @@
       <c r="G14" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="138" t="s">
+      <c r="H14" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="J14" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="138" t="s">
+      <c r="K14" s="137" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="6">
@@ -5106,7 +5103,7 @@
         <f t="shared" si="1"/>
         <v>104-111</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="137" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="126" t="s">
@@ -5124,7 +5121,7 @@
       <c r="I15" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="138" t="s">
+      <c r="J15" s="137" t="s">
         <v>92</v>
       </c>
       <c r="K15" s="126" t="s">
@@ -5168,7 +5165,7 @@
       <c r="J16" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="138" t="s">
+      <c r="K16" s="137" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="6">
@@ -5188,10 +5185,10 @@
         <f t="shared" si="1"/>
         <v>120-127</v>
       </c>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="187" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="137" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="126" t="s">
@@ -5200,16 +5197,16 @@
       <c r="G17" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="137" t="s">
         <v>106</v>
       </c>
       <c r="I17" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="188" t="s">
+      <c r="J17" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="129" t="s">
+      <c r="K17" s="128" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="56">
@@ -5231,13 +5228,13 @@
         <f t="shared" si="1"/>
         <v>128-135</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="130" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="188" t="s">
+      <c r="F18" s="187" t="s">
         <v>111</v>
       </c>
       <c r="G18" s="126" t="s">
@@ -5249,10 +5246,10 @@
       <c r="I18" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="138" t="s">
+      <c r="J18" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="137" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="6">
@@ -5272,10 +5269,10 @@
         <f t="shared" si="1"/>
         <v>136-143</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="138" t="s">
+      <c r="E19" s="137" t="s">
         <v>117</v>
       </c>
       <c r="F19" s="126" t="s">
@@ -5284,16 +5281,16 @@
       <c r="G19" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="135" t="s">
+      <c r="I19" s="134" t="s">
         <v>121</v>
       </c>
       <c r="J19" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="131" t="s">
+      <c r="K19" s="130" t="s">
         <v>123</v>
       </c>
       <c r="M19" s="6">
@@ -5313,13 +5310,13 @@
         <f t="shared" si="1"/>
         <v>144-151</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="188" t="s">
+      <c r="F20" s="187" t="s">
         <v>126</v>
       </c>
       <c r="G20" s="126" t="s">
@@ -5328,7 +5325,7 @@
       <c r="H20" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="188" t="s">
+      <c r="I20" s="187" t="s">
         <v>129</v>
       </c>
       <c r="J20" s="126" t="s">
@@ -5363,19 +5360,19 @@
       <c r="F21" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="130" t="s">
+      <c r="G21" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="189" t="s">
+      <c r="I21" s="188" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="130" t="s">
+      <c r="J21" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="130" t="s">
+      <c r="K21" s="129" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="6">
@@ -5395,10 +5392,10 @@
         <f t="shared" si="1"/>
         <v>160-167</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="130" t="s">
         <v>140</v>
       </c>
       <c r="F22" s="126" t="s">
@@ -5407,16 +5404,16 @@
       <c r="G22" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="130" t="s">
+      <c r="I22" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="131" t="s">
+      <c r="J22" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="131" t="s">
+      <c r="K22" s="130" t="s">
         <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
@@ -5448,16 +5445,16 @@
       <c r="G23" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="131" t="s">
+      <c r="H23" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="131" t="s">
+      <c r="I23" s="130" t="s">
         <v>153</v>
       </c>
       <c r="J23" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="131" t="s">
+      <c r="K23" s="130" t="s">
         <v>155</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -5483,7 +5480,7 @@
       <c r="E24" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="128" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="126" t="s">
@@ -5504,13 +5501,13 @@
       <c r="M24" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="P24" s="191" t="s">
+      <c r="P24" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="225"/>
+      <c r="S24" s="225"/>
+      <c r="T24" s="225"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="12">
@@ -5525,28 +5522,28 @@
         <f t="shared" si="1"/>
         <v>184-191</v>
       </c>
-      <c r="D25" s="131" t="s">
+      <c r="D25" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="188" t="s">
+      <c r="E25" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="187" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="130" t="s">
+      <c r="G25" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="129" t="s">
+      <c r="H25" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="188" t="s">
+      <c r="I25" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="131" t="s">
+      <c r="J25" s="130" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="130" t="s">
+      <c r="K25" s="129" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -5566,28 +5563,28 @@
         <f t="shared" si="1"/>
         <v>192-199</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="130" t="s">
+      <c r="E26" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="130" t="s">
+      <c r="F26" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="130" t="s">
+      <c r="G26" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="130" t="s">
+      <c r="H26" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="130" t="s">
+      <c r="I26" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="131" t="s">
+      <c r="J26" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="131" t="s">
+      <c r="K26" s="130" t="s">
         <v>181</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -5607,28 +5604,28 @@
         <f t="shared" si="1"/>
         <v>200-207</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="138" t="s">
+      <c r="E27" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F27" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="130" t="s">
+      <c r="G27" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="130" t="s">
+      <c r="H27" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="129" t="s">
+      <c r="I27" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="130" t="s">
+      <c r="J27" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="129" t="s">
+      <c r="K27" s="128" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -5648,25 +5645,25 @@
         <f t="shared" si="1"/>
         <v>208-215</v>
       </c>
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="129" t="s">
         <v>189</v>
       </c>
       <c r="E28" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="129" t="s">
+      <c r="G28" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="129" t="s">
+      <c r="H28" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="129" t="s">
+      <c r="I28" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="131" t="s">
+      <c r="J28" s="130" t="s">
         <v>195</v>
       </c>
       <c r="K28" s="126" t="s">
@@ -5698,19 +5695,19 @@
       <c r="F29" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="130" t="s">
+      <c r="G29" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="129" t="s">
+      <c r="H29" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="130" t="s">
+      <c r="I29" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="130" t="s">
+      <c r="J29" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="130" t="s">
+      <c r="K29" s="129" t="s">
         <v>204</v>
       </c>
       <c r="M29" s="81" t="s">
@@ -5730,13 +5727,13 @@
         <f t="shared" si="1"/>
         <v>224-231</v>
       </c>
-      <c r="D30" s="130" t="s">
+      <c r="D30" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="130" t="s">
+      <c r="E30" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="190" t="s">
+      <c r="F30" s="189" t="s">
         <v>208</v>
       </c>
       <c r="G30" s="126" t="s">
@@ -5745,13 +5742,13 @@
       <c r="H30" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="130" t="s">
+      <c r="I30" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="130" t="s">
+      <c r="J30" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="130" t="s">
+      <c r="K30" s="129" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -5771,28 +5768,28 @@
         <f t="shared" si="1"/>
         <v>232-239</v>
       </c>
-      <c r="D31" s="138" t="s">
+      <c r="D31" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="132" t="s">
+      <c r="E31" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="132" t="s">
+      <c r="F31" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="132" t="s">
+      <c r="G31" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="H31" s="132" t="s">
+      <c r="H31" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="132" t="s">
+      <c r="I31" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="132" t="s">
+      <c r="J31" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="131" t="s">
+      <c r="K31" s="130" t="s">
         <v>221</v>
       </c>
       <c r="M31" s="6" t="s">
@@ -5815,25 +5812,25 @@
       <c r="D32" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="129" t="s">
+      <c r="E32" s="128" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="129" t="s">
+      <c r="G32" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="131" t="s">
+      <c r="I32" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="130" t="s">
+      <c r="J32" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="130" t="s">
+      <c r="K32" s="129" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="81" t="s">
@@ -5853,26 +5850,26 @@
         <f t="shared" si="1"/>
         <v>248-255</v>
       </c>
-      <c r="D33" s="129"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="136" t="s">
+      <c r="F33" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="136" t="s">
+      <c r="G33" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="I33" s="136" t="s">
+      <c r="I33" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="136" t="s">
+      <c r="J33" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="136" t="s">
+      <c r="K33" s="135" t="s">
         <v>237</v>
       </c>
       <c r="M33" s="56" t="s">
@@ -5976,7 +5973,7 @@
       <c r="H36" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="138" t="s">
+      <c r="I36" s="137" t="s">
         <v>257</v>
       </c>
       <c r="J36" s="91"/>
@@ -6149,16 +6146,16 @@
         <v>285</v>
       </c>
       <c r="G41" s="92"/>
-      <c r="H41" s="130" t="s">
+      <c r="H41" s="129" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="130" t="s">
+      <c r="I41" s="129" t="s">
         <v>287</v>
       </c>
       <c r="J41" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="138" t="s">
+      <c r="K41" s="137" t="s">
         <v>289</v>
       </c>
       <c r="M41" s="6">
@@ -6277,7 +6274,7 @@
         <v>A2B</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="138" t="s">
+      <c r="D45" s="137" t="s">
         <v>308</v>
       </c>
       <c r="E45" s="91"/>
@@ -6285,7 +6282,7 @@
       <c r="G45" s="92"/>
       <c r="H45" s="93"/>
       <c r="I45" s="91"/>
-      <c r="J45" s="138" t="s">
+      <c r="J45" s="137" t="s">
         <v>309</v>
       </c>
       <c r="K45" s="92"/>
@@ -6303,7 +6300,7 @@
         <v>A2C</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="138" t="s">
+      <c r="D46" s="137" t="s">
         <v>310</v>
       </c>
       <c r="E46" s="12"/>
@@ -7651,16 +7648,16 @@
         <v>A58</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="194" t="s">
+      <c r="D90" s="228" t="s">
         <v>710</v>
       </c>
-      <c r="E90" s="195"/>
-      <c r="F90" s="195"/>
-      <c r="G90" s="195"/>
-      <c r="H90" s="195"/>
-      <c r="I90" s="195"/>
-      <c r="J90" s="195"/>
-      <c r="K90" s="196"/>
+      <c r="E90" s="229"/>
+      <c r="F90" s="229"/>
+      <c r="G90" s="229"/>
+      <c r="H90" s="229"/>
+      <c r="I90" s="229"/>
+      <c r="J90" s="229"/>
+      <c r="K90" s="230"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="12">
@@ -7672,16 +7669,16 @@
         <v>A59</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="194" t="s">
+      <c r="D91" s="228" t="s">
         <v>711</v>
       </c>
-      <c r="E91" s="195"/>
-      <c r="F91" s="195"/>
-      <c r="G91" s="195"/>
-      <c r="H91" s="195"/>
-      <c r="I91" s="195"/>
-      <c r="J91" s="195"/>
-      <c r="K91" s="196"/>
+      <c r="E91" s="229"/>
+      <c r="F91" s="229"/>
+      <c r="G91" s="229"/>
+      <c r="H91" s="229"/>
+      <c r="I91" s="229"/>
+      <c r="J91" s="229"/>
+      <c r="K91" s="230"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="12">
@@ -7693,16 +7690,16 @@
         <v>A5A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="194" t="s">
+      <c r="D92" s="228" t="s">
         <v>712</v>
       </c>
-      <c r="E92" s="195"/>
-      <c r="F92" s="195"/>
-      <c r="G92" s="195"/>
-      <c r="H92" s="195"/>
-      <c r="I92" s="195"/>
-      <c r="J92" s="195"/>
-      <c r="K92" s="196"/>
+      <c r="E92" s="229"/>
+      <c r="F92" s="229"/>
+      <c r="G92" s="229"/>
+      <c r="H92" s="229"/>
+      <c r="I92" s="229"/>
+      <c r="J92" s="229"/>
+      <c r="K92" s="230"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="12">
@@ -7714,16 +7711,16 @@
         <v>A5B</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="194" t="s">
+      <c r="D93" s="228" t="s">
         <v>713</v>
       </c>
-      <c r="E93" s="195"/>
-      <c r="F93" s="195"/>
-      <c r="G93" s="195"/>
-      <c r="H93" s="195"/>
-      <c r="I93" s="195"/>
-      <c r="J93" s="195"/>
-      <c r="K93" s="196"/>
+      <c r="E93" s="229"/>
+      <c r="F93" s="229"/>
+      <c r="G93" s="229"/>
+      <c r="H93" s="229"/>
+      <c r="I93" s="229"/>
+      <c r="J93" s="229"/>
+      <c r="K93" s="230"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="12">
@@ -7735,16 +7732,16 @@
         <v>A5C</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="194" t="s">
+      <c r="D94" s="228" t="s">
         <v>714</v>
       </c>
-      <c r="E94" s="195"/>
-      <c r="F94" s="195"/>
-      <c r="G94" s="195"/>
-      <c r="H94" s="195"/>
-      <c r="I94" s="195"/>
-      <c r="J94" s="195"/>
-      <c r="K94" s="196"/>
+      <c r="E94" s="229"/>
+      <c r="F94" s="229"/>
+      <c r="G94" s="229"/>
+      <c r="H94" s="229"/>
+      <c r="I94" s="229"/>
+      <c r="J94" s="229"/>
+      <c r="K94" s="230"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="12">
@@ -7756,16 +7753,16 @@
         <v>A5D</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="194" t="s">
+      <c r="D95" s="228" t="s">
         <v>715</v>
       </c>
-      <c r="E95" s="195"/>
-      <c r="F95" s="195"/>
-      <c r="G95" s="195"/>
-      <c r="H95" s="195"/>
-      <c r="I95" s="195"/>
-      <c r="J95" s="195"/>
-      <c r="K95" s="196"/>
+      <c r="E95" s="229"/>
+      <c r="F95" s="229"/>
+      <c r="G95" s="229"/>
+      <c r="H95" s="229"/>
+      <c r="I95" s="229"/>
+      <c r="J95" s="229"/>
+      <c r="K95" s="230"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="12">
@@ -7777,16 +7774,16 @@
         <v>A5E</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="194" t="s">
+      <c r="D96" s="228" t="s">
         <v>721</v>
       </c>
-      <c r="E96" s="195"/>
-      <c r="F96" s="195"/>
-      <c r="G96" s="195"/>
-      <c r="H96" s="195"/>
-      <c r="I96" s="195"/>
-      <c r="J96" s="195"/>
-      <c r="K96" s="196"/>
+      <c r="E96" s="229"/>
+      <c r="F96" s="229"/>
+      <c r="G96" s="229"/>
+      <c r="H96" s="229"/>
+      <c r="I96" s="229"/>
+      <c r="J96" s="229"/>
+      <c r="K96" s="230"/>
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1">
       <c r="A97" s="31">
@@ -7800,22 +7797,22 @@
       <c r="C97" s="32"/>
       <c r="D97" s="49"/>
       <c r="E97" s="31"/>
-      <c r="F97" s="134" t="s">
+      <c r="F97" s="133" t="s">
         <v>717</v>
       </c>
-      <c r="G97" s="134" t="s">
+      <c r="G97" s="133" t="s">
         <v>718</v>
       </c>
-      <c r="H97" s="134" t="s">
+      <c r="H97" s="133" t="s">
         <v>719</v>
       </c>
-      <c r="I97" s="134" t="s">
+      <c r="I97" s="133" t="s">
         <v>719</v>
       </c>
-      <c r="J97" s="134" t="s">
+      <c r="J97" s="133" t="s">
         <v>720</v>
       </c>
-      <c r="K97" s="134" t="s">
+      <c r="K97" s="133" t="s">
         <v>716</v>
       </c>
       <c r="M97" s="56"/>
@@ -10725,16 +10722,16 @@
         <v>AA6</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="192" t="s">
+      <c r="D168" s="226" t="s">
         <v>348</v>
       </c>
-      <c r="E168" s="192"/>
-      <c r="F168" s="192"/>
-      <c r="G168" s="192"/>
-      <c r="H168" s="192"/>
-      <c r="I168" s="192"/>
-      <c r="J168" s="192"/>
-      <c r="K168" s="192"/>
+      <c r="E168" s="226"/>
+      <c r="F168" s="226"/>
+      <c r="G168" s="226"/>
+      <c r="H168" s="226"/>
+      <c r="I168" s="226"/>
+      <c r="J168" s="226"/>
+      <c r="K168" s="226"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="12">
@@ -10860,16 +10857,16 @@
         <v>AAD</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="192" t="s">
+      <c r="D175" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="E175" s="192"/>
-      <c r="F175" s="192"/>
-      <c r="G175" s="192"/>
-      <c r="H175" s="192"/>
-      <c r="I175" s="192"/>
-      <c r="J175" s="192"/>
-      <c r="K175" s="192"/>
+      <c r="E175" s="226"/>
+      <c r="F175" s="226"/>
+      <c r="G175" s="226"/>
+      <c r="H175" s="226"/>
+      <c r="I175" s="226"/>
+      <c r="J175" s="226"/>
+      <c r="K175" s="226"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="12">
@@ -10922,16 +10919,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="193" t="s">
+      <c r="D178" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="192"/>
-      <c r="F178" s="192"/>
-      <c r="G178" s="192"/>
-      <c r="H178" s="192"/>
-      <c r="I178" s="192"/>
-      <c r="J178" s="192"/>
-      <c r="K178" s="192"/>
+      <c r="E178" s="226"/>
+      <c r="F178" s="226"/>
+      <c r="G178" s="226"/>
+      <c r="H178" s="226"/>
+      <c r="I178" s="226"/>
+      <c r="J178" s="226"/>
+      <c r="K178" s="226"/>
       <c r="L178" t="s">
         <v>424</v>
       </c>
@@ -11003,16 +11000,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="197" t="s">
+      <c r="D182" s="198" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="198"/>
-      <c r="F182" s="198"/>
-      <c r="G182" s="198"/>
-      <c r="H182" s="198"/>
-      <c r="I182" s="198"/>
-      <c r="J182" s="198"/>
-      <c r="K182" s="199"/>
+      <c r="E182" s="199"/>
+      <c r="F182" s="199"/>
+      <c r="G182" s="199"/>
+      <c r="H182" s="199"/>
+      <c r="I182" s="199"/>
+      <c r="J182" s="199"/>
+      <c r="K182" s="200"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="12">
@@ -11024,16 +11021,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="197" t="s">
+      <c r="D183" s="198" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="198"/>
-      <c r="F183" s="198"/>
-      <c r="G183" s="198"/>
-      <c r="H183" s="198"/>
-      <c r="I183" s="198"/>
-      <c r="J183" s="198"/>
-      <c r="K183" s="199"/>
+      <c r="E183" s="199"/>
+      <c r="F183" s="199"/>
+      <c r="G183" s="199"/>
+      <c r="H183" s="199"/>
+      <c r="I183" s="199"/>
+      <c r="J183" s="199"/>
+      <c r="K183" s="200"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="12">
@@ -11045,16 +11042,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="197" t="s">
+      <c r="D184" s="198" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="198"/>
-      <c r="F184" s="198"/>
-      <c r="G184" s="198"/>
-      <c r="H184" s="198"/>
-      <c r="I184" s="198"/>
-      <c r="J184" s="198"/>
-      <c r="K184" s="199"/>
+      <c r="E184" s="199"/>
+      <c r="F184" s="199"/>
+      <c r="G184" s="199"/>
+      <c r="H184" s="199"/>
+      <c r="I184" s="199"/>
+      <c r="J184" s="199"/>
+      <c r="K184" s="200"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="12">
@@ -11066,16 +11063,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="197" t="s">
+      <c r="D185" s="198" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="198"/>
-      <c r="F185" s="198"/>
-      <c r="G185" s="198"/>
-      <c r="H185" s="198"/>
-      <c r="I185" s="198"/>
-      <c r="J185" s="198"/>
-      <c r="K185" s="199"/>
+      <c r="E185" s="199"/>
+      <c r="F185" s="199"/>
+      <c r="G185" s="199"/>
+      <c r="H185" s="199"/>
+      <c r="I185" s="199"/>
+      <c r="J185" s="199"/>
+      <c r="K185" s="200"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="12">
@@ -11087,16 +11084,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="197" t="s">
+      <c r="D186" s="198" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="198"/>
-      <c r="F186" s="198"/>
-      <c r="G186" s="198"/>
-      <c r="H186" s="198"/>
-      <c r="I186" s="198"/>
-      <c r="J186" s="198"/>
-      <c r="K186" s="199"/>
+      <c r="E186" s="199"/>
+      <c r="F186" s="199"/>
+      <c r="G186" s="199"/>
+      <c r="H186" s="199"/>
+      <c r="I186" s="199"/>
+      <c r="J186" s="199"/>
+      <c r="K186" s="200"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="12">
@@ -11108,16 +11105,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="197" t="s">
+      <c r="D187" s="198" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="198"/>
-      <c r="F187" s="198"/>
-      <c r="G187" s="198"/>
-      <c r="H187" s="198"/>
-      <c r="I187" s="198"/>
-      <c r="J187" s="198"/>
-      <c r="K187" s="199"/>
+      <c r="E187" s="199"/>
+      <c r="F187" s="199"/>
+      <c r="G187" s="199"/>
+      <c r="H187" s="199"/>
+      <c r="I187" s="199"/>
+      <c r="J187" s="199"/>
+      <c r="K187" s="200"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="12">
@@ -11129,16 +11126,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="197" t="s">
+      <c r="D188" s="198" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="198"/>
-      <c r="F188" s="198"/>
-      <c r="G188" s="198"/>
-      <c r="H188" s="198"/>
-      <c r="I188" s="198"/>
-      <c r="J188" s="198"/>
-      <c r="K188" s="199"/>
+      <c r="E188" s="199"/>
+      <c r="F188" s="199"/>
+      <c r="G188" s="199"/>
+      <c r="H188" s="199"/>
+      <c r="I188" s="199"/>
+      <c r="J188" s="199"/>
+      <c r="K188" s="200"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="12">
@@ -11150,16 +11147,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="197" t="s">
+      <c r="D189" s="198" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="198"/>
-      <c r="F189" s="198"/>
-      <c r="G189" s="198"/>
-      <c r="H189" s="198"/>
-      <c r="I189" s="198"/>
-      <c r="J189" s="198"/>
-      <c r="K189" s="199"/>
+      <c r="E189" s="199"/>
+      <c r="F189" s="199"/>
+      <c r="G189" s="199"/>
+      <c r="H189" s="199"/>
+      <c r="I189" s="199"/>
+      <c r="J189" s="199"/>
+      <c r="K189" s="200"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="12">
@@ -11171,16 +11168,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="197" t="s">
+      <c r="D190" s="198" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="198"/>
-      <c r="F190" s="198"/>
-      <c r="G190" s="198"/>
-      <c r="H190" s="198"/>
-      <c r="I190" s="198"/>
-      <c r="J190" s="198"/>
-      <c r="K190" s="199"/>
+      <c r="E190" s="199"/>
+      <c r="F190" s="199"/>
+      <c r="G190" s="199"/>
+      <c r="H190" s="199"/>
+      <c r="I190" s="199"/>
+      <c r="J190" s="199"/>
+      <c r="K190" s="200"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="12">
@@ -11192,16 +11189,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="197" t="s">
+      <c r="D191" s="198" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="198"/>
-      <c r="F191" s="198"/>
-      <c r="G191" s="198"/>
-      <c r="H191" s="198"/>
-      <c r="I191" s="198"/>
-      <c r="J191" s="198"/>
-      <c r="K191" s="199"/>
+      <c r="E191" s="199"/>
+      <c r="F191" s="199"/>
+      <c r="G191" s="199"/>
+      <c r="H191" s="199"/>
+      <c r="I191" s="199"/>
+      <c r="J191" s="199"/>
+      <c r="K191" s="200"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="12">
@@ -11213,16 +11210,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="197" t="s">
+      <c r="D192" s="198" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="198"/>
-      <c r="F192" s="198"/>
-      <c r="G192" s="198"/>
-      <c r="H192" s="198"/>
-      <c r="I192" s="198"/>
-      <c r="J192" s="198"/>
-      <c r="K192" s="199"/>
+      <c r="E192" s="199"/>
+      <c r="F192" s="199"/>
+      <c r="G192" s="199"/>
+      <c r="H192" s="199"/>
+      <c r="I192" s="199"/>
+      <c r="J192" s="199"/>
+      <c r="K192" s="200"/>
     </row>
     <row r="193" spans="1:15" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -11234,16 +11231,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="200" t="s">
+      <c r="D193" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="201"/>
-      <c r="F193" s="201"/>
-      <c r="G193" s="201"/>
-      <c r="H193" s="201"/>
-      <c r="I193" s="201"/>
-      <c r="J193" s="201"/>
-      <c r="K193" s="202"/>
+      <c r="E193" s="223"/>
+      <c r="F193" s="223"/>
+      <c r="G193" s="223"/>
+      <c r="H193" s="223"/>
+      <c r="I193" s="223"/>
+      <c r="J193" s="223"/>
+      <c r="K193" s="224"/>
       <c r="M193" s="56"/>
       <c r="N193" s="57"/>
       <c r="O193" s="57"/>
@@ -11258,16 +11255,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="203" t="s">
+      <c r="D194" s="208" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="204"/>
-      <c r="F194" s="204"/>
-      <c r="G194" s="204"/>
-      <c r="H194" s="204"/>
-      <c r="I194" s="204"/>
-      <c r="J194" s="204"/>
-      <c r="K194" s="205"/>
+      <c r="E194" s="196"/>
+      <c r="F194" s="196"/>
+      <c r="G194" s="196"/>
+      <c r="H194" s="196"/>
+      <c r="I194" s="196"/>
+      <c r="J194" s="196"/>
+      <c r="K194" s="209"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="12">
@@ -11279,16 +11276,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="197" t="s">
+      <c r="D195" s="198" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="198"/>
-      <c r="F195" s="198"/>
-      <c r="G195" s="198"/>
-      <c r="H195" s="198"/>
-      <c r="I195" s="198"/>
-      <c r="J195" s="198"/>
-      <c r="K195" s="199"/>
+      <c r="E195" s="199"/>
+      <c r="F195" s="199"/>
+      <c r="G195" s="199"/>
+      <c r="H195" s="199"/>
+      <c r="I195" s="199"/>
+      <c r="J195" s="199"/>
+      <c r="K195" s="200"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="12">
@@ -11300,16 +11297,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="197" t="s">
+      <c r="D196" s="198" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="198"/>
-      <c r="F196" s="198"/>
-      <c r="G196" s="198"/>
-      <c r="H196" s="198"/>
-      <c r="I196" s="198"/>
-      <c r="J196" s="198"/>
-      <c r="K196" s="199"/>
+      <c r="E196" s="199"/>
+      <c r="F196" s="199"/>
+      <c r="G196" s="199"/>
+      <c r="H196" s="199"/>
+      <c r="I196" s="199"/>
+      <c r="J196" s="199"/>
+      <c r="K196" s="200"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="12">
@@ -11321,16 +11318,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="197" t="s">
+      <c r="D197" s="198" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="198"/>
-      <c r="F197" s="198"/>
-      <c r="G197" s="198"/>
-      <c r="H197" s="198"/>
-      <c r="I197" s="198"/>
-      <c r="J197" s="198"/>
-      <c r="K197" s="199"/>
+      <c r="E197" s="199"/>
+      <c r="F197" s="199"/>
+      <c r="G197" s="199"/>
+      <c r="H197" s="199"/>
+      <c r="I197" s="199"/>
+      <c r="J197" s="199"/>
+      <c r="K197" s="200"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="12">
@@ -11342,16 +11339,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="197" t="s">
+      <c r="D198" s="198" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="198"/>
-      <c r="F198" s="198"/>
-      <c r="G198" s="198"/>
-      <c r="H198" s="198"/>
-      <c r="I198" s="198"/>
-      <c r="J198" s="198"/>
-      <c r="K198" s="199"/>
+      <c r="E198" s="199"/>
+      <c r="F198" s="199"/>
+      <c r="G198" s="199"/>
+      <c r="H198" s="199"/>
+      <c r="I198" s="199"/>
+      <c r="J198" s="199"/>
+      <c r="K198" s="200"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="12">
@@ -11382,16 +11379,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="197" t="s">
+      <c r="D200" s="198" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="198"/>
-      <c r="F200" s="198"/>
-      <c r="G200" s="198"/>
-      <c r="H200" s="198"/>
-      <c r="I200" s="198"/>
-      <c r="J200" s="198"/>
-      <c r="K200" s="199"/>
+      <c r="E200" s="199"/>
+      <c r="F200" s="199"/>
+      <c r="G200" s="199"/>
+      <c r="H200" s="199"/>
+      <c r="I200" s="199"/>
+      <c r="J200" s="199"/>
+      <c r="K200" s="200"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="12">
@@ -11422,16 +11419,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="227" t="s">
+      <c r="D202" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="228"/>
-      <c r="F202" s="228"/>
-      <c r="G202" s="228"/>
-      <c r="H202" s="228"/>
-      <c r="I202" s="228"/>
-      <c r="J202" s="228"/>
-      <c r="K202" s="229"/>
+      <c r="E202" s="217"/>
+      <c r="F202" s="217"/>
+      <c r="G202" s="217"/>
+      <c r="H202" s="217"/>
+      <c r="I202" s="217"/>
+      <c r="J202" s="217"/>
+      <c r="K202" s="218"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="12">
@@ -11462,16 +11459,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="197" t="s">
+      <c r="D204" s="198" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="198"/>
-      <c r="F204" s="198"/>
-      <c r="G204" s="198"/>
-      <c r="H204" s="198"/>
-      <c r="I204" s="198"/>
-      <c r="J204" s="198"/>
-      <c r="K204" s="199"/>
+      <c r="E204" s="199"/>
+      <c r="F204" s="199"/>
+      <c r="G204" s="199"/>
+      <c r="H204" s="199"/>
+      <c r="I204" s="199"/>
+      <c r="J204" s="199"/>
+      <c r="K204" s="200"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="12">
@@ -11502,16 +11499,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="197" t="s">
+      <c r="D206" s="198" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="198"/>
-      <c r="F206" s="198"/>
-      <c r="G206" s="198"/>
-      <c r="H206" s="198"/>
-      <c r="I206" s="198"/>
-      <c r="J206" s="198"/>
-      <c r="K206" s="199"/>
+      <c r="E206" s="199"/>
+      <c r="F206" s="199"/>
+      <c r="G206" s="199"/>
+      <c r="H206" s="199"/>
+      <c r="I206" s="199"/>
+      <c r="J206" s="199"/>
+      <c r="K206" s="200"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="12">
@@ -11542,16 +11539,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="197" t="s">
+      <c r="D208" s="198" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="198"/>
-      <c r="F208" s="198"/>
-      <c r="G208" s="198"/>
-      <c r="H208" s="198"/>
-      <c r="I208" s="198"/>
-      <c r="J208" s="198"/>
-      <c r="K208" s="199"/>
+      <c r="E208" s="199"/>
+      <c r="F208" s="199"/>
+      <c r="G208" s="199"/>
+      <c r="H208" s="199"/>
+      <c r="I208" s="199"/>
+      <c r="J208" s="199"/>
+      <c r="K208" s="200"/>
     </row>
     <row r="209" spans="1:15" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -11585,16 +11582,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="203" t="s">
+      <c r="D210" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="204"/>
-      <c r="F210" s="204"/>
-      <c r="G210" s="204"/>
-      <c r="H210" s="204"/>
-      <c r="I210" s="204"/>
-      <c r="J210" s="204"/>
-      <c r="K210" s="205"/>
+      <c r="E210" s="196"/>
+      <c r="F210" s="196"/>
+      <c r="G210" s="196"/>
+      <c r="H210" s="196"/>
+      <c r="I210" s="196"/>
+      <c r="J210" s="196"/>
+      <c r="K210" s="209"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="12">
@@ -11663,16 +11660,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="197" t="s">
+      <c r="D214" s="198" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="198"/>
-      <c r="F214" s="198"/>
-      <c r="G214" s="198"/>
-      <c r="H214" s="198"/>
-      <c r="I214" s="198"/>
-      <c r="J214" s="198"/>
-      <c r="K214" s="199"/>
+      <c r="E214" s="199"/>
+      <c r="F214" s="199"/>
+      <c r="G214" s="199"/>
+      <c r="H214" s="199"/>
+      <c r="I214" s="199"/>
+      <c r="J214" s="199"/>
+      <c r="K214" s="200"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="12">
@@ -11703,16 +11700,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="218" t="s">
+      <c r="D216" s="206" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="210"/>
-      <c r="F216" s="210"/>
-      <c r="G216" s="210"/>
-      <c r="H216" s="210"/>
-      <c r="I216" s="210"/>
-      <c r="J216" s="210"/>
-      <c r="K216" s="219"/>
+      <c r="E216" s="193"/>
+      <c r="F216" s="193"/>
+      <c r="G216" s="193"/>
+      <c r="H216" s="193"/>
+      <c r="I216" s="193"/>
+      <c r="J216" s="193"/>
+      <c r="K216" s="207"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="12">
@@ -11724,14 +11721,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="203"/>
-      <c r="E217" s="204"/>
-      <c r="F217" s="204"/>
-      <c r="G217" s="204"/>
-      <c r="H217" s="204"/>
-      <c r="I217" s="204"/>
-      <c r="J217" s="204"/>
-      <c r="K217" s="205"/>
+      <c r="D217" s="208"/>
+      <c r="E217" s="196"/>
+      <c r="F217" s="196"/>
+      <c r="G217" s="196"/>
+      <c r="H217" s="196"/>
+      <c r="I217" s="196"/>
+      <c r="J217" s="196"/>
+      <c r="K217" s="209"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="12">
@@ -11743,16 +11740,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="218" t="s">
+      <c r="D218" s="206" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="210"/>
-      <c r="F218" s="210"/>
-      <c r="G218" s="210"/>
-      <c r="H218" s="210"/>
-      <c r="I218" s="210"/>
-      <c r="J218" s="210"/>
-      <c r="K218" s="219"/>
+      <c r="E218" s="193"/>
+      <c r="F218" s="193"/>
+      <c r="G218" s="193"/>
+      <c r="H218" s="193"/>
+      <c r="I218" s="193"/>
+      <c r="J218" s="193"/>
+      <c r="K218" s="207"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="12">
@@ -11764,14 +11761,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="203"/>
-      <c r="E219" s="204"/>
-      <c r="F219" s="204"/>
-      <c r="G219" s="204"/>
-      <c r="H219" s="204"/>
-      <c r="I219" s="204"/>
-      <c r="J219" s="204"/>
-      <c r="K219" s="205"/>
+      <c r="D219" s="208"/>
+      <c r="E219" s="196"/>
+      <c r="F219" s="196"/>
+      <c r="G219" s="196"/>
+      <c r="H219" s="196"/>
+      <c r="I219" s="196"/>
+      <c r="J219" s="196"/>
+      <c r="K219" s="209"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="12">
@@ -11783,16 +11780,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="218" t="s">
+      <c r="D220" s="206" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="210"/>
-      <c r="F220" s="210"/>
-      <c r="G220" s="210"/>
-      <c r="H220" s="210"/>
-      <c r="I220" s="210"/>
-      <c r="J220" s="210"/>
-      <c r="K220" s="219"/>
+      <c r="E220" s="193"/>
+      <c r="F220" s="193"/>
+      <c r="G220" s="193"/>
+      <c r="H220" s="193"/>
+      <c r="I220" s="193"/>
+      <c r="J220" s="193"/>
+      <c r="K220" s="207"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="12">
@@ -11804,14 +11801,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="203"/>
-      <c r="E221" s="204"/>
-      <c r="F221" s="204"/>
-      <c r="G221" s="204"/>
-      <c r="H221" s="204"/>
-      <c r="I221" s="204"/>
-      <c r="J221" s="204"/>
-      <c r="K221" s="205"/>
+      <c r="D221" s="208"/>
+      <c r="E221" s="196"/>
+      <c r="F221" s="196"/>
+      <c r="G221" s="196"/>
+      <c r="H221" s="196"/>
+      <c r="I221" s="196"/>
+      <c r="J221" s="196"/>
+      <c r="K221" s="209"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="12">
@@ -11823,16 +11820,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="197" t="s">
+      <c r="D222" s="198" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="198"/>
-      <c r="F222" s="198"/>
-      <c r="G222" s="198"/>
-      <c r="H222" s="198"/>
-      <c r="I222" s="198"/>
-      <c r="J222" s="198"/>
-      <c r="K222" s="199"/>
+      <c r="E222" s="199"/>
+      <c r="F222" s="199"/>
+      <c r="G222" s="199"/>
+      <c r="H222" s="199"/>
+      <c r="I222" s="199"/>
+      <c r="J222" s="199"/>
+      <c r="K222" s="200"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="12">
@@ -11863,16 +11860,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="197" t="s">
+      <c r="D224" s="198" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="198"/>
-      <c r="F224" s="198"/>
-      <c r="G224" s="198"/>
-      <c r="H224" s="198"/>
-      <c r="I224" s="198"/>
-      <c r="J224" s="198"/>
-      <c r="K224" s="199"/>
+      <c r="E224" s="199"/>
+      <c r="F224" s="199"/>
+      <c r="G224" s="199"/>
+      <c r="H224" s="199"/>
+      <c r="I224" s="199"/>
+      <c r="J224" s="199"/>
+      <c r="K224" s="200"/>
     </row>
     <row r="225" spans="1:15" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -11906,16 +11903,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="224" t="s">
+      <c r="D226" s="213" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="225"/>
-      <c r="F226" s="225"/>
-      <c r="G226" s="225"/>
-      <c r="H226" s="225"/>
-      <c r="I226" s="225"/>
-      <c r="J226" s="225"/>
-      <c r="K226" s="226"/>
+      <c r="E226" s="214"/>
+      <c r="F226" s="214"/>
+      <c r="G226" s="214"/>
+      <c r="H226" s="214"/>
+      <c r="I226" s="214"/>
+      <c r="J226" s="214"/>
+      <c r="K226" s="215"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="12">
@@ -12060,16 +12057,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="222" t="s">
+      <c r="D234" s="210" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="207"/>
-      <c r="F234" s="207"/>
-      <c r="G234" s="207"/>
-      <c r="H234" s="207"/>
-      <c r="I234" s="207"/>
-      <c r="J234" s="207"/>
-      <c r="K234" s="223"/>
+      <c r="E234" s="211"/>
+      <c r="F234" s="211"/>
+      <c r="G234" s="211"/>
+      <c r="H234" s="211"/>
+      <c r="I234" s="211"/>
+      <c r="J234" s="211"/>
+      <c r="K234" s="212"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="12">
@@ -12138,16 +12135,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="214" t="s">
+      <c r="D238" s="192" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="210"/>
-      <c r="F238" s="210"/>
-      <c r="G238" s="210"/>
-      <c r="H238" s="210"/>
-      <c r="I238" s="210"/>
-      <c r="J238" s="210"/>
-      <c r="K238" s="211"/>
+      <c r="E238" s="193"/>
+      <c r="F238" s="193"/>
+      <c r="G238" s="193"/>
+      <c r="H238" s="193"/>
+      <c r="I238" s="193"/>
+      <c r="J238" s="193"/>
+      <c r="K238" s="194"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="12">
@@ -12159,14 +12156,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="220"/>
-      <c r="E239" s="204"/>
-      <c r="F239" s="204"/>
-      <c r="G239" s="204"/>
-      <c r="H239" s="204"/>
-      <c r="I239" s="204"/>
-      <c r="J239" s="204"/>
-      <c r="K239" s="221"/>
+      <c r="D239" s="195"/>
+      <c r="E239" s="196"/>
+      <c r="F239" s="196"/>
+      <c r="G239" s="196"/>
+      <c r="H239" s="196"/>
+      <c r="I239" s="196"/>
+      <c r="J239" s="196"/>
+      <c r="K239" s="197"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="12">
@@ -12178,16 +12175,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="210" t="s">
+      <c r="D240" s="193" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="210"/>
-      <c r="F240" s="210"/>
-      <c r="G240" s="210"/>
-      <c r="H240" s="210"/>
-      <c r="I240" s="210"/>
-      <c r="J240" s="210"/>
-      <c r="K240" s="211"/>
+      <c r="E240" s="193"/>
+      <c r="F240" s="193"/>
+      <c r="G240" s="193"/>
+      <c r="H240" s="193"/>
+      <c r="I240" s="193"/>
+      <c r="J240" s="193"/>
+      <c r="K240" s="194"/>
     </row>
     <row r="241" spans="1:15" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -12199,14 +12196,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="212"/>
-      <c r="E241" s="212"/>
-      <c r="F241" s="212"/>
-      <c r="G241" s="212"/>
-      <c r="H241" s="212"/>
-      <c r="I241" s="212"/>
-      <c r="J241" s="212"/>
-      <c r="K241" s="213"/>
+      <c r="D241" s="201"/>
+      <c r="E241" s="201"/>
+      <c r="F241" s="201"/>
+      <c r="G241" s="201"/>
+      <c r="H241" s="201"/>
+      <c r="I241" s="201"/>
+      <c r="J241" s="201"/>
+      <c r="K241" s="202"/>
       <c r="M241" s="56"/>
       <c r="N241" s="57"/>
       <c r="O241" s="57"/>
@@ -12397,16 +12394,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="206" t="s">
+      <c r="D250" s="219" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="207"/>
-      <c r="F250" s="207"/>
-      <c r="G250" s="207"/>
-      <c r="H250" s="207"/>
-      <c r="I250" s="207"/>
-      <c r="J250" s="207"/>
-      <c r="K250" s="208"/>
+      <c r="E250" s="211"/>
+      <c r="F250" s="211"/>
+      <c r="G250" s="211"/>
+      <c r="H250" s="211"/>
+      <c r="I250" s="211"/>
+      <c r="J250" s="211"/>
+      <c r="K250" s="220"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="12">
@@ -12975,16 +12972,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="209" t="s">
+      <c r="D280" s="221" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="198"/>
-      <c r="F280" s="198"/>
-      <c r="G280" s="198"/>
-      <c r="H280" s="198"/>
-      <c r="I280" s="198"/>
-      <c r="J280" s="198"/>
-      <c r="K280" s="199"/>
+      <c r="E280" s="199"/>
+      <c r="F280" s="199"/>
+      <c r="G280" s="199"/>
+      <c r="H280" s="199"/>
+      <c r="I280" s="199"/>
+      <c r="J280" s="199"/>
+      <c r="K280" s="200"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="12">
@@ -13091,16 +13088,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="209" t="s">
+      <c r="D286" s="221" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="198"/>
-      <c r="F286" s="198"/>
-      <c r="G286" s="198"/>
-      <c r="H286" s="198"/>
-      <c r="I286" s="198"/>
-      <c r="J286" s="198"/>
-      <c r="K286" s="199"/>
+      <c r="E286" s="199"/>
+      <c r="F286" s="199"/>
+      <c r="G286" s="199"/>
+      <c r="H286" s="199"/>
+      <c r="I286" s="199"/>
+      <c r="J286" s="199"/>
+      <c r="K286" s="200"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="12">
@@ -13288,16 +13285,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="197" t="s">
+      <c r="D296" s="198" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="198"/>
-      <c r="F296" s="198"/>
-      <c r="G296" s="198"/>
-      <c r="H296" s="198"/>
-      <c r="I296" s="198"/>
-      <c r="J296" s="198"/>
-      <c r="K296" s="199"/>
+      <c r="E296" s="199"/>
+      <c r="F296" s="199"/>
+      <c r="G296" s="199"/>
+      <c r="H296" s="199"/>
+      <c r="I296" s="199"/>
+      <c r="J296" s="199"/>
+      <c r="K296" s="200"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="12">
@@ -13328,16 +13325,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="214" t="s">
+      <c r="D298" s="192" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="210"/>
-      <c r="F298" s="210"/>
-      <c r="G298" s="210"/>
-      <c r="H298" s="210"/>
-      <c r="I298" s="210"/>
-      <c r="J298" s="210"/>
-      <c r="K298" s="211"/>
+      <c r="E298" s="193"/>
+      <c r="F298" s="193"/>
+      <c r="G298" s="193"/>
+      <c r="H298" s="193"/>
+      <c r="I298" s="193"/>
+      <c r="J298" s="193"/>
+      <c r="K298" s="194"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="12">
@@ -13349,14 +13346,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="220"/>
-      <c r="E299" s="204"/>
-      <c r="F299" s="204"/>
-      <c r="G299" s="204"/>
-      <c r="H299" s="204"/>
-      <c r="I299" s="204"/>
-      <c r="J299" s="204"/>
-      <c r="K299" s="221"/>
+      <c r="D299" s="195"/>
+      <c r="E299" s="196"/>
+      <c r="F299" s="196"/>
+      <c r="G299" s="196"/>
+      <c r="H299" s="196"/>
+      <c r="I299" s="196"/>
+      <c r="J299" s="196"/>
+      <c r="K299" s="197"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="12">
@@ -13368,16 +13365,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="214" t="s">
+      <c r="D300" s="192" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="210"/>
-      <c r="F300" s="210"/>
-      <c r="G300" s="210"/>
-      <c r="H300" s="210"/>
-      <c r="I300" s="210"/>
-      <c r="J300" s="210"/>
-      <c r="K300" s="211"/>
+      <c r="E300" s="193"/>
+      <c r="F300" s="193"/>
+      <c r="G300" s="193"/>
+      <c r="H300" s="193"/>
+      <c r="I300" s="193"/>
+      <c r="J300" s="193"/>
+      <c r="K300" s="194"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="12">
@@ -13389,14 +13386,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="220"/>
-      <c r="E301" s="204"/>
-      <c r="F301" s="204"/>
-      <c r="G301" s="204"/>
-      <c r="H301" s="204"/>
-      <c r="I301" s="204"/>
-      <c r="J301" s="204"/>
-      <c r="K301" s="221"/>
+      <c r="D301" s="195"/>
+      <c r="E301" s="196"/>
+      <c r="F301" s="196"/>
+      <c r="G301" s="196"/>
+      <c r="H301" s="196"/>
+      <c r="I301" s="196"/>
+      <c r="J301" s="196"/>
+      <c r="K301" s="197"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="12">
@@ -13408,16 +13405,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="214" t="s">
+      <c r="D302" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="210"/>
-      <c r="F302" s="210"/>
-      <c r="G302" s="210"/>
-      <c r="H302" s="210"/>
-      <c r="I302" s="210"/>
-      <c r="J302" s="210"/>
-      <c r="K302" s="211"/>
+      <c r="E302" s="193"/>
+      <c r="F302" s="193"/>
+      <c r="G302" s="193"/>
+      <c r="H302" s="193"/>
+      <c r="I302" s="193"/>
+      <c r="J302" s="193"/>
+      <c r="K302" s="194"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="12">
@@ -13429,14 +13426,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="220"/>
-      <c r="E303" s="204"/>
-      <c r="F303" s="204"/>
-      <c r="G303" s="204"/>
-      <c r="H303" s="204"/>
-      <c r="I303" s="204"/>
-      <c r="J303" s="204"/>
-      <c r="K303" s="221"/>
+      <c r="D303" s="195"/>
+      <c r="E303" s="196"/>
+      <c r="F303" s="196"/>
+      <c r="G303" s="196"/>
+      <c r="H303" s="196"/>
+      <c r="I303" s="196"/>
+      <c r="J303" s="196"/>
+      <c r="K303" s="197"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="12">
@@ -13448,16 +13445,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="214" t="s">
+      <c r="D304" s="192" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="210"/>
-      <c r="F304" s="210"/>
-      <c r="G304" s="210"/>
-      <c r="H304" s="210"/>
-      <c r="I304" s="210"/>
-      <c r="J304" s="210"/>
-      <c r="K304" s="211"/>
+      <c r="E304" s="193"/>
+      <c r="F304" s="193"/>
+      <c r="G304" s="193"/>
+      <c r="H304" s="193"/>
+      <c r="I304" s="193"/>
+      <c r="J304" s="193"/>
+      <c r="K304" s="194"/>
     </row>
     <row r="305" spans="1:15" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -13469,14 +13466,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="220"/>
-      <c r="E305" s="204"/>
-      <c r="F305" s="204"/>
-      <c r="G305" s="204"/>
-      <c r="H305" s="204"/>
-      <c r="I305" s="204"/>
-      <c r="J305" s="204"/>
-      <c r="K305" s="221"/>
+      <c r="D305" s="195"/>
+      <c r="E305" s="196"/>
+      <c r="F305" s="196"/>
+      <c r="G305" s="196"/>
+      <c r="H305" s="196"/>
+      <c r="I305" s="196"/>
+      <c r="J305" s="196"/>
+      <c r="K305" s="197"/>
       <c r="M305" s="56"/>
       <c r="N305" s="57"/>
       <c r="O305" s="57"/>
@@ -13491,16 +13488,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="214" t="s">
+      <c r="D306" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="210"/>
-      <c r="F306" s="210"/>
-      <c r="G306" s="210"/>
-      <c r="H306" s="210"/>
-      <c r="I306" s="210"/>
-      <c r="J306" s="210"/>
-      <c r="K306" s="211"/>
+      <c r="E306" s="193"/>
+      <c r="F306" s="193"/>
+      <c r="G306" s="193"/>
+      <c r="H306" s="193"/>
+      <c r="I306" s="193"/>
+      <c r="J306" s="193"/>
+      <c r="K306" s="194"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="12">
@@ -13512,14 +13509,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="220"/>
-      <c r="E307" s="204"/>
-      <c r="F307" s="204"/>
-      <c r="G307" s="204"/>
-      <c r="H307" s="204"/>
-      <c r="I307" s="204"/>
-      <c r="J307" s="204"/>
-      <c r="K307" s="221"/>
+      <c r="D307" s="195"/>
+      <c r="E307" s="196"/>
+      <c r="F307" s="196"/>
+      <c r="G307" s="196"/>
+      <c r="H307" s="196"/>
+      <c r="I307" s="196"/>
+      <c r="J307" s="196"/>
+      <c r="K307" s="197"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="12">
@@ -13531,16 +13528,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="214" t="s">
+      <c r="D308" s="192" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="210"/>
-      <c r="F308" s="210"/>
-      <c r="G308" s="210"/>
-      <c r="H308" s="210"/>
-      <c r="I308" s="210"/>
-      <c r="J308" s="210"/>
-      <c r="K308" s="211"/>
+      <c r="E308" s="193"/>
+      <c r="F308" s="193"/>
+      <c r="G308" s="193"/>
+      <c r="H308" s="193"/>
+      <c r="I308" s="193"/>
+      <c r="J308" s="193"/>
+      <c r="K308" s="194"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="12">
@@ -13552,14 +13549,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="220"/>
-      <c r="E309" s="204"/>
-      <c r="F309" s="204"/>
-      <c r="G309" s="204"/>
-      <c r="H309" s="204"/>
-      <c r="I309" s="204"/>
-      <c r="J309" s="204"/>
-      <c r="K309" s="221"/>
+      <c r="D309" s="195"/>
+      <c r="E309" s="196"/>
+      <c r="F309" s="196"/>
+      <c r="G309" s="196"/>
+      <c r="H309" s="196"/>
+      <c r="I309" s="196"/>
+      <c r="J309" s="196"/>
+      <c r="K309" s="197"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="12">
@@ -21846,16 +21843,16 @@
         <f t="shared" si="35"/>
         <v>DB8</v>
       </c>
-      <c r="D954" s="230" t="s">
+      <c r="D954" s="190" t="s">
         <v>470</v>
       </c>
-      <c r="E954" s="231"/>
-      <c r="F954" s="231"/>
-      <c r="G954" s="231"/>
-      <c r="H954" s="231"/>
-      <c r="I954" s="231"/>
-      <c r="J954" s="231"/>
-      <c r="K954" s="231"/>
+      <c r="E954" s="191"/>
+      <c r="F954" s="191"/>
+      <c r="G954" s="191"/>
+      <c r="H954" s="191"/>
+      <c r="I954" s="191"/>
+      <c r="J954" s="191"/>
+      <c r="K954" s="191"/>
     </row>
     <row r="955" spans="1:11">
       <c r="A955" s="12">
@@ -24689,13 +24686,40 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D954:K954"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="D168:K168"/>
+    <mergeCell ref="D175:K175"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D95:K95"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D250:K250"/>
+    <mergeCell ref="D280:K280"/>
+    <mergeCell ref="D286:K286"/>
+    <mergeCell ref="D206:K206"/>
+    <mergeCell ref="D208:K208"/>
     <mergeCell ref="D296:K296"/>
     <mergeCell ref="D240:K241"/>
     <mergeCell ref="D2:K3"/>
@@ -24712,40 +24736,13 @@
     <mergeCell ref="D200:K200"/>
     <mergeCell ref="D202:K202"/>
     <mergeCell ref="D204:K204"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D250:K250"/>
-    <mergeCell ref="D280:K280"/>
-    <mergeCell ref="D286:K286"/>
-    <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="D168:K168"/>
-    <mergeCell ref="D175:K175"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D95:K95"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D954:K954"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24761,7 +24758,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -24831,16 +24828,16 @@
         <f>8*A2&amp;"-"&amp;(8*A2+7)</f>
         <v>0-7</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="211"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
       <c r="M2" s="3">
         <v>16</v>
       </c>
@@ -24862,14 +24859,14 @@
         <f t="shared" ref="C3:C33" si="2">8*A3&amp;"-"&amp;(8*A3+7)</f>
         <v>8-15</v>
       </c>
-      <c r="D3" s="220"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="217"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="205"/>
       <c r="M3" s="3">
         <v>17</v>
       </c>
@@ -31118,16 +31115,16 @@
         <v>AB0</v>
       </c>
       <c r="C178" s="38"/>
-      <c r="D178" s="192" t="s">
+      <c r="D178" s="226" t="s">
         <v>350</v>
       </c>
-      <c r="E178" s="192"/>
-      <c r="F178" s="192"/>
-      <c r="G178" s="192"/>
-      <c r="H178" s="192"/>
-      <c r="I178" s="192"/>
-      <c r="J178" s="192"/>
-      <c r="K178" s="192"/>
+      <c r="E178" s="226"/>
+      <c r="F178" s="226"/>
+      <c r="G178" s="226"/>
+      <c r="H178" s="226"/>
+      <c r="I178" s="226"/>
+      <c r="J178" s="226"/>
+      <c r="K178" s="226"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="12">
@@ -31196,16 +31193,16 @@
         <v>AB4</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="197" t="s">
+      <c r="D182" s="198" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="198"/>
-      <c r="F182" s="198"/>
-      <c r="G182" s="198"/>
-      <c r="H182" s="198"/>
-      <c r="I182" s="198"/>
-      <c r="J182" s="198"/>
-      <c r="K182" s="199"/>
+      <c r="E182" s="199"/>
+      <c r="F182" s="199"/>
+      <c r="G182" s="199"/>
+      <c r="H182" s="199"/>
+      <c r="I182" s="199"/>
+      <c r="J182" s="199"/>
+      <c r="K182" s="200"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="12">
@@ -31217,16 +31214,16 @@
         <v>AB5</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="197" t="s">
+      <c r="D183" s="198" t="s">
         <v>352</v>
       </c>
-      <c r="E183" s="198"/>
-      <c r="F183" s="198"/>
-      <c r="G183" s="198"/>
-      <c r="H183" s="198"/>
-      <c r="I183" s="198"/>
-      <c r="J183" s="198"/>
-      <c r="K183" s="199"/>
+      <c r="E183" s="199"/>
+      <c r="F183" s="199"/>
+      <c r="G183" s="199"/>
+      <c r="H183" s="199"/>
+      <c r="I183" s="199"/>
+      <c r="J183" s="199"/>
+      <c r="K183" s="200"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="12">
@@ -31238,16 +31235,16 @@
         <v>AB6</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="197" t="s">
+      <c r="D184" s="198" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="198"/>
-      <c r="F184" s="198"/>
-      <c r="G184" s="198"/>
-      <c r="H184" s="198"/>
-      <c r="I184" s="198"/>
-      <c r="J184" s="198"/>
-      <c r="K184" s="199"/>
+      <c r="E184" s="199"/>
+      <c r="F184" s="199"/>
+      <c r="G184" s="199"/>
+      <c r="H184" s="199"/>
+      <c r="I184" s="199"/>
+      <c r="J184" s="199"/>
+      <c r="K184" s="200"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="12">
@@ -31259,16 +31256,16 @@
         <v>AB7</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="197" t="s">
+      <c r="D185" s="198" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="198"/>
-      <c r="F185" s="198"/>
-      <c r="G185" s="198"/>
-      <c r="H185" s="198"/>
-      <c r="I185" s="198"/>
-      <c r="J185" s="198"/>
-      <c r="K185" s="199"/>
+      <c r="E185" s="199"/>
+      <c r="F185" s="199"/>
+      <c r="G185" s="199"/>
+      <c r="H185" s="199"/>
+      <c r="I185" s="199"/>
+      <c r="J185" s="199"/>
+      <c r="K185" s="200"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="12">
@@ -31280,16 +31277,16 @@
         <v>AB8</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="197" t="s">
+      <c r="D186" s="198" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="198"/>
-      <c r="F186" s="198"/>
-      <c r="G186" s="198"/>
-      <c r="H186" s="198"/>
-      <c r="I186" s="198"/>
-      <c r="J186" s="198"/>
-      <c r="K186" s="199"/>
+      <c r="E186" s="199"/>
+      <c r="F186" s="199"/>
+      <c r="G186" s="199"/>
+      <c r="H186" s="199"/>
+      <c r="I186" s="199"/>
+      <c r="J186" s="199"/>
+      <c r="K186" s="200"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="12">
@@ -31301,16 +31298,16 @@
         <v>AB9</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="197" t="s">
+      <c r="D187" s="198" t="s">
         <v>356</v>
       </c>
-      <c r="E187" s="198"/>
-      <c r="F187" s="198"/>
-      <c r="G187" s="198"/>
-      <c r="H187" s="198"/>
-      <c r="I187" s="198"/>
-      <c r="J187" s="198"/>
-      <c r="K187" s="199"/>
+      <c r="E187" s="199"/>
+      <c r="F187" s="199"/>
+      <c r="G187" s="199"/>
+      <c r="H187" s="199"/>
+      <c r="I187" s="199"/>
+      <c r="J187" s="199"/>
+      <c r="K187" s="200"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="12">
@@ -31322,16 +31319,16 @@
         <v>ABA</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="197" t="s">
+      <c r="D188" s="198" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="198"/>
-      <c r="F188" s="198"/>
-      <c r="G188" s="198"/>
-      <c r="H188" s="198"/>
-      <c r="I188" s="198"/>
-      <c r="J188" s="198"/>
-      <c r="K188" s="199"/>
+      <c r="E188" s="199"/>
+      <c r="F188" s="199"/>
+      <c r="G188" s="199"/>
+      <c r="H188" s="199"/>
+      <c r="I188" s="199"/>
+      <c r="J188" s="199"/>
+      <c r="K188" s="200"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="12">
@@ -31343,16 +31340,16 @@
         <v>ABB</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="197" t="s">
+      <c r="D189" s="198" t="s">
         <v>358</v>
       </c>
-      <c r="E189" s="198"/>
-      <c r="F189" s="198"/>
-      <c r="G189" s="198"/>
-      <c r="H189" s="198"/>
-      <c r="I189" s="198"/>
-      <c r="J189" s="198"/>
-      <c r="K189" s="199"/>
+      <c r="E189" s="199"/>
+      <c r="F189" s="199"/>
+      <c r="G189" s="199"/>
+      <c r="H189" s="199"/>
+      <c r="I189" s="199"/>
+      <c r="J189" s="199"/>
+      <c r="K189" s="200"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="12">
@@ -31364,16 +31361,16 @@
         <v>ABC</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="197" t="s">
+      <c r="D190" s="198" t="s">
         <v>359</v>
       </c>
-      <c r="E190" s="198"/>
-      <c r="F190" s="198"/>
-      <c r="G190" s="198"/>
-      <c r="H190" s="198"/>
-      <c r="I190" s="198"/>
-      <c r="J190" s="198"/>
-      <c r="K190" s="199"/>
+      <c r="E190" s="199"/>
+      <c r="F190" s="199"/>
+      <c r="G190" s="199"/>
+      <c r="H190" s="199"/>
+      <c r="I190" s="199"/>
+      <c r="J190" s="199"/>
+      <c r="K190" s="200"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="12">
@@ -31385,16 +31382,16 @@
         <v>ABD</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="197" t="s">
+      <c r="D191" s="198" t="s">
         <v>360</v>
       </c>
-      <c r="E191" s="198"/>
-      <c r="F191" s="198"/>
-      <c r="G191" s="198"/>
-      <c r="H191" s="198"/>
-      <c r="I191" s="198"/>
-      <c r="J191" s="198"/>
-      <c r="K191" s="199"/>
+      <c r="E191" s="199"/>
+      <c r="F191" s="199"/>
+      <c r="G191" s="199"/>
+      <c r="H191" s="199"/>
+      <c r="I191" s="199"/>
+      <c r="J191" s="199"/>
+      <c r="K191" s="200"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="12">
@@ -31406,16 +31403,16 @@
         <v>ABE</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="197" t="s">
+      <c r="D192" s="198" t="s">
         <v>361</v>
       </c>
-      <c r="E192" s="198"/>
-      <c r="F192" s="198"/>
-      <c r="G192" s="198"/>
-      <c r="H192" s="198"/>
-      <c r="I192" s="198"/>
-      <c r="J192" s="198"/>
-      <c r="K192" s="199"/>
+      <c r="E192" s="199"/>
+      <c r="F192" s="199"/>
+      <c r="G192" s="199"/>
+      <c r="H192" s="199"/>
+      <c r="I192" s="199"/>
+      <c r="J192" s="199"/>
+      <c r="K192" s="200"/>
     </row>
     <row r="193" spans="1:14" s="1" customFormat="1">
       <c r="A193" s="31">
@@ -31427,16 +31424,16 @@
         <v>ABF</v>
       </c>
       <c r="C193" s="32"/>
-      <c r="D193" s="200" t="s">
+      <c r="D193" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="201"/>
-      <c r="F193" s="201"/>
-      <c r="G193" s="201"/>
-      <c r="H193" s="201"/>
-      <c r="I193" s="201"/>
-      <c r="J193" s="201"/>
-      <c r="K193" s="202"/>
+      <c r="E193" s="223"/>
+      <c r="F193" s="223"/>
+      <c r="G193" s="223"/>
+      <c r="H193" s="223"/>
+      <c r="I193" s="223"/>
+      <c r="J193" s="223"/>
+      <c r="K193" s="224"/>
       <c r="L193" s="56"/>
       <c r="M193" s="57"/>
       <c r="N193" s="57"/>
@@ -31451,16 +31448,16 @@
         <v>AC0</v>
       </c>
       <c r="C194" s="38"/>
-      <c r="D194" s="203" t="s">
+      <c r="D194" s="208" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="204"/>
-      <c r="F194" s="204"/>
-      <c r="G194" s="204"/>
-      <c r="H194" s="204"/>
-      <c r="I194" s="204"/>
-      <c r="J194" s="204"/>
-      <c r="K194" s="205"/>
+      <c r="E194" s="196"/>
+      <c r="F194" s="196"/>
+      <c r="G194" s="196"/>
+      <c r="H194" s="196"/>
+      <c r="I194" s="196"/>
+      <c r="J194" s="196"/>
+      <c r="K194" s="209"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="12">
@@ -31472,16 +31469,16 @@
         <v>AC1</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="197" t="s">
+      <c r="D195" s="198" t="s">
         <v>364</v>
       </c>
-      <c r="E195" s="198"/>
-      <c r="F195" s="198"/>
-      <c r="G195" s="198"/>
-      <c r="H195" s="198"/>
-      <c r="I195" s="198"/>
-      <c r="J195" s="198"/>
-      <c r="K195" s="199"/>
+      <c r="E195" s="199"/>
+      <c r="F195" s="199"/>
+      <c r="G195" s="199"/>
+      <c r="H195" s="199"/>
+      <c r="I195" s="199"/>
+      <c r="J195" s="199"/>
+      <c r="K195" s="200"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="12">
@@ -31493,16 +31490,16 @@
         <v>AC2</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="197" t="s">
+      <c r="D196" s="198" t="s">
         <v>365</v>
       </c>
-      <c r="E196" s="198"/>
-      <c r="F196" s="198"/>
-      <c r="G196" s="198"/>
-      <c r="H196" s="198"/>
-      <c r="I196" s="198"/>
-      <c r="J196" s="198"/>
-      <c r="K196" s="199"/>
+      <c r="E196" s="199"/>
+      <c r="F196" s="199"/>
+      <c r="G196" s="199"/>
+      <c r="H196" s="199"/>
+      <c r="I196" s="199"/>
+      <c r="J196" s="199"/>
+      <c r="K196" s="200"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="12">
@@ -31514,16 +31511,16 @@
         <v>AC3</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="197" t="s">
+      <c r="D197" s="198" t="s">
         <v>366</v>
       </c>
-      <c r="E197" s="198"/>
-      <c r="F197" s="198"/>
-      <c r="G197" s="198"/>
-      <c r="H197" s="198"/>
-      <c r="I197" s="198"/>
-      <c r="J197" s="198"/>
-      <c r="K197" s="199"/>
+      <c r="E197" s="199"/>
+      <c r="F197" s="199"/>
+      <c r="G197" s="199"/>
+      <c r="H197" s="199"/>
+      <c r="I197" s="199"/>
+      <c r="J197" s="199"/>
+      <c r="K197" s="200"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="12">
@@ -31535,16 +31532,16 @@
         <v>AC4</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="197" t="s">
+      <c r="D198" s="198" t="s">
         <v>367</v>
       </c>
-      <c r="E198" s="198"/>
-      <c r="F198" s="198"/>
-      <c r="G198" s="198"/>
-      <c r="H198" s="198"/>
-      <c r="I198" s="198"/>
-      <c r="J198" s="198"/>
-      <c r="K198" s="199"/>
+      <c r="E198" s="199"/>
+      <c r="F198" s="199"/>
+      <c r="G198" s="199"/>
+      <c r="H198" s="199"/>
+      <c r="I198" s="199"/>
+      <c r="J198" s="199"/>
+      <c r="K198" s="200"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="12">
@@ -31575,16 +31572,16 @@
         <v>AC6</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="197" t="s">
+      <c r="D200" s="198" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="198"/>
-      <c r="F200" s="198"/>
-      <c r="G200" s="198"/>
-      <c r="H200" s="198"/>
-      <c r="I200" s="198"/>
-      <c r="J200" s="198"/>
-      <c r="K200" s="199"/>
+      <c r="E200" s="199"/>
+      <c r="F200" s="199"/>
+      <c r="G200" s="199"/>
+      <c r="H200" s="199"/>
+      <c r="I200" s="199"/>
+      <c r="J200" s="199"/>
+      <c r="K200" s="200"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="12">
@@ -31615,16 +31612,16 @@
         <v>AC8</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="227" t="s">
+      <c r="D202" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="E202" s="228"/>
-      <c r="F202" s="228"/>
-      <c r="G202" s="228"/>
-      <c r="H202" s="228"/>
-      <c r="I202" s="228"/>
-      <c r="J202" s="228"/>
-      <c r="K202" s="229"/>
+      <c r="E202" s="217"/>
+      <c r="F202" s="217"/>
+      <c r="G202" s="217"/>
+      <c r="H202" s="217"/>
+      <c r="I202" s="217"/>
+      <c r="J202" s="217"/>
+      <c r="K202" s="218"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="12">
@@ -31655,16 +31652,16 @@
         <v>ACA</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="197" t="s">
+      <c r="D204" s="198" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="198"/>
-      <c r="F204" s="198"/>
-      <c r="G204" s="198"/>
-      <c r="H204" s="198"/>
-      <c r="I204" s="198"/>
-      <c r="J204" s="198"/>
-      <c r="K204" s="199"/>
+      <c r="E204" s="199"/>
+      <c r="F204" s="199"/>
+      <c r="G204" s="199"/>
+      <c r="H204" s="199"/>
+      <c r="I204" s="199"/>
+      <c r="J204" s="199"/>
+      <c r="K204" s="200"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="12">
@@ -31695,16 +31692,16 @@
         <v>ACC</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="197" t="s">
+      <c r="D206" s="198" t="s">
         <v>370</v>
       </c>
-      <c r="E206" s="198"/>
-      <c r="F206" s="198"/>
-      <c r="G206" s="198"/>
-      <c r="H206" s="198"/>
-      <c r="I206" s="198"/>
-      <c r="J206" s="198"/>
-      <c r="K206" s="199"/>
+      <c r="E206" s="199"/>
+      <c r="F206" s="199"/>
+      <c r="G206" s="199"/>
+      <c r="H206" s="199"/>
+      <c r="I206" s="199"/>
+      <c r="J206" s="199"/>
+      <c r="K206" s="200"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="12">
@@ -31735,16 +31732,16 @@
         <v>ACE</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="197" t="s">
+      <c r="D208" s="198" t="s">
         <v>371</v>
       </c>
-      <c r="E208" s="198"/>
-      <c r="F208" s="198"/>
-      <c r="G208" s="198"/>
-      <c r="H208" s="198"/>
-      <c r="I208" s="198"/>
-      <c r="J208" s="198"/>
-      <c r="K208" s="199"/>
+      <c r="E208" s="199"/>
+      <c r="F208" s="199"/>
+      <c r="G208" s="199"/>
+      <c r="H208" s="199"/>
+      <c r="I208" s="199"/>
+      <c r="J208" s="199"/>
+      <c r="K208" s="200"/>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1">
       <c r="A209" s="31">
@@ -31778,16 +31775,16 @@
         <v>AD0</v>
       </c>
       <c r="C210" s="38"/>
-      <c r="D210" s="203" t="s">
+      <c r="D210" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="E210" s="204"/>
-      <c r="F210" s="204"/>
-      <c r="G210" s="204"/>
-      <c r="H210" s="204"/>
-      <c r="I210" s="204"/>
-      <c r="J210" s="204"/>
-      <c r="K210" s="205"/>
+      <c r="E210" s="196"/>
+      <c r="F210" s="196"/>
+      <c r="G210" s="196"/>
+      <c r="H210" s="196"/>
+      <c r="I210" s="196"/>
+      <c r="J210" s="196"/>
+      <c r="K210" s="209"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="12">
@@ -31856,16 +31853,16 @@
         <v>AD4</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="197" t="s">
+      <c r="D214" s="198" t="s">
         <v>372</v>
       </c>
-      <c r="E214" s="198"/>
-      <c r="F214" s="198"/>
-      <c r="G214" s="198"/>
-      <c r="H214" s="198"/>
-      <c r="I214" s="198"/>
-      <c r="J214" s="198"/>
-      <c r="K214" s="199"/>
+      <c r="E214" s="199"/>
+      <c r="F214" s="199"/>
+      <c r="G214" s="199"/>
+      <c r="H214" s="199"/>
+      <c r="I214" s="199"/>
+      <c r="J214" s="199"/>
+      <c r="K214" s="200"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="12">
@@ -31896,16 +31893,16 @@
         <v>AD6</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="218" t="s">
+      <c r="D216" s="206" t="s">
         <v>373</v>
       </c>
-      <c r="E216" s="210"/>
-      <c r="F216" s="210"/>
-      <c r="G216" s="210"/>
-      <c r="H216" s="210"/>
-      <c r="I216" s="210"/>
-      <c r="J216" s="210"/>
-      <c r="K216" s="219"/>
+      <c r="E216" s="193"/>
+      <c r="F216" s="193"/>
+      <c r="G216" s="193"/>
+      <c r="H216" s="193"/>
+      <c r="I216" s="193"/>
+      <c r="J216" s="193"/>
+      <c r="K216" s="207"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="12">
@@ -31917,14 +31914,14 @@
         <v>AD7</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="203"/>
-      <c r="E217" s="204"/>
-      <c r="F217" s="204"/>
-      <c r="G217" s="204"/>
-      <c r="H217" s="204"/>
-      <c r="I217" s="204"/>
-      <c r="J217" s="204"/>
-      <c r="K217" s="205"/>
+      <c r="D217" s="208"/>
+      <c r="E217" s="196"/>
+      <c r="F217" s="196"/>
+      <c r="G217" s="196"/>
+      <c r="H217" s="196"/>
+      <c r="I217" s="196"/>
+      <c r="J217" s="196"/>
+      <c r="K217" s="209"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="12">
@@ -31936,16 +31933,16 @@
         <v>AD8</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="218" t="s">
+      <c r="D218" s="206" t="s">
         <v>374</v>
       </c>
-      <c r="E218" s="210"/>
-      <c r="F218" s="210"/>
-      <c r="G218" s="210"/>
-      <c r="H218" s="210"/>
-      <c r="I218" s="210"/>
-      <c r="J218" s="210"/>
-      <c r="K218" s="219"/>
+      <c r="E218" s="193"/>
+      <c r="F218" s="193"/>
+      <c r="G218" s="193"/>
+      <c r="H218" s="193"/>
+      <c r="I218" s="193"/>
+      <c r="J218" s="193"/>
+      <c r="K218" s="207"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="12">
@@ -31957,14 +31954,14 @@
         <v>AD9</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="203"/>
-      <c r="E219" s="204"/>
-      <c r="F219" s="204"/>
-      <c r="G219" s="204"/>
-      <c r="H219" s="204"/>
-      <c r="I219" s="204"/>
-      <c r="J219" s="204"/>
-      <c r="K219" s="205"/>
+      <c r="D219" s="208"/>
+      <c r="E219" s="196"/>
+      <c r="F219" s="196"/>
+      <c r="G219" s="196"/>
+      <c r="H219" s="196"/>
+      <c r="I219" s="196"/>
+      <c r="J219" s="196"/>
+      <c r="K219" s="209"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="12">
@@ -31976,16 +31973,16 @@
         <v>ADA</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="218" t="s">
+      <c r="D220" s="206" t="s">
         <v>375</v>
       </c>
-      <c r="E220" s="210"/>
-      <c r="F220" s="210"/>
-      <c r="G220" s="210"/>
-      <c r="H220" s="210"/>
-      <c r="I220" s="210"/>
-      <c r="J220" s="210"/>
-      <c r="K220" s="219"/>
+      <c r="E220" s="193"/>
+      <c r="F220" s="193"/>
+      <c r="G220" s="193"/>
+      <c r="H220" s="193"/>
+      <c r="I220" s="193"/>
+      <c r="J220" s="193"/>
+      <c r="K220" s="207"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="12">
@@ -31997,14 +31994,14 @@
         <v>ADB</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="203"/>
-      <c r="E221" s="204"/>
-      <c r="F221" s="204"/>
-      <c r="G221" s="204"/>
-      <c r="H221" s="204"/>
-      <c r="I221" s="204"/>
-      <c r="J221" s="204"/>
-      <c r="K221" s="205"/>
+      <c r="D221" s="208"/>
+      <c r="E221" s="196"/>
+      <c r="F221" s="196"/>
+      <c r="G221" s="196"/>
+      <c r="H221" s="196"/>
+      <c r="I221" s="196"/>
+      <c r="J221" s="196"/>
+      <c r="K221" s="209"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="12">
@@ -32016,16 +32013,16 @@
         <v>ADC</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="197" t="s">
+      <c r="D222" s="198" t="s">
         <v>376</v>
       </c>
-      <c r="E222" s="198"/>
-      <c r="F222" s="198"/>
-      <c r="G222" s="198"/>
-      <c r="H222" s="198"/>
-      <c r="I222" s="198"/>
-      <c r="J222" s="198"/>
-      <c r="K222" s="199"/>
+      <c r="E222" s="199"/>
+      <c r="F222" s="199"/>
+      <c r="G222" s="199"/>
+      <c r="H222" s="199"/>
+      <c r="I222" s="199"/>
+      <c r="J222" s="199"/>
+      <c r="K222" s="200"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="12">
@@ -32056,16 +32053,16 @@
         <v>ADE</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="197" t="s">
+      <c r="D224" s="198" t="s">
         <v>377</v>
       </c>
-      <c r="E224" s="198"/>
-      <c r="F224" s="198"/>
-      <c r="G224" s="198"/>
-      <c r="H224" s="198"/>
-      <c r="I224" s="198"/>
-      <c r="J224" s="198"/>
-      <c r="K224" s="199"/>
+      <c r="E224" s="199"/>
+      <c r="F224" s="199"/>
+      <c r="G224" s="199"/>
+      <c r="H224" s="199"/>
+      <c r="I224" s="199"/>
+      <c r="J224" s="199"/>
+      <c r="K224" s="200"/>
     </row>
     <row r="225" spans="1:14" s="1" customFormat="1">
       <c r="A225" s="31">
@@ -32099,16 +32096,16 @@
         <v>AE0</v>
       </c>
       <c r="C226" s="38"/>
-      <c r="D226" s="224" t="s">
+      <c r="D226" s="213" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="225"/>
-      <c r="F226" s="225"/>
-      <c r="G226" s="225"/>
-      <c r="H226" s="225"/>
-      <c r="I226" s="225"/>
-      <c r="J226" s="225"/>
-      <c r="K226" s="226"/>
+      <c r="E226" s="214"/>
+      <c r="F226" s="214"/>
+      <c r="G226" s="214"/>
+      <c r="H226" s="214"/>
+      <c r="I226" s="214"/>
+      <c r="J226" s="214"/>
+      <c r="K226" s="215"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="12">
@@ -32253,16 +32250,16 @@
         <v>AE8</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="222" t="s">
+      <c r="D234" s="210" t="s">
         <v>379</v>
       </c>
-      <c r="E234" s="207"/>
-      <c r="F234" s="207"/>
-      <c r="G234" s="207"/>
-      <c r="H234" s="207"/>
-      <c r="I234" s="207"/>
-      <c r="J234" s="207"/>
-      <c r="K234" s="223"/>
+      <c r="E234" s="211"/>
+      <c r="F234" s="211"/>
+      <c r="G234" s="211"/>
+      <c r="H234" s="211"/>
+      <c r="I234" s="211"/>
+      <c r="J234" s="211"/>
+      <c r="K234" s="212"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="12">
@@ -32331,16 +32328,16 @@
         <v>AEC</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="214" t="s">
+      <c r="D238" s="192" t="s">
         <v>380</v>
       </c>
-      <c r="E238" s="210"/>
-      <c r="F238" s="210"/>
-      <c r="G238" s="210"/>
-      <c r="H238" s="210"/>
-      <c r="I238" s="210"/>
-      <c r="J238" s="210"/>
-      <c r="K238" s="211"/>
+      <c r="E238" s="193"/>
+      <c r="F238" s="193"/>
+      <c r="G238" s="193"/>
+      <c r="H238" s="193"/>
+      <c r="I238" s="193"/>
+      <c r="J238" s="193"/>
+      <c r="K238" s="194"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="12">
@@ -32352,14 +32349,14 @@
         <v>AED</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="220"/>
-      <c r="E239" s="204"/>
-      <c r="F239" s="204"/>
-      <c r="G239" s="204"/>
-      <c r="H239" s="204"/>
-      <c r="I239" s="204"/>
-      <c r="J239" s="204"/>
-      <c r="K239" s="221"/>
+      <c r="D239" s="195"/>
+      <c r="E239" s="196"/>
+      <c r="F239" s="196"/>
+      <c r="G239" s="196"/>
+      <c r="H239" s="196"/>
+      <c r="I239" s="196"/>
+      <c r="J239" s="196"/>
+      <c r="K239" s="197"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="12">
@@ -32371,16 +32368,16 @@
         <v>AEE</v>
       </c>
       <c r="C240" s="68"/>
-      <c r="D240" s="210" t="s">
+      <c r="D240" s="193" t="s">
         <v>381</v>
       </c>
-      <c r="E240" s="210"/>
-      <c r="F240" s="210"/>
-      <c r="G240" s="210"/>
-      <c r="H240" s="210"/>
-      <c r="I240" s="210"/>
-      <c r="J240" s="210"/>
-      <c r="K240" s="211"/>
+      <c r="E240" s="193"/>
+      <c r="F240" s="193"/>
+      <c r="G240" s="193"/>
+      <c r="H240" s="193"/>
+      <c r="I240" s="193"/>
+      <c r="J240" s="193"/>
+      <c r="K240" s="194"/>
     </row>
     <row r="241" spans="1:14" s="1" customFormat="1">
       <c r="A241" s="31">
@@ -32392,14 +32389,14 @@
         <v>AEF</v>
       </c>
       <c r="C241" s="33"/>
-      <c r="D241" s="212"/>
-      <c r="E241" s="212"/>
-      <c r="F241" s="212"/>
-      <c r="G241" s="212"/>
-      <c r="H241" s="212"/>
-      <c r="I241" s="212"/>
-      <c r="J241" s="212"/>
-      <c r="K241" s="213"/>
+      <c r="D241" s="201"/>
+      <c r="E241" s="201"/>
+      <c r="F241" s="201"/>
+      <c r="G241" s="201"/>
+      <c r="H241" s="201"/>
+      <c r="I241" s="201"/>
+      <c r="J241" s="201"/>
+      <c r="K241" s="202"/>
       <c r="L241" s="56"/>
       <c r="M241" s="57"/>
       <c r="N241" s="57"/>
@@ -32590,16 +32587,16 @@
         <v>AF8</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="206" t="s">
+      <c r="D250" s="219" t="s">
         <v>382</v>
       </c>
-      <c r="E250" s="207"/>
-      <c r="F250" s="207"/>
-      <c r="G250" s="207"/>
-      <c r="H250" s="207"/>
-      <c r="I250" s="207"/>
-      <c r="J250" s="207"/>
-      <c r="K250" s="208"/>
+      <c r="E250" s="211"/>
+      <c r="F250" s="211"/>
+      <c r="G250" s="211"/>
+      <c r="H250" s="211"/>
+      <c r="I250" s="211"/>
+      <c r="J250" s="211"/>
+      <c r="K250" s="220"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="12">
@@ -33168,16 +33165,16 @@
         <v>B16</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="197" t="s">
+      <c r="D280" s="198" t="s">
         <v>383</v>
       </c>
-      <c r="E280" s="198"/>
-      <c r="F280" s="198"/>
-      <c r="G280" s="198"/>
-      <c r="H280" s="198"/>
-      <c r="I280" s="198"/>
-      <c r="J280" s="198"/>
-      <c r="K280" s="199"/>
+      <c r="E280" s="199"/>
+      <c r="F280" s="199"/>
+      <c r="G280" s="199"/>
+      <c r="H280" s="199"/>
+      <c r="I280" s="199"/>
+      <c r="J280" s="199"/>
+      <c r="K280" s="200"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="12">
@@ -33284,16 +33281,16 @@
         <v>B1C</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="197" t="s">
+      <c r="D286" s="198" t="s">
         <v>384</v>
       </c>
-      <c r="E286" s="198"/>
-      <c r="F286" s="198"/>
-      <c r="G286" s="198"/>
-      <c r="H286" s="198"/>
-      <c r="I286" s="198"/>
-      <c r="J286" s="198"/>
-      <c r="K286" s="199"/>
+      <c r="E286" s="199"/>
+      <c r="F286" s="199"/>
+      <c r="G286" s="199"/>
+      <c r="H286" s="199"/>
+      <c r="I286" s="199"/>
+      <c r="J286" s="199"/>
+      <c r="K286" s="200"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="12">
@@ -33481,16 +33478,16 @@
         <v>B26</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="197" t="s">
+      <c r="D296" s="198" t="s">
         <v>386</v>
       </c>
-      <c r="E296" s="198"/>
-      <c r="F296" s="198"/>
-      <c r="G296" s="198"/>
-      <c r="H296" s="198"/>
-      <c r="I296" s="198"/>
-      <c r="J296" s="198"/>
-      <c r="K296" s="199"/>
+      <c r="E296" s="199"/>
+      <c r="F296" s="199"/>
+      <c r="G296" s="199"/>
+      <c r="H296" s="199"/>
+      <c r="I296" s="199"/>
+      <c r="J296" s="199"/>
+      <c r="K296" s="200"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="12">
@@ -33521,16 +33518,16 @@
         <v>B28</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="214" t="s">
+      <c r="D298" s="192" t="s">
         <v>387</v>
       </c>
-      <c r="E298" s="210"/>
-      <c r="F298" s="210"/>
-      <c r="G298" s="210"/>
-      <c r="H298" s="210"/>
-      <c r="I298" s="210"/>
-      <c r="J298" s="210"/>
-      <c r="K298" s="211"/>
+      <c r="E298" s="193"/>
+      <c r="F298" s="193"/>
+      <c r="G298" s="193"/>
+      <c r="H298" s="193"/>
+      <c r="I298" s="193"/>
+      <c r="J298" s="193"/>
+      <c r="K298" s="194"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="12">
@@ -33542,14 +33539,14 @@
         <v>B29</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="220"/>
-      <c r="E299" s="204"/>
-      <c r="F299" s="204"/>
-      <c r="G299" s="204"/>
-      <c r="H299" s="204"/>
-      <c r="I299" s="204"/>
-      <c r="J299" s="204"/>
-      <c r="K299" s="221"/>
+      <c r="D299" s="195"/>
+      <c r="E299" s="196"/>
+      <c r="F299" s="196"/>
+      <c r="G299" s="196"/>
+      <c r="H299" s="196"/>
+      <c r="I299" s="196"/>
+      <c r="J299" s="196"/>
+      <c r="K299" s="197"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="12">
@@ -33561,16 +33558,16 @@
         <v>B2A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="214" t="s">
+      <c r="D300" s="192" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="210"/>
-      <c r="F300" s="210"/>
-      <c r="G300" s="210"/>
-      <c r="H300" s="210"/>
-      <c r="I300" s="210"/>
-      <c r="J300" s="210"/>
-      <c r="K300" s="211"/>
+      <c r="E300" s="193"/>
+      <c r="F300" s="193"/>
+      <c r="G300" s="193"/>
+      <c r="H300" s="193"/>
+      <c r="I300" s="193"/>
+      <c r="J300" s="193"/>
+      <c r="K300" s="194"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="12">
@@ -33582,14 +33579,14 @@
         <v>B2B</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="220"/>
-      <c r="E301" s="204"/>
-      <c r="F301" s="204"/>
-      <c r="G301" s="204"/>
-      <c r="H301" s="204"/>
-      <c r="I301" s="204"/>
-      <c r="J301" s="204"/>
-      <c r="K301" s="221"/>
+      <c r="D301" s="195"/>
+      <c r="E301" s="196"/>
+      <c r="F301" s="196"/>
+      <c r="G301" s="196"/>
+      <c r="H301" s="196"/>
+      <c r="I301" s="196"/>
+      <c r="J301" s="196"/>
+      <c r="K301" s="197"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="12">
@@ -33601,16 +33598,16 @@
         <v>B2C</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="214" t="s">
+      <c r="D302" s="192" t="s">
         <v>389</v>
       </c>
-      <c r="E302" s="210"/>
-      <c r="F302" s="210"/>
-      <c r="G302" s="210"/>
-      <c r="H302" s="210"/>
-      <c r="I302" s="210"/>
-      <c r="J302" s="210"/>
-      <c r="K302" s="211"/>
+      <c r="E302" s="193"/>
+      <c r="F302" s="193"/>
+      <c r="G302" s="193"/>
+      <c r="H302" s="193"/>
+      <c r="I302" s="193"/>
+      <c r="J302" s="193"/>
+      <c r="K302" s="194"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="12">
@@ -33622,14 +33619,14 @@
         <v>B2D</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="220"/>
-      <c r="E303" s="204"/>
-      <c r="F303" s="204"/>
-      <c r="G303" s="204"/>
-      <c r="H303" s="204"/>
-      <c r="I303" s="204"/>
-      <c r="J303" s="204"/>
-      <c r="K303" s="221"/>
+      <c r="D303" s="195"/>
+      <c r="E303" s="196"/>
+      <c r="F303" s="196"/>
+      <c r="G303" s="196"/>
+      <c r="H303" s="196"/>
+      <c r="I303" s="196"/>
+      <c r="J303" s="196"/>
+      <c r="K303" s="197"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="12">
@@ -33641,16 +33638,16 @@
         <v>B2E</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="214" t="s">
+      <c r="D304" s="192" t="s">
         <v>390</v>
       </c>
-      <c r="E304" s="210"/>
-      <c r="F304" s="210"/>
-      <c r="G304" s="210"/>
-      <c r="H304" s="210"/>
-      <c r="I304" s="210"/>
-      <c r="J304" s="210"/>
-      <c r="K304" s="211"/>
+      <c r="E304" s="193"/>
+      <c r="F304" s="193"/>
+      <c r="G304" s="193"/>
+      <c r="H304" s="193"/>
+      <c r="I304" s="193"/>
+      <c r="J304" s="193"/>
+      <c r="K304" s="194"/>
     </row>
     <row r="305" spans="1:14" s="1" customFormat="1">
       <c r="A305" s="31">
@@ -33662,14 +33659,14 @@
         <v>B2F</v>
       </c>
       <c r="C305" s="32"/>
-      <c r="D305" s="220"/>
-      <c r="E305" s="204"/>
-      <c r="F305" s="204"/>
-      <c r="G305" s="204"/>
-      <c r="H305" s="204"/>
-      <c r="I305" s="204"/>
-      <c r="J305" s="204"/>
-      <c r="K305" s="221"/>
+      <c r="D305" s="195"/>
+      <c r="E305" s="196"/>
+      <c r="F305" s="196"/>
+      <c r="G305" s="196"/>
+      <c r="H305" s="196"/>
+      <c r="I305" s="196"/>
+      <c r="J305" s="196"/>
+      <c r="K305" s="197"/>
       <c r="L305" s="56"/>
       <c r="M305" s="57"/>
       <c r="N305" s="57"/>
@@ -33684,16 +33681,16 @@
         <v>B30</v>
       </c>
       <c r="C306" s="38"/>
-      <c r="D306" s="214" t="s">
+      <c r="D306" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="E306" s="210"/>
-      <c r="F306" s="210"/>
-      <c r="G306" s="210"/>
-      <c r="H306" s="210"/>
-      <c r="I306" s="210"/>
-      <c r="J306" s="210"/>
-      <c r="K306" s="211"/>
+      <c r="E306" s="193"/>
+      <c r="F306" s="193"/>
+      <c r="G306" s="193"/>
+      <c r="H306" s="193"/>
+      <c r="I306" s="193"/>
+      <c r="J306" s="193"/>
+      <c r="K306" s="194"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="12">
@@ -33705,14 +33702,14 @@
         <v>B31</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="220"/>
-      <c r="E307" s="204"/>
-      <c r="F307" s="204"/>
-      <c r="G307" s="204"/>
-      <c r="H307" s="204"/>
-      <c r="I307" s="204"/>
-      <c r="J307" s="204"/>
-      <c r="K307" s="221"/>
+      <c r="D307" s="195"/>
+      <c r="E307" s="196"/>
+      <c r="F307" s="196"/>
+      <c r="G307" s="196"/>
+      <c r="H307" s="196"/>
+      <c r="I307" s="196"/>
+      <c r="J307" s="196"/>
+      <c r="K307" s="197"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="12">
@@ -33724,16 +33721,16 @@
         <v>B32</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="214" t="s">
+      <c r="D308" s="192" t="s">
         <v>392</v>
       </c>
-      <c r="E308" s="210"/>
-      <c r="F308" s="210"/>
-      <c r="G308" s="210"/>
-      <c r="H308" s="210"/>
-      <c r="I308" s="210"/>
-      <c r="J308" s="210"/>
-      <c r="K308" s="211"/>
+      <c r="E308" s="193"/>
+      <c r="F308" s="193"/>
+      <c r="G308" s="193"/>
+      <c r="H308" s="193"/>
+      <c r="I308" s="193"/>
+      <c r="J308" s="193"/>
+      <c r="K308" s="194"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="12">
@@ -33745,14 +33742,14 @@
         <v>B33</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="220"/>
-      <c r="E309" s="204"/>
-      <c r="F309" s="204"/>
-      <c r="G309" s="204"/>
-      <c r="H309" s="204"/>
-      <c r="I309" s="204"/>
-      <c r="J309" s="204"/>
-      <c r="K309" s="221"/>
+      <c r="D309" s="195"/>
+      <c r="E309" s="196"/>
+      <c r="F309" s="196"/>
+      <c r="G309" s="196"/>
+      <c r="H309" s="196"/>
+      <c r="I309" s="196"/>
+      <c r="J309" s="196"/>
+      <c r="K309" s="197"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="12">
@@ -37632,12 +37629,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D308:K309"/>
-    <mergeCell ref="D298:K299"/>
-    <mergeCell ref="D300:K301"/>
-    <mergeCell ref="D302:K303"/>
-    <mergeCell ref="D304:K305"/>
-    <mergeCell ref="D306:K307"/>
+    <mergeCell ref="D178:K178"/>
+    <mergeCell ref="D182:K182"/>
+    <mergeCell ref="D183:K183"/>
+    <mergeCell ref="D184:K184"/>
+    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D186:K186"/>
+    <mergeCell ref="D187:K187"/>
+    <mergeCell ref="D188:K188"/>
+    <mergeCell ref="D189:K189"/>
+    <mergeCell ref="D190:K190"/>
+    <mergeCell ref="D191:K191"/>
+    <mergeCell ref="D192:K192"/>
+    <mergeCell ref="D193:K193"/>
+    <mergeCell ref="D194:K194"/>
+    <mergeCell ref="D195:K195"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D214:K214"/>
+    <mergeCell ref="D196:K196"/>
+    <mergeCell ref="D197:K197"/>
+    <mergeCell ref="D198:K198"/>
+    <mergeCell ref="D200:K200"/>
+    <mergeCell ref="D202:K202"/>
     <mergeCell ref="D280:K280"/>
     <mergeCell ref="D286:K286"/>
     <mergeCell ref="D296:K296"/>
@@ -37654,29 +37668,12 @@
     <mergeCell ref="D250:K250"/>
     <mergeCell ref="D204:K204"/>
     <mergeCell ref="D206:K206"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D214:K214"/>
-    <mergeCell ref="D196:K196"/>
-    <mergeCell ref="D197:K197"/>
-    <mergeCell ref="D198:K198"/>
-    <mergeCell ref="D200:K200"/>
-    <mergeCell ref="D202:K202"/>
-    <mergeCell ref="D191:K191"/>
-    <mergeCell ref="D192:K192"/>
-    <mergeCell ref="D193:K193"/>
-    <mergeCell ref="D194:K194"/>
-    <mergeCell ref="D195:K195"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="D189:K189"/>
-    <mergeCell ref="D190:K190"/>
-    <mergeCell ref="D178:K178"/>
-    <mergeCell ref="D182:K182"/>
-    <mergeCell ref="D183:K183"/>
-    <mergeCell ref="D184:K184"/>
-    <mergeCell ref="D185:K185"/>
+    <mergeCell ref="D308:K309"/>
+    <mergeCell ref="D298:K299"/>
+    <mergeCell ref="D300:K301"/>
+    <mergeCell ref="D302:K303"/>
+    <mergeCell ref="D304:K305"/>
+    <mergeCell ref="D306:K307"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="landscape"/>
@@ -38082,25 +38079,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="141" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="141" t="s">
         <v>518</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="141" t="s">
         <v>561</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="142" t="s">
         <v>693</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="142" t="s">
         <v>692</v>
       </c>
     </row>
@@ -38108,16 +38105,16 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="138" t="s">
         <v>524</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="138" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -38131,16 +38128,16 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>525</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>527</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -38154,19 +38151,19 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="138" t="s">
         <v>524</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="138" t="s">
         <v>526</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="140" t="s">
         <v>562</v>
       </c>
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="148" t="s">
         <v>704</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -38177,16 +38174,16 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="138" t="s">
         <v>521</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="138" t="s">
         <v>522</v>
       </c>
-      <c r="F6" s="141" t="s">
+      <c r="F6" s="140" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38194,16 +38191,16 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="139" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="139" t="s">
         <v>530</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="139" t="s">
         <v>531</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="140" t="s">
         <v>562</v>
       </c>
     </row>
@@ -38211,16 +38208,16 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>528</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>530</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="139" t="s">
         <v>529</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="140" t="s">
         <v>564</v>
       </c>
     </row>
@@ -38228,16 +38225,16 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="139" t="s">
         <v>533</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="139" t="s">
         <v>534</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="140" t="s">
         <v>565</v>
       </c>
     </row>
@@ -38245,13 +38242,13 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="139" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="140" t="s">
+      <c r="E10" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38259,13 +38256,13 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="139" t="s">
         <v>536</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="139" t="s">
         <v>541</v>
       </c>
     </row>
@@ -38273,13 +38270,13 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38287,16 +38284,16 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="139" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="139" t="s">
         <v>539</v>
       </c>
-      <c r="F13" s="141" t="s">
+      <c r="F13" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -38310,16 +38307,16 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="139" t="s">
         <v>543</v>
       </c>
-      <c r="F14" s="141" t="s">
+      <c r="F14" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -38333,16 +38330,16 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="139" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="139" t="s">
         <v>545</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="140" t="s">
         <v>566</v>
       </c>
     </row>
@@ -38350,16 +38347,16 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="D16" s="140" t="s">
+      <c r="D16" s="139" t="s">
         <v>547</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="139" t="s">
         <v>547</v>
       </c>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="140" t="s">
         <v>567</v>
       </c>
     </row>
@@ -38367,16 +38364,16 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="139" t="s">
         <v>550</v>
       </c>
-      <c r="E17" s="140" t="s">
+      <c r="E17" s="139" t="s">
         <v>549</v>
       </c>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="140" t="s">
         <v>568</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -38390,13 +38387,13 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="139" t="s">
         <v>551</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38404,16 +38401,16 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="139" t="s">
         <v>550</v>
       </c>
-      <c r="E19" s="140" t="s">
+      <c r="E19" s="139" t="s">
         <v>553</v>
       </c>
-      <c r="F19" s="141" t="s">
+      <c r="F19" s="140" t="s">
         <v>569</v>
       </c>
     </row>
@@ -38421,13 +38418,13 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="139" t="s">
         <v>554</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38435,13 +38432,13 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="139" t="s">
         <v>548</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="139" t="s">
         <v>552</v>
       </c>
-      <c r="E21" s="140" t="s">
+      <c r="E21" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38449,16 +38446,16 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="D22" s="140" t="s">
+      <c r="D22" s="139" t="s">
         <v>556</v>
       </c>
-      <c r="E22" s="140" t="s">
+      <c r="E22" s="139" t="s">
         <v>557</v>
       </c>
-      <c r="F22" s="141" t="s">
+      <c r="F22" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -38472,16 +38469,16 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="139" t="s">
         <v>558</v>
       </c>
-      <c r="D23" s="140" t="s">
+      <c r="D23" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E23" s="140" t="s">
+      <c r="E23" s="139" t="s">
         <v>559</v>
       </c>
-      <c r="F23" s="141" t="s">
+      <c r="F23" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -38495,16 +38492,16 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E24" s="140" t="s">
+      <c r="E24" s="139" t="s">
         <v>571</v>
       </c>
-      <c r="F24" s="141" t="s">
+      <c r="F24" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -38518,16 +38515,16 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="D25" s="140" t="s">
+      <c r="D25" s="139" t="s">
         <v>570</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="139" t="s">
         <v>572</v>
       </c>
-      <c r="F25" s="141" t="s">
+      <c r="F25" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -38541,13 +38538,13 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E26" s="140" t="s">
+      <c r="E26" s="139" t="s">
         <v>574</v>
       </c>
     </row>
@@ -38555,13 +38552,13 @@
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="D27" s="140" t="s">
+      <c r="D27" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="139" t="s">
         <v>573</v>
       </c>
     </row>
@@ -38569,13 +38566,13 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="139" t="s">
         <v>560</v>
       </c>
-      <c r="D28" s="140" t="s">
+      <c r="D28" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="E28" s="140" t="s">
+      <c r="E28" s="139" t="s">
         <v>575</v>
       </c>
     </row>
@@ -38583,13 +38580,13 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="D29" s="140" t="s">
+      <c r="D29" s="139" t="s">
         <v>577</v>
       </c>
-      <c r="E29" s="140" t="s">
+      <c r="E29" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38597,16 +38594,16 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="D30" s="140" t="s">
+      <c r="D30" s="139" t="s">
         <v>535</v>
       </c>
-      <c r="E30" s="140" t="s">
+      <c r="E30" s="139" t="s">
         <v>578</v>
       </c>
-      <c r="F30" s="141" t="s">
+      <c r="F30" s="140" t="s">
         <v>579</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -38620,16 +38617,16 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="139" t="s">
         <v>536</v>
       </c>
-      <c r="E31" s="140" t="s">
+      <c r="E31" s="139" t="s">
         <v>580</v>
       </c>
-      <c r="F31" s="141" t="s">
+      <c r="F31" s="140" t="s">
         <v>581</v>
       </c>
     </row>
@@ -38637,16 +38634,16 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="D32" s="140" t="s">
+      <c r="D32" s="139" t="s">
         <v>582</v>
       </c>
-      <c r="E32" s="140" t="s">
+      <c r="E32" s="139" t="s">
         <v>590</v>
       </c>
-      <c r="F32" s="141" t="s">
+      <c r="F32" s="140" t="s">
         <v>587</v>
       </c>
     </row>
@@ -38654,16 +38651,16 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="D33" s="140" t="s">
+      <c r="D33" s="139" t="s">
         <v>583</v>
       </c>
-      <c r="E33" s="140" t="s">
+      <c r="E33" s="139" t="s">
         <v>589</v>
       </c>
-      <c r="F33" s="141" t="s">
+      <c r="F33" s="140" t="s">
         <v>588</v>
       </c>
     </row>
@@ -38671,16 +38668,16 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="D34" s="140" t="s">
+      <c r="D34" s="139" t="s">
         <v>585</v>
       </c>
-      <c r="E34" s="140" t="s">
+      <c r="E34" s="139" t="s">
         <v>584</v>
       </c>
-      <c r="F34" s="141" t="s">
+      <c r="F34" s="140" t="s">
         <v>586</v>
       </c>
     </row>
@@ -38688,16 +38685,16 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="140" t="s">
+      <c r="C35" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D35" s="140" t="s">
+      <c r="D35" s="139" t="s">
         <v>592</v>
       </c>
-      <c r="E35" s="140" t="s">
+      <c r="E35" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="F35" s="141" t="s">
+      <c r="F35" s="140" t="s">
         <v>562</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -38711,13 +38708,13 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="140" t="s">
+      <c r="C36" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D36" s="140" t="s">
+      <c r="D36" s="139" t="s">
         <v>592</v>
       </c>
-      <c r="E36" s="140" t="s">
+      <c r="E36" s="139" t="s">
         <v>540</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -38731,16 +38728,16 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="140" t="s">
+      <c r="C37" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D37" s="140" t="s">
+      <c r="D37" s="139" t="s">
         <v>592</v>
       </c>
-      <c r="E37" s="140" t="s">
+      <c r="E37" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="F37" s="141" t="s">
+      <c r="F37" s="140" t="s">
         <v>593</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -38754,16 +38751,16 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D38" s="140" t="s">
+      <c r="D38" s="139" t="s">
         <v>595</v>
       </c>
-      <c r="E38" s="140" t="s">
+      <c r="E38" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="F38" s="141" t="s">
+      <c r="F38" s="140" t="s">
         <v>593</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -38777,13 +38774,13 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D39" s="140" t="s">
+      <c r="D39" s="139" t="s">
         <v>597</v>
       </c>
-      <c r="E39" s="140" t="s">
+      <c r="E39" s="139" t="s">
         <v>540</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -38797,16 +38794,16 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="140" t="s">
+      <c r="D40" s="139" t="s">
         <v>598</v>
       </c>
-      <c r="E40" s="140" t="s">
+      <c r="E40" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="F40" s="141" t="s">
+      <c r="F40" s="140" t="s">
         <v>593</v>
       </c>
     </row>
@@ -38814,13 +38811,13 @@
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="140" t="s">
+      <c r="C41" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D41" s="140" t="s">
+      <c r="D41" s="139" t="s">
         <v>594</v>
       </c>
-      <c r="E41" s="140" t="s">
+      <c r="E41" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38828,16 +38825,16 @@
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="139" t="s">
         <v>591</v>
       </c>
-      <c r="D42" s="140" t="s">
+      <c r="D42" s="139" t="s">
         <v>594</v>
       </c>
-      <c r="E42" s="140" t="s">
+      <c r="E42" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="F42" s="141" t="s">
+      <c r="F42" s="140" t="s">
         <v>593</v>
       </c>
     </row>
@@ -38845,13 +38842,13 @@
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="139" t="s">
         <v>596</v>
       </c>
-      <c r="D43" s="140" t="s">
+      <c r="D43" s="139" t="s">
         <v>604</v>
       </c>
-      <c r="E43" s="140" t="s">
+      <c r="E43" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38859,13 +38856,13 @@
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="139" t="s">
         <v>596</v>
       </c>
-      <c r="D44" s="140" t="s">
+      <c r="D44" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="E44" s="140" t="s">
+      <c r="E44" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38873,16 +38870,16 @@
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="140" t="s">
+      <c r="C45" s="139" t="s">
         <v>596</v>
       </c>
-      <c r="D45" s="140" t="s">
+      <c r="D45" s="139" t="s">
         <v>605</v>
       </c>
-      <c r="E45" s="140" t="s">
+      <c r="E45" s="139" t="s">
         <v>599</v>
       </c>
-      <c r="F45" s="141" t="s">
+      <c r="F45" s="140" t="s">
         <v>600</v>
       </c>
     </row>
@@ -38890,13 +38887,13 @@
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="C46" s="139" t="s">
         <v>596</v>
       </c>
-      <c r="D46" s="140" t="s">
+      <c r="D46" s="139" t="s">
         <v>577</v>
       </c>
-      <c r="E46" s="140" t="s">
+      <c r="E46" s="139" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38904,16 +38901,16 @@
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="140" t="s">
+      <c r="C47" s="139" t="s">
         <v>596</v>
       </c>
-      <c r="D47" s="140" t="s">
+      <c r="D47" s="139" t="s">
         <v>603</v>
       </c>
-      <c r="E47" s="140" t="s">
+      <c r="E47" s="139" t="s">
         <v>602</v>
       </c>
-      <c r="F47" s="141" t="s">
+      <c r="F47" s="140" t="s">
         <v>601</v>
       </c>
     </row>
@@ -38921,7 +38918,7 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="140" t="s">
+      <c r="C48" s="139" t="s">
         <v>606</v>
       </c>
       <c r="D48" t="s">
@@ -38935,7 +38932,7 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="140" t="s">
+      <c r="C49" s="139" t="s">
         <v>606</v>
       </c>
       <c r="D49" t="s">
@@ -38949,7 +38946,7 @@
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="140" t="s">
+      <c r="C50" s="139" t="s">
         <v>606</v>
       </c>
       <c r="D50" t="s">
@@ -38966,7 +38963,7 @@
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="140" t="s">
+      <c r="C51" s="139" t="s">
         <v>606</v>
       </c>
       <c r="D51" t="s">
@@ -38983,7 +38980,7 @@
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="140" t="s">
+      <c r="C52" s="139" t="s">
         <v>606</v>
       </c>
       <c r="D52" t="s">
@@ -38997,7 +38994,7 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="140" t="s">
+      <c r="C53" s="139" t="s">
         <v>606</v>
       </c>
       <c r="D53" t="s">
@@ -39967,224 +39964,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="231" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="232"/>
+      <c r="C2" s="231"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:10">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="172" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="174" t="s">
+      <c r="D4" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="173" t="s">
+      <c r="E4" s="172" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="174" t="s">
+      <c r="F4" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="175" t="s">
+      <c r="G4" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="173" t="s">
+      <c r="J4" s="172" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="154" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="155" t="s">
         <v>730</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="155" t="s">
         <v>737</v>
       </c>
-      <c r="F5" s="165" t="s">
+      <c r="F5" s="164" t="s">
         <v>749</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="G5" s="155" t="s">
         <v>738</v>
       </c>
-      <c r="H5" s="159" t="s">
+      <c r="H5" s="158" t="s">
         <v>739</v>
       </c>
-      <c r="I5" s="156" t="s">
+      <c r="I5" s="155" t="s">
         <v>741</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="159" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="175" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="176" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="177" t="s">
         <v>467</v>
       </c>
-      <c r="F6" s="174" t="s">
+      <c r="F6" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="177" t="s">
+      <c r="I6" s="176" t="s">
         <v>439</v>
       </c>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="177" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="157" t="s">
         <v>732</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="151" t="s">
         <v>733</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="149" t="s">
         <v>723</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="155" t="s">
         <v>734</v>
       </c>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="149" t="s">
         <v>752</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="G7" s="152" t="s">
         <v>742</v>
       </c>
-      <c r="H7" s="153" t="s">
+      <c r="H7" s="152" t="s">
         <v>743</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="152" t="s">
         <v>744</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="152" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="177" t="s">
         <v>441</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="179" t="s">
         <v>445</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="181" t="s">
+      <c r="F8" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="178" t="s">
+      <c r="G8" s="177" t="s">
         <v>466</v>
       </c>
-      <c r="H8" s="182" t="s">
+      <c r="H8" s="181" t="s">
         <v>444</v>
       </c>
-      <c r="I8" s="175" t="s">
+      <c r="I8" s="174" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="183" t="s">
+      <c r="J8" s="182" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="60.75" thickBot="1">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="156" t="s">
         <v>728</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="160" t="s">
         <v>758</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="170" t="s">
         <v>760</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="166" t="s">
         <v>754</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="149" t="s">
         <v>751</v>
       </c>
-      <c r="G9" s="153" t="s">
+      <c r="G9" s="152" t="s">
         <v>750</v>
       </c>
-      <c r="H9" s="154" t="s">
+      <c r="H9" s="153" t="s">
         <v>729</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I9" s="151" t="s">
         <v>725</v>
       </c>
-      <c r="J9" s="153" t="s">
+      <c r="J9" s="152" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="183" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="184" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="185" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
     </row>
     <row r="11" spans="2:10" ht="30.75" thickBot="1">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="151" t="s">
         <v>731</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="150" t="s">
         <v>724</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="151" t="s">
+      <c r="D11" s="147"/>
+      <c r="E11" s="150" t="s">
         <v>727</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="2:10" ht="60.75" thickBot="1">
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>759</v>
       </c>
       <c r="C12" s="102" t="s">
@@ -40208,12 +40205,12 @@
       <c r="I12" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="J12" s="147" t="s">
+      <c r="J12" s="146" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B13" s="148"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="121" t="s">
         <v>433</v>
       </c>
@@ -40235,7 +40232,7 @@
       <c r="I13" s="100" t="s">
         <v>722</v>
       </c>
-      <c r="J13" s="148"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="105" t="s">
@@ -40256,9 +40253,9 @@
       <c r="G14" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="146"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="2:10" ht="75.75" thickBot="1">
       <c r="B15" s="108" t="s">
@@ -40272,14 +40269,14 @@
       <c r="F15" s="109"/>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="111" t="s">
         <v>237</v>
       </c>
@@ -40298,7 +40295,7 @@
       <c r="I16" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="J16" s="146"/>
+      <c r="J16" s="145"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="104"/>
@@ -40354,7 +40351,7 @@
       <c r="C20" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="D20" s="170" t="s">
+      <c r="D20" s="169" t="s">
         <v>757</v>
       </c>
       <c r="E20" s="97"/>
@@ -40371,7 +40368,7 @@
       <c r="C21" s="116" t="s">
         <v>464</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="97"/>
       <c r="F21" s="97"/>
       <c r="G21" s="97"/>
@@ -40386,16 +40383,16 @@
       <c r="C22" s="118" t="s">
         <v>755</v>
       </c>
-      <c r="D22" s="169"/>
+      <c r="D22" s="168"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="119" t="s">
         <v>451</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="186" t="s">
         <v>756</v>
       </c>
-      <c r="D23" s="169"/>
+      <c r="D23" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="1">
